--- a/SDE Sheet.xlsx
+++ b/SDE Sheet.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\abans73\OneDrive - American Express\Desktop\Geek Goddess\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Src Code\Personal\SDE-Sheet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{320B42F4-4797-406A-B41C-1452E9B8D8F6}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{612A4EE0-5A31-4293-8BEC-386B33DB0862}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{83934561-A72F-4836-B1E7-4EE8C35F9874}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="92">
   <si>
     <t>Matrix</t>
   </si>
@@ -167,9 +167,6 @@
   </si>
   <si>
     <t>Hashing (HashMap and HashSet)</t>
-  </si>
-  <si>
-    <t>Trees</t>
   </si>
   <si>
     <t>Graphs</t>
@@ -310,13 +307,7 @@
     <t>Combination</t>
   </si>
   <si>
-    <t>Binary Tree Inorder Traversal</t>
-  </si>
-  <si>
     <t>https://leetcode.com/problems/binary-tree-inorder-traversal/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Recursion + Iteration using Stack + </t>
   </si>
   <si>
     <r>
@@ -340,6 +331,81 @@
       </rPr>
       <t xml:space="preserve"> using Threaded Binary Tree</t>
     </r>
+  </si>
+  <si>
+    <t>Binary Tree</t>
+  </si>
+  <si>
+    <t>Inorder Traversal</t>
+  </si>
+  <si>
+    <t>Preorder Traversal</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/binary-tree-preorder-traversal/</t>
+  </si>
+  <si>
+    <t>Recursion + Iteration using Stack</t>
+  </si>
+  <si>
+    <t>Bipartite Check</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/is-graph-bipartite/</t>
+  </si>
+  <si>
+    <t>O(V+E)</t>
+  </si>
+  <si>
+    <t>O(V)</t>
+  </si>
+  <si>
+    <t>DFS + BFS</t>
+  </si>
+  <si>
+    <t>Number of Islands</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/number-of-islands/</t>
+  </si>
+  <si>
+    <t>Right Side View</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/binary-tree-right-side-view/</t>
+  </si>
+  <si>
+    <t>O(width)</t>
+  </si>
+  <si>
+    <t>Level Order Traversal using queue - Try exploring upper bound for width??</t>
+  </si>
+  <si>
+    <t>Left Side View</t>
+  </si>
+  <si>
+    <t>https://practice.geeksforgeeks.org/problems/left-view-of-binary-tree/1</t>
+  </si>
+  <si>
+    <t>Level Order Traversal using queue</t>
+  </si>
+  <si>
+    <t>https://practice.geeksforgeeks.org/problems/bottom-view-of-binary-tree/1</t>
+  </si>
+  <si>
+    <t>Bottom View</t>
+  </si>
+  <si>
+    <t>O(width+height)</t>
+  </si>
+  <si>
+    <t>Preorder Traversal (Inorder/Postorder can also be used)</t>
+  </si>
+  <si>
+    <t>Top View</t>
+  </si>
+  <si>
+    <t>https://practice.geeksforgeeks.org/problems/top-view-of-binary-tree/1</t>
   </si>
 </sst>
 </file>
@@ -439,7 +505,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="15">
+  <borders count="17">
     <border>
       <left/>
       <right/>
@@ -637,12 +703,34 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -670,6 +758,13 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -679,6 +774,24 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -687,19 +800,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1016,16 +1116,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D3EBAEE5-B4E7-4BD5-B694-FD6EEA5E8AC0}">
-  <dimension ref="A1:E43"/>
+  <dimension ref="A1:E51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="87" workbookViewId="0">
-      <selection activeCell="B31" sqref="B31"/>
+    <sheetView tabSelected="1" topLeftCell="A27" zoomScale="87" workbookViewId="0">
+      <selection activeCell="A46" sqref="A46:E46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="28.26953125" customWidth="1"/>
-    <col min="2" max="2" width="56.453125" customWidth="1"/>
+    <col min="2" max="2" width="62.90625" customWidth="1"/>
     <col min="3" max="3" width="19.54296875" customWidth="1"/>
     <col min="4" max="4" width="17.26953125" customWidth="1"/>
     <col min="5" max="5" width="84.36328125" customWidth="1"/>
@@ -1049,13 +1149,13 @@
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A2" s="20" t="s">
+      <c r="A2" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="21"/>
-      <c r="C2" s="21"/>
-      <c r="D2" s="21"/>
-      <c r="E2" s="22"/>
+      <c r="B2" s="30"/>
+      <c r="C2" s="30"/>
+      <c r="D2" s="30"/>
+      <c r="E2" s="31"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3" s="7" t="s">
@@ -1093,19 +1193,19 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A5" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="C5" s="2" t="s">
         <v>39</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>40</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>4</v>
       </c>
       <c r="E5" s="8" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.35">
@@ -1116,13 +1216,13 @@
       <c r="E6" s="8"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A7" s="17" t="s">
+      <c r="A7" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="B7" s="18"/>
-      <c r="C7" s="18"/>
-      <c r="D7" s="18"/>
-      <c r="E7" s="19"/>
+      <c r="B7" s="21"/>
+      <c r="C7" s="21"/>
+      <c r="D7" s="21"/>
+      <c r="E7" s="22"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A8" s="7" t="s">
@@ -1143,27 +1243,27 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A9" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="B9" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="C9" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="B9" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="C9" s="13" t="s">
+      <c r="D9" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="E9" s="14" t="s">
         <v>44</v>
-      </c>
-      <c r="D9" s="13" t="s">
-        <v>44</v>
-      </c>
-      <c r="E9" s="14" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A10" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="B10" s="12" t="s">
         <v>46</v>
-      </c>
-      <c r="B10" s="12" t="s">
-        <v>47</v>
       </c>
       <c r="C10" s="13" t="s">
         <v>18</v>
@@ -1172,15 +1272,15 @@
         <v>4</v>
       </c>
       <c r="E10" s="15" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A11" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="B11" s="12" t="s">
         <v>49</v>
-      </c>
-      <c r="B11" s="12" t="s">
-        <v>50</v>
       </c>
       <c r="C11" s="13" t="s">
         <v>18</v>
@@ -1189,24 +1289,24 @@
         <v>4</v>
       </c>
       <c r="E11" s="8" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A12" s="13" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B12" s="12" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C12" s="13" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D12" s="13" t="s">
         <v>4</v>
       </c>
       <c r="E12" s="16" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.35">
@@ -1217,13 +1317,13 @@
       <c r="E13" s="15"/>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A14" s="17" t="s">
+      <c r="A14" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="B14" s="18"/>
-      <c r="C14" s="18"/>
-      <c r="D14" s="18"/>
-      <c r="E14" s="19"/>
+      <c r="B14" s="21"/>
+      <c r="C14" s="21"/>
+      <c r="D14" s="21"/>
+      <c r="E14" s="22"/>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A15" s="7" t="s">
@@ -1261,10 +1361,10 @@
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A17" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="B17" s="1" t="s">
         <v>51</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>52</v>
       </c>
       <c r="C17" s="2" t="s">
         <v>18</v>
@@ -1273,41 +1373,41 @@
         <v>4</v>
       </c>
       <c r="E17" s="8" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A18" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B18" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="C18" s="13" t="s">
         <v>54</v>
       </c>
-      <c r="C18" s="13" t="s">
+      <c r="D18" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="E18" s="14" t="s">
         <v>55</v>
-      </c>
-      <c r="D18" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="E18" s="14" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A19" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="B19" s="12" t="s">
         <v>58</v>
-      </c>
-      <c r="B19" s="12" t="s">
-        <v>59</v>
       </c>
       <c r="C19" s="13" t="s">
         <v>3</v>
       </c>
       <c r="D19" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="E19" s="14" t="s">
         <v>60</v>
-      </c>
-      <c r="E19" s="14" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.35">
@@ -1318,13 +1418,13 @@
       <c r="E20" s="14"/>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A21" s="17" t="s">
+      <c r="A21" s="20" t="s">
         <v>23</v>
       </c>
-      <c r="B21" s="18"/>
-      <c r="C21" s="18"/>
-      <c r="D21" s="18"/>
-      <c r="E21" s="19"/>
+      <c r="B21" s="21"/>
+      <c r="C21" s="21"/>
+      <c r="D21" s="21"/>
+      <c r="E21" s="22"/>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A22" s="2" t="s">
@@ -1351,13 +1451,13 @@
       <c r="E23" s="8"/>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A24" s="17" t="s">
+      <c r="A24" s="20" t="s">
         <v>29</v>
       </c>
-      <c r="B24" s="18"/>
-      <c r="C24" s="18"/>
-      <c r="D24" s="18"/>
-      <c r="E24" s="19"/>
+      <c r="B24" s="21"/>
+      <c r="C24" s="21"/>
+      <c r="D24" s="21"/>
+      <c r="E24" s="22"/>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A25" s="7"/>
@@ -1367,13 +1467,13 @@
       <c r="E25" s="8"/>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A26" s="17" t="s">
+      <c r="A26" s="20" t="s">
         <v>30</v>
       </c>
-      <c r="B26" s="18"/>
-      <c r="C26" s="18"/>
-      <c r="D26" s="18"/>
-      <c r="E26" s="19"/>
+      <c r="B26" s="21"/>
+      <c r="C26" s="21"/>
+      <c r="D26" s="21"/>
+      <c r="E26" s="22"/>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A27" s="7"/>
@@ -1383,13 +1483,13 @@
       <c r="E27" s="2"/>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A28" s="17" t="s">
+      <c r="A28" s="20" t="s">
         <v>31</v>
       </c>
-      <c r="B28" s="18"/>
-      <c r="C28" s="18"/>
-      <c r="D28" s="18"/>
-      <c r="E28" s="19"/>
+      <c r="B28" s="21"/>
+      <c r="C28" s="21"/>
+      <c r="D28" s="21"/>
+      <c r="E28" s="22"/>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A29" s="7"/>
@@ -1399,13 +1499,13 @@
       <c r="E29" s="8"/>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A30" s="17" t="s">
+      <c r="A30" s="20" t="s">
         <v>32</v>
       </c>
-      <c r="B30" s="18"/>
-      <c r="C30" s="18"/>
-      <c r="D30" s="18"/>
-      <c r="E30" s="19"/>
+      <c r="B30" s="21"/>
+      <c r="C30" s="21"/>
+      <c r="D30" s="21"/>
+      <c r="E30" s="22"/>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A31" s="7"/>
@@ -1415,20 +1515,20 @@
       <c r="E31" s="8"/>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A32" s="17" t="s">
-        <v>33</v>
-      </c>
-      <c r="B32" s="18"/>
-      <c r="C32" s="18"/>
-      <c r="D32" s="18"/>
-      <c r="E32" s="19"/>
+      <c r="A32" s="20" t="s">
+        <v>67</v>
+      </c>
+      <c r="B32" s="21"/>
+      <c r="C32" s="21"/>
+      <c r="D32" s="21"/>
+      <c r="E32" s="22"/>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A33" s="24" t="s">
-        <v>66</v>
-      </c>
-      <c r="B33" s="26" t="s">
-        <v>67</v>
+      <c r="A33" s="23" t="s">
+        <v>68</v>
+      </c>
+      <c r="B33" s="25" t="s">
+        <v>65</v>
       </c>
       <c r="C33" s="2" t="s">
         <v>18</v>
@@ -1437,12 +1537,12 @@
         <v>18</v>
       </c>
       <c r="E33" s="8" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A34" s="25"/>
-      <c r="B34" s="27"/>
+      <c r="A34" s="24"/>
+      <c r="B34" s="26"/>
       <c r="C34" s="13" t="s">
         <v>18</v>
       </c>
@@ -1450,97 +1550,243 @@
         <v>4</v>
       </c>
       <c r="E34" s="14" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A35" s="27" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A35" s="23"/>
-      <c r="B35" s="13"/>
-      <c r="C35" s="13"/>
-      <c r="D35" s="13"/>
-      <c r="E35" s="14"/>
+      <c r="B35" s="25" t="s">
+        <v>70</v>
+      </c>
+      <c r="C35" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="D35" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="E35" s="8" t="s">
+        <v>71</v>
+      </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A36" s="17" t="s">
+      <c r="A36" s="28"/>
+      <c r="B36" s="26"/>
+      <c r="C36" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="D36" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="E36" s="14" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A37" s="18" t="s">
+        <v>83</v>
+      </c>
+      <c r="B37" s="17" t="s">
+        <v>84</v>
+      </c>
+      <c r="C37" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="D37" s="13" t="s">
+        <v>81</v>
+      </c>
+      <c r="E37" s="14" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A38" s="18" t="s">
+        <v>79</v>
+      </c>
+      <c r="B38" s="17" t="s">
+        <v>80</v>
+      </c>
+      <c r="C38" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="D38" s="13" t="s">
+        <v>81</v>
+      </c>
+      <c r="E38" s="14" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A39" s="27" t="s">
+        <v>87</v>
+      </c>
+      <c r="B39" s="25" t="s">
+        <v>86</v>
+      </c>
+      <c r="C39" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="D39" s="13" t="s">
+        <v>81</v>
+      </c>
+      <c r="E39" s="14" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A40" s="28"/>
+      <c r="B40" s="26"/>
+      <c r="C40" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="D40" s="13" t="s">
+        <v>88</v>
+      </c>
+      <c r="E40" s="14" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A41" s="27" t="s">
+        <v>90</v>
+      </c>
+      <c r="B41" s="25" t="s">
+        <v>91</v>
+      </c>
+      <c r="C41" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="D41" s="13" t="s">
+        <v>81</v>
+      </c>
+      <c r="E41" s="14" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A42" s="28"/>
+      <c r="B42" s="26"/>
+      <c r="C42" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="D42" s="13" t="s">
+        <v>88</v>
+      </c>
+      <c r="E42" s="14" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A43" s="20" t="s">
+        <v>33</v>
+      </c>
+      <c r="B43" s="21"/>
+      <c r="C43" s="21"/>
+      <c r="D43" s="21"/>
+      <c r="E43" s="22"/>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A44" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="C44" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="D44" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="E44" s="8" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A45" s="19" t="s">
+        <v>77</v>
+      </c>
+      <c r="B45" s="12" t="s">
+        <v>78</v>
+      </c>
+      <c r="C45" s="13" t="s">
+        <v>74</v>
+      </c>
+      <c r="D45" s="13"/>
+      <c r="E45" s="14"/>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A46" s="20" t="s">
         <v>34</v>
       </c>
-      <c r="B36" s="18"/>
-      <c r="C36" s="18"/>
-      <c r="D36" s="18"/>
-      <c r="E36" s="19"/>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A37" s="7"/>
-      <c r="B37" s="2"/>
-      <c r="C37" s="2"/>
-      <c r="D37" s="2"/>
-      <c r="E37" s="8"/>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A38" s="17" t="s">
+      <c r="B46" s="21"/>
+      <c r="C46" s="21"/>
+      <c r="D46" s="21"/>
+      <c r="E46" s="22"/>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A47" s="7"/>
+      <c r="B47" s="2"/>
+      <c r="C47" s="2"/>
+      <c r="D47" s="2"/>
+      <c r="E47" s="8"/>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A48" s="20" t="s">
         <v>35</v>
       </c>
-      <c r="B38" s="18"/>
-      <c r="C38" s="18"/>
-      <c r="D38" s="18"/>
-      <c r="E38" s="19"/>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A39" s="7"/>
-      <c r="B39" s="2"/>
-      <c r="C39" s="2"/>
-      <c r="D39" s="2"/>
-      <c r="E39" s="8"/>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A40" s="17" t="s">
+      <c r="B48" s="21"/>
+      <c r="C48" s="21"/>
+      <c r="D48" s="21"/>
+      <c r="E48" s="22"/>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A49" s="7"/>
+      <c r="B49" s="2"/>
+      <c r="C49" s="2"/>
+      <c r="D49" s="2"/>
+      <c r="E49" s="8"/>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A50" s="20" t="s">
         <v>36</v>
       </c>
-      <c r="B40" s="18"/>
-      <c r="C40" s="18"/>
-      <c r="D40" s="18"/>
-      <c r="E40" s="19"/>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A41" s="7"/>
-      <c r="B41" s="2"/>
-      <c r="C41" s="2"/>
-      <c r="D41" s="2"/>
-      <c r="E41" s="8"/>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A42" s="17" t="s">
-        <v>37</v>
-      </c>
-      <c r="B42" s="18"/>
-      <c r="C42" s="18"/>
-      <c r="D42" s="18"/>
-      <c r="E42" s="19"/>
-    </row>
-    <row r="43" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A43" s="9"/>
-      <c r="B43" s="10"/>
-      <c r="C43" s="10"/>
-      <c r="D43" s="10"/>
-      <c r="E43" s="11"/>
+      <c r="B50" s="21"/>
+      <c r="C50" s="21"/>
+      <c r="D50" s="21"/>
+      <c r="E50" s="22"/>
+    </row>
+    <row r="51" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A51" s="9"/>
+      <c r="B51" s="10"/>
+      <c r="C51" s="10"/>
+      <c r="D51" s="10"/>
+      <c r="E51" s="11"/>
     </row>
   </sheetData>
-  <mergeCells count="15">
-    <mergeCell ref="A42:E42"/>
-    <mergeCell ref="A28:E28"/>
-    <mergeCell ref="A30:E30"/>
-    <mergeCell ref="A32:E32"/>
-    <mergeCell ref="A36:E36"/>
-    <mergeCell ref="A38:E38"/>
-    <mergeCell ref="A40:E40"/>
-    <mergeCell ref="A33:A34"/>
-    <mergeCell ref="B33:B34"/>
+  <mergeCells count="21">
     <mergeCell ref="A26:E26"/>
     <mergeCell ref="A2:E2"/>
     <mergeCell ref="A7:E7"/>
     <mergeCell ref="A14:E14"/>
     <mergeCell ref="A21:E21"/>
     <mergeCell ref="A24:E24"/>
+    <mergeCell ref="A50:E50"/>
+    <mergeCell ref="A28:E28"/>
+    <mergeCell ref="A30:E30"/>
+    <mergeCell ref="A32:E32"/>
+    <mergeCell ref="A43:E43"/>
+    <mergeCell ref="A46:E46"/>
+    <mergeCell ref="A48:E48"/>
+    <mergeCell ref="A33:A34"/>
+    <mergeCell ref="B33:B34"/>
+    <mergeCell ref="A35:A36"/>
+    <mergeCell ref="B35:B36"/>
+    <mergeCell ref="A39:A40"/>
+    <mergeCell ref="B39:B40"/>
+    <mergeCell ref="A41:A42"/>
+    <mergeCell ref="B41:B42"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="B3" r:id="rId1" xr:uid="{3FB3FA06-DE47-4C2D-AFD7-F5FC45E3D126}"/>
@@ -1551,9 +1797,11 @@
     <hyperlink ref="B16" r:id="rId6" xr:uid="{047C68C0-B7AB-4E77-9D1E-B162BD11A209}"/>
     <hyperlink ref="B17" r:id="rId7" xr:uid="{1ABD0EDA-F48F-4D2F-B13C-180B398F1FCD}"/>
     <hyperlink ref="B33" r:id="rId8" xr:uid="{35D2A43C-BF1B-4339-9217-7116005F7034}"/>
+    <hyperlink ref="B35" r:id="rId9" xr:uid="{233456E2-1B15-4448-A669-82C381357683}"/>
+    <hyperlink ref="B44" r:id="rId10" xr:uid="{4A724644-7F2B-4DE6-9141-A1802140FB4A}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="90" verticalDpi="90" r:id="rId9"/>
+  <pageSetup orientation="portrait" horizontalDpi="90" verticalDpi="90" r:id="rId11"/>
   <headerFooter>
     <oddFooter>&amp;L11/21/2021&amp;CAXP Internal&amp;R1</oddFooter>
   </headerFooter>

--- a/SDE Sheet.xlsx
+++ b/SDE Sheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Src Code\Personal\SDE-Sheet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{612A4EE0-5A31-4293-8BEC-386B33DB0862}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2AC1B34-FF94-4FF5-B122-9F9CF895427D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{83934561-A72F-4836-B1E7-4EE8C35F9874}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="112">
   <si>
     <t>Matrix</t>
   </si>
@@ -406,6 +406,66 @@
   </si>
   <si>
     <t>https://practice.geeksforgeeks.org/problems/top-view-of-binary-tree/1</t>
+  </si>
+  <si>
+    <t>Trie</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/implement-trie-prefix-tree/</t>
+  </si>
+  <si>
+    <t>Implement Trie (Prefix Tree)</t>
+  </si>
+  <si>
+    <t>O(length(word))</t>
+  </si>
+  <si>
+    <t>https://www.codingninjas.com/codestudio/problems/implement-trie_1387095?utm_source=youtube&amp;utm_medium=affiliate&amp;utm_campaign=striver_tries_videos</t>
+  </si>
+  <si>
+    <t>Implement Trie – 2 (Prefix Tree)</t>
+  </si>
+  <si>
+    <t>Learn how to handle delete</t>
+  </si>
+  <si>
+    <t>Array</t>
+  </si>
+  <si>
+    <t>https://www.geeksforgeeks.org/find-smallest-value-represented-sum-subset-given-array/</t>
+  </si>
+  <si>
+    <t>O(n) if sorted else O(n*log(n))</t>
+  </si>
+  <si>
+    <t>O(1) if sorted else auxiliary array</t>
+  </si>
+  <si>
+    <t>Smallest value that cannot be represented by subset of array</t>
+  </si>
+  <si>
+    <t>DP</t>
+  </si>
+  <si>
+    <t>3 Sum</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/3sum/</t>
+  </si>
+  <si>
+    <t>Auxiliary array for sorting</t>
+  </si>
+  <si>
+    <t>2 Pointer approach</t>
+  </si>
+  <si>
+    <t>2 Sum</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/two-sum/</t>
+  </si>
+  <si>
+    <t>Unordered Map</t>
   </si>
 </sst>
 </file>
@@ -485,7 +545,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -504,8 +564,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="17">
+  <borders count="21">
     <border>
       <left/>
       <right/>
@@ -725,12 +791,52 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -752,54 +858,80 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1116,18 +1248,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D3EBAEE5-B4E7-4BD5-B694-FD6EEA5E8AC0}">
-  <dimension ref="A1:E51"/>
+  <dimension ref="A1:E60"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A27" zoomScale="87" workbookViewId="0">
-      <selection activeCell="A46" sqref="A46:E46"/>
+    <sheetView tabSelected="1" zoomScale="76" workbookViewId="0">
+      <selection activeCell="F27" sqref="F27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="28.26953125" customWidth="1"/>
-    <col min="2" max="2" width="62.90625" customWidth="1"/>
-    <col min="3" max="3" width="19.54296875" customWidth="1"/>
-    <col min="4" max="4" width="17.26953125" customWidth="1"/>
+    <col min="1" max="1" width="53.26953125" customWidth="1"/>
+    <col min="2" max="2" width="77.81640625" customWidth="1"/>
+    <col min="3" max="3" width="29.81640625" customWidth="1"/>
+    <col min="4" max="4" width="31.26953125" customWidth="1"/>
     <col min="5" max="5" width="84.36328125" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1149,13 +1281,13 @@
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A2" s="29" t="s">
+      <c r="A2" s="37" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="30"/>
-      <c r="C2" s="30"/>
-      <c r="D2" s="30"/>
-      <c r="E2" s="31"/>
+      <c r="B2" s="38"/>
+      <c r="C2" s="38"/>
+      <c r="D2" s="38"/>
+      <c r="E2" s="39"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3" s="7" t="s">
@@ -1192,7 +1324,7 @@
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A5" s="3" t="s">
+      <c r="A5" s="17" t="s">
         <v>37</v>
       </c>
       <c r="B5" s="1" t="s">
@@ -1216,13 +1348,13 @@
       <c r="E6" s="8"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A7" s="20" t="s">
+      <c r="A7" s="26" t="s">
         <v>15</v>
       </c>
-      <c r="B7" s="21"/>
-      <c r="C7" s="21"/>
-      <c r="D7" s="21"/>
-      <c r="E7" s="22"/>
+      <c r="B7" s="27"/>
+      <c r="C7" s="27"/>
+      <c r="D7" s="27"/>
+      <c r="E7" s="28"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A8" s="7" t="s">
@@ -1242,7 +1374,7 @@
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A9" s="13" t="s">
+      <c r="A9" s="15" t="s">
         <v>42</v>
       </c>
       <c r="B9" s="12" t="s">
@@ -1259,7 +1391,7 @@
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A10" s="13" t="s">
+      <c r="A10" s="15" t="s">
         <v>45</v>
       </c>
       <c r="B10" s="12" t="s">
@@ -1271,12 +1403,12 @@
       <c r="D10" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="E10" s="15" t="s">
+      <c r="E10" s="18" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A11" s="13" t="s">
+      <c r="A11" s="15" t="s">
         <v>48</v>
       </c>
       <c r="B11" s="12" t="s">
@@ -1293,7 +1425,7 @@
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A12" s="13" t="s">
+      <c r="A12" s="15" t="s">
         <v>64</v>
       </c>
       <c r="B12" s="12" t="s">
@@ -1305,25 +1437,25 @@
       <c r="D12" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="E12" s="16" t="s">
+      <c r="E12" s="19" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A13" s="13"/>
+      <c r="A13" s="15"/>
       <c r="B13" s="12"/>
       <c r="C13" s="13"/>
       <c r="D13" s="13"/>
-      <c r="E13" s="15"/>
+      <c r="E13" s="18"/>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A14" s="20" t="s">
+      <c r="A14" s="26" t="s">
         <v>22</v>
       </c>
-      <c r="B14" s="21"/>
-      <c r="C14" s="21"/>
-      <c r="D14" s="21"/>
-      <c r="E14" s="22"/>
+      <c r="B14" s="27"/>
+      <c r="C14" s="27"/>
+      <c r="D14" s="27"/>
+      <c r="E14" s="28"/>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A15" s="7" t="s">
@@ -1343,7 +1475,7 @@
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A16" s="2" t="s">
+      <c r="A16" s="7" t="s">
         <v>26</v>
       </c>
       <c r="B16" s="1" t="s">
@@ -1360,7 +1492,7 @@
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A17" s="2" t="s">
+      <c r="A17" s="7" t="s">
         <v>50</v>
       </c>
       <c r="B17" s="1" t="s">
@@ -1377,7 +1509,7 @@
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A18" s="2" t="s">
+      <c r="A18" s="7" t="s">
         <v>56</v>
       </c>
       <c r="B18" s="12" t="s">
@@ -1394,7 +1526,7 @@
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A19" s="2" t="s">
+      <c r="A19" s="7" t="s">
         <v>57</v>
       </c>
       <c r="B19" s="12" t="s">
@@ -1411,23 +1543,23 @@
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A20" s="13"/>
+      <c r="A20" s="15"/>
       <c r="B20" s="12"/>
       <c r="C20" s="13"/>
       <c r="D20" s="13"/>
       <c r="E20" s="14"/>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A21" s="20" t="s">
+      <c r="A21" s="26" t="s">
         <v>23</v>
       </c>
-      <c r="B21" s="21"/>
-      <c r="C21" s="21"/>
-      <c r="D21" s="21"/>
-      <c r="E21" s="22"/>
+      <c r="B21" s="27"/>
+      <c r="C21" s="27"/>
+      <c r="D21" s="27"/>
+      <c r="E21" s="28"/>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A22" s="2" t="s">
+      <c r="A22" s="7" t="s">
         <v>25</v>
       </c>
       <c r="B22" s="1" t="s">
@@ -1451,342 +1583,467 @@
       <c r="E23" s="8"/>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A24" s="20" t="s">
+      <c r="A24" s="26" t="s">
+        <v>99</v>
+      </c>
+      <c r="B24" s="27"/>
+      <c r="C24" s="27"/>
+      <c r="D24" s="27"/>
+      <c r="E24" s="28"/>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A25" s="15" t="s">
+        <v>103</v>
+      </c>
+      <c r="B25" s="12" t="s">
+        <v>100</v>
+      </c>
+      <c r="C25" s="13" t="s">
+        <v>101</v>
+      </c>
+      <c r="D25" s="13" t="s">
+        <v>102</v>
+      </c>
+      <c r="E25" s="14" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A26" s="40" t="s">
+        <v>109</v>
+      </c>
+      <c r="B26" s="42" t="s">
+        <v>110</v>
+      </c>
+      <c r="C26" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="D26" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="E26" s="14" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A27" s="41"/>
+      <c r="B27" s="43"/>
+      <c r="C27" s="13" t="s">
+        <v>101</v>
+      </c>
+      <c r="D27" s="13" t="s">
+        <v>102</v>
+      </c>
+      <c r="E27" s="14" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A28" s="15" t="s">
+        <v>105</v>
+      </c>
+      <c r="B28" s="12" t="s">
+        <v>106</v>
+      </c>
+      <c r="C28" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="D28" s="13" t="s">
+        <v>107</v>
+      </c>
+      <c r="E28" s="14" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A29" s="26" t="s">
         <v>29</v>
       </c>
-      <c r="B24" s="21"/>
-      <c r="C24" s="21"/>
-      <c r="D24" s="21"/>
-      <c r="E24" s="22"/>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A25" s="7"/>
-      <c r="B25" s="2"/>
-      <c r="C25" s="2"/>
-      <c r="D25" s="2"/>
-      <c r="E25" s="8"/>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A26" s="20" t="s">
+      <c r="B29" s="27"/>
+      <c r="C29" s="27"/>
+      <c r="D29" s="27"/>
+      <c r="E29" s="28"/>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A30" s="7"/>
+      <c r="B30" s="2"/>
+      <c r="C30" s="2"/>
+      <c r="D30" s="2"/>
+      <c r="E30" s="8"/>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A31" s="26" t="s">
         <v>30</v>
       </c>
-      <c r="B26" s="21"/>
-      <c r="C26" s="21"/>
-      <c r="D26" s="21"/>
-      <c r="E26" s="22"/>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A27" s="7"/>
-      <c r="B27" s="2"/>
-      <c r="C27" s="2"/>
-      <c r="D27" s="2"/>
-      <c r="E27" s="2"/>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A28" s="20" t="s">
+      <c r="B31" s="27"/>
+      <c r="C31" s="27"/>
+      <c r="D31" s="27"/>
+      <c r="E31" s="28"/>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A32" s="7"/>
+      <c r="B32" s="2"/>
+      <c r="C32" s="2"/>
+      <c r="D32" s="2"/>
+      <c r="E32" s="8"/>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A33" s="26" t="s">
         <v>31</v>
       </c>
-      <c r="B28" s="21"/>
-      <c r="C28" s="21"/>
-      <c r="D28" s="21"/>
-      <c r="E28" s="22"/>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A29" s="7"/>
-      <c r="B29" s="2"/>
-      <c r="C29" s="2"/>
-      <c r="D29" s="2"/>
-      <c r="E29" s="8"/>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A30" s="20" t="s">
+      <c r="B33" s="27"/>
+      <c r="C33" s="27"/>
+      <c r="D33" s="27"/>
+      <c r="E33" s="28"/>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A34" s="7"/>
+      <c r="B34" s="2"/>
+      <c r="C34" s="2"/>
+      <c r="D34" s="2"/>
+      <c r="E34" s="8"/>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A35" s="26" t="s">
         <v>32</v>
       </c>
-      <c r="B30" s="21"/>
-      <c r="C30" s="21"/>
-      <c r="D30" s="21"/>
-      <c r="E30" s="22"/>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A31" s="7"/>
-      <c r="B31" s="2"/>
-      <c r="C31" s="2"/>
-      <c r="D31" s="2"/>
-      <c r="E31" s="8"/>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A32" s="20" t="s">
+      <c r="B35" s="27"/>
+      <c r="C35" s="27"/>
+      <c r="D35" s="27"/>
+      <c r="E35" s="28"/>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A36" s="7"/>
+      <c r="B36" s="2"/>
+      <c r="C36" s="2"/>
+      <c r="D36" s="2"/>
+      <c r="E36" s="8"/>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A37" s="26" t="s">
         <v>67</v>
       </c>
-      <c r="B32" s="21"/>
-      <c r="C32" s="21"/>
-      <c r="D32" s="21"/>
-      <c r="E32" s="22"/>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A33" s="23" t="s">
+      <c r="B37" s="27"/>
+      <c r="C37" s="27"/>
+      <c r="D37" s="27"/>
+      <c r="E37" s="28"/>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A38" s="32" t="s">
         <v>68</v>
       </c>
-      <c r="B33" s="25" t="s">
+      <c r="B38" s="33" t="s">
         <v>65</v>
       </c>
-      <c r="C33" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D33" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E33" s="8" t="s">
+      <c r="C38" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D38" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E38" s="8" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A34" s="24"/>
-      <c r="B34" s="26"/>
-      <c r="C34" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="D34" s="13" t="s">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A39" s="32"/>
+      <c r="B39" s="33"/>
+      <c r="C39" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D39" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="E34" s="14" t="s">
+      <c r="E39" s="8" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A35" s="27" t="s">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A40" s="32" t="s">
         <v>69</v>
       </c>
-      <c r="B35" s="25" t="s">
+      <c r="B40" s="33" t="s">
         <v>70</v>
       </c>
-      <c r="C35" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="D35" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="E35" s="8" t="s">
+      <c r="C40" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D40" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E40" s="8" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A36" s="28"/>
-      <c r="B36" s="26"/>
-      <c r="C36" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="D36" s="13" t="s">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A41" s="32"/>
+      <c r="B41" s="33"/>
+      <c r="C41" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D41" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="E36" s="14" t="s">
+      <c r="E41" s="8" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A37" s="18" t="s">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A42" s="20" t="s">
         <v>83</v>
       </c>
-      <c r="B37" s="17" t="s">
+      <c r="B42" s="16" t="s">
         <v>84</v>
       </c>
-      <c r="C37" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="D37" s="13" t="s">
+      <c r="C42" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D42" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="E37" s="14" t="s">
+      <c r="E42" s="8" t="s">
         <v>85</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A38" s="18" t="s">
-        <v>79</v>
-      </c>
-      <c r="B38" s="17" t="s">
-        <v>80</v>
-      </c>
-      <c r="C38" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="D38" s="13" t="s">
-        <v>81</v>
-      </c>
-      <c r="E38" s="14" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A39" s="27" t="s">
-        <v>87</v>
-      </c>
-      <c r="B39" s="25" t="s">
-        <v>86</v>
-      </c>
-      <c r="C39" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="D39" s="13" t="s">
-        <v>81</v>
-      </c>
-      <c r="E39" s="14" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A40" s="28"/>
-      <c r="B40" s="26"/>
-      <c r="C40" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="D40" s="13" t="s">
-        <v>88</v>
-      </c>
-      <c r="E40" s="14" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A41" s="27" t="s">
-        <v>90</v>
-      </c>
-      <c r="B41" s="25" t="s">
-        <v>91</v>
-      </c>
-      <c r="C41" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="D41" s="13" t="s">
-        <v>81</v>
-      </c>
-      <c r="E41" s="14" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A42" s="28"/>
-      <c r="B42" s="26"/>
-      <c r="C42" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="D42" s="13" t="s">
-        <v>88</v>
-      </c>
-      <c r="E42" s="14" t="s">
-        <v>89</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A43" s="20" t="s">
+        <v>79</v>
+      </c>
+      <c r="B43" s="16" t="s">
+        <v>80</v>
+      </c>
+      <c r="C43" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D43" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="E43" s="8" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A44" s="32" t="s">
+        <v>87</v>
+      </c>
+      <c r="B44" s="33" t="s">
+        <v>86</v>
+      </c>
+      <c r="C44" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D44" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="E44" s="8" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A45" s="32"/>
+      <c r="B45" s="33"/>
+      <c r="C45" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D45" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="E45" s="8" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A46" s="32" t="s">
+        <v>90</v>
+      </c>
+      <c r="B46" s="33" t="s">
+        <v>91</v>
+      </c>
+      <c r="C46" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D46" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="E46" s="8" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A47" s="32"/>
+      <c r="B47" s="33"/>
+      <c r="C47" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D47" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="E47" s="8" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A48" s="20"/>
+      <c r="B48" s="16"/>
+      <c r="C48" s="2"/>
+      <c r="D48" s="2"/>
+      <c r="E48" s="8"/>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A49" s="29" t="s">
+        <v>92</v>
+      </c>
+      <c r="B49" s="30"/>
+      <c r="C49" s="30"/>
+      <c r="D49" s="30"/>
+      <c r="E49" s="31"/>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A50" s="21" t="s">
+        <v>94</v>
+      </c>
+      <c r="B50" s="22" t="s">
+        <v>93</v>
+      </c>
+      <c r="C50" s="23" t="s">
+        <v>95</v>
+      </c>
+      <c r="D50" s="23" t="s">
+        <v>95</v>
+      </c>
+      <c r="E50" s="24"/>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A51" s="21" t="s">
+        <v>97</v>
+      </c>
+      <c r="B51" s="22" t="s">
+        <v>96</v>
+      </c>
+      <c r="C51" s="23" t="s">
+        <v>95</v>
+      </c>
+      <c r="D51" s="23" t="s">
+        <v>95</v>
+      </c>
+      <c r="E51" s="25" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A52" s="34" t="s">
         <v>33</v>
       </c>
-      <c r="B43" s="21"/>
-      <c r="C43" s="21"/>
-      <c r="D43" s="21"/>
-      <c r="E43" s="22"/>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A44" s="7" t="s">
+      <c r="B52" s="35"/>
+      <c r="C52" s="35"/>
+      <c r="D52" s="35"/>
+      <c r="E52" s="36"/>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A53" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="B44" s="1" t="s">
+      <c r="B53" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="C44" s="2" t="s">
+      <c r="C53" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="D44" s="2" t="s">
+      <c r="D53" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="E44" s="8" t="s">
+      <c r="E53" s="8" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A45" s="19" t="s">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A54" s="15" t="s">
         <v>77</v>
       </c>
-      <c r="B45" s="12" t="s">
+      <c r="B54" s="12" t="s">
         <v>78</v>
       </c>
-      <c r="C45" s="13" t="s">
+      <c r="C54" s="13" t="s">
         <v>74</v>
       </c>
-      <c r="D45" s="13"/>
-      <c r="E45" s="14"/>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A46" s="20" t="s">
+      <c r="D54" s="13"/>
+      <c r="E54" s="14"/>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A55" s="26" t="s">
         <v>34</v>
       </c>
-      <c r="B46" s="21"/>
-      <c r="C46" s="21"/>
-      <c r="D46" s="21"/>
-      <c r="E46" s="22"/>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A47" s="7"/>
-      <c r="B47" s="2"/>
-      <c r="C47" s="2"/>
-      <c r="D47" s="2"/>
-      <c r="E47" s="8"/>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A48" s="20" t="s">
+      <c r="B55" s="27"/>
+      <c r="C55" s="27"/>
+      <c r="D55" s="27"/>
+      <c r="E55" s="28"/>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A56" s="7"/>
+      <c r="B56" s="2"/>
+      <c r="C56" s="2"/>
+      <c r="D56" s="2"/>
+      <c r="E56" s="8"/>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A57" s="26" t="s">
         <v>35</v>
       </c>
-      <c r="B48" s="21"/>
-      <c r="C48" s="21"/>
-      <c r="D48" s="21"/>
-      <c r="E48" s="22"/>
-    </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A49" s="7"/>
-      <c r="B49" s="2"/>
-      <c r="C49" s="2"/>
-      <c r="D49" s="2"/>
-      <c r="E49" s="8"/>
-    </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A50" s="20" t="s">
+      <c r="B57" s="27"/>
+      <c r="C57" s="27"/>
+      <c r="D57" s="27"/>
+      <c r="E57" s="28"/>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A58" s="7"/>
+      <c r="B58" s="2"/>
+      <c r="C58" s="2"/>
+      <c r="D58" s="2"/>
+      <c r="E58" s="8"/>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A59" s="26" t="s">
         <v>36</v>
       </c>
-      <c r="B50" s="21"/>
-      <c r="C50" s="21"/>
-      <c r="D50" s="21"/>
-      <c r="E50" s="22"/>
-    </row>
-    <row r="51" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A51" s="9"/>
-      <c r="B51" s="10"/>
-      <c r="C51" s="10"/>
-      <c r="D51" s="10"/>
-      <c r="E51" s="11"/>
+      <c r="B59" s="27"/>
+      <c r="C59" s="27"/>
+      <c r="D59" s="27"/>
+      <c r="E59" s="28"/>
+    </row>
+    <row r="60" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A60" s="9"/>
+      <c r="B60" s="10"/>
+      <c r="C60" s="10"/>
+      <c r="D60" s="10"/>
+      <c r="E60" s="11"/>
     </row>
   </sheetData>
-  <mergeCells count="21">
-    <mergeCell ref="A26:E26"/>
+  <mergeCells count="25">
+    <mergeCell ref="A31:E31"/>
     <mergeCell ref="A2:E2"/>
     <mergeCell ref="A7:E7"/>
     <mergeCell ref="A14:E14"/>
     <mergeCell ref="A21:E21"/>
+    <mergeCell ref="A29:E29"/>
     <mergeCell ref="A24:E24"/>
-    <mergeCell ref="A50:E50"/>
-    <mergeCell ref="A28:E28"/>
-    <mergeCell ref="A30:E30"/>
-    <mergeCell ref="A32:E32"/>
-    <mergeCell ref="A43:E43"/>
-    <mergeCell ref="A46:E46"/>
-    <mergeCell ref="A48:E48"/>
-    <mergeCell ref="A33:A34"/>
-    <mergeCell ref="B33:B34"/>
-    <mergeCell ref="A35:A36"/>
-    <mergeCell ref="B35:B36"/>
-    <mergeCell ref="A39:A40"/>
-    <mergeCell ref="B39:B40"/>
-    <mergeCell ref="A41:A42"/>
-    <mergeCell ref="B41:B42"/>
+    <mergeCell ref="A26:A27"/>
+    <mergeCell ref="B26:B27"/>
+    <mergeCell ref="A59:E59"/>
+    <mergeCell ref="A33:E33"/>
+    <mergeCell ref="A35:E35"/>
+    <mergeCell ref="A37:E37"/>
+    <mergeCell ref="A49:E49"/>
+    <mergeCell ref="A55:E55"/>
+    <mergeCell ref="A57:E57"/>
+    <mergeCell ref="A38:A39"/>
+    <mergeCell ref="B38:B39"/>
+    <mergeCell ref="A40:A41"/>
+    <mergeCell ref="B40:B41"/>
+    <mergeCell ref="A44:A45"/>
+    <mergeCell ref="B44:B45"/>
+    <mergeCell ref="A46:A47"/>
+    <mergeCell ref="B46:B47"/>
+    <mergeCell ref="A52:E52"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="B3" r:id="rId1" xr:uid="{3FB3FA06-DE47-4C2D-AFD7-F5FC45E3D126}"/>
@@ -1796,12 +2053,15 @@
     <hyperlink ref="B22" r:id="rId5" xr:uid="{6352E065-8925-49FF-AA82-66ED2F9F8651}"/>
     <hyperlink ref="B16" r:id="rId6" xr:uid="{047C68C0-B7AB-4E77-9D1E-B162BD11A209}"/>
     <hyperlink ref="B17" r:id="rId7" xr:uid="{1ABD0EDA-F48F-4D2F-B13C-180B398F1FCD}"/>
-    <hyperlink ref="B33" r:id="rId8" xr:uid="{35D2A43C-BF1B-4339-9217-7116005F7034}"/>
-    <hyperlink ref="B35" r:id="rId9" xr:uid="{233456E2-1B15-4448-A669-82C381357683}"/>
-    <hyperlink ref="B44" r:id="rId10" xr:uid="{4A724644-7F2B-4DE6-9141-A1802140FB4A}"/>
+    <hyperlink ref="B38" r:id="rId8" xr:uid="{35D2A43C-BF1B-4339-9217-7116005F7034}"/>
+    <hyperlink ref="B40" r:id="rId9" xr:uid="{233456E2-1B15-4448-A669-82C381357683}"/>
+    <hyperlink ref="B53" r:id="rId10" xr:uid="{4A724644-7F2B-4DE6-9141-A1802140FB4A}"/>
+    <hyperlink ref="B50" r:id="rId11" xr:uid="{914A5C5A-20B3-4526-A460-020F9852AFDB}"/>
+    <hyperlink ref="B51" r:id="rId12" xr:uid="{0B2D15B8-18BF-46A5-991E-6E53ADC95851}"/>
+    <hyperlink ref="B25" r:id="rId13" xr:uid="{93A177B9-936F-4ED5-9F32-EB31F0D8F614}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="90" verticalDpi="90" r:id="rId11"/>
+  <pageSetup orientation="portrait" horizontalDpi="90" verticalDpi="90" r:id="rId14"/>
   <headerFooter>
     <oddFooter>&amp;L11/21/2021&amp;CAXP Internal&amp;R1</oddFooter>
   </headerFooter>

--- a/SDE Sheet.xlsx
+++ b/SDE Sheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Src Code\Personal\SDE-Sheet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2AC1B34-FF94-4FF5-B122-9F9CF895427D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B533C5EB-D3ED-4CC6-A830-97591D206733}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{83934561-A72F-4836-B1E7-4EE8C35F9874}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="114">
   <si>
     <t>Matrix</t>
   </si>
@@ -466,6 +466,12 @@
   </si>
   <si>
     <t>Unordered Map</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/3sum-closest/</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/4sum/</t>
   </si>
 </sst>
 </file>
@@ -888,6 +894,27 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -911,27 +938,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1248,10 +1254,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D3EBAEE5-B4E7-4BD5-B694-FD6EEA5E8AC0}">
-  <dimension ref="A1:E60"/>
+  <dimension ref="A1:E62"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="76" workbookViewId="0">
-      <selection activeCell="F27" sqref="F27"/>
+    <sheetView tabSelected="1" zoomScale="36" workbookViewId="0">
+      <selection activeCell="A35" sqref="A35:E35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1281,13 +1287,13 @@
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A2" s="37" t="s">
+      <c r="A2" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="38"/>
-      <c r="C2" s="38"/>
-      <c r="D2" s="38"/>
-      <c r="E2" s="39"/>
+      <c r="B2" s="30"/>
+      <c r="C2" s="30"/>
+      <c r="D2" s="30"/>
+      <c r="E2" s="31"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3" s="7" t="s">
@@ -1609,10 +1615,10 @@
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A26" s="40" t="s">
+      <c r="A26" s="32" t="s">
         <v>109</v>
       </c>
-      <c r="B26" s="42" t="s">
+      <c r="B26" s="34" t="s">
         <v>110</v>
       </c>
       <c r="C26" s="13" t="s">
@@ -1626,8 +1632,8 @@
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A27" s="41"/>
-      <c r="B27" s="43"/>
+      <c r="A27" s="33"/>
+      <c r="B27" s="35"/>
       <c r="C27" s="13" t="s">
         <v>101</v>
       </c>
@@ -1656,24 +1662,26 @@
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A29" s="26" t="s">
-        <v>29</v>
-      </c>
-      <c r="B29" s="27"/>
-      <c r="C29" s="27"/>
-      <c r="D29" s="27"/>
-      <c r="E29" s="28"/>
+      <c r="A29" s="15"/>
+      <c r="B29" s="12" t="s">
+        <v>112</v>
+      </c>
+      <c r="C29" s="13"/>
+      <c r="D29" s="13"/>
+      <c r="E29" s="14"/>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A30" s="7"/>
-      <c r="B30" s="2"/>
-      <c r="C30" s="2"/>
-      <c r="D30" s="2"/>
-      <c r="E30" s="8"/>
+      <c r="A30" s="15"/>
+      <c r="B30" s="12" t="s">
+        <v>113</v>
+      </c>
+      <c r="C30" s="13"/>
+      <c r="D30" s="13"/>
+      <c r="E30" s="14"/>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A31" s="26" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B31" s="27"/>
       <c r="C31" s="27"/>
@@ -1689,7 +1697,7 @@
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A33" s="26" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B33" s="27"/>
       <c r="C33" s="27"/>
@@ -1705,7 +1713,7 @@
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A35" s="26" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B35" s="27"/>
       <c r="C35" s="27"/>
@@ -1721,7 +1729,7 @@
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A37" s="26" t="s">
-        <v>67</v>
+        <v>32</v>
       </c>
       <c r="B37" s="27"/>
       <c r="C37" s="27"/>
@@ -1729,41 +1737,27 @@
       <c r="E37" s="28"/>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A38" s="32" t="s">
+      <c r="A38" s="7"/>
+      <c r="B38" s="2"/>
+      <c r="C38" s="2"/>
+      <c r="D38" s="2"/>
+      <c r="E38" s="8"/>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A39" s="26" t="s">
+        <v>67</v>
+      </c>
+      <c r="B39" s="27"/>
+      <c r="C39" s="27"/>
+      <c r="D39" s="27"/>
+      <c r="E39" s="28"/>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A40" s="39" t="s">
         <v>68</v>
       </c>
-      <c r="B38" s="33" t="s">
+      <c r="B40" s="40" t="s">
         <v>65</v>
-      </c>
-      <c r="C38" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D38" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E38" s="8" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A39" s="32"/>
-      <c r="B39" s="33"/>
-      <c r="C39" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D39" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="E39" s="8" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A40" s="32" t="s">
-        <v>69</v>
-      </c>
-      <c r="B40" s="33" t="s">
-        <v>70</v>
       </c>
       <c r="C40" s="2" t="s">
         <v>18</v>
@@ -1776,8 +1770,8 @@
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A41" s="32"/>
-      <c r="B41" s="33"/>
+      <c r="A41" s="39"/>
+      <c r="B41" s="40"/>
       <c r="C41" s="2" t="s">
         <v>18</v>
       </c>
@@ -1789,45 +1783,41 @@
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A42" s="20" t="s">
+      <c r="A42" s="39" t="s">
+        <v>69</v>
+      </c>
+      <c r="B42" s="40" t="s">
+        <v>70</v>
+      </c>
+      <c r="C42" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D42" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E42" s="8" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A43" s="39"/>
+      <c r="B43" s="40"/>
+      <c r="C43" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D43" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E43" s="8" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A44" s="20" t="s">
         <v>83</v>
       </c>
-      <c r="B42" s="16" t="s">
+      <c r="B44" s="16" t="s">
         <v>84</v>
-      </c>
-      <c r="C42" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D42" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="E42" s="8" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A43" s="20" t="s">
-        <v>79</v>
-      </c>
-      <c r="B43" s="16" t="s">
-        <v>80</v>
-      </c>
-      <c r="C43" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D43" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="E43" s="8" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A44" s="32" t="s">
-        <v>87</v>
-      </c>
-      <c r="B44" s="33" t="s">
-        <v>86</v>
       </c>
       <c r="C44" s="2" t="s">
         <v>18</v>
@@ -1840,24 +1830,28 @@
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A45" s="32"/>
-      <c r="B45" s="33"/>
+      <c r="A45" s="20" t="s">
+        <v>79</v>
+      </c>
+      <c r="B45" s="16" t="s">
+        <v>80</v>
+      </c>
       <c r="C45" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="E45" s="8" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A46" s="32" t="s">
-        <v>90</v>
-      </c>
-      <c r="B46" s="33" t="s">
-        <v>91</v>
+      <c r="A46" s="39" t="s">
+        <v>87</v>
+      </c>
+      <c r="B46" s="40" t="s">
+        <v>86</v>
       </c>
       <c r="C46" s="2" t="s">
         <v>18</v>
@@ -1870,8 +1864,8 @@
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A47" s="32"/>
-      <c r="B47" s="33"/>
+      <c r="A47" s="39"/>
+      <c r="B47" s="40"/>
       <c r="C47" s="2" t="s">
         <v>18</v>
       </c>
@@ -1883,111 +1877,125 @@
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A48" s="20"/>
-      <c r="B48" s="16"/>
-      <c r="C48" s="2"/>
-      <c r="D48" s="2"/>
-      <c r="E48" s="8"/>
+      <c r="A48" s="39" t="s">
+        <v>90</v>
+      </c>
+      <c r="B48" s="40" t="s">
+        <v>91</v>
+      </c>
+      <c r="C48" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D48" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="E48" s="8" t="s">
+        <v>85</v>
+      </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A49" s="29" t="s">
+      <c r="A49" s="39"/>
+      <c r="B49" s="40"/>
+      <c r="C49" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D49" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="E49" s="8" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A50" s="20"/>
+      <c r="B50" s="16"/>
+      <c r="C50" s="2"/>
+      <c r="D50" s="2"/>
+      <c r="E50" s="8"/>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A51" s="36" t="s">
         <v>92</v>
       </c>
-      <c r="B49" s="30"/>
-      <c r="C49" s="30"/>
-      <c r="D49" s="30"/>
-      <c r="E49" s="31"/>
-    </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A50" s="21" t="s">
+      <c r="B51" s="37"/>
+      <c r="C51" s="37"/>
+      <c r="D51" s="37"/>
+      <c r="E51" s="38"/>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A52" s="21" t="s">
         <v>94</v>
       </c>
-      <c r="B50" s="22" t="s">
+      <c r="B52" s="22" t="s">
         <v>93</v>
       </c>
-      <c r="C50" s="23" t="s">
+      <c r="C52" s="23" t="s">
         <v>95</v>
       </c>
-      <c r="D50" s="23" t="s">
+      <c r="D52" s="23" t="s">
         <v>95</v>
       </c>
-      <c r="E50" s="24"/>
-    </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A51" s="21" t="s">
+      <c r="E52" s="24"/>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A53" s="21" t="s">
         <v>97</v>
       </c>
-      <c r="B51" s="22" t="s">
+      <c r="B53" s="22" t="s">
         <v>96</v>
       </c>
-      <c r="C51" s="23" t="s">
+      <c r="C53" s="23" t="s">
         <v>95</v>
       </c>
-      <c r="D51" s="23" t="s">
+      <c r="D53" s="23" t="s">
         <v>95</v>
       </c>
-      <c r="E51" s="25" t="s">
+      <c r="E53" s="25" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A52" s="34" t="s">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A54" s="41" t="s">
         <v>33</v>
       </c>
-      <c r="B52" s="35"/>
-      <c r="C52" s="35"/>
-      <c r="D52" s="35"/>
-      <c r="E52" s="36"/>
-    </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A53" s="7" t="s">
+      <c r="B54" s="42"/>
+      <c r="C54" s="42"/>
+      <c r="D54" s="42"/>
+      <c r="E54" s="43"/>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A55" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="B53" s="1" t="s">
+      <c r="B55" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="C53" s="2" t="s">
+      <c r="C55" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="D53" s="2" t="s">
+      <c r="D55" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="E53" s="8" t="s">
+      <c r="E55" s="8" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A54" s="15" t="s">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A56" s="15" t="s">
         <v>77</v>
       </c>
-      <c r="B54" s="12" t="s">
+      <c r="B56" s="12" t="s">
         <v>78</v>
       </c>
-      <c r="C54" s="13" t="s">
+      <c r="C56" s="13" t="s">
         <v>74</v>
       </c>
-      <c r="D54" s="13"/>
-      <c r="E54" s="14"/>
-    </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A55" s="26" t="s">
-        <v>34</v>
-      </c>
-      <c r="B55" s="27"/>
-      <c r="C55" s="27"/>
-      <c r="D55" s="27"/>
-      <c r="E55" s="28"/>
-    </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A56" s="7"/>
-      <c r="B56" s="2"/>
-      <c r="C56" s="2"/>
-      <c r="D56" s="2"/>
-      <c r="E56" s="8"/>
+      <c r="D56" s="13"/>
+      <c r="E56" s="14"/>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A57" s="26" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B57" s="27"/>
       <c r="C57" s="27"/>
@@ -2003,47 +2011,63 @@
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A59" s="26" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B59" s="27"/>
       <c r="C59" s="27"/>
       <c r="D59" s="27"/>
       <c r="E59" s="28"/>
     </row>
-    <row r="60" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A60" s="9"/>
-      <c r="B60" s="10"/>
-      <c r="C60" s="10"/>
-      <c r="D60" s="10"/>
-      <c r="E60" s="11"/>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A60" s="7"/>
+      <c r="B60" s="2"/>
+      <c r="C60" s="2"/>
+      <c r="D60" s="2"/>
+      <c r="E60" s="8"/>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A61" s="26" t="s">
+        <v>36</v>
+      </c>
+      <c r="B61" s="27"/>
+      <c r="C61" s="27"/>
+      <c r="D61" s="27"/>
+      <c r="E61" s="28"/>
+    </row>
+    <row r="62" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A62" s="9"/>
+      <c r="B62" s="10"/>
+      <c r="C62" s="10"/>
+      <c r="D62" s="10"/>
+      <c r="E62" s="11"/>
     </row>
   </sheetData>
   <mergeCells count="25">
-    <mergeCell ref="A31:E31"/>
+    <mergeCell ref="A61:E61"/>
+    <mergeCell ref="A35:E35"/>
+    <mergeCell ref="A37:E37"/>
+    <mergeCell ref="A39:E39"/>
+    <mergeCell ref="A51:E51"/>
+    <mergeCell ref="A57:E57"/>
+    <mergeCell ref="A59:E59"/>
+    <mergeCell ref="A40:A41"/>
+    <mergeCell ref="B40:B41"/>
+    <mergeCell ref="A42:A43"/>
+    <mergeCell ref="B42:B43"/>
+    <mergeCell ref="A46:A47"/>
+    <mergeCell ref="B46:B47"/>
+    <mergeCell ref="A48:A49"/>
+    <mergeCell ref="B48:B49"/>
+    <mergeCell ref="A54:E54"/>
+    <mergeCell ref="A33:E33"/>
     <mergeCell ref="A2:E2"/>
     <mergeCell ref="A7:E7"/>
     <mergeCell ref="A14:E14"/>
     <mergeCell ref="A21:E21"/>
-    <mergeCell ref="A29:E29"/>
+    <mergeCell ref="A31:E31"/>
     <mergeCell ref="A24:E24"/>
     <mergeCell ref="A26:A27"/>
     <mergeCell ref="B26:B27"/>
-    <mergeCell ref="A59:E59"/>
-    <mergeCell ref="A33:E33"/>
-    <mergeCell ref="A35:E35"/>
-    <mergeCell ref="A37:E37"/>
-    <mergeCell ref="A49:E49"/>
-    <mergeCell ref="A55:E55"/>
-    <mergeCell ref="A57:E57"/>
-    <mergeCell ref="A38:A39"/>
-    <mergeCell ref="B38:B39"/>
-    <mergeCell ref="A40:A41"/>
-    <mergeCell ref="B40:B41"/>
-    <mergeCell ref="A44:A45"/>
-    <mergeCell ref="B44:B45"/>
-    <mergeCell ref="A46:A47"/>
-    <mergeCell ref="B46:B47"/>
-    <mergeCell ref="A52:E52"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="B3" r:id="rId1" xr:uid="{3FB3FA06-DE47-4C2D-AFD7-F5FC45E3D126}"/>
@@ -2053,11 +2077,11 @@
     <hyperlink ref="B22" r:id="rId5" xr:uid="{6352E065-8925-49FF-AA82-66ED2F9F8651}"/>
     <hyperlink ref="B16" r:id="rId6" xr:uid="{047C68C0-B7AB-4E77-9D1E-B162BD11A209}"/>
     <hyperlink ref="B17" r:id="rId7" xr:uid="{1ABD0EDA-F48F-4D2F-B13C-180B398F1FCD}"/>
-    <hyperlink ref="B38" r:id="rId8" xr:uid="{35D2A43C-BF1B-4339-9217-7116005F7034}"/>
-    <hyperlink ref="B40" r:id="rId9" xr:uid="{233456E2-1B15-4448-A669-82C381357683}"/>
-    <hyperlink ref="B53" r:id="rId10" xr:uid="{4A724644-7F2B-4DE6-9141-A1802140FB4A}"/>
-    <hyperlink ref="B50" r:id="rId11" xr:uid="{914A5C5A-20B3-4526-A460-020F9852AFDB}"/>
-    <hyperlink ref="B51" r:id="rId12" xr:uid="{0B2D15B8-18BF-46A5-991E-6E53ADC95851}"/>
+    <hyperlink ref="B40" r:id="rId8" xr:uid="{35D2A43C-BF1B-4339-9217-7116005F7034}"/>
+    <hyperlink ref="B42" r:id="rId9" xr:uid="{233456E2-1B15-4448-A669-82C381357683}"/>
+    <hyperlink ref="B55" r:id="rId10" xr:uid="{4A724644-7F2B-4DE6-9141-A1802140FB4A}"/>
+    <hyperlink ref="B52" r:id="rId11" xr:uid="{914A5C5A-20B3-4526-A460-020F9852AFDB}"/>
+    <hyperlink ref="B53" r:id="rId12" xr:uid="{0B2D15B8-18BF-46A5-991E-6E53ADC95851}"/>
     <hyperlink ref="B25" r:id="rId13" xr:uid="{93A177B9-936F-4ED5-9F32-EB31F0D8F614}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/SDE Sheet.xlsx
+++ b/SDE Sheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Src Code\Personal\SDE-Sheet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B533C5EB-D3ED-4CC6-A830-97591D206733}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EBD55593-234F-4802-BDB0-63F154AAA076}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{83934561-A72F-4836-B1E7-4EE8C35F9874}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="125">
   <si>
     <t>Matrix</t>
   </si>
@@ -472,6 +472,39 @@
   </si>
   <si>
     <t>https://leetcode.com/problems/4sum/</t>
+  </si>
+  <si>
+    <t>Search given Key in BST</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/search-in-a-binary-search-tree/</t>
+  </si>
+  <si>
+    <t>Recursive</t>
+  </si>
+  <si>
+    <t>Iterative</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/convert-sorted-array-to-binary-search-tree/</t>
+  </si>
+  <si>
+    <t>Convert Sorted Array to Balanced Binary Search Tree</t>
+  </si>
+  <si>
+    <t>O(log(n)) if balanced else O(n)</t>
+  </si>
+  <si>
+    <t>Convert Sorted List to Balanced Binary Search Tree</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/convert-sorted-list-to-binary-search-tree/</t>
+  </si>
+  <si>
+    <t>Recursive using finding mid point of List</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/convert-sorted-list-to-binary-search-tree/discuss/35525/Share-my-code-with-O(n)-time-and-O(1)-space</t>
   </si>
 </sst>
 </file>
@@ -551,7 +584,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -576,6 +609,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="21">
     <border>
@@ -842,7 +881,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -885,6 +924,9 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="9" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -894,6 +936,30 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -915,30 +981,10 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="12" xfId="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1254,10 +1300,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D3EBAEE5-B4E7-4BD5-B694-FD6EEA5E8AC0}">
-  <dimension ref="A1:E62"/>
+  <dimension ref="A1:E66"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="36" workbookViewId="0">
-      <selection activeCell="A35" sqref="A35:E35"/>
+    <sheetView tabSelected="1" topLeftCell="A52" zoomScale="77" workbookViewId="0">
+      <selection activeCell="E76" sqref="E76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1266,7 +1312,7 @@
     <col min="2" max="2" width="77.81640625" customWidth="1"/>
     <col min="3" max="3" width="29.81640625" customWidth="1"/>
     <col min="4" max="4" width="31.26953125" customWidth="1"/>
-    <col min="5" max="5" width="84.36328125" customWidth="1"/>
+    <col min="5" max="5" width="115.54296875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.35">
@@ -1287,13 +1333,13 @@
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A2" s="29" t="s">
+      <c r="A2" s="38" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="30"/>
-      <c r="C2" s="30"/>
-      <c r="D2" s="30"/>
-      <c r="E2" s="31"/>
+      <c r="B2" s="39"/>
+      <c r="C2" s="39"/>
+      <c r="D2" s="39"/>
+      <c r="E2" s="40"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3" s="7" t="s">
@@ -1354,13 +1400,13 @@
       <c r="E6" s="8"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A7" s="26" t="s">
+      <c r="A7" s="27" t="s">
         <v>15</v>
       </c>
-      <c r="B7" s="27"/>
-      <c r="C7" s="27"/>
-      <c r="D7" s="27"/>
-      <c r="E7" s="28"/>
+      <c r="B7" s="28"/>
+      <c r="C7" s="28"/>
+      <c r="D7" s="28"/>
+      <c r="E7" s="29"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A8" s="7" t="s">
@@ -1455,13 +1501,13 @@
       <c r="E13" s="18"/>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A14" s="26" t="s">
+      <c r="A14" s="27" t="s">
         <v>22</v>
       </c>
-      <c r="B14" s="27"/>
-      <c r="C14" s="27"/>
-      <c r="D14" s="27"/>
-      <c r="E14" s="28"/>
+      <c r="B14" s="28"/>
+      <c r="C14" s="28"/>
+      <c r="D14" s="28"/>
+      <c r="E14" s="29"/>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A15" s="7" t="s">
@@ -1556,13 +1602,13 @@
       <c r="E20" s="14"/>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A21" s="26" t="s">
+      <c r="A21" s="27" t="s">
         <v>23</v>
       </c>
-      <c r="B21" s="27"/>
-      <c r="C21" s="27"/>
-      <c r="D21" s="27"/>
-      <c r="E21" s="28"/>
+      <c r="B21" s="28"/>
+      <c r="C21" s="28"/>
+      <c r="D21" s="28"/>
+      <c r="E21" s="29"/>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A22" s="7" t="s">
@@ -1589,13 +1635,13 @@
       <c r="E23" s="8"/>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A24" s="26" t="s">
+      <c r="A24" s="27" t="s">
         <v>99</v>
       </c>
-      <c r="B24" s="27"/>
-      <c r="C24" s="27"/>
-      <c r="D24" s="27"/>
-      <c r="E24" s="28"/>
+      <c r="B24" s="28"/>
+      <c r="C24" s="28"/>
+      <c r="D24" s="28"/>
+      <c r="E24" s="29"/>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A25" s="15" t="s">
@@ -1615,10 +1661,10 @@
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A26" s="32" t="s">
+      <c r="A26" s="41" t="s">
         <v>109</v>
       </c>
-      <c r="B26" s="34" t="s">
+      <c r="B26" s="43" t="s">
         <v>110</v>
       </c>
       <c r="C26" s="13" t="s">
@@ -1632,8 +1678,8 @@
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A27" s="33"/>
-      <c r="B27" s="35"/>
+      <c r="A27" s="42"/>
+      <c r="B27" s="44"/>
       <c r="C27" s="13" t="s">
         <v>101</v>
       </c>
@@ -1680,13 +1726,13 @@
       <c r="E30" s="14"/>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A31" s="26" t="s">
+      <c r="A31" s="27" t="s">
         <v>29</v>
       </c>
-      <c r="B31" s="27"/>
-      <c r="C31" s="27"/>
-      <c r="D31" s="27"/>
-      <c r="E31" s="28"/>
+      <c r="B31" s="28"/>
+      <c r="C31" s="28"/>
+      <c r="D31" s="28"/>
+      <c r="E31" s="29"/>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A32" s="7"/>
@@ -1696,13 +1742,13 @@
       <c r="E32" s="8"/>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A33" s="26" t="s">
+      <c r="A33" s="27" t="s">
         <v>30</v>
       </c>
-      <c r="B33" s="27"/>
-      <c r="C33" s="27"/>
-      <c r="D33" s="27"/>
-      <c r="E33" s="28"/>
+      <c r="B33" s="28"/>
+      <c r="C33" s="28"/>
+      <c r="D33" s="28"/>
+      <c r="E33" s="29"/>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A34" s="7"/>
@@ -1712,13 +1758,13 @@
       <c r="E34" s="8"/>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A35" s="26" t="s">
+      <c r="A35" s="27" t="s">
         <v>31</v>
       </c>
-      <c r="B35" s="27"/>
-      <c r="C35" s="27"/>
-      <c r="D35" s="27"/>
-      <c r="E35" s="28"/>
+      <c r="B35" s="28"/>
+      <c r="C35" s="28"/>
+      <c r="D35" s="28"/>
+      <c r="E35" s="29"/>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A36" s="7"/>
@@ -1728,13 +1774,13 @@
       <c r="E36" s="8"/>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A37" s="26" t="s">
+      <c r="A37" s="27" t="s">
         <v>32</v>
       </c>
-      <c r="B37" s="27"/>
-      <c r="C37" s="27"/>
-      <c r="D37" s="27"/>
-      <c r="E37" s="28"/>
+      <c r="B37" s="28"/>
+      <c r="C37" s="28"/>
+      <c r="D37" s="28"/>
+      <c r="E37" s="29"/>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A38" s="7"/>
@@ -1744,19 +1790,19 @@
       <c r="E38" s="8"/>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A39" s="26" t="s">
+      <c r="A39" s="27" t="s">
         <v>67</v>
       </c>
-      <c r="B39" s="27"/>
-      <c r="C39" s="27"/>
-      <c r="D39" s="27"/>
-      <c r="E39" s="28"/>
+      <c r="B39" s="28"/>
+      <c r="C39" s="28"/>
+      <c r="D39" s="28"/>
+      <c r="E39" s="29"/>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A40" s="39" t="s">
+      <c r="A40" s="33" t="s">
         <v>68</v>
       </c>
-      <c r="B40" s="40" t="s">
+      <c r="B40" s="34" t="s">
         <v>65</v>
       </c>
       <c r="C40" s="2" t="s">
@@ -1770,8 +1816,8 @@
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A41" s="39"/>
-      <c r="B41" s="40"/>
+      <c r="A41" s="33"/>
+      <c r="B41" s="34"/>
       <c r="C41" s="2" t="s">
         <v>18</v>
       </c>
@@ -1783,10 +1829,10 @@
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A42" s="39" t="s">
+      <c r="A42" s="33" t="s">
         <v>69</v>
       </c>
-      <c r="B42" s="40" t="s">
+      <c r="B42" s="34" t="s">
         <v>70</v>
       </c>
       <c r="C42" s="2" t="s">
@@ -1800,8 +1846,8 @@
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A43" s="39"/>
-      <c r="B43" s="40"/>
+      <c r="A43" s="33"/>
+      <c r="B43" s="34"/>
       <c r="C43" s="2" t="s">
         <v>18</v>
       </c>
@@ -1847,10 +1893,10 @@
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A46" s="39" t="s">
+      <c r="A46" s="33" t="s">
         <v>87</v>
       </c>
-      <c r="B46" s="40" t="s">
+      <c r="B46" s="34" t="s">
         <v>86</v>
       </c>
       <c r="C46" s="2" t="s">
@@ -1864,8 +1910,8 @@
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A47" s="39"/>
-      <c r="B47" s="40"/>
+      <c r="A47" s="33"/>
+      <c r="B47" s="34"/>
       <c r="C47" s="2" t="s">
         <v>18</v>
       </c>
@@ -1877,10 +1923,10 @@
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A48" s="39" t="s">
+      <c r="A48" s="33" t="s">
         <v>90</v>
       </c>
-      <c r="B48" s="40" t="s">
+      <c r="B48" s="34" t="s">
         <v>91</v>
       </c>
       <c r="C48" s="2" t="s">
@@ -1894,8 +1940,8 @@
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A49" s="39"/>
-      <c r="B49" s="40"/>
+      <c r="A49" s="33"/>
+      <c r="B49" s="34"/>
       <c r="C49" s="2" t="s">
         <v>18</v>
       </c>
@@ -1914,13 +1960,13 @@
       <c r="E50" s="8"/>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A51" s="36" t="s">
+      <c r="A51" s="30" t="s">
         <v>92</v>
       </c>
-      <c r="B51" s="37"/>
-      <c r="C51" s="37"/>
-      <c r="D51" s="37"/>
-      <c r="E51" s="38"/>
+      <c r="B51" s="31"/>
+      <c r="C51" s="31"/>
+      <c r="D51" s="31"/>
+      <c r="E51" s="32"/>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A52" s="21" t="s">
@@ -1955,13 +2001,13 @@
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A54" s="41" t="s">
+      <c r="A54" s="35" t="s">
         <v>33</v>
       </c>
-      <c r="B54" s="42"/>
-      <c r="C54" s="42"/>
-      <c r="D54" s="42"/>
-      <c r="E54" s="43"/>
+      <c r="B54" s="36"/>
+      <c r="C54" s="36"/>
+      <c r="D54" s="36"/>
+      <c r="E54" s="37"/>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A55" s="7" t="s">
@@ -1994,13 +2040,13 @@
       <c r="E56" s="14"/>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A57" s="26" t="s">
+      <c r="A57" s="27" t="s">
         <v>34</v>
       </c>
-      <c r="B57" s="27"/>
-      <c r="C57" s="27"/>
-      <c r="D57" s="27"/>
-      <c r="E57" s="28"/>
+      <c r="B57" s="28"/>
+      <c r="C57" s="28"/>
+      <c r="D57" s="28"/>
+      <c r="E57" s="29"/>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A58" s="7"/>
@@ -2010,40 +2056,123 @@
       <c r="E58" s="8"/>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A59" s="26" t="s">
+      <c r="A59" s="27" t="s">
         <v>35</v>
       </c>
-      <c r="B59" s="27"/>
-      <c r="C59" s="27"/>
-      <c r="D59" s="27"/>
-      <c r="E59" s="28"/>
+      <c r="B59" s="28"/>
+      <c r="C59" s="28"/>
+      <c r="D59" s="28"/>
+      <c r="E59" s="29"/>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A60" s="7"/>
-      <c r="B60" s="2"/>
-      <c r="C60" s="2"/>
-      <c r="D60" s="2"/>
-      <c r="E60" s="8"/>
+      <c r="A60" s="41" t="s">
+        <v>114</v>
+      </c>
+      <c r="B60" s="43" t="s">
+        <v>115</v>
+      </c>
+      <c r="C60" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="D60" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="E60" s="8" t="s">
+        <v>116</v>
+      </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A61" s="26" t="s">
+      <c r="A61" s="42"/>
+      <c r="B61" s="45"/>
+      <c r="C61" s="13" t="s">
+        <v>120</v>
+      </c>
+      <c r="D61" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="E61" s="14" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A62" s="15" t="s">
+        <v>119</v>
+      </c>
+      <c r="B62" s="26" t="s">
+        <v>118</v>
+      </c>
+      <c r="C62" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="D62" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="E62" s="14" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A63" s="41" t="s">
+        <v>121</v>
+      </c>
+      <c r="B63" s="43" t="s">
+        <v>122</v>
+      </c>
+      <c r="C63" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="D63" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="E63" s="14" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A64" s="42"/>
+      <c r="B64" s="44"/>
+      <c r="C64" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="D64" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="E64" s="46" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A65" s="27" t="s">
         <v>36</v>
       </c>
-      <c r="B61" s="27"/>
-      <c r="C61" s="27"/>
-      <c r="D61" s="27"/>
-      <c r="E61" s="28"/>
-    </row>
-    <row r="62" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A62" s="9"/>
-      <c r="B62" s="10"/>
-      <c r="C62" s="10"/>
-      <c r="D62" s="10"/>
-      <c r="E62" s="11"/>
+      <c r="B65" s="28"/>
+      <c r="C65" s="28"/>
+      <c r="D65" s="28"/>
+      <c r="E65" s="29"/>
+    </row>
+    <row r="66" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A66" s="9"/>
+      <c r="B66" s="10"/>
+      <c r="C66" s="10"/>
+      <c r="D66" s="10"/>
+      <c r="E66" s="11"/>
     </row>
   </sheetData>
-  <mergeCells count="25">
-    <mergeCell ref="A61:E61"/>
+  <mergeCells count="29">
+    <mergeCell ref="A60:A61"/>
+    <mergeCell ref="B60:B61"/>
+    <mergeCell ref="A63:A64"/>
+    <mergeCell ref="B63:B64"/>
+    <mergeCell ref="A33:E33"/>
+    <mergeCell ref="A2:E2"/>
+    <mergeCell ref="A7:E7"/>
+    <mergeCell ref="A14:E14"/>
+    <mergeCell ref="A21:E21"/>
+    <mergeCell ref="A31:E31"/>
+    <mergeCell ref="A24:E24"/>
+    <mergeCell ref="A26:A27"/>
+    <mergeCell ref="B26:B27"/>
+    <mergeCell ref="A65:E65"/>
     <mergeCell ref="A35:E35"/>
     <mergeCell ref="A37:E37"/>
     <mergeCell ref="A39:E39"/>
@@ -2059,15 +2188,6 @@
     <mergeCell ref="A48:A49"/>
     <mergeCell ref="B48:B49"/>
     <mergeCell ref="A54:E54"/>
-    <mergeCell ref="A33:E33"/>
-    <mergeCell ref="A2:E2"/>
-    <mergeCell ref="A7:E7"/>
-    <mergeCell ref="A14:E14"/>
-    <mergeCell ref="A21:E21"/>
-    <mergeCell ref="A31:E31"/>
-    <mergeCell ref="A24:E24"/>
-    <mergeCell ref="A26:A27"/>
-    <mergeCell ref="B26:B27"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="B3" r:id="rId1" xr:uid="{3FB3FA06-DE47-4C2D-AFD7-F5FC45E3D126}"/>
@@ -2083,11 +2203,14 @@
     <hyperlink ref="B52" r:id="rId11" xr:uid="{914A5C5A-20B3-4526-A460-020F9852AFDB}"/>
     <hyperlink ref="B53" r:id="rId12" xr:uid="{0B2D15B8-18BF-46A5-991E-6E53ADC95851}"/>
     <hyperlink ref="B25" r:id="rId13" xr:uid="{93A177B9-936F-4ED5-9F32-EB31F0D8F614}"/>
+    <hyperlink ref="B60" r:id="rId14" xr:uid="{9CD2E86C-B1BA-4CC3-9E52-ECA767380715}"/>
+    <hyperlink ref="B62" r:id="rId15" xr:uid="{30EBB8AD-10BE-47B9-BF85-DBCCCE948784}"/>
+    <hyperlink ref="E64" r:id="rId16" xr:uid="{080A2B1B-6640-47F1-9DAB-1F0914BD9938}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="90" verticalDpi="90" r:id="rId14"/>
+  <pageSetup orientation="portrait" horizontalDpi="90" verticalDpi="90" r:id="rId17"/>
   <headerFooter>
-    <oddFooter>&amp;L11/21/2021&amp;CAXP Internal&amp;R1</oddFooter>
+    <oddFooter>&amp;L12/30/2021&amp;CAXP Internal&amp;R1</oddFooter>
   </headerFooter>
 </worksheet>
 </file>
--- a/SDE Sheet.xlsx
+++ b/SDE Sheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Src Code\Personal\SDE-Sheet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EBD55593-234F-4802-BDB0-63F154AAA076}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6BAF8CB9-B826-42B3-8D15-0A2B81875076}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{83934561-A72F-4836-B1E7-4EE8C35F9874}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="125">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="128">
   <si>
     <t>Matrix</t>
   </si>
@@ -505,6 +505,15 @@
   </si>
   <si>
     <t>https://leetcode.com/problems/convert-sorted-list-to-binary-search-tree/discuss/35525/Share-my-code-with-O(n)-time-and-O(1)-space</t>
+  </si>
+  <si>
+    <t>Spiral Matrix</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/spiral-matrix/</t>
+  </si>
+  <si>
+    <t>Check all corner cases</t>
   </si>
 </sst>
 </file>
@@ -927,6 +936,22 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="12" xfId="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -936,6 +961,15 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -960,31 +994,6 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="12" xfId="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1300,10 +1309,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D3EBAEE5-B4E7-4BD5-B694-FD6EEA5E8AC0}">
-  <dimension ref="A1:E66"/>
+  <dimension ref="A1:E67"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A52" zoomScale="77" workbookViewId="0">
-      <selection activeCell="E76" sqref="E76"/>
+    <sheetView tabSelected="1" topLeftCell="A15" zoomScale="77" workbookViewId="0">
+      <selection activeCell="I33" sqref="I33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1333,13 +1342,13 @@
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A2" s="38" t="s">
+      <c r="A2" s="36" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="39"/>
-      <c r="C2" s="39"/>
-      <c r="D2" s="39"/>
-      <c r="E2" s="40"/>
+      <c r="B2" s="37"/>
+      <c r="C2" s="37"/>
+      <c r="D2" s="37"/>
+      <c r="E2" s="38"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3" s="7" t="s">
@@ -1400,13 +1409,13 @@
       <c r="E6" s="8"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A7" s="27" t="s">
+      <c r="A7" s="33" t="s">
         <v>15</v>
       </c>
-      <c r="B7" s="28"/>
-      <c r="C7" s="28"/>
-      <c r="D7" s="28"/>
-      <c r="E7" s="29"/>
+      <c r="B7" s="34"/>
+      <c r="C7" s="34"/>
+      <c r="D7" s="34"/>
+      <c r="E7" s="35"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A8" s="7" t="s">
@@ -1501,13 +1510,13 @@
       <c r="E13" s="18"/>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A14" s="27" t="s">
+      <c r="A14" s="33" t="s">
         <v>22</v>
       </c>
-      <c r="B14" s="28"/>
-      <c r="C14" s="28"/>
-      <c r="D14" s="28"/>
-      <c r="E14" s="29"/>
+      <c r="B14" s="34"/>
+      <c r="C14" s="34"/>
+      <c r="D14" s="34"/>
+      <c r="E14" s="35"/>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A15" s="7" t="s">
@@ -1602,13 +1611,13 @@
       <c r="E20" s="14"/>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A21" s="27" t="s">
+      <c r="A21" s="33" t="s">
         <v>23</v>
       </c>
-      <c r="B21" s="28"/>
-      <c r="C21" s="28"/>
-      <c r="D21" s="28"/>
-      <c r="E21" s="29"/>
+      <c r="B21" s="34"/>
+      <c r="C21" s="34"/>
+      <c r="D21" s="34"/>
+      <c r="E21" s="35"/>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A22" s="7" t="s">
@@ -1635,13 +1644,13 @@
       <c r="E23" s="8"/>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A24" s="27" t="s">
+      <c r="A24" s="33" t="s">
         <v>99</v>
       </c>
-      <c r="B24" s="28"/>
-      <c r="C24" s="28"/>
-      <c r="D24" s="28"/>
-      <c r="E24" s="29"/>
+      <c r="B24" s="34"/>
+      <c r="C24" s="34"/>
+      <c r="D24" s="34"/>
+      <c r="E24" s="35"/>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A25" s="15" t="s">
@@ -1661,10 +1670,10 @@
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A26" s="41" t="s">
+      <c r="A26" s="28" t="s">
         <v>109</v>
       </c>
-      <c r="B26" s="43" t="s">
+      <c r="B26" s="30" t="s">
         <v>110</v>
       </c>
       <c r="C26" s="13" t="s">
@@ -1678,8 +1687,8 @@
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A27" s="42"/>
-      <c r="B27" s="44"/>
+      <c r="A27" s="29"/>
+      <c r="B27" s="32"/>
       <c r="C27" s="13" t="s">
         <v>101</v>
       </c>
@@ -1726,161 +1735,161 @@
       <c r="E30" s="14"/>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A31" s="27" t="s">
+      <c r="A31" s="15" t="s">
+        <v>125</v>
+      </c>
+      <c r="B31" s="12" t="s">
+        <v>126</v>
+      </c>
+      <c r="C31" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="D31" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="E31" s="14" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A32" s="33" t="s">
         <v>29</v>
       </c>
-      <c r="B31" s="28"/>
-      <c r="C31" s="28"/>
-      <c r="D31" s="28"/>
-      <c r="E31" s="29"/>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A32" s="7"/>
-      <c r="B32" s="2"/>
-      <c r="C32" s="2"/>
-      <c r="D32" s="2"/>
-      <c r="E32" s="8"/>
+      <c r="B32" s="34"/>
+      <c r="C32" s="34"/>
+      <c r="D32" s="34"/>
+      <c r="E32" s="35"/>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A33" s="27" t="s">
+      <c r="A33" s="7"/>
+      <c r="B33" s="2"/>
+      <c r="C33" s="2"/>
+      <c r="D33" s="2"/>
+      <c r="E33" s="8"/>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A34" s="33" t="s">
         <v>30</v>
       </c>
-      <c r="B33" s="28"/>
-      <c r="C33" s="28"/>
-      <c r="D33" s="28"/>
-      <c r="E33" s="29"/>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A34" s="7"/>
-      <c r="B34" s="2"/>
-      <c r="C34" s="2"/>
-      <c r="D34" s="2"/>
-      <c r="E34" s="8"/>
+      <c r="B34" s="34"/>
+      <c r="C34" s="34"/>
+      <c r="D34" s="34"/>
+      <c r="E34" s="35"/>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A35" s="27" t="s">
+      <c r="A35" s="7"/>
+      <c r="B35" s="2"/>
+      <c r="C35" s="2"/>
+      <c r="D35" s="2"/>
+      <c r="E35" s="8"/>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A36" s="33" t="s">
         <v>31</v>
       </c>
-      <c r="B35" s="28"/>
-      <c r="C35" s="28"/>
-      <c r="D35" s="28"/>
-      <c r="E35" s="29"/>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A36" s="7"/>
-      <c r="B36" s="2"/>
-      <c r="C36" s="2"/>
-      <c r="D36" s="2"/>
-      <c r="E36" s="8"/>
+      <c r="B36" s="34"/>
+      <c r="C36" s="34"/>
+      <c r="D36" s="34"/>
+      <c r="E36" s="35"/>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A37" s="27" t="s">
+      <c r="A37" s="7"/>
+      <c r="B37" s="2"/>
+      <c r="C37" s="2"/>
+      <c r="D37" s="2"/>
+      <c r="E37" s="8"/>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A38" s="33" t="s">
         <v>32</v>
       </c>
-      <c r="B37" s="28"/>
-      <c r="C37" s="28"/>
-      <c r="D37" s="28"/>
-      <c r="E37" s="29"/>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A38" s="7"/>
-      <c r="B38" s="2"/>
-      <c r="C38" s="2"/>
-      <c r="D38" s="2"/>
-      <c r="E38" s="8"/>
+      <c r="B38" s="34"/>
+      <c r="C38" s="34"/>
+      <c r="D38" s="34"/>
+      <c r="E38" s="35"/>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A39" s="27" t="s">
-        <v>67</v>
-      </c>
-      <c r="B39" s="28"/>
-      <c r="C39" s="28"/>
-      <c r="D39" s="28"/>
-      <c r="E39" s="29"/>
+      <c r="A39" s="7"/>
+      <c r="B39" s="2"/>
+      <c r="C39" s="2"/>
+      <c r="D39" s="2"/>
+      <c r="E39" s="8"/>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A40" s="33" t="s">
+        <v>67</v>
+      </c>
+      <c r="B40" s="34"/>
+      <c r="C40" s="34"/>
+      <c r="D40" s="34"/>
+      <c r="E40" s="35"/>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A41" s="42" t="s">
         <v>68</v>
       </c>
-      <c r="B40" s="34" t="s">
+      <c r="B41" s="43" t="s">
         <v>65</v>
       </c>
-      <c r="C40" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D40" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E40" s="8" t="s">
+      <c r="C41" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D41" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E41" s="8" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A41" s="33"/>
-      <c r="B41" s="34"/>
-      <c r="C41" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D41" s="2" t="s">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A42" s="42"/>
+      <c r="B42" s="43"/>
+      <c r="C42" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D42" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="E41" s="8" t="s">
+      <c r="E42" s="8" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A42" s="33" t="s">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A43" s="42" t="s">
         <v>69</v>
       </c>
-      <c r="B42" s="34" t="s">
+      <c r="B43" s="43" t="s">
         <v>70</v>
       </c>
-      <c r="C42" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D42" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E42" s="8" t="s">
+      <c r="C43" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D43" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E43" s="8" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A43" s="33"/>
-      <c r="B43" s="34"/>
-      <c r="C43" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D43" s="2" t="s">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A44" s="42"/>
+      <c r="B44" s="43"/>
+      <c r="C44" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D44" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="E43" s="8" t="s">
+      <c r="E44" s="8" t="s">
         <v>66</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A44" s="20" t="s">
-        <v>83</v>
-      </c>
-      <c r="B44" s="16" t="s">
-        <v>84</v>
-      </c>
-      <c r="C44" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D44" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="E44" s="8" t="s">
-        <v>85</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A45" s="20" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="B45" s="16" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="C45" s="2" t="s">
         <v>18</v>
@@ -1889,15 +1898,15 @@
         <v>81</v>
       </c>
       <c r="E45" s="8" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A46" s="33" t="s">
-        <v>87</v>
-      </c>
-      <c r="B46" s="34" t="s">
-        <v>86</v>
+      <c r="A46" s="20" t="s">
+        <v>79</v>
+      </c>
+      <c r="B46" s="16" t="s">
+        <v>80</v>
       </c>
       <c r="C46" s="2" t="s">
         <v>18</v>
@@ -1906,89 +1915,91 @@
         <v>81</v>
       </c>
       <c r="E46" s="8" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A47" s="42" t="s">
+        <v>87</v>
+      </c>
+      <c r="B47" s="43" t="s">
+        <v>86</v>
+      </c>
+      <c r="C47" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D47" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="E47" s="8" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A47" s="33"/>
-      <c r="B47" s="34"/>
-      <c r="C47" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D47" s="2" t="s">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A48" s="42"/>
+      <c r="B48" s="43"/>
+      <c r="C48" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D48" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="E47" s="8" t="s">
+      <c r="E48" s="8" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A48" s="33" t="s">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A49" s="42" t="s">
         <v>90</v>
       </c>
-      <c r="B48" s="34" t="s">
+      <c r="B49" s="43" t="s">
         <v>91</v>
       </c>
-      <c r="C48" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D48" s="2" t="s">
+      <c r="C49" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D49" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="E48" s="8" t="s">
+      <c r="E49" s="8" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A49" s="33"/>
-      <c r="B49" s="34"/>
-      <c r="C49" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D49" s="2" t="s">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A50" s="42"/>
+      <c r="B50" s="43"/>
+      <c r="C50" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D50" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="E49" s="8" t="s">
+      <c r="E50" s="8" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A50" s="20"/>
-      <c r="B50" s="16"/>
-      <c r="C50" s="2"/>
-      <c r="D50" s="2"/>
-      <c r="E50" s="8"/>
-    </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A51" s="30" t="s">
+      <c r="A51" s="20"/>
+      <c r="B51" s="16"/>
+      <c r="C51" s="2"/>
+      <c r="D51" s="2"/>
+      <c r="E51" s="8"/>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A52" s="39" t="s">
         <v>92</v>
       </c>
-      <c r="B51" s="31"/>
-      <c r="C51" s="31"/>
-      <c r="D51" s="31"/>
-      <c r="E51" s="32"/>
-    </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A52" s="21" t="s">
-        <v>94</v>
-      </c>
-      <c r="B52" s="22" t="s">
-        <v>93</v>
-      </c>
-      <c r="C52" s="23" t="s">
-        <v>95</v>
-      </c>
-      <c r="D52" s="23" t="s">
-        <v>95</v>
-      </c>
-      <c r="E52" s="24"/>
+      <c r="B52" s="40"/>
+      <c r="C52" s="40"/>
+      <c r="D52" s="40"/>
+      <c r="E52" s="41"/>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A53" s="21" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="B53" s="22" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="C53" s="23" t="s">
         <v>95</v>
@@ -1996,198 +2007,213 @@
       <c r="D53" s="23" t="s">
         <v>95</v>
       </c>
-      <c r="E53" s="25" t="s">
+      <c r="E53" s="24"/>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A54" s="21" t="s">
+        <v>97</v>
+      </c>
+      <c r="B54" s="22" t="s">
+        <v>96</v>
+      </c>
+      <c r="C54" s="23" t="s">
+        <v>95</v>
+      </c>
+      <c r="D54" s="23" t="s">
+        <v>95</v>
+      </c>
+      <c r="E54" s="25" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A54" s="35" t="s">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A55" s="44" t="s">
         <v>33</v>
       </c>
-      <c r="B54" s="36"/>
-      <c r="C54" s="36"/>
-      <c r="D54" s="36"/>
-      <c r="E54" s="37"/>
-    </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A55" s="7" t="s">
+      <c r="B55" s="45"/>
+      <c r="C55" s="45"/>
+      <c r="D55" s="45"/>
+      <c r="E55" s="46"/>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A56" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="B55" s="1" t="s">
+      <c r="B56" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="C55" s="2" t="s">
+      <c r="C56" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="D55" s="2" t="s">
+      <c r="D56" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="E55" s="8" t="s">
+      <c r="E56" s="8" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A56" s="15" t="s">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A57" s="15" t="s">
         <v>77</v>
       </c>
-      <c r="B56" s="12" t="s">
+      <c r="B57" s="12" t="s">
         <v>78</v>
       </c>
-      <c r="C56" s="13" t="s">
+      <c r="C57" s="13" t="s">
         <v>74</v>
       </c>
-      <c r="D56" s="13"/>
-      <c r="E56" s="14"/>
-    </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A57" s="27" t="s">
+      <c r="D57" s="13"/>
+      <c r="E57" s="14"/>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A58" s="33" t="s">
         <v>34</v>
       </c>
-      <c r="B57" s="28"/>
-      <c r="C57" s="28"/>
-      <c r="D57" s="28"/>
-      <c r="E57" s="29"/>
-    </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A58" s="7"/>
-      <c r="B58" s="2"/>
-      <c r="C58" s="2"/>
-      <c r="D58" s="2"/>
-      <c r="E58" s="8"/>
+      <c r="B58" s="34"/>
+      <c r="C58" s="34"/>
+      <c r="D58" s="34"/>
+      <c r="E58" s="35"/>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A59" s="27" t="s">
+      <c r="A59" s="7"/>
+      <c r="B59" s="2"/>
+      <c r="C59" s="2"/>
+      <c r="D59" s="2"/>
+      <c r="E59" s="8"/>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A60" s="33" t="s">
         <v>35</v>
       </c>
-      <c r="B59" s="28"/>
-      <c r="C59" s="28"/>
-      <c r="D59" s="28"/>
-      <c r="E59" s="29"/>
-    </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A60" s="41" t="s">
+      <c r="B60" s="34"/>
+      <c r="C60" s="34"/>
+      <c r="D60" s="34"/>
+      <c r="E60" s="35"/>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A61" s="28" t="s">
         <v>114</v>
       </c>
-      <c r="B60" s="43" t="s">
+      <c r="B61" s="30" t="s">
         <v>115</v>
       </c>
-      <c r="C60" s="2" t="s">
+      <c r="C61" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="D60" s="2" t="s">
+      <c r="D61" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="E60" s="8" t="s">
+      <c r="E61" s="8" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A61" s="42"/>
-      <c r="B61" s="45"/>
-      <c r="C61" s="13" t="s">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A62" s="29"/>
+      <c r="B62" s="31"/>
+      <c r="C62" s="13" t="s">
         <v>120</v>
       </c>
-      <c r="D61" s="13" t="s">
+      <c r="D62" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="E61" s="14" t="s">
+      <c r="E62" s="14" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A62" s="15" t="s">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A63" s="15" t="s">
         <v>119</v>
       </c>
-      <c r="B62" s="26" t="s">
+      <c r="B63" s="26" t="s">
         <v>118</v>
       </c>
-      <c r="C62" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="D62" s="13" t="s">
-        <v>43</v>
-      </c>
-      <c r="E62" s="14" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A63" s="41" t="s">
-        <v>121</v>
-      </c>
-      <c r="B63" s="43" t="s">
-        <v>122</v>
-      </c>
       <c r="C63" s="13" t="s">
-        <v>54</v>
+        <v>18</v>
       </c>
       <c r="D63" s="13" t="s">
         <v>43</v>
       </c>
       <c r="E63" s="14" t="s">
-        <v>123</v>
+        <v>116</v>
       </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A64" s="42"/>
-      <c r="B64" s="44"/>
+      <c r="A64" s="28" t="s">
+        <v>121</v>
+      </c>
+      <c r="B64" s="30" t="s">
+        <v>122</v>
+      </c>
       <c r="C64" s="13" t="s">
-        <v>18</v>
+        <v>54</v>
       </c>
       <c r="D64" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="E64" s="46" t="s">
+      <c r="E64" s="14" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A65" s="29"/>
+      <c r="B65" s="32"/>
+      <c r="C65" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="D65" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="E65" s="27" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A65" s="27" t="s">
+    <row r="66" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A66" s="33" t="s">
         <v>36</v>
       </c>
-      <c r="B65" s="28"/>
-      <c r="C65" s="28"/>
-      <c r="D65" s="28"/>
-      <c r="E65" s="29"/>
-    </row>
-    <row r="66" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A66" s="9"/>
-      <c r="B66" s="10"/>
-      <c r="C66" s="10"/>
-      <c r="D66" s="10"/>
-      <c r="E66" s="11"/>
+      <c r="B66" s="34"/>
+      <c r="C66" s="34"/>
+      <c r="D66" s="34"/>
+      <c r="E66" s="35"/>
+    </row>
+    <row r="67" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A67" s="9"/>
+      <c r="B67" s="10"/>
+      <c r="C67" s="10"/>
+      <c r="D67" s="10"/>
+      <c r="E67" s="11"/>
     </row>
   </sheetData>
   <mergeCells count="29">
-    <mergeCell ref="A60:A61"/>
-    <mergeCell ref="B60:B61"/>
-    <mergeCell ref="A63:A64"/>
-    <mergeCell ref="B63:B64"/>
-    <mergeCell ref="A33:E33"/>
+    <mergeCell ref="A66:E66"/>
+    <mergeCell ref="A36:E36"/>
+    <mergeCell ref="A38:E38"/>
+    <mergeCell ref="A40:E40"/>
+    <mergeCell ref="A52:E52"/>
+    <mergeCell ref="A58:E58"/>
+    <mergeCell ref="A60:E60"/>
+    <mergeCell ref="A41:A42"/>
+    <mergeCell ref="B41:B42"/>
+    <mergeCell ref="A43:A44"/>
+    <mergeCell ref="B43:B44"/>
+    <mergeCell ref="A47:A48"/>
+    <mergeCell ref="B47:B48"/>
+    <mergeCell ref="A49:A50"/>
+    <mergeCell ref="B49:B50"/>
+    <mergeCell ref="A55:E55"/>
     <mergeCell ref="A2:E2"/>
     <mergeCell ref="A7:E7"/>
     <mergeCell ref="A14:E14"/>
     <mergeCell ref="A21:E21"/>
-    <mergeCell ref="A31:E31"/>
+    <mergeCell ref="A32:E32"/>
     <mergeCell ref="A24:E24"/>
     <mergeCell ref="A26:A27"/>
     <mergeCell ref="B26:B27"/>
-    <mergeCell ref="A65:E65"/>
-    <mergeCell ref="A35:E35"/>
-    <mergeCell ref="A37:E37"/>
-    <mergeCell ref="A39:E39"/>
-    <mergeCell ref="A51:E51"/>
-    <mergeCell ref="A57:E57"/>
-    <mergeCell ref="A59:E59"/>
-    <mergeCell ref="A40:A41"/>
-    <mergeCell ref="B40:B41"/>
-    <mergeCell ref="A42:A43"/>
-    <mergeCell ref="B42:B43"/>
-    <mergeCell ref="A46:A47"/>
-    <mergeCell ref="B46:B47"/>
-    <mergeCell ref="A48:A49"/>
-    <mergeCell ref="B48:B49"/>
-    <mergeCell ref="A54:E54"/>
+    <mergeCell ref="A61:A62"/>
+    <mergeCell ref="B61:B62"/>
+    <mergeCell ref="A64:A65"/>
+    <mergeCell ref="B64:B65"/>
+    <mergeCell ref="A34:E34"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="B3" r:id="rId1" xr:uid="{3FB3FA06-DE47-4C2D-AFD7-F5FC45E3D126}"/>
@@ -2197,15 +2223,15 @@
     <hyperlink ref="B22" r:id="rId5" xr:uid="{6352E065-8925-49FF-AA82-66ED2F9F8651}"/>
     <hyperlink ref="B16" r:id="rId6" xr:uid="{047C68C0-B7AB-4E77-9D1E-B162BD11A209}"/>
     <hyperlink ref="B17" r:id="rId7" xr:uid="{1ABD0EDA-F48F-4D2F-B13C-180B398F1FCD}"/>
-    <hyperlink ref="B40" r:id="rId8" xr:uid="{35D2A43C-BF1B-4339-9217-7116005F7034}"/>
-    <hyperlink ref="B42" r:id="rId9" xr:uid="{233456E2-1B15-4448-A669-82C381357683}"/>
-    <hyperlink ref="B55" r:id="rId10" xr:uid="{4A724644-7F2B-4DE6-9141-A1802140FB4A}"/>
-    <hyperlink ref="B52" r:id="rId11" xr:uid="{914A5C5A-20B3-4526-A460-020F9852AFDB}"/>
-    <hyperlink ref="B53" r:id="rId12" xr:uid="{0B2D15B8-18BF-46A5-991E-6E53ADC95851}"/>
+    <hyperlink ref="B41" r:id="rId8" xr:uid="{35D2A43C-BF1B-4339-9217-7116005F7034}"/>
+    <hyperlink ref="B43" r:id="rId9" xr:uid="{233456E2-1B15-4448-A669-82C381357683}"/>
+    <hyperlink ref="B56" r:id="rId10" xr:uid="{4A724644-7F2B-4DE6-9141-A1802140FB4A}"/>
+    <hyperlink ref="B53" r:id="rId11" xr:uid="{914A5C5A-20B3-4526-A460-020F9852AFDB}"/>
+    <hyperlink ref="B54" r:id="rId12" xr:uid="{0B2D15B8-18BF-46A5-991E-6E53ADC95851}"/>
     <hyperlink ref="B25" r:id="rId13" xr:uid="{93A177B9-936F-4ED5-9F32-EB31F0D8F614}"/>
-    <hyperlink ref="B60" r:id="rId14" xr:uid="{9CD2E86C-B1BA-4CC3-9E52-ECA767380715}"/>
-    <hyperlink ref="B62" r:id="rId15" xr:uid="{30EBB8AD-10BE-47B9-BF85-DBCCCE948784}"/>
-    <hyperlink ref="E64" r:id="rId16" xr:uid="{080A2B1B-6640-47F1-9DAB-1F0914BD9938}"/>
+    <hyperlink ref="B61" r:id="rId14" xr:uid="{9CD2E86C-B1BA-4CC3-9E52-ECA767380715}"/>
+    <hyperlink ref="B63" r:id="rId15" xr:uid="{30EBB8AD-10BE-47B9-BF85-DBCCCE948784}"/>
+    <hyperlink ref="E65" r:id="rId16" xr:uid="{080A2B1B-6640-47F1-9DAB-1F0914BD9938}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="90" verticalDpi="90" r:id="rId17"/>

--- a/SDE Sheet.xlsx
+++ b/SDE Sheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Src Code\Personal\SDE-Sheet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6BAF8CB9-B826-42B3-8D15-0A2B81875076}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{121F3A65-32E1-4F61-AC9E-7B2FEA4FF67D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{83934561-A72F-4836-B1E7-4EE8C35F9874}"/>
   </bookViews>
@@ -441,9 +441,6 @@
     <t>O(1) if sorted else auxiliary array</t>
   </si>
   <si>
-    <t>Smallest value that cannot be represented by subset of array</t>
-  </si>
-  <si>
     <t>DP</t>
   </si>
   <si>
@@ -514,6 +511,9 @@
   </si>
   <si>
     <t>Check all corner cases</t>
+  </si>
+  <si>
+    <t>Smallest value that cannot be represented by sum of subset of array</t>
   </si>
 </sst>
 </file>
@@ -937,6 +937,48 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="12" xfId="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -946,53 +988,11 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1312,12 +1312,12 @@
   <dimension ref="A1:E67"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A15" zoomScale="77" workbookViewId="0">
-      <selection activeCell="I33" sqref="I33"/>
+      <selection activeCell="A25" sqref="A25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="53.26953125" customWidth="1"/>
+    <col min="1" max="1" width="59.08984375" customWidth="1"/>
     <col min="2" max="2" width="77.81640625" customWidth="1"/>
     <col min="3" max="3" width="29.81640625" customWidth="1"/>
     <col min="4" max="4" width="31.26953125" customWidth="1"/>
@@ -1342,13 +1342,13 @@
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A2" s="36" t="s">
+      <c r="A2" s="39" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="37"/>
-      <c r="C2" s="37"/>
-      <c r="D2" s="37"/>
-      <c r="E2" s="38"/>
+      <c r="B2" s="40"/>
+      <c r="C2" s="40"/>
+      <c r="D2" s="40"/>
+      <c r="E2" s="41"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3" s="7" t="s">
@@ -1409,13 +1409,13 @@
       <c r="E6" s="8"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A7" s="33" t="s">
+      <c r="A7" s="28" t="s">
         <v>15</v>
       </c>
-      <c r="B7" s="34"/>
-      <c r="C7" s="34"/>
-      <c r="D7" s="34"/>
-      <c r="E7" s="35"/>
+      <c r="B7" s="29"/>
+      <c r="C7" s="29"/>
+      <c r="D7" s="29"/>
+      <c r="E7" s="30"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A8" s="7" t="s">
@@ -1510,13 +1510,13 @@
       <c r="E13" s="18"/>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A14" s="33" t="s">
+      <c r="A14" s="28" t="s">
         <v>22</v>
       </c>
-      <c r="B14" s="34"/>
-      <c r="C14" s="34"/>
-      <c r="D14" s="34"/>
-      <c r="E14" s="35"/>
+      <c r="B14" s="29"/>
+      <c r="C14" s="29"/>
+      <c r="D14" s="29"/>
+      <c r="E14" s="30"/>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A15" s="7" t="s">
@@ -1611,13 +1611,13 @@
       <c r="E20" s="14"/>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A21" s="33" t="s">
+      <c r="A21" s="28" t="s">
         <v>23</v>
       </c>
-      <c r="B21" s="34"/>
-      <c r="C21" s="34"/>
-      <c r="D21" s="34"/>
-      <c r="E21" s="35"/>
+      <c r="B21" s="29"/>
+      <c r="C21" s="29"/>
+      <c r="D21" s="29"/>
+      <c r="E21" s="30"/>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A22" s="7" t="s">
@@ -1644,17 +1644,17 @@
       <c r="E23" s="8"/>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A24" s="33" t="s">
+      <c r="A24" s="28" t="s">
         <v>99</v>
       </c>
-      <c r="B24" s="34"/>
-      <c r="C24" s="34"/>
-      <c r="D24" s="34"/>
-      <c r="E24" s="35"/>
+      <c r="B24" s="29"/>
+      <c r="C24" s="29"/>
+      <c r="D24" s="29"/>
+      <c r="E24" s="30"/>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A25" s="15" t="s">
-        <v>103</v>
+        <v>127</v>
       </c>
       <c r="B25" s="12" t="s">
         <v>100</v>
@@ -1666,29 +1666,29 @@
         <v>102</v>
       </c>
       <c r="E25" s="14" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A26" s="28" t="s">
+      <c r="A26" s="42" t="s">
+        <v>108</v>
+      </c>
+      <c r="B26" s="44" t="s">
         <v>109</v>
       </c>
-      <c r="B26" s="30" t="s">
+      <c r="C26" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="D26" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="E26" s="14" t="s">
         <v>110</v>
       </c>
-      <c r="C26" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="D26" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="E26" s="14" t="s">
-        <v>111</v>
-      </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A27" s="29"/>
-      <c r="B27" s="32"/>
+      <c r="A27" s="43"/>
+      <c r="B27" s="45"/>
       <c r="C27" s="13" t="s">
         <v>101</v>
       </c>
@@ -1696,30 +1696,30 @@
         <v>102</v>
       </c>
       <c r="E27" s="14" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="28" spans="1:5" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A28" s="15" t="s">
+        <v>104</v>
+      </c>
+      <c r="B28" s="12" t="s">
         <v>105</v>
-      </c>
-      <c r="B28" s="12" t="s">
-        <v>106</v>
       </c>
       <c r="C28" s="13" t="s">
         <v>14</v>
       </c>
       <c r="D28" s="13" t="s">
+        <v>106</v>
+      </c>
+      <c r="E28" s="14" t="s">
         <v>107</v>
-      </c>
-      <c r="E28" s="14" t="s">
-        <v>108</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A29" s="15"/>
       <c r="B29" s="12" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C29" s="13"/>
       <c r="D29" s="13"/>
@@ -1728,7 +1728,7 @@
     <row r="30" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A30" s="15"/>
       <c r="B30" s="12" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C30" s="13"/>
       <c r="D30" s="13"/>
@@ -1736,10 +1736,10 @@
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A31" s="15" t="s">
+        <v>124</v>
+      </c>
+      <c r="B31" s="12" t="s">
         <v>125</v>
-      </c>
-      <c r="B31" s="12" t="s">
-        <v>126</v>
       </c>
       <c r="C31" s="13" t="s">
         <v>3</v>
@@ -1748,17 +1748,17 @@
         <v>4</v>
       </c>
       <c r="E31" s="14" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A32" s="33" t="s">
+      <c r="A32" s="28" t="s">
         <v>29</v>
       </c>
-      <c r="B32" s="34"/>
-      <c r="C32" s="34"/>
-      <c r="D32" s="34"/>
-      <c r="E32" s="35"/>
+      <c r="B32" s="29"/>
+      <c r="C32" s="29"/>
+      <c r="D32" s="29"/>
+      <c r="E32" s="30"/>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A33" s="7"/>
@@ -1768,13 +1768,13 @@
       <c r="E33" s="8"/>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A34" s="33" t="s">
+      <c r="A34" s="28" t="s">
         <v>30</v>
       </c>
-      <c r="B34" s="34"/>
-      <c r="C34" s="34"/>
-      <c r="D34" s="34"/>
-      <c r="E34" s="35"/>
+      <c r="B34" s="29"/>
+      <c r="C34" s="29"/>
+      <c r="D34" s="29"/>
+      <c r="E34" s="30"/>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A35" s="7"/>
@@ -1784,13 +1784,13 @@
       <c r="E35" s="8"/>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A36" s="33" t="s">
+      <c r="A36" s="28" t="s">
         <v>31</v>
       </c>
-      <c r="B36" s="34"/>
-      <c r="C36" s="34"/>
-      <c r="D36" s="34"/>
-      <c r="E36" s="35"/>
+      <c r="B36" s="29"/>
+      <c r="C36" s="29"/>
+      <c r="D36" s="29"/>
+      <c r="E36" s="30"/>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A37" s="7"/>
@@ -1800,13 +1800,13 @@
       <c r="E37" s="8"/>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A38" s="33" t="s">
+      <c r="A38" s="28" t="s">
         <v>32</v>
       </c>
-      <c r="B38" s="34"/>
-      <c r="C38" s="34"/>
-      <c r="D38" s="34"/>
-      <c r="E38" s="35"/>
+      <c r="B38" s="29"/>
+      <c r="C38" s="29"/>
+      <c r="D38" s="29"/>
+      <c r="E38" s="30"/>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A39" s="7"/>
@@ -1816,19 +1816,19 @@
       <c r="E39" s="8"/>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A40" s="33" t="s">
+      <c r="A40" s="28" t="s">
         <v>67</v>
       </c>
-      <c r="B40" s="34"/>
-      <c r="C40" s="34"/>
-      <c r="D40" s="34"/>
-      <c r="E40" s="35"/>
+      <c r="B40" s="29"/>
+      <c r="C40" s="29"/>
+      <c r="D40" s="29"/>
+      <c r="E40" s="30"/>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A41" s="42" t="s">
+      <c r="A41" s="34" t="s">
         <v>68</v>
       </c>
-      <c r="B41" s="43" t="s">
+      <c r="B41" s="35" t="s">
         <v>65</v>
       </c>
       <c r="C41" s="2" t="s">
@@ -1842,8 +1842,8 @@
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A42" s="42"/>
-      <c r="B42" s="43"/>
+      <c r="A42" s="34"/>
+      <c r="B42" s="35"/>
       <c r="C42" s="2" t="s">
         <v>18</v>
       </c>
@@ -1855,10 +1855,10 @@
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A43" s="42" t="s">
+      <c r="A43" s="34" t="s">
         <v>69</v>
       </c>
-      <c r="B43" s="43" t="s">
+      <c r="B43" s="35" t="s">
         <v>70</v>
       </c>
       <c r="C43" s="2" t="s">
@@ -1872,8 +1872,8 @@
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A44" s="42"/>
-      <c r="B44" s="43"/>
+      <c r="A44" s="34"/>
+      <c r="B44" s="35"/>
       <c r="C44" s="2" t="s">
         <v>18</v>
       </c>
@@ -1919,10 +1919,10 @@
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A47" s="42" t="s">
+      <c r="A47" s="34" t="s">
         <v>87</v>
       </c>
-      <c r="B47" s="43" t="s">
+      <c r="B47" s="35" t="s">
         <v>86</v>
       </c>
       <c r="C47" s="2" t="s">
@@ -1936,8 +1936,8 @@
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A48" s="42"/>
-      <c r="B48" s="43"/>
+      <c r="A48" s="34"/>
+      <c r="B48" s="35"/>
       <c r="C48" s="2" t="s">
         <v>18</v>
       </c>
@@ -1949,10 +1949,10 @@
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A49" s="42" t="s">
+      <c r="A49" s="34" t="s">
         <v>90</v>
       </c>
-      <c r="B49" s="43" t="s">
+      <c r="B49" s="35" t="s">
         <v>91</v>
       </c>
       <c r="C49" s="2" t="s">
@@ -1966,8 +1966,8 @@
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A50" s="42"/>
-      <c r="B50" s="43"/>
+      <c r="A50" s="34"/>
+      <c r="B50" s="35"/>
       <c r="C50" s="2" t="s">
         <v>18</v>
       </c>
@@ -1986,13 +1986,13 @@
       <c r="E51" s="8"/>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A52" s="39" t="s">
+      <c r="A52" s="31" t="s">
         <v>92</v>
       </c>
-      <c r="B52" s="40"/>
-      <c r="C52" s="40"/>
-      <c r="D52" s="40"/>
-      <c r="E52" s="41"/>
+      <c r="B52" s="32"/>
+      <c r="C52" s="32"/>
+      <c r="D52" s="32"/>
+      <c r="E52" s="33"/>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A53" s="21" t="s">
@@ -2027,13 +2027,13 @@
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A55" s="44" t="s">
+      <c r="A55" s="36" t="s">
         <v>33</v>
       </c>
-      <c r="B55" s="45"/>
-      <c r="C55" s="45"/>
-      <c r="D55" s="45"/>
-      <c r="E55" s="46"/>
+      <c r="B55" s="37"/>
+      <c r="C55" s="37"/>
+      <c r="D55" s="37"/>
+      <c r="E55" s="38"/>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A56" s="7" t="s">
@@ -2066,13 +2066,13 @@
       <c r="E57" s="14"/>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A58" s="33" t="s">
+      <c r="A58" s="28" t="s">
         <v>34</v>
       </c>
-      <c r="B58" s="34"/>
-      <c r="C58" s="34"/>
-      <c r="D58" s="34"/>
-      <c r="E58" s="35"/>
+      <c r="B58" s="29"/>
+      <c r="C58" s="29"/>
+      <c r="D58" s="29"/>
+      <c r="E58" s="30"/>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A59" s="7"/>
@@ -2082,50 +2082,50 @@
       <c r="E59" s="8"/>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A60" s="33" t="s">
+      <c r="A60" s="28" t="s">
         <v>35</v>
       </c>
-      <c r="B60" s="34"/>
-      <c r="C60" s="34"/>
-      <c r="D60" s="34"/>
-      <c r="E60" s="35"/>
+      <c r="B60" s="29"/>
+      <c r="C60" s="29"/>
+      <c r="D60" s="29"/>
+      <c r="E60" s="30"/>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A61" s="28" t="s">
+      <c r="A61" s="42" t="s">
+        <v>113</v>
+      </c>
+      <c r="B61" s="44" t="s">
         <v>114</v>
       </c>
-      <c r="B61" s="30" t="s">
+      <c r="C61" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="D61" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="E61" s="8" t="s">
         <v>115</v>
       </c>
-      <c r="C61" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="D61" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="E61" s="8" t="s">
-        <v>116</v>
-      </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A62" s="29"/>
-      <c r="B62" s="31"/>
+      <c r="A62" s="43"/>
+      <c r="B62" s="46"/>
       <c r="C62" s="13" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D62" s="13" t="s">
         <v>4</v>
       </c>
       <c r="E62" s="14" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A63" s="15" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B63" s="26" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C63" s="13" t="s">
         <v>18</v>
@@ -2134,15 +2134,15 @@
         <v>43</v>
       </c>
       <c r="E63" s="14" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A64" s="28" t="s">
+      <c r="A64" s="42" t="s">
+        <v>120</v>
+      </c>
+      <c r="B64" s="44" t="s">
         <v>121</v>
-      </c>
-      <c r="B64" s="30" t="s">
-        <v>122</v>
       </c>
       <c r="C64" s="13" t="s">
         <v>54</v>
@@ -2151,12 +2151,12 @@
         <v>43</v>
       </c>
       <c r="E64" s="14" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A65" s="29"/>
-      <c r="B65" s="32"/>
+      <c r="A65" s="43"/>
+      <c r="B65" s="45"/>
       <c r="C65" s="13" t="s">
         <v>18</v>
       </c>
@@ -2164,17 +2164,17 @@
         <v>43</v>
       </c>
       <c r="E65" s="27" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A66" s="33" t="s">
+      <c r="A66" s="28" t="s">
         <v>36</v>
       </c>
-      <c r="B66" s="34"/>
-      <c r="C66" s="34"/>
-      <c r="D66" s="34"/>
-      <c r="E66" s="35"/>
+      <c r="B66" s="29"/>
+      <c r="C66" s="29"/>
+      <c r="D66" s="29"/>
+      <c r="E66" s="30"/>
     </row>
     <row r="67" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A67" s="9"/>
@@ -2185,6 +2185,19 @@
     </row>
   </sheetData>
   <mergeCells count="29">
+    <mergeCell ref="A61:A62"/>
+    <mergeCell ref="B61:B62"/>
+    <mergeCell ref="A64:A65"/>
+    <mergeCell ref="B64:B65"/>
+    <mergeCell ref="A34:E34"/>
+    <mergeCell ref="A2:E2"/>
+    <mergeCell ref="A7:E7"/>
+    <mergeCell ref="A14:E14"/>
+    <mergeCell ref="A21:E21"/>
+    <mergeCell ref="A32:E32"/>
+    <mergeCell ref="A24:E24"/>
+    <mergeCell ref="A26:A27"/>
+    <mergeCell ref="B26:B27"/>
     <mergeCell ref="A66:E66"/>
     <mergeCell ref="A36:E36"/>
     <mergeCell ref="A38:E38"/>
@@ -2201,19 +2214,6 @@
     <mergeCell ref="A49:A50"/>
     <mergeCell ref="B49:B50"/>
     <mergeCell ref="A55:E55"/>
-    <mergeCell ref="A2:E2"/>
-    <mergeCell ref="A7:E7"/>
-    <mergeCell ref="A14:E14"/>
-    <mergeCell ref="A21:E21"/>
-    <mergeCell ref="A32:E32"/>
-    <mergeCell ref="A24:E24"/>
-    <mergeCell ref="A26:A27"/>
-    <mergeCell ref="B26:B27"/>
-    <mergeCell ref="A61:A62"/>
-    <mergeCell ref="B61:B62"/>
-    <mergeCell ref="A64:A65"/>
-    <mergeCell ref="B64:B65"/>
-    <mergeCell ref="A34:E34"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="B3" r:id="rId1" xr:uid="{3FB3FA06-DE47-4C2D-AFD7-F5FC45E3D126}"/>

--- a/SDE Sheet.xlsx
+++ b/SDE Sheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Src Code\Personal\SDE-Sheet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{121F3A65-32E1-4F61-AC9E-7B2FEA4FF67D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{156FD889-4B50-43B7-88E5-300EB0C3F44B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{83934561-A72F-4836-B1E7-4EE8C35F9874}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="128">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="132">
   <si>
     <t>Matrix</t>
   </si>
@@ -514,6 +514,41 @@
   </si>
   <si>
     <t>Smallest value that cannot be represented by sum of subset of array</t>
+  </si>
+  <si>
+    <t>Level</t>
+  </si>
+  <si>
+    <t>Burst Balloons</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/burst-balloons/</t>
+  </si>
+  <si>
+    <r>
+      <t>O(n</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>)</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -593,7 +628,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -624,8 +659,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC00000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="21">
+  <borders count="14">
     <border>
       <left/>
       <right/>
@@ -649,7 +690,7 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
+      <left style="thin">
         <color indexed="64"/>
       </left>
       <right style="thin">
@@ -667,7 +708,7 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="thin">
+      <right style="medium">
         <color indexed="64"/>
       </right>
       <top style="medium">
@@ -685,21 +726,6 @@
       <right style="medium">
         <color indexed="64"/>
       </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -712,21 +738,6 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
       <right style="thin">
         <color indexed="64"/>
       </right>
@@ -742,41 +753,13 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="thin">
+      <right style="medium">
         <color indexed="64"/>
       </right>
       <top style="thin">
         <color indexed="64"/>
       </top>
       <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -787,50 +770,6 @@
       <top style="thin">
         <color indexed="64"/>
       </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
       <bottom/>
       <diagonal/>
     </border>
@@ -839,17 +778,6 @@
         <color indexed="64"/>
       </left>
       <right/>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -861,10 +789,10 @@
       <right style="medium">
         <color indexed="64"/>
       </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -885,115 +813,98 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="47">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="4" xfId="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="12" xfId="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1309,929 +1220,1006 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D3EBAEE5-B4E7-4BD5-B694-FD6EEA5E8AC0}">
-  <dimension ref="A1:E67"/>
+  <dimension ref="A1:F67"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" zoomScale="77" workbookViewId="0">
-      <selection activeCell="A25" sqref="A25"/>
+    <sheetView tabSelected="1" zoomScale="77" workbookViewId="0">
+      <selection activeCell="E25" sqref="E25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="59.08984375" customWidth="1"/>
-    <col min="2" max="2" width="77.81640625" customWidth="1"/>
-    <col min="3" max="3" width="29.81640625" customWidth="1"/>
-    <col min="4" max="4" width="31.26953125" customWidth="1"/>
-    <col min="5" max="5" width="115.54296875" customWidth="1"/>
+    <col min="2" max="2" width="59.08984375" customWidth="1"/>
+    <col min="3" max="3" width="77.81640625" customWidth="1"/>
+    <col min="4" max="4" width="29.81640625" customWidth="1"/>
+    <col min="5" max="5" width="31.26953125" customWidth="1"/>
+    <col min="6" max="6" width="115.54296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A1" s="4" t="s">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A1" s="19" t="s">
+        <v>128</v>
+      </c>
+      <c r="B1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="C1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="D1" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="E1" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="F1" s="4" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A2" s="39" t="s">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A2" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="40"/>
-      <c r="C2" s="40"/>
-      <c r="D2" s="40"/>
-      <c r="E2" s="41"/>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A3" s="7" t="s">
+      <c r="B2" s="15"/>
+      <c r="C2" s="15"/>
+      <c r="D2" s="15"/>
+      <c r="E2" s="15"/>
+      <c r="F2" s="16"/>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A3" s="8"/>
+      <c r="B3" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="C3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="D3" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="E3" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="8" t="s">
+      <c r="F3" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A4" s="7" t="s">
+    <row r="4" spans="1:6" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A4" s="8"/>
+      <c r="B4" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="C4" s="1" t="s">
         <v>11</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>14</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="E4" s="8" t="s">
+      <c r="E4" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F4" s="5" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A5" s="17" t="s">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A5" s="8"/>
+      <c r="B5" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="C5" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="D5" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="D5" s="2" t="s">
+      <c r="E5" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="E5" s="8" t="s">
+      <c r="F5" s="5" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A6" s="7"/>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A6" s="8"/>
       <c r="B6" s="2"/>
-      <c r="C6" s="3"/>
+      <c r="C6" s="2"/>
       <c r="D6" s="2"/>
-      <c r="E6" s="8"/>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A7" s="28" t="s">
+      <c r="E6" s="2"/>
+      <c r="F6" s="5"/>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A7" s="26" t="s">
         <v>15</v>
       </c>
-      <c r="B7" s="29"/>
-      <c r="C7" s="29"/>
-      <c r="D7" s="29"/>
-      <c r="E7" s="30"/>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A8" s="7" t="s">
+      <c r="B7" s="27"/>
+      <c r="C7" s="27"/>
+      <c r="D7" s="27"/>
+      <c r="E7" s="27"/>
+      <c r="F7" s="28"/>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A8" s="8"/>
+      <c r="B8" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="C8" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C8" s="2" t="s">
-        <v>18</v>
-      </c>
       <c r="D8" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E8" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="E8" s="8" t="s">
+      <c r="F8" s="5" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A9" s="15" t="s">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A9" s="8"/>
+      <c r="B9" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="B9" s="12" t="s">
+      <c r="C9" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="C9" s="13" t="s">
+      <c r="D9" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="D9" s="13" t="s">
+      <c r="E9" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="E9" s="14" t="s">
+      <c r="F9" s="5" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A10" s="15" t="s">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A10" s="8"/>
+      <c r="B10" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="B10" s="12" t="s">
+      <c r="C10" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="C10" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="D10" s="13" t="s">
+      <c r="D10" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E10" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="E10" s="18" t="s">
+      <c r="F10" s="23" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A11" s="15" t="s">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A11" s="8"/>
+      <c r="B11" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="B11" s="12" t="s">
+      <c r="C11" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="C11" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="D11" s="13" t="s">
+      <c r="D11" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E11" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="E11" s="8" t="s">
+      <c r="F11" s="5" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A12" s="15" t="s">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A12" s="8"/>
+      <c r="B12" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="B12" s="12" t="s">
+      <c r="C12" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="C12" s="13" t="s">
+      <c r="D12" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="D12" s="13" t="s">
+      <c r="E12" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="E12" s="19" t="s">
+      <c r="F12" s="24" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A13" s="15"/>
-      <c r="B13" s="12"/>
-      <c r="C13" s="13"/>
-      <c r="D13" s="13"/>
-      <c r="E13" s="18"/>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A14" s="28" t="s">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A13" s="8"/>
+      <c r="B13" s="2"/>
+      <c r="C13" s="1"/>
+      <c r="D13" s="2"/>
+      <c r="E13" s="2"/>
+      <c r="F13" s="23"/>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A14" s="26" t="s">
         <v>22</v>
       </c>
-      <c r="B14" s="29"/>
-      <c r="C14" s="29"/>
-      <c r="D14" s="29"/>
-      <c r="E14" s="30"/>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A15" s="7" t="s">
+      <c r="B14" s="27"/>
+      <c r="C14" s="27"/>
+      <c r="D14" s="27"/>
+      <c r="E14" s="27"/>
+      <c r="F14" s="28"/>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A15" s="8"/>
+      <c r="B15" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="B15" s="1" t="s">
+      <c r="C15" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C15" s="2" t="s">
-        <v>18</v>
-      </c>
       <c r="D15" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E15" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="E15" s="8" t="s">
+      <c r="F15" s="5" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A16" s="7" t="s">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A16" s="8"/>
+      <c r="B16" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="B16" s="1" t="s">
+      <c r="C16" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="C16" s="2" t="s">
-        <v>18</v>
-      </c>
       <c r="D16" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E16" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="E16" s="8" t="s">
+      <c r="F16" s="5" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A17" s="7" t="s">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A17" s="8"/>
+      <c r="B17" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="B17" s="1" t="s">
+      <c r="C17" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="C17" s="2" t="s">
-        <v>18</v>
-      </c>
       <c r="D17" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E17" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="E17" s="8" t="s">
+      <c r="F17" s="5" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A18" s="7" t="s">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A18" s="8"/>
+      <c r="B18" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="B18" s="12" t="s">
+      <c r="C18" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="C18" s="13" t="s">
+      <c r="D18" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="D18" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="E18" s="14" t="s">
+      <c r="E18" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F18" s="5" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A19" s="7" t="s">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A19" s="8"/>
+      <c r="B19" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="B19" s="12" t="s">
+      <c r="C19" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="C19" s="13" t="s">
+      <c r="D19" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D19" s="13" t="s">
+      <c r="E19" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="E19" s="14" t="s">
+      <c r="F19" s="5" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A20" s="15"/>
-      <c r="B20" s="12"/>
-      <c r="C20" s="13"/>
-      <c r="D20" s="13"/>
-      <c r="E20" s="14"/>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A21" s="28" t="s">
+    <row r="20" spans="1:6" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A20" s="29"/>
+      <c r="B20" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F20" s="5"/>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A21" s="26" t="s">
         <v>23</v>
       </c>
-      <c r="B21" s="29"/>
-      <c r="C21" s="29"/>
-      <c r="D21" s="29"/>
-      <c r="E21" s="30"/>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A22" s="7" t="s">
+      <c r="B21" s="27"/>
+      <c r="C21" s="27"/>
+      <c r="D21" s="27"/>
+      <c r="E21" s="27"/>
+      <c r="F21" s="28"/>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A22" s="8"/>
+      <c r="B22" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="B22" s="1" t="s">
+      <c r="C22" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="C22" s="2" t="s">
-        <v>18</v>
-      </c>
       <c r="D22" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E22" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="E22" s="8" t="s">
+      <c r="F22" s="5" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A23" s="7"/>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A23" s="8"/>
       <c r="B23" s="2"/>
       <c r="C23" s="2"/>
       <c r="D23" s="2"/>
-      <c r="E23" s="8"/>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A24" s="28" t="s">
+      <c r="E23" s="2"/>
+      <c r="F23" s="5"/>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A24" s="26" t="s">
         <v>99</v>
       </c>
-      <c r="B24" s="29"/>
-      <c r="C24" s="29"/>
-      <c r="D24" s="29"/>
-      <c r="E24" s="30"/>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A25" s="15" t="s">
+      <c r="B24" s="27"/>
+      <c r="C24" s="27"/>
+      <c r="D24" s="27"/>
+      <c r="E24" s="27"/>
+      <c r="F24" s="28"/>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A25" s="8"/>
+      <c r="B25" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="B25" s="12" t="s">
+      <c r="C25" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="C25" s="13" t="s">
+      <c r="D25" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="D25" s="13" t="s">
+      <c r="E25" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="E25" s="14" t="s">
+      <c r="F25" s="5" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A26" s="42" t="s">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A26" s="8"/>
+      <c r="B26" s="20" t="s">
         <v>108</v>
       </c>
-      <c r="B26" s="44" t="s">
+      <c r="C26" s="17" t="s">
         <v>109</v>
       </c>
-      <c r="C26" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="D26" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="E26" s="14" t="s">
+      <c r="D26" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E26" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F26" s="5" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A27" s="43"/>
-      <c r="B27" s="45"/>
-      <c r="C27" s="13" t="s">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A27" s="8"/>
+      <c r="B27" s="20"/>
+      <c r="C27" s="17"/>
+      <c r="D27" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="D27" s="13" t="s">
+      <c r="E27" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="E27" s="14" t="s">
+      <c r="F27" s="5" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="28" spans="1:5" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A28" s="15" t="s">
+    <row r="28" spans="1:6" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A28" s="8"/>
+      <c r="B28" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="B28" s="12" t="s">
+      <c r="C28" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="C28" s="13" t="s">
+      <c r="D28" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D28" s="13" t="s">
+      <c r="E28" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="E28" s="14" t="s">
+      <c r="F28" s="5" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A29" s="15"/>
-      <c r="B29" s="12" t="s">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A29" s="8"/>
+      <c r="B29" s="2"/>
+      <c r="C29" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="C29" s="13"/>
-      <c r="D29" s="13"/>
-      <c r="E29" s="14"/>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A30" s="15"/>
-      <c r="B30" s="12" t="s">
+      <c r="D29" s="2"/>
+      <c r="E29" s="2"/>
+      <c r="F29" s="5"/>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A30" s="8"/>
+      <c r="B30" s="2"/>
+      <c r="C30" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="C30" s="13"/>
-      <c r="D30" s="13"/>
-      <c r="E30" s="14"/>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A31" s="15" t="s">
+      <c r="D30" s="2"/>
+      <c r="E30" s="2"/>
+      <c r="F30" s="5"/>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A31" s="8"/>
+      <c r="B31" s="2" t="s">
         <v>124</v>
       </c>
-      <c r="B31" s="12" t="s">
+      <c r="C31" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="C31" s="13" t="s">
+      <c r="D31" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D31" s="13" t="s">
+      <c r="E31" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="E31" s="14" t="s">
+      <c r="F31" s="5" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A32" s="28" t="s">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A32" s="26" t="s">
         <v>29</v>
       </c>
-      <c r="B32" s="29"/>
-      <c r="C32" s="29"/>
-      <c r="D32" s="29"/>
-      <c r="E32" s="30"/>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A33" s="7"/>
+      <c r="B32" s="27"/>
+      <c r="C32" s="27"/>
+      <c r="D32" s="27"/>
+      <c r="E32" s="27"/>
+      <c r="F32" s="28"/>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A33" s="8"/>
       <c r="B33" s="2"/>
       <c r="C33" s="2"/>
       <c r="D33" s="2"/>
-      <c r="E33" s="8"/>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A34" s="28" t="s">
+      <c r="E33" s="2"/>
+      <c r="F33" s="5"/>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A34" s="26" t="s">
         <v>30</v>
       </c>
-      <c r="B34" s="29"/>
-      <c r="C34" s="29"/>
-      <c r="D34" s="29"/>
-      <c r="E34" s="30"/>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A35" s="7"/>
+      <c r="B34" s="27"/>
+      <c r="C34" s="27"/>
+      <c r="D34" s="27"/>
+      <c r="E34" s="27"/>
+      <c r="F34" s="28"/>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A35" s="8"/>
       <c r="B35" s="2"/>
       <c r="C35" s="2"/>
       <c r="D35" s="2"/>
-      <c r="E35" s="8"/>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A36" s="28" t="s">
+      <c r="E35" s="2"/>
+      <c r="F35" s="5"/>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A36" s="26" t="s">
         <v>31</v>
       </c>
-      <c r="B36" s="29"/>
-      <c r="C36" s="29"/>
-      <c r="D36" s="29"/>
-      <c r="E36" s="30"/>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A37" s="7"/>
+      <c r="B36" s="27"/>
+      <c r="C36" s="27"/>
+      <c r="D36" s="27"/>
+      <c r="E36" s="27"/>
+      <c r="F36" s="28"/>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A37" s="8"/>
       <c r="B37" s="2"/>
       <c r="C37" s="2"/>
       <c r="D37" s="2"/>
-      <c r="E37" s="8"/>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A38" s="28" t="s">
+      <c r="E37" s="2"/>
+      <c r="F37" s="5"/>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A38" s="26" t="s">
         <v>32</v>
       </c>
-      <c r="B38" s="29"/>
-      <c r="C38" s="29"/>
-      <c r="D38" s="29"/>
-      <c r="E38" s="30"/>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A39" s="7"/>
+      <c r="B38" s="27"/>
+      <c r="C38" s="27"/>
+      <c r="D38" s="27"/>
+      <c r="E38" s="27"/>
+      <c r="F38" s="28"/>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A39" s="8"/>
       <c r="B39" s="2"/>
       <c r="C39" s="2"/>
       <c r="D39" s="2"/>
-      <c r="E39" s="8"/>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A40" s="28" t="s">
+      <c r="E39" s="2"/>
+      <c r="F39" s="5"/>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A40" s="26" t="s">
         <v>67</v>
       </c>
-      <c r="B40" s="29"/>
-      <c r="C40" s="29"/>
-      <c r="D40" s="29"/>
-      <c r="E40" s="30"/>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A41" s="34" t="s">
+      <c r="B40" s="27"/>
+      <c r="C40" s="27"/>
+      <c r="D40" s="27"/>
+      <c r="E40" s="27"/>
+      <c r="F40" s="28"/>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A41" s="8"/>
+      <c r="B41" s="20" t="s">
         <v>68</v>
       </c>
-      <c r="B41" s="35" t="s">
+      <c r="C41" s="17" t="s">
         <v>65</v>
       </c>
-      <c r="C41" s="2" t="s">
-        <v>18</v>
-      </c>
       <c r="D41" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="E41" s="8" t="s">
+      <c r="E41" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F41" s="5" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A42" s="34"/>
-      <c r="B42" s="35"/>
-      <c r="C42" s="2" t="s">
-        <v>18</v>
-      </c>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A42" s="8"/>
+      <c r="B42" s="20"/>
+      <c r="C42" s="17"/>
       <c r="D42" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E42" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="E42" s="8" t="s">
+      <c r="F42" s="5" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A43" s="34" t="s">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A43" s="8"/>
+      <c r="B43" s="20" t="s">
         <v>69</v>
       </c>
-      <c r="B43" s="35" t="s">
+      <c r="C43" s="17" t="s">
         <v>70</v>
       </c>
-      <c r="C43" s="2" t="s">
-        <v>18</v>
-      </c>
       <c r="D43" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="E43" s="8" t="s">
+      <c r="E43" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F43" s="5" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A44" s="34"/>
-      <c r="B44" s="35"/>
-      <c r="C44" s="2" t="s">
-        <v>18</v>
-      </c>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A44" s="8"/>
+      <c r="B44" s="20"/>
+      <c r="C44" s="17"/>
       <c r="D44" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E44" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="E44" s="8" t="s">
+      <c r="F44" s="5" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A45" s="20" t="s">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A45" s="8"/>
+      <c r="B45" s="21" t="s">
         <v>83</v>
       </c>
-      <c r="B45" s="16" t="s">
+      <c r="C45" s="13" t="s">
         <v>84</v>
       </c>
-      <c r="C45" s="2" t="s">
-        <v>18</v>
-      </c>
       <c r="D45" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E45" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="E45" s="8" t="s">
+      <c r="F45" s="5" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A46" s="20" t="s">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A46" s="8"/>
+      <c r="B46" s="21" t="s">
         <v>79</v>
       </c>
-      <c r="B46" s="16" t="s">
+      <c r="C46" s="13" t="s">
         <v>80</v>
       </c>
-      <c r="C46" s="2" t="s">
-        <v>18</v>
-      </c>
       <c r="D46" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E46" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="E46" s="8" t="s">
+      <c r="F46" s="5" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A47" s="34" t="s">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A47" s="8"/>
+      <c r="B47" s="20" t="s">
         <v>87</v>
       </c>
-      <c r="B47" s="35" t="s">
+      <c r="C47" s="17" t="s">
         <v>86</v>
       </c>
-      <c r="C47" s="2" t="s">
-        <v>18</v>
-      </c>
       <c r="D47" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E47" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="E47" s="8" t="s">
+      <c r="F47" s="5" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A48" s="34"/>
-      <c r="B48" s="35"/>
-      <c r="C48" s="2" t="s">
-        <v>18</v>
-      </c>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A48" s="8"/>
+      <c r="B48" s="20"/>
+      <c r="C48" s="17"/>
       <c r="D48" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E48" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="E48" s="8" t="s">
+      <c r="F48" s="5" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A49" s="34" t="s">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A49" s="8"/>
+      <c r="B49" s="20" t="s">
         <v>90</v>
       </c>
-      <c r="B49" s="35" t="s">
+      <c r="C49" s="17" t="s">
         <v>91</v>
       </c>
-      <c r="C49" s="2" t="s">
-        <v>18</v>
-      </c>
       <c r="D49" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E49" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="E49" s="8" t="s">
+      <c r="F49" s="5" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A50" s="34"/>
-      <c r="B50" s="35"/>
-      <c r="C50" s="2" t="s">
-        <v>18</v>
-      </c>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A50" s="8"/>
+      <c r="B50" s="20"/>
+      <c r="C50" s="17"/>
       <c r="D50" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E50" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="E50" s="8" t="s">
+      <c r="F50" s="5" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A51" s="20"/>
-      <c r="B51" s="16"/>
-      <c r="C51" s="2"/>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A51" s="8"/>
+      <c r="B51" s="21"/>
+      <c r="C51" s="13"/>
       <c r="D51" s="2"/>
-      <c r="E51" s="8"/>
-    </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A52" s="31" t="s">
+      <c r="E51" s="2"/>
+      <c r="F51" s="5"/>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A52" s="26" t="s">
         <v>92</v>
       </c>
-      <c r="B52" s="32"/>
-      <c r="C52" s="32"/>
-      <c r="D52" s="32"/>
-      <c r="E52" s="33"/>
-    </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A53" s="21" t="s">
+      <c r="B52" s="27"/>
+      <c r="C52" s="27"/>
+      <c r="D52" s="27"/>
+      <c r="E52" s="27"/>
+      <c r="F52" s="28"/>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A53" s="8"/>
+      <c r="B53" s="22" t="s">
         <v>94</v>
       </c>
-      <c r="B53" s="22" t="s">
+      <c r="C53" s="9" t="s">
         <v>93</v>
       </c>
-      <c r="C53" s="23" t="s">
+      <c r="D53" s="10" t="s">
         <v>95</v>
       </c>
-      <c r="D53" s="23" t="s">
+      <c r="E53" s="10" t="s">
         <v>95</v>
       </c>
-      <c r="E53" s="24"/>
-    </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A54" s="21" t="s">
+      <c r="F53" s="11"/>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A54" s="8"/>
+      <c r="B54" s="22" t="s">
         <v>97</v>
       </c>
-      <c r="B54" s="22" t="s">
+      <c r="C54" s="9" t="s">
         <v>96</v>
       </c>
-      <c r="C54" s="23" t="s">
+      <c r="D54" s="10" t="s">
         <v>95</v>
       </c>
-      <c r="D54" s="23" t="s">
+      <c r="E54" s="10" t="s">
         <v>95</v>
       </c>
-      <c r="E54" s="25" t="s">
+      <c r="F54" s="12" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A55" s="36" t="s">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A55" s="26" t="s">
         <v>33</v>
       </c>
-      <c r="B55" s="37"/>
-      <c r="C55" s="37"/>
-      <c r="D55" s="37"/>
-      <c r="E55" s="38"/>
-    </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A56" s="7" t="s">
+      <c r="B55" s="27"/>
+      <c r="C55" s="27"/>
+      <c r="D55" s="27"/>
+      <c r="E55" s="27"/>
+      <c r="F55" s="28"/>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A56" s="8"/>
+      <c r="B56" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="B56" s="1" t="s">
+      <c r="C56" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="C56" s="2" t="s">
+      <c r="D56" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="D56" s="2" t="s">
+      <c r="E56" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="E56" s="8" t="s">
+      <c r="F56" s="5" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A57" s="15" t="s">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A57" s="8"/>
+      <c r="B57" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="B57" s="12" t="s">
+      <c r="C57" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="C57" s="13" t="s">
+      <c r="D57" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="D57" s="13"/>
-      <c r="E57" s="14"/>
-    </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A58" s="28" t="s">
+      <c r="E57" s="2"/>
+      <c r="F57" s="5"/>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A58" s="26" t="s">
         <v>34</v>
       </c>
-      <c r="B58" s="29"/>
-      <c r="C58" s="29"/>
-      <c r="D58" s="29"/>
-      <c r="E58" s="30"/>
-    </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A59" s="7"/>
+      <c r="B58" s="27"/>
+      <c r="C58" s="27"/>
+      <c r="D58" s="27"/>
+      <c r="E58" s="27"/>
+      <c r="F58" s="28"/>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A59" s="8"/>
       <c r="B59" s="2"/>
       <c r="C59" s="2"/>
       <c r="D59" s="2"/>
-      <c r="E59" s="8"/>
-    </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A60" s="28" t="s">
+      <c r="E59" s="2"/>
+      <c r="F59" s="5"/>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A60" s="26" t="s">
         <v>35</v>
       </c>
-      <c r="B60" s="29"/>
-      <c r="C60" s="29"/>
-      <c r="D60" s="29"/>
-      <c r="E60" s="30"/>
-    </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A61" s="42" t="s">
+      <c r="B60" s="27"/>
+      <c r="C60" s="27"/>
+      <c r="D60" s="27"/>
+      <c r="E60" s="27"/>
+      <c r="F60" s="28"/>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A61" s="8"/>
+      <c r="B61" s="20" t="s">
         <v>113</v>
       </c>
-      <c r="B61" s="44" t="s">
+      <c r="C61" s="17" t="s">
         <v>114</v>
-      </c>
-      <c r="C61" s="2" t="s">
-        <v>119</v>
       </c>
       <c r="D61" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="E61" s="8" t="s">
+      <c r="E61" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="F61" s="5" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A62" s="43"/>
-      <c r="B62" s="46"/>
-      <c r="C62" s="13" t="s">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A62" s="8"/>
+      <c r="B62" s="20"/>
+      <c r="C62" s="20"/>
+      <c r="D62" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="D62" s="13" t="s">
+      <c r="E62" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="E62" s="14" t="s">
+      <c r="F62" s="5" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A63" s="15" t="s">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A63" s="8"/>
+      <c r="B63" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="B63" s="26" t="s">
+      <c r="C63" s="13" t="s">
         <v>117</v>
       </c>
-      <c r="C63" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="D63" s="13" t="s">
+      <c r="D63" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E63" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="E63" s="14" t="s">
+      <c r="F63" s="5" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A64" s="42" t="s">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A64" s="8"/>
+      <c r="B64" s="20" t="s">
         <v>120</v>
       </c>
-      <c r="B64" s="44" t="s">
+      <c r="C64" s="17" t="s">
         <v>121</v>
       </c>
-      <c r="C64" s="13" t="s">
+      <c r="D64" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="D64" s="13" t="s">
+      <c r="E64" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="E64" s="14" t="s">
+      <c r="F64" s="5" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A65" s="43"/>
-      <c r="B65" s="45"/>
-      <c r="C65" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="D65" s="13" t="s">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A65" s="8"/>
+      <c r="B65" s="20"/>
+      <c r="C65" s="17"/>
+      <c r="D65" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E65" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="E65" s="27" t="s">
+      <c r="F65" s="25" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A66" s="28" t="s">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A66" s="26" t="s">
         <v>36</v>
       </c>
-      <c r="B66" s="29"/>
-      <c r="C66" s="29"/>
-      <c r="D66" s="29"/>
-      <c r="E66" s="30"/>
-    </row>
-    <row r="67" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A67" s="9"/>
-      <c r="B67" s="10"/>
-      <c r="C67" s="10"/>
-      <c r="D67" s="10"/>
-      <c r="E67" s="11"/>
+      <c r="B66" s="27"/>
+      <c r="C66" s="27"/>
+      <c r="D66" s="27"/>
+      <c r="E66" s="27"/>
+      <c r="F66" s="28"/>
+    </row>
+    <row r="67" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A67" s="18"/>
+      <c r="B67" s="6"/>
+      <c r="C67" s="6"/>
+      <c r="D67" s="6"/>
+      <c r="E67" s="6"/>
+      <c r="F67" s="7"/>
     </row>
   </sheetData>
   <mergeCells count="29">
-    <mergeCell ref="A61:A62"/>
+    <mergeCell ref="A55:F55"/>
+    <mergeCell ref="A58:F58"/>
+    <mergeCell ref="A60:F60"/>
+    <mergeCell ref="A66:F66"/>
+    <mergeCell ref="A34:F34"/>
+    <mergeCell ref="A36:F36"/>
+    <mergeCell ref="A38:F38"/>
+    <mergeCell ref="A40:F40"/>
+    <mergeCell ref="A52:F52"/>
+    <mergeCell ref="B41:B42"/>
+    <mergeCell ref="C41:C42"/>
+    <mergeCell ref="B43:B44"/>
+    <mergeCell ref="C43:C44"/>
+    <mergeCell ref="B47:B48"/>
+    <mergeCell ref="C47:C48"/>
+    <mergeCell ref="B49:B50"/>
+    <mergeCell ref="C49:C50"/>
+    <mergeCell ref="B26:B27"/>
+    <mergeCell ref="C26:C27"/>
+    <mergeCell ref="A2:F2"/>
+    <mergeCell ref="A7:F7"/>
+    <mergeCell ref="A14:F14"/>
+    <mergeCell ref="A21:F21"/>
+    <mergeCell ref="A24:F24"/>
+    <mergeCell ref="A32:F32"/>
     <mergeCell ref="B61:B62"/>
-    <mergeCell ref="A64:A65"/>
+    <mergeCell ref="C61:C62"/>
     <mergeCell ref="B64:B65"/>
-    <mergeCell ref="A34:E34"/>
-    <mergeCell ref="A2:E2"/>
-    <mergeCell ref="A7:E7"/>
-    <mergeCell ref="A14:E14"/>
-    <mergeCell ref="A21:E21"/>
-    <mergeCell ref="A32:E32"/>
-    <mergeCell ref="A24:E24"/>
-    <mergeCell ref="A26:A27"/>
-    <mergeCell ref="B26:B27"/>
-    <mergeCell ref="A66:E66"/>
-    <mergeCell ref="A36:E36"/>
-    <mergeCell ref="A38:E38"/>
-    <mergeCell ref="A40:E40"/>
-    <mergeCell ref="A52:E52"/>
-    <mergeCell ref="A58:E58"/>
-    <mergeCell ref="A60:E60"/>
-    <mergeCell ref="A41:A42"/>
-    <mergeCell ref="B41:B42"/>
-    <mergeCell ref="A43:A44"/>
-    <mergeCell ref="B43:B44"/>
-    <mergeCell ref="A47:A48"/>
-    <mergeCell ref="B47:B48"/>
-    <mergeCell ref="A49:A50"/>
-    <mergeCell ref="B49:B50"/>
-    <mergeCell ref="A55:E55"/>
+    <mergeCell ref="C64:C65"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="B3" r:id="rId1" xr:uid="{3FB3FA06-DE47-4C2D-AFD7-F5FC45E3D126}"/>
-    <hyperlink ref="B4" r:id="rId2" xr:uid="{C4A51F70-7D5B-496B-8FD0-AB7121D9FCE1}"/>
-    <hyperlink ref="B8" r:id="rId3" xr:uid="{678D7AA2-36D2-4A02-971F-3FB9391E8E35}"/>
-    <hyperlink ref="B15" r:id="rId4" xr:uid="{2AC6AF52-CC30-4063-833D-09178907C109}"/>
-    <hyperlink ref="B22" r:id="rId5" xr:uid="{6352E065-8925-49FF-AA82-66ED2F9F8651}"/>
-    <hyperlink ref="B16" r:id="rId6" xr:uid="{047C68C0-B7AB-4E77-9D1E-B162BD11A209}"/>
-    <hyperlink ref="B17" r:id="rId7" xr:uid="{1ABD0EDA-F48F-4D2F-B13C-180B398F1FCD}"/>
-    <hyperlink ref="B41" r:id="rId8" xr:uid="{35D2A43C-BF1B-4339-9217-7116005F7034}"/>
-    <hyperlink ref="B43" r:id="rId9" xr:uid="{233456E2-1B15-4448-A669-82C381357683}"/>
-    <hyperlink ref="B56" r:id="rId10" xr:uid="{4A724644-7F2B-4DE6-9141-A1802140FB4A}"/>
-    <hyperlink ref="B53" r:id="rId11" xr:uid="{914A5C5A-20B3-4526-A460-020F9852AFDB}"/>
-    <hyperlink ref="B54" r:id="rId12" xr:uid="{0B2D15B8-18BF-46A5-991E-6E53ADC95851}"/>
-    <hyperlink ref="B25" r:id="rId13" xr:uid="{93A177B9-936F-4ED5-9F32-EB31F0D8F614}"/>
-    <hyperlink ref="B61" r:id="rId14" xr:uid="{9CD2E86C-B1BA-4CC3-9E52-ECA767380715}"/>
-    <hyperlink ref="B63" r:id="rId15" xr:uid="{30EBB8AD-10BE-47B9-BF85-DBCCCE948784}"/>
-    <hyperlink ref="E65" r:id="rId16" xr:uid="{080A2B1B-6640-47F1-9DAB-1F0914BD9938}"/>
+    <hyperlink ref="C3" r:id="rId1" xr:uid="{3FB3FA06-DE47-4C2D-AFD7-F5FC45E3D126}"/>
+    <hyperlink ref="C4" r:id="rId2" xr:uid="{C4A51F70-7D5B-496B-8FD0-AB7121D9FCE1}"/>
+    <hyperlink ref="C8" r:id="rId3" xr:uid="{678D7AA2-36D2-4A02-971F-3FB9391E8E35}"/>
+    <hyperlink ref="C15" r:id="rId4" xr:uid="{2AC6AF52-CC30-4063-833D-09178907C109}"/>
+    <hyperlink ref="C22" r:id="rId5" xr:uid="{6352E065-8925-49FF-AA82-66ED2F9F8651}"/>
+    <hyperlink ref="C16" r:id="rId6" xr:uid="{047C68C0-B7AB-4E77-9D1E-B162BD11A209}"/>
+    <hyperlink ref="C17" r:id="rId7" xr:uid="{1ABD0EDA-F48F-4D2F-B13C-180B398F1FCD}"/>
+    <hyperlink ref="C41" r:id="rId8" xr:uid="{35D2A43C-BF1B-4339-9217-7116005F7034}"/>
+    <hyperlink ref="C43" r:id="rId9" xr:uid="{233456E2-1B15-4448-A669-82C381357683}"/>
+    <hyperlink ref="C56" r:id="rId10" xr:uid="{4A724644-7F2B-4DE6-9141-A1802140FB4A}"/>
+    <hyperlink ref="C53" r:id="rId11" xr:uid="{914A5C5A-20B3-4526-A460-020F9852AFDB}"/>
+    <hyperlink ref="C54" r:id="rId12" xr:uid="{0B2D15B8-18BF-46A5-991E-6E53ADC95851}"/>
+    <hyperlink ref="C25" r:id="rId13" xr:uid="{93A177B9-936F-4ED5-9F32-EB31F0D8F614}"/>
+    <hyperlink ref="C61" r:id="rId14" xr:uid="{9CD2E86C-B1BA-4CC3-9E52-ECA767380715}"/>
+    <hyperlink ref="C63" r:id="rId15" xr:uid="{30EBB8AD-10BE-47B9-BF85-DBCCCE948784}"/>
+    <hyperlink ref="F65" r:id="rId16" xr:uid="{080A2B1B-6640-47F1-9DAB-1F0914BD9938}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="90" verticalDpi="90" r:id="rId17"/>

--- a/SDE Sheet.xlsx
+++ b/SDE Sheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Src Code\Personal\SDE-Sheet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{156FD889-4B50-43B7-88E5-300EB0C3F44B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9DFB7791-5524-472B-8608-9B1E67210FA7}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{83934561-A72F-4836-B1E7-4EE8C35F9874}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="132">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="136">
   <si>
     <t>Matrix</t>
   </si>
@@ -549,6 +549,18 @@
       </rPr>
       <t>)</t>
     </r>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/smallest-integer-divisible-by-k/</t>
+  </si>
+  <si>
+    <t>Smallest Integer Divisible by K</t>
+  </si>
+  <si>
+    <t>O(k)</t>
+  </si>
+  <si>
+    <t>Modulus Operations</t>
   </si>
 </sst>
 </file>
@@ -628,18 +640,12 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.39997558519241921"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -665,6 +671,18 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="14">
     <border>
@@ -842,45 +860,30 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -894,17 +897,33 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="4" xfId="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1223,7 +1242,7 @@
   <dimension ref="A1:F67"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="77" workbookViewId="0">
-      <selection activeCell="E25" sqref="E25"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1236,7 +1255,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A1" s="19" t="s">
+      <c r="A1" s="15" t="s">
         <v>128</v>
       </c>
       <c r="B1" s="3" t="s">
@@ -1256,14 +1275,14 @@
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A2" s="14" t="s">
+      <c r="A2" s="28" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="15"/>
-      <c r="C2" s="15"/>
-      <c r="D2" s="15"/>
-      <c r="E2" s="15"/>
-      <c r="F2" s="16"/>
+      <c r="B2" s="29"/>
+      <c r="C2" s="29"/>
+      <c r="D2" s="29"/>
+      <c r="E2" s="29"/>
+      <c r="F2" s="30"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A3" s="8"/>
@@ -1328,14 +1347,14 @@
       <c r="F6" s="5"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A7" s="26" t="s">
+      <c r="A7" s="25" t="s">
         <v>15</v>
       </c>
-      <c r="B7" s="27"/>
-      <c r="C7" s="27"/>
-      <c r="D7" s="27"/>
-      <c r="E7" s="27"/>
-      <c r="F7" s="28"/>
+      <c r="B7" s="26"/>
+      <c r="C7" s="26"/>
+      <c r="D7" s="26"/>
+      <c r="E7" s="26"/>
+      <c r="F7" s="27"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A8" s="8"/>
@@ -1387,7 +1406,7 @@
       <c r="E10" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F10" s="23" t="s">
+      <c r="F10" s="18" t="s">
         <v>47</v>
       </c>
     </row>
@@ -1423,27 +1442,37 @@
       <c r="E12" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F12" s="24" t="s">
+      <c r="F12" s="19" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A13" s="8"/>
-      <c r="B13" s="2"/>
-      <c r="C13" s="1"/>
-      <c r="D13" s="2"/>
-      <c r="E13" s="2"/>
-      <c r="F13" s="23"/>
+      <c r="A13" s="24"/>
+      <c r="B13" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F13" s="19" t="s">
+        <v>135</v>
+      </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A14" s="26" t="s">
+      <c r="A14" s="25" t="s">
         <v>22</v>
       </c>
-      <c r="B14" s="27"/>
-      <c r="C14" s="27"/>
-      <c r="D14" s="27"/>
-      <c r="E14" s="27"/>
-      <c r="F14" s="28"/>
+      <c r="B14" s="26"/>
+      <c r="C14" s="26"/>
+      <c r="D14" s="26"/>
+      <c r="E14" s="26"/>
+      <c r="F14" s="27"/>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A15" s="8"/>
@@ -1536,7 +1565,7 @@
       </c>
     </row>
     <row r="20" spans="1:6" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A20" s="29"/>
+      <c r="A20" s="21"/>
       <c r="B20" s="2" t="s">
         <v>129</v>
       </c>
@@ -1552,14 +1581,14 @@
       <c r="F20" s="5"/>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A21" s="26" t="s">
+      <c r="A21" s="25" t="s">
         <v>23</v>
       </c>
-      <c r="B21" s="27"/>
-      <c r="C21" s="27"/>
-      <c r="D21" s="27"/>
-      <c r="E21" s="27"/>
-      <c r="F21" s="28"/>
+      <c r="B21" s="26"/>
+      <c r="C21" s="26"/>
+      <c r="D21" s="26"/>
+      <c r="E21" s="26"/>
+      <c r="F21" s="27"/>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A22" s="8"/>
@@ -1588,14 +1617,14 @@
       <c r="F23" s="5"/>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A24" s="26" t="s">
+      <c r="A24" s="25" t="s">
         <v>99</v>
       </c>
-      <c r="B24" s="27"/>
-      <c r="C24" s="27"/>
-      <c r="D24" s="27"/>
-      <c r="E24" s="27"/>
-      <c r="F24" s="28"/>
+      <c r="B24" s="26"/>
+      <c r="C24" s="26"/>
+      <c r="D24" s="26"/>
+      <c r="E24" s="26"/>
+      <c r="F24" s="27"/>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A25" s="8"/>
@@ -1617,10 +1646,10 @@
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A26" s="8"/>
-      <c r="B26" s="20" t="s">
+      <c r="B26" s="22" t="s">
         <v>108</v>
       </c>
-      <c r="C26" s="17" t="s">
+      <c r="C26" s="23" t="s">
         <v>109</v>
       </c>
       <c r="D26" s="2" t="s">
@@ -1635,8 +1664,8 @@
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A27" s="8"/>
-      <c r="B27" s="20"/>
-      <c r="C27" s="17"/>
+      <c r="B27" s="22"/>
+      <c r="C27" s="23"/>
       <c r="D27" s="2" t="s">
         <v>101</v>
       </c>
@@ -1704,14 +1733,14 @@
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A32" s="26" t="s">
+      <c r="A32" s="25" t="s">
         <v>29</v>
       </c>
-      <c r="B32" s="27"/>
-      <c r="C32" s="27"/>
-      <c r="D32" s="27"/>
-      <c r="E32" s="27"/>
-      <c r="F32" s="28"/>
+      <c r="B32" s="26"/>
+      <c r="C32" s="26"/>
+      <c r="D32" s="26"/>
+      <c r="E32" s="26"/>
+      <c r="F32" s="27"/>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A33" s="8"/>
@@ -1722,14 +1751,14 @@
       <c r="F33" s="5"/>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A34" s="26" t="s">
+      <c r="A34" s="25" t="s">
         <v>30</v>
       </c>
-      <c r="B34" s="27"/>
-      <c r="C34" s="27"/>
-      <c r="D34" s="27"/>
-      <c r="E34" s="27"/>
-      <c r="F34" s="28"/>
+      <c r="B34" s="26"/>
+      <c r="C34" s="26"/>
+      <c r="D34" s="26"/>
+      <c r="E34" s="26"/>
+      <c r="F34" s="27"/>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A35" s="8"/>
@@ -1740,14 +1769,14 @@
       <c r="F35" s="5"/>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A36" s="26" t="s">
+      <c r="A36" s="25" t="s">
         <v>31</v>
       </c>
-      <c r="B36" s="27"/>
-      <c r="C36" s="27"/>
-      <c r="D36" s="27"/>
-      <c r="E36" s="27"/>
-      <c r="F36" s="28"/>
+      <c r="B36" s="26"/>
+      <c r="C36" s="26"/>
+      <c r="D36" s="26"/>
+      <c r="E36" s="26"/>
+      <c r="F36" s="27"/>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A37" s="8"/>
@@ -1758,14 +1787,14 @@
       <c r="F37" s="5"/>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A38" s="26" t="s">
+      <c r="A38" s="25" t="s">
         <v>32</v>
       </c>
-      <c r="B38" s="27"/>
-      <c r="C38" s="27"/>
-      <c r="D38" s="27"/>
-      <c r="E38" s="27"/>
-      <c r="F38" s="28"/>
+      <c r="B38" s="26"/>
+      <c r="C38" s="26"/>
+      <c r="D38" s="26"/>
+      <c r="E38" s="26"/>
+      <c r="F38" s="27"/>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A39" s="8"/>
@@ -1776,21 +1805,21 @@
       <c r="F39" s="5"/>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A40" s="26" t="s">
+      <c r="A40" s="25" t="s">
         <v>67</v>
       </c>
-      <c r="B40" s="27"/>
-      <c r="C40" s="27"/>
-      <c r="D40" s="27"/>
-      <c r="E40" s="27"/>
-      <c r="F40" s="28"/>
+      <c r="B40" s="26"/>
+      <c r="C40" s="26"/>
+      <c r="D40" s="26"/>
+      <c r="E40" s="26"/>
+      <c r="F40" s="27"/>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A41" s="8"/>
-      <c r="B41" s="20" t="s">
+      <c r="B41" s="22" t="s">
         <v>68</v>
       </c>
-      <c r="C41" s="17" t="s">
+      <c r="C41" s="23" t="s">
         <v>65</v>
       </c>
       <c r="D41" s="2" t="s">
@@ -1805,8 +1834,8 @@
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A42" s="8"/>
-      <c r="B42" s="20"/>
-      <c r="C42" s="17"/>
+      <c r="B42" s="22"/>
+      <c r="C42" s="23"/>
       <c r="D42" s="2" t="s">
         <v>18</v>
       </c>
@@ -1819,10 +1848,10 @@
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A43" s="8"/>
-      <c r="B43" s="20" t="s">
+      <c r="B43" s="22" t="s">
         <v>69</v>
       </c>
-      <c r="C43" s="17" t="s">
+      <c r="C43" s="23" t="s">
         <v>70</v>
       </c>
       <c r="D43" s="2" t="s">
@@ -1837,8 +1866,8 @@
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A44" s="8"/>
-      <c r="B44" s="20"/>
-      <c r="C44" s="17"/>
+      <c r="B44" s="22"/>
+      <c r="C44" s="23"/>
       <c r="D44" s="2" t="s">
         <v>18</v>
       </c>
@@ -1851,7 +1880,7 @@
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A45" s="8"/>
-      <c r="B45" s="21" t="s">
+      <c r="B45" s="16" t="s">
         <v>83</v>
       </c>
       <c r="C45" s="13" t="s">
@@ -1869,7 +1898,7 @@
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A46" s="8"/>
-      <c r="B46" s="21" t="s">
+      <c r="B46" s="16" t="s">
         <v>79</v>
       </c>
       <c r="C46" s="13" t="s">
@@ -1887,10 +1916,10 @@
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A47" s="8"/>
-      <c r="B47" s="20" t="s">
+      <c r="B47" s="22" t="s">
         <v>87</v>
       </c>
-      <c r="C47" s="17" t="s">
+      <c r="C47" s="23" t="s">
         <v>86</v>
       </c>
       <c r="D47" s="2" t="s">
@@ -1905,8 +1934,8 @@
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A48" s="8"/>
-      <c r="B48" s="20"/>
-      <c r="C48" s="17"/>
+      <c r="B48" s="22"/>
+      <c r="C48" s="23"/>
       <c r="D48" s="2" t="s">
         <v>18</v>
       </c>
@@ -1919,10 +1948,10 @@
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A49" s="8"/>
-      <c r="B49" s="20" t="s">
+      <c r="B49" s="22" t="s">
         <v>90</v>
       </c>
-      <c r="C49" s="17" t="s">
+      <c r="C49" s="23" t="s">
         <v>91</v>
       </c>
       <c r="D49" s="2" t="s">
@@ -1937,8 +1966,8 @@
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A50" s="8"/>
-      <c r="B50" s="20"/>
-      <c r="C50" s="17"/>
+      <c r="B50" s="22"/>
+      <c r="C50" s="23"/>
       <c r="D50" s="2" t="s">
         <v>18</v>
       </c>
@@ -1951,25 +1980,25 @@
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A51" s="8"/>
-      <c r="B51" s="21"/>
+      <c r="B51" s="16"/>
       <c r="C51" s="13"/>
       <c r="D51" s="2"/>
       <c r="E51" s="2"/>
       <c r="F51" s="5"/>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A52" s="26" t="s">
+      <c r="A52" s="25" t="s">
         <v>92</v>
       </c>
-      <c r="B52" s="27"/>
-      <c r="C52" s="27"/>
-      <c r="D52" s="27"/>
-      <c r="E52" s="27"/>
-      <c r="F52" s="28"/>
+      <c r="B52" s="26"/>
+      <c r="C52" s="26"/>
+      <c r="D52" s="26"/>
+      <c r="E52" s="26"/>
+      <c r="F52" s="27"/>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A53" s="8"/>
-      <c r="B53" s="22" t="s">
+      <c r="B53" s="17" t="s">
         <v>94</v>
       </c>
       <c r="C53" s="9" t="s">
@@ -1985,7 +2014,7 @@
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A54" s="8"/>
-      <c r="B54" s="22" t="s">
+      <c r="B54" s="17" t="s">
         <v>97</v>
       </c>
       <c r="C54" s="9" t="s">
@@ -2002,14 +2031,14 @@
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A55" s="26" t="s">
+      <c r="A55" s="25" t="s">
         <v>33</v>
       </c>
-      <c r="B55" s="27"/>
-      <c r="C55" s="27"/>
-      <c r="D55" s="27"/>
-      <c r="E55" s="27"/>
-      <c r="F55" s="28"/>
+      <c r="B55" s="26"/>
+      <c r="C55" s="26"/>
+      <c r="D55" s="26"/>
+      <c r="E55" s="26"/>
+      <c r="F55" s="27"/>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A56" s="8"/>
@@ -2044,14 +2073,14 @@
       <c r="F57" s="5"/>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A58" s="26" t="s">
+      <c r="A58" s="25" t="s">
         <v>34</v>
       </c>
-      <c r="B58" s="27"/>
-      <c r="C58" s="27"/>
-      <c r="D58" s="27"/>
-      <c r="E58" s="27"/>
-      <c r="F58" s="28"/>
+      <c r="B58" s="26"/>
+      <c r="C58" s="26"/>
+      <c r="D58" s="26"/>
+      <c r="E58" s="26"/>
+      <c r="F58" s="27"/>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A59" s="8"/>
@@ -2062,21 +2091,21 @@
       <c r="F59" s="5"/>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A60" s="26" t="s">
+      <c r="A60" s="25" t="s">
         <v>35</v>
       </c>
-      <c r="B60" s="27"/>
-      <c r="C60" s="27"/>
-      <c r="D60" s="27"/>
-      <c r="E60" s="27"/>
-      <c r="F60" s="28"/>
+      <c r="B60" s="26"/>
+      <c r="C60" s="26"/>
+      <c r="D60" s="26"/>
+      <c r="E60" s="26"/>
+      <c r="F60" s="27"/>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A61" s="8"/>
-      <c r="B61" s="20" t="s">
+      <c r="B61" s="22" t="s">
         <v>113</v>
       </c>
-      <c r="C61" s="17" t="s">
+      <c r="C61" s="23" t="s">
         <v>114</v>
       </c>
       <c r="D61" s="2" t="s">
@@ -2091,8 +2120,8 @@
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A62" s="8"/>
-      <c r="B62" s="20"/>
-      <c r="C62" s="20"/>
+      <c r="B62" s="22"/>
+      <c r="C62" s="22"/>
       <c r="D62" s="2" t="s">
         <v>119</v>
       </c>
@@ -2123,10 +2152,10 @@
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A64" s="8"/>
-      <c r="B64" s="20" t="s">
+      <c r="B64" s="22" t="s">
         <v>120</v>
       </c>
-      <c r="C64" s="17" t="s">
+      <c r="C64" s="23" t="s">
         <v>121</v>
       </c>
       <c r="D64" s="2" t="s">
@@ -2141,30 +2170,30 @@
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A65" s="8"/>
-      <c r="B65" s="20"/>
-      <c r="C65" s="17"/>
+      <c r="B65" s="22"/>
+      <c r="C65" s="23"/>
       <c r="D65" s="2" t="s">
         <v>18</v>
       </c>
       <c r="E65" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="F65" s="25" t="s">
+      <c r="F65" s="20" t="s">
         <v>123</v>
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A66" s="26" t="s">
+      <c r="A66" s="25" t="s">
         <v>36</v>
       </c>
-      <c r="B66" s="27"/>
-      <c r="C66" s="27"/>
-      <c r="D66" s="27"/>
-      <c r="E66" s="27"/>
-      <c r="F66" s="28"/>
+      <c r="B66" s="26"/>
+      <c r="C66" s="26"/>
+      <c r="D66" s="26"/>
+      <c r="E66" s="26"/>
+      <c r="F66" s="27"/>
     </row>
     <row r="67" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A67" s="18"/>
+      <c r="A67" s="14"/>
       <c r="B67" s="6"/>
       <c r="C67" s="6"/>
       <c r="D67" s="6"/>
@@ -2173,6 +2202,19 @@
     </row>
   </sheetData>
   <mergeCells count="29">
+    <mergeCell ref="B61:B62"/>
+    <mergeCell ref="C61:C62"/>
+    <mergeCell ref="B64:B65"/>
+    <mergeCell ref="C64:C65"/>
+    <mergeCell ref="C49:C50"/>
+    <mergeCell ref="B26:B27"/>
+    <mergeCell ref="C26:C27"/>
+    <mergeCell ref="A2:F2"/>
+    <mergeCell ref="A7:F7"/>
+    <mergeCell ref="A14:F14"/>
+    <mergeCell ref="A21:F21"/>
+    <mergeCell ref="A24:F24"/>
+    <mergeCell ref="A32:F32"/>
     <mergeCell ref="A55:F55"/>
     <mergeCell ref="A58:F58"/>
     <mergeCell ref="A60:F60"/>
@@ -2189,19 +2231,6 @@
     <mergeCell ref="B47:B48"/>
     <mergeCell ref="C47:C48"/>
     <mergeCell ref="B49:B50"/>
-    <mergeCell ref="C49:C50"/>
-    <mergeCell ref="B26:B27"/>
-    <mergeCell ref="C26:C27"/>
-    <mergeCell ref="A2:F2"/>
-    <mergeCell ref="A7:F7"/>
-    <mergeCell ref="A14:F14"/>
-    <mergeCell ref="A21:F21"/>
-    <mergeCell ref="A24:F24"/>
-    <mergeCell ref="A32:F32"/>
-    <mergeCell ref="B61:B62"/>
-    <mergeCell ref="C61:C62"/>
-    <mergeCell ref="B64:B65"/>
-    <mergeCell ref="C64:C65"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="C3" r:id="rId1" xr:uid="{3FB3FA06-DE47-4C2D-AFD7-F5FC45E3D126}"/>

--- a/SDE Sheet.xlsx
+++ b/SDE Sheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Src Code\Personal\SDE-Sheet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9DFB7791-5524-472B-8608-9B1E67210FA7}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53DAA796-1150-4A50-9113-51893A91E292}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{83934561-A72F-4836-B1E7-4EE8C35F9874}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="136">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="235" uniqueCount="151">
   <si>
     <t>Matrix</t>
   </si>
@@ -561,6 +561,51 @@
   </si>
   <si>
     <t>Modulus Operations</t>
+  </si>
+  <si>
+    <t>Middle of the Linked List</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/middle-of-the-linked-list/</t>
+  </si>
+  <si>
+    <t>Reverse Linked List</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/reverse-linked-list/</t>
+  </si>
+  <si>
+    <t>Merge 2 Sorted Lists</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/merge-two-sorted-lists/</t>
+  </si>
+  <si>
+    <t>O(m+n)</t>
+  </si>
+  <si>
+    <t>Delete Node in a Linked List</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/delete-node-in-a-linked-list/</t>
+  </si>
+  <si>
+    <t>Understanding of pointers</t>
+  </si>
+  <si>
+    <t>Add 2 numbers</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/add-two-numbers/</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/remove-nth-node-from-end-of-list/</t>
+  </si>
+  <si>
+    <t>Remove Kth Node From End of List</t>
+  </si>
+  <si>
+    <t>Revisit for corner cases</t>
   </si>
 </sst>
 </file>
@@ -640,7 +685,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -683,8 +728,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="14">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -707,223 +758,49 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1239,10 +1116,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D3EBAEE5-B4E7-4BD5-B694-FD6EEA5E8AC0}">
-  <dimension ref="A1:F67"/>
+  <dimension ref="A1:F72"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="77" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+    <sheetView tabSelected="1" zoomScale="74" workbookViewId="0">
+      <selection activeCell="F41" sqref="F41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1255,37 +1132,37 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A1" s="15" t="s">
+      <c r="A1" s="10" t="s">
         <v>128</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="F1" s="10" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A2" s="28" t="s">
+      <c r="A2" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="29"/>
-      <c r="C2" s="29"/>
-      <c r="D2" s="29"/>
-      <c r="E2" s="29"/>
-      <c r="F2" s="30"/>
+      <c r="B2" s="11"/>
+      <c r="C2" s="11"/>
+      <c r="D2" s="11"/>
+      <c r="E2" s="11"/>
+      <c r="F2" s="11"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A3" s="8"/>
+      <c r="A3" s="2"/>
       <c r="B3" s="2" t="s">
         <v>1</v>
       </c>
@@ -1298,12 +1175,12 @@
       <c r="E3" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F3" s="5" t="s">
+      <c r="F3" s="2" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A4" s="8"/>
+      <c r="A4" s="2"/>
       <c r="B4" s="2" t="s">
         <v>12</v>
       </c>
@@ -1316,12 +1193,12 @@
       <c r="E4" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F4" s="5" t="s">
+      <c r="F4" s="2" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A5" s="8"/>
+      <c r="A5" s="2"/>
       <c r="B5" s="2" t="s">
         <v>37</v>
       </c>
@@ -1334,30 +1211,30 @@
       <c r="E5" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F5" s="5" t="s">
+      <c r="F5" s="2" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A6" s="8"/>
+      <c r="A6" s="2"/>
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
-      <c r="F6" s="5"/>
+      <c r="F6" s="2"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A7" s="25" t="s">
+      <c r="A7" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="B7" s="26"/>
-      <c r="C7" s="26"/>
-      <c r="D7" s="26"/>
-      <c r="E7" s="26"/>
-      <c r="F7" s="27"/>
+      <c r="B7" s="11"/>
+      <c r="C7" s="11"/>
+      <c r="D7" s="11"/>
+      <c r="E7" s="11"/>
+      <c r="F7" s="11"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A8" s="8"/>
+      <c r="A8" s="2"/>
       <c r="B8" s="2" t="s">
         <v>16</v>
       </c>
@@ -1370,12 +1247,12 @@
       <c r="E8" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F8" s="5" t="s">
+      <c r="F8" s="2" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A9" s="8"/>
+      <c r="A9" s="2"/>
       <c r="B9" s="2" t="s">
         <v>42</v>
       </c>
@@ -1388,12 +1265,12 @@
       <c r="E9" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="F9" s="5" t="s">
+      <c r="F9" s="2" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A10" s="8"/>
+      <c r="A10" s="2"/>
       <c r="B10" s="2" t="s">
         <v>45</v>
       </c>
@@ -1406,12 +1283,12 @@
       <c r="E10" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F10" s="18" t="s">
+      <c r="F10" s="12" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A11" s="8"/>
+      <c r="A11" s="2"/>
       <c r="B11" s="2" t="s">
         <v>48</v>
       </c>
@@ -1424,12 +1301,12 @@
       <c r="E11" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F11" s="5" t="s">
+      <c r="F11" s="2" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A12" s="8"/>
+      <c r="A12" s="2"/>
       <c r="B12" s="2" t="s">
         <v>64</v>
       </c>
@@ -1442,12 +1319,12 @@
       <c r="E12" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F12" s="19" t="s">
+      <c r="F12" s="13" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A13" s="24"/>
+      <c r="A13" s="14"/>
       <c r="B13" s="2" t="s">
         <v>133</v>
       </c>
@@ -1460,22 +1337,22 @@
       <c r="E13" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F13" s="19" t="s">
+      <c r="F13" s="13" t="s">
         <v>135</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A14" s="25" t="s">
+      <c r="A14" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="B14" s="26"/>
-      <c r="C14" s="26"/>
-      <c r="D14" s="26"/>
-      <c r="E14" s="26"/>
-      <c r="F14" s="27"/>
+      <c r="B14" s="11"/>
+      <c r="C14" s="11"/>
+      <c r="D14" s="11"/>
+      <c r="E14" s="11"/>
+      <c r="F14" s="11"/>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A15" s="8"/>
+      <c r="A15" s="2"/>
       <c r="B15" s="2" t="s">
         <v>21</v>
       </c>
@@ -1488,12 +1365,12 @@
       <c r="E15" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F15" s="5" t="s">
+      <c r="F15" s="2" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A16" s="8"/>
+      <c r="A16" s="2"/>
       <c r="B16" s="2" t="s">
         <v>26</v>
       </c>
@@ -1506,12 +1383,12 @@
       <c r="E16" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F16" s="5" t="s">
+      <c r="F16" s="2" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A17" s="8"/>
+      <c r="A17" s="2"/>
       <c r="B17" s="2" t="s">
         <v>50</v>
       </c>
@@ -1524,12 +1401,12 @@
       <c r="E17" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F17" s="5" t="s">
+      <c r="F17" s="2" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A18" s="8"/>
+      <c r="A18" s="2"/>
       <c r="B18" s="2" t="s">
         <v>56</v>
       </c>
@@ -1542,12 +1419,12 @@
       <c r="E18" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="F18" s="5" t="s">
+      <c r="F18" s="2" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A19" s="8"/>
+      <c r="A19" s="2"/>
       <c r="B19" s="2" t="s">
         <v>57</v>
       </c>
@@ -1560,12 +1437,12 @@
       <c r="E19" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="F19" s="5" t="s">
+      <c r="F19" s="2" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="20" spans="1:6" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A20" s="21"/>
+      <c r="A20" s="15"/>
       <c r="B20" s="2" t="s">
         <v>129</v>
       </c>
@@ -1578,20 +1455,20 @@
       <c r="E20" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F20" s="5"/>
+      <c r="F20" s="2"/>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A21" s="25" t="s">
+      <c r="A21" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="B21" s="26"/>
-      <c r="C21" s="26"/>
-      <c r="D21" s="26"/>
-      <c r="E21" s="26"/>
-      <c r="F21" s="27"/>
+      <c r="B21" s="11"/>
+      <c r="C21" s="11"/>
+      <c r="D21" s="11"/>
+      <c r="E21" s="11"/>
+      <c r="F21" s="11"/>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A22" s="8"/>
+      <c r="A22" s="2"/>
       <c r="B22" s="2" t="s">
         <v>25</v>
       </c>
@@ -1604,30 +1481,30 @@
       <c r="E22" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F22" s="5" t="s">
+      <c r="F22" s="2" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A23" s="8"/>
+      <c r="A23" s="2"/>
       <c r="B23" s="2"/>
       <c r="C23" s="2"/>
       <c r="D23" s="2"/>
       <c r="E23" s="2"/>
-      <c r="F23" s="5"/>
+      <c r="F23" s="2"/>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A24" s="25" t="s">
+      <c r="A24" s="11" t="s">
         <v>99</v>
       </c>
-      <c r="B24" s="26"/>
-      <c r="C24" s="26"/>
-      <c r="D24" s="26"/>
-      <c r="E24" s="26"/>
-      <c r="F24" s="27"/>
+      <c r="B24" s="11"/>
+      <c r="C24" s="11"/>
+      <c r="D24" s="11"/>
+      <c r="E24" s="11"/>
+      <c r="F24" s="11"/>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A25" s="8"/>
+      <c r="A25" s="2"/>
       <c r="B25" s="2" t="s">
         <v>127</v>
       </c>
@@ -1640,16 +1517,16 @@
       <c r="E25" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="F25" s="5" t="s">
+      <c r="F25" s="2" t="s">
         <v>103</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A26" s="8"/>
-      <c r="B26" s="22" t="s">
+      <c r="A26" s="2"/>
+      <c r="B26" s="8" t="s">
         <v>108</v>
       </c>
-      <c r="C26" s="23" t="s">
+      <c r="C26" s="9" t="s">
         <v>109</v>
       </c>
       <c r="D26" s="2" t="s">
@@ -1658,26 +1535,26 @@
       <c r="E26" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="F26" s="5" t="s">
+      <c r="F26" s="2" t="s">
         <v>110</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A27" s="8"/>
-      <c r="B27" s="22"/>
-      <c r="C27" s="23"/>
+      <c r="A27" s="2"/>
+      <c r="B27" s="8"/>
+      <c r="C27" s="9"/>
       <c r="D27" s="2" t="s">
         <v>101</v>
       </c>
       <c r="E27" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="F27" s="5" t="s">
+      <c r="F27" s="2" t="s">
         <v>107</v>
       </c>
     </row>
     <row r="28" spans="1:6" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A28" s="8"/>
+      <c r="A28" s="2"/>
       <c r="B28" s="2" t="s">
         <v>104</v>
       </c>
@@ -1690,32 +1567,32 @@
       <c r="E28" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="F28" s="5" t="s">
+      <c r="F28" s="2" t="s">
         <v>107</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A29" s="8"/>
+      <c r="A29" s="2"/>
       <c r="B29" s="2"/>
       <c r="C29" s="1" t="s">
         <v>111</v>
       </c>
       <c r="D29" s="2"/>
       <c r="E29" s="2"/>
-      <c r="F29" s="5"/>
+      <c r="F29" s="2"/>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A30" s="8"/>
+      <c r="A30" s="2"/>
       <c r="B30" s="2"/>
       <c r="C30" s="1" t="s">
         <v>112</v>
       </c>
       <c r="D30" s="2"/>
       <c r="E30" s="2"/>
-      <c r="F30" s="5"/>
+      <c r="F30" s="2"/>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A31" s="8"/>
+      <c r="A31" s="2"/>
       <c r="B31" s="2" t="s">
         <v>124</v>
       </c>
@@ -1728,485 +1605,596 @@
       <c r="E31" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F31" s="5" t="s">
+      <c r="F31" s="2" t="s">
         <v>126</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A32" s="25" t="s">
+      <c r="A32" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="B32" s="26"/>
-      <c r="C32" s="26"/>
-      <c r="D32" s="26"/>
-      <c r="E32" s="26"/>
-      <c r="F32" s="27"/>
+      <c r="B32" s="11"/>
+      <c r="C32" s="11"/>
+      <c r="D32" s="11"/>
+      <c r="E32" s="11"/>
+      <c r="F32" s="11"/>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A33" s="8"/>
+      <c r="A33" s="2"/>
       <c r="B33" s="2"/>
       <c r="C33" s="2"/>
       <c r="D33" s="2"/>
       <c r="E33" s="2"/>
-      <c r="F33" s="5"/>
+      <c r="F33" s="2"/>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A34" s="25" t="s">
+      <c r="A34" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="B34" s="26"/>
-      <c r="C34" s="26"/>
-      <c r="D34" s="26"/>
-      <c r="E34" s="26"/>
-      <c r="F34" s="27"/>
+      <c r="B34" s="11"/>
+      <c r="C34" s="11"/>
+      <c r="D34" s="11"/>
+      <c r="E34" s="11"/>
+      <c r="F34" s="11"/>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A35" s="8"/>
+      <c r="A35" s="2"/>
       <c r="B35" s="2"/>
       <c r="C35" s="2"/>
       <c r="D35" s="2"/>
       <c r="E35" s="2"/>
-      <c r="F35" s="5"/>
+      <c r="F35" s="2"/>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A36" s="25" t="s">
+      <c r="A36" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="B36" s="26"/>
-      <c r="C36" s="26"/>
-      <c r="D36" s="26"/>
-      <c r="E36" s="26"/>
-      <c r="F36" s="27"/>
+      <c r="B36" s="11"/>
+      <c r="C36" s="11"/>
+      <c r="D36" s="11"/>
+      <c r="E36" s="11"/>
+      <c r="F36" s="11"/>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A37" s="8"/>
-      <c r="B37" s="2"/>
-      <c r="C37" s="2"/>
-      <c r="D37" s="2"/>
-      <c r="E37" s="2"/>
-      <c r="F37" s="5"/>
+      <c r="A37" s="16"/>
+      <c r="B37" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="D37" t="s">
+        <v>18</v>
+      </c>
+      <c r="E37" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F37" s="2" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A38" s="25" t="s">
-        <v>32</v>
-      </c>
-      <c r="B38" s="26"/>
-      <c r="C38" s="26"/>
-      <c r="D38" s="26"/>
-      <c r="E38" s="26"/>
-      <c r="F38" s="27"/>
+      <c r="A38" s="16"/>
+      <c r="B38" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="D38" t="s">
+        <v>18</v>
+      </c>
+      <c r="E38" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F38" s="2" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A39" s="8"/>
-      <c r="B39" s="2"/>
-      <c r="C39" s="2"/>
-      <c r="D39" s="2"/>
-      <c r="E39" s="2"/>
-      <c r="F39" s="5"/>
+      <c r="A39" s="16"/>
+      <c r="B39" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="D39" t="s">
+        <v>142</v>
+      </c>
+      <c r="E39" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F39" s="2" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A40" s="25" t="s">
-        <v>67</v>
-      </c>
-      <c r="B40" s="26"/>
-      <c r="C40" s="26"/>
-      <c r="D40" s="26"/>
-      <c r="E40" s="26"/>
-      <c r="F40" s="27"/>
+      <c r="A40" s="14"/>
+      <c r="B40" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="D40" t="s">
+        <v>142</v>
+      </c>
+      <c r="E40" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F40" s="2" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A41" s="8"/>
-      <c r="B41" s="22" t="s">
-        <v>68</v>
-      </c>
-      <c r="C41" s="23" t="s">
-        <v>65</v>
-      </c>
-      <c r="D41" s="2" t="s">
+      <c r="A41" s="14"/>
+      <c r="B41" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="D41" t="s">
         <v>18</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="F41" s="5" t="s">
-        <v>71</v>
+        <v>4</v>
+      </c>
+      <c r="F41" s="2" t="s">
+        <v>150</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A42" s="8"/>
-      <c r="B42" s="22"/>
-      <c r="C42" s="23"/>
-      <c r="D42" s="2" t="s">
-        <v>18</v>
+      <c r="A42" s="16"/>
+      <c r="B42" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="D42" t="s">
+        <v>4</v>
       </c>
       <c r="E42" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F42" s="5" t="s">
+      <c r="F42" s="2" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A43" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="B43" s="11"/>
+      <c r="C43" s="11"/>
+      <c r="D43" s="11"/>
+      <c r="E43" s="11"/>
+      <c r="F43" s="11"/>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A44" s="2"/>
+      <c r="B44" s="2"/>
+      <c r="C44" s="2"/>
+      <c r="D44" s="2"/>
+      <c r="E44" s="2"/>
+      <c r="F44" s="2"/>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A45" s="11" t="s">
+        <v>67</v>
+      </c>
+      <c r="B45" s="11"/>
+      <c r="C45" s="11"/>
+      <c r="D45" s="11"/>
+      <c r="E45" s="11"/>
+      <c r="F45" s="11"/>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A46" s="2"/>
+      <c r="B46" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="C46" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="D46" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E46" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F46" s="2" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A47" s="2"/>
+      <c r="B47" s="8"/>
+      <c r="C47" s="9"/>
+      <c r="D47" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E47" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F47" s="2" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A43" s="8"/>
-      <c r="B43" s="22" t="s">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A48" s="2"/>
+      <c r="B48" s="8" t="s">
         <v>69</v>
       </c>
-      <c r="C43" s="23" t="s">
+      <c r="C48" s="9" t="s">
         <v>70</v>
       </c>
-      <c r="D43" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E43" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="F43" s="5" t="s">
+      <c r="D48" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E48" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F48" s="2" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A44" s="8"/>
-      <c r="B44" s="22"/>
-      <c r="C44" s="23"/>
-      <c r="D44" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E44" s="2" t="s">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A49" s="2"/>
+      <c r="B49" s="8"/>
+      <c r="C49" s="9"/>
+      <c r="D49" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E49" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F44" s="5" t="s">
+      <c r="F49" s="2" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A45" s="8"/>
-      <c r="B45" s="16" t="s">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A50" s="2"/>
+      <c r="B50" s="6" t="s">
         <v>83</v>
       </c>
-      <c r="C45" s="13" t="s">
+      <c r="C50" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="D45" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E45" s="2" t="s">
+      <c r="D50" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E50" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="F45" s="5" t="s">
+      <c r="F50" s="2" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A46" s="8"/>
-      <c r="B46" s="16" t="s">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A51" s="2"/>
+      <c r="B51" s="6" t="s">
         <v>79</v>
       </c>
-      <c r="C46" s="13" t="s">
+      <c r="C51" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="D46" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E46" s="2" t="s">
+      <c r="D51" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E51" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="F46" s="5" t="s">
+      <c r="F51" s="2" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A47" s="8"/>
-      <c r="B47" s="22" t="s">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A52" s="2"/>
+      <c r="B52" s="8" t="s">
         <v>87</v>
       </c>
-      <c r="C47" s="23" t="s">
+      <c r="C52" s="9" t="s">
         <v>86</v>
       </c>
-      <c r="D47" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E47" s="2" t="s">
+      <c r="D52" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E52" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="F47" s="5" t="s">
+      <c r="F52" s="2" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A48" s="8"/>
-      <c r="B48" s="22"/>
-      <c r="C48" s="23"/>
-      <c r="D48" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E48" s="2" t="s">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A53" s="2"/>
+      <c r="B53" s="8"/>
+      <c r="C53" s="9"/>
+      <c r="D53" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E53" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="F48" s="5" t="s">
+      <c r="F53" s="2" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A49" s="8"/>
-      <c r="B49" s="22" t="s">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A54" s="2"/>
+      <c r="B54" s="8" t="s">
         <v>90</v>
       </c>
-      <c r="C49" s="23" t="s">
+      <c r="C54" s="9" t="s">
         <v>91</v>
       </c>
-      <c r="D49" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E49" s="2" t="s">
+      <c r="D54" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E54" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="F49" s="5" t="s">
+      <c r="F54" s="2" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A50" s="8"/>
-      <c r="B50" s="22"/>
-      <c r="C50" s="23"/>
-      <c r="D50" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E50" s="2" t="s">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A55" s="2"/>
+      <c r="B55" s="8"/>
+      <c r="C55" s="9"/>
+      <c r="D55" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E55" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="F50" s="5" t="s">
+      <c r="F55" s="2" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A51" s="8"/>
-      <c r="B51" s="16"/>
-      <c r="C51" s="13"/>
-      <c r="D51" s="2"/>
-      <c r="E51" s="2"/>
-      <c r="F51" s="5"/>
-    </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A52" s="25" t="s">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A56" s="2"/>
+      <c r="B56" s="6"/>
+      <c r="C56" s="7"/>
+      <c r="D56" s="2"/>
+      <c r="E56" s="2"/>
+      <c r="F56" s="2"/>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A57" s="11" t="s">
         <v>92</v>
       </c>
-      <c r="B52" s="26"/>
-      <c r="C52" s="26"/>
-      <c r="D52" s="26"/>
-      <c r="E52" s="26"/>
-      <c r="F52" s="27"/>
-    </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A53" s="8"/>
-      <c r="B53" s="17" t="s">
+      <c r="B57" s="11"/>
+      <c r="C57" s="11"/>
+      <c r="D57" s="11"/>
+      <c r="E57" s="11"/>
+      <c r="F57" s="11"/>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A58" s="2"/>
+      <c r="B58" s="5" t="s">
         <v>94</v>
       </c>
-      <c r="C53" s="9" t="s">
+      <c r="C58" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="D53" s="10" t="s">
+      <c r="D58" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="E53" s="10" t="s">
+      <c r="E58" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="F53" s="11"/>
-    </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A54" s="8"/>
-      <c r="B54" s="17" t="s">
+      <c r="F58" s="4"/>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A59" s="2"/>
+      <c r="B59" s="5" t="s">
         <v>97</v>
       </c>
-      <c r="C54" s="9" t="s">
+      <c r="C59" s="3" t="s">
         <v>96</v>
       </c>
-      <c r="D54" s="10" t="s">
+      <c r="D59" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="E54" s="10" t="s">
+      <c r="E59" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="F54" s="12" t="s">
+      <c r="F59" s="17" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A55" s="25" t="s">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A60" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="B55" s="26"/>
-      <c r="C55" s="26"/>
-      <c r="D55" s="26"/>
-      <c r="E55" s="26"/>
-      <c r="F55" s="27"/>
-    </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A56" s="8"/>
-      <c r="B56" s="2" t="s">
+      <c r="B60" s="11"/>
+      <c r="C60" s="11"/>
+      <c r="D60" s="11"/>
+      <c r="E60" s="11"/>
+      <c r="F60" s="11"/>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A61" s="2"/>
+      <c r="B61" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="C56" s="1" t="s">
+      <c r="C61" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="D56" s="2" t="s">
+      <c r="D61" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="E56" s="2" t="s">
+      <c r="E61" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="F56" s="5" t="s">
+      <c r="F61" s="2" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A57" s="8"/>
-      <c r="B57" s="2" t="s">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A62" s="2"/>
+      <c r="B62" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="C57" s="1" t="s">
+      <c r="C62" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="D57" s="2" t="s">
+      <c r="D62" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="E57" s="2"/>
-      <c r="F57" s="5"/>
-    </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A58" s="25" t="s">
+      <c r="E62" s="2"/>
+      <c r="F62" s="2"/>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A63" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="B58" s="26"/>
-      <c r="C58" s="26"/>
-      <c r="D58" s="26"/>
-      <c r="E58" s="26"/>
-      <c r="F58" s="27"/>
-    </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A59" s="8"/>
-      <c r="B59" s="2"/>
-      <c r="C59" s="2"/>
-      <c r="D59" s="2"/>
-      <c r="E59" s="2"/>
-      <c r="F59" s="5"/>
-    </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A60" s="25" t="s">
+      <c r="B63" s="11"/>
+      <c r="C63" s="11"/>
+      <c r="D63" s="11"/>
+      <c r="E63" s="11"/>
+      <c r="F63" s="11"/>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A64" s="2"/>
+      <c r="B64" s="2"/>
+      <c r="C64" s="2"/>
+      <c r="D64" s="2"/>
+      <c r="E64" s="2"/>
+      <c r="F64" s="2"/>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A65" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="B60" s="26"/>
-      <c r="C60" s="26"/>
-      <c r="D60" s="26"/>
-      <c r="E60" s="26"/>
-      <c r="F60" s="27"/>
-    </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A61" s="8"/>
-      <c r="B61" s="22" t="s">
+      <c r="B65" s="11"/>
+      <c r="C65" s="11"/>
+      <c r="D65" s="11"/>
+      <c r="E65" s="11"/>
+      <c r="F65" s="11"/>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A66" s="2"/>
+      <c r="B66" s="8" t="s">
         <v>113</v>
       </c>
-      <c r="C61" s="23" t="s">
+      <c r="C66" s="9" t="s">
         <v>114</v>
       </c>
-      <c r="D61" s="2" t="s">
+      <c r="D66" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="E61" s="2" t="s">
+      <c r="E66" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="F61" s="5" t="s">
+      <c r="F66" s="2" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A62" s="8"/>
-      <c r="B62" s="22"/>
-      <c r="C62" s="22"/>
-      <c r="D62" s="2" t="s">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A67" s="2"/>
+      <c r="B67" s="8"/>
+      <c r="C67" s="8"/>
+      <c r="D67" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="E62" s="2" t="s">
+      <c r="E67" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F62" s="5" t="s">
+      <c r="F67" s="2" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A63" s="8"/>
-      <c r="B63" s="2" t="s">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A68" s="2"/>
+      <c r="B68" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="C63" s="13" t="s">
+      <c r="C68" s="7" t="s">
         <v>117</v>
       </c>
-      <c r="D63" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E63" s="2" t="s">
+      <c r="D68" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E68" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="F63" s="5" t="s">
+      <c r="F68" s="2" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A64" s="8"/>
-      <c r="B64" s="22" t="s">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A69" s="2"/>
+      <c r="B69" s="8" t="s">
         <v>120</v>
       </c>
-      <c r="C64" s="23" t="s">
+      <c r="C69" s="9" t="s">
         <v>121</v>
       </c>
-      <c r="D64" s="2" t="s">
+      <c r="D69" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="E64" s="2" t="s">
+      <c r="E69" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="F64" s="5" t="s">
+      <c r="F69" s="2" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A65" s="8"/>
-      <c r="B65" s="22"/>
-      <c r="C65" s="23"/>
-      <c r="D65" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E65" s="2" t="s">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A70" s="2"/>
+      <c r="B70" s="8"/>
+      <c r="C70" s="9"/>
+      <c r="D70" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E70" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="F65" s="20" t="s">
+      <c r="F70" s="18" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A66" s="25" t="s">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A71" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="B66" s="26"/>
-      <c r="C66" s="26"/>
-      <c r="D66" s="26"/>
-      <c r="E66" s="26"/>
-      <c r="F66" s="27"/>
-    </row>
-    <row r="67" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A67" s="14"/>
-      <c r="B67" s="6"/>
-      <c r="C67" s="6"/>
-      <c r="D67" s="6"/>
-      <c r="E67" s="6"/>
-      <c r="F67" s="7"/>
+      <c r="B71" s="11"/>
+      <c r="C71" s="11"/>
+      <c r="D71" s="11"/>
+      <c r="E71" s="11"/>
+      <c r="F71" s="11"/>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A72" s="2"/>
+      <c r="B72" s="2"/>
+      <c r="C72" s="2"/>
+      <c r="D72" s="2"/>
+      <c r="E72" s="2"/>
+      <c r="F72" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="29">
-    <mergeCell ref="B61:B62"/>
-    <mergeCell ref="C61:C62"/>
-    <mergeCell ref="B64:B65"/>
-    <mergeCell ref="C64:C65"/>
-    <mergeCell ref="C49:C50"/>
+    <mergeCell ref="A32:F32"/>
+    <mergeCell ref="A60:F60"/>
+    <mergeCell ref="A63:F63"/>
+    <mergeCell ref="A65:F65"/>
+    <mergeCell ref="A71:F71"/>
+    <mergeCell ref="A34:F34"/>
+    <mergeCell ref="A36:F36"/>
+    <mergeCell ref="A43:F43"/>
+    <mergeCell ref="A45:F45"/>
+    <mergeCell ref="A57:F57"/>
+    <mergeCell ref="B46:B47"/>
+    <mergeCell ref="C46:C47"/>
+    <mergeCell ref="B48:B49"/>
+    <mergeCell ref="C48:C49"/>
+    <mergeCell ref="B52:B53"/>
+    <mergeCell ref="C52:C53"/>
     <mergeCell ref="B26:B27"/>
     <mergeCell ref="C26:C27"/>
     <mergeCell ref="A2:F2"/>
@@ -2214,23 +2202,12 @@
     <mergeCell ref="A14:F14"/>
     <mergeCell ref="A21:F21"/>
     <mergeCell ref="A24:F24"/>
-    <mergeCell ref="A32:F32"/>
-    <mergeCell ref="A55:F55"/>
-    <mergeCell ref="A58:F58"/>
-    <mergeCell ref="A60:F60"/>
-    <mergeCell ref="A66:F66"/>
-    <mergeCell ref="A34:F34"/>
-    <mergeCell ref="A36:F36"/>
-    <mergeCell ref="A38:F38"/>
-    <mergeCell ref="A40:F40"/>
-    <mergeCell ref="A52:F52"/>
-    <mergeCell ref="B41:B42"/>
-    <mergeCell ref="C41:C42"/>
-    <mergeCell ref="B43:B44"/>
-    <mergeCell ref="C43:C44"/>
-    <mergeCell ref="B47:B48"/>
-    <mergeCell ref="C47:C48"/>
-    <mergeCell ref="B49:B50"/>
+    <mergeCell ref="B66:B67"/>
+    <mergeCell ref="C66:C67"/>
+    <mergeCell ref="B69:B70"/>
+    <mergeCell ref="C69:C70"/>
+    <mergeCell ref="C54:C55"/>
+    <mergeCell ref="B54:B55"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="C3" r:id="rId1" xr:uid="{3FB3FA06-DE47-4C2D-AFD7-F5FC45E3D126}"/>
@@ -2240,18 +2217,19 @@
     <hyperlink ref="C22" r:id="rId5" xr:uid="{6352E065-8925-49FF-AA82-66ED2F9F8651}"/>
     <hyperlink ref="C16" r:id="rId6" xr:uid="{047C68C0-B7AB-4E77-9D1E-B162BD11A209}"/>
     <hyperlink ref="C17" r:id="rId7" xr:uid="{1ABD0EDA-F48F-4D2F-B13C-180B398F1FCD}"/>
-    <hyperlink ref="C41" r:id="rId8" xr:uid="{35D2A43C-BF1B-4339-9217-7116005F7034}"/>
-    <hyperlink ref="C43" r:id="rId9" xr:uid="{233456E2-1B15-4448-A669-82C381357683}"/>
-    <hyperlink ref="C56" r:id="rId10" xr:uid="{4A724644-7F2B-4DE6-9141-A1802140FB4A}"/>
-    <hyperlink ref="C53" r:id="rId11" xr:uid="{914A5C5A-20B3-4526-A460-020F9852AFDB}"/>
-    <hyperlink ref="C54" r:id="rId12" xr:uid="{0B2D15B8-18BF-46A5-991E-6E53ADC95851}"/>
+    <hyperlink ref="C46" r:id="rId8" xr:uid="{35D2A43C-BF1B-4339-9217-7116005F7034}"/>
+    <hyperlink ref="C48" r:id="rId9" xr:uid="{233456E2-1B15-4448-A669-82C381357683}"/>
+    <hyperlink ref="C61" r:id="rId10" xr:uid="{4A724644-7F2B-4DE6-9141-A1802140FB4A}"/>
+    <hyperlink ref="C58" r:id="rId11" xr:uid="{914A5C5A-20B3-4526-A460-020F9852AFDB}"/>
+    <hyperlink ref="C59" r:id="rId12" xr:uid="{0B2D15B8-18BF-46A5-991E-6E53ADC95851}"/>
     <hyperlink ref="C25" r:id="rId13" xr:uid="{93A177B9-936F-4ED5-9F32-EB31F0D8F614}"/>
-    <hyperlink ref="C61" r:id="rId14" xr:uid="{9CD2E86C-B1BA-4CC3-9E52-ECA767380715}"/>
-    <hyperlink ref="C63" r:id="rId15" xr:uid="{30EBB8AD-10BE-47B9-BF85-DBCCCE948784}"/>
-    <hyperlink ref="F65" r:id="rId16" xr:uid="{080A2B1B-6640-47F1-9DAB-1F0914BD9938}"/>
+    <hyperlink ref="C66" r:id="rId14" xr:uid="{9CD2E86C-B1BA-4CC3-9E52-ECA767380715}"/>
+    <hyperlink ref="C68" r:id="rId15" xr:uid="{30EBB8AD-10BE-47B9-BF85-DBCCCE948784}"/>
+    <hyperlink ref="F70" r:id="rId16" xr:uid="{080A2B1B-6640-47F1-9DAB-1F0914BD9938}"/>
+    <hyperlink ref="C37" r:id="rId17" xr:uid="{DD8AB0F8-5B5E-4F6E-A0B4-339B324BDAC3}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="90" verticalDpi="90" r:id="rId17"/>
+  <pageSetup orientation="portrait" horizontalDpi="90" verticalDpi="90" r:id="rId18"/>
   <headerFooter>
     <oddFooter>&amp;L12/30/2021&amp;CAXP Internal&amp;R1</oddFooter>
   </headerFooter>

--- a/SDE Sheet.xlsx
+++ b/SDE Sheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Src Code\Personal\SDE-Sheet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53DAA796-1150-4A50-9113-51893A91E292}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F297043-B71C-4F4B-8D17-9B774467928E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{83934561-A72F-4836-B1E7-4EE8C35F9874}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="235" uniqueCount="151">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="252" uniqueCount="160">
   <si>
     <t>Matrix</t>
   </si>
@@ -606,6 +606,33 @@
   </si>
   <si>
     <t>Revisit for corner cases</t>
+  </si>
+  <si>
+    <t>Copy List with Random Pointer</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/copy-list-with-random-pointer/</t>
+  </si>
+  <si>
+    <t>Using unordered_map (easy to understand and code solution)</t>
+  </si>
+  <si>
+    <t>Intersection of Two Linked Lists</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/intersection-of-two-linked-lists/</t>
+  </si>
+  <si>
+    <t>Tricky solution: Inserting links of new list in between old list, assigning random and then separating both lists</t>
+  </si>
+  <si>
+    <t>Read about points and address operator</t>
+  </si>
+  <si>
+    <t>Using unordered_set (easy to understand and code solution)</t>
+  </si>
+  <si>
+    <t>Reduce the long list to the size of small list</t>
   </si>
 </sst>
 </file>
@@ -735,7 +762,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -758,12 +785,38 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -778,16 +831,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -801,6 +845,39 @@
     <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1116,10 +1193,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D3EBAEE5-B4E7-4BD5-B694-FD6EEA5E8AC0}">
-  <dimension ref="A1:F72"/>
+  <dimension ref="A1:F78"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="74" workbookViewId="0">
-      <selection activeCell="F41" sqref="F41"/>
+    <sheetView tabSelected="1" zoomScale="73" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A38" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F44" sqref="F44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1132,34 +1210,34 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A1" s="10" t="s">
+      <c r="A1" s="8" t="s">
         <v>128</v>
       </c>
-      <c r="B1" s="10" t="s">
+      <c r="B1" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="C1" s="10" t="s">
+      <c r="C1" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="D1" s="10" t="s">
+      <c r="D1" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="E1" s="10" t="s">
+      <c r="E1" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="F1" s="10" t="s">
+      <c r="F1" s="8" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A2" s="11" t="s">
+      <c r="A2" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="11"/>
-      <c r="C2" s="11"/>
-      <c r="D2" s="11"/>
-      <c r="E2" s="11"/>
-      <c r="F2" s="11"/>
+      <c r="B2" s="16"/>
+      <c r="C2" s="16"/>
+      <c r="D2" s="16"/>
+      <c r="E2" s="16"/>
+      <c r="F2" s="16"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A3" s="2"/>
@@ -1224,14 +1302,14 @@
       <c r="F6" s="2"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A7" s="11" t="s">
+      <c r="A7" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="B7" s="11"/>
-      <c r="C7" s="11"/>
-      <c r="D7" s="11"/>
-      <c r="E7" s="11"/>
-      <c r="F7" s="11"/>
+      <c r="B7" s="16"/>
+      <c r="C7" s="16"/>
+      <c r="D7" s="16"/>
+      <c r="E7" s="16"/>
+      <c r="F7" s="16"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A8" s="2"/>
@@ -1283,7 +1361,7 @@
       <c r="E10" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F10" s="12" t="s">
+      <c r="F10" s="9" t="s">
         <v>47</v>
       </c>
     </row>
@@ -1319,12 +1397,12 @@
       <c r="E12" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F12" s="13" t="s">
+      <c r="F12" s="10" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A13" s="14"/>
+      <c r="A13" s="11"/>
       <c r="B13" s="2" t="s">
         <v>133</v>
       </c>
@@ -1337,19 +1415,19 @@
       <c r="E13" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F13" s="13" t="s">
+      <c r="F13" s="10" t="s">
         <v>135</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A14" s="11" t="s">
+      <c r="A14" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="B14" s="11"/>
-      <c r="C14" s="11"/>
-      <c r="D14" s="11"/>
-      <c r="E14" s="11"/>
-      <c r="F14" s="11"/>
+      <c r="B14" s="16"/>
+      <c r="C14" s="16"/>
+      <c r="D14" s="16"/>
+      <c r="E14" s="16"/>
+      <c r="F14" s="16"/>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A15" s="2"/>
@@ -1442,7 +1520,7 @@
       </c>
     </row>
     <row r="20" spans="1:6" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A20" s="15"/>
+      <c r="A20" s="12"/>
       <c r="B20" s="2" t="s">
         <v>129</v>
       </c>
@@ -1458,14 +1536,14 @@
       <c r="F20" s="2"/>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A21" s="11" t="s">
+      <c r="A21" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="B21" s="11"/>
-      <c r="C21" s="11"/>
-      <c r="D21" s="11"/>
-      <c r="E21" s="11"/>
-      <c r="F21" s="11"/>
+      <c r="B21" s="16"/>
+      <c r="C21" s="16"/>
+      <c r="D21" s="16"/>
+      <c r="E21" s="16"/>
+      <c r="F21" s="16"/>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A22" s="2"/>
@@ -1494,14 +1572,14 @@
       <c r="F23" s="2"/>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A24" s="11" t="s">
+      <c r="A24" s="16" t="s">
         <v>99</v>
       </c>
-      <c r="B24" s="11"/>
-      <c r="C24" s="11"/>
-      <c r="D24" s="11"/>
-      <c r="E24" s="11"/>
-      <c r="F24" s="11"/>
+      <c r="B24" s="16"/>
+      <c r="C24" s="16"/>
+      <c r="D24" s="16"/>
+      <c r="E24" s="16"/>
+      <c r="F24" s="16"/>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A25" s="2"/>
@@ -1523,10 +1601,10 @@
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A26" s="2"/>
-      <c r="B26" s="8" t="s">
+      <c r="B26" s="17" t="s">
         <v>108</v>
       </c>
-      <c r="C26" s="9" t="s">
+      <c r="C26" s="18" t="s">
         <v>109</v>
       </c>
       <c r="D26" s="2" t="s">
@@ -1541,8 +1619,8 @@
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A27" s="2"/>
-      <c r="B27" s="8"/>
-      <c r="C27" s="9"/>
+      <c r="B27" s="17"/>
+      <c r="C27" s="18"/>
       <c r="D27" s="2" t="s">
         <v>101</v>
       </c>
@@ -1610,14 +1688,14 @@
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A32" s="11" t="s">
+      <c r="A32" s="16" t="s">
         <v>29</v>
       </c>
-      <c r="B32" s="11"/>
-      <c r="C32" s="11"/>
-      <c r="D32" s="11"/>
-      <c r="E32" s="11"/>
-      <c r="F32" s="11"/>
+      <c r="B32" s="16"/>
+      <c r="C32" s="16"/>
+      <c r="D32" s="16"/>
+      <c r="E32" s="16"/>
+      <c r="F32" s="16"/>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A33" s="2"/>
@@ -1628,14 +1706,14 @@
       <c r="F33" s="2"/>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A34" s="11" t="s">
+      <c r="A34" s="16" t="s">
         <v>30</v>
       </c>
-      <c r="B34" s="11"/>
-      <c r="C34" s="11"/>
-      <c r="D34" s="11"/>
-      <c r="E34" s="11"/>
-      <c r="F34" s="11"/>
+      <c r="B34" s="16"/>
+      <c r="C34" s="16"/>
+      <c r="D34" s="16"/>
+      <c r="E34" s="16"/>
+      <c r="F34" s="16"/>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A35" s="2"/>
@@ -1646,17 +1724,17 @@
       <c r="F35" s="2"/>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A36" s="11" t="s">
+      <c r="A36" s="16" t="s">
         <v>31</v>
       </c>
-      <c r="B36" s="11"/>
-      <c r="C36" s="11"/>
-      <c r="D36" s="11"/>
-      <c r="E36" s="11"/>
-      <c r="F36" s="11"/>
+      <c r="B36" s="16"/>
+      <c r="C36" s="16"/>
+      <c r="D36" s="16"/>
+      <c r="E36" s="16"/>
+      <c r="F36" s="16"/>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A37" s="16"/>
+      <c r="A37" s="13"/>
       <c r="B37" s="2" t="s">
         <v>136</v>
       </c>
@@ -1674,7 +1752,7 @@
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A38" s="16"/>
+      <c r="A38" s="13"/>
       <c r="B38" s="2" t="s">
         <v>138</v>
       </c>
@@ -1692,7 +1770,7 @@
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A39" s="16"/>
+      <c r="A39" s="13"/>
       <c r="B39" s="2" t="s">
         <v>140</v>
       </c>
@@ -1710,7 +1788,7 @@
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A40" s="14"/>
+      <c r="A40" s="11"/>
       <c r="B40" s="2" t="s">
         <v>146</v>
       </c>
@@ -1728,7 +1806,7 @@
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A41" s="14"/>
+      <c r="A41" s="11"/>
       <c r="B41" s="2" t="s">
         <v>149</v>
       </c>
@@ -1746,7 +1824,7 @@
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A42" s="16"/>
+      <c r="A42" s="13"/>
       <c r="B42" s="2" t="s">
         <v>143</v>
       </c>
@@ -1764,172 +1842,168 @@
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A43" s="11" t="s">
+      <c r="A43" s="25"/>
+      <c r="B43" s="21" t="s">
+        <v>154</v>
+      </c>
+      <c r="C43" s="23" t="s">
+        <v>155</v>
+      </c>
+      <c r="D43" t="s">
+        <v>142</v>
+      </c>
+      <c r="E43" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="F43" s="2" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A44" s="26"/>
+      <c r="B44" s="22"/>
+      <c r="C44" s="24"/>
+      <c r="D44" t="s">
+        <v>142</v>
+      </c>
+      <c r="E44" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F44" s="2" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A45" s="19"/>
+      <c r="B45" s="21" t="s">
+        <v>151</v>
+      </c>
+      <c r="C45" s="23" t="s">
+        <v>152</v>
+      </c>
+      <c r="D45" t="s">
+        <v>18</v>
+      </c>
+      <c r="E45" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F45" s="2" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A46" s="20"/>
+      <c r="B46" s="22"/>
+      <c r="C46" s="24"/>
+      <c r="D46" t="s">
+        <v>18</v>
+      </c>
+      <c r="E46" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F46" s="2" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A47" s="16" t="s">
         <v>32</v>
       </c>
-      <c r="B43" s="11"/>
-      <c r="C43" s="11"/>
-      <c r="D43" s="11"/>
-      <c r="E43" s="11"/>
-      <c r="F43" s="11"/>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A44" s="2"/>
-      <c r="B44" s="2"/>
-      <c r="C44" s="2"/>
-      <c r="D44" s="2"/>
-      <c r="E44" s="2"/>
-      <c r="F44" s="2"/>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A45" s="11" t="s">
-        <v>67</v>
-      </c>
-      <c r="B45" s="11"/>
-      <c r="C45" s="11"/>
-      <c r="D45" s="11"/>
-      <c r="E45" s="11"/>
-      <c r="F45" s="11"/>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A46" s="2"/>
-      <c r="B46" s="8" t="s">
-        <v>68</v>
-      </c>
-      <c r="C46" s="9" t="s">
-        <v>65</v>
-      </c>
-      <c r="D46" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E46" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="F46" s="2" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A47" s="2"/>
-      <c r="B47" s="8"/>
-      <c r="C47" s="9"/>
-      <c r="D47" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E47" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="F47" s="2" t="s">
-        <v>66</v>
-      </c>
+      <c r="B47" s="16"/>
+      <c r="C47" s="16"/>
+      <c r="D47" s="16"/>
+      <c r="E47" s="16"/>
+      <c r="F47" s="16"/>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A48" s="2"/>
-      <c r="B48" s="8" t="s">
-        <v>69</v>
-      </c>
-      <c r="C48" s="9" t="s">
-        <v>70</v>
-      </c>
-      <c r="D48" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E48" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="F48" s="2" t="s">
-        <v>71</v>
-      </c>
+      <c r="B48" s="2"/>
+      <c r="C48" s="2"/>
+      <c r="D48" s="2"/>
+      <c r="E48" s="2"/>
+      <c r="F48" s="2"/>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A49" s="2"/>
-      <c r="B49" s="8"/>
-      <c r="C49" s="9"/>
-      <c r="D49" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E49" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="F49" s="2" t="s">
-        <v>66</v>
-      </c>
+      <c r="A49" s="16" t="s">
+        <v>67</v>
+      </c>
+      <c r="B49" s="16"/>
+      <c r="C49" s="16"/>
+      <c r="D49" s="16"/>
+      <c r="E49" s="16"/>
+      <c r="F49" s="16"/>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A50" s="2"/>
-      <c r="B50" s="6" t="s">
-        <v>83</v>
-      </c>
-      <c r="C50" s="7" t="s">
-        <v>84</v>
+      <c r="B50" s="17" t="s">
+        <v>68</v>
+      </c>
+      <c r="C50" s="18" t="s">
+        <v>65</v>
       </c>
       <c r="D50" s="2" t="s">
         <v>18</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>81</v>
+        <v>18</v>
       </c>
       <c r="F50" s="2" t="s">
-        <v>85</v>
+        <v>71</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A51" s="2"/>
-      <c r="B51" s="6" t="s">
-        <v>79</v>
-      </c>
-      <c r="C51" s="7" t="s">
-        <v>80</v>
-      </c>
+      <c r="B51" s="17"/>
+      <c r="C51" s="18"/>
       <c r="D51" s="2" t="s">
         <v>18</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>81</v>
+        <v>4</v>
       </c>
       <c r="F51" s="2" t="s">
-        <v>82</v>
+        <v>66</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A52" s="2"/>
-      <c r="B52" s="8" t="s">
-        <v>87</v>
-      </c>
-      <c r="C52" s="9" t="s">
-        <v>86</v>
+      <c r="B52" s="17" t="s">
+        <v>69</v>
+      </c>
+      <c r="C52" s="18" t="s">
+        <v>70</v>
       </c>
       <c r="D52" s="2" t="s">
         <v>18</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>81</v>
+        <v>18</v>
       </c>
       <c r="F52" s="2" t="s">
-        <v>85</v>
+        <v>71</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A53" s="2"/>
-      <c r="B53" s="8"/>
-      <c r="C53" s="9"/>
+      <c r="B53" s="17"/>
+      <c r="C53" s="18"/>
       <c r="D53" s="2" t="s">
         <v>18</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>88</v>
+        <v>4</v>
       </c>
       <c r="F53" s="2" t="s">
-        <v>89</v>
+        <v>66</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A54" s="2"/>
-      <c r="B54" s="8" t="s">
-        <v>90</v>
-      </c>
-      <c r="C54" s="9" t="s">
-        <v>91</v>
+      <c r="B54" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="C54" s="7" t="s">
+        <v>84</v>
       </c>
       <c r="D54" s="2" t="s">
         <v>18</v>
@@ -1943,258 +2017,327 @@
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A55" s="2"/>
-      <c r="B55" s="8"/>
-      <c r="C55" s="9"/>
+      <c r="B55" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="C55" s="7" t="s">
+        <v>80</v>
+      </c>
       <c r="D55" s="2" t="s">
         <v>18</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="F55" s="2" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A56" s="2"/>
-      <c r="B56" s="6"/>
-      <c r="C56" s="7"/>
-      <c r="D56" s="2"/>
-      <c r="E56" s="2"/>
-      <c r="F56" s="2"/>
+      <c r="B56" s="17" t="s">
+        <v>87</v>
+      </c>
+      <c r="C56" s="18" t="s">
+        <v>86</v>
+      </c>
+      <c r="D56" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E56" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="F56" s="2" t="s">
+        <v>85</v>
+      </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A57" s="11" t="s">
-        <v>92</v>
-      </c>
-      <c r="B57" s="11"/>
-      <c r="C57" s="11"/>
-      <c r="D57" s="11"/>
-      <c r="E57" s="11"/>
-      <c r="F57" s="11"/>
+      <c r="A57" s="2"/>
+      <c r="B57" s="17"/>
+      <c r="C57" s="18"/>
+      <c r="D57" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E57" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="F57" s="2" t="s">
+        <v>89</v>
+      </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A58" s="2"/>
-      <c r="B58" s="5" t="s">
-        <v>94</v>
-      </c>
-      <c r="C58" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="D58" s="4" t="s">
-        <v>95</v>
-      </c>
-      <c r="E58" s="4" t="s">
-        <v>95</v>
-      </c>
-      <c r="F58" s="4"/>
+      <c r="B58" s="17" t="s">
+        <v>90</v>
+      </c>
+      <c r="C58" s="18" t="s">
+        <v>91</v>
+      </c>
+      <c r="D58" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E58" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="F58" s="2" t="s">
+        <v>85</v>
+      </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A59" s="2"/>
-      <c r="B59" s="5" t="s">
-        <v>97</v>
-      </c>
-      <c r="C59" s="3" t="s">
-        <v>96</v>
-      </c>
-      <c r="D59" s="4" t="s">
-        <v>95</v>
-      </c>
-      <c r="E59" s="4" t="s">
-        <v>95</v>
-      </c>
-      <c r="F59" s="17" t="s">
-        <v>98</v>
+      <c r="B59" s="17"/>
+      <c r="C59" s="18"/>
+      <c r="D59" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E59" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="F59" s="2" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A60" s="11" t="s">
-        <v>33</v>
-      </c>
-      <c r="B60" s="11"/>
-      <c r="C60" s="11"/>
-      <c r="D60" s="11"/>
-      <c r="E60" s="11"/>
-      <c r="F60" s="11"/>
+      <c r="A60" s="2"/>
+      <c r="B60" s="6"/>
+      <c r="C60" s="7"/>
+      <c r="D60" s="2"/>
+      <c r="E60" s="2"/>
+      <c r="F60" s="2"/>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A61" s="2"/>
-      <c r="B61" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="C61" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="D61" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="E61" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="F61" s="2" t="s">
-        <v>76</v>
-      </c>
+      <c r="A61" s="16" t="s">
+        <v>92</v>
+      </c>
+      <c r="B61" s="16"/>
+      <c r="C61" s="16"/>
+      <c r="D61" s="16"/>
+      <c r="E61" s="16"/>
+      <c r="F61" s="16"/>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A62" s="2"/>
-      <c r="B62" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="C62" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="D62" s="2" t="s">
+      <c r="B62" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="C62" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="D62" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="E62" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="F62" s="4"/>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A63" s="2"/>
+      <c r="B63" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="C63" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="D63" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="E63" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="F63" s="14" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A64" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="B64" s="16"/>
+      <c r="C64" s="16"/>
+      <c r="D64" s="16"/>
+      <c r="E64" s="16"/>
+      <c r="F64" s="16"/>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A65" s="2"/>
+      <c r="B65" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="C65" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="D65" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="E62" s="2"/>
-      <c r="F62" s="2"/>
-    </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A63" s="11" t="s">
-        <v>34</v>
-      </c>
-      <c r="B63" s="11"/>
-      <c r="C63" s="11"/>
-      <c r="D63" s="11"/>
-      <c r="E63" s="11"/>
-      <c r="F63" s="11"/>
-    </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A64" s="2"/>
-      <c r="B64" s="2"/>
-      <c r="C64" s="2"/>
-      <c r="D64" s="2"/>
-      <c r="E64" s="2"/>
-      <c r="F64" s="2"/>
-    </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A65" s="11" t="s">
-        <v>35</v>
-      </c>
-      <c r="B65" s="11"/>
-      <c r="C65" s="11"/>
-      <c r="D65" s="11"/>
-      <c r="E65" s="11"/>
-      <c r="F65" s="11"/>
+      <c r="E65" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="F65" s="2" t="s">
+        <v>76</v>
+      </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A66" s="2"/>
-      <c r="B66" s="8" t="s">
-        <v>113</v>
-      </c>
-      <c r="C66" s="9" t="s">
-        <v>114</v>
+      <c r="B66" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="C66" s="1" t="s">
+        <v>78</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="E66" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="F66" s="2" t="s">
-        <v>115</v>
-      </c>
+        <v>74</v>
+      </c>
+      <c r="E66" s="2"/>
+      <c r="F66" s="2"/>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A67" s="2"/>
-      <c r="B67" s="8"/>
-      <c r="C67" s="8"/>
-      <c r="D67" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="E67" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="F67" s="2" t="s">
-        <v>116</v>
-      </c>
+      <c r="A67" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="B67" s="16"/>
+      <c r="C67" s="16"/>
+      <c r="D67" s="16"/>
+      <c r="E67" s="16"/>
+      <c r="F67" s="16"/>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A68" s="2"/>
-      <c r="B68" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="C68" s="7" t="s">
-        <v>117</v>
-      </c>
-      <c r="D68" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E68" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="F68" s="2" t="s">
-        <v>115</v>
-      </c>
+      <c r="B68" s="2"/>
+      <c r="C68" s="2"/>
+      <c r="D68" s="2"/>
+      <c r="E68" s="2"/>
+      <c r="F68" s="2"/>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A69" s="2"/>
-      <c r="B69" s="8" t="s">
-        <v>120</v>
-      </c>
-      <c r="C69" s="9" t="s">
-        <v>121</v>
-      </c>
-      <c r="D69" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="E69" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="F69" s="2" t="s">
-        <v>122</v>
-      </c>
+      <c r="A69" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="B69" s="16"/>
+      <c r="C69" s="16"/>
+      <c r="D69" s="16"/>
+      <c r="E69" s="16"/>
+      <c r="F69" s="16"/>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A70" s="2"/>
-      <c r="B70" s="8"/>
-      <c r="C70" s="9"/>
+      <c r="B70" s="17" t="s">
+        <v>113</v>
+      </c>
+      <c r="C70" s="18" t="s">
+        <v>114</v>
+      </c>
       <c r="D70" s="2" t="s">
-        <v>18</v>
+        <v>119</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="F70" s="18" t="s">
-        <v>123</v>
+        <v>119</v>
+      </c>
+      <c r="F70" s="2" t="s">
+        <v>115</v>
       </c>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A71" s="11" t="s">
-        <v>36</v>
-      </c>
-      <c r="B71" s="11"/>
-      <c r="C71" s="11"/>
-      <c r="D71" s="11"/>
-      <c r="E71" s="11"/>
-      <c r="F71" s="11"/>
+      <c r="A71" s="2"/>
+      <c r="B71" s="17"/>
+      <c r="C71" s="17"/>
+      <c r="D71" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="E71" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F71" s="2" t="s">
+        <v>116</v>
+      </c>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A72" s="2"/>
-      <c r="B72" s="2"/>
-      <c r="C72" s="2"/>
-      <c r="D72" s="2"/>
-      <c r="E72" s="2"/>
-      <c r="F72" s="2"/>
+      <c r="B72" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="C72" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="D72" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E72" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="F72" s="2" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A73" s="2"/>
+      <c r="B73" s="17" t="s">
+        <v>120</v>
+      </c>
+      <c r="C73" s="18" t="s">
+        <v>121</v>
+      </c>
+      <c r="D73" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="E73" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="F73" s="2" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A74" s="2"/>
+      <c r="B74" s="17"/>
+      <c r="C74" s="18"/>
+      <c r="D74" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E74" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="F74" s="15" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A75" s="16" t="s">
+        <v>36</v>
+      </c>
+      <c r="B75" s="16"/>
+      <c r="C75" s="16"/>
+      <c r="D75" s="16"/>
+      <c r="E75" s="16"/>
+      <c r="F75" s="16"/>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A76" s="2"/>
+      <c r="B76" s="2"/>
+      <c r="C76" s="2"/>
+      <c r="D76" s="2"/>
+      <c r="E76" s="2"/>
+      <c r="F76" s="2"/>
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="F78" t="s">
+        <v>157</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="29">
-    <mergeCell ref="A32:F32"/>
-    <mergeCell ref="A60:F60"/>
-    <mergeCell ref="A63:F63"/>
-    <mergeCell ref="A65:F65"/>
-    <mergeCell ref="A71:F71"/>
-    <mergeCell ref="A34:F34"/>
-    <mergeCell ref="A36:F36"/>
-    <mergeCell ref="A43:F43"/>
-    <mergeCell ref="A45:F45"/>
-    <mergeCell ref="A57:F57"/>
-    <mergeCell ref="B46:B47"/>
-    <mergeCell ref="C46:C47"/>
-    <mergeCell ref="B48:B49"/>
-    <mergeCell ref="C48:C49"/>
-    <mergeCell ref="B52:B53"/>
-    <mergeCell ref="C52:C53"/>
+  <mergeCells count="35">
+    <mergeCell ref="A45:A46"/>
+    <mergeCell ref="B45:B46"/>
+    <mergeCell ref="C45:C46"/>
+    <mergeCell ref="A43:A44"/>
+    <mergeCell ref="B43:B44"/>
+    <mergeCell ref="C43:C44"/>
+    <mergeCell ref="B70:B71"/>
+    <mergeCell ref="C70:C71"/>
+    <mergeCell ref="B73:B74"/>
+    <mergeCell ref="C73:C74"/>
+    <mergeCell ref="C58:C59"/>
+    <mergeCell ref="B58:B59"/>
     <mergeCell ref="B26:B27"/>
     <mergeCell ref="C26:C27"/>
     <mergeCell ref="A2:F2"/>
@@ -2202,12 +2345,22 @@
     <mergeCell ref="A14:F14"/>
     <mergeCell ref="A21:F21"/>
     <mergeCell ref="A24:F24"/>
-    <mergeCell ref="B66:B67"/>
-    <mergeCell ref="C66:C67"/>
-    <mergeCell ref="B69:B70"/>
-    <mergeCell ref="C69:C70"/>
-    <mergeCell ref="C54:C55"/>
-    <mergeCell ref="B54:B55"/>
+    <mergeCell ref="A32:F32"/>
+    <mergeCell ref="A64:F64"/>
+    <mergeCell ref="A67:F67"/>
+    <mergeCell ref="A69:F69"/>
+    <mergeCell ref="A75:F75"/>
+    <mergeCell ref="A34:F34"/>
+    <mergeCell ref="A36:F36"/>
+    <mergeCell ref="A47:F47"/>
+    <mergeCell ref="A49:F49"/>
+    <mergeCell ref="A61:F61"/>
+    <mergeCell ref="B50:B51"/>
+    <mergeCell ref="C50:C51"/>
+    <mergeCell ref="B52:B53"/>
+    <mergeCell ref="C52:C53"/>
+    <mergeCell ref="B56:B57"/>
+    <mergeCell ref="C56:C57"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="C3" r:id="rId1" xr:uid="{3FB3FA06-DE47-4C2D-AFD7-F5FC45E3D126}"/>
@@ -2217,15 +2370,15 @@
     <hyperlink ref="C22" r:id="rId5" xr:uid="{6352E065-8925-49FF-AA82-66ED2F9F8651}"/>
     <hyperlink ref="C16" r:id="rId6" xr:uid="{047C68C0-B7AB-4E77-9D1E-B162BD11A209}"/>
     <hyperlink ref="C17" r:id="rId7" xr:uid="{1ABD0EDA-F48F-4D2F-B13C-180B398F1FCD}"/>
-    <hyperlink ref="C46" r:id="rId8" xr:uid="{35D2A43C-BF1B-4339-9217-7116005F7034}"/>
-    <hyperlink ref="C48" r:id="rId9" xr:uid="{233456E2-1B15-4448-A669-82C381357683}"/>
-    <hyperlink ref="C61" r:id="rId10" xr:uid="{4A724644-7F2B-4DE6-9141-A1802140FB4A}"/>
-    <hyperlink ref="C58" r:id="rId11" xr:uid="{914A5C5A-20B3-4526-A460-020F9852AFDB}"/>
-    <hyperlink ref="C59" r:id="rId12" xr:uid="{0B2D15B8-18BF-46A5-991E-6E53ADC95851}"/>
+    <hyperlink ref="C50" r:id="rId8" xr:uid="{35D2A43C-BF1B-4339-9217-7116005F7034}"/>
+    <hyperlink ref="C52" r:id="rId9" xr:uid="{233456E2-1B15-4448-A669-82C381357683}"/>
+    <hyperlink ref="C65" r:id="rId10" xr:uid="{4A724644-7F2B-4DE6-9141-A1802140FB4A}"/>
+    <hyperlink ref="C62" r:id="rId11" xr:uid="{914A5C5A-20B3-4526-A460-020F9852AFDB}"/>
+    <hyperlink ref="C63" r:id="rId12" xr:uid="{0B2D15B8-18BF-46A5-991E-6E53ADC95851}"/>
     <hyperlink ref="C25" r:id="rId13" xr:uid="{93A177B9-936F-4ED5-9F32-EB31F0D8F614}"/>
-    <hyperlink ref="C66" r:id="rId14" xr:uid="{9CD2E86C-B1BA-4CC3-9E52-ECA767380715}"/>
-    <hyperlink ref="C68" r:id="rId15" xr:uid="{30EBB8AD-10BE-47B9-BF85-DBCCCE948784}"/>
-    <hyperlink ref="F70" r:id="rId16" xr:uid="{080A2B1B-6640-47F1-9DAB-1F0914BD9938}"/>
+    <hyperlink ref="C70" r:id="rId14" xr:uid="{9CD2E86C-B1BA-4CC3-9E52-ECA767380715}"/>
+    <hyperlink ref="C72" r:id="rId15" xr:uid="{30EBB8AD-10BE-47B9-BF85-DBCCCE948784}"/>
+    <hyperlink ref="F74" r:id="rId16" xr:uid="{080A2B1B-6640-47F1-9DAB-1F0914BD9938}"/>
     <hyperlink ref="C37" r:id="rId17" xr:uid="{DD8AB0F8-5B5E-4F6E-A0B4-339B324BDAC3}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/SDE Sheet.xlsx
+++ b/SDE Sheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Src Code\Personal\SDE-Sheet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F297043-B71C-4F4B-8D17-9B774467928E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73BFF845-9237-41F8-BD02-4F93F817DF81}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{83934561-A72F-4836-B1E7-4EE8C35F9874}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="252" uniqueCount="160">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="265" uniqueCount="165">
   <si>
     <t>Matrix</t>
   </si>
@@ -633,6 +633,21 @@
   </si>
   <si>
     <t>Reduce the long list to the size of small list</t>
+  </si>
+  <si>
+    <t>Reverse Linked List in group of Size K</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/reverse-nodes-in-k-group/</t>
+  </si>
+  <si>
+    <t>Iterative, first write recursive solution and then convert it to iterative</t>
+  </si>
+  <si>
+    <t>Rotate List</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/rotate-list/</t>
   </si>
 </sst>
 </file>
@@ -762,7 +777,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -785,38 +800,12 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -824,12 +813,6 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -845,8 +828,11 @@
     <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -854,28 +840,19 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1193,11 +1170,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D3EBAEE5-B4E7-4BD5-B694-FD6EEA5E8AC0}">
-  <dimension ref="A1:F78"/>
+  <dimension ref="A1:F81"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="73" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A38" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F44" sqref="F44"/>
+    <sheetView tabSelected="1" zoomScale="79" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C33" sqref="C33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1210,34 +1187,34 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="6" t="s">
         <v>128</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="B1" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="C1" s="8" t="s">
+      <c r="C1" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="D1" s="8" t="s">
+      <c r="D1" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="E1" s="8" t="s">
+      <c r="E1" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="F1" s="8" t="s">
+      <c r="F1" s="6" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A2" s="16" t="s">
+      <c r="A2" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="16"/>
-      <c r="C2" s="16"/>
-      <c r="D2" s="16"/>
-      <c r="E2" s="16"/>
-      <c r="F2" s="16"/>
+      <c r="B2" s="18"/>
+      <c r="C2" s="18"/>
+      <c r="D2" s="18"/>
+      <c r="E2" s="18"/>
+      <c r="F2" s="18"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A3" s="2"/>
@@ -1302,14 +1279,14 @@
       <c r="F6" s="2"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A7" s="16" t="s">
+      <c r="A7" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="B7" s="16"/>
-      <c r="C7" s="16"/>
-      <c r="D7" s="16"/>
-      <c r="E7" s="16"/>
-      <c r="F7" s="16"/>
+      <c r="B7" s="18"/>
+      <c r="C7" s="18"/>
+      <c r="D7" s="18"/>
+      <c r="E7" s="18"/>
+      <c r="F7" s="18"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A8" s="2"/>
@@ -1361,7 +1338,7 @@
       <c r="E10" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F10" s="9" t="s">
+      <c r="F10" s="7" t="s">
         <v>47</v>
       </c>
     </row>
@@ -1397,12 +1374,12 @@
       <c r="E12" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F12" s="10" t="s">
+      <c r="F12" s="8" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A13" s="11"/>
+      <c r="A13" s="9"/>
       <c r="B13" s="2" t="s">
         <v>133</v>
       </c>
@@ -1415,19 +1392,19 @@
       <c r="E13" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F13" s="10" t="s">
+      <c r="F13" s="8" t="s">
         <v>135</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A14" s="16" t="s">
+      <c r="A14" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="B14" s="16"/>
-      <c r="C14" s="16"/>
-      <c r="D14" s="16"/>
-      <c r="E14" s="16"/>
-      <c r="F14" s="16"/>
+      <c r="B14" s="18"/>
+      <c r="C14" s="18"/>
+      <c r="D14" s="18"/>
+      <c r="E14" s="18"/>
+      <c r="F14" s="18"/>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A15" s="2"/>
@@ -1520,7 +1497,7 @@
       </c>
     </row>
     <row r="20" spans="1:6" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A20" s="12"/>
+      <c r="A20" s="10"/>
       <c r="B20" s="2" t="s">
         <v>129</v>
       </c>
@@ -1536,14 +1513,14 @@
       <c r="F20" s="2"/>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A21" s="16" t="s">
+      <c r="A21" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="B21" s="16"/>
-      <c r="C21" s="16"/>
-      <c r="D21" s="16"/>
-      <c r="E21" s="16"/>
-      <c r="F21" s="16"/>
+      <c r="B21" s="18"/>
+      <c r="C21" s="18"/>
+      <c r="D21" s="18"/>
+      <c r="E21" s="18"/>
+      <c r="F21" s="18"/>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A22" s="2"/>
@@ -1572,14 +1549,14 @@
       <c r="F23" s="2"/>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A24" s="16" t="s">
+      <c r="A24" s="18" t="s">
         <v>99</v>
       </c>
-      <c r="B24" s="16"/>
-      <c r="C24" s="16"/>
-      <c r="D24" s="16"/>
-      <c r="E24" s="16"/>
-      <c r="F24" s="16"/>
+      <c r="B24" s="18"/>
+      <c r="C24" s="18"/>
+      <c r="D24" s="18"/>
+      <c r="E24" s="18"/>
+      <c r="F24" s="18"/>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A25" s="2"/>
@@ -1601,10 +1578,10 @@
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A26" s="2"/>
-      <c r="B26" s="17" t="s">
+      <c r="B26" s="16" t="s">
         <v>108</v>
       </c>
-      <c r="C26" s="18" t="s">
+      <c r="C26" s="17" t="s">
         <v>109</v>
       </c>
       <c r="D26" s="2" t="s">
@@ -1619,8 +1596,8 @@
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A27" s="2"/>
-      <c r="B27" s="17"/>
-      <c r="C27" s="18"/>
+      <c r="B27" s="16"/>
+      <c r="C27" s="17"/>
       <c r="D27" s="2" t="s">
         <v>101</v>
       </c>
@@ -1688,14 +1665,14 @@
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A32" s="16" t="s">
+      <c r="A32" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="B32" s="16"/>
-      <c r="C32" s="16"/>
-      <c r="D32" s="16"/>
-      <c r="E32" s="16"/>
-      <c r="F32" s="16"/>
+      <c r="B32" s="18"/>
+      <c r="C32" s="18"/>
+      <c r="D32" s="18"/>
+      <c r="E32" s="18"/>
+      <c r="F32" s="18"/>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A33" s="2"/>
@@ -1706,14 +1683,14 @@
       <c r="F33" s="2"/>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A34" s="16" t="s">
+      <c r="A34" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="B34" s="16"/>
-      <c r="C34" s="16"/>
-      <c r="D34" s="16"/>
-      <c r="E34" s="16"/>
-      <c r="F34" s="16"/>
+      <c r="B34" s="18"/>
+      <c r="C34" s="18"/>
+      <c r="D34" s="18"/>
+      <c r="E34" s="18"/>
+      <c r="F34" s="18"/>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A35" s="2"/>
@@ -1724,24 +1701,24 @@
       <c r="F35" s="2"/>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A36" s="16" t="s">
+      <c r="A36" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="B36" s="16"/>
-      <c r="C36" s="16"/>
-      <c r="D36" s="16"/>
-      <c r="E36" s="16"/>
-      <c r="F36" s="16"/>
+      <c r="B36" s="18"/>
+      <c r="C36" s="18"/>
+      <c r="D36" s="18"/>
+      <c r="E36" s="18"/>
+      <c r="F36" s="18"/>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A37" s="13"/>
+      <c r="A37" s="11"/>
       <c r="B37" s="2" t="s">
         <v>136</v>
       </c>
       <c r="C37" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="D37" t="s">
+      <c r="D37" s="2" t="s">
         <v>18</v>
       </c>
       <c r="E37" s="2" t="s">
@@ -1752,14 +1729,14 @@
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A38" s="13"/>
+      <c r="A38" s="11"/>
       <c r="B38" s="2" t="s">
         <v>138</v>
       </c>
       <c r="C38" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="D38" t="s">
+      <c r="D38" s="2" t="s">
         <v>18</v>
       </c>
       <c r="E38" s="2" t="s">
@@ -1770,308 +1747,308 @@
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A39" s="13"/>
-      <c r="B39" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="C39" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="D39" t="s">
-        <v>142</v>
+      <c r="A39" s="19"/>
+      <c r="B39" s="16" t="s">
+        <v>160</v>
+      </c>
+      <c r="C39" s="17" t="s">
+        <v>161</v>
+      </c>
+      <c r="D39" s="2" t="s">
+        <v>18</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>4</v>
+        <v>18</v>
       </c>
       <c r="F39" s="2" t="s">
-        <v>13</v>
+        <v>115</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A40" s="11"/>
-      <c r="B40" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="C40" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="D40" t="s">
-        <v>142</v>
+      <c r="A40" s="19"/>
+      <c r="B40" s="16"/>
+      <c r="C40" s="17"/>
+      <c r="D40" s="2" t="s">
+        <v>18</v>
       </c>
       <c r="E40" s="2" t="s">
         <v>4</v>
       </c>
       <c r="F40" s="2" t="s">
-        <v>13</v>
+        <v>162</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A41" s="11"/>
       <c r="B41" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="D41" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="E41" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F41" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A42" s="9"/>
+      <c r="B42" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="D42" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="E42" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F42" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A43" s="9"/>
+      <c r="B43" s="2" t="s">
         <v>149</v>
       </c>
-      <c r="C41" s="1" t="s">
+      <c r="C43" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="D41" t="s">
-        <v>18</v>
-      </c>
-      <c r="E41" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="F41" s="2" t="s">
+      <c r="D43" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E43" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F43" s="2" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A42" s="13"/>
-      <c r="B42" s="2" t="s">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A44" s="11"/>
+      <c r="B44" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="C42" s="1" t="s">
+      <c r="C44" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="D42" t="s">
-        <v>4</v>
-      </c>
-      <c r="E42" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="F42" s="2" t="s">
+      <c r="D44" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E44" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F44" s="2" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A43" s="25"/>
-      <c r="B43" s="21" t="s">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A45" s="20"/>
+      <c r="B45" s="16" t="s">
         <v>154</v>
       </c>
-      <c r="C43" s="23" t="s">
+      <c r="C45" s="17" t="s">
         <v>155</v>
       </c>
-      <c r="D43" t="s">
+      <c r="D45" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="E43" s="2" t="s">
+      <c r="E45" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="F43" s="2" t="s">
+      <c r="F45" s="2" t="s">
         <v>158</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A44" s="26"/>
-      <c r="B44" s="22"/>
-      <c r="C44" s="24"/>
-      <c r="D44" t="s">
-        <v>142</v>
-      </c>
-      <c r="E44" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="F44" s="2" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A45" s="19"/>
-      <c r="B45" s="21" t="s">
-        <v>151</v>
-      </c>
-      <c r="C45" s="23" t="s">
-        <v>152</v>
-      </c>
-      <c r="D45" t="s">
-        <v>18</v>
-      </c>
-      <c r="E45" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="F45" s="2" t="s">
-        <v>153</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A46" s="20"/>
-      <c r="B46" s="22"/>
-      <c r="C46" s="24"/>
-      <c r="D46" t="s">
-        <v>18</v>
+      <c r="B46" s="16"/>
+      <c r="C46" s="17"/>
+      <c r="D46" s="2" t="s">
+        <v>142</v>
       </c>
       <c r="E46" s="2" t="s">
         <v>4</v>
       </c>
       <c r="F46" s="2" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A47" s="21"/>
+      <c r="B47" s="14" t="s">
+        <v>163</v>
+      </c>
+      <c r="C47" s="15" t="s">
+        <v>164</v>
+      </c>
+      <c r="D47" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E47" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F47" s="2" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A48" s="22"/>
+      <c r="B48" s="16" t="s">
+        <v>151</v>
+      </c>
+      <c r="C48" s="17" t="s">
+        <v>152</v>
+      </c>
+      <c r="D48" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E48" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F48" s="2" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A49" s="22"/>
+      <c r="B49" s="16"/>
+      <c r="C49" s="17"/>
+      <c r="D49" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E49" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F49" s="2" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A47" s="16" t="s">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A50" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="B47" s="16"/>
-      <c r="C47" s="16"/>
-      <c r="D47" s="16"/>
-      <c r="E47" s="16"/>
-      <c r="F47" s="16"/>
-    </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A48" s="2"/>
-      <c r="B48" s="2"/>
-      <c r="C48" s="2"/>
-      <c r="D48" s="2"/>
-      <c r="E48" s="2"/>
-      <c r="F48" s="2"/>
-    </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A49" s="16" t="s">
-        <v>67</v>
-      </c>
-      <c r="B49" s="16"/>
-      <c r="C49" s="16"/>
-      <c r="D49" s="16"/>
-      <c r="E49" s="16"/>
-      <c r="F49" s="16"/>
-    </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A50" s="2"/>
-      <c r="B50" s="17" t="s">
-        <v>68</v>
-      </c>
-      <c r="C50" s="18" t="s">
-        <v>65</v>
-      </c>
-      <c r="D50" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E50" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="F50" s="2" t="s">
-        <v>71</v>
-      </c>
+      <c r="B50" s="18"/>
+      <c r="C50" s="18"/>
+      <c r="D50" s="18"/>
+      <c r="E50" s="18"/>
+      <c r="F50" s="18"/>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A51" s="2"/>
-      <c r="B51" s="17"/>
-      <c r="C51" s="18"/>
-      <c r="D51" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E51" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="F51" s="2" t="s">
-        <v>66</v>
-      </c>
+      <c r="B51" s="2"/>
+      <c r="C51" s="2"/>
+      <c r="D51" s="2"/>
+      <c r="E51" s="2"/>
+      <c r="F51" s="2"/>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A52" s="2"/>
-      <c r="B52" s="17" t="s">
-        <v>69</v>
-      </c>
-      <c r="C52" s="18" t="s">
-        <v>70</v>
-      </c>
-      <c r="D52" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E52" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="F52" s="2" t="s">
-        <v>71</v>
-      </c>
+      <c r="A52" s="18" t="s">
+        <v>67</v>
+      </c>
+      <c r="B52" s="18"/>
+      <c r="C52" s="18"/>
+      <c r="D52" s="18"/>
+      <c r="E52" s="18"/>
+      <c r="F52" s="18"/>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A53" s="2"/>
-      <c r="B53" s="17"/>
-      <c r="C53" s="18"/>
+      <c r="B53" s="16" t="s">
+        <v>68</v>
+      </c>
+      <c r="C53" s="17" t="s">
+        <v>65</v>
+      </c>
       <c r="D53" s="2" t="s">
         <v>18</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>4</v>
+        <v>18</v>
       </c>
       <c r="F53" s="2" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A54" s="2"/>
-      <c r="B54" s="6" t="s">
-        <v>83</v>
-      </c>
-      <c r="C54" s="7" t="s">
-        <v>84</v>
-      </c>
+      <c r="B54" s="16"/>
+      <c r="C54" s="17"/>
       <c r="D54" s="2" t="s">
         <v>18</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>81</v>
+        <v>4</v>
       </c>
       <c r="F54" s="2" t="s">
-        <v>85</v>
+        <v>66</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A55" s="2"/>
-      <c r="B55" s="6" t="s">
-        <v>79</v>
-      </c>
-      <c r="C55" s="7" t="s">
-        <v>80</v>
+      <c r="B55" s="16" t="s">
+        <v>69</v>
+      </c>
+      <c r="C55" s="17" t="s">
+        <v>70</v>
       </c>
       <c r="D55" s="2" t="s">
         <v>18</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>81</v>
+        <v>18</v>
       </c>
       <c r="F55" s="2" t="s">
-        <v>82</v>
+        <v>71</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A56" s="2"/>
-      <c r="B56" s="17" t="s">
-        <v>87</v>
-      </c>
-      <c r="C56" s="18" t="s">
-        <v>86</v>
-      </c>
+      <c r="B56" s="16"/>
+      <c r="C56" s="17"/>
       <c r="D56" s="2" t="s">
         <v>18</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>81</v>
+        <v>4</v>
       </c>
       <c r="F56" s="2" t="s">
-        <v>85</v>
+        <v>66</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A57" s="2"/>
-      <c r="B57" s="17"/>
-      <c r="C57" s="18"/>
+      <c r="B57" s="14" t="s">
+        <v>83</v>
+      </c>
+      <c r="C57" s="15" t="s">
+        <v>84</v>
+      </c>
       <c r="D57" s="2" t="s">
         <v>18</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="F57" s="2" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A58" s="2"/>
-      <c r="B58" s="17" t="s">
-        <v>90</v>
-      </c>
-      <c r="C58" s="18" t="s">
-        <v>91</v>
+      <c r="B58" s="14" t="s">
+        <v>79</v>
+      </c>
+      <c r="C58" s="15" t="s">
+        <v>80</v>
       </c>
       <c r="D58" s="2" t="s">
         <v>18</v>
@@ -2080,264 +2057,321 @@
         <v>81</v>
       </c>
       <c r="F58" s="2" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A59" s="2"/>
-      <c r="B59" s="17"/>
-      <c r="C59" s="18"/>
+      <c r="B59" s="16" t="s">
+        <v>87</v>
+      </c>
+      <c r="C59" s="17" t="s">
+        <v>86</v>
+      </c>
       <c r="D59" s="2" t="s">
         <v>18</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="F59" s="2" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A60" s="2"/>
-      <c r="B60" s="6"/>
-      <c r="C60" s="7"/>
-      <c r="D60" s="2"/>
-      <c r="E60" s="2"/>
-      <c r="F60" s="2"/>
+      <c r="B60" s="16"/>
+      <c r="C60" s="17"/>
+      <c r="D60" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E60" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="F60" s="2" t="s">
+        <v>89</v>
+      </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A61" s="16" t="s">
-        <v>92</v>
-      </c>
-      <c r="B61" s="16"/>
-      <c r="C61" s="16"/>
-      <c r="D61" s="16"/>
-      <c r="E61" s="16"/>
-      <c r="F61" s="16"/>
+      <c r="A61" s="2"/>
+      <c r="B61" s="16" t="s">
+        <v>90</v>
+      </c>
+      <c r="C61" s="17" t="s">
+        <v>91</v>
+      </c>
+      <c r="D61" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E61" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="F61" s="2" t="s">
+        <v>85</v>
+      </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A62" s="2"/>
-      <c r="B62" s="5" t="s">
-        <v>94</v>
-      </c>
-      <c r="C62" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="D62" s="4" t="s">
-        <v>95</v>
-      </c>
-      <c r="E62" s="4" t="s">
-        <v>95</v>
-      </c>
-      <c r="F62" s="4"/>
+      <c r="B62" s="16"/>
+      <c r="C62" s="17"/>
+      <c r="D62" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E62" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="F62" s="2" t="s">
+        <v>89</v>
+      </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A63" s="2"/>
-      <c r="B63" s="5" t="s">
-        <v>97</v>
-      </c>
-      <c r="C63" s="3" t="s">
-        <v>96</v>
-      </c>
-      <c r="D63" s="4" t="s">
-        <v>95</v>
-      </c>
-      <c r="E63" s="4" t="s">
-        <v>95</v>
-      </c>
-      <c r="F63" s="14" t="s">
-        <v>98</v>
-      </c>
+      <c r="B63" s="14"/>
+      <c r="C63" s="15"/>
+      <c r="D63" s="2"/>
+      <c r="E63" s="2"/>
+      <c r="F63" s="2"/>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A64" s="16" t="s">
-        <v>33</v>
-      </c>
-      <c r="B64" s="16"/>
-      <c r="C64" s="16"/>
-      <c r="D64" s="16"/>
-      <c r="E64" s="16"/>
-      <c r="F64" s="16"/>
+      <c r="A64" s="18" t="s">
+        <v>92</v>
+      </c>
+      <c r="B64" s="18"/>
+      <c r="C64" s="18"/>
+      <c r="D64" s="18"/>
+      <c r="E64" s="18"/>
+      <c r="F64" s="18"/>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A65" s="2"/>
-      <c r="B65" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="C65" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="D65" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="E65" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="F65" s="2" t="s">
-        <v>76</v>
-      </c>
+      <c r="B65" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="C65" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="D65" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="E65" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="F65" s="4"/>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A66" s="2"/>
-      <c r="B66" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="C66" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="D66" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="E66" s="2"/>
-      <c r="F66" s="2"/>
+      <c r="B66" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="C66" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="D66" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="E66" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="F66" s="12" t="s">
+        <v>98</v>
+      </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A67" s="16" t="s">
-        <v>34</v>
-      </c>
-      <c r="B67" s="16"/>
-      <c r="C67" s="16"/>
-      <c r="D67" s="16"/>
-      <c r="E67" s="16"/>
-      <c r="F67" s="16"/>
+      <c r="A67" s="18" t="s">
+        <v>33</v>
+      </c>
+      <c r="B67" s="18"/>
+      <c r="C67" s="18"/>
+      <c r="D67" s="18"/>
+      <c r="E67" s="18"/>
+      <c r="F67" s="18"/>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A68" s="2"/>
-      <c r="B68" s="2"/>
-      <c r="C68" s="2"/>
-      <c r="D68" s="2"/>
-      <c r="E68" s="2"/>
-      <c r="F68" s="2"/>
+      <c r="B68" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="C68" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="D68" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="E68" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="F68" s="2" t="s">
+        <v>76</v>
+      </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A69" s="16" t="s">
-        <v>35</v>
-      </c>
-      <c r="B69" s="16"/>
-      <c r="C69" s="16"/>
-      <c r="D69" s="16"/>
-      <c r="E69" s="16"/>
-      <c r="F69" s="16"/>
+      <c r="A69" s="2"/>
+      <c r="B69" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="C69" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="D69" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="E69" s="2"/>
+      <c r="F69" s="2"/>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A70" s="2"/>
-      <c r="B70" s="17" t="s">
-        <v>113</v>
-      </c>
-      <c r="C70" s="18" t="s">
-        <v>114</v>
-      </c>
-      <c r="D70" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="E70" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="F70" s="2" t="s">
-        <v>115</v>
-      </c>
+      <c r="A70" s="18" t="s">
+        <v>34</v>
+      </c>
+      <c r="B70" s="18"/>
+      <c r="C70" s="18"/>
+      <c r="D70" s="18"/>
+      <c r="E70" s="18"/>
+      <c r="F70" s="18"/>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A71" s="2"/>
-      <c r="B71" s="17"/>
-      <c r="C71" s="17"/>
-      <c r="D71" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="E71" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="F71" s="2" t="s">
-        <v>116</v>
-      </c>
+      <c r="B71" s="2"/>
+      <c r="C71" s="2"/>
+      <c r="D71" s="2"/>
+      <c r="E71" s="2"/>
+      <c r="F71" s="2"/>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A72" s="2"/>
-      <c r="B72" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="C72" s="7" t="s">
-        <v>117</v>
-      </c>
-      <c r="D72" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E72" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="F72" s="2" t="s">
-        <v>115</v>
-      </c>
+      <c r="A72" s="18" t="s">
+        <v>35</v>
+      </c>
+      <c r="B72" s="18"/>
+      <c r="C72" s="18"/>
+      <c r="D72" s="18"/>
+      <c r="E72" s="18"/>
+      <c r="F72" s="18"/>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A73" s="2"/>
-      <c r="B73" s="17" t="s">
-        <v>120</v>
-      </c>
-      <c r="C73" s="18" t="s">
-        <v>121</v>
+      <c r="B73" s="16" t="s">
+        <v>113</v>
+      </c>
+      <c r="C73" s="17" t="s">
+        <v>114</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>54</v>
+        <v>119</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>43</v>
+        <v>119</v>
       </c>
       <c r="F73" s="2" t="s">
-        <v>122</v>
+        <v>115</v>
       </c>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A74" s="2"/>
-      <c r="B74" s="17"/>
-      <c r="C74" s="18"/>
+      <c r="B74" s="16"/>
+      <c r="C74" s="16"/>
       <c r="D74" s="2" t="s">
-        <v>18</v>
+        <v>119</v>
       </c>
       <c r="E74" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F74" s="2" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A75" s="2"/>
+      <c r="B75" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="C75" s="15" t="s">
+        <v>117</v>
+      </c>
+      <c r="D75" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E75" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="F74" s="15" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A75" s="16" t="s">
-        <v>36</v>
-      </c>
-      <c r="B75" s="16"/>
-      <c r="C75" s="16"/>
-      <c r="D75" s="16"/>
-      <c r="E75" s="16"/>
-      <c r="F75" s="16"/>
+      <c r="F75" s="2" t="s">
+        <v>115</v>
+      </c>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A76" s="2"/>
-      <c r="B76" s="2"/>
-      <c r="C76" s="2"/>
-      <c r="D76" s="2"/>
-      <c r="E76" s="2"/>
-      <c r="F76" s="2"/>
+      <c r="B76" s="16" t="s">
+        <v>120</v>
+      </c>
+      <c r="C76" s="17" t="s">
+        <v>121</v>
+      </c>
+      <c r="D76" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="E76" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="F76" s="2" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A77" s="2"/>
+      <c r="B77" s="16"/>
+      <c r="C77" s="17"/>
+      <c r="D77" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E77" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="F77" s="13" t="s">
+        <v>123</v>
+      </c>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="F78" t="s">
+      <c r="A78" s="18" t="s">
+        <v>36</v>
+      </c>
+      <c r="B78" s="18"/>
+      <c r="C78" s="18"/>
+      <c r="D78" s="18"/>
+      <c r="E78" s="18"/>
+      <c r="F78" s="18"/>
+    </row>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A79" s="2"/>
+      <c r="B79" s="2"/>
+      <c r="C79" s="2"/>
+      <c r="D79" s="2"/>
+      <c r="E79" s="2"/>
+      <c r="F79" s="2"/>
+    </row>
+    <row r="81" spans="6:6" x14ac:dyDescent="0.35">
+      <c r="F81" t="s">
         <v>157</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="35">
-    <mergeCell ref="A45:A46"/>
-    <mergeCell ref="B45:B46"/>
-    <mergeCell ref="C45:C46"/>
-    <mergeCell ref="A43:A44"/>
-    <mergeCell ref="B43:B44"/>
-    <mergeCell ref="C43:C44"/>
-    <mergeCell ref="B70:B71"/>
-    <mergeCell ref="C70:C71"/>
-    <mergeCell ref="B73:B74"/>
-    <mergeCell ref="C73:C74"/>
-    <mergeCell ref="C58:C59"/>
-    <mergeCell ref="B58:B59"/>
+  <mergeCells count="38">
+    <mergeCell ref="A39:A40"/>
+    <mergeCell ref="B39:B40"/>
+    <mergeCell ref="C39:C40"/>
+    <mergeCell ref="A32:F32"/>
+    <mergeCell ref="A67:F67"/>
+    <mergeCell ref="A70:F70"/>
+    <mergeCell ref="A72:F72"/>
+    <mergeCell ref="A78:F78"/>
+    <mergeCell ref="A34:F34"/>
+    <mergeCell ref="A36:F36"/>
+    <mergeCell ref="A50:F50"/>
+    <mergeCell ref="A52:F52"/>
+    <mergeCell ref="A64:F64"/>
+    <mergeCell ref="B53:B54"/>
+    <mergeCell ref="C53:C54"/>
+    <mergeCell ref="B55:B56"/>
+    <mergeCell ref="C55:C56"/>
+    <mergeCell ref="B59:B60"/>
+    <mergeCell ref="C59:C60"/>
     <mergeCell ref="B26:B27"/>
     <mergeCell ref="C26:C27"/>
     <mergeCell ref="A2:F2"/>
@@ -2345,22 +2379,18 @@
     <mergeCell ref="A14:F14"/>
     <mergeCell ref="A21:F21"/>
     <mergeCell ref="A24:F24"/>
-    <mergeCell ref="A32:F32"/>
-    <mergeCell ref="A64:F64"/>
-    <mergeCell ref="A67:F67"/>
-    <mergeCell ref="A69:F69"/>
-    <mergeCell ref="A75:F75"/>
-    <mergeCell ref="A34:F34"/>
-    <mergeCell ref="A36:F36"/>
-    <mergeCell ref="A47:F47"/>
-    <mergeCell ref="A49:F49"/>
-    <mergeCell ref="A61:F61"/>
-    <mergeCell ref="B50:B51"/>
-    <mergeCell ref="C50:C51"/>
-    <mergeCell ref="B52:B53"/>
-    <mergeCell ref="C52:C53"/>
-    <mergeCell ref="B56:B57"/>
-    <mergeCell ref="C56:C57"/>
+    <mergeCell ref="B73:B74"/>
+    <mergeCell ref="C73:C74"/>
+    <mergeCell ref="B76:B77"/>
+    <mergeCell ref="C76:C77"/>
+    <mergeCell ref="C61:C62"/>
+    <mergeCell ref="B61:B62"/>
+    <mergeCell ref="A48:A49"/>
+    <mergeCell ref="B48:B49"/>
+    <mergeCell ref="C48:C49"/>
+    <mergeCell ref="A45:A46"/>
+    <mergeCell ref="B45:B46"/>
+    <mergeCell ref="C45:C46"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="C3" r:id="rId1" xr:uid="{3FB3FA06-DE47-4C2D-AFD7-F5FC45E3D126}"/>
@@ -2370,15 +2400,15 @@
     <hyperlink ref="C22" r:id="rId5" xr:uid="{6352E065-8925-49FF-AA82-66ED2F9F8651}"/>
     <hyperlink ref="C16" r:id="rId6" xr:uid="{047C68C0-B7AB-4E77-9D1E-B162BD11A209}"/>
     <hyperlink ref="C17" r:id="rId7" xr:uid="{1ABD0EDA-F48F-4D2F-B13C-180B398F1FCD}"/>
-    <hyperlink ref="C50" r:id="rId8" xr:uid="{35D2A43C-BF1B-4339-9217-7116005F7034}"/>
-    <hyperlink ref="C52" r:id="rId9" xr:uid="{233456E2-1B15-4448-A669-82C381357683}"/>
-    <hyperlink ref="C65" r:id="rId10" xr:uid="{4A724644-7F2B-4DE6-9141-A1802140FB4A}"/>
-    <hyperlink ref="C62" r:id="rId11" xr:uid="{914A5C5A-20B3-4526-A460-020F9852AFDB}"/>
-    <hyperlink ref="C63" r:id="rId12" xr:uid="{0B2D15B8-18BF-46A5-991E-6E53ADC95851}"/>
+    <hyperlink ref="C53" r:id="rId8" xr:uid="{35D2A43C-BF1B-4339-9217-7116005F7034}"/>
+    <hyperlink ref="C55" r:id="rId9" xr:uid="{233456E2-1B15-4448-A669-82C381357683}"/>
+    <hyperlink ref="C68" r:id="rId10" xr:uid="{4A724644-7F2B-4DE6-9141-A1802140FB4A}"/>
+    <hyperlink ref="C65" r:id="rId11" xr:uid="{914A5C5A-20B3-4526-A460-020F9852AFDB}"/>
+    <hyperlink ref="C66" r:id="rId12" xr:uid="{0B2D15B8-18BF-46A5-991E-6E53ADC95851}"/>
     <hyperlink ref="C25" r:id="rId13" xr:uid="{93A177B9-936F-4ED5-9F32-EB31F0D8F614}"/>
-    <hyperlink ref="C70" r:id="rId14" xr:uid="{9CD2E86C-B1BA-4CC3-9E52-ECA767380715}"/>
-    <hyperlink ref="C72" r:id="rId15" xr:uid="{30EBB8AD-10BE-47B9-BF85-DBCCCE948784}"/>
-    <hyperlink ref="F74" r:id="rId16" xr:uid="{080A2B1B-6640-47F1-9DAB-1F0914BD9938}"/>
+    <hyperlink ref="C73" r:id="rId14" xr:uid="{9CD2E86C-B1BA-4CC3-9E52-ECA767380715}"/>
+    <hyperlink ref="C75" r:id="rId15" xr:uid="{30EBB8AD-10BE-47B9-BF85-DBCCCE948784}"/>
+    <hyperlink ref="F77" r:id="rId16" xr:uid="{080A2B1B-6640-47F1-9DAB-1F0914BD9938}"/>
     <hyperlink ref="C37" r:id="rId17" xr:uid="{DD8AB0F8-5B5E-4F6E-A0B4-339B324BDAC3}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/SDE Sheet.xlsx
+++ b/SDE Sheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Src Code\Personal\SDE-Sheet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73BFF845-9237-41F8-BD02-4F93F817DF81}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA2A0D26-5004-468F-8C40-286BFB6ACFE2}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{83934561-A72F-4836-B1E7-4EE8C35F9874}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="265" uniqueCount="165">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="273" uniqueCount="169">
   <si>
     <t>Matrix</t>
   </si>
@@ -648,6 +648,18 @@
   </si>
   <si>
     <t>https://leetcode.com/problems/rotate-list/</t>
+  </si>
+  <si>
+    <t>Palindrome Linked List</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/palindrome-linked-list/</t>
+  </si>
+  <si>
+    <t>Using stack</t>
+  </si>
+  <si>
+    <t>Divide in 2 parts, reverse and check</t>
   </si>
 </sst>
 </file>
@@ -777,7 +789,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -800,12 +812,49 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -837,24 +886,46 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1170,11 +1241,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D3EBAEE5-B4E7-4BD5-B694-FD6EEA5E8AC0}">
-  <dimension ref="A1:F81"/>
+  <dimension ref="A1:F83"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="79" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C33" sqref="C33"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F48" sqref="F48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1207,14 +1278,14 @@
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A2" s="18" t="s">
+      <c r="A2" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="18"/>
-      <c r="C2" s="18"/>
-      <c r="D2" s="18"/>
-      <c r="E2" s="18"/>
-      <c r="F2" s="18"/>
+      <c r="B2" s="21"/>
+      <c r="C2" s="21"/>
+      <c r="D2" s="21"/>
+      <c r="E2" s="21"/>
+      <c r="F2" s="21"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A3" s="2"/>
@@ -1279,14 +1350,14 @@
       <c r="F6" s="2"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A7" s="18" t="s">
+      <c r="A7" s="21" t="s">
         <v>15</v>
       </c>
-      <c r="B7" s="18"/>
-      <c r="C7" s="18"/>
-      <c r="D7" s="18"/>
-      <c r="E7" s="18"/>
-      <c r="F7" s="18"/>
+      <c r="B7" s="21"/>
+      <c r="C7" s="21"/>
+      <c r="D7" s="21"/>
+      <c r="E7" s="21"/>
+      <c r="F7" s="21"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A8" s="2"/>
@@ -1397,14 +1468,14 @@
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A14" s="18" t="s">
+      <c r="A14" s="21" t="s">
         <v>22</v>
       </c>
-      <c r="B14" s="18"/>
-      <c r="C14" s="18"/>
-      <c r="D14" s="18"/>
-      <c r="E14" s="18"/>
-      <c r="F14" s="18"/>
+      <c r="B14" s="21"/>
+      <c r="C14" s="21"/>
+      <c r="D14" s="21"/>
+      <c r="E14" s="21"/>
+      <c r="F14" s="21"/>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A15" s="2"/>
@@ -1513,14 +1584,14 @@
       <c r="F20" s="2"/>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A21" s="18" t="s">
+      <c r="A21" s="21" t="s">
         <v>23</v>
       </c>
-      <c r="B21" s="18"/>
-      <c r="C21" s="18"/>
-      <c r="D21" s="18"/>
-      <c r="E21" s="18"/>
-      <c r="F21" s="18"/>
+      <c r="B21" s="21"/>
+      <c r="C21" s="21"/>
+      <c r="D21" s="21"/>
+      <c r="E21" s="21"/>
+      <c r="F21" s="21"/>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A22" s="2"/>
@@ -1549,14 +1620,14 @@
       <c r="F23" s="2"/>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A24" s="18" t="s">
+      <c r="A24" s="21" t="s">
         <v>99</v>
       </c>
-      <c r="B24" s="18"/>
-      <c r="C24" s="18"/>
-      <c r="D24" s="18"/>
-      <c r="E24" s="18"/>
-      <c r="F24" s="18"/>
+      <c r="B24" s="21"/>
+      <c r="C24" s="21"/>
+      <c r="D24" s="21"/>
+      <c r="E24" s="21"/>
+      <c r="F24" s="21"/>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A25" s="2"/>
@@ -1578,10 +1649,10 @@
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A26" s="2"/>
-      <c r="B26" s="16" t="s">
+      <c r="B26" s="19" t="s">
         <v>108</v>
       </c>
-      <c r="C26" s="17" t="s">
+      <c r="C26" s="20" t="s">
         <v>109</v>
       </c>
       <c r="D26" s="2" t="s">
@@ -1596,8 +1667,8 @@
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A27" s="2"/>
-      <c r="B27" s="16"/>
-      <c r="C27" s="17"/>
+      <c r="B27" s="19"/>
+      <c r="C27" s="20"/>
       <c r="D27" s="2" t="s">
         <v>101</v>
       </c>
@@ -1665,14 +1736,14 @@
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A32" s="18" t="s">
+      <c r="A32" s="21" t="s">
         <v>29</v>
       </c>
-      <c r="B32" s="18"/>
-      <c r="C32" s="18"/>
-      <c r="D32" s="18"/>
-      <c r="E32" s="18"/>
-      <c r="F32" s="18"/>
+      <c r="B32" s="21"/>
+      <c r="C32" s="21"/>
+      <c r="D32" s="21"/>
+      <c r="E32" s="21"/>
+      <c r="F32" s="21"/>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A33" s="2"/>
@@ -1683,14 +1754,14 @@
       <c r="F33" s="2"/>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A34" s="18" t="s">
+      <c r="A34" s="21" t="s">
         <v>30</v>
       </c>
-      <c r="B34" s="18"/>
-      <c r="C34" s="18"/>
-      <c r="D34" s="18"/>
-      <c r="E34" s="18"/>
-      <c r="F34" s="18"/>
+      <c r="B34" s="21"/>
+      <c r="C34" s="21"/>
+      <c r="D34" s="21"/>
+      <c r="E34" s="21"/>
+      <c r="F34" s="21"/>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A35" s="2"/>
@@ -1701,14 +1772,14 @@
       <c r="F35" s="2"/>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A36" s="18" t="s">
+      <c r="A36" s="21" t="s">
         <v>31</v>
       </c>
-      <c r="B36" s="18"/>
-      <c r="C36" s="18"/>
-      <c r="D36" s="18"/>
-      <c r="E36" s="18"/>
-      <c r="F36" s="18"/>
+      <c r="B36" s="21"/>
+      <c r="C36" s="21"/>
+      <c r="D36" s="21"/>
+      <c r="E36" s="21"/>
+      <c r="F36" s="21"/>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A37" s="11"/>
@@ -1747,11 +1818,11 @@
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A39" s="19"/>
-      <c r="B39" s="16" t="s">
+      <c r="A39" s="18"/>
+      <c r="B39" s="19" t="s">
         <v>160</v>
       </c>
-      <c r="C39" s="17" t="s">
+      <c r="C39" s="20" t="s">
         <v>161</v>
       </c>
       <c r="D39" s="2" t="s">
@@ -1765,9 +1836,9 @@
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A40" s="19"/>
-      <c r="B40" s="16"/>
-      <c r="C40" s="17"/>
+      <c r="A40" s="18"/>
+      <c r="B40" s="19"/>
+      <c r="C40" s="20"/>
       <c r="D40" s="2" t="s">
         <v>18</v>
       </c>
@@ -1851,11 +1922,11 @@
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A45" s="20"/>
-      <c r="B45" s="16" t="s">
+      <c r="A45" s="23"/>
+      <c r="B45" s="19" t="s">
         <v>154</v>
       </c>
-      <c r="C45" s="17" t="s">
+      <c r="C45" s="20" t="s">
         <v>155</v>
       </c>
       <c r="D45" s="2" t="s">
@@ -1869,9 +1940,9 @@
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A46" s="20"/>
-      <c r="B46" s="16"/>
-      <c r="C46" s="17"/>
+      <c r="A46" s="23"/>
+      <c r="B46" s="19"/>
+      <c r="C46" s="20"/>
       <c r="D46" s="2" t="s">
         <v>142</v>
       </c>
@@ -1883,122 +1954,122 @@
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A47" s="21"/>
-      <c r="B47" s="14" t="s">
+      <c r="A47" s="24"/>
+      <c r="B47" s="26" t="s">
+        <v>165</v>
+      </c>
+      <c r="C47" s="28" t="s">
+        <v>166</v>
+      </c>
+      <c r="D47" s="30" t="s">
+        <v>18</v>
+      </c>
+      <c r="E47" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F47" s="2" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A48" s="25"/>
+      <c r="B48" s="27"/>
+      <c r="C48" s="29"/>
+      <c r="D48" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E48" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F48" s="2" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A49" s="17"/>
+      <c r="B49" s="16" t="s">
         <v>163</v>
       </c>
-      <c r="C47" s="15" t="s">
+      <c r="C49" s="15" t="s">
         <v>164</v>
       </c>
-      <c r="D47" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E47" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="F47" s="2" t="s">
+      <c r="D49" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E49" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F49" s="2" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A48" s="22"/>
-      <c r="B48" s="16" t="s">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A50" s="22"/>
+      <c r="B50" s="19" t="s">
         <v>151</v>
       </c>
-      <c r="C48" s="17" t="s">
+      <c r="C50" s="20" t="s">
         <v>152</v>
       </c>
-      <c r="D48" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E48" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="F48" s="2" t="s">
+      <c r="D50" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E50" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F50" s="2" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A49" s="22"/>
-      <c r="B49" s="16"/>
-      <c r="C49" s="17"/>
-      <c r="D49" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E49" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="F49" s="2" t="s">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A51" s="22"/>
+      <c r="B51" s="19"/>
+      <c r="C51" s="20"/>
+      <c r="D51" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E51" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F51" s="2" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A50" s="18" t="s">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A52" s="21" t="s">
         <v>32</v>
       </c>
-      <c r="B50" s="18"/>
-      <c r="C50" s="18"/>
-      <c r="D50" s="18"/>
-      <c r="E50" s="18"/>
-      <c r="F50" s="18"/>
-    </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A51" s="2"/>
-      <c r="B51" s="2"/>
-      <c r="C51" s="2"/>
-      <c r="D51" s="2"/>
-      <c r="E51" s="2"/>
-      <c r="F51" s="2"/>
-    </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A52" s="18" t="s">
-        <v>67</v>
-      </c>
-      <c r="B52" s="18"/>
-      <c r="C52" s="18"/>
-      <c r="D52" s="18"/>
-      <c r="E52" s="18"/>
-      <c r="F52" s="18"/>
+      <c r="B52" s="21"/>
+      <c r="C52" s="21"/>
+      <c r="D52" s="21"/>
+      <c r="E52" s="21"/>
+      <c r="F52" s="21"/>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A53" s="2"/>
-      <c r="B53" s="16" t="s">
-        <v>68</v>
-      </c>
-      <c r="C53" s="17" t="s">
-        <v>65</v>
-      </c>
-      <c r="D53" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E53" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="F53" s="2" t="s">
-        <v>71</v>
-      </c>
+      <c r="B53" s="2"/>
+      <c r="C53" s="2"/>
+      <c r="D53" s="2"/>
+      <c r="E53" s="2"/>
+      <c r="F53" s="2"/>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A54" s="2"/>
-      <c r="B54" s="16"/>
-      <c r="C54" s="17"/>
-      <c r="D54" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E54" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="F54" s="2" t="s">
-        <v>66</v>
-      </c>
+      <c r="A54" s="21" t="s">
+        <v>67</v>
+      </c>
+      <c r="B54" s="21"/>
+      <c r="C54" s="21"/>
+      <c r="D54" s="21"/>
+      <c r="E54" s="21"/>
+      <c r="F54" s="21"/>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A55" s="2"/>
-      <c r="B55" s="16" t="s">
-        <v>69</v>
-      </c>
-      <c r="C55" s="17" t="s">
-        <v>70</v>
+      <c r="B55" s="19" t="s">
+        <v>68</v>
+      </c>
+      <c r="C55" s="20" t="s">
+        <v>65</v>
       </c>
       <c r="D55" s="2" t="s">
         <v>18</v>
@@ -2012,8 +2083,8 @@
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A56" s="2"/>
-      <c r="B56" s="16"/>
-      <c r="C56" s="17"/>
+      <c r="B56" s="19"/>
+      <c r="C56" s="20"/>
       <c r="D56" s="2" t="s">
         <v>18</v>
       </c>
@@ -2026,47 +2097,43 @@
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A57" s="2"/>
-      <c r="B57" s="14" t="s">
-        <v>83</v>
-      </c>
-      <c r="C57" s="15" t="s">
-        <v>84</v>
+      <c r="B57" s="19" t="s">
+        <v>69</v>
+      </c>
+      <c r="C57" s="20" t="s">
+        <v>70</v>
       </c>
       <c r="D57" s="2" t="s">
         <v>18</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>81</v>
+        <v>18</v>
       </c>
       <c r="F57" s="2" t="s">
-        <v>85</v>
+        <v>71</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A58" s="2"/>
-      <c r="B58" s="14" t="s">
-        <v>79</v>
-      </c>
-      <c r="C58" s="15" t="s">
-        <v>80</v>
-      </c>
+      <c r="B58" s="19"/>
+      <c r="C58" s="20"/>
       <c r="D58" s="2" t="s">
         <v>18</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>81</v>
+        <v>4</v>
       </c>
       <c r="F58" s="2" t="s">
-        <v>82</v>
+        <v>66</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A59" s="2"/>
-      <c r="B59" s="16" t="s">
-        <v>87</v>
-      </c>
-      <c r="C59" s="17" t="s">
-        <v>86</v>
+      <c r="B59" s="14" t="s">
+        <v>83</v>
+      </c>
+      <c r="C59" s="15" t="s">
+        <v>84</v>
       </c>
       <c r="D59" s="2" t="s">
         <v>18</v>
@@ -2080,25 +2147,29 @@
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A60" s="2"/>
-      <c r="B60" s="16"/>
-      <c r="C60" s="17"/>
+      <c r="B60" s="14" t="s">
+        <v>79</v>
+      </c>
+      <c r="C60" s="15" t="s">
+        <v>80</v>
+      </c>
       <c r="D60" s="2" t="s">
         <v>18</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="F60" s="2" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A61" s="2"/>
-      <c r="B61" s="16" t="s">
-        <v>90</v>
-      </c>
-      <c r="C61" s="17" t="s">
-        <v>91</v>
+      <c r="B61" s="19" t="s">
+        <v>87</v>
+      </c>
+      <c r="C61" s="20" t="s">
+        <v>86</v>
       </c>
       <c r="D61" s="2" t="s">
         <v>18</v>
@@ -2112,8 +2183,8 @@
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A62" s="2"/>
-      <c r="B62" s="16"/>
-      <c r="C62" s="17"/>
+      <c r="B62" s="19"/>
+      <c r="C62" s="20"/>
       <c r="D62" s="2" t="s">
         <v>18</v>
       </c>
@@ -2126,171 +2197,171 @@
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A63" s="2"/>
-      <c r="B63" s="14"/>
-      <c r="C63" s="15"/>
-      <c r="D63" s="2"/>
-      <c r="E63" s="2"/>
-      <c r="F63" s="2"/>
+      <c r="B63" s="19" t="s">
+        <v>90</v>
+      </c>
+      <c r="C63" s="20" t="s">
+        <v>91</v>
+      </c>
+      <c r="D63" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E63" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="F63" s="2" t="s">
+        <v>85</v>
+      </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A64" s="18" t="s">
-        <v>92</v>
-      </c>
-      <c r="B64" s="18"/>
-      <c r="C64" s="18"/>
-      <c r="D64" s="18"/>
-      <c r="E64" s="18"/>
-      <c r="F64" s="18"/>
+      <c r="A64" s="2"/>
+      <c r="B64" s="19"/>
+      <c r="C64" s="20"/>
+      <c r="D64" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E64" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="F64" s="2" t="s">
+        <v>89</v>
+      </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A65" s="2"/>
-      <c r="B65" s="5" t="s">
+      <c r="B65" s="14"/>
+      <c r="C65" s="15"/>
+      <c r="D65" s="2"/>
+      <c r="E65" s="2"/>
+      <c r="F65" s="2"/>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A66" s="21" t="s">
+        <v>92</v>
+      </c>
+      <c r="B66" s="21"/>
+      <c r="C66" s="21"/>
+      <c r="D66" s="21"/>
+      <c r="E66" s="21"/>
+      <c r="F66" s="21"/>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A67" s="2"/>
+      <c r="B67" s="5" t="s">
         <v>94</v>
       </c>
-      <c r="C65" s="3" t="s">
+      <c r="C67" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="D65" s="4" t="s">
+      <c r="D67" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="E65" s="4" t="s">
+      <c r="E67" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="F65" s="4"/>
-    </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A66" s="2"/>
-      <c r="B66" s="5" t="s">
-        <v>97</v>
-      </c>
-      <c r="C66" s="3" t="s">
-        <v>96</v>
-      </c>
-      <c r="D66" s="4" t="s">
-        <v>95</v>
-      </c>
-      <c r="E66" s="4" t="s">
-        <v>95</v>
-      </c>
-      <c r="F66" s="12" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A67" s="18" t="s">
-        <v>33</v>
-      </c>
-      <c r="B67" s="18"/>
-      <c r="C67" s="18"/>
-      <c r="D67" s="18"/>
-      <c r="E67" s="18"/>
-      <c r="F67" s="18"/>
+      <c r="F67" s="4"/>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A68" s="2"/>
-      <c r="B68" s="2" t="s">
+      <c r="B68" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="C68" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="D68" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="E68" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="F68" s="12" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A69" s="21" t="s">
+        <v>33</v>
+      </c>
+      <c r="B69" s="21"/>
+      <c r="C69" s="21"/>
+      <c r="D69" s="21"/>
+      <c r="E69" s="21"/>
+      <c r="F69" s="21"/>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A70" s="2"/>
+      <c r="B70" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="C68" s="1" t="s">
+      <c r="C70" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="D68" s="2" t="s">
+      <c r="D70" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="E68" s="2" t="s">
+      <c r="E70" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="F68" s="2" t="s">
+      <c r="F70" s="2" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A69" s="2"/>
-      <c r="B69" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="C69" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="D69" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="E69" s="2"/>
-      <c r="F69" s="2"/>
-    </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A70" s="18" t="s">
-        <v>34</v>
-      </c>
-      <c r="B70" s="18"/>
-      <c r="C70" s="18"/>
-      <c r="D70" s="18"/>
-      <c r="E70" s="18"/>
-      <c r="F70" s="18"/>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A71" s="2"/>
-      <c r="B71" s="2"/>
-      <c r="C71" s="2"/>
-      <c r="D71" s="2"/>
+      <c r="B71" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="C71" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="D71" s="2" t="s">
+        <v>74</v>
+      </c>
       <c r="E71" s="2"/>
       <c r="F71" s="2"/>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A72" s="18" t="s">
-        <v>35</v>
-      </c>
-      <c r="B72" s="18"/>
-      <c r="C72" s="18"/>
-      <c r="D72" s="18"/>
-      <c r="E72" s="18"/>
-      <c r="F72" s="18"/>
+      <c r="A72" s="21" t="s">
+        <v>34</v>
+      </c>
+      <c r="B72" s="21"/>
+      <c r="C72" s="21"/>
+      <c r="D72" s="21"/>
+      <c r="E72" s="21"/>
+      <c r="F72" s="21"/>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A73" s="2"/>
-      <c r="B73" s="16" t="s">
-        <v>113</v>
-      </c>
-      <c r="C73" s="17" t="s">
-        <v>114</v>
-      </c>
-      <c r="D73" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="E73" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="F73" s="2" t="s">
-        <v>115</v>
-      </c>
+      <c r="B73" s="2"/>
+      <c r="C73" s="2"/>
+      <c r="D73" s="2"/>
+      <c r="E73" s="2"/>
+      <c r="F73" s="2"/>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A74" s="2"/>
-      <c r="B74" s="16"/>
-      <c r="C74" s="16"/>
-      <c r="D74" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="E74" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="F74" s="2" t="s">
-        <v>116</v>
-      </c>
+      <c r="A74" s="21" t="s">
+        <v>35</v>
+      </c>
+      <c r="B74" s="21"/>
+      <c r="C74" s="21"/>
+      <c r="D74" s="21"/>
+      <c r="E74" s="21"/>
+      <c r="F74" s="21"/>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A75" s="2"/>
-      <c r="B75" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="C75" s="15" t="s">
-        <v>117</v>
+      <c r="B75" s="19" t="s">
+        <v>113</v>
+      </c>
+      <c r="C75" s="20" t="s">
+        <v>114</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>18</v>
+        <v>119</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>43</v>
+        <v>119</v>
       </c>
       <c r="F75" s="2" t="s">
         <v>115</v>
@@ -2298,80 +2369,100 @@
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A76" s="2"/>
-      <c r="B76" s="16" t="s">
-        <v>120</v>
-      </c>
-      <c r="C76" s="17" t="s">
-        <v>121</v>
-      </c>
+      <c r="B76" s="19"/>
+      <c r="C76" s="19"/>
       <c r="D76" s="2" t="s">
-        <v>54</v>
+        <v>119</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>43</v>
+        <v>4</v>
       </c>
       <c r="F76" s="2" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A77" s="2"/>
-      <c r="B77" s="16"/>
-      <c r="C77" s="17"/>
+      <c r="B77" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="C77" s="15" t="s">
+        <v>117</v>
+      </c>
       <c r="D77" s="2" t="s">
         <v>18</v>
       </c>
       <c r="E77" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="F77" s="13" t="s">
-        <v>123</v>
+      <c r="F77" s="2" t="s">
+        <v>115</v>
       </c>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A78" s="18" t="s">
-        <v>36</v>
-      </c>
-      <c r="B78" s="18"/>
-      <c r="C78" s="18"/>
-      <c r="D78" s="18"/>
-      <c r="E78" s="18"/>
-      <c r="F78" s="18"/>
+      <c r="A78" s="2"/>
+      <c r="B78" s="19" t="s">
+        <v>120</v>
+      </c>
+      <c r="C78" s="20" t="s">
+        <v>121</v>
+      </c>
+      <c r="D78" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="E78" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="F78" s="2" t="s">
+        <v>122</v>
+      </c>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A79" s="2"/>
-      <c r="B79" s="2"/>
-      <c r="C79" s="2"/>
-      <c r="D79" s="2"/>
-      <c r="E79" s="2"/>
-      <c r="F79" s="2"/>
-    </row>
-    <row r="81" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F81" t="s">
+      <c r="B79" s="19"/>
+      <c r="C79" s="20"/>
+      <c r="D79" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E79" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="F79" s="13" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A80" s="21" t="s">
+        <v>36</v>
+      </c>
+      <c r="B80" s="21"/>
+      <c r="C80" s="21"/>
+      <c r="D80" s="21"/>
+      <c r="E80" s="21"/>
+      <c r="F80" s="21"/>
+    </row>
+    <row r="81" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A81" s="2"/>
+      <c r="B81" s="2"/>
+      <c r="C81" s="2"/>
+      <c r="D81" s="2"/>
+      <c r="E81" s="2"/>
+      <c r="F81" s="2"/>
+    </row>
+    <row r="83" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="F83" t="s">
         <v>157</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="38">
-    <mergeCell ref="A39:A40"/>
-    <mergeCell ref="B39:B40"/>
-    <mergeCell ref="C39:C40"/>
-    <mergeCell ref="A32:F32"/>
-    <mergeCell ref="A67:F67"/>
-    <mergeCell ref="A70:F70"/>
-    <mergeCell ref="A72:F72"/>
-    <mergeCell ref="A78:F78"/>
-    <mergeCell ref="A34:F34"/>
-    <mergeCell ref="A36:F36"/>
-    <mergeCell ref="A50:F50"/>
-    <mergeCell ref="A52:F52"/>
-    <mergeCell ref="A64:F64"/>
-    <mergeCell ref="B53:B54"/>
-    <mergeCell ref="C53:C54"/>
-    <mergeCell ref="B55:B56"/>
-    <mergeCell ref="C55:C56"/>
-    <mergeCell ref="B59:B60"/>
-    <mergeCell ref="C59:C60"/>
+  <mergeCells count="41">
+    <mergeCell ref="B78:B79"/>
+    <mergeCell ref="C78:C79"/>
+    <mergeCell ref="C63:C64"/>
+    <mergeCell ref="B63:B64"/>
+    <mergeCell ref="A50:A51"/>
+    <mergeCell ref="B50:B51"/>
+    <mergeCell ref="C50:C51"/>
     <mergeCell ref="B26:B27"/>
     <mergeCell ref="C26:C27"/>
     <mergeCell ref="A2:F2"/>
@@ -2379,18 +2470,33 @@
     <mergeCell ref="A14:F14"/>
     <mergeCell ref="A21:F21"/>
     <mergeCell ref="A24:F24"/>
-    <mergeCell ref="B73:B74"/>
-    <mergeCell ref="C73:C74"/>
-    <mergeCell ref="B76:B77"/>
-    <mergeCell ref="C76:C77"/>
+    <mergeCell ref="A72:F72"/>
+    <mergeCell ref="A74:F74"/>
+    <mergeCell ref="A80:F80"/>
+    <mergeCell ref="A34:F34"/>
+    <mergeCell ref="A36:F36"/>
+    <mergeCell ref="A52:F52"/>
+    <mergeCell ref="A54:F54"/>
+    <mergeCell ref="A66:F66"/>
+    <mergeCell ref="B55:B56"/>
+    <mergeCell ref="C55:C56"/>
+    <mergeCell ref="B57:B58"/>
+    <mergeCell ref="C57:C58"/>
+    <mergeCell ref="B61:B62"/>
     <mergeCell ref="C61:C62"/>
-    <mergeCell ref="B61:B62"/>
-    <mergeCell ref="A48:A49"/>
-    <mergeCell ref="B48:B49"/>
-    <mergeCell ref="C48:C49"/>
+    <mergeCell ref="B75:B76"/>
+    <mergeCell ref="C75:C76"/>
+    <mergeCell ref="A39:A40"/>
+    <mergeCell ref="B39:B40"/>
+    <mergeCell ref="C39:C40"/>
+    <mergeCell ref="A32:F32"/>
+    <mergeCell ref="A69:F69"/>
     <mergeCell ref="A45:A46"/>
     <mergeCell ref="B45:B46"/>
     <mergeCell ref="C45:C46"/>
+    <mergeCell ref="A47:A48"/>
+    <mergeCell ref="B47:B48"/>
+    <mergeCell ref="C47:C48"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="C3" r:id="rId1" xr:uid="{3FB3FA06-DE47-4C2D-AFD7-F5FC45E3D126}"/>
@@ -2400,19 +2506,20 @@
     <hyperlink ref="C22" r:id="rId5" xr:uid="{6352E065-8925-49FF-AA82-66ED2F9F8651}"/>
     <hyperlink ref="C16" r:id="rId6" xr:uid="{047C68C0-B7AB-4E77-9D1E-B162BD11A209}"/>
     <hyperlink ref="C17" r:id="rId7" xr:uid="{1ABD0EDA-F48F-4D2F-B13C-180B398F1FCD}"/>
-    <hyperlink ref="C53" r:id="rId8" xr:uid="{35D2A43C-BF1B-4339-9217-7116005F7034}"/>
-    <hyperlink ref="C55" r:id="rId9" xr:uid="{233456E2-1B15-4448-A669-82C381357683}"/>
-    <hyperlink ref="C68" r:id="rId10" xr:uid="{4A724644-7F2B-4DE6-9141-A1802140FB4A}"/>
-    <hyperlink ref="C65" r:id="rId11" xr:uid="{914A5C5A-20B3-4526-A460-020F9852AFDB}"/>
-    <hyperlink ref="C66" r:id="rId12" xr:uid="{0B2D15B8-18BF-46A5-991E-6E53ADC95851}"/>
+    <hyperlink ref="C55" r:id="rId8" xr:uid="{35D2A43C-BF1B-4339-9217-7116005F7034}"/>
+    <hyperlink ref="C57" r:id="rId9" xr:uid="{233456E2-1B15-4448-A669-82C381357683}"/>
+    <hyperlink ref="C70" r:id="rId10" xr:uid="{4A724644-7F2B-4DE6-9141-A1802140FB4A}"/>
+    <hyperlink ref="C67" r:id="rId11" xr:uid="{914A5C5A-20B3-4526-A460-020F9852AFDB}"/>
+    <hyperlink ref="C68" r:id="rId12" xr:uid="{0B2D15B8-18BF-46A5-991E-6E53ADC95851}"/>
     <hyperlink ref="C25" r:id="rId13" xr:uid="{93A177B9-936F-4ED5-9F32-EB31F0D8F614}"/>
-    <hyperlink ref="C73" r:id="rId14" xr:uid="{9CD2E86C-B1BA-4CC3-9E52-ECA767380715}"/>
-    <hyperlink ref="C75" r:id="rId15" xr:uid="{30EBB8AD-10BE-47B9-BF85-DBCCCE948784}"/>
-    <hyperlink ref="F77" r:id="rId16" xr:uid="{080A2B1B-6640-47F1-9DAB-1F0914BD9938}"/>
+    <hyperlink ref="C75" r:id="rId14" xr:uid="{9CD2E86C-B1BA-4CC3-9E52-ECA767380715}"/>
+    <hyperlink ref="C77" r:id="rId15" xr:uid="{30EBB8AD-10BE-47B9-BF85-DBCCCE948784}"/>
+    <hyperlink ref="F79" r:id="rId16" xr:uid="{080A2B1B-6640-47F1-9DAB-1F0914BD9938}"/>
     <hyperlink ref="C37" r:id="rId17" xr:uid="{DD8AB0F8-5B5E-4F6E-A0B4-339B324BDAC3}"/>
+    <hyperlink ref="C31" r:id="rId18" xr:uid="{43B67C49-DC70-412F-B095-E684E07FF196}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="90" verticalDpi="90" r:id="rId18"/>
+  <pageSetup orientation="portrait" horizontalDpi="90" verticalDpi="90" r:id="rId19"/>
   <headerFooter>
     <oddFooter>&amp;L12/30/2021&amp;CAXP Internal&amp;R1</oddFooter>
   </headerFooter>

--- a/SDE Sheet.xlsx
+++ b/SDE Sheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Src Code\Personal\SDE-Sheet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA2A0D26-5004-468F-8C40-286BFB6ACFE2}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E2C329E-6073-4BDB-9AFF-3A82562FE445}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{83934561-A72F-4836-B1E7-4EE8C35F9874}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="273" uniqueCount="169">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="289" uniqueCount="176">
   <si>
     <t>Matrix</t>
   </si>
@@ -660,6 +660,27 @@
   </si>
   <si>
     <t>Divide in 2 parts, reverse and check</t>
+  </si>
+  <si>
+    <t>Detect a cycle in Linked List</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/linked-list-cycle/</t>
+  </si>
+  <si>
+    <t>Using Unordered Set</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=354J83hX7RI&amp;list=PLgUwDviBIf0p4ozDR_kJJkONnb1wdx2Ma&amp;index=35</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/linked-list-cycle-ii/</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=QfbOhn0WZ88&amp;list=PLgUwDviBIf0p4ozDR_kJJkONnb1wdx2Ma&amp;index=38</t>
+  </si>
+  <si>
+    <t>Find the starting point of loop of linked list</t>
   </si>
 </sst>
 </file>
@@ -854,7 +875,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -889,19 +910,20 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -925,7 +947,13 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1241,11 +1269,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D3EBAEE5-B4E7-4BD5-B694-FD6EEA5E8AC0}">
-  <dimension ref="A1:F83"/>
+  <dimension ref="A1:F87"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="79" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F48" sqref="F48"/>
+      <pane ySplit="1" topLeftCell="A36" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B53" sqref="B53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1278,14 +1306,14 @@
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A2" s="21" t="s">
+      <c r="A2" s="22" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="21"/>
-      <c r="C2" s="21"/>
-      <c r="D2" s="21"/>
-      <c r="E2" s="21"/>
-      <c r="F2" s="21"/>
+      <c r="B2" s="22"/>
+      <c r="C2" s="22"/>
+      <c r="D2" s="22"/>
+      <c r="E2" s="22"/>
+      <c r="F2" s="22"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A3" s="2"/>
@@ -1350,14 +1378,14 @@
       <c r="F6" s="2"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A7" s="21" t="s">
+      <c r="A7" s="22" t="s">
         <v>15</v>
       </c>
-      <c r="B7" s="21"/>
-      <c r="C7" s="21"/>
-      <c r="D7" s="21"/>
-      <c r="E7" s="21"/>
-      <c r="F7" s="21"/>
+      <c r="B7" s="22"/>
+      <c r="C7" s="22"/>
+      <c r="D7" s="22"/>
+      <c r="E7" s="22"/>
+      <c r="F7" s="22"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A8" s="2"/>
@@ -1468,14 +1496,14 @@
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A14" s="21" t="s">
+      <c r="A14" s="22" t="s">
         <v>22</v>
       </c>
-      <c r="B14" s="21"/>
-      <c r="C14" s="21"/>
-      <c r="D14" s="21"/>
-      <c r="E14" s="21"/>
-      <c r="F14" s="21"/>
+      <c r="B14" s="22"/>
+      <c r="C14" s="22"/>
+      <c r="D14" s="22"/>
+      <c r="E14" s="22"/>
+      <c r="F14" s="22"/>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A15" s="2"/>
@@ -1584,14 +1612,14 @@
       <c r="F20" s="2"/>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A21" s="21" t="s">
+      <c r="A21" s="22" t="s">
         <v>23</v>
       </c>
-      <c r="B21" s="21"/>
-      <c r="C21" s="21"/>
-      <c r="D21" s="21"/>
-      <c r="E21" s="21"/>
-      <c r="F21" s="21"/>
+      <c r="B21" s="22"/>
+      <c r="C21" s="22"/>
+      <c r="D21" s="22"/>
+      <c r="E21" s="22"/>
+      <c r="F21" s="22"/>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A22" s="2"/>
@@ -1620,14 +1648,14 @@
       <c r="F23" s="2"/>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A24" s="21" t="s">
+      <c r="A24" s="22" t="s">
         <v>99</v>
       </c>
-      <c r="B24" s="21"/>
-      <c r="C24" s="21"/>
-      <c r="D24" s="21"/>
-      <c r="E24" s="21"/>
-      <c r="F24" s="21"/>
+      <c r="B24" s="22"/>
+      <c r="C24" s="22"/>
+      <c r="D24" s="22"/>
+      <c r="E24" s="22"/>
+      <c r="F24" s="22"/>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A25" s="2"/>
@@ -1736,14 +1764,14 @@
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A32" s="21" t="s">
+      <c r="A32" s="22" t="s">
         <v>29</v>
       </c>
-      <c r="B32" s="21"/>
-      <c r="C32" s="21"/>
-      <c r="D32" s="21"/>
-      <c r="E32" s="21"/>
-      <c r="F32" s="21"/>
+      <c r="B32" s="22"/>
+      <c r="C32" s="22"/>
+      <c r="D32" s="22"/>
+      <c r="E32" s="22"/>
+      <c r="F32" s="22"/>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A33" s="2"/>
@@ -1754,14 +1782,14 @@
       <c r="F33" s="2"/>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A34" s="21" t="s">
+      <c r="A34" s="22" t="s">
         <v>30</v>
       </c>
-      <c r="B34" s="21"/>
-      <c r="C34" s="21"/>
-      <c r="D34" s="21"/>
-      <c r="E34" s="21"/>
-      <c r="F34" s="21"/>
+      <c r="B34" s="22"/>
+      <c r="C34" s="22"/>
+      <c r="D34" s="22"/>
+      <c r="E34" s="22"/>
+      <c r="F34" s="22"/>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A35" s="2"/>
@@ -1772,14 +1800,14 @@
       <c r="F35" s="2"/>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A36" s="21" t="s">
+      <c r="A36" s="22" t="s">
         <v>31</v>
       </c>
-      <c r="B36" s="21"/>
-      <c r="C36" s="21"/>
-      <c r="D36" s="21"/>
-      <c r="E36" s="21"/>
-      <c r="F36" s="21"/>
+      <c r="B36" s="22"/>
+      <c r="C36" s="22"/>
+      <c r="D36" s="22"/>
+      <c r="E36" s="22"/>
+      <c r="F36" s="22"/>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A37" s="11"/>
@@ -1818,7 +1846,7 @@
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A39" s="18"/>
+      <c r="A39" s="23"/>
       <c r="B39" s="19" t="s">
         <v>160</v>
       </c>
@@ -1836,7 +1864,7 @@
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A40" s="18"/>
+      <c r="A40" s="23"/>
       <c r="B40" s="19"/>
       <c r="C40" s="20"/>
       <c r="D40" s="2" t="s">
@@ -1922,7 +1950,7 @@
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A45" s="23"/>
+      <c r="A45" s="24"/>
       <c r="B45" s="19" t="s">
         <v>154</v>
       </c>
@@ -1940,7 +1968,7 @@
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A46" s="23"/>
+      <c r="A46" s="24"/>
       <c r="B46" s="19"/>
       <c r="C46" s="20"/>
       <c r="D46" s="2" t="s">
@@ -1953,232 +1981,228 @@
         <v>159</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A47" s="24"/>
-      <c r="B47" s="26" t="s">
+    <row r="47" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A47" s="25"/>
+      <c r="B47" s="19" t="s">
+        <v>169</v>
+      </c>
+      <c r="C47" s="29" t="s">
+        <v>170</v>
+      </c>
+      <c r="D47" s="31" t="s">
+        <v>18</v>
+      </c>
+      <c r="E47" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F47" s="2" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A48" s="26"/>
+      <c r="B48" s="19"/>
+      <c r="C48" s="30"/>
+      <c r="D48" s="31" t="s">
+        <v>18</v>
+      </c>
+      <c r="E48" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F48" s="1" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A49" s="32"/>
+      <c r="B49" s="19" t="s">
+        <v>175</v>
+      </c>
+      <c r="C49" s="29" t="s">
+        <v>173</v>
+      </c>
+      <c r="D49" s="31" t="s">
+        <v>18</v>
+      </c>
+      <c r="E49" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F49" s="2" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A50" s="33"/>
+      <c r="B50" s="19"/>
+      <c r="C50" s="30"/>
+      <c r="D50" s="31" t="s">
+        <v>18</v>
+      </c>
+      <c r="E50" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F50" s="1" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A51" s="25"/>
+      <c r="B51" s="27" t="s">
         <v>165</v>
       </c>
-      <c r="C47" s="28" t="s">
+      <c r="C51" s="29" t="s">
         <v>166</v>
       </c>
-      <c r="D47" s="30" t="s">
-        <v>18</v>
-      </c>
-      <c r="E47" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="F47" s="2" t="s">
+      <c r="D51" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="E51" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F51" s="2" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A48" s="25"/>
-      <c r="B48" s="27"/>
-      <c r="C48" s="29"/>
-      <c r="D48" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E48" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="F48" s="2" t="s">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A52" s="26"/>
+      <c r="B52" s="28"/>
+      <c r="C52" s="30"/>
+      <c r="D52" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E52" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F52" s="2" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A49" s="17"/>
-      <c r="B49" s="16" t="s">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A53" s="17"/>
+      <c r="B53" s="16" t="s">
         <v>163</v>
       </c>
-      <c r="C49" s="15" t="s">
+      <c r="C53" s="15" t="s">
         <v>164</v>
       </c>
-      <c r="D49" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E49" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="F49" s="2" t="s">
+      <c r="D53" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E53" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F53" s="2" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A50" s="22"/>
-      <c r="B50" s="19" t="s">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A54" s="21"/>
+      <c r="B54" s="19" t="s">
         <v>151</v>
       </c>
-      <c r="C50" s="20" t="s">
+      <c r="C54" s="20" t="s">
         <v>152</v>
       </c>
-      <c r="D50" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E50" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="F50" s="2" t="s">
+      <c r="D54" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E54" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F54" s="2" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A51" s="22"/>
-      <c r="B51" s="19"/>
-      <c r="C51" s="20"/>
-      <c r="D51" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E51" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="F51" s="2" t="s">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A55" s="21"/>
+      <c r="B55" s="19"/>
+      <c r="C55" s="20"/>
+      <c r="D55" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E55" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F55" s="2" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A52" s="21" t="s">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A56" s="22" t="s">
         <v>32</v>
       </c>
-      <c r="B52" s="21"/>
-      <c r="C52" s="21"/>
-      <c r="D52" s="21"/>
-      <c r="E52" s="21"/>
-      <c r="F52" s="21"/>
-    </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A53" s="2"/>
-      <c r="B53" s="2"/>
-      <c r="C53" s="2"/>
-      <c r="D53" s="2"/>
-      <c r="E53" s="2"/>
-      <c r="F53" s="2"/>
-    </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A54" s="21" t="s">
-        <v>67</v>
-      </c>
-      <c r="B54" s="21"/>
-      <c r="C54" s="21"/>
-      <c r="D54" s="21"/>
-      <c r="E54" s="21"/>
-      <c r="F54" s="21"/>
-    </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A55" s="2"/>
-      <c r="B55" s="19" t="s">
-        <v>68</v>
-      </c>
-      <c r="C55" s="20" t="s">
-        <v>65</v>
-      </c>
-      <c r="D55" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E55" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="F55" s="2" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A56" s="2"/>
-      <c r="B56" s="19"/>
-      <c r="C56" s="20"/>
-      <c r="D56" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E56" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="F56" s="2" t="s">
-        <v>66</v>
-      </c>
+      <c r="B56" s="22"/>
+      <c r="C56" s="22"/>
+      <c r="D56" s="22"/>
+      <c r="E56" s="22"/>
+      <c r="F56" s="22"/>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A57" s="2"/>
-      <c r="B57" s="19" t="s">
-        <v>69</v>
-      </c>
-      <c r="C57" s="20" t="s">
-        <v>70</v>
-      </c>
-      <c r="D57" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E57" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="F57" s="2" t="s">
-        <v>71</v>
-      </c>
+      <c r="B57" s="2"/>
+      <c r="C57" s="2"/>
+      <c r="D57" s="2"/>
+      <c r="E57" s="2"/>
+      <c r="F57" s="2"/>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A58" s="2"/>
-      <c r="B58" s="19"/>
-      <c r="C58" s="20"/>
-      <c r="D58" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E58" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="F58" s="2" t="s">
-        <v>66</v>
-      </c>
+      <c r="A58" s="22" t="s">
+        <v>67</v>
+      </c>
+      <c r="B58" s="22"/>
+      <c r="C58" s="22"/>
+      <c r="D58" s="22"/>
+      <c r="E58" s="22"/>
+      <c r="F58" s="22"/>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A59" s="2"/>
-      <c r="B59" s="14" t="s">
-        <v>83</v>
-      </c>
-      <c r="C59" s="15" t="s">
-        <v>84</v>
+      <c r="B59" s="19" t="s">
+        <v>68</v>
+      </c>
+      <c r="C59" s="20" t="s">
+        <v>65</v>
       </c>
       <c r="D59" s="2" t="s">
         <v>18</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>81</v>
+        <v>18</v>
       </c>
       <c r="F59" s="2" t="s">
-        <v>85</v>
+        <v>71</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A60" s="2"/>
-      <c r="B60" s="14" t="s">
-        <v>79</v>
-      </c>
-      <c r="C60" s="15" t="s">
-        <v>80</v>
-      </c>
+      <c r="B60" s="19"/>
+      <c r="C60" s="20"/>
       <c r="D60" s="2" t="s">
         <v>18</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>81</v>
+        <v>4</v>
       </c>
       <c r="F60" s="2" t="s">
-        <v>82</v>
+        <v>66</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A61" s="2"/>
       <c r="B61" s="19" t="s">
-        <v>87</v>
+        <v>69</v>
       </c>
       <c r="C61" s="20" t="s">
-        <v>86</v>
+        <v>70</v>
       </c>
       <c r="D61" s="2" t="s">
         <v>18</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>81</v>
+        <v>18</v>
       </c>
       <c r="F61" s="2" t="s">
-        <v>85</v>
+        <v>71</v>
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.35">
@@ -2189,19 +2213,19 @@
         <v>18</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>88</v>
+        <v>4</v>
       </c>
       <c r="F62" s="2" t="s">
-        <v>89</v>
+        <v>66</v>
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A63" s="2"/>
-      <c r="B63" s="19" t="s">
-        <v>90</v>
-      </c>
-      <c r="C63" s="20" t="s">
-        <v>91</v>
+      <c r="B63" s="14" t="s">
+        <v>83</v>
+      </c>
+      <c r="C63" s="15" t="s">
+        <v>84</v>
       </c>
       <c r="D63" s="2" t="s">
         <v>18</v>
@@ -2215,254 +2239,346 @@
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A64" s="2"/>
-      <c r="B64" s="19"/>
-      <c r="C64" s="20"/>
+      <c r="B64" s="14" t="s">
+        <v>79</v>
+      </c>
+      <c r="C64" s="15" t="s">
+        <v>80</v>
+      </c>
       <c r="D64" s="2" t="s">
         <v>18</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="F64" s="2" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A65" s="2"/>
-      <c r="B65" s="14"/>
-      <c r="C65" s="15"/>
-      <c r="D65" s="2"/>
-      <c r="E65" s="2"/>
-      <c r="F65" s="2"/>
+      <c r="B65" s="19" t="s">
+        <v>87</v>
+      </c>
+      <c r="C65" s="20" t="s">
+        <v>86</v>
+      </c>
+      <c r="D65" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E65" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="F65" s="2" t="s">
+        <v>85</v>
+      </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A66" s="21" t="s">
-        <v>92</v>
-      </c>
-      <c r="B66" s="21"/>
-      <c r="C66" s="21"/>
-      <c r="D66" s="21"/>
-      <c r="E66" s="21"/>
-      <c r="F66" s="21"/>
+      <c r="A66" s="2"/>
+      <c r="B66" s="19"/>
+      <c r="C66" s="20"/>
+      <c r="D66" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E66" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="F66" s="2" t="s">
+        <v>89</v>
+      </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A67" s="2"/>
-      <c r="B67" s="5" t="s">
-        <v>94</v>
-      </c>
-      <c r="C67" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="D67" s="4" t="s">
-        <v>95</v>
-      </c>
-      <c r="E67" s="4" t="s">
-        <v>95</v>
-      </c>
-      <c r="F67" s="4"/>
+      <c r="B67" s="19" t="s">
+        <v>90</v>
+      </c>
+      <c r="C67" s="20" t="s">
+        <v>91</v>
+      </c>
+      <c r="D67" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E67" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="F67" s="2" t="s">
+        <v>85</v>
+      </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A68" s="2"/>
-      <c r="B68" s="5" t="s">
-        <v>97</v>
-      </c>
-      <c r="C68" s="3" t="s">
-        <v>96</v>
-      </c>
-      <c r="D68" s="4" t="s">
-        <v>95</v>
-      </c>
-      <c r="E68" s="4" t="s">
-        <v>95</v>
-      </c>
-      <c r="F68" s="12" t="s">
-        <v>98</v>
+      <c r="B68" s="19"/>
+      <c r="C68" s="20"/>
+      <c r="D68" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E68" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="F68" s="2" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A69" s="21" t="s">
-        <v>33</v>
-      </c>
-      <c r="B69" s="21"/>
-      <c r="C69" s="21"/>
-      <c r="D69" s="21"/>
-      <c r="E69" s="21"/>
-      <c r="F69" s="21"/>
+      <c r="A69" s="2"/>
+      <c r="B69" s="14"/>
+      <c r="C69" s="15"/>
+      <c r="D69" s="2"/>
+      <c r="E69" s="2"/>
+      <c r="F69" s="2"/>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A70" s="2"/>
-      <c r="B70" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="C70" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="D70" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="E70" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="F70" s="2" t="s">
-        <v>76</v>
-      </c>
+      <c r="A70" s="22" t="s">
+        <v>92</v>
+      </c>
+      <c r="B70" s="22"/>
+      <c r="C70" s="22"/>
+      <c r="D70" s="22"/>
+      <c r="E70" s="22"/>
+      <c r="F70" s="22"/>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A71" s="2"/>
-      <c r="B71" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="C71" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="D71" s="2" t="s">
+      <c r="B71" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="C71" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="D71" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="E71" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="F71" s="4"/>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A72" s="2"/>
+      <c r="B72" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="C72" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="D72" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="E72" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="F72" s="12" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A73" s="22" t="s">
+        <v>33</v>
+      </c>
+      <c r="B73" s="22"/>
+      <c r="C73" s="22"/>
+      <c r="D73" s="22"/>
+      <c r="E73" s="22"/>
+      <c r="F73" s="22"/>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A74" s="2"/>
+      <c r="B74" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="C74" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="D74" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="E71" s="2"/>
-      <c r="F71" s="2"/>
-    </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A72" s="21" t="s">
-        <v>34</v>
-      </c>
-      <c r="B72" s="21"/>
-      <c r="C72" s="21"/>
-      <c r="D72" s="21"/>
-      <c r="E72" s="21"/>
-      <c r="F72" s="21"/>
-    </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A73" s="2"/>
-      <c r="B73" s="2"/>
-      <c r="C73" s="2"/>
-      <c r="D73" s="2"/>
-      <c r="E73" s="2"/>
-      <c r="F73" s="2"/>
-    </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A74" s="21" t="s">
-        <v>35</v>
-      </c>
-      <c r="B74" s="21"/>
-      <c r="C74" s="21"/>
-      <c r="D74" s="21"/>
-      <c r="E74" s="21"/>
-      <c r="F74" s="21"/>
+      <c r="E74" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="F74" s="2" t="s">
+        <v>76</v>
+      </c>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A75" s="2"/>
-      <c r="B75" s="19" t="s">
-        <v>113</v>
-      </c>
-      <c r="C75" s="20" t="s">
-        <v>114</v>
+      <c r="B75" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="C75" s="1" t="s">
+        <v>78</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="E75" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="F75" s="2" t="s">
-        <v>115</v>
-      </c>
+        <v>74</v>
+      </c>
+      <c r="E75" s="2"/>
+      <c r="F75" s="2"/>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A76" s="2"/>
-      <c r="B76" s="19"/>
-      <c r="C76" s="19"/>
-      <c r="D76" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="E76" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="F76" s="2" t="s">
-        <v>116</v>
-      </c>
+      <c r="A76" s="22" t="s">
+        <v>34</v>
+      </c>
+      <c r="B76" s="22"/>
+      <c r="C76" s="22"/>
+      <c r="D76" s="22"/>
+      <c r="E76" s="22"/>
+      <c r="F76" s="22"/>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A77" s="2"/>
-      <c r="B77" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="C77" s="15" t="s">
-        <v>117</v>
-      </c>
-      <c r="D77" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E77" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="F77" s="2" t="s">
-        <v>115</v>
-      </c>
+      <c r="B77" s="2"/>
+      <c r="C77" s="2"/>
+      <c r="D77" s="2"/>
+      <c r="E77" s="2"/>
+      <c r="F77" s="2"/>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A78" s="2"/>
-      <c r="B78" s="19" t="s">
-        <v>120</v>
-      </c>
-      <c r="C78" s="20" t="s">
-        <v>121</v>
-      </c>
-      <c r="D78" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="E78" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="F78" s="2" t="s">
-        <v>122</v>
-      </c>
+      <c r="A78" s="22" t="s">
+        <v>35</v>
+      </c>
+      <c r="B78" s="22"/>
+      <c r="C78" s="22"/>
+      <c r="D78" s="22"/>
+      <c r="E78" s="22"/>
+      <c r="F78" s="22"/>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A79" s="2"/>
-      <c r="B79" s="19"/>
-      <c r="C79" s="20"/>
+      <c r="B79" s="19" t="s">
+        <v>113</v>
+      </c>
+      <c r="C79" s="20" t="s">
+        <v>114</v>
+      </c>
       <c r="D79" s="2" t="s">
-        <v>18</v>
+        <v>119</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="F79" s="13" t="s">
-        <v>123</v>
+        <v>119</v>
+      </c>
+      <c r="F79" s="2" t="s">
+        <v>115</v>
       </c>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A80" s="21" t="s">
-        <v>36</v>
-      </c>
-      <c r="B80" s="21"/>
-      <c r="C80" s="21"/>
-      <c r="D80" s="21"/>
-      <c r="E80" s="21"/>
-      <c r="F80" s="21"/>
+      <c r="A80" s="2"/>
+      <c r="B80" s="19"/>
+      <c r="C80" s="19"/>
+      <c r="D80" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="E80" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F80" s="2" t="s">
+        <v>116</v>
+      </c>
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A81" s="2"/>
-      <c r="B81" s="2"/>
-      <c r="C81" s="2"/>
-      <c r="D81" s="2"/>
-      <c r="E81" s="2"/>
-      <c r="F81" s="2"/>
+      <c r="B81" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="C81" s="15" t="s">
+        <v>117</v>
+      </c>
+      <c r="D81" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E81" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="F81" s="2" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A82" s="2"/>
+      <c r="B82" s="19" t="s">
+        <v>120</v>
+      </c>
+      <c r="C82" s="20" t="s">
+        <v>121</v>
+      </c>
+      <c r="D82" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="E82" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="F82" s="2" t="s">
+        <v>122</v>
+      </c>
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="F83" t="s">
+      <c r="A83" s="2"/>
+      <c r="B83" s="19"/>
+      <c r="C83" s="20"/>
+      <c r="D83" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E83" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="F83" s="13" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A84" s="22" t="s">
+        <v>36</v>
+      </c>
+      <c r="B84" s="22"/>
+      <c r="C84" s="22"/>
+      <c r="D84" s="22"/>
+      <c r="E84" s="22"/>
+      <c r="F84" s="22"/>
+    </row>
+    <row r="85" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A85" s="2"/>
+      <c r="B85" s="2"/>
+      <c r="C85" s="2"/>
+      <c r="D85" s="2"/>
+      <c r="E85" s="2"/>
+      <c r="F85" s="2"/>
+    </row>
+    <row r="87" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="F87" t="s">
         <v>157</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="41">
-    <mergeCell ref="B78:B79"/>
-    <mergeCell ref="C78:C79"/>
-    <mergeCell ref="C63:C64"/>
-    <mergeCell ref="B63:B64"/>
-    <mergeCell ref="A50:A51"/>
-    <mergeCell ref="B50:B51"/>
-    <mergeCell ref="C50:C51"/>
+  <mergeCells count="47">
+    <mergeCell ref="C39:C40"/>
+    <mergeCell ref="A32:F32"/>
+    <mergeCell ref="A73:F73"/>
+    <mergeCell ref="A45:A46"/>
+    <mergeCell ref="B45:B46"/>
+    <mergeCell ref="C45:C46"/>
+    <mergeCell ref="A51:A52"/>
+    <mergeCell ref="B51:B52"/>
+    <mergeCell ref="C51:C52"/>
+    <mergeCell ref="A47:A48"/>
+    <mergeCell ref="B47:B48"/>
+    <mergeCell ref="C47:C48"/>
+    <mergeCell ref="A49:A50"/>
+    <mergeCell ref="C49:C50"/>
+    <mergeCell ref="B49:B50"/>
+    <mergeCell ref="A84:F84"/>
+    <mergeCell ref="A34:F34"/>
+    <mergeCell ref="A36:F36"/>
+    <mergeCell ref="A56:F56"/>
+    <mergeCell ref="A58:F58"/>
+    <mergeCell ref="A70:F70"/>
+    <mergeCell ref="B59:B60"/>
+    <mergeCell ref="C59:C60"/>
+    <mergeCell ref="B61:B62"/>
+    <mergeCell ref="C61:C62"/>
+    <mergeCell ref="B65:B66"/>
+    <mergeCell ref="C65:C66"/>
+    <mergeCell ref="B79:B80"/>
+    <mergeCell ref="C79:C80"/>
+    <mergeCell ref="A39:A40"/>
+    <mergeCell ref="B39:B40"/>
     <mergeCell ref="B26:B27"/>
     <mergeCell ref="C26:C27"/>
     <mergeCell ref="A2:F2"/>
@@ -2470,33 +2586,15 @@
     <mergeCell ref="A14:F14"/>
     <mergeCell ref="A21:F21"/>
     <mergeCell ref="A24:F24"/>
-    <mergeCell ref="A72:F72"/>
-    <mergeCell ref="A74:F74"/>
-    <mergeCell ref="A80:F80"/>
-    <mergeCell ref="A34:F34"/>
-    <mergeCell ref="A36:F36"/>
-    <mergeCell ref="A52:F52"/>
-    <mergeCell ref="A54:F54"/>
-    <mergeCell ref="A66:F66"/>
-    <mergeCell ref="B55:B56"/>
-    <mergeCell ref="C55:C56"/>
-    <mergeCell ref="B57:B58"/>
-    <mergeCell ref="C57:C58"/>
-    <mergeCell ref="B61:B62"/>
-    <mergeCell ref="C61:C62"/>
-    <mergeCell ref="B75:B76"/>
-    <mergeCell ref="C75:C76"/>
-    <mergeCell ref="A39:A40"/>
-    <mergeCell ref="B39:B40"/>
-    <mergeCell ref="C39:C40"/>
-    <mergeCell ref="A32:F32"/>
-    <mergeCell ref="A69:F69"/>
-    <mergeCell ref="A45:A46"/>
-    <mergeCell ref="B45:B46"/>
-    <mergeCell ref="C45:C46"/>
-    <mergeCell ref="A47:A48"/>
-    <mergeCell ref="B47:B48"/>
-    <mergeCell ref="C47:C48"/>
+    <mergeCell ref="B82:B83"/>
+    <mergeCell ref="C82:C83"/>
+    <mergeCell ref="C67:C68"/>
+    <mergeCell ref="B67:B68"/>
+    <mergeCell ref="A54:A55"/>
+    <mergeCell ref="B54:B55"/>
+    <mergeCell ref="C54:C55"/>
+    <mergeCell ref="A76:F76"/>
+    <mergeCell ref="A78:F78"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="C3" r:id="rId1" xr:uid="{3FB3FA06-DE47-4C2D-AFD7-F5FC45E3D126}"/>
@@ -2506,20 +2604,22 @@
     <hyperlink ref="C22" r:id="rId5" xr:uid="{6352E065-8925-49FF-AA82-66ED2F9F8651}"/>
     <hyperlink ref="C16" r:id="rId6" xr:uid="{047C68C0-B7AB-4E77-9D1E-B162BD11A209}"/>
     <hyperlink ref="C17" r:id="rId7" xr:uid="{1ABD0EDA-F48F-4D2F-B13C-180B398F1FCD}"/>
-    <hyperlink ref="C55" r:id="rId8" xr:uid="{35D2A43C-BF1B-4339-9217-7116005F7034}"/>
-    <hyperlink ref="C57" r:id="rId9" xr:uid="{233456E2-1B15-4448-A669-82C381357683}"/>
-    <hyperlink ref="C70" r:id="rId10" xr:uid="{4A724644-7F2B-4DE6-9141-A1802140FB4A}"/>
-    <hyperlink ref="C67" r:id="rId11" xr:uid="{914A5C5A-20B3-4526-A460-020F9852AFDB}"/>
-    <hyperlink ref="C68" r:id="rId12" xr:uid="{0B2D15B8-18BF-46A5-991E-6E53ADC95851}"/>
+    <hyperlink ref="C59" r:id="rId8" xr:uid="{35D2A43C-BF1B-4339-9217-7116005F7034}"/>
+    <hyperlink ref="C61" r:id="rId9" xr:uid="{233456E2-1B15-4448-A669-82C381357683}"/>
+    <hyperlink ref="C74" r:id="rId10" xr:uid="{4A724644-7F2B-4DE6-9141-A1802140FB4A}"/>
+    <hyperlink ref="C71" r:id="rId11" xr:uid="{914A5C5A-20B3-4526-A460-020F9852AFDB}"/>
+    <hyperlink ref="C72" r:id="rId12" xr:uid="{0B2D15B8-18BF-46A5-991E-6E53ADC95851}"/>
     <hyperlink ref="C25" r:id="rId13" xr:uid="{93A177B9-936F-4ED5-9F32-EB31F0D8F614}"/>
-    <hyperlink ref="C75" r:id="rId14" xr:uid="{9CD2E86C-B1BA-4CC3-9E52-ECA767380715}"/>
-    <hyperlink ref="C77" r:id="rId15" xr:uid="{30EBB8AD-10BE-47B9-BF85-DBCCCE948784}"/>
-    <hyperlink ref="F79" r:id="rId16" xr:uid="{080A2B1B-6640-47F1-9DAB-1F0914BD9938}"/>
+    <hyperlink ref="C79" r:id="rId14" xr:uid="{9CD2E86C-B1BA-4CC3-9E52-ECA767380715}"/>
+    <hyperlink ref="C81" r:id="rId15" xr:uid="{30EBB8AD-10BE-47B9-BF85-DBCCCE948784}"/>
+    <hyperlink ref="F83" r:id="rId16" xr:uid="{080A2B1B-6640-47F1-9DAB-1F0914BD9938}"/>
     <hyperlink ref="C37" r:id="rId17" xr:uid="{DD8AB0F8-5B5E-4F6E-A0B4-339B324BDAC3}"/>
     <hyperlink ref="C31" r:id="rId18" xr:uid="{43B67C49-DC70-412F-B095-E684E07FF196}"/>
+    <hyperlink ref="C47" r:id="rId19" xr:uid="{7FDCAB78-56F5-40D3-8A09-8A8A0E54E05D}"/>
+    <hyperlink ref="F48" r:id="rId20" xr:uid="{F7F3C873-8E94-4212-B22A-52BF75A478D8}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="90" verticalDpi="90" r:id="rId19"/>
+  <pageSetup orientation="portrait" horizontalDpi="90" verticalDpi="90" r:id="rId21"/>
   <headerFooter>
     <oddFooter>&amp;L12/30/2021&amp;CAXP Internal&amp;R1</oddFooter>
   </headerFooter>

--- a/SDE Sheet.xlsx
+++ b/SDE Sheet.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Src Code\Personal\SDE-Sheet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E2C329E-6073-4BDB-9AFF-3A82562FE445}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6FA9B109-7E38-439A-9577-F96DE9D4CDA8}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{83934561-A72F-4836-B1E7-4EE8C35F9874}"/>
+    <workbookView xWindow="10660" yWindow="1050" windowWidth="14400" windowHeight="7510" xr2:uid="{83934561-A72F-4836-B1E7-4EE8C35F9874}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="289" uniqueCount="176">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="294" uniqueCount="180">
   <si>
     <t>Matrix</t>
   </si>
@@ -681,6 +681,18 @@
   </si>
   <si>
     <t>Find the starting point of loop of linked list</t>
+  </si>
+  <si>
+    <t>Flattening of a Linked List</t>
+  </si>
+  <si>
+    <t>https://practice.geeksforgeeks.org/problems/flattening-a-linked-list/1</t>
+  </si>
+  <si>
+    <t>O(m*n*n)</t>
+  </si>
+  <si>
+    <t>Advanced version of merging 2 sorted linked list</t>
   </si>
 </sst>
 </file>
@@ -875,7 +887,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -911,6 +923,16 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -947,7 +969,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1269,11 +1290,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D3EBAEE5-B4E7-4BD5-B694-FD6EEA5E8AC0}">
-  <dimension ref="A1:F87"/>
+  <dimension ref="A1:F88"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="79" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A36" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B53" sqref="B53"/>
+      <selection pane="bottomLeft" activeCell="F55" sqref="F55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1306,14 +1327,14 @@
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A2" s="22" t="s">
+      <c r="A2" s="26" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="22"/>
-      <c r="C2" s="22"/>
-      <c r="D2" s="22"/>
-      <c r="E2" s="22"/>
-      <c r="F2" s="22"/>
+      <c r="B2" s="26"/>
+      <c r="C2" s="26"/>
+      <c r="D2" s="26"/>
+      <c r="E2" s="26"/>
+      <c r="F2" s="26"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A3" s="2"/>
@@ -1378,14 +1399,14 @@
       <c r="F6" s="2"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A7" s="22" t="s">
+      <c r="A7" s="26" t="s">
         <v>15</v>
       </c>
-      <c r="B7" s="22"/>
-      <c r="C7" s="22"/>
-      <c r="D7" s="22"/>
-      <c r="E7" s="22"/>
-      <c r="F7" s="22"/>
+      <c r="B7" s="26"/>
+      <c r="C7" s="26"/>
+      <c r="D7" s="26"/>
+      <c r="E7" s="26"/>
+      <c r="F7" s="26"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A8" s="2"/>
@@ -1496,14 +1517,14 @@
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A14" s="22" t="s">
+      <c r="A14" s="26" t="s">
         <v>22</v>
       </c>
-      <c r="B14" s="22"/>
-      <c r="C14" s="22"/>
-      <c r="D14" s="22"/>
-      <c r="E14" s="22"/>
-      <c r="F14" s="22"/>
+      <c r="B14" s="26"/>
+      <c r="C14" s="26"/>
+      <c r="D14" s="26"/>
+      <c r="E14" s="26"/>
+      <c r="F14" s="26"/>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A15" s="2"/>
@@ -1612,14 +1633,14 @@
       <c r="F20" s="2"/>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A21" s="22" t="s">
+      <c r="A21" s="26" t="s">
         <v>23</v>
       </c>
-      <c r="B21" s="22"/>
-      <c r="C21" s="22"/>
-      <c r="D21" s="22"/>
-      <c r="E21" s="22"/>
-      <c r="F21" s="22"/>
+      <c r="B21" s="26"/>
+      <c r="C21" s="26"/>
+      <c r="D21" s="26"/>
+      <c r="E21" s="26"/>
+      <c r="F21" s="26"/>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A22" s="2"/>
@@ -1648,14 +1669,14 @@
       <c r="F23" s="2"/>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A24" s="22" t="s">
+      <c r="A24" s="26" t="s">
         <v>99</v>
       </c>
-      <c r="B24" s="22"/>
-      <c r="C24" s="22"/>
-      <c r="D24" s="22"/>
-      <c r="E24" s="22"/>
-      <c r="F24" s="22"/>
+      <c r="B24" s="26"/>
+      <c r="C24" s="26"/>
+      <c r="D24" s="26"/>
+      <c r="E24" s="26"/>
+      <c r="F24" s="26"/>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A25" s="2"/>
@@ -1677,10 +1698,10 @@
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A26" s="2"/>
-      <c r="B26" s="19" t="s">
+      <c r="B26" s="23" t="s">
         <v>108</v>
       </c>
-      <c r="C26" s="20" t="s">
+      <c r="C26" s="24" t="s">
         <v>109</v>
       </c>
       <c r="D26" s="2" t="s">
@@ -1695,8 +1716,8 @@
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A27" s="2"/>
-      <c r="B27" s="19"/>
-      <c r="C27" s="20"/>
+      <c r="B27" s="23"/>
+      <c r="C27" s="24"/>
       <c r="D27" s="2" t="s">
         <v>101</v>
       </c>
@@ -1764,14 +1785,14 @@
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A32" s="22" t="s">
+      <c r="A32" s="26" t="s">
         <v>29</v>
       </c>
-      <c r="B32" s="22"/>
-      <c r="C32" s="22"/>
-      <c r="D32" s="22"/>
-      <c r="E32" s="22"/>
-      <c r="F32" s="22"/>
+      <c r="B32" s="26"/>
+      <c r="C32" s="26"/>
+      <c r="D32" s="26"/>
+      <c r="E32" s="26"/>
+      <c r="F32" s="26"/>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A33" s="2"/>
@@ -1782,14 +1803,14 @@
       <c r="F33" s="2"/>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A34" s="22" t="s">
+      <c r="A34" s="26" t="s">
         <v>30</v>
       </c>
-      <c r="B34" s="22"/>
-      <c r="C34" s="22"/>
-      <c r="D34" s="22"/>
-      <c r="E34" s="22"/>
-      <c r="F34" s="22"/>
+      <c r="B34" s="26"/>
+      <c r="C34" s="26"/>
+      <c r="D34" s="26"/>
+      <c r="E34" s="26"/>
+      <c r="F34" s="26"/>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A35" s="2"/>
@@ -1800,14 +1821,14 @@
       <c r="F35" s="2"/>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A36" s="22" t="s">
+      <c r="A36" s="26" t="s">
         <v>31</v>
       </c>
-      <c r="B36" s="22"/>
-      <c r="C36" s="22"/>
-      <c r="D36" s="22"/>
-      <c r="E36" s="22"/>
-      <c r="F36" s="22"/>
+      <c r="B36" s="26"/>
+      <c r="C36" s="26"/>
+      <c r="D36" s="26"/>
+      <c r="E36" s="26"/>
+      <c r="F36" s="26"/>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A37" s="11"/>
@@ -1846,11 +1867,11 @@
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A39" s="23"/>
-      <c r="B39" s="19" t="s">
+      <c r="A39" s="27"/>
+      <c r="B39" s="23" t="s">
         <v>160</v>
       </c>
-      <c r="C39" s="20" t="s">
+      <c r="C39" s="24" t="s">
         <v>161</v>
       </c>
       <c r="D39" s="2" t="s">
@@ -1864,9 +1885,9 @@
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A40" s="23"/>
-      <c r="B40" s="19"/>
-      <c r="C40" s="20"/>
+      <c r="A40" s="27"/>
+      <c r="B40" s="23"/>
+      <c r="C40" s="24"/>
       <c r="D40" s="2" t="s">
         <v>18</v>
       </c>
@@ -1950,11 +1971,11 @@
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A45" s="24"/>
-      <c r="B45" s="19" t="s">
+      <c r="A45" s="28"/>
+      <c r="B45" s="23" t="s">
         <v>154</v>
       </c>
-      <c r="C45" s="20" t="s">
+      <c r="C45" s="24" t="s">
         <v>155</v>
       </c>
       <c r="D45" s="2" t="s">
@@ -1968,9 +1989,9 @@
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A46" s="24"/>
-      <c r="B46" s="19"/>
-      <c r="C46" s="20"/>
+      <c r="A46" s="28"/>
+      <c r="B46" s="23"/>
+      <c r="C46" s="24"/>
       <c r="D46" s="2" t="s">
         <v>142</v>
       </c>
@@ -1982,14 +2003,14 @@
       </c>
     </row>
     <row r="47" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A47" s="25"/>
-      <c r="B47" s="19" t="s">
+      <c r="A47" s="29"/>
+      <c r="B47" s="23" t="s">
         <v>169</v>
       </c>
-      <c r="C47" s="29" t="s">
+      <c r="C47" s="33" t="s">
         <v>170</v>
       </c>
-      <c r="D47" s="31" t="s">
+      <c r="D47" s="21" t="s">
         <v>18</v>
       </c>
       <c r="E47" s="2" t="s">
@@ -2000,10 +2021,10 @@
       </c>
     </row>
     <row r="48" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A48" s="26"/>
-      <c r="B48" s="19"/>
-      <c r="C48" s="30"/>
-      <c r="D48" s="31" t="s">
+      <c r="A48" s="30"/>
+      <c r="B48" s="23"/>
+      <c r="C48" s="34"/>
+      <c r="D48" s="21" t="s">
         <v>18</v>
       </c>
       <c r="E48" s="2" t="s">
@@ -2014,14 +2035,14 @@
       </c>
     </row>
     <row r="49" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A49" s="32"/>
-      <c r="B49" s="19" t="s">
+      <c r="A49" s="35"/>
+      <c r="B49" s="23" t="s">
         <v>175</v>
       </c>
-      <c r="C49" s="29" t="s">
+      <c r="C49" s="33" t="s">
         <v>173</v>
       </c>
-      <c r="D49" s="31" t="s">
+      <c r="D49" s="21" t="s">
         <v>18</v>
       </c>
       <c r="E49" s="2" t="s">
@@ -2032,10 +2053,10 @@
       </c>
     </row>
     <row r="50" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A50" s="33"/>
-      <c r="B50" s="19"/>
-      <c r="C50" s="30"/>
-      <c r="D50" s="31" t="s">
+      <c r="A50" s="36"/>
+      <c r="B50" s="23"/>
+      <c r="C50" s="34"/>
+      <c r="D50" s="21" t="s">
         <v>18</v>
       </c>
       <c r="E50" s="2" t="s">
@@ -2046,11 +2067,11 @@
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A51" s="25"/>
-      <c r="B51" s="27" t="s">
+      <c r="A51" s="29"/>
+      <c r="B51" s="31" t="s">
         <v>165</v>
       </c>
-      <c r="C51" s="29" t="s">
+      <c r="C51" s="33" t="s">
         <v>166</v>
       </c>
       <c r="D51" s="18" t="s">
@@ -2064,9 +2085,9 @@
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A52" s="26"/>
-      <c r="B52" s="28"/>
-      <c r="C52" s="30"/>
+      <c r="A52" s="30"/>
+      <c r="B52" s="32"/>
+      <c r="C52" s="34"/>
       <c r="D52" s="2" t="s">
         <v>18</v>
       </c>
@@ -2078,172 +2099,172 @@
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A53" s="17"/>
-      <c r="B53" s="16" t="s">
+      <c r="A53" s="22"/>
+      <c r="B53" s="19" t="s">
+        <v>176</v>
+      </c>
+      <c r="C53" s="20" t="s">
+        <v>177</v>
+      </c>
+      <c r="D53" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="E53" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F53" s="2" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A54" s="17"/>
+      <c r="B54" s="16" t="s">
         <v>163</v>
       </c>
-      <c r="C53" s="15" t="s">
+      <c r="C54" s="15" t="s">
         <v>164</v>
       </c>
-      <c r="D53" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E53" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="F53" s="2" t="s">
+      <c r="D54" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E54" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F54" s="2" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A54" s="21"/>
-      <c r="B54" s="19" t="s">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A55" s="25"/>
+      <c r="B55" s="23" t="s">
         <v>151</v>
       </c>
-      <c r="C54" s="20" t="s">
+      <c r="C55" s="24" t="s">
         <v>152</v>
       </c>
-      <c r="D54" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E54" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="F54" s="2" t="s">
+      <c r="D55" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E55" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F55" s="2" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A55" s="21"/>
-      <c r="B55" s="19"/>
-      <c r="C55" s="20"/>
-      <c r="D55" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E55" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="F55" s="2" t="s">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A56" s="25"/>
+      <c r="B56" s="23"/>
+      <c r="C56" s="24"/>
+      <c r="D56" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E56" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F56" s="2" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A56" s="22" t="s">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A57" s="26" t="s">
         <v>32</v>
       </c>
-      <c r="B56" s="22"/>
-      <c r="C56" s="22"/>
-      <c r="D56" s="22"/>
-      <c r="E56" s="22"/>
-      <c r="F56" s="22"/>
-    </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A57" s="2"/>
-      <c r="B57" s="2"/>
-      <c r="C57" s="2"/>
-      <c r="D57" s="2"/>
-      <c r="E57" s="2"/>
-      <c r="F57" s="2"/>
+      <c r="B57" s="26"/>
+      <c r="C57" s="26"/>
+      <c r="D57" s="26"/>
+      <c r="E57" s="26"/>
+      <c r="F57" s="26"/>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A58" s="22" t="s">
+      <c r="A58" s="2"/>
+      <c r="B58" s="2"/>
+      <c r="C58" s="2"/>
+      <c r="D58" s="2"/>
+      <c r="E58" s="2"/>
+      <c r="F58" s="2"/>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A59" s="26" t="s">
         <v>67</v>
       </c>
-      <c r="B58" s="22"/>
-      <c r="C58" s="22"/>
-      <c r="D58" s="22"/>
-      <c r="E58" s="22"/>
-      <c r="F58" s="22"/>
-    </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A59" s="2"/>
-      <c r="B59" s="19" t="s">
-        <v>68</v>
-      </c>
-      <c r="C59" s="20" t="s">
-        <v>65</v>
-      </c>
-      <c r="D59" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E59" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="F59" s="2" t="s">
-        <v>71</v>
-      </c>
+      <c r="B59" s="26"/>
+      <c r="C59" s="26"/>
+      <c r="D59" s="26"/>
+      <c r="E59" s="26"/>
+      <c r="F59" s="26"/>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A60" s="2"/>
-      <c r="B60" s="19"/>
-      <c r="C60" s="20"/>
+      <c r="B60" s="23" t="s">
+        <v>68</v>
+      </c>
+      <c r="C60" s="24" t="s">
+        <v>65</v>
+      </c>
       <c r="D60" s="2" t="s">
         <v>18</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>4</v>
+        <v>18</v>
       </c>
       <c r="F60" s="2" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A61" s="2"/>
-      <c r="B61" s="19" t="s">
-        <v>69</v>
-      </c>
-      <c r="C61" s="20" t="s">
-        <v>70</v>
-      </c>
+      <c r="B61" s="23"/>
+      <c r="C61" s="24"/>
       <c r="D61" s="2" t="s">
         <v>18</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="F61" s="2" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A62" s="2"/>
-      <c r="B62" s="19"/>
-      <c r="C62" s="20"/>
+      <c r="B62" s="23" t="s">
+        <v>69</v>
+      </c>
+      <c r="C62" s="24" t="s">
+        <v>70</v>
+      </c>
       <c r="D62" s="2" t="s">
         <v>18</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>4</v>
+        <v>18</v>
       </c>
       <c r="F62" s="2" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A63" s="2"/>
-      <c r="B63" s="14" t="s">
-        <v>83</v>
-      </c>
-      <c r="C63" s="15" t="s">
-        <v>84</v>
-      </c>
+      <c r="B63" s="23"/>
+      <c r="C63" s="24"/>
       <c r="D63" s="2" t="s">
         <v>18</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>81</v>
+        <v>4</v>
       </c>
       <c r="F63" s="2" t="s">
-        <v>85</v>
+        <v>66</v>
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A64" s="2"/>
       <c r="B64" s="14" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="C64" s="15" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="D64" s="2" t="s">
         <v>18</v>
@@ -2252,16 +2273,16 @@
         <v>81</v>
       </c>
       <c r="F64" s="2" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A65" s="2"/>
-      <c r="B65" s="19" t="s">
-        <v>87</v>
-      </c>
-      <c r="C65" s="20" t="s">
-        <v>86</v>
+      <c r="B65" s="14" t="s">
+        <v>79</v>
+      </c>
+      <c r="C65" s="15" t="s">
+        <v>80</v>
       </c>
       <c r="D65" s="2" t="s">
         <v>18</v>
@@ -2270,96 +2291,98 @@
         <v>81</v>
       </c>
       <c r="F65" s="2" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A66" s="2"/>
-      <c r="B66" s="19"/>
-      <c r="C66" s="20"/>
+      <c r="B66" s="23" t="s">
+        <v>87</v>
+      </c>
+      <c r="C66" s="24" t="s">
+        <v>86</v>
+      </c>
       <c r="D66" s="2" t="s">
         <v>18</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="F66" s="2" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A67" s="2"/>
-      <c r="B67" s="19" t="s">
-        <v>90</v>
-      </c>
-      <c r="C67" s="20" t="s">
-        <v>91</v>
-      </c>
+      <c r="B67" s="23"/>
+      <c r="C67" s="24"/>
       <c r="D67" s="2" t="s">
         <v>18</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="F67" s="2" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A68" s="2"/>
-      <c r="B68" s="19"/>
-      <c r="C68" s="20"/>
+      <c r="B68" s="23" t="s">
+        <v>90</v>
+      </c>
+      <c r="C68" s="24" t="s">
+        <v>91</v>
+      </c>
       <c r="D68" s="2" t="s">
         <v>18</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="F68" s="2" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A69" s="2"/>
-      <c r="B69" s="14"/>
-      <c r="C69" s="15"/>
-      <c r="D69" s="2"/>
-      <c r="E69" s="2"/>
-      <c r="F69" s="2"/>
+      <c r="B69" s="23"/>
+      <c r="C69" s="24"/>
+      <c r="D69" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E69" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="F69" s="2" t="s">
+        <v>89</v>
+      </c>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A70" s="22" t="s">
+      <c r="A70" s="2"/>
+      <c r="B70" s="14"/>
+      <c r="C70" s="15"/>
+      <c r="D70" s="2"/>
+      <c r="E70" s="2"/>
+      <c r="F70" s="2"/>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A71" s="26" t="s">
         <v>92</v>
       </c>
-      <c r="B70" s="22"/>
-      <c r="C70" s="22"/>
-      <c r="D70" s="22"/>
-      <c r="E70" s="22"/>
-      <c r="F70" s="22"/>
-    </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A71" s="2"/>
-      <c r="B71" s="5" t="s">
-        <v>94</v>
-      </c>
-      <c r="C71" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="D71" s="4" t="s">
-        <v>95</v>
-      </c>
-      <c r="E71" s="4" t="s">
-        <v>95</v>
-      </c>
-      <c r="F71" s="4"/>
+      <c r="B71" s="26"/>
+      <c r="C71" s="26"/>
+      <c r="D71" s="26"/>
+      <c r="E71" s="26"/>
+      <c r="F71" s="26"/>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A72" s="2"/>
       <c r="B72" s="5" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="C72" s="3" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="D72" s="4" t="s">
         <v>95</v>
@@ -2367,182 +2390,198 @@
       <c r="E72" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="F72" s="12" t="s">
+      <c r="F72" s="4"/>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A73" s="2"/>
+      <c r="B73" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="C73" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="D73" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="E73" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="F73" s="12" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A73" s="22" t="s">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A74" s="26" t="s">
         <v>33</v>
       </c>
-      <c r="B73" s="22"/>
-      <c r="C73" s="22"/>
-      <c r="D73" s="22"/>
-      <c r="E73" s="22"/>
-      <c r="F73" s="22"/>
-    </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A74" s="2"/>
-      <c r="B74" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="C74" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="D74" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="E74" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="F74" s="2" t="s">
-        <v>76</v>
-      </c>
+      <c r="B74" s="26"/>
+      <c r="C74" s="26"/>
+      <c r="D74" s="26"/>
+      <c r="E74" s="26"/>
+      <c r="F74" s="26"/>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A75" s="2"/>
       <c r="B75" s="2" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="D75" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="E75" s="2"/>
-      <c r="F75" s="2"/>
+      <c r="E75" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="F75" s="2" t="s">
+        <v>76</v>
+      </c>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A76" s="22" t="s">
+      <c r="A76" s="2"/>
+      <c r="B76" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="C76" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="D76" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="E76" s="2"/>
+      <c r="F76" s="2"/>
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A77" s="26" t="s">
         <v>34</v>
       </c>
-      <c r="B76" s="22"/>
-      <c r="C76" s="22"/>
-      <c r="D76" s="22"/>
-      <c r="E76" s="22"/>
-      <c r="F76" s="22"/>
-    </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A77" s="2"/>
-      <c r="B77" s="2"/>
-      <c r="C77" s="2"/>
-      <c r="D77" s="2"/>
-      <c r="E77" s="2"/>
-      <c r="F77" s="2"/>
+      <c r="B77" s="26"/>
+      <c r="C77" s="26"/>
+      <c r="D77" s="26"/>
+      <c r="E77" s="26"/>
+      <c r="F77" s="26"/>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A78" s="22" t="s">
+      <c r="A78" s="2"/>
+      <c r="B78" s="2"/>
+      <c r="C78" s="2"/>
+      <c r="D78" s="2"/>
+      <c r="E78" s="2"/>
+      <c r="F78" s="2"/>
+    </row>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A79" s="26" t="s">
         <v>35</v>
       </c>
-      <c r="B78" s="22"/>
-      <c r="C78" s="22"/>
-      <c r="D78" s="22"/>
-      <c r="E78" s="22"/>
-      <c r="F78" s="22"/>
-    </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A79" s="2"/>
-      <c r="B79" s="19" t="s">
-        <v>113</v>
-      </c>
-      <c r="C79" s="20" t="s">
-        <v>114</v>
-      </c>
-      <c r="D79" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="E79" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="F79" s="2" t="s">
-        <v>115</v>
-      </c>
+      <c r="B79" s="26"/>
+      <c r="C79" s="26"/>
+      <c r="D79" s="26"/>
+      <c r="E79" s="26"/>
+      <c r="F79" s="26"/>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A80" s="2"/>
-      <c r="B80" s="19"/>
-      <c r="C80" s="19"/>
+      <c r="B80" s="23" t="s">
+        <v>113</v>
+      </c>
+      <c r="C80" s="24" t="s">
+        <v>114</v>
+      </c>
       <c r="D80" s="2" t="s">
         <v>119</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>4</v>
+        <v>119</v>
       </c>
       <c r="F80" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A81" s="2"/>
-      <c r="B81" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="C81" s="15" t="s">
-        <v>117</v>
-      </c>
+      <c r="B81" s="23"/>
+      <c r="C81" s="23"/>
       <c r="D81" s="2" t="s">
-        <v>18</v>
+        <v>119</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>43</v>
+        <v>4</v>
       </c>
       <c r="F81" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A82" s="2"/>
-      <c r="B82" s="19" t="s">
-        <v>120</v>
-      </c>
-      <c r="C82" s="20" t="s">
-        <v>121</v>
+      <c r="B82" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="C82" s="15" t="s">
+        <v>117</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>54</v>
+        <v>18</v>
       </c>
       <c r="E82" s="2" t="s">
         <v>43</v>
       </c>
       <c r="F82" s="2" t="s">
-        <v>122</v>
+        <v>115</v>
       </c>
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A83" s="2"/>
-      <c r="B83" s="19"/>
-      <c r="C83" s="20"/>
+      <c r="B83" s="23" t="s">
+        <v>120</v>
+      </c>
+      <c r="C83" s="24" t="s">
+        <v>121</v>
+      </c>
       <c r="D83" s="2" t="s">
-        <v>18</v>
+        <v>54</v>
       </c>
       <c r="E83" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="F83" s="13" t="s">
+      <c r="F83" s="2" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A84" s="2"/>
+      <c r="B84" s="23"/>
+      <c r="C84" s="24"/>
+      <c r="D84" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E84" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="F84" s="13" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A84" s="22" t="s">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A85" s="26" t="s">
         <v>36</v>
       </c>
-      <c r="B84" s="22"/>
-      <c r="C84" s="22"/>
-      <c r="D84" s="22"/>
-      <c r="E84" s="22"/>
-      <c r="F84" s="22"/>
-    </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A85" s="2"/>
-      <c r="B85" s="2"/>
-      <c r="C85" s="2"/>
-      <c r="D85" s="2"/>
-      <c r="E85" s="2"/>
-      <c r="F85" s="2"/>
-    </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="F87" t="s">
+      <c r="B85" s="26"/>
+      <c r="C85" s="26"/>
+      <c r="D85" s="26"/>
+      <c r="E85" s="26"/>
+      <c r="F85" s="26"/>
+    </row>
+    <row r="86" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A86" s="2"/>
+      <c r="B86" s="2"/>
+      <c r="C86" s="2"/>
+      <c r="D86" s="2"/>
+      <c r="E86" s="2"/>
+      <c r="F86" s="2"/>
+    </row>
+    <row r="88" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="F88" t="s">
         <v>157</v>
       </c>
     </row>
@@ -2550,7 +2589,7 @@
   <mergeCells count="47">
     <mergeCell ref="C39:C40"/>
     <mergeCell ref="A32:F32"/>
-    <mergeCell ref="A73:F73"/>
+    <mergeCell ref="A74:F74"/>
     <mergeCell ref="A45:A46"/>
     <mergeCell ref="B45:B46"/>
     <mergeCell ref="C45:C46"/>
@@ -2563,20 +2602,20 @@
     <mergeCell ref="A49:A50"/>
     <mergeCell ref="C49:C50"/>
     <mergeCell ref="B49:B50"/>
-    <mergeCell ref="A84:F84"/>
+    <mergeCell ref="A85:F85"/>
     <mergeCell ref="A34:F34"/>
     <mergeCell ref="A36:F36"/>
-    <mergeCell ref="A56:F56"/>
-    <mergeCell ref="A58:F58"/>
-    <mergeCell ref="A70:F70"/>
-    <mergeCell ref="B59:B60"/>
-    <mergeCell ref="C59:C60"/>
-    <mergeCell ref="B61:B62"/>
-    <mergeCell ref="C61:C62"/>
-    <mergeCell ref="B65:B66"/>
-    <mergeCell ref="C65:C66"/>
-    <mergeCell ref="B79:B80"/>
-    <mergeCell ref="C79:C80"/>
+    <mergeCell ref="A57:F57"/>
+    <mergeCell ref="A59:F59"/>
+    <mergeCell ref="A71:F71"/>
+    <mergeCell ref="B60:B61"/>
+    <mergeCell ref="C60:C61"/>
+    <mergeCell ref="B62:B63"/>
+    <mergeCell ref="C62:C63"/>
+    <mergeCell ref="B66:B67"/>
+    <mergeCell ref="C66:C67"/>
+    <mergeCell ref="B80:B81"/>
+    <mergeCell ref="C80:C81"/>
     <mergeCell ref="A39:A40"/>
     <mergeCell ref="B39:B40"/>
     <mergeCell ref="B26:B27"/>
@@ -2586,15 +2625,15 @@
     <mergeCell ref="A14:F14"/>
     <mergeCell ref="A21:F21"/>
     <mergeCell ref="A24:F24"/>
-    <mergeCell ref="B82:B83"/>
-    <mergeCell ref="C82:C83"/>
-    <mergeCell ref="C67:C68"/>
-    <mergeCell ref="B67:B68"/>
-    <mergeCell ref="A54:A55"/>
-    <mergeCell ref="B54:B55"/>
-    <mergeCell ref="C54:C55"/>
-    <mergeCell ref="A76:F76"/>
-    <mergeCell ref="A78:F78"/>
+    <mergeCell ref="B83:B84"/>
+    <mergeCell ref="C83:C84"/>
+    <mergeCell ref="C68:C69"/>
+    <mergeCell ref="B68:B69"/>
+    <mergeCell ref="A55:A56"/>
+    <mergeCell ref="B55:B56"/>
+    <mergeCell ref="C55:C56"/>
+    <mergeCell ref="A77:F77"/>
+    <mergeCell ref="A79:F79"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="C3" r:id="rId1" xr:uid="{3FB3FA06-DE47-4C2D-AFD7-F5FC45E3D126}"/>
@@ -2604,15 +2643,15 @@
     <hyperlink ref="C22" r:id="rId5" xr:uid="{6352E065-8925-49FF-AA82-66ED2F9F8651}"/>
     <hyperlink ref="C16" r:id="rId6" xr:uid="{047C68C0-B7AB-4E77-9D1E-B162BD11A209}"/>
     <hyperlink ref="C17" r:id="rId7" xr:uid="{1ABD0EDA-F48F-4D2F-B13C-180B398F1FCD}"/>
-    <hyperlink ref="C59" r:id="rId8" xr:uid="{35D2A43C-BF1B-4339-9217-7116005F7034}"/>
-    <hyperlink ref="C61" r:id="rId9" xr:uid="{233456E2-1B15-4448-A669-82C381357683}"/>
-    <hyperlink ref="C74" r:id="rId10" xr:uid="{4A724644-7F2B-4DE6-9141-A1802140FB4A}"/>
-    <hyperlink ref="C71" r:id="rId11" xr:uid="{914A5C5A-20B3-4526-A460-020F9852AFDB}"/>
-    <hyperlink ref="C72" r:id="rId12" xr:uid="{0B2D15B8-18BF-46A5-991E-6E53ADC95851}"/>
+    <hyperlink ref="C60" r:id="rId8" xr:uid="{35D2A43C-BF1B-4339-9217-7116005F7034}"/>
+    <hyperlink ref="C62" r:id="rId9" xr:uid="{233456E2-1B15-4448-A669-82C381357683}"/>
+    <hyperlink ref="C75" r:id="rId10" xr:uid="{4A724644-7F2B-4DE6-9141-A1802140FB4A}"/>
+    <hyperlink ref="C72" r:id="rId11" xr:uid="{914A5C5A-20B3-4526-A460-020F9852AFDB}"/>
+    <hyperlink ref="C73" r:id="rId12" xr:uid="{0B2D15B8-18BF-46A5-991E-6E53ADC95851}"/>
     <hyperlink ref="C25" r:id="rId13" xr:uid="{93A177B9-936F-4ED5-9F32-EB31F0D8F614}"/>
-    <hyperlink ref="C79" r:id="rId14" xr:uid="{9CD2E86C-B1BA-4CC3-9E52-ECA767380715}"/>
-    <hyperlink ref="C81" r:id="rId15" xr:uid="{30EBB8AD-10BE-47B9-BF85-DBCCCE948784}"/>
-    <hyperlink ref="F83" r:id="rId16" xr:uid="{080A2B1B-6640-47F1-9DAB-1F0914BD9938}"/>
+    <hyperlink ref="C80" r:id="rId14" xr:uid="{9CD2E86C-B1BA-4CC3-9E52-ECA767380715}"/>
+    <hyperlink ref="C82" r:id="rId15" xr:uid="{30EBB8AD-10BE-47B9-BF85-DBCCCE948784}"/>
+    <hyperlink ref="F84" r:id="rId16" xr:uid="{080A2B1B-6640-47F1-9DAB-1F0914BD9938}"/>
     <hyperlink ref="C37" r:id="rId17" xr:uid="{DD8AB0F8-5B5E-4F6E-A0B4-339B324BDAC3}"/>
     <hyperlink ref="C31" r:id="rId18" xr:uid="{43B67C49-DC70-412F-B095-E684E07FF196}"/>
     <hyperlink ref="C47" r:id="rId19" xr:uid="{7FDCAB78-56F5-40D3-8A09-8A8A0E54E05D}"/>

--- a/SDE Sheet.xlsx
+++ b/SDE Sheet.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Src Code\Personal\SDE-Sheet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6FA9B109-7E38-439A-9577-F96DE9D4CDA8}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A189679-8132-4AB5-BB02-E00B6012412F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10660" yWindow="1050" windowWidth="14400" windowHeight="7510" xr2:uid="{83934561-A72F-4836-B1E7-4EE8C35F9874}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{83934561-A72F-4836-B1E7-4EE8C35F9874}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="294" uniqueCount="180">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="319" uniqueCount="190">
   <si>
     <t>Matrix</t>
   </si>
@@ -693,6 +693,36 @@
   </si>
   <si>
     <t>Advanced version of merging 2 sorted linked list</t>
+  </si>
+  <si>
+    <t>Remove Duplicates from Sorted Array</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/remove-duplicates-from-sorted-array/</t>
+  </si>
+  <si>
+    <t>Maximum Consecutive 1's</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/max-consecutive-ones/</t>
+  </si>
+  <si>
+    <t>4 Sum</t>
+  </si>
+  <si>
+    <t>Trapping Rainwater</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/trapping-rain-water/</t>
+  </si>
+  <si>
+    <t>Brute Force</t>
+  </si>
+  <si>
+    <t>O(n) in 2 iterations</t>
+  </si>
+  <si>
+    <t>O(n) in 1 iteration</t>
   </si>
 </sst>
 </file>
@@ -887,7 +917,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -933,47 +963,63 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1290,11 +1336,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D3EBAEE5-B4E7-4BD5-B694-FD6EEA5E8AC0}">
-  <dimension ref="A1:F88"/>
+  <dimension ref="A1:F94"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="79" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A36" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F55" sqref="F55"/>
+    <sheetView tabSelected="1" zoomScale="82" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A21" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E37" sqref="E37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1327,14 +1373,14 @@
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A2" s="26" t="s">
+      <c r="A2" s="24" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="26"/>
-      <c r="C2" s="26"/>
-      <c r="D2" s="26"/>
-      <c r="E2" s="26"/>
-      <c r="F2" s="26"/>
+      <c r="B2" s="24"/>
+      <c r="C2" s="24"/>
+      <c r="D2" s="24"/>
+      <c r="E2" s="24"/>
+      <c r="F2" s="24"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A3" s="2"/>
@@ -1399,14 +1445,14 @@
       <c r="F6" s="2"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A7" s="26" t="s">
+      <c r="A7" s="24" t="s">
         <v>15</v>
       </c>
-      <c r="B7" s="26"/>
-      <c r="C7" s="26"/>
-      <c r="D7" s="26"/>
-      <c r="E7" s="26"/>
-      <c r="F7" s="26"/>
+      <c r="B7" s="24"/>
+      <c r="C7" s="24"/>
+      <c r="D7" s="24"/>
+      <c r="E7" s="24"/>
+      <c r="F7" s="24"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A8" s="2"/>
@@ -1517,14 +1563,14 @@
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A14" s="26" t="s">
+      <c r="A14" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="B14" s="26"/>
-      <c r="C14" s="26"/>
-      <c r="D14" s="26"/>
-      <c r="E14" s="26"/>
-      <c r="F14" s="26"/>
+      <c r="B14" s="24"/>
+      <c r="C14" s="24"/>
+      <c r="D14" s="24"/>
+      <c r="E14" s="24"/>
+      <c r="F14" s="24"/>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A15" s="2"/>
@@ -1633,14 +1679,14 @@
       <c r="F20" s="2"/>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A21" s="26" t="s">
+      <c r="A21" s="24" t="s">
         <v>23</v>
       </c>
-      <c r="B21" s="26"/>
-      <c r="C21" s="26"/>
-      <c r="D21" s="26"/>
-      <c r="E21" s="26"/>
-      <c r="F21" s="26"/>
+      <c r="B21" s="24"/>
+      <c r="C21" s="24"/>
+      <c r="D21" s="24"/>
+      <c r="E21" s="24"/>
+      <c r="F21" s="24"/>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A22" s="2"/>
@@ -1669,17 +1715,17 @@
       <c r="F23" s="2"/>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A24" s="26" t="s">
+      <c r="A24" s="24" t="s">
         <v>99</v>
       </c>
-      <c r="B24" s="26"/>
-      <c r="C24" s="26"/>
-      <c r="D24" s="26"/>
-      <c r="E24" s="26"/>
-      <c r="F24" s="26"/>
+      <c r="B24" s="24"/>
+      <c r="C24" s="24"/>
+      <c r="D24" s="24"/>
+      <c r="E24" s="24"/>
+      <c r="F24" s="24"/>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A25" s="2"/>
+      <c r="A25" s="9"/>
       <c r="B25" s="2" t="s">
         <v>127</v>
       </c>
@@ -1697,943 +1743,1045 @@
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A26" s="2"/>
-      <c r="B26" s="23" t="s">
+      <c r="A26" s="37"/>
+      <c r="B26" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E26" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F26" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A27" s="37"/>
+      <c r="B27" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E27" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F27" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A28" s="27"/>
+      <c r="B28" s="26" t="s">
         <v>108</v>
       </c>
-      <c r="C26" s="24" t="s">
+      <c r="C28" s="23" t="s">
         <v>109</v>
       </c>
-      <c r="D26" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E26" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="F26" s="2" t="s">
+      <c r="D28" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E28" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F28" s="2" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A27" s="2"/>
-      <c r="B27" s="23"/>
-      <c r="C27" s="24"/>
-      <c r="D27" s="2" t="s">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A29" s="28"/>
+      <c r="B29" s="26"/>
+      <c r="C29" s="23"/>
+      <c r="D29" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="E27" s="2" t="s">
+      <c r="E29" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="F27" s="2" t="s">
+      <c r="F29" s="2" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="28" spans="1:6" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A28" s="2"/>
-      <c r="B28" s="2" t="s">
+    <row r="30" spans="1:6" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A30" s="9"/>
+      <c r="B30" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="C28" s="1" t="s">
+      <c r="C30" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="D28" s="2" t="s">
+      <c r="D30" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="E28" s="2" t="s">
+      <c r="E30" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="F28" s="2" t="s">
+      <c r="F30" s="2" t="s">
         <v>107</v>
       </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A29" s="2"/>
-      <c r="B29" s="2"/>
-      <c r="C29" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="D29" s="2"/>
-      <c r="E29" s="2"/>
-      <c r="F29" s="2"/>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A30" s="2"/>
-      <c r="B30" s="2"/>
-      <c r="C30" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="D30" s="2"/>
-      <c r="E30" s="2"/>
-      <c r="F30" s="2"/>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A31" s="2"/>
-      <c r="B31" s="2" t="s">
+      <c r="B31" s="2"/>
+      <c r="C31" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="D31" s="2"/>
+      <c r="E31" s="2"/>
+      <c r="F31" s="2"/>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A32" s="10"/>
+      <c r="B32" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="D32" s="2"/>
+      <c r="E32" s="2"/>
+      <c r="F32" s="2"/>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A33" s="9"/>
+      <c r="B33" s="2" t="s">
         <v>124</v>
       </c>
-      <c r="C31" s="1" t="s">
+      <c r="C33" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="D31" s="2" t="s">
+      <c r="D33" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E31" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="F31" s="2" t="s">
+      <c r="E33" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F33" s="2" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A32" s="26" t="s">
+    <row r="34" spans="1:6" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A34" s="38"/>
+      <c r="B34" s="29" t="s">
+        <v>185</v>
+      </c>
+      <c r="C34" s="31" t="s">
+        <v>186</v>
+      </c>
+      <c r="D34" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E34" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F34" s="2" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A35" s="39"/>
+      <c r="B35" s="41"/>
+      <c r="C35" s="42"/>
+      <c r="D35" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="E35" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F35" s="2" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A36" s="39"/>
+      <c r="B36" s="41"/>
+      <c r="C36" s="42"/>
+      <c r="D36" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="E36" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F36" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="B32" s="26"/>
-      <c r="C32" s="26"/>
-      <c r="D32" s="26"/>
-      <c r="E32" s="26"/>
-      <c r="F32" s="26"/>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A33" s="2"/>
-      <c r="B33" s="2"/>
-      <c r="C33" s="2"/>
-      <c r="D33" s="2"/>
-      <c r="E33" s="2"/>
-      <c r="F33" s="2"/>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A34" s="26" t="s">
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A37" s="40"/>
+      <c r="B37" s="30"/>
+      <c r="C37" s="32"/>
+      <c r="D37" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="E37" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F37" s="2" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A38" s="24" t="s">
+        <v>29</v>
+      </c>
+      <c r="B38" s="24"/>
+      <c r="C38" s="24"/>
+      <c r="D38" s="24"/>
+      <c r="E38" s="24"/>
+      <c r="F38" s="24"/>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A39" s="2"/>
+      <c r="B39" s="2"/>
+      <c r="C39" s="2"/>
+      <c r="D39" s="2"/>
+      <c r="E39" s="2"/>
+      <c r="F39" s="2"/>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A40" s="24" t="s">
         <v>30</v>
       </c>
-      <c r="B34" s="26"/>
-      <c r="C34" s="26"/>
-      <c r="D34" s="26"/>
-      <c r="E34" s="26"/>
-      <c r="F34" s="26"/>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A35" s="2"/>
-      <c r="B35" s="2"/>
-      <c r="C35" s="2"/>
-      <c r="D35" s="2"/>
-      <c r="E35" s="2"/>
-      <c r="F35" s="2"/>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A36" s="26" t="s">
+      <c r="B40" s="24"/>
+      <c r="C40" s="24"/>
+      <c r="D40" s="24"/>
+      <c r="E40" s="24"/>
+      <c r="F40" s="24"/>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A41" s="2"/>
+      <c r="B41" s="2"/>
+      <c r="C41" s="2"/>
+      <c r="D41" s="2"/>
+      <c r="E41" s="2"/>
+      <c r="F41" s="2"/>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A42" s="24" t="s">
         <v>31</v>
       </c>
-      <c r="B36" s="26"/>
-      <c r="C36" s="26"/>
-      <c r="D36" s="26"/>
-      <c r="E36" s="26"/>
-      <c r="F36" s="26"/>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A37" s="11"/>
-      <c r="B37" s="2" t="s">
+      <c r="B42" s="24"/>
+      <c r="C42" s="24"/>
+      <c r="D42" s="24"/>
+      <c r="E42" s="24"/>
+      <c r="F42" s="24"/>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A43" s="11"/>
+      <c r="B43" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="C37" s="1" t="s">
+      <c r="C43" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="D37" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E37" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="F37" s="2" t="s">
+      <c r="D43" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E43" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F43" s="2" t="s">
         <v>13</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A38" s="11"/>
-      <c r="B38" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="C38" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="D38" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E38" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="F38" s="2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A39" s="27"/>
-      <c r="B39" s="23" t="s">
-        <v>160</v>
-      </c>
-      <c r="C39" s="24" t="s">
-        <v>161</v>
-      </c>
-      <c r="D39" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E39" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="F39" s="2" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A40" s="27"/>
-      <c r="B40" s="23"/>
-      <c r="C40" s="24"/>
-      <c r="D40" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E40" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="F40" s="2" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A41" s="11"/>
-      <c r="B41" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="C41" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="D41" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="E41" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="F41" s="2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A42" s="9"/>
-      <c r="B42" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="C42" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="D42" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="E42" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="F42" s="2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A43" s="9"/>
-      <c r="B43" s="2" t="s">
-        <v>149</v>
-      </c>
-      <c r="C43" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="D43" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E43" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="F43" s="2" t="s">
-        <v>150</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A44" s="11"/>
       <c r="B44" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="D44" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E44" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F44" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A45" s="35"/>
+      <c r="B45" s="26" t="s">
+        <v>160</v>
+      </c>
+      <c r="C45" s="23" t="s">
+        <v>161</v>
+      </c>
+      <c r="D45" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E45" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F45" s="2" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A46" s="35"/>
+      <c r="B46" s="26"/>
+      <c r="C46" s="23"/>
+      <c r="D46" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E46" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F46" s="2" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A47" s="11"/>
+      <c r="B47" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="D47" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="E47" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F47" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A48" s="9"/>
+      <c r="B48" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="D48" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="E48" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F48" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A49" s="9"/>
+      <c r="B49" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="D49" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E49" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F49" s="2" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A50" s="11"/>
+      <c r="B50" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="C44" s="1" t="s">
+      <c r="C50" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="D44" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="E44" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="F44" s="2" t="s">
+      <c r="D50" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E50" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F50" s="2" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A45" s="28"/>
-      <c r="B45" s="23" t="s">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A51" s="25"/>
+      <c r="B51" s="26" t="s">
         <v>154</v>
       </c>
-      <c r="C45" s="24" t="s">
+      <c r="C51" s="23" t="s">
         <v>155</v>
       </c>
-      <c r="D45" s="2" t="s">
+      <c r="D51" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="E45" s="2" t="s">
+      <c r="E51" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="F45" s="2" t="s">
+      <c r="F51" s="2" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A46" s="28"/>
-      <c r="B46" s="23"/>
-      <c r="C46" s="24"/>
-      <c r="D46" s="2" t="s">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A52" s="25"/>
+      <c r="B52" s="26"/>
+      <c r="C52" s="23"/>
+      <c r="D52" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="E46" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="F46" s="2" t="s">
+      <c r="E52" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F52" s="2" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="47" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A47" s="29"/>
-      <c r="B47" s="23" t="s">
+    <row r="53" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A53" s="27"/>
+      <c r="B53" s="26" t="s">
         <v>169</v>
       </c>
-      <c r="C47" s="33" t="s">
+      <c r="C53" s="31" t="s">
         <v>170</v>
       </c>
-      <c r="D47" s="21" t="s">
-        <v>18</v>
-      </c>
-      <c r="E47" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="F47" s="2" t="s">
+      <c r="D53" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="E53" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F53" s="2" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="48" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A48" s="30"/>
-      <c r="B48" s="23"/>
-      <c r="C48" s="34"/>
-      <c r="D48" s="21" t="s">
-        <v>18</v>
-      </c>
-      <c r="E48" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="F48" s="1" t="s">
+    <row r="54" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A54" s="28"/>
+      <c r="B54" s="26"/>
+      <c r="C54" s="32"/>
+      <c r="D54" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="E54" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F54" s="1" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="49" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A49" s="35"/>
-      <c r="B49" s="23" t="s">
+    <row r="55" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A55" s="33"/>
+      <c r="B55" s="26" t="s">
         <v>175</v>
       </c>
-      <c r="C49" s="33" t="s">
+      <c r="C55" s="31" t="s">
         <v>173</v>
       </c>
-      <c r="D49" s="21" t="s">
-        <v>18</v>
-      </c>
-      <c r="E49" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="F49" s="2" t="s">
+      <c r="D55" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="E55" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F55" s="2" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="50" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A50" s="36"/>
-      <c r="B50" s="23"/>
-      <c r="C50" s="34"/>
-      <c r="D50" s="21" t="s">
-        <v>18</v>
-      </c>
-      <c r="E50" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="F50" s="1" t="s">
+    <row r="56" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A56" s="34"/>
+      <c r="B56" s="26"/>
+      <c r="C56" s="32"/>
+      <c r="D56" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="E56" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F56" s="1" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A51" s="29"/>
-      <c r="B51" s="31" t="s">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A57" s="27"/>
+      <c r="B57" s="29" t="s">
         <v>165</v>
       </c>
-      <c r="C51" s="33" t="s">
+      <c r="C57" s="31" t="s">
         <v>166</v>
       </c>
-      <c r="D51" s="18" t="s">
-        <v>18</v>
-      </c>
-      <c r="E51" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="F51" s="2" t="s">
+      <c r="D57" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="E57" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F57" s="2" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A52" s="30"/>
-      <c r="B52" s="32"/>
-      <c r="C52" s="34"/>
-      <c r="D52" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E52" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="F52" s="2" t="s">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A58" s="28"/>
+      <c r="B58" s="30"/>
+      <c r="C58" s="32"/>
+      <c r="D58" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E58" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F58" s="2" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A53" s="22"/>
-      <c r="B53" s="19" t="s">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A59" s="22"/>
+      <c r="B59" s="19" t="s">
         <v>176</v>
       </c>
-      <c r="C53" s="20" t="s">
+      <c r="C59" s="20" t="s">
         <v>177</v>
       </c>
-      <c r="D53" s="2" t="s">
+      <c r="D59" s="2" t="s">
         <v>178</v>
       </c>
-      <c r="E53" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="F53" s="2" t="s">
+      <c r="E59" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F59" s="2" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A54" s="17"/>
-      <c r="B54" s="16" t="s">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A60" s="17"/>
+      <c r="B60" s="16" t="s">
         <v>163</v>
       </c>
-      <c r="C54" s="15" t="s">
+      <c r="C60" s="15" t="s">
         <v>164</v>
       </c>
-      <c r="D54" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E54" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="F54" s="2" t="s">
+      <c r="D60" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E60" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F60" s="2" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A55" s="25"/>
-      <c r="B55" s="23" t="s">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A61" s="36"/>
+      <c r="B61" s="26" t="s">
         <v>151</v>
       </c>
-      <c r="C55" s="24" t="s">
+      <c r="C61" s="23" t="s">
         <v>152</v>
       </c>
-      <c r="D55" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E55" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="F55" s="2" t="s">
+      <c r="D61" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E61" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F61" s="2" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A56" s="25"/>
-      <c r="B56" s="23"/>
-      <c r="C56" s="24"/>
-      <c r="D56" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E56" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="F56" s="2" t="s">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A62" s="36"/>
+      <c r="B62" s="26"/>
+      <c r="C62" s="23"/>
+      <c r="D62" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E62" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F62" s="2" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A57" s="26" t="s">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A63" s="24" t="s">
         <v>32</v>
       </c>
-      <c r="B57" s="26"/>
-      <c r="C57" s="26"/>
-      <c r="D57" s="26"/>
-      <c r="E57" s="26"/>
-      <c r="F57" s="26"/>
-    </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A58" s="2"/>
-      <c r="B58" s="2"/>
-      <c r="C58" s="2"/>
-      <c r="D58" s="2"/>
-      <c r="E58" s="2"/>
-      <c r="F58" s="2"/>
-    </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A59" s="26" t="s">
-        <v>67</v>
-      </c>
-      <c r="B59" s="26"/>
-      <c r="C59" s="26"/>
-      <c r="D59" s="26"/>
-      <c r="E59" s="26"/>
-      <c r="F59" s="26"/>
-    </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A60" s="2"/>
-      <c r="B60" s="23" t="s">
-        <v>68</v>
-      </c>
-      <c r="C60" s="24" t="s">
-        <v>65</v>
-      </c>
-      <c r="D60" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E60" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="F60" s="2" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A61" s="2"/>
-      <c r="B61" s="23"/>
-      <c r="C61" s="24"/>
-      <c r="D61" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E61" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="F61" s="2" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A62" s="2"/>
-      <c r="B62" s="23" t="s">
-        <v>69</v>
-      </c>
-      <c r="C62" s="24" t="s">
-        <v>70</v>
-      </c>
-      <c r="D62" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E62" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="F62" s="2" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A63" s="2"/>
-      <c r="B63" s="23"/>
+      <c r="B63" s="24"/>
       <c r="C63" s="24"/>
-      <c r="D63" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E63" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="F63" s="2" t="s">
-        <v>66</v>
-      </c>
+      <c r="D63" s="24"/>
+      <c r="E63" s="24"/>
+      <c r="F63" s="24"/>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A64" s="2"/>
-      <c r="B64" s="14" t="s">
-        <v>83</v>
-      </c>
-      <c r="C64" s="15" t="s">
-        <v>84</v>
-      </c>
-      <c r="D64" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E64" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="F64" s="2" t="s">
-        <v>85</v>
-      </c>
+      <c r="B64" s="2"/>
+      <c r="C64" s="2"/>
+      <c r="D64" s="2"/>
+      <c r="E64" s="2"/>
+      <c r="F64" s="2"/>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A65" s="2"/>
-      <c r="B65" s="14" t="s">
-        <v>79</v>
-      </c>
-      <c r="C65" s="15" t="s">
-        <v>80</v>
-      </c>
-      <c r="D65" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E65" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="F65" s="2" t="s">
-        <v>82</v>
-      </c>
+      <c r="A65" s="24" t="s">
+        <v>67</v>
+      </c>
+      <c r="B65" s="24"/>
+      <c r="C65" s="24"/>
+      <c r="D65" s="24"/>
+      <c r="E65" s="24"/>
+      <c r="F65" s="24"/>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A66" s="2"/>
-      <c r="B66" s="23" t="s">
-        <v>87</v>
-      </c>
-      <c r="C66" s="24" t="s">
-        <v>86</v>
+      <c r="B66" s="26" t="s">
+        <v>68</v>
+      </c>
+      <c r="C66" s="23" t="s">
+        <v>65</v>
       </c>
       <c r="D66" s="2" t="s">
         <v>18</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>81</v>
+        <v>18</v>
       </c>
       <c r="F66" s="2" t="s">
-        <v>85</v>
+        <v>71</v>
       </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A67" s="2"/>
-      <c r="B67" s="23"/>
-      <c r="C67" s="24"/>
+      <c r="B67" s="26"/>
+      <c r="C67" s="23"/>
       <c r="D67" s="2" t="s">
         <v>18</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>88</v>
+        <v>4</v>
       </c>
       <c r="F67" s="2" t="s">
-        <v>89</v>
+        <v>66</v>
       </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A68" s="2"/>
-      <c r="B68" s="23" t="s">
-        <v>90</v>
-      </c>
-      <c r="C68" s="24" t="s">
-        <v>91</v>
+      <c r="B68" s="26" t="s">
+        <v>69</v>
+      </c>
+      <c r="C68" s="23" t="s">
+        <v>70</v>
       </c>
       <c r="D68" s="2" t="s">
         <v>18</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>81</v>
+        <v>18</v>
       </c>
       <c r="F68" s="2" t="s">
-        <v>85</v>
+        <v>71</v>
       </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A69" s="2"/>
-      <c r="B69" s="23"/>
-      <c r="C69" s="24"/>
+      <c r="B69" s="26"/>
+      <c r="C69" s="23"/>
       <c r="D69" s="2" t="s">
         <v>18</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>88</v>
+        <v>4</v>
       </c>
       <c r="F69" s="2" t="s">
-        <v>89</v>
+        <v>66</v>
       </c>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A70" s="2"/>
-      <c r="B70" s="14"/>
-      <c r="C70" s="15"/>
-      <c r="D70" s="2"/>
-      <c r="E70" s="2"/>
-      <c r="F70" s="2"/>
+      <c r="B70" s="14" t="s">
+        <v>83</v>
+      </c>
+      <c r="C70" s="15" t="s">
+        <v>84</v>
+      </c>
+      <c r="D70" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E70" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="F70" s="2" t="s">
+        <v>85</v>
+      </c>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A71" s="26" t="s">
-        <v>92</v>
-      </c>
-      <c r="B71" s="26"/>
-      <c r="C71" s="26"/>
-      <c r="D71" s="26"/>
-      <c r="E71" s="26"/>
-      <c r="F71" s="26"/>
+      <c r="A71" s="2"/>
+      <c r="B71" s="14" t="s">
+        <v>79</v>
+      </c>
+      <c r="C71" s="15" t="s">
+        <v>80</v>
+      </c>
+      <c r="D71" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E71" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="F71" s="2" t="s">
+        <v>82</v>
+      </c>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A72" s="2"/>
-      <c r="B72" s="5" t="s">
-        <v>94</v>
-      </c>
-      <c r="C72" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="D72" s="4" t="s">
-        <v>95</v>
-      </c>
-      <c r="E72" s="4" t="s">
-        <v>95</v>
-      </c>
-      <c r="F72" s="4"/>
+      <c r="B72" s="26" t="s">
+        <v>87</v>
+      </c>
+      <c r="C72" s="23" t="s">
+        <v>86</v>
+      </c>
+      <c r="D72" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E72" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="F72" s="2" t="s">
+        <v>85</v>
+      </c>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A73" s="2"/>
-      <c r="B73" s="5" t="s">
-        <v>97</v>
-      </c>
-      <c r="C73" s="3" t="s">
-        <v>96</v>
-      </c>
-      <c r="D73" s="4" t="s">
-        <v>95</v>
-      </c>
-      <c r="E73" s="4" t="s">
-        <v>95</v>
-      </c>
-      <c r="F73" s="12" t="s">
-        <v>98</v>
+      <c r="B73" s="26"/>
+      <c r="C73" s="23"/>
+      <c r="D73" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E73" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="F73" s="2" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A74" s="26" t="s">
-        <v>33</v>
-      </c>
-      <c r="B74" s="26"/>
-      <c r="C74" s="26"/>
-      <c r="D74" s="26"/>
-      <c r="E74" s="26"/>
-      <c r="F74" s="26"/>
+      <c r="A74" s="2"/>
+      <c r="B74" s="26" t="s">
+        <v>90</v>
+      </c>
+      <c r="C74" s="23" t="s">
+        <v>91</v>
+      </c>
+      <c r="D74" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E74" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="F74" s="2" t="s">
+        <v>85</v>
+      </c>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A75" s="2"/>
-      <c r="B75" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="C75" s="1" t="s">
-        <v>73</v>
-      </c>
+      <c r="B75" s="26"/>
+      <c r="C75" s="23"/>
       <c r="D75" s="2" t="s">
-        <v>74</v>
+        <v>18</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>75</v>
+        <v>88</v>
       </c>
       <c r="F75" s="2" t="s">
-        <v>76</v>
+        <v>89</v>
       </c>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A76" s="2"/>
-      <c r="B76" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="C76" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="D76" s="2" t="s">
-        <v>74</v>
-      </c>
+      <c r="B76" s="14"/>
+      <c r="C76" s="15"/>
+      <c r="D76" s="2"/>
       <c r="E76" s="2"/>
       <c r="F76" s="2"/>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A77" s="26" t="s">
-        <v>34</v>
-      </c>
-      <c r="B77" s="26"/>
-      <c r="C77" s="26"/>
-      <c r="D77" s="26"/>
-      <c r="E77" s="26"/>
-      <c r="F77" s="26"/>
+      <c r="A77" s="24" t="s">
+        <v>92</v>
+      </c>
+      <c r="B77" s="24"/>
+      <c r="C77" s="24"/>
+      <c r="D77" s="24"/>
+      <c r="E77" s="24"/>
+      <c r="F77" s="24"/>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A78" s="2"/>
-      <c r="B78" s="2"/>
-      <c r="C78" s="2"/>
-      <c r="D78" s="2"/>
-      <c r="E78" s="2"/>
-      <c r="F78" s="2"/>
+      <c r="B78" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="C78" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="D78" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="E78" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="F78" s="4"/>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A79" s="26" t="s">
-        <v>35</v>
-      </c>
-      <c r="B79" s="26"/>
-      <c r="C79" s="26"/>
-      <c r="D79" s="26"/>
-      <c r="E79" s="26"/>
-      <c r="F79" s="26"/>
+      <c r="A79" s="2"/>
+      <c r="B79" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="C79" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="D79" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="E79" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="F79" s="12" t="s">
+        <v>98</v>
+      </c>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A80" s="2"/>
-      <c r="B80" s="23" t="s">
-        <v>113</v>
-      </c>
-      <c r="C80" s="24" t="s">
-        <v>114</v>
-      </c>
-      <c r="D80" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="E80" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="F80" s="2" t="s">
-        <v>115</v>
-      </c>
+      <c r="A80" s="24" t="s">
+        <v>33</v>
+      </c>
+      <c r="B80" s="24"/>
+      <c r="C80" s="24"/>
+      <c r="D80" s="24"/>
+      <c r="E80" s="24"/>
+      <c r="F80" s="24"/>
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A81" s="2"/>
-      <c r="B81" s="23"/>
-      <c r="C81" s="23"/>
+      <c r="B81" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="C81" s="1" t="s">
+        <v>73</v>
+      </c>
       <c r="D81" s="2" t="s">
-        <v>119</v>
+        <v>74</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>4</v>
+        <v>75</v>
       </c>
       <c r="F81" s="2" t="s">
-        <v>116</v>
+        <v>76</v>
       </c>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A82" s="2"/>
       <c r="B82" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="C82" s="15" t="s">
-        <v>117</v>
+        <v>77</v>
+      </c>
+      <c r="C82" s="1" t="s">
+        <v>78</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E82" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="F82" s="2" t="s">
-        <v>115</v>
-      </c>
+        <v>74</v>
+      </c>
+      <c r="E82" s="2"/>
+      <c r="F82" s="2"/>
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A83" s="2"/>
-      <c r="B83" s="23" t="s">
-        <v>120</v>
-      </c>
-      <c r="C83" s="24" t="s">
-        <v>121</v>
-      </c>
-      <c r="D83" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="E83" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="F83" s="2" t="s">
-        <v>122</v>
-      </c>
+      <c r="A83" s="24" t="s">
+        <v>34</v>
+      </c>
+      <c r="B83" s="24"/>
+      <c r="C83" s="24"/>
+      <c r="D83" s="24"/>
+      <c r="E83" s="24"/>
+      <c r="F83" s="24"/>
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A84" s="2"/>
-      <c r="B84" s="23"/>
-      <c r="C84" s="24"/>
-      <c r="D84" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E84" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="F84" s="13" t="s">
-        <v>123</v>
-      </c>
+      <c r="B84" s="2"/>
+      <c r="C84" s="2"/>
+      <c r="D84" s="2"/>
+      <c r="E84" s="2"/>
+      <c r="F84" s="2"/>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A85" s="26" t="s">
-        <v>36</v>
-      </c>
-      <c r="B85" s="26"/>
-      <c r="C85" s="26"/>
-      <c r="D85" s="26"/>
-      <c r="E85" s="26"/>
-      <c r="F85" s="26"/>
+      <c r="A85" s="24" t="s">
+        <v>35</v>
+      </c>
+      <c r="B85" s="24"/>
+      <c r="C85" s="24"/>
+      <c r="D85" s="24"/>
+      <c r="E85" s="24"/>
+      <c r="F85" s="24"/>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A86" s="2"/>
-      <c r="B86" s="2"/>
-      <c r="C86" s="2"/>
-      <c r="D86" s="2"/>
-      <c r="E86" s="2"/>
-      <c r="F86" s="2"/>
+      <c r="B86" s="26" t="s">
+        <v>113</v>
+      </c>
+      <c r="C86" s="23" t="s">
+        <v>114</v>
+      </c>
+      <c r="D86" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="E86" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="F86" s="2" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A87" s="2"/>
+      <c r="B87" s="26"/>
+      <c r="C87" s="26"/>
+      <c r="D87" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="E87" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F87" s="2" t="s">
+        <v>116</v>
+      </c>
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="F88" t="s">
+      <c r="A88" s="2"/>
+      <c r="B88" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="C88" s="15" t="s">
+        <v>117</v>
+      </c>
+      <c r="D88" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E88" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="F88" s="2" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A89" s="2"/>
+      <c r="B89" s="26" t="s">
+        <v>120</v>
+      </c>
+      <c r="C89" s="23" t="s">
+        <v>121</v>
+      </c>
+      <c r="D89" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="E89" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="F89" s="2" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A90" s="2"/>
+      <c r="B90" s="26"/>
+      <c r="C90" s="23"/>
+      <c r="D90" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E90" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="F90" s="13" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A91" s="24" t="s">
+        <v>36</v>
+      </c>
+      <c r="B91" s="24"/>
+      <c r="C91" s="24"/>
+      <c r="D91" s="24"/>
+      <c r="E91" s="24"/>
+      <c r="F91" s="24"/>
+    </row>
+    <row r="92" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A92" s="2"/>
+      <c r="B92" s="2"/>
+      <c r="C92" s="2"/>
+      <c r="D92" s="2"/>
+      <c r="E92" s="2"/>
+      <c r="F92" s="2"/>
+    </row>
+    <row r="94" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="F94" t="s">
         <v>157</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="47">
-    <mergeCell ref="C39:C40"/>
-    <mergeCell ref="A32:F32"/>
-    <mergeCell ref="A74:F74"/>
-    <mergeCell ref="A45:A46"/>
-    <mergeCell ref="B45:B46"/>
-    <mergeCell ref="C45:C46"/>
-    <mergeCell ref="A51:A52"/>
-    <mergeCell ref="B51:B52"/>
-    <mergeCell ref="C51:C52"/>
-    <mergeCell ref="A47:A48"/>
-    <mergeCell ref="B47:B48"/>
-    <mergeCell ref="C47:C48"/>
-    <mergeCell ref="A49:A50"/>
-    <mergeCell ref="C49:C50"/>
-    <mergeCell ref="B49:B50"/>
+  <mergeCells count="51">
+    <mergeCell ref="A34:A37"/>
+    <mergeCell ref="B34:B37"/>
+    <mergeCell ref="C34:C37"/>
+    <mergeCell ref="B89:B90"/>
+    <mergeCell ref="C89:C90"/>
+    <mergeCell ref="C74:C75"/>
+    <mergeCell ref="B74:B75"/>
+    <mergeCell ref="A61:A62"/>
+    <mergeCell ref="B61:B62"/>
+    <mergeCell ref="C61:C62"/>
+    <mergeCell ref="A83:F83"/>
     <mergeCell ref="A85:F85"/>
-    <mergeCell ref="A34:F34"/>
-    <mergeCell ref="A36:F36"/>
-    <mergeCell ref="A57:F57"/>
-    <mergeCell ref="A59:F59"/>
-    <mergeCell ref="A71:F71"/>
-    <mergeCell ref="B60:B61"/>
-    <mergeCell ref="C60:C61"/>
-    <mergeCell ref="B62:B63"/>
-    <mergeCell ref="C62:C63"/>
-    <mergeCell ref="B66:B67"/>
-    <mergeCell ref="C66:C67"/>
-    <mergeCell ref="B80:B81"/>
-    <mergeCell ref="C80:C81"/>
-    <mergeCell ref="A39:A40"/>
-    <mergeCell ref="B39:B40"/>
-    <mergeCell ref="B26:B27"/>
-    <mergeCell ref="C26:C27"/>
+    <mergeCell ref="B28:B29"/>
+    <mergeCell ref="C28:C29"/>
     <mergeCell ref="A2:F2"/>
     <mergeCell ref="A7:F7"/>
     <mergeCell ref="A14:F14"/>
     <mergeCell ref="A21:F21"/>
     <mergeCell ref="A24:F24"/>
-    <mergeCell ref="B83:B84"/>
-    <mergeCell ref="C83:C84"/>
+    <mergeCell ref="A28:A29"/>
+    <mergeCell ref="A91:F91"/>
+    <mergeCell ref="A40:F40"/>
+    <mergeCell ref="A42:F42"/>
+    <mergeCell ref="A63:F63"/>
+    <mergeCell ref="A65:F65"/>
+    <mergeCell ref="A77:F77"/>
+    <mergeCell ref="B66:B67"/>
+    <mergeCell ref="C66:C67"/>
+    <mergeCell ref="B68:B69"/>
     <mergeCell ref="C68:C69"/>
-    <mergeCell ref="B68:B69"/>
+    <mergeCell ref="B72:B73"/>
+    <mergeCell ref="C72:C73"/>
+    <mergeCell ref="B86:B87"/>
+    <mergeCell ref="C86:C87"/>
+    <mergeCell ref="A45:A46"/>
+    <mergeCell ref="B45:B46"/>
+    <mergeCell ref="C45:C46"/>
+    <mergeCell ref="A38:F38"/>
+    <mergeCell ref="A80:F80"/>
+    <mergeCell ref="A51:A52"/>
+    <mergeCell ref="B51:B52"/>
+    <mergeCell ref="C51:C52"/>
+    <mergeCell ref="A57:A58"/>
+    <mergeCell ref="B57:B58"/>
+    <mergeCell ref="C57:C58"/>
+    <mergeCell ref="A53:A54"/>
+    <mergeCell ref="B53:B54"/>
+    <mergeCell ref="C53:C54"/>
     <mergeCell ref="A55:A56"/>
+    <mergeCell ref="C55:C56"/>
     <mergeCell ref="B55:B56"/>
-    <mergeCell ref="C55:C56"/>
-    <mergeCell ref="A77:F77"/>
-    <mergeCell ref="A79:F79"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="C3" r:id="rId1" xr:uid="{3FB3FA06-DE47-4C2D-AFD7-F5FC45E3D126}"/>
@@ -2643,22 +2791,23 @@
     <hyperlink ref="C22" r:id="rId5" xr:uid="{6352E065-8925-49FF-AA82-66ED2F9F8651}"/>
     <hyperlink ref="C16" r:id="rId6" xr:uid="{047C68C0-B7AB-4E77-9D1E-B162BD11A209}"/>
     <hyperlink ref="C17" r:id="rId7" xr:uid="{1ABD0EDA-F48F-4D2F-B13C-180B398F1FCD}"/>
-    <hyperlink ref="C60" r:id="rId8" xr:uid="{35D2A43C-BF1B-4339-9217-7116005F7034}"/>
-    <hyperlink ref="C62" r:id="rId9" xr:uid="{233456E2-1B15-4448-A669-82C381357683}"/>
-    <hyperlink ref="C75" r:id="rId10" xr:uid="{4A724644-7F2B-4DE6-9141-A1802140FB4A}"/>
-    <hyperlink ref="C72" r:id="rId11" xr:uid="{914A5C5A-20B3-4526-A460-020F9852AFDB}"/>
-    <hyperlink ref="C73" r:id="rId12" xr:uid="{0B2D15B8-18BF-46A5-991E-6E53ADC95851}"/>
+    <hyperlink ref="C66" r:id="rId8" xr:uid="{35D2A43C-BF1B-4339-9217-7116005F7034}"/>
+    <hyperlink ref="C68" r:id="rId9" xr:uid="{233456E2-1B15-4448-A669-82C381357683}"/>
+    <hyperlink ref="C81" r:id="rId10" xr:uid="{4A724644-7F2B-4DE6-9141-A1802140FB4A}"/>
+    <hyperlink ref="C78" r:id="rId11" xr:uid="{914A5C5A-20B3-4526-A460-020F9852AFDB}"/>
+    <hyperlink ref="C79" r:id="rId12" xr:uid="{0B2D15B8-18BF-46A5-991E-6E53ADC95851}"/>
     <hyperlink ref="C25" r:id="rId13" xr:uid="{93A177B9-936F-4ED5-9F32-EB31F0D8F614}"/>
-    <hyperlink ref="C80" r:id="rId14" xr:uid="{9CD2E86C-B1BA-4CC3-9E52-ECA767380715}"/>
-    <hyperlink ref="C82" r:id="rId15" xr:uid="{30EBB8AD-10BE-47B9-BF85-DBCCCE948784}"/>
-    <hyperlink ref="F84" r:id="rId16" xr:uid="{080A2B1B-6640-47F1-9DAB-1F0914BD9938}"/>
-    <hyperlink ref="C37" r:id="rId17" xr:uid="{DD8AB0F8-5B5E-4F6E-A0B4-339B324BDAC3}"/>
-    <hyperlink ref="C31" r:id="rId18" xr:uid="{43B67C49-DC70-412F-B095-E684E07FF196}"/>
-    <hyperlink ref="C47" r:id="rId19" xr:uid="{7FDCAB78-56F5-40D3-8A09-8A8A0E54E05D}"/>
-    <hyperlink ref="F48" r:id="rId20" xr:uid="{F7F3C873-8E94-4212-B22A-52BF75A478D8}"/>
+    <hyperlink ref="C86" r:id="rId14" xr:uid="{9CD2E86C-B1BA-4CC3-9E52-ECA767380715}"/>
+    <hyperlink ref="C88" r:id="rId15" xr:uid="{30EBB8AD-10BE-47B9-BF85-DBCCCE948784}"/>
+    <hyperlink ref="F90" r:id="rId16" xr:uid="{080A2B1B-6640-47F1-9DAB-1F0914BD9938}"/>
+    <hyperlink ref="C43" r:id="rId17" xr:uid="{DD8AB0F8-5B5E-4F6E-A0B4-339B324BDAC3}"/>
+    <hyperlink ref="C33" r:id="rId18" xr:uid="{43B67C49-DC70-412F-B095-E684E07FF196}"/>
+    <hyperlink ref="C53" r:id="rId19" xr:uid="{7FDCAB78-56F5-40D3-8A09-8A8A0E54E05D}"/>
+    <hyperlink ref="F54" r:id="rId20" xr:uid="{F7F3C873-8E94-4212-B22A-52BF75A478D8}"/>
+    <hyperlink ref="C28" r:id="rId21" xr:uid="{F6C15430-DBA9-4DAD-A411-65B1524C625E}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="90" verticalDpi="90" r:id="rId21"/>
+  <pageSetup orientation="portrait" horizontalDpi="90" verticalDpi="90" r:id="rId22"/>
   <headerFooter>
     <oddFooter>&amp;L12/30/2021&amp;CAXP Internal&amp;R1</oddFooter>
   </headerFooter>

--- a/SDE Sheet.xlsx
+++ b/SDE Sheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Src Code\Personal\SDE-Sheet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A189679-8132-4AB5-BB02-E00B6012412F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ECE37B20-1C8D-48E2-9E65-C6BE23B77785}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{83934561-A72F-4836-B1E7-4EE8C35F9874}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="319" uniqueCount="190">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="332" uniqueCount="197">
   <si>
     <t>Matrix</t>
   </si>
@@ -164,9 +164,6 @@
   </si>
   <si>
     <t>Linked list</t>
-  </si>
-  <si>
-    <t>Hashing (HashMap and HashSet)</t>
   </si>
   <si>
     <t>Graphs</t>
@@ -723,6 +720,30 @@
   </si>
   <si>
     <t>O(n) in 1 iteration</t>
+  </si>
+  <si>
+    <t>Largest subarray with 0 sum</t>
+  </si>
+  <si>
+    <t>https://practice.geeksforgeeks.org/problems/largest-subarray-with-0-sum/1</t>
+  </si>
+  <si>
+    <t>Longest Substring Without Repeating Characters</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/longest-substring-without-repeating-characters/</t>
+  </si>
+  <si>
+    <t>String</t>
+  </si>
+  <si>
+    <t>Palindrome Partitioning</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/palindrome-partitioning/</t>
+  </si>
+  <si>
+    <t>Nice problem to understand DP</t>
   </si>
 </sst>
 </file>
@@ -852,7 +873,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -912,12 +933,49 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -963,63 +1021,81 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1336,11 +1412,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D3EBAEE5-B4E7-4BD5-B694-FD6EEA5E8AC0}">
-  <dimension ref="A1:F94"/>
+  <dimension ref="A1:F96"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="82" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A21" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E37" sqref="E37"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F41" sqref="F41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1354,7 +1430,7 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1" s="6" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B1" s="6" t="s">
         <v>6</v>
@@ -1373,14 +1449,14 @@
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A2" s="24" t="s">
+      <c r="A2" s="37" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="24"/>
-      <c r="C2" s="24"/>
-      <c r="D2" s="24"/>
-      <c r="E2" s="24"/>
-      <c r="F2" s="24"/>
+      <c r="B2" s="37"/>
+      <c r="C2" s="37"/>
+      <c r="D2" s="37"/>
+      <c r="E2" s="37"/>
+      <c r="F2" s="37"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A3" s="2"/>
@@ -1421,19 +1497,19 @@
     <row r="5" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A5" s="2"/>
       <c r="B5" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C5" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="D5" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="D5" s="2" t="s">
+      <c r="E5" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F5" s="2" t="s">
         <v>39</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.35">
@@ -1445,14 +1521,14 @@
       <c r="F6" s="2"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A7" s="24" t="s">
+      <c r="A7" s="37" t="s">
         <v>15</v>
       </c>
-      <c r="B7" s="24"/>
-      <c r="C7" s="24"/>
-      <c r="D7" s="24"/>
-      <c r="E7" s="24"/>
-      <c r="F7" s="24"/>
+      <c r="B7" s="37"/>
+      <c r="C7" s="37"/>
+      <c r="D7" s="37"/>
+      <c r="E7" s="37"/>
+      <c r="F7" s="37"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A8" s="2"/>
@@ -1475,47 +1551,47 @@
     <row r="9" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A9" s="2"/>
       <c r="B9" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D9" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="C9" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="D9" s="2" t="s">
+      <c r="E9" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="F9" s="2" t="s">
         <v>43</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="F9" s="2" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A10" s="2"/>
       <c r="B10" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C10" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="C10" s="1" t="s">
+      <c r="D10" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F10" s="7" t="s">
         <v>46</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A11" s="2"/>
       <c r="B11" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C11" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="C11" s="1" t="s">
-        <v>49</v>
-      </c>
       <c r="D11" s="2" t="s">
         <v>18</v>
       </c>
@@ -1523,54 +1599,54 @@
         <v>4</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A12" s="2"/>
       <c r="B12" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C12" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F12" s="8" t="s">
         <v>61</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="E12" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="F12" s="8" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A13" s="9"/>
       <c r="B13" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="D13" s="2" t="s">
         <v>133</v>
       </c>
-      <c r="C13" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="D13" s="2" t="s">
+      <c r="E13" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F13" s="8" t="s">
         <v>134</v>
       </c>
-      <c r="E13" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="F13" s="8" t="s">
-        <v>135</v>
-      </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A14" s="24" t="s">
+      <c r="A14" s="37" t="s">
         <v>22</v>
       </c>
-      <c r="B14" s="24"/>
-      <c r="C14" s="24"/>
-      <c r="D14" s="24"/>
-      <c r="E14" s="24"/>
-      <c r="F14" s="24"/>
+      <c r="B14" s="37"/>
+      <c r="C14" s="37"/>
+      <c r="D14" s="37"/>
+      <c r="E14" s="37"/>
+      <c r="F14" s="37"/>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A15" s="2"/>
@@ -1611,67 +1687,67 @@
     <row r="17" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A17" s="2"/>
       <c r="B17" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C17" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="C17" s="1" t="s">
+      <c r="D17" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F17" s="2" t="s">
         <v>51</v>
-      </c>
-      <c r="D17" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E17" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="F17" s="2" t="s">
-        <v>52</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A18" s="2"/>
       <c r="B18" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C18" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="D18" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="D18" s="2" t="s">
+      <c r="E18" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F18" s="2" t="s">
         <v>54</v>
-      </c>
-      <c r="E18" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="F18" s="2" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A19" s="2"/>
       <c r="B19" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="C19" s="1" t="s">
         <v>57</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>58</v>
       </c>
       <c r="D19" s="2" t="s">
         <v>3</v>
       </c>
       <c r="E19" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="F19" s="2" t="s">
         <v>59</v>
-      </c>
-      <c r="F19" s="2" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="20" spans="1:6" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A20" s="10"/>
       <c r="B20" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="C20" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="C20" s="1" t="s">
+      <c r="D20" s="2" t="s">
         <v>130</v>
-      </c>
-      <c r="D20" s="2" t="s">
-        <v>131</v>
       </c>
       <c r="E20" s="2" t="s">
         <v>14</v>
@@ -1679,14 +1755,14 @@
       <c r="F20" s="2"/>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A21" s="24" t="s">
+      <c r="A21" s="37" t="s">
         <v>23</v>
       </c>
-      <c r="B21" s="24"/>
-      <c r="C21" s="24"/>
-      <c r="D21" s="24"/>
-      <c r="E21" s="24"/>
-      <c r="F21" s="24"/>
+      <c r="B21" s="37"/>
+      <c r="C21" s="37"/>
+      <c r="D21" s="37"/>
+      <c r="E21" s="37"/>
+      <c r="F21" s="37"/>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A22" s="2"/>
@@ -1715,40 +1791,40 @@
       <c r="F23" s="2"/>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A24" s="24" t="s">
-        <v>99</v>
-      </c>
-      <c r="B24" s="24"/>
-      <c r="C24" s="24"/>
-      <c r="D24" s="24"/>
-      <c r="E24" s="24"/>
-      <c r="F24" s="24"/>
+      <c r="A24" s="37" t="s">
+        <v>98</v>
+      </c>
+      <c r="B24" s="37"/>
+      <c r="C24" s="37"/>
+      <c r="D24" s="37"/>
+      <c r="E24" s="37"/>
+      <c r="F24" s="37"/>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A25" s="9"/>
       <c r="B25" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C25" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="D25" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="D25" s="2" t="s">
+      <c r="E25" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="E25" s="2" t="s">
+      <c r="F25" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="F25" s="2" t="s">
-        <v>103</v>
-      </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A26" s="37"/>
+      <c r="A26" s="26"/>
       <c r="B26" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="C26" s="1" t="s">
         <v>180</v>
-      </c>
-      <c r="C26" s="1" t="s">
-        <v>181</v>
       </c>
       <c r="D26" s="2" t="s">
         <v>18</v>
@@ -1761,12 +1837,12 @@
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A27" s="37"/>
+      <c r="A27" s="26"/>
       <c r="B27" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="C27" s="1" t="s">
         <v>182</v>
-      </c>
-      <c r="C27" s="1" t="s">
-        <v>183</v>
       </c>
       <c r="D27" s="2" t="s">
         <v>18</v>
@@ -1779,60 +1855,60 @@
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A28" s="27"/>
-      <c r="B28" s="26" t="s">
+      <c r="A28" s="29"/>
+      <c r="B28" s="27" t="s">
+        <v>107</v>
+      </c>
+      <c r="C28" s="28" t="s">
         <v>108</v>
       </c>
-      <c r="C28" s="23" t="s">
+      <c r="D28" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E28" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F28" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="D28" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E28" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="F28" s="2" t="s">
-        <v>110</v>
-      </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A29" s="28"/>
-      <c r="B29" s="26"/>
-      <c r="C29" s="23"/>
+      <c r="A29" s="30"/>
+      <c r="B29" s="27"/>
+      <c r="C29" s="28"/>
       <c r="D29" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="E29" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="E29" s="2" t="s">
-        <v>102</v>
-      </c>
       <c r="F29" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="30" spans="1:6" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A30" s="9"/>
       <c r="B30" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="C30" s="1" t="s">
         <v>104</v>
-      </c>
-      <c r="C30" s="1" t="s">
-        <v>105</v>
       </c>
       <c r="D30" s="2" t="s">
         <v>14</v>
       </c>
       <c r="E30" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="F30" s="2" t="s">
         <v>106</v>
-      </c>
-      <c r="F30" s="2" t="s">
-        <v>107</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A31" s="2"/>
       <c r="B31" s="2"/>
       <c r="C31" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D31" s="2"/>
       <c r="E31" s="2"/>
@@ -1841,10 +1917,10 @@
     <row r="32" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A32" s="10"/>
       <c r="B32" s="2" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D32" s="2"/>
       <c r="E32" s="2"/>
@@ -1853,10 +1929,10 @@
     <row r="33" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A33" s="9"/>
       <c r="B33" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="C33" s="1" t="s">
         <v>124</v>
-      </c>
-      <c r="C33" s="1" t="s">
-        <v>125</v>
       </c>
       <c r="D33" s="2" t="s">
         <v>3</v>
@@ -1865,16 +1941,16 @@
         <v>4</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="34" spans="1:6" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A34" s="38"/>
-      <c r="B34" s="29" t="s">
+      <c r="A34" s="39"/>
+      <c r="B34" s="31" t="s">
+        <v>184</v>
+      </c>
+      <c r="C34" s="33" t="s">
         <v>185</v>
-      </c>
-      <c r="C34" s="31" t="s">
-        <v>186</v>
       </c>
       <c r="D34" s="2" t="s">
         <v>14</v>
@@ -1883,29 +1959,29 @@
         <v>4</v>
       </c>
       <c r="F34" s="2" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A35" s="40"/>
+      <c r="B35" s="42"/>
+      <c r="C35" s="43"/>
+      <c r="D35" s="2" t="s">
         <v>187</v>
       </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A35" s="39"/>
-      <c r="B35" s="41"/>
-      <c r="C35" s="42"/>
-      <c r="D35" s="2" t="s">
+      <c r="E35" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F35" s="2" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A36" s="40"/>
+      <c r="B36" s="42"/>
+      <c r="C36" s="43"/>
+      <c r="D36" s="2" t="s">
         <v>188</v>
-      </c>
-      <c r="E35" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="F35" s="2" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A36" s="39"/>
-      <c r="B36" s="41"/>
-      <c r="C36" s="42"/>
-      <c r="D36" s="2" t="s">
-        <v>189</v>
       </c>
       <c r="E36" s="2" t="s">
         <v>18</v>
@@ -1915,143 +1991,135 @@
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A37" s="40"/>
-      <c r="B37" s="30"/>
-      <c r="C37" s="32"/>
+      <c r="A37" s="41"/>
+      <c r="B37" s="32"/>
+      <c r="C37" s="34"/>
       <c r="D37" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="E37" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F37" s="2" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A38" s="23"/>
+      <c r="B38" s="2" t="s">
         <v>189</v>
       </c>
-      <c r="E37" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="F37" s="2" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A38" s="24" t="s">
-        <v>29</v>
-      </c>
-      <c r="B38" s="24"/>
-      <c r="C38" s="24"/>
-      <c r="D38" s="24"/>
-      <c r="E38" s="24"/>
-      <c r="F38" s="24"/>
+      <c r="C38" s="24" t="s">
+        <v>190</v>
+      </c>
+      <c r="D38" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E38" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F38" s="2" t="s">
+        <v>109</v>
+      </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A39" s="2"/>
-      <c r="B39" s="2"/>
-      <c r="C39" s="2"/>
-      <c r="D39" s="2"/>
-      <c r="E39" s="2"/>
-      <c r="F39" s="2"/>
+      <c r="A39" s="25"/>
+      <c r="B39" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="C39" s="24" t="s">
+        <v>192</v>
+      </c>
+      <c r="D39" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E39" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F39" s="2" t="s">
+        <v>109</v>
+      </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A40" s="24" t="s">
-        <v>30</v>
-      </c>
-      <c r="B40" s="24"/>
-      <c r="C40" s="24"/>
-      <c r="D40" s="24"/>
-      <c r="E40" s="24"/>
-      <c r="F40" s="24"/>
+      <c r="A40" s="37" t="s">
+        <v>193</v>
+      </c>
+      <c r="B40" s="37"/>
+      <c r="C40" s="37"/>
+      <c r="D40" s="37"/>
+      <c r="E40" s="37"/>
+      <c r="F40" s="37"/>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A41" s="2"/>
-      <c r="B41" s="2"/>
-      <c r="C41" s="2"/>
+      <c r="A41" s="9"/>
+      <c r="B41" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="C41" s="2" t="s">
+        <v>195</v>
+      </c>
       <c r="D41" s="2"/>
       <c r="E41" s="2"/>
-      <c r="F41" s="2"/>
+      <c r="F41" s="2" t="s">
+        <v>196</v>
+      </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A42" s="24" t="s">
+      <c r="A42" s="46" t="s">
+        <v>29</v>
+      </c>
+      <c r="B42" s="47"/>
+      <c r="C42" s="47"/>
+      <c r="D42" s="47"/>
+      <c r="E42" s="47"/>
+      <c r="F42" s="48"/>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A43" s="2"/>
+      <c r="B43" s="2"/>
+      <c r="C43" s="2"/>
+      <c r="D43" s="2"/>
+      <c r="E43" s="2"/>
+      <c r="F43" s="2"/>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A44" s="37" t="s">
+        <v>30</v>
+      </c>
+      <c r="B44" s="37"/>
+      <c r="C44" s="37"/>
+      <c r="D44" s="37"/>
+      <c r="E44" s="37"/>
+      <c r="F44" s="37"/>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A45" s="2"/>
+      <c r="B45" s="2"/>
+      <c r="C45" s="2"/>
+      <c r="D45" s="2"/>
+      <c r="E45" s="2"/>
+      <c r="F45" s="2"/>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A46" s="37" t="s">
         <v>31</v>
       </c>
-      <c r="B42" s="24"/>
-      <c r="C42" s="24"/>
-      <c r="D42" s="24"/>
-      <c r="E42" s="24"/>
-      <c r="F42" s="24"/>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A43" s="11"/>
-      <c r="B43" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="C43" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="D43" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E43" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="F43" s="2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A44" s="11"/>
-      <c r="B44" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="C44" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="D44" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E44" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="F44" s="2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A45" s="35"/>
-      <c r="B45" s="26" t="s">
-        <v>160</v>
-      </c>
-      <c r="C45" s="23" t="s">
-        <v>161</v>
-      </c>
-      <c r="D45" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E45" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="F45" s="2" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A46" s="35"/>
-      <c r="B46" s="26"/>
-      <c r="C46" s="23"/>
-      <c r="D46" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E46" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="F46" s="2" t="s">
-        <v>162</v>
-      </c>
+      <c r="B46" s="37"/>
+      <c r="C46" s="37"/>
+      <c r="D46" s="37"/>
+      <c r="E46" s="37"/>
+      <c r="F46" s="37"/>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A47" s="11"/>
       <c r="B47" s="2" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>142</v>
+        <v>18</v>
       </c>
       <c r="E47" s="2" t="s">
         <v>4</v>
@@ -2061,15 +2129,15 @@
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A48" s="9"/>
+      <c r="A48" s="11"/>
       <c r="B48" s="2" t="s">
-        <v>146</v>
+        <v>137</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>147</v>
+        <v>138</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>142</v>
+        <v>18</v>
       </c>
       <c r="E48" s="2" t="s">
         <v>4</v>
@@ -2079,319 +2147,337 @@
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A49" s="9"/>
-      <c r="B49" s="2" t="s">
+      <c r="A49" s="38"/>
+      <c r="B49" s="27" t="s">
+        <v>159</v>
+      </c>
+      <c r="C49" s="28" t="s">
+        <v>160</v>
+      </c>
+      <c r="D49" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E49" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F49" s="2" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A50" s="38"/>
+      <c r="B50" s="27"/>
+      <c r="C50" s="28"/>
+      <c r="D50" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E50" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F50" s="2" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A51" s="11"/>
+      <c r="B51" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="C51" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="D51" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="E51" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F51" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A52" s="9"/>
+      <c r="B52" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="C52" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="D52" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="E52" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F52" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A53" s="9"/>
+      <c r="B53" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="C53" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="D53" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E53" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F53" s="2" t="s">
         <v>149</v>
       </c>
-      <c r="C49" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="D49" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E49" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="F49" s="2" t="s">
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A54" s="11"/>
+      <c r="B54" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="C54" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="D54" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E54" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F54" s="2" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A55" s="45"/>
+      <c r="B55" s="27" t="s">
+        <v>153</v>
+      </c>
+      <c r="C55" s="28" t="s">
+        <v>154</v>
+      </c>
+      <c r="D55" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="E55" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="F55" s="2" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A56" s="45"/>
+      <c r="B56" s="27"/>
+      <c r="C56" s="28"/>
+      <c r="D56" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="E56" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F56" s="2" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A57" s="29"/>
+      <c r="B57" s="27" t="s">
+        <v>168</v>
+      </c>
+      <c r="C57" s="33" t="s">
+        <v>169</v>
+      </c>
+      <c r="D57" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="E57" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F57" s="2" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A58" s="30"/>
+      <c r="B58" s="27"/>
+      <c r="C58" s="34"/>
+      <c r="D58" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="E58" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F58" s="1" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A59" s="35"/>
+      <c r="B59" s="27" t="s">
+        <v>174</v>
+      </c>
+      <c r="C59" s="33" t="s">
+        <v>172</v>
+      </c>
+      <c r="D59" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="E59" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F59" s="2" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A60" s="36"/>
+      <c r="B60" s="27"/>
+      <c r="C60" s="34"/>
+      <c r="D60" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="E60" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F60" s="1" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A61" s="29"/>
+      <c r="B61" s="31" t="s">
+        <v>164</v>
+      </c>
+      <c r="C61" s="33" t="s">
+        <v>165</v>
+      </c>
+      <c r="D61" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="E61" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F61" s="2" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A62" s="30"/>
+      <c r="B62" s="32"/>
+      <c r="C62" s="34"/>
+      <c r="D62" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E62" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F62" s="2" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A63" s="22"/>
+      <c r="B63" s="19" t="s">
+        <v>175</v>
+      </c>
+      <c r="C63" s="20" t="s">
+        <v>176</v>
+      </c>
+      <c r="D63" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="E63" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F63" s="2" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A64" s="17"/>
+      <c r="B64" s="16" t="s">
+        <v>162</v>
+      </c>
+      <c r="C64" s="15" t="s">
+        <v>163</v>
+      </c>
+      <c r="D64" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E64" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F64" s="2" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A65" s="44"/>
+      <c r="B65" s="27" t="s">
         <v>150</v>
       </c>
-    </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A50" s="11"/>
-      <c r="B50" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="C50" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="D50" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="E50" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="F50" s="2" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A51" s="25"/>
-      <c r="B51" s="26" t="s">
-        <v>154</v>
-      </c>
-      <c r="C51" s="23" t="s">
+      <c r="C65" s="28" t="s">
+        <v>151</v>
+      </c>
+      <c r="D65" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E65" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F65" s="2" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A66" s="44"/>
+      <c r="B66" s="27"/>
+      <c r="C66" s="28"/>
+      <c r="D66" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E66" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F66" s="2" t="s">
         <v>155</v>
       </c>
-      <c r="D51" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="E51" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="F51" s="2" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A52" s="25"/>
-      <c r="B52" s="26"/>
-      <c r="C52" s="23"/>
-      <c r="D52" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="E52" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="F52" s="2" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="53" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A53" s="27"/>
-      <c r="B53" s="26" t="s">
-        <v>169</v>
-      </c>
-      <c r="C53" s="31" t="s">
-        <v>170</v>
-      </c>
-      <c r="D53" s="21" t="s">
-        <v>18</v>
-      </c>
-      <c r="E53" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="F53" s="2" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A54" s="28"/>
-      <c r="B54" s="26"/>
-      <c r="C54" s="32"/>
-      <c r="D54" s="21" t="s">
-        <v>18</v>
-      </c>
-      <c r="E54" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="F54" s="1" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A55" s="33"/>
-      <c r="B55" s="26" t="s">
-        <v>175</v>
-      </c>
-      <c r="C55" s="31" t="s">
-        <v>173</v>
-      </c>
-      <c r="D55" s="21" t="s">
-        <v>18</v>
-      </c>
-      <c r="E55" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="F55" s="2" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="56" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A56" s="34"/>
-      <c r="B56" s="26"/>
-      <c r="C56" s="32"/>
-      <c r="D56" s="21" t="s">
-        <v>18</v>
-      </c>
-      <c r="E56" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="F56" s="1" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A57" s="27"/>
-      <c r="B57" s="29" t="s">
-        <v>165</v>
-      </c>
-      <c r="C57" s="31" t="s">
-        <v>166</v>
-      </c>
-      <c r="D57" s="18" t="s">
-        <v>18</v>
-      </c>
-      <c r="E57" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="F57" s="2" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A58" s="28"/>
-      <c r="B58" s="30"/>
-      <c r="C58" s="32"/>
-      <c r="D58" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E58" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="F58" s="2" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A59" s="22"/>
-      <c r="B59" s="19" t="s">
-        <v>176</v>
-      </c>
-      <c r="C59" s="20" t="s">
-        <v>177</v>
-      </c>
-      <c r="D59" s="2" t="s">
-        <v>178</v>
-      </c>
-      <c r="E59" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="F59" s="2" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A60" s="17"/>
-      <c r="B60" s="16" t="s">
-        <v>163</v>
-      </c>
-      <c r="C60" s="15" t="s">
-        <v>164</v>
-      </c>
-      <c r="D60" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E60" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="F60" s="2" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A61" s="36"/>
-      <c r="B61" s="26" t="s">
-        <v>151</v>
-      </c>
-      <c r="C61" s="23" t="s">
-        <v>152</v>
-      </c>
-      <c r="D61" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E61" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="F61" s="2" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A62" s="36"/>
-      <c r="B62" s="26"/>
-      <c r="C62" s="23"/>
-      <c r="D62" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E62" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="F62" s="2" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A63" s="24" t="s">
-        <v>32</v>
-      </c>
-      <c r="B63" s="24"/>
-      <c r="C63" s="24"/>
-      <c r="D63" s="24"/>
-      <c r="E63" s="24"/>
-      <c r="F63" s="24"/>
-    </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A64" s="2"/>
-      <c r="B64" s="2"/>
-      <c r="C64" s="2"/>
-      <c r="D64" s="2"/>
-      <c r="E64" s="2"/>
-      <c r="F64" s="2"/>
-    </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A65" s="24" t="s">
-        <v>67</v>
-      </c>
-      <c r="B65" s="24"/>
-      <c r="C65" s="24"/>
-      <c r="D65" s="24"/>
-      <c r="E65" s="24"/>
-      <c r="F65" s="24"/>
-    </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A66" s="2"/>
-      <c r="B66" s="26" t="s">
-        <v>68</v>
-      </c>
-      <c r="C66" s="23" t="s">
-        <v>65</v>
-      </c>
-      <c r="D66" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E66" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="F66" s="2" t="s">
-        <v>71</v>
-      </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A67" s="2"/>
-      <c r="B67" s="26"/>
-      <c r="C67" s="23"/>
-      <c r="D67" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E67" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="F67" s="2" t="s">
+      <c r="A67" s="37" t="s">
         <v>66</v>
       </c>
+      <c r="B67" s="37"/>
+      <c r="C67" s="37"/>
+      <c r="D67" s="37"/>
+      <c r="E67" s="37"/>
+      <c r="F67" s="37"/>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A68" s="2"/>
-      <c r="B68" s="26" t="s">
-        <v>69</v>
-      </c>
-      <c r="C68" s="23" t="s">
+      <c r="B68" s="27" t="s">
+        <v>67</v>
+      </c>
+      <c r="C68" s="28" t="s">
+        <v>64</v>
+      </c>
+      <c r="D68" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E68" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F68" s="2" t="s">
         <v>70</v>
-      </c>
-      <c r="D68" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E68" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="F68" s="2" t="s">
-        <v>71</v>
       </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A69" s="2"/>
-      <c r="B69" s="26"/>
-      <c r="C69" s="23"/>
+      <c r="B69" s="27"/>
+      <c r="C69" s="28"/>
       <c r="D69" s="2" t="s">
         <v>18</v>
       </c>
@@ -2399,350 +2485,387 @@
         <v>4</v>
       </c>
       <c r="F69" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A70" s="2"/>
-      <c r="B70" s="14" t="s">
-        <v>83</v>
-      </c>
-      <c r="C70" s="15" t="s">
-        <v>84</v>
+      <c r="B70" s="27" t="s">
+        <v>68</v>
+      </c>
+      <c r="C70" s="28" t="s">
+        <v>69</v>
       </c>
       <c r="D70" s="2" t="s">
         <v>18</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>81</v>
+        <v>18</v>
       </c>
       <c r="F70" s="2" t="s">
-        <v>85</v>
+        <v>70</v>
       </c>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A71" s="2"/>
-      <c r="B71" s="14" t="s">
-        <v>79</v>
-      </c>
-      <c r="C71" s="15" t="s">
-        <v>80</v>
-      </c>
+      <c r="B71" s="27"/>
+      <c r="C71" s="28"/>
       <c r="D71" s="2" t="s">
         <v>18</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>81</v>
+        <v>4</v>
       </c>
       <c r="F71" s="2" t="s">
-        <v>82</v>
+        <v>65</v>
       </c>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A72" s="2"/>
-      <c r="B72" s="26" t="s">
-        <v>87</v>
-      </c>
-      <c r="C72" s="23" t="s">
-        <v>86</v>
+      <c r="B72" s="14" t="s">
+        <v>82</v>
+      </c>
+      <c r="C72" s="15" t="s">
+        <v>83</v>
       </c>
       <c r="D72" s="2" t="s">
         <v>18</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="F72" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A73" s="2"/>
-      <c r="B73" s="26"/>
-      <c r="C73" s="23"/>
+      <c r="B73" s="14" t="s">
+        <v>78</v>
+      </c>
+      <c r="C73" s="15" t="s">
+        <v>79</v>
+      </c>
       <c r="D73" s="2" t="s">
         <v>18</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="F73" s="2" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A74" s="2"/>
-      <c r="B74" s="26" t="s">
-        <v>90</v>
-      </c>
-      <c r="C74" s="23" t="s">
-        <v>91</v>
+      <c r="B74" s="27" t="s">
+        <v>86</v>
+      </c>
+      <c r="C74" s="28" t="s">
+        <v>85</v>
       </c>
       <c r="D74" s="2" t="s">
         <v>18</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="F74" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A75" s="2"/>
-      <c r="B75" s="26"/>
-      <c r="C75" s="23"/>
+      <c r="B75" s="27"/>
+      <c r="C75" s="28"/>
       <c r="D75" s="2" t="s">
         <v>18</v>
       </c>
       <c r="E75" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="F75" s="2" t="s">
         <v>88</v>
-      </c>
-      <c r="F75" s="2" t="s">
-        <v>89</v>
       </c>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A76" s="2"/>
-      <c r="B76" s="14"/>
-      <c r="C76" s="15"/>
-      <c r="D76" s="2"/>
-      <c r="E76" s="2"/>
-      <c r="F76" s="2"/>
+      <c r="B76" s="27" t="s">
+        <v>89</v>
+      </c>
+      <c r="C76" s="28" t="s">
+        <v>90</v>
+      </c>
+      <c r="D76" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E76" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="F76" s="2" t="s">
+        <v>84</v>
+      </c>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A77" s="24" t="s">
-        <v>92</v>
-      </c>
-      <c r="B77" s="24"/>
-      <c r="C77" s="24"/>
-      <c r="D77" s="24"/>
-      <c r="E77" s="24"/>
-      <c r="F77" s="24"/>
+      <c r="A77" s="2"/>
+      <c r="B77" s="27"/>
+      <c r="C77" s="28"/>
+      <c r="D77" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E77" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="F77" s="2" t="s">
+        <v>88</v>
+      </c>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A78" s="2"/>
-      <c r="B78" s="5" t="s">
+      <c r="B78" s="14"/>
+      <c r="C78" s="15"/>
+      <c r="D78" s="2"/>
+      <c r="E78" s="2"/>
+      <c r="F78" s="2"/>
+    </row>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A79" s="37" t="s">
+        <v>91</v>
+      </c>
+      <c r="B79" s="37"/>
+      <c r="C79" s="37"/>
+      <c r="D79" s="37"/>
+      <c r="E79" s="37"/>
+      <c r="F79" s="37"/>
+    </row>
+    <row r="80" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A80" s="2"/>
+      <c r="B80" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="C80" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="D80" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="C78" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="D78" s="4" t="s">
-        <v>95</v>
-      </c>
-      <c r="E78" s="4" t="s">
-        <v>95</v>
-      </c>
-      <c r="F78" s="4"/>
-    </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A79" s="2"/>
-      <c r="B79" s="5" t="s">
-        <v>97</v>
-      </c>
-      <c r="C79" s="3" t="s">
-        <v>96</v>
-      </c>
-      <c r="D79" s="4" t="s">
-        <v>95</v>
-      </c>
-      <c r="E79" s="4" t="s">
-        <v>95</v>
-      </c>
-      <c r="F79" s="12" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A80" s="24" t="s">
-        <v>33</v>
-      </c>
-      <c r="B80" s="24"/>
-      <c r="C80" s="24"/>
-      <c r="D80" s="24"/>
-      <c r="E80" s="24"/>
-      <c r="F80" s="24"/>
+      <c r="E80" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="F80" s="4"/>
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A81" s="2"/>
-      <c r="B81" s="2" t="s">
+      <c r="B81" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="C81" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="D81" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="E81" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="F81" s="12" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A82" s="37" t="s">
+        <v>32</v>
+      </c>
+      <c r="B82" s="37"/>
+      <c r="C82" s="37"/>
+      <c r="D82" s="37"/>
+      <c r="E82" s="37"/>
+      <c r="F82" s="37"/>
+    </row>
+    <row r="83" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A83" s="2"/>
+      <c r="B83" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="C81" s="1" t="s">
+      <c r="D83" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="D81" s="2" t="s">
+      <c r="E83" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="E81" s="2" t="s">
+      <c r="F83" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="F81" s="2" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A82" s="2"/>
-      <c r="B82" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="C82" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="D82" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="E82" s="2"/>
-      <c r="F82" s="2"/>
-    </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A83" s="24" t="s">
-        <v>34</v>
-      </c>
-      <c r="B83" s="24"/>
-      <c r="C83" s="24"/>
-      <c r="D83" s="24"/>
-      <c r="E83" s="24"/>
-      <c r="F83" s="24"/>
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A84" s="2"/>
-      <c r="B84" s="2"/>
-      <c r="C84" s="2"/>
-      <c r="D84" s="2"/>
+      <c r="B84" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="C84" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="D84" s="2" t="s">
+        <v>73</v>
+      </c>
       <c r="E84" s="2"/>
       <c r="F84" s="2"/>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A85" s="24" t="s">
-        <v>35</v>
-      </c>
-      <c r="B85" s="24"/>
-      <c r="C85" s="24"/>
-      <c r="D85" s="24"/>
-      <c r="E85" s="24"/>
-      <c r="F85" s="24"/>
+      <c r="A85" s="37" t="s">
+        <v>33</v>
+      </c>
+      <c r="B85" s="37"/>
+      <c r="C85" s="37"/>
+      <c r="D85" s="37"/>
+      <c r="E85" s="37"/>
+      <c r="F85" s="37"/>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A86" s="2"/>
-      <c r="B86" s="26" t="s">
-        <v>113</v>
-      </c>
-      <c r="C86" s="23" t="s">
-        <v>114</v>
-      </c>
-      <c r="D86" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="E86" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="F86" s="2" t="s">
-        <v>115</v>
-      </c>
+      <c r="B86" s="2"/>
+      <c r="C86" s="2"/>
+      <c r="D86" s="2"/>
+      <c r="E86" s="2"/>
+      <c r="F86" s="2"/>
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A87" s="2"/>
-      <c r="B87" s="26"/>
-      <c r="C87" s="26"/>
-      <c r="D87" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="E87" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="F87" s="2" t="s">
-        <v>116</v>
-      </c>
+      <c r="A87" s="37" t="s">
+        <v>34</v>
+      </c>
+      <c r="B87" s="37"/>
+      <c r="C87" s="37"/>
+      <c r="D87" s="37"/>
+      <c r="E87" s="37"/>
+      <c r="F87" s="37"/>
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A88" s="2"/>
-      <c r="B88" s="2" t="s">
+      <c r="B88" s="27" t="s">
+        <v>112</v>
+      </c>
+      <c r="C88" s="28" t="s">
+        <v>113</v>
+      </c>
+      <c r="D88" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="C88" s="15" t="s">
-        <v>117</v>
-      </c>
-      <c r="D88" s="2" t="s">
-        <v>18</v>
-      </c>
       <c r="E88" s="2" t="s">
-        <v>43</v>
+        <v>118</v>
       </c>
       <c r="F88" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A89" s="2"/>
-      <c r="B89" s="26" t="s">
-        <v>120</v>
-      </c>
-      <c r="C89" s="23" t="s">
-        <v>121</v>
-      </c>
+      <c r="B89" s="27"/>
+      <c r="C89" s="27"/>
       <c r="D89" s="2" t="s">
-        <v>54</v>
+        <v>118</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>43</v>
+        <v>4</v>
       </c>
       <c r="F89" s="2" t="s">
-        <v>122</v>
+        <v>115</v>
       </c>
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A90" s="2"/>
-      <c r="B90" s="26"/>
-      <c r="C90" s="23"/>
+      <c r="B90" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="C90" s="15" t="s">
+        <v>116</v>
+      </c>
       <c r="D90" s="2" t="s">
         <v>18</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="F90" s="13" t="s">
-        <v>123</v>
+        <v>42</v>
+      </c>
+      <c r="F90" s="2" t="s">
+        <v>114</v>
       </c>
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A91" s="24" t="s">
-        <v>36</v>
-      </c>
-      <c r="B91" s="24"/>
-      <c r="C91" s="24"/>
-      <c r="D91" s="24"/>
-      <c r="E91" s="24"/>
-      <c r="F91" s="24"/>
+      <c r="A91" s="2"/>
+      <c r="B91" s="27" t="s">
+        <v>119</v>
+      </c>
+      <c r="C91" s="28" t="s">
+        <v>120</v>
+      </c>
+      <c r="D91" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="E91" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="F91" s="2" t="s">
+        <v>121</v>
+      </c>
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A92" s="2"/>
-      <c r="B92" s="2"/>
-      <c r="C92" s="2"/>
-      <c r="D92" s="2"/>
-      <c r="E92" s="2"/>
-      <c r="F92" s="2"/>
+      <c r="B92" s="27"/>
+      <c r="C92" s="28"/>
+      <c r="D92" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E92" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="F92" s="13" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A93" s="37" t="s">
+        <v>35</v>
+      </c>
+      <c r="B93" s="37"/>
+      <c r="C93" s="37"/>
+      <c r="D93" s="37"/>
+      <c r="E93" s="37"/>
+      <c r="F93" s="37"/>
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="F94" t="s">
-        <v>157</v>
+      <c r="A94" s="2"/>
+      <c r="B94" s="2"/>
+      <c r="C94" s="2"/>
+      <c r="D94" s="2"/>
+      <c r="E94" s="2"/>
+      <c r="F94" s="2"/>
+    </row>
+    <row r="96" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="F96" t="s">
+        <v>156</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="51">
+    <mergeCell ref="A42:F42"/>
     <mergeCell ref="A34:A37"/>
     <mergeCell ref="B34:B37"/>
     <mergeCell ref="C34:C37"/>
-    <mergeCell ref="B89:B90"/>
-    <mergeCell ref="C89:C90"/>
-    <mergeCell ref="C74:C75"/>
-    <mergeCell ref="B74:B75"/>
-    <mergeCell ref="A61:A62"/>
-    <mergeCell ref="B61:B62"/>
-    <mergeCell ref="C61:C62"/>
-    <mergeCell ref="A83:F83"/>
+    <mergeCell ref="B91:B92"/>
+    <mergeCell ref="C91:C92"/>
+    <mergeCell ref="C76:C77"/>
+    <mergeCell ref="B76:B77"/>
+    <mergeCell ref="A65:A66"/>
+    <mergeCell ref="B65:B66"/>
+    <mergeCell ref="C65:C66"/>
     <mergeCell ref="A85:F85"/>
+    <mergeCell ref="A87:F87"/>
+    <mergeCell ref="C49:C50"/>
+    <mergeCell ref="A40:F40"/>
+    <mergeCell ref="A82:F82"/>
+    <mergeCell ref="A55:A56"/>
     <mergeCell ref="B28:B29"/>
     <mergeCell ref="C28:C29"/>
     <mergeCell ref="A2:F2"/>
@@ -2751,37 +2874,32 @@
     <mergeCell ref="A21:F21"/>
     <mergeCell ref="A24:F24"/>
     <mergeCell ref="A28:A29"/>
-    <mergeCell ref="A91:F91"/>
-    <mergeCell ref="A40:F40"/>
-    <mergeCell ref="A42:F42"/>
-    <mergeCell ref="A63:F63"/>
-    <mergeCell ref="A65:F65"/>
-    <mergeCell ref="A77:F77"/>
-    <mergeCell ref="B66:B67"/>
-    <mergeCell ref="C66:C67"/>
+    <mergeCell ref="A93:F93"/>
+    <mergeCell ref="A44:F44"/>
+    <mergeCell ref="A46:F46"/>
+    <mergeCell ref="A67:F67"/>
+    <mergeCell ref="A79:F79"/>
     <mergeCell ref="B68:B69"/>
     <mergeCell ref="C68:C69"/>
-    <mergeCell ref="B72:B73"/>
-    <mergeCell ref="C72:C73"/>
-    <mergeCell ref="B86:B87"/>
-    <mergeCell ref="C86:C87"/>
-    <mergeCell ref="A45:A46"/>
-    <mergeCell ref="B45:B46"/>
-    <mergeCell ref="C45:C46"/>
-    <mergeCell ref="A38:F38"/>
-    <mergeCell ref="A80:F80"/>
-    <mergeCell ref="A51:A52"/>
-    <mergeCell ref="B51:B52"/>
-    <mergeCell ref="C51:C52"/>
+    <mergeCell ref="B70:B71"/>
+    <mergeCell ref="C70:C71"/>
+    <mergeCell ref="B74:B75"/>
+    <mergeCell ref="C74:C75"/>
+    <mergeCell ref="B88:B89"/>
+    <mergeCell ref="C88:C89"/>
+    <mergeCell ref="A49:A50"/>
+    <mergeCell ref="B49:B50"/>
+    <mergeCell ref="B55:B56"/>
+    <mergeCell ref="C55:C56"/>
+    <mergeCell ref="A61:A62"/>
+    <mergeCell ref="B61:B62"/>
+    <mergeCell ref="C61:C62"/>
     <mergeCell ref="A57:A58"/>
     <mergeCell ref="B57:B58"/>
     <mergeCell ref="C57:C58"/>
-    <mergeCell ref="A53:A54"/>
-    <mergeCell ref="B53:B54"/>
-    <mergeCell ref="C53:C54"/>
-    <mergeCell ref="A55:A56"/>
-    <mergeCell ref="C55:C56"/>
-    <mergeCell ref="B55:B56"/>
+    <mergeCell ref="A59:A60"/>
+    <mergeCell ref="C59:C60"/>
+    <mergeCell ref="B59:B60"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="C3" r:id="rId1" xr:uid="{3FB3FA06-DE47-4C2D-AFD7-F5FC45E3D126}"/>
@@ -2791,19 +2909,19 @@
     <hyperlink ref="C22" r:id="rId5" xr:uid="{6352E065-8925-49FF-AA82-66ED2F9F8651}"/>
     <hyperlink ref="C16" r:id="rId6" xr:uid="{047C68C0-B7AB-4E77-9D1E-B162BD11A209}"/>
     <hyperlink ref="C17" r:id="rId7" xr:uid="{1ABD0EDA-F48F-4D2F-B13C-180B398F1FCD}"/>
-    <hyperlink ref="C66" r:id="rId8" xr:uid="{35D2A43C-BF1B-4339-9217-7116005F7034}"/>
-    <hyperlink ref="C68" r:id="rId9" xr:uid="{233456E2-1B15-4448-A669-82C381357683}"/>
-    <hyperlink ref="C81" r:id="rId10" xr:uid="{4A724644-7F2B-4DE6-9141-A1802140FB4A}"/>
-    <hyperlink ref="C78" r:id="rId11" xr:uid="{914A5C5A-20B3-4526-A460-020F9852AFDB}"/>
-    <hyperlink ref="C79" r:id="rId12" xr:uid="{0B2D15B8-18BF-46A5-991E-6E53ADC95851}"/>
+    <hyperlink ref="C68" r:id="rId8" xr:uid="{35D2A43C-BF1B-4339-9217-7116005F7034}"/>
+    <hyperlink ref="C70" r:id="rId9" xr:uid="{233456E2-1B15-4448-A669-82C381357683}"/>
+    <hyperlink ref="C83" r:id="rId10" xr:uid="{4A724644-7F2B-4DE6-9141-A1802140FB4A}"/>
+    <hyperlink ref="C80" r:id="rId11" xr:uid="{914A5C5A-20B3-4526-A460-020F9852AFDB}"/>
+    <hyperlink ref="C81" r:id="rId12" xr:uid="{0B2D15B8-18BF-46A5-991E-6E53ADC95851}"/>
     <hyperlink ref="C25" r:id="rId13" xr:uid="{93A177B9-936F-4ED5-9F32-EB31F0D8F614}"/>
-    <hyperlink ref="C86" r:id="rId14" xr:uid="{9CD2E86C-B1BA-4CC3-9E52-ECA767380715}"/>
-    <hyperlink ref="C88" r:id="rId15" xr:uid="{30EBB8AD-10BE-47B9-BF85-DBCCCE948784}"/>
-    <hyperlink ref="F90" r:id="rId16" xr:uid="{080A2B1B-6640-47F1-9DAB-1F0914BD9938}"/>
-    <hyperlink ref="C43" r:id="rId17" xr:uid="{DD8AB0F8-5B5E-4F6E-A0B4-339B324BDAC3}"/>
+    <hyperlink ref="C88" r:id="rId14" xr:uid="{9CD2E86C-B1BA-4CC3-9E52-ECA767380715}"/>
+    <hyperlink ref="C90" r:id="rId15" xr:uid="{30EBB8AD-10BE-47B9-BF85-DBCCCE948784}"/>
+    <hyperlink ref="F92" r:id="rId16" xr:uid="{080A2B1B-6640-47F1-9DAB-1F0914BD9938}"/>
+    <hyperlink ref="C47" r:id="rId17" xr:uid="{DD8AB0F8-5B5E-4F6E-A0B4-339B324BDAC3}"/>
     <hyperlink ref="C33" r:id="rId18" xr:uid="{43B67C49-DC70-412F-B095-E684E07FF196}"/>
-    <hyperlink ref="C53" r:id="rId19" xr:uid="{7FDCAB78-56F5-40D3-8A09-8A8A0E54E05D}"/>
-    <hyperlink ref="F54" r:id="rId20" xr:uid="{F7F3C873-8E94-4212-B22A-52BF75A478D8}"/>
+    <hyperlink ref="C57" r:id="rId19" xr:uid="{7FDCAB78-56F5-40D3-8A09-8A8A0E54E05D}"/>
+    <hyperlink ref="F58" r:id="rId20" xr:uid="{F7F3C873-8E94-4212-B22A-52BF75A478D8}"/>
     <hyperlink ref="C28" r:id="rId21" xr:uid="{F6C15430-DBA9-4DAD-A411-65B1524C625E}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/SDE Sheet.xlsx
+++ b/SDE Sheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Src Code\Personal\SDE-Sheet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ECE37B20-1C8D-48E2-9E65-C6BE23B77785}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8932E6DF-504B-44E9-ABBB-4FA0C4CF943E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{83934561-A72F-4836-B1E7-4EE8C35F9874}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="332" uniqueCount="197">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="349" uniqueCount="205">
   <si>
     <t>Matrix</t>
   </si>
@@ -744,6 +744,30 @@
   </si>
   <si>
     <t>Nice problem to understand DP</t>
+  </si>
+  <si>
+    <t>K Sum</t>
+  </si>
+  <si>
+    <t>Pending</t>
+  </si>
+  <si>
+    <t>Longest Consecutive Sequence</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/longest-consecutive-sequence/</t>
+  </si>
+  <si>
+    <t>Unordered Set</t>
+  </si>
+  <si>
+    <t>Subarray with given XOR K</t>
+  </si>
+  <si>
+    <t>https://www.interviewbit.com/problems/subarray-with-given-xor/</t>
+  </si>
+  <si>
+    <t>Unordered map and properties of XOR</t>
   </si>
 </sst>
 </file>
@@ -975,7 +999,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="49">
+  <cellXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -1031,29 +1055,71 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1061,42 +1127,7 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1412,9 +1443,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D3EBAEE5-B4E7-4BD5-B694-FD6EEA5E8AC0}">
-  <dimension ref="A1:F96"/>
+  <dimension ref="A1:F99"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="82" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="82" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="F41" sqref="F41"/>
     </sheetView>
@@ -1449,14 +1480,14 @@
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A2" s="37" t="s">
+      <c r="A2" s="44" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="37"/>
-      <c r="C2" s="37"/>
-      <c r="D2" s="37"/>
-      <c r="E2" s="37"/>
-      <c r="F2" s="37"/>
+      <c r="B2" s="44"/>
+      <c r="C2" s="44"/>
+      <c r="D2" s="44"/>
+      <c r="E2" s="44"/>
+      <c r="F2" s="44"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A3" s="2"/>
@@ -1521,14 +1552,14 @@
       <c r="F6" s="2"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A7" s="37" t="s">
+      <c r="A7" s="44" t="s">
         <v>15</v>
       </c>
-      <c r="B7" s="37"/>
-      <c r="C7" s="37"/>
-      <c r="D7" s="37"/>
-      <c r="E7" s="37"/>
-      <c r="F7" s="37"/>
+      <c r="B7" s="44"/>
+      <c r="C7" s="44"/>
+      <c r="D7" s="44"/>
+      <c r="E7" s="44"/>
+      <c r="F7" s="44"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A8" s="2"/>
@@ -1639,14 +1670,14 @@
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A14" s="37" t="s">
+      <c r="A14" s="44" t="s">
         <v>22</v>
       </c>
-      <c r="B14" s="37"/>
-      <c r="C14" s="37"/>
-      <c r="D14" s="37"/>
-      <c r="E14" s="37"/>
-      <c r="F14" s="37"/>
+      <c r="B14" s="44"/>
+      <c r="C14" s="44"/>
+      <c r="D14" s="44"/>
+      <c r="E14" s="44"/>
+      <c r="F14" s="44"/>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A15" s="2"/>
@@ -1755,14 +1786,14 @@
       <c r="F20" s="2"/>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A21" s="37" t="s">
+      <c r="A21" s="44" t="s">
         <v>23</v>
       </c>
-      <c r="B21" s="37"/>
-      <c r="C21" s="37"/>
-      <c r="D21" s="37"/>
-      <c r="E21" s="37"/>
-      <c r="F21" s="37"/>
+      <c r="B21" s="44"/>
+      <c r="C21" s="44"/>
+      <c r="D21" s="44"/>
+      <c r="E21" s="44"/>
+      <c r="F21" s="44"/>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A22" s="2"/>
@@ -1791,14 +1822,14 @@
       <c r="F23" s="2"/>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A24" s="37" t="s">
+      <c r="A24" s="44" t="s">
         <v>98</v>
       </c>
-      <c r="B24" s="37"/>
-      <c r="C24" s="37"/>
-      <c r="D24" s="37"/>
-      <c r="E24" s="37"/>
-      <c r="F24" s="37"/>
+      <c r="B24" s="44"/>
+      <c r="C24" s="44"/>
+      <c r="D24" s="44"/>
+      <c r="E24" s="44"/>
+      <c r="F24" s="44"/>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A25" s="9"/>
@@ -1855,11 +1886,11 @@
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A28" s="29"/>
-      <c r="B28" s="27" t="s">
+      <c r="A28" s="46"/>
+      <c r="B28" s="41" t="s">
         <v>107</v>
       </c>
-      <c r="C28" s="28" t="s">
+      <c r="C28" s="42" t="s">
         <v>108</v>
       </c>
       <c r="D28" s="2" t="s">
@@ -1873,9 +1904,9 @@
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A29" s="30"/>
-      <c r="B29" s="27"/>
-      <c r="C29" s="28"/>
+      <c r="A29" s="47"/>
+      <c r="B29" s="41"/>
+      <c r="C29" s="42"/>
       <c r="D29" s="2" t="s">
         <v>100</v>
       </c>
@@ -1912,282 +1943,290 @@
       </c>
       <c r="D31" s="2"/>
       <c r="E31" s="2"/>
-      <c r="F31" s="2"/>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A32" s="10"/>
+      <c r="F31" s="51" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A32" s="9"/>
       <c r="B32" s="2" t="s">
         <v>183</v>
       </c>
       <c r="C32" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="D32" s="2"/>
-      <c r="E32" s="2"/>
-      <c r="F32" s="2"/>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A33" s="9"/>
+      <c r="D32" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="E32" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="F32" s="2" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A33" s="10"/>
       <c r="B33" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="D33" s="2"/>
+      <c r="E33" s="2"/>
+      <c r="F33" s="51" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A34" s="9"/>
+      <c r="B34" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="C33" s="1" t="s">
+      <c r="C34" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="D33" s="2" t="s">
+      <c r="D34" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E33" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="F33" s="2" t="s">
+      <c r="E34" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F34" s="2" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="34" spans="1:6" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A34" s="39"/>
-      <c r="B34" s="31" t="s">
+    <row r="35" spans="1:6" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A35" s="32"/>
+      <c r="B35" s="35" t="s">
         <v>184</v>
       </c>
-      <c r="C34" s="33" t="s">
+      <c r="C35" s="38" t="s">
         <v>185</v>
       </c>
-      <c r="D34" s="2" t="s">
+      <c r="D35" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="E34" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="F34" s="2" t="s">
+      <c r="E35" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F35" s="2" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A35" s="40"/>
-      <c r="B35" s="42"/>
-      <c r="C35" s="43"/>
-      <c r="D35" s="2" t="s">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A36" s="33"/>
+      <c r="B36" s="36"/>
+      <c r="C36" s="39"/>
+      <c r="D36" s="2" t="s">
         <v>187</v>
       </c>
-      <c r="E35" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="F35" s="2" t="s">
+      <c r="E36" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F36" s="2" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A36" s="40"/>
-      <c r="B36" s="42"/>
-      <c r="C36" s="43"/>
-      <c r="D36" s="2" t="s">
-        <v>188</v>
-      </c>
-      <c r="E36" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="F36" s="2" t="s">
-        <v>29</v>
-      </c>
-    </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A37" s="41"/>
-      <c r="B37" s="32"/>
-      <c r="C37" s="34"/>
+      <c r="A37" s="33"/>
+      <c r="B37" s="36"/>
+      <c r="C37" s="39"/>
       <c r="D37" s="2" t="s">
         <v>188</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>4</v>
+        <v>18</v>
       </c>
       <c r="F37" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A38" s="34"/>
+      <c r="B38" s="37"/>
+      <c r="C38" s="40"/>
+      <c r="D38" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="E38" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F38" s="2" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A38" s="23"/>
-      <c r="B38" s="2" t="s">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A39" s="23"/>
+      <c r="B39" s="2" t="s">
         <v>189</v>
       </c>
-      <c r="C38" s="24" t="s">
+      <c r="C39" s="24" t="s">
         <v>190</v>
       </c>
-      <c r="D38" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E38" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="F38" s="2" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A39" s="25"/>
-      <c r="B39" s="2" t="s">
-        <v>191</v>
-      </c>
-      <c r="C39" s="24" t="s">
-        <v>192</v>
-      </c>
       <c r="D39" s="2" t="s">
         <v>18</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>4</v>
+        <v>18</v>
       </c>
       <c r="F39" s="2" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A40" s="37" t="s">
+      <c r="A40" s="28"/>
+      <c r="B40" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="C40" s="27" t="s">
+        <v>200</v>
+      </c>
+      <c r="D40" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E40" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F40" s="2" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A41" s="28"/>
+      <c r="B41" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="C41" s="27" t="s">
+        <v>203</v>
+      </c>
+      <c r="D41" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E41" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F41" s="2" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A42" s="25"/>
+      <c r="B42" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="C42" s="24" t="s">
+        <v>192</v>
+      </c>
+      <c r="D42" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E42" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F42" s="2" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A43" s="44" t="s">
         <v>193</v>
       </c>
-      <c r="B40" s="37"/>
-      <c r="C40" s="37"/>
-      <c r="D40" s="37"/>
-      <c r="E40" s="37"/>
-      <c r="F40" s="37"/>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A41" s="9"/>
-      <c r="B41" s="2" t="s">
+      <c r="B43" s="44"/>
+      <c r="C43" s="44"/>
+      <c r="D43" s="44"/>
+      <c r="E43" s="44"/>
+      <c r="F43" s="44"/>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A44" s="9"/>
+      <c r="B44" s="2" t="s">
         <v>194</v>
       </c>
-      <c r="C41" s="2" t="s">
+      <c r="C44" s="2" t="s">
         <v>195</v>
       </c>
-      <c r="D41" s="2"/>
-      <c r="E41" s="2"/>
-      <c r="F41" s="2" t="s">
+      <c r="D44" s="2"/>
+      <c r="E44" s="2"/>
+      <c r="F44" s="2" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A42" s="46" t="s">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A45" s="29" t="s">
         <v>29</v>
       </c>
-      <c r="B42" s="47"/>
-      <c r="C42" s="47"/>
-      <c r="D42" s="47"/>
-      <c r="E42" s="47"/>
-      <c r="F42" s="48"/>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A43" s="2"/>
-      <c r="B43" s="2"/>
-      <c r="C43" s="2"/>
-      <c r="D43" s="2"/>
-      <c r="E43" s="2"/>
-      <c r="F43" s="2"/>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A44" s="37" t="s">
+      <c r="B45" s="30"/>
+      <c r="C45" s="30"/>
+      <c r="D45" s="30"/>
+      <c r="E45" s="30"/>
+      <c r="F45" s="31"/>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A46" s="2"/>
+      <c r="B46" s="2"/>
+      <c r="C46" s="2"/>
+      <c r="D46" s="2"/>
+      <c r="E46" s="2"/>
+      <c r="F46" s="2"/>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A47" s="44" t="s">
         <v>30</v>
       </c>
-      <c r="B44" s="37"/>
-      <c r="C44" s="37"/>
-      <c r="D44" s="37"/>
-      <c r="E44" s="37"/>
-      <c r="F44" s="37"/>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A45" s="2"/>
-      <c r="B45" s="2"/>
-      <c r="C45" s="2"/>
-      <c r="D45" s="2"/>
-      <c r="E45" s="2"/>
-      <c r="F45" s="2"/>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A46" s="37" t="s">
+      <c r="B47" s="44"/>
+      <c r="C47" s="44"/>
+      <c r="D47" s="44"/>
+      <c r="E47" s="44"/>
+      <c r="F47" s="44"/>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A48" s="2"/>
+      <c r="B48" s="2"/>
+      <c r="C48" s="2"/>
+      <c r="D48" s="2"/>
+      <c r="E48" s="2"/>
+      <c r="F48" s="2"/>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A49" s="44" t="s">
         <v>31</v>
       </c>
-      <c r="B46" s="37"/>
-      <c r="C46" s="37"/>
-      <c r="D46" s="37"/>
-      <c r="E46" s="37"/>
-      <c r="F46" s="37"/>
-    </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A47" s="11"/>
-      <c r="B47" s="2" t="s">
+      <c r="B49" s="44"/>
+      <c r="C49" s="44"/>
+      <c r="D49" s="44"/>
+      <c r="E49" s="44"/>
+      <c r="F49" s="44"/>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A50" s="11"/>
+      <c r="B50" s="2" t="s">
         <v>135</v>
       </c>
-      <c r="C47" s="1" t="s">
+      <c r="C50" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="D47" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E47" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="F47" s="2" t="s">
+      <c r="D50" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E50" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F50" s="2" t="s">
         <v>13</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A48" s="11"/>
-      <c r="B48" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="C48" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="D48" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E48" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="F48" s="2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A49" s="38"/>
-      <c r="B49" s="27" t="s">
-        <v>159</v>
-      </c>
-      <c r="C49" s="28" t="s">
-        <v>160</v>
-      </c>
-      <c r="D49" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E49" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="F49" s="2" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A50" s="38"/>
-      <c r="B50" s="27"/>
-      <c r="C50" s="28"/>
-      <c r="D50" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E50" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="F50" s="2" t="s">
-        <v>161</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A51" s="11"/>
       <c r="B51" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>141</v>
+        <v>18</v>
       </c>
       <c r="E51" s="2" t="s">
         <v>4</v>
@@ -2197,31 +2236,27 @@
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A52" s="9"/>
-      <c r="B52" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="C52" s="1" t="s">
-        <v>146</v>
+      <c r="A52" s="48"/>
+      <c r="B52" s="41" t="s">
+        <v>159</v>
+      </c>
+      <c r="C52" s="42" t="s">
+        <v>160</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>141</v>
+        <v>18</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>4</v>
+        <v>18</v>
       </c>
       <c r="F52" s="2" t="s">
-        <v>13</v>
+        <v>114</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A53" s="9"/>
-      <c r="B53" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="C53" s="1" t="s">
-        <v>147</v>
-      </c>
+      <c r="A53" s="48"/>
+      <c r="B53" s="41"/>
+      <c r="C53" s="42"/>
       <c r="D53" s="2" t="s">
         <v>18</v>
       </c>
@@ -2229,372 +2264,376 @@
         <v>4</v>
       </c>
       <c r="F53" s="2" t="s">
-        <v>149</v>
+        <v>161</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A54" s="11"/>
       <c r="B54" s="2" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>4</v>
+        <v>141</v>
       </c>
       <c r="E54" s="2" t="s">
         <v>4</v>
       </c>
       <c r="F54" s="2" t="s">
-        <v>144</v>
+        <v>13</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A55" s="45"/>
-      <c r="B55" s="27" t="s">
-        <v>153</v>
-      </c>
-      <c r="C55" s="28" t="s">
-        <v>154</v>
+      <c r="A55" s="9"/>
+      <c r="B55" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="C55" s="1" t="s">
+        <v>146</v>
       </c>
       <c r="D55" s="2" t="s">
         <v>141</v>
       </c>
       <c r="E55" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F55" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A56" s="9"/>
+      <c r="B56" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="C56" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="D56" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E56" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F56" s="2" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A57" s="11"/>
+      <c r="B57" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="C57" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="D57" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E57" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F57" s="2" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A58" s="45"/>
+      <c r="B58" s="41" t="s">
+        <v>153</v>
+      </c>
+      <c r="C58" s="42" t="s">
+        <v>154</v>
+      </c>
+      <c r="D58" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="E58" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="F55" s="2" t="s">
+      <c r="F58" s="2" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A56" s="45"/>
-      <c r="B56" s="27"/>
-      <c r="C56" s="28"/>
-      <c r="D56" s="2" t="s">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A59" s="45"/>
+      <c r="B59" s="41"/>
+      <c r="C59" s="42"/>
+      <c r="D59" s="2" t="s">
         <v>141</v>
       </c>
-      <c r="E56" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="F56" s="2" t="s">
+      <c r="E59" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F59" s="2" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="57" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A57" s="29"/>
-      <c r="B57" s="27" t="s">
+    <row r="60" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A60" s="46"/>
+      <c r="B60" s="41" t="s">
         <v>168</v>
       </c>
-      <c r="C57" s="33" t="s">
+      <c r="C60" s="38" t="s">
         <v>169</v>
       </c>
-      <c r="D57" s="21" t="s">
-        <v>18</v>
-      </c>
-      <c r="E57" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="F57" s="2" t="s">
+      <c r="D60" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="E60" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F60" s="2" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="58" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A58" s="30"/>
-      <c r="B58" s="27"/>
-      <c r="C58" s="34"/>
-      <c r="D58" s="21" t="s">
-        <v>18</v>
-      </c>
-      <c r="E58" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="F58" s="1" t="s">
+    <row r="61" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A61" s="47"/>
+      <c r="B61" s="41"/>
+      <c r="C61" s="40"/>
+      <c r="D61" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="E61" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F61" s="1" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="59" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A59" s="35"/>
-      <c r="B59" s="27" t="s">
+    <row r="62" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A62" s="49"/>
+      <c r="B62" s="41" t="s">
         <v>174</v>
       </c>
-      <c r="C59" s="33" t="s">
+      <c r="C62" s="38" t="s">
         <v>172</v>
       </c>
-      <c r="D59" s="21" t="s">
-        <v>18</v>
-      </c>
-      <c r="E59" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="F59" s="2" t="s">
+      <c r="D62" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="E62" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F62" s="2" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="60" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A60" s="36"/>
-      <c r="B60" s="27"/>
-      <c r="C60" s="34"/>
-      <c r="D60" s="21" t="s">
-        <v>18</v>
-      </c>
-      <c r="E60" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="F60" s="1" t="s">
+    <row r="63" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A63" s="50"/>
+      <c r="B63" s="41"/>
+      <c r="C63" s="40"/>
+      <c r="D63" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="E63" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F63" s="1" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A61" s="29"/>
-      <c r="B61" s="31" t="s">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A64" s="46"/>
+      <c r="B64" s="35" t="s">
         <v>164</v>
       </c>
-      <c r="C61" s="33" t="s">
+      <c r="C64" s="38" t="s">
         <v>165</v>
       </c>
-      <c r="D61" s="18" t="s">
-        <v>18</v>
-      </c>
-      <c r="E61" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="F61" s="2" t="s">
+      <c r="D64" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="E64" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F64" s="2" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A62" s="30"/>
-      <c r="B62" s="32"/>
-      <c r="C62" s="34"/>
-      <c r="D62" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E62" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="F62" s="2" t="s">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A65" s="47"/>
+      <c r="B65" s="37"/>
+      <c r="C65" s="40"/>
+      <c r="D65" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E65" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F65" s="2" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A63" s="22"/>
-      <c r="B63" s="19" t="s">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A66" s="22"/>
+      <c r="B66" s="19" t="s">
         <v>175</v>
       </c>
-      <c r="C63" s="20" t="s">
+      <c r="C66" s="20" t="s">
         <v>176</v>
       </c>
-      <c r="D63" s="2" t="s">
+      <c r="D66" s="2" t="s">
         <v>177</v>
       </c>
-      <c r="E63" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="F63" s="2" t="s">
+      <c r="E66" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F66" s="2" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A64" s="17"/>
-      <c r="B64" s="16" t="s">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A67" s="17"/>
+      <c r="B67" s="16" t="s">
         <v>162</v>
       </c>
-      <c r="C64" s="15" t="s">
+      <c r="C67" s="15" t="s">
         <v>163</v>
       </c>
-      <c r="D64" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E64" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="F64" s="2" t="s">
+      <c r="D67" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E67" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F67" s="2" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A65" s="44"/>
-      <c r="B65" s="27" t="s">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A68" s="43"/>
+      <c r="B68" s="41" t="s">
         <v>150</v>
       </c>
-      <c r="C65" s="28" t="s">
+      <c r="C68" s="42" t="s">
         <v>151</v>
       </c>
-      <c r="D65" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E65" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="F65" s="2" t="s">
+      <c r="D68" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E68" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F68" s="2" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A66" s="44"/>
-      <c r="B66" s="27"/>
-      <c r="C66" s="28"/>
-      <c r="D66" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E66" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="F66" s="2" t="s">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A69" s="43"/>
+      <c r="B69" s="41"/>
+      <c r="C69" s="42"/>
+      <c r="D69" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E69" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F69" s="2" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A67" s="37" t="s">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A70" s="44" t="s">
         <v>66</v>
       </c>
-      <c r="B67" s="37"/>
-      <c r="C67" s="37"/>
-      <c r="D67" s="37"/>
-      <c r="E67" s="37"/>
-      <c r="F67" s="37"/>
-    </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A68" s="2"/>
-      <c r="B68" s="27" t="s">
-        <v>67</v>
-      </c>
-      <c r="C68" s="28" t="s">
-        <v>64</v>
-      </c>
-      <c r="D68" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E68" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="F68" s="2" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A69" s="2"/>
-      <c r="B69" s="27"/>
-      <c r="C69" s="28"/>
-      <c r="D69" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E69" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="F69" s="2" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A70" s="2"/>
-      <c r="B70" s="27" t="s">
-        <v>68</v>
-      </c>
-      <c r="C70" s="28" t="s">
-        <v>69</v>
-      </c>
-      <c r="D70" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E70" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="F70" s="2" t="s">
-        <v>70</v>
-      </c>
+      <c r="B70" s="44"/>
+      <c r="C70" s="44"/>
+      <c r="D70" s="44"/>
+      <c r="E70" s="44"/>
+      <c r="F70" s="44"/>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A71" s="2"/>
-      <c r="B71" s="27"/>
-      <c r="C71" s="28"/>
+      <c r="B71" s="41" t="s">
+        <v>67</v>
+      </c>
+      <c r="C71" s="42" t="s">
+        <v>64</v>
+      </c>
       <c r="D71" s="2" t="s">
         <v>18</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>4</v>
+        <v>18</v>
       </c>
       <c r="F71" s="2" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A72" s="2"/>
-      <c r="B72" s="14" t="s">
-        <v>82</v>
-      </c>
-      <c r="C72" s="15" t="s">
-        <v>83</v>
-      </c>
+      <c r="B72" s="41"/>
+      <c r="C72" s="42"/>
       <c r="D72" s="2" t="s">
         <v>18</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>80</v>
+        <v>4</v>
       </c>
       <c r="F72" s="2" t="s">
-        <v>84</v>
+        <v>65</v>
       </c>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A73" s="2"/>
-      <c r="B73" s="14" t="s">
-        <v>78</v>
-      </c>
-      <c r="C73" s="15" t="s">
-        <v>79</v>
+      <c r="B73" s="41" t="s">
+        <v>68</v>
+      </c>
+      <c r="C73" s="42" t="s">
+        <v>69</v>
       </c>
       <c r="D73" s="2" t="s">
         <v>18</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>80</v>
+        <v>18</v>
       </c>
       <c r="F73" s="2" t="s">
-        <v>81</v>
+        <v>70</v>
       </c>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A74" s="2"/>
-      <c r="B74" s="27" t="s">
-        <v>86</v>
-      </c>
-      <c r="C74" s="28" t="s">
-        <v>85</v>
-      </c>
+      <c r="B74" s="41"/>
+      <c r="C74" s="42"/>
       <c r="D74" s="2" t="s">
         <v>18</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>80</v>
+        <v>4</v>
       </c>
       <c r="F74" s="2" t="s">
-        <v>84</v>
+        <v>65</v>
       </c>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A75" s="2"/>
-      <c r="B75" s="27"/>
-      <c r="C75" s="28"/>
+      <c r="B75" s="14" t="s">
+        <v>82</v>
+      </c>
+      <c r="C75" s="15" t="s">
+        <v>83</v>
+      </c>
       <c r="D75" s="2" t="s">
         <v>18</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="F75" s="2" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A76" s="2"/>
-      <c r="B76" s="27" t="s">
-        <v>89</v>
-      </c>
-      <c r="C76" s="28" t="s">
-        <v>90</v>
+      <c r="B76" s="14" t="s">
+        <v>78</v>
+      </c>
+      <c r="C76" s="15" t="s">
+        <v>79</v>
       </c>
       <c r="D76" s="2" t="s">
         <v>18</v>
@@ -2603,269 +2642,328 @@
         <v>80</v>
       </c>
       <c r="F76" s="2" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A77" s="2"/>
-      <c r="B77" s="27"/>
-      <c r="C77" s="28"/>
+      <c r="B77" s="41" t="s">
+        <v>86</v>
+      </c>
+      <c r="C77" s="42" t="s">
+        <v>85</v>
+      </c>
       <c r="D77" s="2" t="s">
         <v>18</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="F77" s="2" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A78" s="2"/>
-      <c r="B78" s="14"/>
-      <c r="C78" s="15"/>
-      <c r="D78" s="2"/>
-      <c r="E78" s="2"/>
-      <c r="F78" s="2"/>
+      <c r="B78" s="41"/>
+      <c r="C78" s="42"/>
+      <c r="D78" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E78" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="F78" s="2" t="s">
+        <v>88</v>
+      </c>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A79" s="37" t="s">
-        <v>91</v>
-      </c>
-      <c r="B79" s="37"/>
-      <c r="C79" s="37"/>
-      <c r="D79" s="37"/>
-      <c r="E79" s="37"/>
-      <c r="F79" s="37"/>
+      <c r="A79" s="2"/>
+      <c r="B79" s="41" t="s">
+        <v>89</v>
+      </c>
+      <c r="C79" s="42" t="s">
+        <v>90</v>
+      </c>
+      <c r="D79" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E79" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="F79" s="2" t="s">
+        <v>84</v>
+      </c>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A80" s="2"/>
-      <c r="B80" s="5" t="s">
-        <v>93</v>
-      </c>
-      <c r="C80" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="D80" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="E80" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="F80" s="4"/>
+      <c r="B80" s="41"/>
+      <c r="C80" s="42"/>
+      <c r="D80" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E80" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="F80" s="2" t="s">
+        <v>88</v>
+      </c>
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A81" s="2"/>
-      <c r="B81" s="5" t="s">
-        <v>96</v>
-      </c>
-      <c r="C81" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="D81" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="E81" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="F81" s="12" t="s">
-        <v>97</v>
-      </c>
+      <c r="B81" s="14"/>
+      <c r="C81" s="15"/>
+      <c r="D81" s="2"/>
+      <c r="E81" s="2"/>
+      <c r="F81" s="2"/>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A82" s="37" t="s">
-        <v>32</v>
-      </c>
-      <c r="B82" s="37"/>
-      <c r="C82" s="37"/>
-      <c r="D82" s="37"/>
-      <c r="E82" s="37"/>
-      <c r="F82" s="37"/>
+      <c r="A82" s="44" t="s">
+        <v>91</v>
+      </c>
+      <c r="B82" s="44"/>
+      <c r="C82" s="44"/>
+      <c r="D82" s="44"/>
+      <c r="E82" s="44"/>
+      <c r="F82" s="44"/>
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A83" s="2"/>
-      <c r="B83" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="C83" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="D83" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="E83" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="F83" s="2" t="s">
-        <v>75</v>
-      </c>
+      <c r="B83" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="C83" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="D83" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="E83" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="F83" s="4"/>
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A84" s="2"/>
-      <c r="B84" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="C84" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="D84" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="E84" s="2"/>
-      <c r="F84" s="2"/>
+      <c r="B84" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="C84" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="D84" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="E84" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="F84" s="12" t="s">
+        <v>97</v>
+      </c>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A85" s="37" t="s">
-        <v>33</v>
-      </c>
-      <c r="B85" s="37"/>
-      <c r="C85" s="37"/>
-      <c r="D85" s="37"/>
-      <c r="E85" s="37"/>
-      <c r="F85" s="37"/>
+      <c r="A85" s="44" t="s">
+        <v>32</v>
+      </c>
+      <c r="B85" s="44"/>
+      <c r="C85" s="44"/>
+      <c r="D85" s="44"/>
+      <c r="E85" s="44"/>
+      <c r="F85" s="44"/>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A86" s="2"/>
-      <c r="B86" s="2"/>
-      <c r="C86" s="2"/>
-      <c r="D86" s="2"/>
-      <c r="E86" s="2"/>
-      <c r="F86" s="2"/>
+      <c r="B86" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="C86" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="D86" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="E86" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="F86" s="2" t="s">
+        <v>75</v>
+      </c>
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A87" s="37" t="s">
-        <v>34</v>
-      </c>
-      <c r="B87" s="37"/>
-      <c r="C87" s="37"/>
-      <c r="D87" s="37"/>
-      <c r="E87" s="37"/>
-      <c r="F87" s="37"/>
+      <c r="A87" s="2"/>
+      <c r="B87" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="C87" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="D87" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="E87" s="2"/>
+      <c r="F87" s="2"/>
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A88" s="2"/>
-      <c r="B88" s="27" t="s">
-        <v>112</v>
-      </c>
-      <c r="C88" s="28" t="s">
-        <v>113</v>
-      </c>
-      <c r="D88" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="E88" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="F88" s="2" t="s">
-        <v>114</v>
-      </c>
+      <c r="A88" s="44" t="s">
+        <v>33</v>
+      </c>
+      <c r="B88" s="44"/>
+      <c r="C88" s="44"/>
+      <c r="D88" s="44"/>
+      <c r="E88" s="44"/>
+      <c r="F88" s="44"/>
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A89" s="2"/>
-      <c r="B89" s="27"/>
-      <c r="C89" s="27"/>
-      <c r="D89" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="E89" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="F89" s="2" t="s">
-        <v>115</v>
-      </c>
+      <c r="B89" s="2"/>
+      <c r="C89" s="2"/>
+      <c r="D89" s="2"/>
+      <c r="E89" s="2"/>
+      <c r="F89" s="2"/>
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A90" s="2"/>
-      <c r="B90" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="C90" s="15" t="s">
-        <v>116</v>
-      </c>
-      <c r="D90" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E90" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="F90" s="2" t="s">
-        <v>114</v>
-      </c>
+      <c r="A90" s="44" t="s">
+        <v>34</v>
+      </c>
+      <c r="B90" s="44"/>
+      <c r="C90" s="44"/>
+      <c r="D90" s="44"/>
+      <c r="E90" s="44"/>
+      <c r="F90" s="44"/>
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A91" s="2"/>
-      <c r="B91" s="27" t="s">
-        <v>119</v>
-      </c>
-      <c r="C91" s="28" t="s">
-        <v>120</v>
+      <c r="B91" s="41" t="s">
+        <v>112</v>
+      </c>
+      <c r="C91" s="42" t="s">
+        <v>113</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>53</v>
+        <v>118</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>42</v>
+        <v>118</v>
       </c>
       <c r="F91" s="2" t="s">
-        <v>121</v>
+        <v>114</v>
       </c>
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A92" s="2"/>
-      <c r="B92" s="27"/>
-      <c r="C92" s="28"/>
+      <c r="B92" s="41"/>
+      <c r="C92" s="41"/>
       <c r="D92" s="2" t="s">
-        <v>18</v>
+        <v>118</v>
       </c>
       <c r="E92" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F92" s="2" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A93" s="2"/>
+      <c r="B93" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="C93" s="15" t="s">
+        <v>116</v>
+      </c>
+      <c r="D93" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E93" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="F92" s="13" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A93" s="37" t="s">
-        <v>35</v>
-      </c>
-      <c r="B93" s="37"/>
-      <c r="C93" s="37"/>
-      <c r="D93" s="37"/>
-      <c r="E93" s="37"/>
-      <c r="F93" s="37"/>
+      <c r="F93" s="2" t="s">
+        <v>114</v>
+      </c>
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A94" s="2"/>
-      <c r="B94" s="2"/>
-      <c r="C94" s="2"/>
-      <c r="D94" s="2"/>
-      <c r="E94" s="2"/>
-      <c r="F94" s="2"/>
+      <c r="B94" s="41" t="s">
+        <v>119</v>
+      </c>
+      <c r="C94" s="42" t="s">
+        <v>120</v>
+      </c>
+      <c r="D94" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="E94" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="F94" s="2" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A95" s="2"/>
+      <c r="B95" s="41"/>
+      <c r="C95" s="42"/>
+      <c r="D95" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E95" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="F95" s="13" t="s">
+        <v>122</v>
+      </c>
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="F96" t="s">
+      <c r="A96" s="44" t="s">
+        <v>35</v>
+      </c>
+      <c r="B96" s="44"/>
+      <c r="C96" s="44"/>
+      <c r="D96" s="44"/>
+      <c r="E96" s="44"/>
+      <c r="F96" s="44"/>
+    </row>
+    <row r="97" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A97" s="2"/>
+      <c r="B97" s="2"/>
+      <c r="C97" s="2"/>
+      <c r="D97" s="2"/>
+      <c r="E97" s="2"/>
+      <c r="F97" s="2"/>
+    </row>
+    <row r="99" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="F99" t="s">
         <v>156</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="51">
-    <mergeCell ref="A42:F42"/>
-    <mergeCell ref="A34:A37"/>
-    <mergeCell ref="B34:B37"/>
-    <mergeCell ref="C34:C37"/>
+    <mergeCell ref="A64:A65"/>
+    <mergeCell ref="B64:B65"/>
+    <mergeCell ref="C64:C65"/>
+    <mergeCell ref="A60:A61"/>
+    <mergeCell ref="B60:B61"/>
+    <mergeCell ref="C60:C61"/>
+    <mergeCell ref="A62:A63"/>
+    <mergeCell ref="C62:C63"/>
+    <mergeCell ref="B62:B63"/>
+    <mergeCell ref="A96:F96"/>
+    <mergeCell ref="A47:F47"/>
+    <mergeCell ref="A49:F49"/>
+    <mergeCell ref="A70:F70"/>
+    <mergeCell ref="A82:F82"/>
+    <mergeCell ref="B71:B72"/>
+    <mergeCell ref="C71:C72"/>
+    <mergeCell ref="B73:B74"/>
+    <mergeCell ref="C73:C74"/>
+    <mergeCell ref="B77:B78"/>
+    <mergeCell ref="C77:C78"/>
     <mergeCell ref="B91:B92"/>
     <mergeCell ref="C91:C92"/>
-    <mergeCell ref="C76:C77"/>
-    <mergeCell ref="B76:B77"/>
-    <mergeCell ref="A65:A66"/>
-    <mergeCell ref="B65:B66"/>
-    <mergeCell ref="C65:C66"/>
-    <mergeCell ref="A85:F85"/>
-    <mergeCell ref="A87:F87"/>
-    <mergeCell ref="C49:C50"/>
-    <mergeCell ref="A40:F40"/>
-    <mergeCell ref="A82:F82"/>
-    <mergeCell ref="A55:A56"/>
+    <mergeCell ref="A52:A53"/>
+    <mergeCell ref="B52:B53"/>
+    <mergeCell ref="B58:B59"/>
+    <mergeCell ref="A58:A59"/>
     <mergeCell ref="B28:B29"/>
     <mergeCell ref="C28:C29"/>
     <mergeCell ref="A2:F2"/>
@@ -2874,32 +2972,23 @@
     <mergeCell ref="A21:F21"/>
     <mergeCell ref="A24:F24"/>
     <mergeCell ref="A28:A29"/>
-    <mergeCell ref="A93:F93"/>
-    <mergeCell ref="A44:F44"/>
-    <mergeCell ref="A46:F46"/>
-    <mergeCell ref="A67:F67"/>
-    <mergeCell ref="A79:F79"/>
+    <mergeCell ref="C58:C59"/>
+    <mergeCell ref="A45:F45"/>
+    <mergeCell ref="A35:A38"/>
+    <mergeCell ref="B35:B38"/>
+    <mergeCell ref="C35:C38"/>
+    <mergeCell ref="B94:B95"/>
+    <mergeCell ref="C94:C95"/>
+    <mergeCell ref="C79:C80"/>
+    <mergeCell ref="B79:B80"/>
+    <mergeCell ref="A68:A69"/>
     <mergeCell ref="B68:B69"/>
     <mergeCell ref="C68:C69"/>
-    <mergeCell ref="B70:B71"/>
-    <mergeCell ref="C70:C71"/>
-    <mergeCell ref="B74:B75"/>
-    <mergeCell ref="C74:C75"/>
-    <mergeCell ref="B88:B89"/>
-    <mergeCell ref="C88:C89"/>
-    <mergeCell ref="A49:A50"/>
-    <mergeCell ref="B49:B50"/>
-    <mergeCell ref="B55:B56"/>
-    <mergeCell ref="C55:C56"/>
-    <mergeCell ref="A61:A62"/>
-    <mergeCell ref="B61:B62"/>
-    <mergeCell ref="C61:C62"/>
-    <mergeCell ref="A57:A58"/>
-    <mergeCell ref="B57:B58"/>
-    <mergeCell ref="C57:C58"/>
-    <mergeCell ref="A59:A60"/>
-    <mergeCell ref="C59:C60"/>
-    <mergeCell ref="B59:B60"/>
+    <mergeCell ref="A88:F88"/>
+    <mergeCell ref="A90:F90"/>
+    <mergeCell ref="C52:C53"/>
+    <mergeCell ref="A43:F43"/>
+    <mergeCell ref="A85:F85"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="C3" r:id="rId1" xr:uid="{3FB3FA06-DE47-4C2D-AFD7-F5FC45E3D126}"/>
@@ -2909,19 +2998,19 @@
     <hyperlink ref="C22" r:id="rId5" xr:uid="{6352E065-8925-49FF-AA82-66ED2F9F8651}"/>
     <hyperlink ref="C16" r:id="rId6" xr:uid="{047C68C0-B7AB-4E77-9D1E-B162BD11A209}"/>
     <hyperlink ref="C17" r:id="rId7" xr:uid="{1ABD0EDA-F48F-4D2F-B13C-180B398F1FCD}"/>
-    <hyperlink ref="C68" r:id="rId8" xr:uid="{35D2A43C-BF1B-4339-9217-7116005F7034}"/>
-    <hyperlink ref="C70" r:id="rId9" xr:uid="{233456E2-1B15-4448-A669-82C381357683}"/>
-    <hyperlink ref="C83" r:id="rId10" xr:uid="{4A724644-7F2B-4DE6-9141-A1802140FB4A}"/>
-    <hyperlink ref="C80" r:id="rId11" xr:uid="{914A5C5A-20B3-4526-A460-020F9852AFDB}"/>
-    <hyperlink ref="C81" r:id="rId12" xr:uid="{0B2D15B8-18BF-46A5-991E-6E53ADC95851}"/>
+    <hyperlink ref="C71" r:id="rId8" xr:uid="{35D2A43C-BF1B-4339-9217-7116005F7034}"/>
+    <hyperlink ref="C73" r:id="rId9" xr:uid="{233456E2-1B15-4448-A669-82C381357683}"/>
+    <hyperlink ref="C86" r:id="rId10" xr:uid="{4A724644-7F2B-4DE6-9141-A1802140FB4A}"/>
+    <hyperlink ref="C83" r:id="rId11" xr:uid="{914A5C5A-20B3-4526-A460-020F9852AFDB}"/>
+    <hyperlink ref="C84" r:id="rId12" xr:uid="{0B2D15B8-18BF-46A5-991E-6E53ADC95851}"/>
     <hyperlink ref="C25" r:id="rId13" xr:uid="{93A177B9-936F-4ED5-9F32-EB31F0D8F614}"/>
-    <hyperlink ref="C88" r:id="rId14" xr:uid="{9CD2E86C-B1BA-4CC3-9E52-ECA767380715}"/>
-    <hyperlink ref="C90" r:id="rId15" xr:uid="{30EBB8AD-10BE-47B9-BF85-DBCCCE948784}"/>
-    <hyperlink ref="F92" r:id="rId16" xr:uid="{080A2B1B-6640-47F1-9DAB-1F0914BD9938}"/>
-    <hyperlink ref="C47" r:id="rId17" xr:uid="{DD8AB0F8-5B5E-4F6E-A0B4-339B324BDAC3}"/>
-    <hyperlink ref="C33" r:id="rId18" xr:uid="{43B67C49-DC70-412F-B095-E684E07FF196}"/>
-    <hyperlink ref="C57" r:id="rId19" xr:uid="{7FDCAB78-56F5-40D3-8A09-8A8A0E54E05D}"/>
-    <hyperlink ref="F58" r:id="rId20" xr:uid="{F7F3C873-8E94-4212-B22A-52BF75A478D8}"/>
+    <hyperlink ref="C91" r:id="rId14" xr:uid="{9CD2E86C-B1BA-4CC3-9E52-ECA767380715}"/>
+    <hyperlink ref="C93" r:id="rId15" xr:uid="{30EBB8AD-10BE-47B9-BF85-DBCCCE948784}"/>
+    <hyperlink ref="F95" r:id="rId16" xr:uid="{080A2B1B-6640-47F1-9DAB-1F0914BD9938}"/>
+    <hyperlink ref="C50" r:id="rId17" xr:uid="{DD8AB0F8-5B5E-4F6E-A0B4-339B324BDAC3}"/>
+    <hyperlink ref="C34" r:id="rId18" xr:uid="{43B67C49-DC70-412F-B095-E684E07FF196}"/>
+    <hyperlink ref="C60" r:id="rId19" xr:uid="{7FDCAB78-56F5-40D3-8A09-8A8A0E54E05D}"/>
+    <hyperlink ref="F61" r:id="rId20" xr:uid="{F7F3C873-8E94-4212-B22A-52BF75A478D8}"/>
     <hyperlink ref="C28" r:id="rId21" xr:uid="{F6C15430-DBA9-4DAD-A411-65B1524C625E}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/SDE Sheet.xlsx
+++ b/SDE Sheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Src Code\Personal\SDE-Sheet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8932E6DF-504B-44E9-ABBB-4FA0C4CF943E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A06ACA91-5A52-4474-85D4-5820F1E5EE88}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{83934561-A72F-4836-B1E7-4EE8C35F9874}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="349" uniqueCount="205">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="354" uniqueCount="210">
   <si>
     <t>Matrix</t>
   </si>
@@ -769,12 +769,27 @@
   <si>
     <t>Unordered map and properties of XOR</t>
   </si>
+  <si>
+    <t>https://leetcode.com/problems/car-pooling/</t>
+  </si>
+  <si>
+    <t>Car Pooling</t>
+  </si>
+  <si>
+    <t>Must revisit</t>
+  </si>
+  <si>
+    <t>O(max(Number of trips, Number of locations))</t>
+  </si>
+  <si>
+    <t>O(Number of locations)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -842,6 +857,19 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFFC000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -999,7 +1027,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="52">
+  <cellXfs count="56">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -1061,6 +1089,46 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1079,55 +1147,19 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1443,18 +1475,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D3EBAEE5-B4E7-4BD5-B694-FD6EEA5E8AC0}">
-  <dimension ref="A1:F99"/>
+  <dimension ref="A1:F100"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="82" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F41" sqref="F41"/>
+    <sheetView tabSelected="1" zoomScale="82" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E27" sqref="E27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="2" max="2" width="59.08984375" customWidth="1"/>
     <col min="3" max="3" width="77.81640625" customWidth="1"/>
-    <col min="4" max="4" width="29.81640625" customWidth="1"/>
+    <col min="4" max="4" width="39.7265625" customWidth="1"/>
     <col min="5" max="5" width="31.26953125" customWidth="1"/>
     <col min="6" max="6" width="115.54296875" customWidth="1"/>
   </cols>
@@ -1480,14 +1512,14 @@
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A2" s="44" t="s">
+      <c r="A2" s="39" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="44"/>
-      <c r="C2" s="44"/>
-      <c r="D2" s="44"/>
-      <c r="E2" s="44"/>
-      <c r="F2" s="44"/>
+      <c r="B2" s="39"/>
+      <c r="C2" s="39"/>
+      <c r="D2" s="39"/>
+      <c r="E2" s="39"/>
+      <c r="F2" s="39"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A3" s="2"/>
@@ -1552,14 +1584,14 @@
       <c r="F6" s="2"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A7" s="44" t="s">
+      <c r="A7" s="39" t="s">
         <v>15</v>
       </c>
-      <c r="B7" s="44"/>
-      <c r="C7" s="44"/>
-      <c r="D7" s="44"/>
-      <c r="E7" s="44"/>
-      <c r="F7" s="44"/>
+      <c r="B7" s="39"/>
+      <c r="C7" s="39"/>
+      <c r="D7" s="39"/>
+      <c r="E7" s="39"/>
+      <c r="F7" s="39"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A8" s="2"/>
@@ -1670,14 +1702,14 @@
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A14" s="44" t="s">
+      <c r="A14" s="39" t="s">
         <v>22</v>
       </c>
-      <c r="B14" s="44"/>
-      <c r="C14" s="44"/>
-      <c r="D14" s="44"/>
-      <c r="E14" s="44"/>
-      <c r="F14" s="44"/>
+      <c r="B14" s="39"/>
+      <c r="C14" s="39"/>
+      <c r="D14" s="39"/>
+      <c r="E14" s="39"/>
+      <c r="F14" s="39"/>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A15" s="2"/>
@@ -1752,7 +1784,7 @@
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A19" s="2"/>
+      <c r="A19" s="53"/>
       <c r="B19" s="2" t="s">
         <v>56</v>
       </c>
@@ -1770,7 +1802,7 @@
       </c>
     </row>
     <row r="20" spans="1:6" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A20" s="10"/>
+      <c r="A20" s="52"/>
       <c r="B20" s="2" t="s">
         <v>128</v>
       </c>
@@ -1785,95 +1817,95 @@
       </c>
       <c r="F20" s="2"/>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A21" s="44" t="s">
+    <row r="21" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A21" s="54"/>
+      <c r="B21" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="D21" s="55" t="s">
+        <v>208</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="F21" s="2" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A22" s="39" t="s">
         <v>23</v>
       </c>
-      <c r="B21" s="44"/>
-      <c r="C21" s="44"/>
-      <c r="D21" s="44"/>
-      <c r="E21" s="44"/>
-      <c r="F21" s="44"/>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A22" s="2"/>
-      <c r="B22" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="C22" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="D22" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E22" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="F22" s="2" t="s">
-        <v>13</v>
-      </c>
+      <c r="B22" s="39"/>
+      <c r="C22" s="39"/>
+      <c r="D22" s="39"/>
+      <c r="E22" s="39"/>
+      <c r="F22" s="39"/>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A23" s="2"/>
-      <c r="B23" s="2"/>
-      <c r="C23" s="2"/>
-      <c r="D23" s="2"/>
-      <c r="E23" s="2"/>
-      <c r="F23" s="2"/>
+      <c r="B23" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F23" s="2" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A24" s="44" t="s">
+      <c r="A24" s="2"/>
+      <c r="B24" s="2"/>
+      <c r="C24" s="2"/>
+      <c r="D24" s="2"/>
+      <c r="E24" s="2"/>
+      <c r="F24" s="2"/>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A25" s="39" t="s">
         <v>98</v>
       </c>
-      <c r="B24" s="44"/>
-      <c r="C24" s="44"/>
-      <c r="D24" s="44"/>
-      <c r="E24" s="44"/>
-      <c r="F24" s="44"/>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A25" s="9"/>
-      <c r="B25" s="2" t="s">
+      <c r="B25" s="39"/>
+      <c r="C25" s="39"/>
+      <c r="D25" s="39"/>
+      <c r="E25" s="39"/>
+      <c r="F25" s="39"/>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A26" s="9"/>
+      <c r="B26" s="2" t="s">
         <v>126</v>
       </c>
-      <c r="C25" s="1" t="s">
+      <c r="C26" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="D25" s="2" t="s">
+      <c r="D26" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="E25" s="2" t="s">
+      <c r="E26" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="F25" s="2" t="s">
+      <c r="F26" s="2" t="s">
         <v>102</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A26" s="26"/>
-      <c r="B26" s="2" t="s">
-        <v>179</v>
-      </c>
-      <c r="C26" s="1" t="s">
-        <v>180</v>
-      </c>
-      <c r="D26" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E26" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="F26" s="2" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A27" s="26"/>
       <c r="B27" s="2" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="D27" s="2" t="s">
         <v>18</v>
@@ -1886,344 +1918,344 @@
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A28" s="46"/>
-      <c r="B28" s="41" t="s">
+      <c r="A28" s="26"/>
+      <c r="B28" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E28" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F28" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A29" s="30"/>
+      <c r="B29" s="36" t="s">
         <v>107</v>
       </c>
-      <c r="C28" s="42" t="s">
+      <c r="C29" s="40" t="s">
         <v>108</v>
       </c>
-      <c r="D28" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E28" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="F28" s="2" t="s">
+      <c r="D29" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E29" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F29" s="2" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A29" s="47"/>
-      <c r="B29" s="41"/>
-      <c r="C29" s="42"/>
-      <c r="D29" s="2" t="s">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A30" s="31"/>
+      <c r="B30" s="36"/>
+      <c r="C30" s="40"/>
+      <c r="D30" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="E29" s="2" t="s">
+      <c r="E30" s="2" t="s">
         <v>101</v>
-      </c>
-      <c r="F29" s="2" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A30" s="9"/>
-      <c r="B30" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="C30" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="D30" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E30" s="2" t="s">
-        <v>105</v>
       </c>
       <c r="F30" s="2" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A31" s="2"/>
-      <c r="B31" s="2"/>
+    <row r="31" spans="1:6" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A31" s="9"/>
+      <c r="B31" s="2" t="s">
+        <v>103</v>
+      </c>
       <c r="C31" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E31" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="F31" s="2" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A32" s="2"/>
+      <c r="B32" s="2"/>
+      <c r="C32" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="D31" s="2"/>
-      <c r="E31" s="2"/>
-      <c r="F31" s="51" t="s">
+      <c r="D32" s="2"/>
+      <c r="E32" s="2"/>
+      <c r="F32" s="29" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="32" spans="1:6" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A32" s="9"/>
-      <c r="B32" s="2" t="s">
+    <row r="33" spans="1:6" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A33" s="9"/>
+      <c r="B33" s="2" t="s">
         <v>183</v>
-      </c>
-      <c r="C32" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="D32" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="E32" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="F32" s="2" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A33" s="10"/>
-      <c r="B33" s="2" t="s">
-        <v>197</v>
       </c>
       <c r="C33" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="D33" s="2"/>
-      <c r="E33" s="2"/>
-      <c r="F33" s="51" t="s">
+      <c r="D33" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="E33" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="F33" s="2" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A34" s="10"/>
+      <c r="B34" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="D34" s="2"/>
+      <c r="E34" s="2"/>
+      <c r="F34" s="29" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A34" s="9"/>
-      <c r="B34" s="2" t="s">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A35" s="9"/>
+      <c r="B35" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="C34" s="1" t="s">
+      <c r="C35" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="D34" s="2" t="s">
+      <c r="D35" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E34" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="F34" s="2" t="s">
+      <c r="E35" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F35" s="2" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="35" spans="1:6" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A35" s="32"/>
-      <c r="B35" s="35" t="s">
+    <row r="36" spans="1:6" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A36" s="46"/>
+      <c r="B36" s="32" t="s">
         <v>184</v>
       </c>
-      <c r="C35" s="38" t="s">
+      <c r="C36" s="34" t="s">
         <v>185</v>
       </c>
-      <c r="D35" s="2" t="s">
+      <c r="D36" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="E35" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="F35" s="2" t="s">
+      <c r="E36" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F36" s="2" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A36" s="33"/>
-      <c r="B36" s="36"/>
-      <c r="C36" s="39"/>
-      <c r="D36" s="2" t="s">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A37" s="47"/>
+      <c r="B37" s="49"/>
+      <c r="C37" s="50"/>
+      <c r="D37" s="2" t="s">
         <v>187</v>
       </c>
-      <c r="E36" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="F36" s="2" t="s">
+      <c r="E37" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F37" s="2" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A37" s="33"/>
-      <c r="B37" s="36"/>
-      <c r="C37" s="39"/>
-      <c r="D37" s="2" t="s">
-        <v>188</v>
-      </c>
-      <c r="E37" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="F37" s="2" t="s">
-        <v>29</v>
-      </c>
-    </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A38" s="34"/>
-      <c r="B38" s="37"/>
-      <c r="C38" s="40"/>
+      <c r="A38" s="47"/>
+      <c r="B38" s="49"/>
+      <c r="C38" s="50"/>
       <c r="D38" s="2" t="s">
         <v>188</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>4</v>
+        <v>18</v>
       </c>
       <c r="F38" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A39" s="48"/>
+      <c r="B39" s="33"/>
+      <c r="C39" s="35"/>
+      <c r="D39" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="E39" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F39" s="2" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A39" s="23"/>
-      <c r="B39" s="2" t="s">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A40" s="23"/>
+      <c r="B40" s="2" t="s">
         <v>189</v>
       </c>
-      <c r="C39" s="24" t="s">
+      <c r="C40" s="24" t="s">
         <v>190</v>
       </c>
-      <c r="D39" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E39" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="F39" s="2" t="s">
+      <c r="D40" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E40" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F40" s="2" t="s">
         <v>109</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A40" s="28"/>
-      <c r="B40" s="2" t="s">
-        <v>199</v>
-      </c>
-      <c r="C40" s="27" t="s">
-        <v>200</v>
-      </c>
-      <c r="D40" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E40" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="F40" s="2" t="s">
-        <v>201</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A41" s="28"/>
       <c r="B41" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="C41" s="27" t="s">
+        <v>200</v>
+      </c>
+      <c r="D41" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E41" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F41" s="2" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A42" s="28"/>
+      <c r="B42" s="2" t="s">
         <v>202</v>
       </c>
-      <c r="C41" s="27" t="s">
+      <c r="C42" s="27" t="s">
         <v>203</v>
       </c>
-      <c r="D41" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E41" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="F41" s="2" t="s">
+      <c r="D42" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E42" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F42" s="2" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A42" s="25"/>
-      <c r="B42" s="2" t="s">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A43" s="25"/>
+      <c r="B43" s="2" t="s">
         <v>191</v>
       </c>
-      <c r="C42" s="24" t="s">
+      <c r="C43" s="24" t="s">
         <v>192</v>
       </c>
-      <c r="D42" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E42" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="F42" s="2" t="s">
+      <c r="D43" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E43" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F43" s="2" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A43" s="44" t="s">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A44" s="39" t="s">
         <v>193</v>
       </c>
-      <c r="B43" s="44"/>
-      <c r="C43" s="44"/>
-      <c r="D43" s="44"/>
-      <c r="E43" s="44"/>
-      <c r="F43" s="44"/>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A44" s="9"/>
-      <c r="B44" s="2" t="s">
+      <c r="B44" s="39"/>
+      <c r="C44" s="39"/>
+      <c r="D44" s="39"/>
+      <c r="E44" s="39"/>
+      <c r="F44" s="39"/>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A45" s="9"/>
+      <c r="B45" s="2" t="s">
         <v>194</v>
       </c>
-      <c r="C44" s="2" t="s">
+      <c r="C45" s="2" t="s">
         <v>195</v>
       </c>
-      <c r="D44" s="2"/>
-      <c r="E44" s="2"/>
-      <c r="F44" s="2" t="s">
+      <c r="D45" s="2"/>
+      <c r="E45" s="2"/>
+      <c r="F45" s="2" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A45" s="29" t="s">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A46" s="43" t="s">
         <v>29</v>
       </c>
-      <c r="B45" s="30"/>
-      <c r="C45" s="30"/>
-      <c r="D45" s="30"/>
-      <c r="E45" s="30"/>
-      <c r="F45" s="31"/>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A46" s="2"/>
-      <c r="B46" s="2"/>
-      <c r="C46" s="2"/>
-      <c r="D46" s="2"/>
-      <c r="E46" s="2"/>
-      <c r="F46" s="2"/>
+      <c r="B46" s="44"/>
+      <c r="C46" s="44"/>
+      <c r="D46" s="44"/>
+      <c r="E46" s="44"/>
+      <c r="F46" s="45"/>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A47" s="44" t="s">
+      <c r="A47" s="2"/>
+      <c r="B47" s="2"/>
+      <c r="C47" s="2"/>
+      <c r="D47" s="2"/>
+      <c r="E47" s="2"/>
+      <c r="F47" s="2"/>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A48" s="39" t="s">
         <v>30</v>
       </c>
-      <c r="B47" s="44"/>
-      <c r="C47" s="44"/>
-      <c r="D47" s="44"/>
-      <c r="E47" s="44"/>
-      <c r="F47" s="44"/>
-    </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A48" s="2"/>
-      <c r="B48" s="2"/>
-      <c r="C48" s="2"/>
-      <c r="D48" s="2"/>
-      <c r="E48" s="2"/>
-      <c r="F48" s="2"/>
+      <c r="B48" s="39"/>
+      <c r="C48" s="39"/>
+      <c r="D48" s="39"/>
+      <c r="E48" s="39"/>
+      <c r="F48" s="39"/>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A49" s="44" t="s">
+      <c r="A49" s="2"/>
+      <c r="B49" s="2"/>
+      <c r="C49" s="2"/>
+      <c r="D49" s="2"/>
+      <c r="E49" s="2"/>
+      <c r="F49" s="2"/>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A50" s="39" t="s">
         <v>31</v>
       </c>
-      <c r="B49" s="44"/>
-      <c r="C49" s="44"/>
-      <c r="D49" s="44"/>
-      <c r="E49" s="44"/>
-      <c r="F49" s="44"/>
-    </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A50" s="11"/>
-      <c r="B50" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="C50" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="D50" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E50" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="F50" s="2" t="s">
-        <v>13</v>
-      </c>
+      <c r="B50" s="39"/>
+      <c r="C50" s="39"/>
+      <c r="D50" s="39"/>
+      <c r="E50" s="39"/>
+      <c r="F50" s="39"/>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A51" s="11"/>
       <c r="B51" s="2" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="D51" s="2" t="s">
         <v>18</v>
@@ -2236,62 +2268,62 @@
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A52" s="48"/>
-      <c r="B52" s="41" t="s">
+      <c r="A52" s="11"/>
+      <c r="B52" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="C52" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="D52" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E52" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F52" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A53" s="41"/>
+      <c r="B53" s="36" t="s">
         <v>159</v>
       </c>
-      <c r="C52" s="42" t="s">
+      <c r="C53" s="40" t="s">
         <v>160</v>
       </c>
-      <c r="D52" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E52" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="F52" s="2" t="s">
+      <c r="D53" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E53" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F53" s="2" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A53" s="48"/>
-      <c r="B53" s="41"/>
-      <c r="C53" s="42"/>
-      <c r="D53" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E53" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="F53" s="2" t="s">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A54" s="41"/>
+      <c r="B54" s="36"/>
+      <c r="C54" s="40"/>
+      <c r="D54" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E54" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F54" s="2" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A54" s="11"/>
-      <c r="B54" s="2" t="s">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A55" s="11"/>
+      <c r="B55" s="2" t="s">
         <v>139</v>
       </c>
-      <c r="C54" s="1" t="s">
+      <c r="C55" s="1" t="s">
         <v>140</v>
-      </c>
-      <c r="D54" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="E54" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="F54" s="2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A55" s="9"/>
-      <c r="B55" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="C55" s="1" t="s">
-        <v>146</v>
       </c>
       <c r="D55" s="2" t="s">
         <v>141</v>
@@ -2306,334 +2338,334 @@
     <row r="56" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A56" s="9"/>
       <c r="B56" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="C56" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="D56" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="E56" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F56" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A57" s="9"/>
+      <c r="B57" s="2" t="s">
         <v>148</v>
       </c>
-      <c r="C56" s="1" t="s">
+      <c r="C57" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="D56" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E56" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="F56" s="2" t="s">
+      <c r="D57" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E57" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F57" s="2" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A57" s="11"/>
-      <c r="B57" s="2" t="s">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A58" s="11"/>
+      <c r="B58" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="C57" s="1" t="s">
+      <c r="C58" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="D57" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="E57" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="F57" s="2" t="s">
+      <c r="D58" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E58" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F58" s="2" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A58" s="45"/>
-      <c r="B58" s="41" t="s">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A59" s="42"/>
+      <c r="B59" s="36" t="s">
         <v>153</v>
       </c>
-      <c r="C58" s="42" t="s">
+      <c r="C59" s="40" t="s">
         <v>154</v>
       </c>
-      <c r="D58" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="E58" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="F58" s="2" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A59" s="45"/>
-      <c r="B59" s="41"/>
-      <c r="C59" s="42"/>
       <c r="D59" s="2" t="s">
         <v>141</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>4</v>
+        <v>58</v>
       </c>
       <c r="F59" s="2" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A60" s="42"/>
+      <c r="B60" s="36"/>
+      <c r="C60" s="40"/>
+      <c r="D60" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="E60" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F60" s="2" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="60" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A60" s="46"/>
-      <c r="B60" s="41" t="s">
+    <row r="61" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A61" s="30"/>
+      <c r="B61" s="36" t="s">
         <v>168</v>
       </c>
-      <c r="C60" s="38" t="s">
+      <c r="C61" s="34" t="s">
         <v>169</v>
       </c>
-      <c r="D60" s="21" t="s">
-        <v>18</v>
-      </c>
-      <c r="E60" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="F60" s="2" t="s">
+      <c r="D61" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="E61" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F61" s="2" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="61" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A61" s="47"/>
-      <c r="B61" s="41"/>
-      <c r="C61" s="40"/>
-      <c r="D61" s="21" t="s">
-        <v>18</v>
-      </c>
-      <c r="E61" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="F61" s="1" t="s">
+    <row r="62" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A62" s="31"/>
+      <c r="B62" s="36"/>
+      <c r="C62" s="35"/>
+      <c r="D62" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="E62" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F62" s="1" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="62" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A62" s="49"/>
-      <c r="B62" s="41" t="s">
+    <row r="63" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A63" s="37"/>
+      <c r="B63" s="36" t="s">
         <v>174</v>
       </c>
-      <c r="C62" s="38" t="s">
+      <c r="C63" s="34" t="s">
         <v>172</v>
       </c>
-      <c r="D62" s="21" t="s">
-        <v>18</v>
-      </c>
-      <c r="E62" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="F62" s="2" t="s">
+      <c r="D63" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="E63" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F63" s="2" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="63" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A63" s="50"/>
-      <c r="B63" s="41"/>
-      <c r="C63" s="40"/>
-      <c r="D63" s="21" t="s">
-        <v>18</v>
-      </c>
-      <c r="E63" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="F63" s="1" t="s">
+    <row r="64" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A64" s="38"/>
+      <c r="B64" s="36"/>
+      <c r="C64" s="35"/>
+      <c r="D64" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="E64" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F64" s="1" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A64" s="46"/>
-      <c r="B64" s="35" t="s">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A65" s="30"/>
+      <c r="B65" s="32" t="s">
         <v>164</v>
       </c>
-      <c r="C64" s="38" t="s">
+      <c r="C65" s="34" t="s">
         <v>165</v>
       </c>
-      <c r="D64" s="18" t="s">
-        <v>18</v>
-      </c>
-      <c r="E64" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="F64" s="2" t="s">
+      <c r="D65" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="E65" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F65" s="2" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A65" s="47"/>
-      <c r="B65" s="37"/>
-      <c r="C65" s="40"/>
-      <c r="D65" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E65" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="F65" s="2" t="s">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A66" s="31"/>
+      <c r="B66" s="33"/>
+      <c r="C66" s="35"/>
+      <c r="D66" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E66" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F66" s="2" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A66" s="22"/>
-      <c r="B66" s="19" t="s">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A67" s="22"/>
+      <c r="B67" s="19" t="s">
         <v>175</v>
       </c>
-      <c r="C66" s="20" t="s">
+      <c r="C67" s="20" t="s">
         <v>176</v>
       </c>
-      <c r="D66" s="2" t="s">
+      <c r="D67" s="2" t="s">
         <v>177</v>
       </c>
-      <c r="E66" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="F66" s="2" t="s">
+      <c r="E67" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F67" s="2" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A67" s="17"/>
-      <c r="B67" s="16" t="s">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A68" s="17"/>
+      <c r="B68" s="16" t="s">
         <v>162</v>
       </c>
-      <c r="C67" s="15" t="s">
+      <c r="C68" s="15" t="s">
         <v>163</v>
       </c>
-      <c r="D67" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E67" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="F67" s="2" t="s">
+      <c r="D68" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E68" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F68" s="2" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A68" s="43"/>
-      <c r="B68" s="41" t="s">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A69" s="51"/>
+      <c r="B69" s="36" t="s">
         <v>150</v>
       </c>
-      <c r="C68" s="42" t="s">
+      <c r="C69" s="40" t="s">
         <v>151</v>
       </c>
-      <c r="D68" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E68" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="F68" s="2" t="s">
+      <c r="D69" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E69" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F69" s="2" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A69" s="43"/>
-      <c r="B69" s="41"/>
-      <c r="C69" s="42"/>
-      <c r="D69" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E69" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="F69" s="2" t="s">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A70" s="51"/>
+      <c r="B70" s="36"/>
+      <c r="C70" s="40"/>
+      <c r="D70" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E70" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F70" s="2" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A70" s="44" t="s">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A71" s="39" t="s">
         <v>66</v>
       </c>
-      <c r="B70" s="44"/>
-      <c r="C70" s="44"/>
-      <c r="D70" s="44"/>
-      <c r="E70" s="44"/>
-      <c r="F70" s="44"/>
-    </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A71" s="2"/>
-      <c r="B71" s="41" t="s">
-        <v>67</v>
-      </c>
-      <c r="C71" s="42" t="s">
-        <v>64</v>
-      </c>
-      <c r="D71" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E71" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="F71" s="2" t="s">
-        <v>70</v>
-      </c>
+      <c r="B71" s="39"/>
+      <c r="C71" s="39"/>
+      <c r="D71" s="39"/>
+      <c r="E71" s="39"/>
+      <c r="F71" s="39"/>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A72" s="2"/>
-      <c r="B72" s="41"/>
-      <c r="C72" s="42"/>
+      <c r="B72" s="36" t="s">
+        <v>67</v>
+      </c>
+      <c r="C72" s="40" t="s">
+        <v>64</v>
+      </c>
       <c r="D72" s="2" t="s">
         <v>18</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>4</v>
+        <v>18</v>
       </c>
       <c r="F72" s="2" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A73" s="2"/>
-      <c r="B73" s="41" t="s">
-        <v>68</v>
-      </c>
-      <c r="C73" s="42" t="s">
-        <v>69</v>
-      </c>
+      <c r="B73" s="36"/>
+      <c r="C73" s="40"/>
       <c r="D73" s="2" t="s">
         <v>18</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="F73" s="2" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A74" s="2"/>
-      <c r="B74" s="41"/>
-      <c r="C74" s="42"/>
+      <c r="B74" s="36" t="s">
+        <v>68</v>
+      </c>
+      <c r="C74" s="40" t="s">
+        <v>69</v>
+      </c>
       <c r="D74" s="2" t="s">
         <v>18</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>4</v>
+        <v>18</v>
       </c>
       <c r="F74" s="2" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A75" s="2"/>
-      <c r="B75" s="14" t="s">
-        <v>82</v>
-      </c>
-      <c r="C75" s="15" t="s">
-        <v>83</v>
-      </c>
+      <c r="B75" s="36"/>
+      <c r="C75" s="40"/>
       <c r="D75" s="2" t="s">
         <v>18</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>80</v>
+        <v>4</v>
       </c>
       <c r="F75" s="2" t="s">
-        <v>84</v>
+        <v>65</v>
       </c>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A76" s="2"/>
       <c r="B76" s="14" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="C76" s="15" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="D76" s="2" t="s">
         <v>18</v>
@@ -2642,16 +2674,16 @@
         <v>80</v>
       </c>
       <c r="F76" s="2" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A77" s="2"/>
-      <c r="B77" s="41" t="s">
-        <v>86</v>
-      </c>
-      <c r="C77" s="42" t="s">
-        <v>85</v>
+      <c r="B77" s="14" t="s">
+        <v>78</v>
+      </c>
+      <c r="C77" s="15" t="s">
+        <v>79</v>
       </c>
       <c r="D77" s="2" t="s">
         <v>18</v>
@@ -2660,96 +2692,98 @@
         <v>80</v>
       </c>
       <c r="F77" s="2" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A78" s="2"/>
-      <c r="B78" s="41"/>
-      <c r="C78" s="42"/>
+      <c r="B78" s="36" t="s">
+        <v>86</v>
+      </c>
+      <c r="C78" s="40" t="s">
+        <v>85</v>
+      </c>
       <c r="D78" s="2" t="s">
         <v>18</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="F78" s="2" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A79" s="2"/>
-      <c r="B79" s="41" t="s">
-        <v>89</v>
-      </c>
-      <c r="C79" s="42" t="s">
-        <v>90</v>
-      </c>
+      <c r="B79" s="36"/>
+      <c r="C79" s="40"/>
       <c r="D79" s="2" t="s">
         <v>18</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>80</v>
+        <v>87</v>
       </c>
       <c r="F79" s="2" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A80" s="2"/>
-      <c r="B80" s="41"/>
-      <c r="C80" s="42"/>
+      <c r="B80" s="36" t="s">
+        <v>89</v>
+      </c>
+      <c r="C80" s="40" t="s">
+        <v>90</v>
+      </c>
       <c r="D80" s="2" t="s">
         <v>18</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="F80" s="2" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A81" s="2"/>
-      <c r="B81" s="14"/>
-      <c r="C81" s="15"/>
-      <c r="D81" s="2"/>
-      <c r="E81" s="2"/>
-      <c r="F81" s="2"/>
+      <c r="B81" s="36"/>
+      <c r="C81" s="40"/>
+      <c r="D81" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E81" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="F81" s="2" t="s">
+        <v>88</v>
+      </c>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A82" s="44" t="s">
+      <c r="A82" s="2"/>
+      <c r="B82" s="14"/>
+      <c r="C82" s="15"/>
+      <c r="D82" s="2"/>
+      <c r="E82" s="2"/>
+      <c r="F82" s="2"/>
+    </row>
+    <row r="83" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A83" s="39" t="s">
         <v>91</v>
       </c>
-      <c r="B82" s="44"/>
-      <c r="C82" s="44"/>
-      <c r="D82" s="44"/>
-      <c r="E82" s="44"/>
-      <c r="F82" s="44"/>
-    </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A83" s="2"/>
-      <c r="B83" s="5" t="s">
-        <v>93</v>
-      </c>
-      <c r="C83" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="D83" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="E83" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="F83" s="4"/>
+      <c r="B83" s="39"/>
+      <c r="C83" s="39"/>
+      <c r="D83" s="39"/>
+      <c r="E83" s="39"/>
+      <c r="F83" s="39"/>
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A84" s="2"/>
       <c r="B84" s="5" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="C84" s="3" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="D84" s="4" t="s">
         <v>94</v>
@@ -2757,261 +2791,277 @@
       <c r="E84" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="F84" s="12" t="s">
+      <c r="F84" s="4"/>
+    </row>
+    <row r="85" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A85" s="2"/>
+      <c r="B85" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="C85" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="D85" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="E85" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="F85" s="12" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A85" s="44" t="s">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A86" s="39" t="s">
         <v>32</v>
       </c>
-      <c r="B85" s="44"/>
-      <c r="C85" s="44"/>
-      <c r="D85" s="44"/>
-      <c r="E85" s="44"/>
-      <c r="F85" s="44"/>
-    </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A86" s="2"/>
-      <c r="B86" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="C86" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="D86" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="E86" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="F86" s="2" t="s">
-        <v>75</v>
-      </c>
+      <c r="B86" s="39"/>
+      <c r="C86" s="39"/>
+      <c r="D86" s="39"/>
+      <c r="E86" s="39"/>
+      <c r="F86" s="39"/>
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A87" s="2"/>
       <c r="B87" s="2" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="C87" s="1" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="D87" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="E87" s="2"/>
-      <c r="F87" s="2"/>
+      <c r="E87" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="F87" s="2" t="s">
+        <v>75</v>
+      </c>
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A88" s="44" t="s">
+      <c r="A88" s="2"/>
+      <c r="B88" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="C88" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="D88" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="E88" s="2"/>
+      <c r="F88" s="2"/>
+    </row>
+    <row r="89" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A89" s="39" t="s">
         <v>33</v>
       </c>
-      <c r="B88" s="44"/>
-      <c r="C88" s="44"/>
-      <c r="D88" s="44"/>
-      <c r="E88" s="44"/>
-      <c r="F88" s="44"/>
-    </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A89" s="2"/>
-      <c r="B89" s="2"/>
-      <c r="C89" s="2"/>
-      <c r="D89" s="2"/>
-      <c r="E89" s="2"/>
-      <c r="F89" s="2"/>
+      <c r="B89" s="39"/>
+      <c r="C89" s="39"/>
+      <c r="D89" s="39"/>
+      <c r="E89" s="39"/>
+      <c r="F89" s="39"/>
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A90" s="44" t="s">
+      <c r="A90" s="2"/>
+      <c r="B90" s="2"/>
+      <c r="C90" s="2"/>
+      <c r="D90" s="2"/>
+      <c r="E90" s="2"/>
+      <c r="F90" s="2"/>
+    </row>
+    <row r="91" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A91" s="39" t="s">
         <v>34</v>
       </c>
-      <c r="B90" s="44"/>
-      <c r="C90" s="44"/>
-      <c r="D90" s="44"/>
-      <c r="E90" s="44"/>
-      <c r="F90" s="44"/>
-    </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A91" s="2"/>
-      <c r="B91" s="41" t="s">
-        <v>112</v>
-      </c>
-      <c r="C91" s="42" t="s">
-        <v>113</v>
-      </c>
-      <c r="D91" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="E91" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="F91" s="2" t="s">
-        <v>114</v>
-      </c>
+      <c r="B91" s="39"/>
+      <c r="C91" s="39"/>
+      <c r="D91" s="39"/>
+      <c r="E91" s="39"/>
+      <c r="F91" s="39"/>
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A92" s="2"/>
-      <c r="B92" s="41"/>
-      <c r="C92" s="41"/>
+      <c r="B92" s="36" t="s">
+        <v>112</v>
+      </c>
+      <c r="C92" s="40" t="s">
+        <v>113</v>
+      </c>
       <c r="D92" s="2" t="s">
         <v>118</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>4</v>
+        <v>118</v>
       </c>
       <c r="F92" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A93" s="2"/>
-      <c r="B93" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="C93" s="15" t="s">
-        <v>116</v>
-      </c>
+      <c r="B93" s="36"/>
+      <c r="C93" s="36"/>
       <c r="D93" s="2" t="s">
-        <v>18</v>
+        <v>118</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>42</v>
+        <v>4</v>
       </c>
       <c r="F93" s="2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A94" s="2"/>
-      <c r="B94" s="41" t="s">
-        <v>119</v>
-      </c>
-      <c r="C94" s="42" t="s">
-        <v>120</v>
+      <c r="B94" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="C94" s="15" t="s">
+        <v>116</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>53</v>
+        <v>18</v>
       </c>
       <c r="E94" s="2" t="s">
         <v>42</v>
       </c>
       <c r="F94" s="2" t="s">
-        <v>121</v>
+        <v>114</v>
       </c>
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A95" s="2"/>
-      <c r="B95" s="41"/>
-      <c r="C95" s="42"/>
+      <c r="B95" s="36" t="s">
+        <v>119</v>
+      </c>
+      <c r="C95" s="40" t="s">
+        <v>120</v>
+      </c>
       <c r="D95" s="2" t="s">
-        <v>18</v>
+        <v>53</v>
       </c>
       <c r="E95" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="F95" s="13" t="s">
+      <c r="F95" s="2" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A96" s="2"/>
+      <c r="B96" s="36"/>
+      <c r="C96" s="40"/>
+      <c r="D96" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E96" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="F96" s="13" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A96" s="44" t="s">
+    <row r="97" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A97" s="39" t="s">
         <v>35</v>
       </c>
-      <c r="B96" s="44"/>
-      <c r="C96" s="44"/>
-      <c r="D96" s="44"/>
-      <c r="E96" s="44"/>
-      <c r="F96" s="44"/>
-    </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A97" s="2"/>
-      <c r="B97" s="2"/>
-      <c r="C97" s="2"/>
-      <c r="D97" s="2"/>
-      <c r="E97" s="2"/>
-      <c r="F97" s="2"/>
-    </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="F99" t="s">
+      <c r="B97" s="39"/>
+      <c r="C97" s="39"/>
+      <c r="D97" s="39"/>
+      <c r="E97" s="39"/>
+      <c r="F97" s="39"/>
+    </row>
+    <row r="98" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A98" s="2"/>
+      <c r="B98" s="2"/>
+      <c r="C98" s="2"/>
+      <c r="D98" s="2"/>
+      <c r="E98" s="2"/>
+      <c r="F98" s="2"/>
+    </row>
+    <row r="100" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="F100" t="s">
         <v>156</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="51">
-    <mergeCell ref="A64:A65"/>
-    <mergeCell ref="B64:B65"/>
-    <mergeCell ref="C64:C65"/>
-    <mergeCell ref="A60:A61"/>
-    <mergeCell ref="B60:B61"/>
-    <mergeCell ref="C60:C61"/>
-    <mergeCell ref="A62:A63"/>
-    <mergeCell ref="C62:C63"/>
-    <mergeCell ref="B62:B63"/>
-    <mergeCell ref="A96:F96"/>
-    <mergeCell ref="A47:F47"/>
-    <mergeCell ref="A49:F49"/>
-    <mergeCell ref="A70:F70"/>
-    <mergeCell ref="A82:F82"/>
-    <mergeCell ref="B71:B72"/>
-    <mergeCell ref="C71:C72"/>
-    <mergeCell ref="B73:B74"/>
-    <mergeCell ref="C73:C74"/>
-    <mergeCell ref="B77:B78"/>
-    <mergeCell ref="C77:C78"/>
-    <mergeCell ref="B91:B92"/>
-    <mergeCell ref="C91:C92"/>
-    <mergeCell ref="A52:A53"/>
-    <mergeCell ref="B52:B53"/>
-    <mergeCell ref="B58:B59"/>
-    <mergeCell ref="A58:A59"/>
-    <mergeCell ref="B28:B29"/>
-    <mergeCell ref="C28:C29"/>
+    <mergeCell ref="B95:B96"/>
+    <mergeCell ref="C95:C96"/>
+    <mergeCell ref="C80:C81"/>
+    <mergeCell ref="B80:B81"/>
+    <mergeCell ref="A69:A70"/>
+    <mergeCell ref="B69:B70"/>
+    <mergeCell ref="C69:C70"/>
+    <mergeCell ref="A89:F89"/>
+    <mergeCell ref="A91:F91"/>
+    <mergeCell ref="A86:F86"/>
+    <mergeCell ref="A59:A60"/>
+    <mergeCell ref="B29:B30"/>
+    <mergeCell ref="C29:C30"/>
     <mergeCell ref="A2:F2"/>
     <mergeCell ref="A7:F7"/>
     <mergeCell ref="A14:F14"/>
-    <mergeCell ref="A21:F21"/>
-    <mergeCell ref="A24:F24"/>
-    <mergeCell ref="A28:A29"/>
-    <mergeCell ref="C58:C59"/>
-    <mergeCell ref="A45:F45"/>
-    <mergeCell ref="A35:A38"/>
-    <mergeCell ref="B35:B38"/>
-    <mergeCell ref="C35:C38"/>
-    <mergeCell ref="B94:B95"/>
-    <mergeCell ref="C94:C95"/>
-    <mergeCell ref="C79:C80"/>
-    <mergeCell ref="B79:B80"/>
-    <mergeCell ref="A68:A69"/>
-    <mergeCell ref="B68:B69"/>
-    <mergeCell ref="C68:C69"/>
-    <mergeCell ref="A88:F88"/>
-    <mergeCell ref="A90:F90"/>
-    <mergeCell ref="C52:C53"/>
-    <mergeCell ref="A43:F43"/>
-    <mergeCell ref="A85:F85"/>
+    <mergeCell ref="A22:F22"/>
+    <mergeCell ref="A25:F25"/>
+    <mergeCell ref="A29:A30"/>
+    <mergeCell ref="C59:C60"/>
+    <mergeCell ref="A46:F46"/>
+    <mergeCell ref="A36:A39"/>
+    <mergeCell ref="B36:B39"/>
+    <mergeCell ref="C36:C39"/>
+    <mergeCell ref="C53:C54"/>
+    <mergeCell ref="A44:F44"/>
+    <mergeCell ref="A97:F97"/>
+    <mergeCell ref="A48:F48"/>
+    <mergeCell ref="A50:F50"/>
+    <mergeCell ref="A71:F71"/>
+    <mergeCell ref="A83:F83"/>
+    <mergeCell ref="B72:B73"/>
+    <mergeCell ref="C72:C73"/>
+    <mergeCell ref="B74:B75"/>
+    <mergeCell ref="C74:C75"/>
+    <mergeCell ref="B78:B79"/>
+    <mergeCell ref="C78:C79"/>
+    <mergeCell ref="B92:B93"/>
+    <mergeCell ref="C92:C93"/>
+    <mergeCell ref="A53:A54"/>
+    <mergeCell ref="B53:B54"/>
+    <mergeCell ref="B59:B60"/>
+    <mergeCell ref="A65:A66"/>
+    <mergeCell ref="B65:B66"/>
+    <mergeCell ref="C65:C66"/>
+    <mergeCell ref="A61:A62"/>
+    <mergeCell ref="B61:B62"/>
+    <mergeCell ref="C61:C62"/>
+    <mergeCell ref="A63:A64"/>
+    <mergeCell ref="C63:C64"/>
+    <mergeCell ref="B63:B64"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="C3" r:id="rId1" xr:uid="{3FB3FA06-DE47-4C2D-AFD7-F5FC45E3D126}"/>
     <hyperlink ref="C4" r:id="rId2" xr:uid="{C4A51F70-7D5B-496B-8FD0-AB7121D9FCE1}"/>
     <hyperlink ref="C8" r:id="rId3" xr:uid="{678D7AA2-36D2-4A02-971F-3FB9391E8E35}"/>
     <hyperlink ref="C15" r:id="rId4" xr:uid="{2AC6AF52-CC30-4063-833D-09178907C109}"/>
-    <hyperlink ref="C22" r:id="rId5" xr:uid="{6352E065-8925-49FF-AA82-66ED2F9F8651}"/>
+    <hyperlink ref="C23" r:id="rId5" xr:uid="{6352E065-8925-49FF-AA82-66ED2F9F8651}"/>
     <hyperlink ref="C16" r:id="rId6" xr:uid="{047C68C0-B7AB-4E77-9D1E-B162BD11A209}"/>
     <hyperlink ref="C17" r:id="rId7" xr:uid="{1ABD0EDA-F48F-4D2F-B13C-180B398F1FCD}"/>
-    <hyperlink ref="C71" r:id="rId8" xr:uid="{35D2A43C-BF1B-4339-9217-7116005F7034}"/>
-    <hyperlink ref="C73" r:id="rId9" xr:uid="{233456E2-1B15-4448-A669-82C381357683}"/>
-    <hyperlink ref="C86" r:id="rId10" xr:uid="{4A724644-7F2B-4DE6-9141-A1802140FB4A}"/>
-    <hyperlink ref="C83" r:id="rId11" xr:uid="{914A5C5A-20B3-4526-A460-020F9852AFDB}"/>
-    <hyperlink ref="C84" r:id="rId12" xr:uid="{0B2D15B8-18BF-46A5-991E-6E53ADC95851}"/>
-    <hyperlink ref="C25" r:id="rId13" xr:uid="{93A177B9-936F-4ED5-9F32-EB31F0D8F614}"/>
-    <hyperlink ref="C91" r:id="rId14" xr:uid="{9CD2E86C-B1BA-4CC3-9E52-ECA767380715}"/>
-    <hyperlink ref="C93" r:id="rId15" xr:uid="{30EBB8AD-10BE-47B9-BF85-DBCCCE948784}"/>
-    <hyperlink ref="F95" r:id="rId16" xr:uid="{080A2B1B-6640-47F1-9DAB-1F0914BD9938}"/>
-    <hyperlink ref="C50" r:id="rId17" xr:uid="{DD8AB0F8-5B5E-4F6E-A0B4-339B324BDAC3}"/>
-    <hyperlink ref="C34" r:id="rId18" xr:uid="{43B67C49-DC70-412F-B095-E684E07FF196}"/>
-    <hyperlink ref="C60" r:id="rId19" xr:uid="{7FDCAB78-56F5-40D3-8A09-8A8A0E54E05D}"/>
-    <hyperlink ref="F61" r:id="rId20" xr:uid="{F7F3C873-8E94-4212-B22A-52BF75A478D8}"/>
-    <hyperlink ref="C28" r:id="rId21" xr:uid="{F6C15430-DBA9-4DAD-A411-65B1524C625E}"/>
+    <hyperlink ref="C72" r:id="rId8" xr:uid="{35D2A43C-BF1B-4339-9217-7116005F7034}"/>
+    <hyperlink ref="C74" r:id="rId9" xr:uid="{233456E2-1B15-4448-A669-82C381357683}"/>
+    <hyperlink ref="C87" r:id="rId10" xr:uid="{4A724644-7F2B-4DE6-9141-A1802140FB4A}"/>
+    <hyperlink ref="C84" r:id="rId11" xr:uid="{914A5C5A-20B3-4526-A460-020F9852AFDB}"/>
+    <hyperlink ref="C85" r:id="rId12" xr:uid="{0B2D15B8-18BF-46A5-991E-6E53ADC95851}"/>
+    <hyperlink ref="C26" r:id="rId13" xr:uid="{93A177B9-936F-4ED5-9F32-EB31F0D8F614}"/>
+    <hyperlink ref="C92" r:id="rId14" xr:uid="{9CD2E86C-B1BA-4CC3-9E52-ECA767380715}"/>
+    <hyperlink ref="C94" r:id="rId15" xr:uid="{30EBB8AD-10BE-47B9-BF85-DBCCCE948784}"/>
+    <hyperlink ref="F96" r:id="rId16" xr:uid="{080A2B1B-6640-47F1-9DAB-1F0914BD9938}"/>
+    <hyperlink ref="C51" r:id="rId17" xr:uid="{DD8AB0F8-5B5E-4F6E-A0B4-339B324BDAC3}"/>
+    <hyperlink ref="C35" r:id="rId18" xr:uid="{43B67C49-DC70-412F-B095-E684E07FF196}"/>
+    <hyperlink ref="C61" r:id="rId19" xr:uid="{7FDCAB78-56F5-40D3-8A09-8A8A0E54E05D}"/>
+    <hyperlink ref="F62" r:id="rId20" xr:uid="{F7F3C873-8E94-4212-B22A-52BF75A478D8}"/>
+    <hyperlink ref="C29" r:id="rId21" xr:uid="{F6C15430-DBA9-4DAD-A411-65B1524C625E}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="90" verticalDpi="90" r:id="rId22"/>

--- a/SDE Sheet.xlsx
+++ b/SDE Sheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Src Code\Personal\SDE-Sheet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A06ACA91-5A52-4474-85D4-5820F1E5EE88}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CAEC2609-690D-4175-BF53-C4D3F9A98E6A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{83934561-A72F-4836-B1E7-4EE8C35F9874}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="354" uniqueCount="210">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="367" uniqueCount="217">
   <si>
     <t>Matrix</t>
   </si>
@@ -126,9 +126,6 @@
   </si>
   <si>
     <t>Dynamic Programming</t>
-  </si>
-  <si>
-    <t>2 Pointer</t>
   </si>
   <si>
     <t>https://leetcode.com/problems/sort-colors/</t>
@@ -783,6 +780,30 @@
   </si>
   <si>
     <t>O(Number of locations)</t>
+  </si>
+  <si>
+    <t>1. 918. Maximum Sum Circular Subarray</t>
+  </si>
+  <si>
+    <t>2. 152. Maximum Product Subarray</t>
+  </si>
+  <si>
+    <t>3. 1567. Maximum Length of Subarray With Positive Product</t>
+  </si>
+  <si>
+    <t>Read more about Kadane's Algorithm and try these problems</t>
+  </si>
+  <si>
+    <t>Rotate Matrix</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/rotate-image/</t>
+  </si>
+  <si>
+    <t>Merge Overlapping SubIntervals</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/merge-intervals/</t>
   </si>
 </sst>
 </file>
@@ -1027,7 +1048,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="56">
+  <cellXfs count="58">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -1090,76 +1111,80 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1475,11 +1500,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D3EBAEE5-B4E7-4BD5-B694-FD6EEA5E8AC0}">
-  <dimension ref="A1:F100"/>
+  <dimension ref="A1:G99"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="82" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E27" sqref="E27"/>
+    <sheetView tabSelected="1" zoomScale="71" zoomScaleNormal="94" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F48" sqref="F48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1489,11 +1514,12 @@
     <col min="4" max="4" width="39.7265625" customWidth="1"/>
     <col min="5" max="5" width="31.26953125" customWidth="1"/>
     <col min="6" max="6" width="115.54296875" customWidth="1"/>
+    <col min="7" max="7" width="105.08984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A1" s="6" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B1" s="6" t="s">
         <v>6</v>
@@ -1511,18 +1537,18 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A2" s="39" t="s">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A2" s="37" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="39"/>
-      <c r="C2" s="39"/>
-      <c r="D2" s="39"/>
-      <c r="E2" s="39"/>
-      <c r="F2" s="39"/>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A3" s="2"/>
+      <c r="B2" s="37"/>
+      <c r="C2" s="37"/>
+      <c r="D2" s="37"/>
+      <c r="E2" s="37"/>
+      <c r="F2" s="37"/>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A3" s="9"/>
       <c r="B3" s="2" t="s">
         <v>1</v>
       </c>
@@ -1539,8 +1565,8 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A4" s="2"/>
+    <row r="4" spans="1:7" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A4" s="11"/>
       <c r="B4" s="2" t="s">
         <v>12</v>
       </c>
@@ -1551,109 +1577,119 @@
         <v>14</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="F4" s="2" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A5" s="2"/>
       <c r="B5" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C5" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="D5" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="D5" s="2" t="s">
+      <c r="E5" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F5" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="E5" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A6" s="2"/>
-      <c r="B6" s="2"/>
-      <c r="C6" s="2"/>
-      <c r="D6" s="2"/>
-      <c r="E6" s="2"/>
-      <c r="F6" s="2"/>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A7" s="39" t="s">
+    </row>
+    <row r="6" spans="1:7" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A6" s="9"/>
+      <c r="B6" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A7" s="9"/>
+      <c r="B7" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A8" s="37" t="s">
         <v>15</v>
       </c>
-      <c r="B7" s="39"/>
-      <c r="C7" s="39"/>
-      <c r="D7" s="39"/>
-      <c r="E7" s="39"/>
-      <c r="F7" s="39"/>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A8" s="2"/>
-      <c r="B8" s="2" t="s">
+      <c r="B8" s="37"/>
+      <c r="C8" s="37"/>
+      <c r="D8" s="37"/>
+      <c r="E8" s="37"/>
+      <c r="F8" s="37"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A9" s="9"/>
+      <c r="B9" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C8" s="1" t="s">
+      <c r="C9" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D8" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="F8" s="2" t="s">
+      <c r="D9" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F9" s="2" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A9" s="2"/>
-      <c r="B9" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="F9" s="2" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A10" s="2"/>
       <c r="B10" s="2" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>18</v>
+        <v>41</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
+        <v>41</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A11" s="2"/>
       <c r="B11" s="2" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="D11" s="2" t="s">
         <v>18</v>
@@ -1661,601 +1697,631 @@
       <c r="E11" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F11" s="2" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="F11" s="7" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A12" s="2"/>
       <c r="B12" s="2" t="s">
-        <v>63</v>
+        <v>46</v>
       </c>
       <c r="C12" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A13" s="2"/>
+      <c r="B13" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F13" s="8" t="s">
         <v>60</v>
       </c>
-      <c r="D12" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="E12" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="F12" s="8" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A13" s="9"/>
-      <c r="B13" s="2" t="s">
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A14" s="9"/>
+      <c r="B14" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="D14" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="C13" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="D13" s="2" t="s">
+      <c r="E14" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F14" s="8" t="s">
         <v>133</v>
       </c>
-      <c r="E13" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="F13" s="8" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A14" s="39" t="s">
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A15" s="37" t="s">
         <v>22</v>
       </c>
-      <c r="B14" s="39"/>
-      <c r="C14" s="39"/>
-      <c r="D14" s="39"/>
-      <c r="E14" s="39"/>
-      <c r="F14" s="39"/>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A15" s="2"/>
-      <c r="B15" s="2" t="s">
+      <c r="B15" s="37"/>
+      <c r="C15" s="37"/>
+      <c r="D15" s="37"/>
+      <c r="E15" s="37"/>
+      <c r="F15" s="37"/>
+      <c r="G15" s="56" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A16" s="11"/>
+      <c r="B16" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C15" s="1" t="s">
+      <c r="C16" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D15" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E15" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="F15" s="2" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A16" s="2"/>
-      <c r="B16" s="2" t="s">
+      <c r="D16" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="G16" s="57" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A17" s="11"/>
+      <c r="B17" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C17" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="C16" s="1" t="s">
+      <c r="D17" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F17" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="D16" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E16" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="F16" s="2" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A17" s="2"/>
-      <c r="B17" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="D17" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E17" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="F17" s="2" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G17" s="57" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A18" s="2"/>
       <c r="B18" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="G18" s="57" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A19" s="2"/>
+      <c r="B19" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F19" s="2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A20" s="31"/>
+      <c r="B20" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="C18" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="D18" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="E18" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="F18" s="2" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A19" s="53"/>
-      <c r="B19" s="2" t="s">
+      <c r="C20" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="C19" s="1" t="s">
+      <c r="D20" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E20" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="D19" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E19" s="2" t="s">
+      <c r="F20" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="F19" s="2" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A20" s="52"/>
-      <c r="B20" s="2" t="s">
+    </row>
+    <row r="21" spans="1:7" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A21" s="30"/>
+      <c r="B21" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="C21" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="C20" s="1" t="s">
+      <c r="D21" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="D20" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="E20" s="2" t="s">
+      <c r="E21" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F20" s="2"/>
-    </row>
-    <row r="21" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="54"/>
-      <c r="B21" s="2" t="s">
+      <c r="F21" s="2"/>
+    </row>
+    <row r="22" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A22" s="32"/>
+      <c r="B22" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="D22" s="33" t="s">
+        <v>207</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="F22" s="2" t="s">
         <v>206</v>
       </c>
-      <c r="C21" s="1" t="s">
-        <v>205</v>
-      </c>
-      <c r="D21" s="55" t="s">
-        <v>208</v>
-      </c>
-      <c r="E21" s="2" t="s">
-        <v>209</v>
-      </c>
-      <c r="F21" s="2" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A22" s="39" t="s">
-        <v>23</v>
-      </c>
-      <c r="B22" s="39"/>
-      <c r="C22" s="39"/>
-      <c r="D22" s="39"/>
-      <c r="E22" s="39"/>
-      <c r="F22" s="39"/>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A23" s="2"/>
-      <c r="B23" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="C23" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="D23" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E23" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="F23" s="2" t="s">
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A23" s="37" t="s">
+        <v>97</v>
+      </c>
+      <c r="B23" s="37"/>
+      <c r="C23" s="37"/>
+      <c r="D23" s="37"/>
+      <c r="E23" s="37"/>
+      <c r="F23" s="37"/>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A24" s="9"/>
+      <c r="B24" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="E24" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="F24" s="2" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A25" s="26"/>
+      <c r="B25" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E25" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F25" s="2" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A24" s="2"/>
-      <c r="B24" s="2"/>
-      <c r="C24" s="2"/>
-      <c r="D24" s="2"/>
-      <c r="E24" s="2"/>
-      <c r="F24" s="2"/>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A25" s="39" t="s">
-        <v>98</v>
-      </c>
-      <c r="B25" s="39"/>
-      <c r="C25" s="39"/>
-      <c r="D25" s="39"/>
-      <c r="E25" s="39"/>
-      <c r="F25" s="39"/>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A26" s="9"/>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A26" s="26"/>
       <c r="B26" s="2" t="s">
-        <v>126</v>
+        <v>180</v>
       </c>
       <c r="C26" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E26" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F26" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A27" s="39"/>
+      <c r="B27" s="34" t="s">
+        <v>106</v>
+      </c>
+      <c r="C27" s="35" t="s">
+        <v>107</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E27" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F27" s="2" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A28" s="40"/>
+      <c r="B28" s="34"/>
+      <c r="C28" s="35"/>
+      <c r="D28" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="D26" s="2" t="s">
+      <c r="E28" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="E26" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="F26" s="2" t="s">
+      <c r="F28" s="2" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A29" s="9"/>
+      <c r="B29" s="2" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A27" s="26"/>
-      <c r="B27" s="2" t="s">
-        <v>179</v>
-      </c>
-      <c r="C27" s="1" t="s">
-        <v>180</v>
-      </c>
-      <c r="D27" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E27" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="F27" s="2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A28" s="26"/>
-      <c r="B28" s="2" t="s">
-        <v>181</v>
-      </c>
-      <c r="C28" s="1" t="s">
-        <v>182</v>
-      </c>
-      <c r="D28" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E28" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="F28" s="2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A29" s="30"/>
-      <c r="B29" s="36" t="s">
-        <v>107</v>
-      </c>
-      <c r="C29" s="40" t="s">
-        <v>108</v>
+      <c r="C29" s="1" t="s">
+        <v>103</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>18</v>
+        <v>104</v>
       </c>
       <c r="F29" s="2" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A30" s="2"/>
+      <c r="B30" s="2"/>
+      <c r="C30" s="1" t="s">
         <v>109</v>
       </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A30" s="31"/>
-      <c r="B30" s="36"/>
-      <c r="C30" s="40"/>
-      <c r="D30" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="E30" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="F30" s="2" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="D30" s="2"/>
+      <c r="E30" s="2"/>
+      <c r="F30" s="29" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A31" s="9"/>
       <c r="B31" s="2" t="s">
-        <v>103</v>
+        <v>182</v>
       </c>
       <c r="C31" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="E31" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="D31" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E31" s="2" t="s">
+      <c r="F31" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="F31" s="2" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A32" s="2"/>
-      <c r="B32" s="2"/>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A32" s="10"/>
+      <c r="B32" s="2" t="s">
+        <v>196</v>
+      </c>
       <c r="C32" s="1" t="s">
         <v>110</v>
       </c>
       <c r="D32" s="2"/>
       <c r="E32" s="2"/>
       <c r="F32" s="29" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A33" s="44"/>
+      <c r="B33" s="47" t="s">
+        <v>183</v>
+      </c>
+      <c r="C33" s="50" t="s">
+        <v>184</v>
+      </c>
+      <c r="D33" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E33" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F33" s="2" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A34" s="45"/>
+      <c r="B34" s="48"/>
+      <c r="C34" s="51"/>
+      <c r="D34" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="E34" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F34" s="2" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A35" s="45"/>
+      <c r="B35" s="48"/>
+      <c r="C35" s="51"/>
+      <c r="D35" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="E35" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F35" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A36" s="46"/>
+      <c r="B36" s="49"/>
+      <c r="C36" s="52"/>
+      <c r="D36" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="E36" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F36" s="2" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A37" s="23"/>
+      <c r="B37" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="C37" s="24" t="s">
+        <v>189</v>
+      </c>
+      <c r="D37" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E37" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F37" s="2" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A38" s="28"/>
+      <c r="B38" s="2" t="s">
         <v>198</v>
       </c>
-    </row>
-    <row r="33" spans="1:6" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A33" s="9"/>
-      <c r="B33" s="2" t="s">
-        <v>183</v>
-      </c>
-      <c r="C33" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="D33" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="E33" s="2" t="s">
+      <c r="C38" s="27" t="s">
+        <v>199</v>
+      </c>
+      <c r="D38" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E38" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F38" s="2" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A39" s="28"/>
+      <c r="B39" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="C39" s="27" t="s">
+        <v>202</v>
+      </c>
+      <c r="D39" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E39" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F39" s="2" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A40" s="25"/>
+      <c r="B40" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="C40" s="24" t="s">
+        <v>191</v>
+      </c>
+      <c r="D40" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E40" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F40" s="2" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A41" s="9"/>
+      <c r="B41" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D41" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E41" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F41" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="F33" s="2" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A34" s="10"/>
-      <c r="B34" s="2" t="s">
-        <v>197</v>
-      </c>
-      <c r="C34" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="D34" s="2"/>
-      <c r="E34" s="2"/>
-      <c r="F34" s="29" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A35" s="9"/>
-      <c r="B35" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="C35" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="D35" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E35" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="F35" s="2" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A36" s="46"/>
-      <c r="B36" s="32" t="s">
-        <v>184</v>
-      </c>
-      <c r="C36" s="34" t="s">
-        <v>185</v>
-      </c>
-      <c r="D36" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E36" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="F36" s="2" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A37" s="47"/>
-      <c r="B37" s="49"/>
-      <c r="C37" s="50"/>
-      <c r="D37" s="2" t="s">
-        <v>187</v>
-      </c>
-      <c r="E37" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="F37" s="2" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A38" s="47"/>
-      <c r="B38" s="49"/>
-      <c r="C38" s="50"/>
-      <c r="D38" s="2" t="s">
-        <v>188</v>
-      </c>
-      <c r="E38" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="F38" s="2" t="s">
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A42" s="9"/>
+      <c r="B42" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="D42" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="E42" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="F42" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A43" s="37" t="s">
+        <v>192</v>
+      </c>
+      <c r="B43" s="37"/>
+      <c r="C43" s="37"/>
+      <c r="D43" s="37"/>
+      <c r="E43" s="37"/>
+      <c r="F43" s="37"/>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A44" s="9"/>
+      <c r="B44" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="C44" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="D44" s="2"/>
+      <c r="E44" s="2"/>
+      <c r="F44" s="2" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A45" s="41" t="s">
+        <v>28</v>
+      </c>
+      <c r="B45" s="42"/>
+      <c r="C45" s="42"/>
+      <c r="D45" s="42"/>
+      <c r="E45" s="42"/>
+      <c r="F45" s="43"/>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A46" s="2"/>
+      <c r="B46" s="2"/>
+      <c r="C46" s="2"/>
+      <c r="D46" s="2"/>
+      <c r="E46" s="2"/>
+      <c r="F46" s="2"/>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A47" s="37" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A39" s="48"/>
-      <c r="B39" s="33"/>
-      <c r="C39" s="35"/>
-      <c r="D39" s="2" t="s">
-        <v>188</v>
-      </c>
-      <c r="E39" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="F39" s="2" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A40" s="23"/>
-      <c r="B40" s="2" t="s">
-        <v>189</v>
-      </c>
-      <c r="C40" s="24" t="s">
-        <v>190</v>
-      </c>
-      <c r="D40" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E40" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="F40" s="2" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A41" s="28"/>
-      <c r="B41" s="2" t="s">
-        <v>199</v>
-      </c>
-      <c r="C41" s="27" t="s">
-        <v>200</v>
-      </c>
-      <c r="D41" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E41" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="F41" s="2" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A42" s="28"/>
-      <c r="B42" s="2" t="s">
-        <v>202</v>
-      </c>
-      <c r="C42" s="27" t="s">
-        <v>203</v>
-      </c>
-      <c r="D42" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E42" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="F42" s="2" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A43" s="25"/>
-      <c r="B43" s="2" t="s">
-        <v>191</v>
-      </c>
-      <c r="C43" s="24" t="s">
-        <v>192</v>
-      </c>
-      <c r="D43" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E43" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="F43" s="2" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A44" s="39" t="s">
-        <v>193</v>
-      </c>
-      <c r="B44" s="39"/>
-      <c r="C44" s="39"/>
-      <c r="D44" s="39"/>
-      <c r="E44" s="39"/>
-      <c r="F44" s="39"/>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A45" s="9"/>
-      <c r="B45" s="2" t="s">
-        <v>194</v>
-      </c>
-      <c r="C45" s="2" t="s">
-        <v>195</v>
-      </c>
-      <c r="D45" s="2"/>
-      <c r="E45" s="2"/>
-      <c r="F45" s="2" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A46" s="43" t="s">
-        <v>29</v>
-      </c>
-      <c r="B46" s="44"/>
-      <c r="C46" s="44"/>
-      <c r="D46" s="44"/>
-      <c r="E46" s="44"/>
-      <c r="F46" s="45"/>
-    </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A47" s="2"/>
-      <c r="B47" s="2"/>
-      <c r="C47" s="2"/>
-      <c r="D47" s="2"/>
-      <c r="E47" s="2"/>
-      <c r="F47" s="2"/>
+      <c r="B47" s="37"/>
+      <c r="C47" s="37"/>
+      <c r="D47" s="37"/>
+      <c r="E47" s="37"/>
+      <c r="F47" s="37"/>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A48" s="39" t="s">
+      <c r="A48" s="2"/>
+      <c r="B48" s="2"/>
+      <c r="C48" s="2"/>
+      <c r="D48" s="2"/>
+      <c r="E48" s="2"/>
+      <c r="F48" s="2"/>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A49" s="37" t="s">
         <v>30</v>
       </c>
-      <c r="B48" s="39"/>
-      <c r="C48" s="39"/>
-      <c r="D48" s="39"/>
-      <c r="E48" s="39"/>
-      <c r="F48" s="39"/>
-    </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A49" s="2"/>
-      <c r="B49" s="2"/>
-      <c r="C49" s="2"/>
-      <c r="D49" s="2"/>
-      <c r="E49" s="2"/>
-      <c r="F49" s="2"/>
+      <c r="B49" s="37"/>
+      <c r="C49" s="37"/>
+      <c r="D49" s="37"/>
+      <c r="E49" s="37"/>
+      <c r="F49" s="37"/>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A50" s="39" t="s">
-        <v>31</v>
-      </c>
-      <c r="B50" s="39"/>
-      <c r="C50" s="39"/>
-      <c r="D50" s="39"/>
-      <c r="E50" s="39"/>
-      <c r="F50" s="39"/>
+      <c r="A50" s="11"/>
+      <c r="B50" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="D50" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E50" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F50" s="2" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A51" s="11"/>
       <c r="B51" s="2" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="D51" s="2" t="s">
         <v>18</v>
@@ -2268,65 +2334,65 @@
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A52" s="11"/>
-      <c r="B52" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="C52" s="1" t="s">
+      <c r="A52" s="53"/>
+      <c r="B52" s="34" t="s">
+        <v>158</v>
+      </c>
+      <c r="C52" s="35" t="s">
+        <v>159</v>
+      </c>
+      <c r="D52" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E52" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F52" s="2" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A53" s="53"/>
+      <c r="B53" s="34"/>
+      <c r="C53" s="35"/>
+      <c r="D53" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E53" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F53" s="2" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A54" s="11"/>
+      <c r="B54" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="D52" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E52" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="F52" s="2" t="s">
+      <c r="C54" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="D54" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="E54" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F54" s="2" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A53" s="41"/>
-      <c r="B53" s="36" t="s">
-        <v>159</v>
-      </c>
-      <c r="C53" s="40" t="s">
-        <v>160</v>
-      </c>
-      <c r="D53" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E53" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="F53" s="2" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A54" s="41"/>
-      <c r="B54" s="36"/>
-      <c r="C54" s="40"/>
-      <c r="D54" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E54" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="F54" s="2" t="s">
-        <v>161</v>
-      </c>
-    </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A55" s="11"/>
+      <c r="A55" s="9"/>
       <c r="B55" s="2" t="s">
-        <v>139</v>
+        <v>144</v>
       </c>
       <c r="C55" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="D55" s="2" t="s">
         <v>140</v>
-      </c>
-      <c r="D55" s="2" t="s">
-        <v>141</v>
       </c>
       <c r="E55" s="2" t="s">
         <v>4</v>
@@ -2338,562 +2404,558 @@
     <row r="56" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A56" s="9"/>
       <c r="B56" s="2" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="C56" s="1" t="s">
         <v>146</v>
       </c>
       <c r="D56" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E56" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F56" s="2" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A57" s="11"/>
+      <c r="B57" s="2" t="s">
         <v>141</v>
       </c>
-      <c r="E56" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="F56" s="2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A57" s="9"/>
-      <c r="B57" s="2" t="s">
-        <v>148</v>
-      </c>
       <c r="C57" s="1" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="E57" s="2" t="s">
         <v>4</v>
       </c>
       <c r="F57" s="2" t="s">
-        <v>149</v>
+        <v>143</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A58" s="11"/>
-      <c r="B58" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="C58" s="1" t="s">
-        <v>143</v>
+      <c r="A58" s="38"/>
+      <c r="B58" s="34" t="s">
+        <v>152</v>
+      </c>
+      <c r="C58" s="35" t="s">
+        <v>153</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>4</v>
+        <v>140</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>4</v>
+        <v>57</v>
       </c>
       <c r="F58" s="2" t="s">
-        <v>144</v>
+        <v>156</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A59" s="42"/>
-      <c r="B59" s="36" t="s">
-        <v>153</v>
-      </c>
-      <c r="C59" s="40" t="s">
-        <v>154</v>
-      </c>
+      <c r="A59" s="38"/>
+      <c r="B59" s="34"/>
+      <c r="C59" s="35"/>
       <c r="D59" s="2" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>58</v>
+        <v>4</v>
       </c>
       <c r="F59" s="2" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A60" s="42"/>
-      <c r="B60" s="36"/>
-      <c r="C60" s="40"/>
-      <c r="D60" s="2" t="s">
-        <v>141</v>
+    <row r="60" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A60" s="39"/>
+      <c r="B60" s="34" t="s">
+        <v>167</v>
+      </c>
+      <c r="C60" s="50" t="s">
+        <v>168</v>
+      </c>
+      <c r="D60" s="21" t="s">
+        <v>18</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>4</v>
+        <v>18</v>
       </c>
       <c r="F60" s="2" t="s">
-        <v>158</v>
+        <v>169</v>
       </c>
     </row>
     <row r="61" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A61" s="30"/>
-      <c r="B61" s="36" t="s">
-        <v>168</v>
-      </c>
-      <c r="C61" s="34" t="s">
+      <c r="A61" s="40"/>
+      <c r="B61" s="34"/>
+      <c r="C61" s="52"/>
+      <c r="D61" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="E61" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F61" s="1" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A62" s="54"/>
+      <c r="B62" s="34" t="s">
+        <v>173</v>
+      </c>
+      <c r="C62" s="50" t="s">
+        <v>171</v>
+      </c>
+      <c r="D62" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="E62" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F62" s="2" t="s">
         <v>169</v>
       </c>
-      <c r="D61" s="21" t="s">
-        <v>18</v>
-      </c>
-      <c r="E61" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="F61" s="2" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="62" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A62" s="31"/>
-      <c r="B62" s="36"/>
-      <c r="C62" s="35"/>
-      <c r="D62" s="21" t="s">
-        <v>18</v>
-      </c>
-      <c r="E62" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="F62" s="1" t="s">
-        <v>171</v>
-      </c>
     </row>
     <row r="63" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A63" s="37"/>
-      <c r="B63" s="36" t="s">
-        <v>174</v>
-      </c>
-      <c r="C63" s="34" t="s">
+      <c r="A63" s="55"/>
+      <c r="B63" s="34"/>
+      <c r="C63" s="52"/>
+      <c r="D63" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="E63" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F63" s="1" t="s">
         <v>172</v>
       </c>
-      <c r="D63" s="21" t="s">
-        <v>18</v>
-      </c>
-      <c r="E63" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="F63" s="2" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="64" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A64" s="38"/>
-      <c r="B64" s="36"/>
-      <c r="C64" s="35"/>
-      <c r="D64" s="21" t="s">
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A64" s="39"/>
+      <c r="B64" s="47" t="s">
+        <v>163</v>
+      </c>
+      <c r="C64" s="50" t="s">
+        <v>164</v>
+      </c>
+      <c r="D64" s="18" t="s">
         <v>18</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="F64" s="1" t="s">
-        <v>173</v>
+        <v>18</v>
+      </c>
+      <c r="F64" s="2" t="s">
+        <v>165</v>
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A65" s="30"/>
-      <c r="B65" s="32" t="s">
-        <v>164</v>
-      </c>
-      <c r="C65" s="34" t="s">
-        <v>165</v>
-      </c>
-      <c r="D65" s="18" t="s">
+      <c r="A65" s="40"/>
+      <c r="B65" s="49"/>
+      <c r="C65" s="52"/>
+      <c r="D65" s="2" t="s">
         <v>18</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="F65" s="2" t="s">
         <v>166</v>
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A66" s="31"/>
-      <c r="B66" s="33"/>
-      <c r="C66" s="35"/>
+      <c r="A66" s="22"/>
+      <c r="B66" s="19" t="s">
+        <v>174</v>
+      </c>
+      <c r="C66" s="20" t="s">
+        <v>175</v>
+      </c>
       <c r="D66" s="2" t="s">
-        <v>18</v>
+        <v>176</v>
       </c>
       <c r="E66" s="2" t="s">
         <v>4</v>
       </c>
       <c r="F66" s="2" t="s">
-        <v>167</v>
+        <v>177</v>
       </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A67" s="22"/>
-      <c r="B67" s="19" t="s">
-        <v>175</v>
-      </c>
-      <c r="C67" s="20" t="s">
-        <v>176</v>
+      <c r="A67" s="17"/>
+      <c r="B67" s="16" t="s">
+        <v>161</v>
+      </c>
+      <c r="C67" s="15" t="s">
+        <v>162</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>177</v>
+        <v>18</v>
       </c>
       <c r="E67" s="2" t="s">
         <v>4</v>
       </c>
       <c r="F67" s="2" t="s">
-        <v>178</v>
+        <v>148</v>
       </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A68" s="17"/>
-      <c r="B68" s="16" t="s">
-        <v>162</v>
-      </c>
-      <c r="C68" s="15" t="s">
-        <v>163</v>
+      <c r="A68" s="36"/>
+      <c r="B68" s="34" t="s">
+        <v>149</v>
+      </c>
+      <c r="C68" s="35" t="s">
+        <v>150</v>
       </c>
       <c r="D68" s="2" t="s">
         <v>18</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>4</v>
+        <v>18</v>
       </c>
       <c r="F68" s="2" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A69" s="51"/>
-      <c r="B69" s="36" t="s">
-        <v>150</v>
-      </c>
-      <c r="C69" s="40" t="s">
-        <v>151</v>
-      </c>
+      <c r="A69" s="36"/>
+      <c r="B69" s="34"/>
+      <c r="C69" s="35"/>
       <c r="D69" s="2" t="s">
         <v>18</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="F69" s="2" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A70" s="51"/>
-      <c r="B70" s="36"/>
-      <c r="C70" s="40"/>
-      <c r="D70" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E70" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="F70" s="2" t="s">
-        <v>155</v>
-      </c>
+      <c r="A70" s="37" t="s">
+        <v>65</v>
+      </c>
+      <c r="B70" s="37"/>
+      <c r="C70" s="37"/>
+      <c r="D70" s="37"/>
+      <c r="E70" s="37"/>
+      <c r="F70" s="37"/>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A71" s="39" t="s">
+      <c r="A71" s="2"/>
+      <c r="B71" s="34" t="s">
         <v>66</v>
       </c>
-      <c r="B71" s="39"/>
-      <c r="C71" s="39"/>
-      <c r="D71" s="39"/>
-      <c r="E71" s="39"/>
-      <c r="F71" s="39"/>
+      <c r="C71" s="35" t="s">
+        <v>63</v>
+      </c>
+      <c r="D71" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E71" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F71" s="2" t="s">
+        <v>69</v>
+      </c>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A72" s="2"/>
-      <c r="B72" s="36" t="s">
-        <v>67</v>
-      </c>
-      <c r="C72" s="40" t="s">
+      <c r="B72" s="34"/>
+      <c r="C72" s="35"/>
+      <c r="D72" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E72" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F72" s="2" t="s">
         <v>64</v>
-      </c>
-      <c r="D72" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E72" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="F72" s="2" t="s">
-        <v>70</v>
       </c>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A73" s="2"/>
-      <c r="B73" s="36"/>
-      <c r="C73" s="40"/>
+      <c r="B73" s="34" t="s">
+        <v>67</v>
+      </c>
+      <c r="C73" s="35" t="s">
+        <v>68</v>
+      </c>
       <c r="D73" s="2" t="s">
         <v>18</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>4</v>
+        <v>18</v>
       </c>
       <c r="F73" s="2" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A74" s="2"/>
-      <c r="B74" s="36" t="s">
-        <v>68</v>
-      </c>
-      <c r="C74" s="40" t="s">
-        <v>69</v>
-      </c>
+      <c r="B74" s="34"/>
+      <c r="C74" s="35"/>
       <c r="D74" s="2" t="s">
         <v>18</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="F74" s="2" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A75" s="2"/>
-      <c r="B75" s="36"/>
-      <c r="C75" s="40"/>
+      <c r="B75" s="14" t="s">
+        <v>81</v>
+      </c>
+      <c r="C75" s="15" t="s">
+        <v>82</v>
+      </c>
       <c r="D75" s="2" t="s">
         <v>18</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>4</v>
+        <v>79</v>
       </c>
       <c r="F75" s="2" t="s">
-        <v>65</v>
+        <v>83</v>
       </c>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A76" s="2"/>
       <c r="B76" s="14" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="C76" s="15" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="D76" s="2" t="s">
         <v>18</v>
       </c>
       <c r="E76" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="F76" s="2" t="s">
         <v>80</v>
-      </c>
-      <c r="F76" s="2" t="s">
-        <v>84</v>
       </c>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A77" s="2"/>
-      <c r="B77" s="14" t="s">
-        <v>78</v>
-      </c>
-      <c r="C77" s="15" t="s">
+      <c r="B77" s="34" t="s">
+        <v>85</v>
+      </c>
+      <c r="C77" s="35" t="s">
+        <v>84</v>
+      </c>
+      <c r="D77" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E77" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="D77" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E77" s="2" t="s">
-        <v>80</v>
-      </c>
       <c r="F77" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A78" s="2"/>
-      <c r="B78" s="36" t="s">
+      <c r="B78" s="34"/>
+      <c r="C78" s="35"/>
+      <c r="D78" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E78" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="C78" s="40" t="s">
-        <v>85</v>
-      </c>
-      <c r="D78" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E78" s="2" t="s">
-        <v>80</v>
-      </c>
       <c r="F78" s="2" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A79" s="2"/>
-      <c r="B79" s="36"/>
-      <c r="C79" s="40"/>
+      <c r="B79" s="34" t="s">
+        <v>88</v>
+      </c>
+      <c r="C79" s="35" t="s">
+        <v>89</v>
+      </c>
       <c r="D79" s="2" t="s">
         <v>18</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="F79" s="2" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A80" s="2"/>
-      <c r="B80" s="36" t="s">
-        <v>89</v>
-      </c>
-      <c r="C80" s="40" t="s">
-        <v>90</v>
-      </c>
+      <c r="B80" s="34"/>
+      <c r="C80" s="35"/>
       <c r="D80" s="2" t="s">
         <v>18</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="F80" s="2" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A81" s="2"/>
-      <c r="B81" s="36"/>
-      <c r="C81" s="40"/>
-      <c r="D81" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E81" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="F81" s="2" t="s">
-        <v>88</v>
-      </c>
+      <c r="B81" s="14"/>
+      <c r="C81" s="15"/>
+      <c r="D81" s="2"/>
+      <c r="E81" s="2"/>
+      <c r="F81" s="2"/>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A82" s="2"/>
-      <c r="B82" s="14"/>
-      <c r="C82" s="15"/>
-      <c r="D82" s="2"/>
-      <c r="E82" s="2"/>
-      <c r="F82" s="2"/>
+      <c r="A82" s="37" t="s">
+        <v>90</v>
+      </c>
+      <c r="B82" s="37"/>
+      <c r="C82" s="37"/>
+      <c r="D82" s="37"/>
+      <c r="E82" s="37"/>
+      <c r="F82" s="37"/>
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A83" s="39" t="s">
+      <c r="A83" s="2"/>
+      <c r="B83" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="C83" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="B83" s="39"/>
-      <c r="C83" s="39"/>
-      <c r="D83" s="39"/>
-      <c r="E83" s="39"/>
-      <c r="F83" s="39"/>
+      <c r="D83" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="E83" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="F83" s="4"/>
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A84" s="2"/>
       <c r="B84" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="C84" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="D84" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="C84" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="D84" s="4" t="s">
-        <v>94</v>
-      </c>
       <c r="E84" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="F84" s="4"/>
+        <v>93</v>
+      </c>
+      <c r="F84" s="12" t="s">
+        <v>96</v>
+      </c>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A85" s="2"/>
-      <c r="B85" s="5" t="s">
-        <v>96</v>
-      </c>
-      <c r="C85" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="D85" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="E85" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="F85" s="12" t="s">
-        <v>97</v>
-      </c>
+      <c r="A85" s="37" t="s">
+        <v>31</v>
+      </c>
+      <c r="B85" s="37"/>
+      <c r="C85" s="37"/>
+      <c r="D85" s="37"/>
+      <c r="E85" s="37"/>
+      <c r="F85" s="37"/>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A86" s="39" t="s">
-        <v>32</v>
-      </c>
-      <c r="B86" s="39"/>
-      <c r="C86" s="39"/>
-      <c r="D86" s="39"/>
-      <c r="E86" s="39"/>
-      <c r="F86" s="39"/>
+      <c r="A86" s="2"/>
+      <c r="B86" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="C86" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="D86" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="E86" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="F86" s="2" t="s">
+        <v>74</v>
+      </c>
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A87" s="2"/>
       <c r="B87" s="2" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="C87" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="D87" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="D87" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="E87" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="F87" s="2" t="s">
-        <v>75</v>
-      </c>
+      <c r="E87" s="2"/>
+      <c r="F87" s="2"/>
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A88" s="2"/>
-      <c r="B88" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="C88" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="D88" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="E88" s="2"/>
-      <c r="F88" s="2"/>
+      <c r="A88" s="37" t="s">
+        <v>32</v>
+      </c>
+      <c r="B88" s="37"/>
+      <c r="C88" s="37"/>
+      <c r="D88" s="37"/>
+      <c r="E88" s="37"/>
+      <c r="F88" s="37"/>
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A89" s="39" t="s">
+      <c r="A89" s="2"/>
+      <c r="B89" s="2"/>
+      <c r="C89" s="2"/>
+      <c r="D89" s="2"/>
+      <c r="E89" s="2"/>
+      <c r="F89" s="2"/>
+    </row>
+    <row r="90" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A90" s="37" t="s">
         <v>33</v>
       </c>
-      <c r="B89" s="39"/>
-      <c r="C89" s="39"/>
-      <c r="D89" s="39"/>
-      <c r="E89" s="39"/>
-      <c r="F89" s="39"/>
-    </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A90" s="2"/>
-      <c r="B90" s="2"/>
-      <c r="C90" s="2"/>
-      <c r="D90" s="2"/>
-      <c r="E90" s="2"/>
-      <c r="F90" s="2"/>
+      <c r="B90" s="37"/>
+      <c r="C90" s="37"/>
+      <c r="D90" s="37"/>
+      <c r="E90" s="37"/>
+      <c r="F90" s="37"/>
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A91" s="39" t="s">
-        <v>34</v>
-      </c>
-      <c r="B91" s="39"/>
-      <c r="C91" s="39"/>
-      <c r="D91" s="39"/>
-      <c r="E91" s="39"/>
-      <c r="F91" s="39"/>
+      <c r="A91" s="2"/>
+      <c r="B91" s="34" t="s">
+        <v>111</v>
+      </c>
+      <c r="C91" s="35" t="s">
+        <v>112</v>
+      </c>
+      <c r="D91" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="E91" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="F91" s="2" t="s">
+        <v>113</v>
+      </c>
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A92" s="2"/>
-      <c r="B92" s="36" t="s">
-        <v>112</v>
-      </c>
-      <c r="C92" s="40" t="s">
-        <v>113</v>
-      </c>
+      <c r="B92" s="34"/>
+      <c r="C92" s="34"/>
       <c r="D92" s="2" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>118</v>
+        <v>4</v>
       </c>
       <c r="F92" s="2" t="s">
         <v>114</v>
@@ -2901,170 +2963,159 @@
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A93" s="2"/>
-      <c r="B93" s="36"/>
-      <c r="C93" s="36"/>
+      <c r="B93" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="C93" s="15" t="s">
+        <v>115</v>
+      </c>
       <c r="D93" s="2" t="s">
-        <v>118</v>
+        <v>18</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>4</v>
+        <v>41</v>
       </c>
       <c r="F93" s="2" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A94" s="2"/>
-      <c r="B94" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="C94" s="15" t="s">
-        <v>116</v>
+      <c r="B94" s="34" t="s">
+        <v>118</v>
+      </c>
+      <c r="C94" s="35" t="s">
+        <v>119</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>18</v>
+        <v>52</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F94" s="2" t="s">
-        <v>114</v>
+        <v>120</v>
       </c>
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A95" s="2"/>
-      <c r="B95" s="36" t="s">
-        <v>119</v>
-      </c>
-      <c r="C95" s="40" t="s">
-        <v>120</v>
-      </c>
+      <c r="B95" s="34"/>
+      <c r="C95" s="35"/>
       <c r="D95" s="2" t="s">
-        <v>53</v>
+        <v>18</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="F95" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="F95" s="13" t="s">
         <v>121</v>
       </c>
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A96" s="2"/>
-      <c r="B96" s="36"/>
-      <c r="C96" s="40"/>
-      <c r="D96" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E96" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="F96" s="13" t="s">
-        <v>122</v>
-      </c>
+      <c r="A96" s="37" t="s">
+        <v>34</v>
+      </c>
+      <c r="B96" s="37"/>
+      <c r="C96" s="37"/>
+      <c r="D96" s="37"/>
+      <c r="E96" s="37"/>
+      <c r="F96" s="37"/>
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A97" s="39" t="s">
-        <v>35</v>
-      </c>
-      <c r="B97" s="39"/>
-      <c r="C97" s="39"/>
-      <c r="D97" s="39"/>
-      <c r="E97" s="39"/>
-      <c r="F97" s="39"/>
-    </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A98" s="2"/>
-      <c r="B98" s="2"/>
-      <c r="C98" s="2"/>
-      <c r="D98" s="2"/>
-      <c r="E98" s="2"/>
-      <c r="F98" s="2"/>
-    </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="F100" t="s">
-        <v>156</v>
+      <c r="A97" s="2"/>
+      <c r="B97" s="2"/>
+      <c r="C97" s="2"/>
+      <c r="D97" s="2"/>
+      <c r="E97" s="2"/>
+      <c r="F97" s="2"/>
+    </row>
+    <row r="99" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="F99" s="56" t="s">
+        <v>155</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="51">
-    <mergeCell ref="B95:B96"/>
-    <mergeCell ref="C95:C96"/>
-    <mergeCell ref="C80:C81"/>
-    <mergeCell ref="B80:B81"/>
-    <mergeCell ref="A69:A70"/>
-    <mergeCell ref="B69:B70"/>
-    <mergeCell ref="C69:C70"/>
-    <mergeCell ref="A89:F89"/>
-    <mergeCell ref="A91:F91"/>
-    <mergeCell ref="A86:F86"/>
-    <mergeCell ref="A59:A60"/>
-    <mergeCell ref="B29:B30"/>
-    <mergeCell ref="C29:C30"/>
+  <mergeCells count="50">
+    <mergeCell ref="A64:A65"/>
+    <mergeCell ref="B64:B65"/>
+    <mergeCell ref="C64:C65"/>
+    <mergeCell ref="A60:A61"/>
+    <mergeCell ref="B60:B61"/>
+    <mergeCell ref="C60:C61"/>
+    <mergeCell ref="A62:A63"/>
+    <mergeCell ref="C62:C63"/>
+    <mergeCell ref="B62:B63"/>
+    <mergeCell ref="A96:F96"/>
+    <mergeCell ref="A47:F47"/>
+    <mergeCell ref="A49:F49"/>
+    <mergeCell ref="A70:F70"/>
+    <mergeCell ref="A82:F82"/>
+    <mergeCell ref="B71:B72"/>
+    <mergeCell ref="C71:C72"/>
+    <mergeCell ref="B73:B74"/>
+    <mergeCell ref="C73:C74"/>
+    <mergeCell ref="B77:B78"/>
+    <mergeCell ref="C77:C78"/>
+    <mergeCell ref="B91:B92"/>
+    <mergeCell ref="C91:C92"/>
+    <mergeCell ref="A52:A53"/>
+    <mergeCell ref="B52:B53"/>
+    <mergeCell ref="B58:B59"/>
+    <mergeCell ref="A58:A59"/>
+    <mergeCell ref="B27:B28"/>
+    <mergeCell ref="C27:C28"/>
     <mergeCell ref="A2:F2"/>
-    <mergeCell ref="A7:F7"/>
-    <mergeCell ref="A14:F14"/>
-    <mergeCell ref="A22:F22"/>
-    <mergeCell ref="A25:F25"/>
-    <mergeCell ref="A29:A30"/>
-    <mergeCell ref="C59:C60"/>
-    <mergeCell ref="A46:F46"/>
-    <mergeCell ref="A36:A39"/>
-    <mergeCell ref="B36:B39"/>
-    <mergeCell ref="C36:C39"/>
-    <mergeCell ref="C53:C54"/>
-    <mergeCell ref="A44:F44"/>
-    <mergeCell ref="A97:F97"/>
-    <mergeCell ref="A48:F48"/>
-    <mergeCell ref="A50:F50"/>
-    <mergeCell ref="A71:F71"/>
-    <mergeCell ref="A83:F83"/>
-    <mergeCell ref="B72:B73"/>
-    <mergeCell ref="C72:C73"/>
-    <mergeCell ref="B74:B75"/>
-    <mergeCell ref="C74:C75"/>
-    <mergeCell ref="B78:B79"/>
-    <mergeCell ref="C78:C79"/>
-    <mergeCell ref="B92:B93"/>
-    <mergeCell ref="C92:C93"/>
-    <mergeCell ref="A53:A54"/>
-    <mergeCell ref="B53:B54"/>
-    <mergeCell ref="B59:B60"/>
-    <mergeCell ref="A65:A66"/>
-    <mergeCell ref="B65:B66"/>
-    <mergeCell ref="C65:C66"/>
-    <mergeCell ref="A61:A62"/>
-    <mergeCell ref="B61:B62"/>
-    <mergeCell ref="C61:C62"/>
-    <mergeCell ref="A63:A64"/>
-    <mergeCell ref="C63:C64"/>
-    <mergeCell ref="B63:B64"/>
+    <mergeCell ref="A8:F8"/>
+    <mergeCell ref="A15:F15"/>
+    <mergeCell ref="A23:F23"/>
+    <mergeCell ref="A27:A28"/>
+    <mergeCell ref="C58:C59"/>
+    <mergeCell ref="A45:F45"/>
+    <mergeCell ref="A33:A36"/>
+    <mergeCell ref="B33:B36"/>
+    <mergeCell ref="C33:C36"/>
+    <mergeCell ref="C52:C53"/>
+    <mergeCell ref="A43:F43"/>
+    <mergeCell ref="B94:B95"/>
+    <mergeCell ref="C94:C95"/>
+    <mergeCell ref="C79:C80"/>
+    <mergeCell ref="B79:B80"/>
+    <mergeCell ref="A68:A69"/>
+    <mergeCell ref="B68:B69"/>
+    <mergeCell ref="C68:C69"/>
+    <mergeCell ref="A88:F88"/>
+    <mergeCell ref="A90:F90"/>
+    <mergeCell ref="A85:F85"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="C3" r:id="rId1" xr:uid="{3FB3FA06-DE47-4C2D-AFD7-F5FC45E3D126}"/>
     <hyperlink ref="C4" r:id="rId2" xr:uid="{C4A51F70-7D5B-496B-8FD0-AB7121D9FCE1}"/>
-    <hyperlink ref="C8" r:id="rId3" xr:uid="{678D7AA2-36D2-4A02-971F-3FB9391E8E35}"/>
-    <hyperlink ref="C15" r:id="rId4" xr:uid="{2AC6AF52-CC30-4063-833D-09178907C109}"/>
-    <hyperlink ref="C23" r:id="rId5" xr:uid="{6352E065-8925-49FF-AA82-66ED2F9F8651}"/>
-    <hyperlink ref="C16" r:id="rId6" xr:uid="{047C68C0-B7AB-4E77-9D1E-B162BD11A209}"/>
-    <hyperlink ref="C17" r:id="rId7" xr:uid="{1ABD0EDA-F48F-4D2F-B13C-180B398F1FCD}"/>
-    <hyperlink ref="C72" r:id="rId8" xr:uid="{35D2A43C-BF1B-4339-9217-7116005F7034}"/>
-    <hyperlink ref="C74" r:id="rId9" xr:uid="{233456E2-1B15-4448-A669-82C381357683}"/>
-    <hyperlink ref="C87" r:id="rId10" xr:uid="{4A724644-7F2B-4DE6-9141-A1802140FB4A}"/>
-    <hyperlink ref="C84" r:id="rId11" xr:uid="{914A5C5A-20B3-4526-A460-020F9852AFDB}"/>
-    <hyperlink ref="C85" r:id="rId12" xr:uid="{0B2D15B8-18BF-46A5-991E-6E53ADC95851}"/>
-    <hyperlink ref="C26" r:id="rId13" xr:uid="{93A177B9-936F-4ED5-9F32-EB31F0D8F614}"/>
-    <hyperlink ref="C92" r:id="rId14" xr:uid="{9CD2E86C-B1BA-4CC3-9E52-ECA767380715}"/>
-    <hyperlink ref="C94" r:id="rId15" xr:uid="{30EBB8AD-10BE-47B9-BF85-DBCCCE948784}"/>
-    <hyperlink ref="F96" r:id="rId16" xr:uid="{080A2B1B-6640-47F1-9DAB-1F0914BD9938}"/>
-    <hyperlink ref="C51" r:id="rId17" xr:uid="{DD8AB0F8-5B5E-4F6E-A0B4-339B324BDAC3}"/>
-    <hyperlink ref="C35" r:id="rId18" xr:uid="{43B67C49-DC70-412F-B095-E684E07FF196}"/>
-    <hyperlink ref="C61" r:id="rId19" xr:uid="{7FDCAB78-56F5-40D3-8A09-8A8A0E54E05D}"/>
-    <hyperlink ref="F62" r:id="rId20" xr:uid="{F7F3C873-8E94-4212-B22A-52BF75A478D8}"/>
-    <hyperlink ref="C29" r:id="rId21" xr:uid="{F6C15430-DBA9-4DAD-A411-65B1524C625E}"/>
+    <hyperlink ref="C9" r:id="rId3" xr:uid="{678D7AA2-36D2-4A02-971F-3FB9391E8E35}"/>
+    <hyperlink ref="C16" r:id="rId4" xr:uid="{2AC6AF52-CC30-4063-833D-09178907C109}"/>
+    <hyperlink ref="C41" r:id="rId5" xr:uid="{6352E065-8925-49FF-AA82-66ED2F9F8651}"/>
+    <hyperlink ref="C17" r:id="rId6" xr:uid="{047C68C0-B7AB-4E77-9D1E-B162BD11A209}"/>
+    <hyperlink ref="C18" r:id="rId7" xr:uid="{1ABD0EDA-F48F-4D2F-B13C-180B398F1FCD}"/>
+    <hyperlink ref="C71" r:id="rId8" xr:uid="{35D2A43C-BF1B-4339-9217-7116005F7034}"/>
+    <hyperlink ref="C73" r:id="rId9" xr:uid="{233456E2-1B15-4448-A669-82C381357683}"/>
+    <hyperlink ref="C86" r:id="rId10" xr:uid="{4A724644-7F2B-4DE6-9141-A1802140FB4A}"/>
+    <hyperlink ref="C83" r:id="rId11" xr:uid="{914A5C5A-20B3-4526-A460-020F9852AFDB}"/>
+    <hyperlink ref="C84" r:id="rId12" xr:uid="{0B2D15B8-18BF-46A5-991E-6E53ADC95851}"/>
+    <hyperlink ref="C24" r:id="rId13" xr:uid="{93A177B9-936F-4ED5-9F32-EB31F0D8F614}"/>
+    <hyperlink ref="C91" r:id="rId14" xr:uid="{9CD2E86C-B1BA-4CC3-9E52-ECA767380715}"/>
+    <hyperlink ref="C93" r:id="rId15" xr:uid="{30EBB8AD-10BE-47B9-BF85-DBCCCE948784}"/>
+    <hyperlink ref="F95" r:id="rId16" xr:uid="{080A2B1B-6640-47F1-9DAB-1F0914BD9938}"/>
+    <hyperlink ref="C50" r:id="rId17" xr:uid="{DD8AB0F8-5B5E-4F6E-A0B4-339B324BDAC3}"/>
+    <hyperlink ref="C7" r:id="rId18" xr:uid="{43B67C49-DC70-412F-B095-E684E07FF196}"/>
+    <hyperlink ref="C60" r:id="rId19" xr:uid="{7FDCAB78-56F5-40D3-8A09-8A8A0E54E05D}"/>
+    <hyperlink ref="F61" r:id="rId20" xr:uid="{F7F3C873-8E94-4212-B22A-52BF75A478D8}"/>
+    <hyperlink ref="C27" r:id="rId21" xr:uid="{F6C15430-DBA9-4DAD-A411-65B1524C625E}"/>
+    <hyperlink ref="G16" r:id="rId22" display="https://leetcode.com/problems/maximum-sum-circular-subarray/" xr:uid="{A4CEEEE3-5EE5-4166-9A65-51E09840E49F}"/>
+    <hyperlink ref="G17" r:id="rId23" display="https://leetcode.com/problems/maximum-product-subarray/" xr:uid="{E66937F4-342E-466B-92BD-529EAD0F1180}"/>
+    <hyperlink ref="G18" r:id="rId24" display="https://leetcode.com/problems/maximum-length-of-subarray-with-positive-product/" xr:uid="{C0B6118F-C23A-4E55-881A-F4A1DA018A1F}"/>
+    <hyperlink ref="C6" r:id="rId25" xr:uid="{D548A552-BEA3-46D9-89FD-0EDF330CCD4B}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="90" verticalDpi="90" r:id="rId22"/>
+  <pageSetup orientation="portrait" horizontalDpi="90" verticalDpi="90" r:id="rId26"/>
   <headerFooter>
     <oddFooter>&amp;L12/30/2021&amp;CAXP Internal&amp;R1</oddFooter>
   </headerFooter>

--- a/SDE Sheet.xlsx
+++ b/SDE Sheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Src Code\Personal\SDE-Sheet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CAEC2609-690D-4175-BF53-C4D3F9A98E6A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9FF3BF1E-DF15-489B-AE30-CEC3373A7626}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{83934561-A72F-4836-B1E7-4EE8C35F9874}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="367" uniqueCount="217">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="378" uniqueCount="223">
   <si>
     <t>Matrix</t>
   </si>
@@ -804,6 +804,24 @@
   </si>
   <si>
     <t>https://leetcode.com/problems/merge-intervals/</t>
+  </si>
+  <si>
+    <t>Merge Sorted Array</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/merge-sorted-array/</t>
+  </si>
+  <si>
+    <t>Reservoir Sampling Algorithm</t>
+  </si>
+  <si>
+    <t>Robot Bounded In Circle</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/robot-bounded-in-circle/</t>
+  </si>
+  <si>
+    <t>Must revise, new type of solution, Most asked Amazon interview question</t>
   </si>
 </sst>
 </file>
@@ -1115,75 +1133,75 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1500,11 +1518,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D3EBAEE5-B4E7-4BD5-B694-FD6EEA5E8AC0}">
-  <dimension ref="A1:G99"/>
+  <dimension ref="A1:G102"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="71" zoomScaleNormal="94" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F48" sqref="F48"/>
+    <sheetView tabSelected="1" zoomScale="44" zoomScaleNormal="94" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A90" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1538,14 +1556,14 @@
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A2" s="37" t="s">
+      <c r="A2" s="39" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="37"/>
-      <c r="C2" s="37"/>
-      <c r="D2" s="37"/>
-      <c r="E2" s="37"/>
-      <c r="F2" s="37"/>
+      <c r="B2" s="39"/>
+      <c r="C2" s="39"/>
+      <c r="D2" s="39"/>
+      <c r="E2" s="39"/>
+      <c r="F2" s="39"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A3" s="9"/>
@@ -1638,14 +1656,14 @@
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A8" s="37" t="s">
+      <c r="A8" s="39" t="s">
         <v>15</v>
       </c>
-      <c r="B8" s="37"/>
-      <c r="C8" s="37"/>
-      <c r="D8" s="37"/>
-      <c r="E8" s="37"/>
-      <c r="F8" s="37"/>
+      <c r="B8" s="39"/>
+      <c r="C8" s="39"/>
+      <c r="D8" s="39"/>
+      <c r="E8" s="39"/>
+      <c r="F8" s="39"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A9" s="9"/>
@@ -1756,46 +1774,43 @@
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A15" s="37" t="s">
+      <c r="A15" s="9"/>
+      <c r="B15" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F15" s="8" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A16" s="39" t="s">
         <v>22</v>
       </c>
-      <c r="B15" s="37"/>
-      <c r="C15" s="37"/>
-      <c r="D15" s="37"/>
-      <c r="E15" s="37"/>
-      <c r="F15" s="37"/>
-      <c r="G15" s="56" t="s">
+      <c r="B16" s="39"/>
+      <c r="C16" s="39"/>
+      <c r="D16" s="39"/>
+      <c r="E16" s="39"/>
+      <c r="F16" s="39"/>
+      <c r="G16" s="34" t="s">
         <v>212</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A16" s="11"/>
-      <c r="B16" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E16" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="F16" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="G16" s="57" t="s">
-        <v>209</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A17" s="11"/>
       <c r="B17" s="2" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="D17" s="2" t="s">
         <v>18</v>
@@ -1806,154 +1821,157 @@
       <c r="F17" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="G17" s="57" t="s">
+      <c r="G17" s="35" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A18" s="11"/>
+      <c r="B18" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="G18" s="35" t="s">
         <v>210</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A18" s="2"/>
-      <c r="B18" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="D18" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E18" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="F18" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="G18" s="57" t="s">
-        <v>211</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A19" s="2"/>
       <c r="B19" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F19" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="G19" s="35" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A20" s="2"/>
+      <c r="B20" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="C19" s="1" t="s">
+      <c r="C20" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="D19" s="2" t="s">
+      <c r="D20" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="E19" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="F19" s="2" t="s">
+      <c r="E20" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F20" s="2" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A20" s="31"/>
-      <c r="B20" s="2" t="s">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A21" s="31"/>
+      <c r="B21" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="C20" s="1" t="s">
+      <c r="C21" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="D20" s="2" t="s">
+      <c r="D21" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E20" s="2" t="s">
+      <c r="E21" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="F20" s="2" t="s">
+      <c r="F21" s="2" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="21" spans="1:7" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A21" s="30"/>
-      <c r="B21" s="2" t="s">
+    <row r="22" spans="1:7" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A22" s="30"/>
+      <c r="B22" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="C21" s="1" t="s">
+      <c r="C22" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="D21" s="2" t="s">
+      <c r="D22" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="E21" s="2" t="s">
+      <c r="E22" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F21" s="2"/>
-    </row>
-    <row r="22" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="32"/>
-      <c r="B22" s="2" t="s">
+      <c r="F22" s="2"/>
+    </row>
+    <row r="23" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A23" s="32"/>
+      <c r="B23" s="2" t="s">
         <v>205</v>
       </c>
-      <c r="C22" s="1" t="s">
+      <c r="C23" s="1" t="s">
         <v>204</v>
       </c>
-      <c r="D22" s="33" t="s">
+      <c r="D23" s="33" t="s">
         <v>207</v>
       </c>
-      <c r="E22" s="2" t="s">
+      <c r="E23" s="2" t="s">
         <v>208</v>
       </c>
-      <c r="F22" s="2" t="s">
+      <c r="F23" s="2" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A23" s="37" t="s">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A24" s="39" t="s">
         <v>97</v>
       </c>
-      <c r="B23" s="37"/>
-      <c r="C23" s="37"/>
-      <c r="D23" s="37"/>
-      <c r="E23" s="37"/>
-      <c r="F23" s="37"/>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A24" s="9"/>
-      <c r="B24" s="2" t="s">
+      <c r="B24" s="39"/>
+      <c r="C24" s="39"/>
+      <c r="D24" s="39"/>
+      <c r="E24" s="39"/>
+      <c r="F24" s="39"/>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A25" s="9"/>
+      <c r="B25" s="2" t="s">
         <v>125</v>
       </c>
-      <c r="C24" s="1" t="s">
+      <c r="C25" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="D24" s="2" t="s">
+      <c r="D25" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="E24" s="2" t="s">
+      <c r="E25" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="F24" s="2" t="s">
+      <c r="F25" s="2" t="s">
         <v>101</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A25" s="26"/>
-      <c r="B25" s="2" t="s">
-        <v>178</v>
-      </c>
-      <c r="C25" s="1" t="s">
-        <v>179</v>
-      </c>
-      <c r="D25" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E25" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="F25" s="2" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A26" s="26"/>
       <c r="B26" s="2" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="D26" s="2" t="s">
         <v>18</v>
@@ -1966,318 +1984,336 @@
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A27" s="39"/>
-      <c r="B27" s="34" t="s">
+      <c r="A27" s="26"/>
+      <c r="B27" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E27" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F27" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A28" s="41"/>
+      <c r="B28" s="36" t="s">
         <v>106</v>
       </c>
-      <c r="C27" s="35" t="s">
+      <c r="C28" s="37" t="s">
         <v>107</v>
       </c>
-      <c r="D27" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E27" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="F27" s="2" t="s">
+      <c r="D28" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E28" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F28" s="2" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A28" s="40"/>
-      <c r="B28" s="34"/>
-      <c r="C28" s="35"/>
-      <c r="D28" s="2" t="s">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A29" s="42"/>
+      <c r="B29" s="36"/>
+      <c r="C29" s="37"/>
+      <c r="D29" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="E28" s="2" t="s">
+      <c r="E29" s="2" t="s">
         <v>100</v>
-      </c>
-      <c r="F28" s="2" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A29" s="9"/>
-      <c r="B29" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="C29" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="D29" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E29" s="2" t="s">
-        <v>104</v>
       </c>
       <c r="F29" s="2" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A30" s="2"/>
-      <c r="B30" s="2"/>
+    <row r="30" spans="1:7" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A30" s="9"/>
+      <c r="B30" s="2" t="s">
+        <v>102</v>
+      </c>
       <c r="C30" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E30" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="F30" s="2" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A31" s="2"/>
+      <c r="B31" s="2"/>
+      <c r="C31" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="D30" s="2"/>
-      <c r="E30" s="2"/>
-      <c r="F30" s="29" t="s">
+      <c r="D31" s="2"/>
+      <c r="E31" s="2"/>
+      <c r="F31" s="29" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="31" spans="1:7" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A31" s="9"/>
-      <c r="B31" s="2" t="s">
+    <row r="32" spans="1:7" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A32" s="9"/>
+      <c r="B32" s="2" t="s">
         <v>182</v>
-      </c>
-      <c r="C31" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="D31" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="E31" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="F31" s="2" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A32" s="10"/>
-      <c r="B32" s="2" t="s">
-        <v>196</v>
       </c>
       <c r="C32" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="D32" s="2"/>
-      <c r="E32" s="2"/>
-      <c r="F32" s="29" t="s">
+      <c r="D32" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="E32" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="F32" s="2" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A33" s="10"/>
+      <c r="B33" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="D33" s="2"/>
+      <c r="E33" s="2"/>
+      <c r="F33" s="29" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="33" spans="1:6" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A33" s="44"/>
-      <c r="B33" s="47" t="s">
+    <row r="34" spans="1:6" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A34" s="46"/>
+      <c r="B34" s="49" t="s">
         <v>183</v>
       </c>
-      <c r="C33" s="50" t="s">
+      <c r="C34" s="52" t="s">
         <v>184</v>
       </c>
-      <c r="D33" s="2" t="s">
+      <c r="D34" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="E33" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="F33" s="2" t="s">
+      <c r="E34" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F34" s="2" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A34" s="45"/>
-      <c r="B34" s="48"/>
-      <c r="C34" s="51"/>
-      <c r="D34" s="2" t="s">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A35" s="47"/>
+      <c r="B35" s="50"/>
+      <c r="C35" s="53"/>
+      <c r="D35" s="2" t="s">
         <v>186</v>
       </c>
-      <c r="E34" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="F34" s="2" t="s">
+      <c r="E35" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F35" s="2" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A35" s="45"/>
-      <c r="B35" s="48"/>
-      <c r="C35" s="51"/>
-      <c r="D35" s="2" t="s">
-        <v>187</v>
-      </c>
-      <c r="E35" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="F35" s="2" t="s">
-        <v>28</v>
-      </c>
-    </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A36" s="46"/>
-      <c r="B36" s="49"/>
-      <c r="C36" s="52"/>
+      <c r="A36" s="47"/>
+      <c r="B36" s="50"/>
+      <c r="C36" s="53"/>
       <c r="D36" s="2" t="s">
         <v>187</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>4</v>
+        <v>18</v>
       </c>
       <c r="F36" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A37" s="48"/>
+      <c r="B37" s="51"/>
+      <c r="C37" s="54"/>
+      <c r="D37" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="E37" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F37" s="2" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A37" s="23"/>
-      <c r="B37" s="2" t="s">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A38" s="23"/>
+      <c r="B38" s="2" t="s">
         <v>188</v>
       </c>
-      <c r="C37" s="24" t="s">
+      <c r="C38" s="24" t="s">
         <v>189</v>
       </c>
-      <c r="D37" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E37" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="F37" s="2" t="s">
+      <c r="D38" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E38" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F38" s="2" t="s">
         <v>108</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A38" s="28"/>
-      <c r="B38" s="2" t="s">
-        <v>198</v>
-      </c>
-      <c r="C38" s="27" t="s">
-        <v>199</v>
-      </c>
-      <c r="D38" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E38" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="F38" s="2" t="s">
-        <v>200</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A39" s="28"/>
       <c r="B39" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="C39" s="27" t="s">
+        <v>199</v>
+      </c>
+      <c r="D39" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E39" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F39" s="2" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A40" s="28"/>
+      <c r="B40" s="2" t="s">
         <v>201</v>
       </c>
-      <c r="C39" s="27" t="s">
+      <c r="C40" s="27" t="s">
         <v>202</v>
       </c>
-      <c r="D39" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E39" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="F39" s="2" t="s">
+      <c r="D40" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E40" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F40" s="2" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A40" s="25"/>
-      <c r="B40" s="2" t="s">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A41" s="25"/>
+      <c r="B41" s="2" t="s">
         <v>190</v>
       </c>
-      <c r="C40" s="24" t="s">
+      <c r="C41" s="24" t="s">
         <v>191</v>
       </c>
-      <c r="D40" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E40" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="F40" s="2" t="s">
+      <c r="D41" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E41" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F41" s="2" t="s">
         <v>108</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A41" s="9"/>
-      <c r="B41" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C41" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="D41" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E41" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="F41" s="2" t="s">
-        <v>105</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A42" s="9"/>
       <c r="B42" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D42" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E42" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F42" s="2" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A43" s="9"/>
+      <c r="B43" s="2" t="s">
         <v>215</v>
       </c>
-      <c r="C42" s="1" t="s">
+      <c r="C43" s="1" t="s">
         <v>216</v>
       </c>
-      <c r="D42" s="2" t="s">
+      <c r="D43" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="E42" s="2" t="s">
+      <c r="E43" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="F42" s="2" t="s">
+      <c r="F43" s="2" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A43" s="37" t="s">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A44" s="11"/>
+      <c r="B44" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="D44" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="E44" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F44" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A45" s="39" t="s">
         <v>192</v>
       </c>
-      <c r="B43" s="37"/>
-      <c r="C43" s="37"/>
-      <c r="D43" s="37"/>
-      <c r="E43" s="37"/>
-      <c r="F43" s="37"/>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A44" s="9"/>
-      <c r="B44" s="2" t="s">
+      <c r="B45" s="39"/>
+      <c r="C45" s="39"/>
+      <c r="D45" s="39"/>
+      <c r="E45" s="39"/>
+      <c r="F45" s="39"/>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A46" s="9"/>
+      <c r="B46" s="2" t="s">
         <v>193</v>
       </c>
-      <c r="C44" s="2" t="s">
+      <c r="C46" s="2" t="s">
         <v>194</v>
       </c>
-      <c r="D44" s="2"/>
-      <c r="E44" s="2"/>
-      <c r="F44" s="2" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A45" s="41" t="s">
-        <v>28</v>
-      </c>
-      <c r="B45" s="42"/>
-      <c r="C45" s="42"/>
-      <c r="D45" s="42"/>
-      <c r="E45" s="42"/>
-      <c r="F45" s="43"/>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A46" s="2"/>
-      <c r="B46" s="2"/>
-      <c r="C46" s="2"/>
       <c r="D46" s="2"/>
       <c r="E46" s="2"/>
-      <c r="F46" s="2"/>
+      <c r="F46" s="2" t="s">
+        <v>195</v>
+      </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A47" s="37" t="s">
-        <v>29</v>
-      </c>
-      <c r="B47" s="37"/>
-      <c r="C47" s="37"/>
-      <c r="D47" s="37"/>
-      <c r="E47" s="37"/>
-      <c r="F47" s="37"/>
+      <c r="A47" s="43" t="s">
+        <v>28</v>
+      </c>
+      <c r="B47" s="44"/>
+      <c r="C47" s="44"/>
+      <c r="D47" s="44"/>
+      <c r="E47" s="44"/>
+      <c r="F47" s="45"/>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A48" s="2"/>
@@ -2288,226 +2324,212 @@
       <c r="F48" s="2"/>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A49" s="37" t="s">
+      <c r="A49" s="39" t="s">
+        <v>29</v>
+      </c>
+      <c r="B49" s="39"/>
+      <c r="C49" s="39"/>
+      <c r="D49" s="39"/>
+      <c r="E49" s="39"/>
+      <c r="F49" s="39"/>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A50" s="2"/>
+      <c r="B50" s="2"/>
+      <c r="C50" s="2"/>
+      <c r="D50" s="2"/>
+      <c r="E50" s="2"/>
+      <c r="F50" s="2"/>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A51" s="39" t="s">
         <v>30</v>
       </c>
-      <c r="B49" s="37"/>
-      <c r="C49" s="37"/>
-      <c r="D49" s="37"/>
-      <c r="E49" s="37"/>
-      <c r="F49" s="37"/>
-    </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A50" s="11"/>
-      <c r="B50" s="2" t="s">
+      <c r="B51" s="39"/>
+      <c r="C51" s="39"/>
+      <c r="D51" s="39"/>
+      <c r="E51" s="39"/>
+      <c r="F51" s="39"/>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A52" s="11"/>
+      <c r="B52" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="C50" s="1" t="s">
+      <c r="C52" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="D50" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E50" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="F50" s="2" t="s">
+      <c r="D52" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E52" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F52" s="2" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A51" s="11"/>
-      <c r="B51" s="2" t="s">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A53" s="11"/>
+      <c r="B53" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="C51" s="1" t="s">
+      <c r="C53" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="D51" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E51" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="F51" s="2" t="s">
+      <c r="D53" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E53" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F53" s="2" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A52" s="53"/>
-      <c r="B52" s="34" t="s">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A54" s="55"/>
+      <c r="B54" s="36" t="s">
         <v>158</v>
       </c>
-      <c r="C52" s="35" t="s">
+      <c r="C54" s="37" t="s">
         <v>159</v>
       </c>
-      <c r="D52" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E52" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="F52" s="2" t="s">
+      <c r="D54" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E54" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F54" s="2" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A53" s="53"/>
-      <c r="B53" s="34"/>
-      <c r="C53" s="35"/>
-      <c r="D53" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E53" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="F53" s="2" t="s">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A55" s="55"/>
+      <c r="B55" s="36"/>
+      <c r="C55" s="37"/>
+      <c r="D55" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E55" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F55" s="2" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A54" s="11"/>
-      <c r="B54" s="2" t="s">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A56" s="11"/>
+      <c r="B56" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="C54" s="1" t="s">
+      <c r="C56" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="D54" s="2" t="s">
+      <c r="D56" s="2" t="s">
         <v>140</v>
       </c>
-      <c r="E54" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="F54" s="2" t="s">
+      <c r="E56" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F56" s="2" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A55" s="9"/>
-      <c r="B55" s="2" t="s">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A57" s="9"/>
+      <c r="B57" s="2" t="s">
         <v>144</v>
       </c>
-      <c r="C55" s="1" t="s">
+      <c r="C57" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="D55" s="2" t="s">
+      <c r="D57" s="2" t="s">
         <v>140</v>
       </c>
-      <c r="E55" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="F55" s="2" t="s">
+      <c r="E57" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F57" s="2" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A56" s="9"/>
-      <c r="B56" s="2" t="s">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A58" s="9"/>
+      <c r="B58" s="2" t="s">
         <v>147</v>
       </c>
-      <c r="C56" s="1" t="s">
+      <c r="C58" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="D56" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E56" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="F56" s="2" t="s">
+      <c r="D58" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E58" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F58" s="2" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A57" s="11"/>
-      <c r="B57" s="2" t="s">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A59" s="11"/>
+      <c r="B59" s="2" t="s">
         <v>141</v>
       </c>
-      <c r="C57" s="1" t="s">
+      <c r="C59" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="D57" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="E57" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="F57" s="2" t="s">
+      <c r="D59" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E59" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F59" s="2" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A58" s="38"/>
-      <c r="B58" s="34" t="s">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A60" s="40"/>
+      <c r="B60" s="36" t="s">
         <v>152</v>
       </c>
-      <c r="C58" s="35" t="s">
+      <c r="C60" s="37" t="s">
         <v>153</v>
       </c>
-      <c r="D58" s="2" t="s">
+      <c r="D60" s="2" t="s">
         <v>140</v>
       </c>
-      <c r="E58" s="2" t="s">
+      <c r="E60" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="F58" s="2" t="s">
+      <c r="F60" s="2" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A59" s="38"/>
-      <c r="B59" s="34"/>
-      <c r="C59" s="35"/>
-      <c r="D59" s="2" t="s">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A61" s="40"/>
+      <c r="B61" s="36"/>
+      <c r="C61" s="37"/>
+      <c r="D61" s="2" t="s">
         <v>140</v>
       </c>
-      <c r="E59" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="F59" s="2" t="s">
+      <c r="E61" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F61" s="2" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="60" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A60" s="39"/>
-      <c r="B60" s="34" t="s">
+    <row r="62" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A62" s="41"/>
+      <c r="B62" s="36" t="s">
         <v>167</v>
       </c>
-      <c r="C60" s="50" t="s">
+      <c r="C62" s="52" t="s">
         <v>168</v>
-      </c>
-      <c r="D60" s="21" t="s">
-        <v>18</v>
-      </c>
-      <c r="E60" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="F60" s="2" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="61" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A61" s="40"/>
-      <c r="B61" s="34"/>
-      <c r="C61" s="52"/>
-      <c r="D61" s="21" t="s">
-        <v>18</v>
-      </c>
-      <c r="E61" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="F61" s="1" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="62" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A62" s="54"/>
-      <c r="B62" s="34" t="s">
-        <v>173</v>
-      </c>
-      <c r="C62" s="50" t="s">
-        <v>171</v>
       </c>
       <c r="D62" s="21" t="s">
         <v>18</v>
@@ -2520,9 +2542,9 @@
       </c>
     </row>
     <row r="63" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A63" s="55"/>
-      <c r="B63" s="34"/>
-      <c r="C63" s="52"/>
+      <c r="A63" s="42"/>
+      <c r="B63" s="36"/>
+      <c r="C63" s="54"/>
       <c r="D63" s="21" t="s">
         <v>18</v>
       </c>
@@ -2530,158 +2552,158 @@
         <v>4</v>
       </c>
       <c r="F63" s="1" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A64" s="56"/>
+      <c r="B64" s="36" t="s">
+        <v>173</v>
+      </c>
+      <c r="C64" s="52" t="s">
+        <v>171</v>
+      </c>
+      <c r="D64" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="E64" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F64" s="2" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A65" s="57"/>
+      <c r="B65" s="36"/>
+      <c r="C65" s="54"/>
+      <c r="D65" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="E65" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F65" s="1" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A64" s="39"/>
-      <c r="B64" s="47" t="s">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A66" s="41"/>
+      <c r="B66" s="49" t="s">
         <v>163</v>
       </c>
-      <c r="C64" s="50" t="s">
+      <c r="C66" s="52" t="s">
         <v>164</v>
       </c>
-      <c r="D64" s="18" t="s">
-        <v>18</v>
-      </c>
-      <c r="E64" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="F64" s="2" t="s">
+      <c r="D66" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="E66" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F66" s="2" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A65" s="40"/>
-      <c r="B65" s="49"/>
-      <c r="C65" s="52"/>
-      <c r="D65" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E65" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="F65" s="2" t="s">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A67" s="42"/>
+      <c r="B67" s="51"/>
+      <c r="C67" s="54"/>
+      <c r="D67" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E67" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F67" s="2" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A66" s="22"/>
-      <c r="B66" s="19" t="s">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A68" s="22"/>
+      <c r="B68" s="19" t="s">
         <v>174</v>
       </c>
-      <c r="C66" s="20" t="s">
+      <c r="C68" s="20" t="s">
         <v>175</v>
       </c>
-      <c r="D66" s="2" t="s">
+      <c r="D68" s="2" t="s">
         <v>176</v>
       </c>
-      <c r="E66" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="F66" s="2" t="s">
+      <c r="E68" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F68" s="2" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A67" s="17"/>
-      <c r="B67" s="16" t="s">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A69" s="17"/>
+      <c r="B69" s="16" t="s">
         <v>161</v>
       </c>
-      <c r="C67" s="15" t="s">
+      <c r="C69" s="15" t="s">
         <v>162</v>
       </c>
-      <c r="D67" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E67" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="F67" s="2" t="s">
+      <c r="D69" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E69" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F69" s="2" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A68" s="36"/>
-      <c r="B68" s="34" t="s">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A70" s="38"/>
+      <c r="B70" s="36" t="s">
         <v>149</v>
       </c>
-      <c r="C68" s="35" t="s">
+      <c r="C70" s="37" t="s">
         <v>150</v>
       </c>
-      <c r="D68" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E68" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="F68" s="2" t="s">
+      <c r="D70" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E70" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F70" s="2" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A69" s="36"/>
-      <c r="B69" s="34"/>
-      <c r="C69" s="35"/>
-      <c r="D69" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E69" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="F69" s="2" t="s">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A71" s="38"/>
+      <c r="B71" s="36"/>
+      <c r="C71" s="37"/>
+      <c r="D71" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E71" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F71" s="2" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A70" s="37" t="s">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A72" s="39" t="s">
         <v>65</v>
       </c>
-      <c r="B70" s="37"/>
-      <c r="C70" s="37"/>
-      <c r="D70" s="37"/>
-      <c r="E70" s="37"/>
-      <c r="F70" s="37"/>
-    </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A71" s="2"/>
-      <c r="B71" s="34" t="s">
-        <v>66</v>
-      </c>
-      <c r="C71" s="35" t="s">
-        <v>63</v>
-      </c>
-      <c r="D71" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E71" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="F71" s="2" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A72" s="2"/>
-      <c r="B72" s="34"/>
-      <c r="C72" s="35"/>
-      <c r="D72" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E72" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="F72" s="2" t="s">
-        <v>64</v>
-      </c>
+      <c r="B72" s="39"/>
+      <c r="C72" s="39"/>
+      <c r="D72" s="39"/>
+      <c r="E72" s="39"/>
+      <c r="F72" s="39"/>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A73" s="2"/>
-      <c r="B73" s="34" t="s">
-        <v>67</v>
-      </c>
-      <c r="C73" s="35" t="s">
-        <v>68</v>
+      <c r="B73" s="36" t="s">
+        <v>66</v>
+      </c>
+      <c r="C73" s="37" t="s">
+        <v>63</v>
       </c>
       <c r="D73" s="2" t="s">
         <v>18</v>
@@ -2695,8 +2717,8 @@
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A74" s="2"/>
-      <c r="B74" s="34"/>
-      <c r="C74" s="35"/>
+      <c r="B74" s="36"/>
+      <c r="C74" s="37"/>
       <c r="D74" s="2" t="s">
         <v>18</v>
       </c>
@@ -2709,47 +2731,43 @@
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A75" s="2"/>
-      <c r="B75" s="14" t="s">
-        <v>81</v>
-      </c>
-      <c r="C75" s="15" t="s">
-        <v>82</v>
+      <c r="B75" s="36" t="s">
+        <v>67</v>
+      </c>
+      <c r="C75" s="37" t="s">
+        <v>68</v>
       </c>
       <c r="D75" s="2" t="s">
         <v>18</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>79</v>
+        <v>18</v>
       </c>
       <c r="F75" s="2" t="s">
-        <v>83</v>
+        <v>69</v>
       </c>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A76" s="2"/>
-      <c r="B76" s="14" t="s">
-        <v>77</v>
-      </c>
-      <c r="C76" s="15" t="s">
-        <v>78</v>
-      </c>
+      <c r="B76" s="36"/>
+      <c r="C76" s="37"/>
       <c r="D76" s="2" t="s">
         <v>18</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>79</v>
+        <v>4</v>
       </c>
       <c r="F76" s="2" t="s">
-        <v>80</v>
+        <v>64</v>
       </c>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A77" s="2"/>
-      <c r="B77" s="34" t="s">
-        <v>85</v>
-      </c>
-      <c r="C77" s="35" t="s">
-        <v>84</v>
+      <c r="B77" s="14" t="s">
+        <v>81</v>
+      </c>
+      <c r="C77" s="15" t="s">
+        <v>82</v>
       </c>
       <c r="D77" s="2" t="s">
         <v>18</v>
@@ -2763,25 +2781,29 @@
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A78" s="2"/>
-      <c r="B78" s="34"/>
-      <c r="C78" s="35"/>
+      <c r="B78" s="14" t="s">
+        <v>77</v>
+      </c>
+      <c r="C78" s="15" t="s">
+        <v>78</v>
+      </c>
       <c r="D78" s="2" t="s">
         <v>18</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="F78" s="2" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A79" s="2"/>
-      <c r="B79" s="34" t="s">
-        <v>88</v>
-      </c>
-      <c r="C79" s="35" t="s">
-        <v>89</v>
+      <c r="B79" s="36" t="s">
+        <v>85</v>
+      </c>
+      <c r="C79" s="37" t="s">
+        <v>84</v>
       </c>
       <c r="D79" s="2" t="s">
         <v>18</v>
@@ -2795,8 +2817,8 @@
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A80" s="2"/>
-      <c r="B80" s="34"/>
-      <c r="C80" s="35"/>
+      <c r="B80" s="36"/>
+      <c r="C80" s="37"/>
       <c r="D80" s="2" t="s">
         <v>18</v>
       </c>
@@ -2809,171 +2831,171 @@
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A81" s="2"/>
-      <c r="B81" s="14"/>
-      <c r="C81" s="15"/>
-      <c r="D81" s="2"/>
-      <c r="E81" s="2"/>
-      <c r="F81" s="2"/>
+      <c r="B81" s="36" t="s">
+        <v>88</v>
+      </c>
+      <c r="C81" s="37" t="s">
+        <v>89</v>
+      </c>
+      <c r="D81" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E81" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="F81" s="2" t="s">
+        <v>83</v>
+      </c>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A82" s="37" t="s">
-        <v>90</v>
-      </c>
-      <c r="B82" s="37"/>
+      <c r="A82" s="2"/>
+      <c r="B82" s="36"/>
       <c r="C82" s="37"/>
-      <c r="D82" s="37"/>
-      <c r="E82" s="37"/>
-      <c r="F82" s="37"/>
+      <c r="D82" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E82" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="F82" s="2" t="s">
+        <v>87</v>
+      </c>
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A83" s="2"/>
-      <c r="B83" s="5" t="s">
+      <c r="B83" s="14"/>
+      <c r="C83" s="15"/>
+      <c r="D83" s="2"/>
+      <c r="E83" s="2"/>
+      <c r="F83" s="2"/>
+    </row>
+    <row r="84" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A84" s="39" t="s">
+        <v>90</v>
+      </c>
+      <c r="B84" s="39"/>
+      <c r="C84" s="39"/>
+      <c r="D84" s="39"/>
+      <c r="E84" s="39"/>
+      <c r="F84" s="39"/>
+    </row>
+    <row r="85" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A85" s="2"/>
+      <c r="B85" s="5" t="s">
         <v>92</v>
       </c>
-      <c r="C83" s="3" t="s">
+      <c r="C85" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="D83" s="4" t="s">
+      <c r="D85" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="E83" s="4" t="s">
+      <c r="E85" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="F83" s="4"/>
-    </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A84" s="2"/>
-      <c r="B84" s="5" t="s">
-        <v>95</v>
-      </c>
-      <c r="C84" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="D84" s="4" t="s">
-        <v>93</v>
-      </c>
-      <c r="E84" s="4" t="s">
-        <v>93</v>
-      </c>
-      <c r="F84" s="12" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A85" s="37" t="s">
-        <v>31</v>
-      </c>
-      <c r="B85" s="37"/>
-      <c r="C85" s="37"/>
-      <c r="D85" s="37"/>
-      <c r="E85" s="37"/>
-      <c r="F85" s="37"/>
+      <c r="F85" s="4"/>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A86" s="2"/>
-      <c r="B86" s="2" t="s">
+      <c r="B86" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="C86" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="D86" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="E86" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="F86" s="12" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A87" s="39" t="s">
+        <v>31</v>
+      </c>
+      <c r="B87" s="39"/>
+      <c r="C87" s="39"/>
+      <c r="D87" s="39"/>
+      <c r="E87" s="39"/>
+      <c r="F87" s="39"/>
+    </row>
+    <row r="88" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A88" s="2"/>
+      <c r="B88" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="C86" s="1" t="s">
+      <c r="C88" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="D86" s="2" t="s">
+      <c r="D88" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="E86" s="2" t="s">
+      <c r="E88" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="F86" s="2" t="s">
+      <c r="F88" s="2" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A87" s="2"/>
-      <c r="B87" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="C87" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="D87" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="E87" s="2"/>
-      <c r="F87" s="2"/>
-    </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A88" s="37" t="s">
-        <v>32</v>
-      </c>
-      <c r="B88" s="37"/>
-      <c r="C88" s="37"/>
-      <c r="D88" s="37"/>
-      <c r="E88" s="37"/>
-      <c r="F88" s="37"/>
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A89" s="2"/>
-      <c r="B89" s="2"/>
-      <c r="C89" s="2"/>
-      <c r="D89" s="2"/>
+      <c r="B89" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="C89" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="D89" s="2" t="s">
+        <v>72</v>
+      </c>
       <c r="E89" s="2"/>
       <c r="F89" s="2"/>
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A90" s="37" t="s">
-        <v>33</v>
-      </c>
-      <c r="B90" s="37"/>
-      <c r="C90" s="37"/>
-      <c r="D90" s="37"/>
-      <c r="E90" s="37"/>
-      <c r="F90" s="37"/>
+      <c r="A90" s="39" t="s">
+        <v>32</v>
+      </c>
+      <c r="B90" s="39"/>
+      <c r="C90" s="39"/>
+      <c r="D90" s="39"/>
+      <c r="E90" s="39"/>
+      <c r="F90" s="39"/>
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A91" s="2"/>
-      <c r="B91" s="34" t="s">
-        <v>111</v>
-      </c>
-      <c r="C91" s="35" t="s">
-        <v>112</v>
-      </c>
-      <c r="D91" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="E91" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="F91" s="2" t="s">
-        <v>113</v>
-      </c>
+      <c r="B91" s="2"/>
+      <c r="C91" s="2"/>
+      <c r="D91" s="2"/>
+      <c r="E91" s="2"/>
+      <c r="F91" s="2"/>
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A92" s="2"/>
-      <c r="B92" s="34"/>
-      <c r="C92" s="34"/>
-      <c r="D92" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="E92" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="F92" s="2" t="s">
-        <v>114</v>
-      </c>
+      <c r="A92" s="39" t="s">
+        <v>33</v>
+      </c>
+      <c r="B92" s="39"/>
+      <c r="C92" s="39"/>
+      <c r="D92" s="39"/>
+      <c r="E92" s="39"/>
+      <c r="F92" s="39"/>
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A93" s="2"/>
-      <c r="B93" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="C93" s="15" t="s">
-        <v>115</v>
+      <c r="B93" s="36" t="s">
+        <v>111</v>
+      </c>
+      <c r="C93" s="37" t="s">
+        <v>112</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>18</v>
+        <v>117</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>41</v>
+        <v>117</v>
       </c>
       <c r="F93" s="2" t="s">
         <v>113</v>
@@ -2981,141 +3003,179 @@
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A94" s="2"/>
-      <c r="B94" s="34" t="s">
-        <v>118</v>
-      </c>
-      <c r="C94" s="35" t="s">
-        <v>119</v>
-      </c>
+      <c r="B94" s="36"/>
+      <c r="C94" s="36"/>
       <c r="D94" s="2" t="s">
-        <v>52</v>
+        <v>117</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>41</v>
+        <v>4</v>
       </c>
       <c r="F94" s="2" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A95" s="2"/>
-      <c r="B95" s="34"/>
-      <c r="C95" s="35"/>
+      <c r="B95" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="C95" s="15" t="s">
+        <v>115</v>
+      </c>
       <c r="D95" s="2" t="s">
         <v>18</v>
       </c>
       <c r="E95" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="F95" s="13" t="s">
-        <v>121</v>
+      <c r="F95" s="2" t="s">
+        <v>113</v>
       </c>
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A96" s="37" t="s">
-        <v>34</v>
-      </c>
-      <c r="B96" s="37"/>
-      <c r="C96" s="37"/>
-      <c r="D96" s="37"/>
-      <c r="E96" s="37"/>
-      <c r="F96" s="37"/>
+      <c r="A96" s="2"/>
+      <c r="B96" s="36" t="s">
+        <v>118</v>
+      </c>
+      <c r="C96" s="37" t="s">
+        <v>119</v>
+      </c>
+      <c r="D96" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="E96" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="F96" s="2" t="s">
+        <v>120</v>
+      </c>
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A97" s="2"/>
-      <c r="B97" s="2"/>
-      <c r="C97" s="2"/>
-      <c r="D97" s="2"/>
-      <c r="E97" s="2"/>
-      <c r="F97" s="2"/>
+      <c r="B97" s="36"/>
+      <c r="C97" s="37"/>
+      <c r="D97" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E97" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="F97" s="13" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A98" s="39" t="s">
+        <v>34</v>
+      </c>
+      <c r="B98" s="39"/>
+      <c r="C98" s="39"/>
+      <c r="D98" s="39"/>
+      <c r="E98" s="39"/>
+      <c r="F98" s="39"/>
     </row>
     <row r="99" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="F99" s="56" t="s">
+      <c r="A99" s="2"/>
+      <c r="B99" s="2"/>
+      <c r="C99" s="2"/>
+      <c r="D99" s="2"/>
+      <c r="E99" s="2"/>
+      <c r="F99" s="2"/>
+    </row>
+    <row r="101" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="F101" s="34" t="s">
         <v>155</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="F102" s="34" t="s">
+        <v>219</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="50">
+    <mergeCell ref="A66:A67"/>
+    <mergeCell ref="B66:B67"/>
+    <mergeCell ref="C66:C67"/>
+    <mergeCell ref="A62:A63"/>
+    <mergeCell ref="B62:B63"/>
+    <mergeCell ref="C62:C63"/>
     <mergeCell ref="A64:A65"/>
+    <mergeCell ref="C64:C65"/>
     <mergeCell ref="B64:B65"/>
-    <mergeCell ref="C64:C65"/>
-    <mergeCell ref="A60:A61"/>
-    <mergeCell ref="B60:B61"/>
-    <mergeCell ref="C60:C61"/>
-    <mergeCell ref="A62:A63"/>
-    <mergeCell ref="C62:C63"/>
-    <mergeCell ref="B62:B63"/>
-    <mergeCell ref="A96:F96"/>
-    <mergeCell ref="A47:F47"/>
+    <mergeCell ref="A98:F98"/>
     <mergeCell ref="A49:F49"/>
-    <mergeCell ref="A70:F70"/>
-    <mergeCell ref="A82:F82"/>
-    <mergeCell ref="B71:B72"/>
-    <mergeCell ref="C71:C72"/>
+    <mergeCell ref="A51:F51"/>
+    <mergeCell ref="A72:F72"/>
+    <mergeCell ref="A84:F84"/>
     <mergeCell ref="B73:B74"/>
     <mergeCell ref="C73:C74"/>
-    <mergeCell ref="B77:B78"/>
-    <mergeCell ref="C77:C78"/>
-    <mergeCell ref="B91:B92"/>
-    <mergeCell ref="C91:C92"/>
-    <mergeCell ref="A52:A53"/>
-    <mergeCell ref="B52:B53"/>
-    <mergeCell ref="B58:B59"/>
-    <mergeCell ref="A58:A59"/>
-    <mergeCell ref="B27:B28"/>
-    <mergeCell ref="C27:C28"/>
+    <mergeCell ref="B75:B76"/>
+    <mergeCell ref="C75:C76"/>
+    <mergeCell ref="B79:B80"/>
+    <mergeCell ref="C79:C80"/>
+    <mergeCell ref="B93:B94"/>
+    <mergeCell ref="C93:C94"/>
+    <mergeCell ref="A54:A55"/>
+    <mergeCell ref="B54:B55"/>
+    <mergeCell ref="B60:B61"/>
+    <mergeCell ref="A60:A61"/>
+    <mergeCell ref="B28:B29"/>
+    <mergeCell ref="C28:C29"/>
     <mergeCell ref="A2:F2"/>
     <mergeCell ref="A8:F8"/>
-    <mergeCell ref="A15:F15"/>
-    <mergeCell ref="A23:F23"/>
-    <mergeCell ref="A27:A28"/>
-    <mergeCell ref="C58:C59"/>
+    <mergeCell ref="A16:F16"/>
+    <mergeCell ref="A24:F24"/>
+    <mergeCell ref="A28:A29"/>
+    <mergeCell ref="C60:C61"/>
+    <mergeCell ref="A47:F47"/>
+    <mergeCell ref="A34:A37"/>
+    <mergeCell ref="B34:B37"/>
+    <mergeCell ref="C34:C37"/>
+    <mergeCell ref="C54:C55"/>
     <mergeCell ref="A45:F45"/>
-    <mergeCell ref="A33:A36"/>
-    <mergeCell ref="B33:B36"/>
-    <mergeCell ref="C33:C36"/>
-    <mergeCell ref="C52:C53"/>
-    <mergeCell ref="A43:F43"/>
-    <mergeCell ref="B94:B95"/>
-    <mergeCell ref="C94:C95"/>
-    <mergeCell ref="C79:C80"/>
-    <mergeCell ref="B79:B80"/>
-    <mergeCell ref="A68:A69"/>
-    <mergeCell ref="B68:B69"/>
-    <mergeCell ref="C68:C69"/>
-    <mergeCell ref="A88:F88"/>
+    <mergeCell ref="B96:B97"/>
+    <mergeCell ref="C96:C97"/>
+    <mergeCell ref="C81:C82"/>
+    <mergeCell ref="B81:B82"/>
+    <mergeCell ref="A70:A71"/>
+    <mergeCell ref="B70:B71"/>
+    <mergeCell ref="C70:C71"/>
     <mergeCell ref="A90:F90"/>
-    <mergeCell ref="A85:F85"/>
+    <mergeCell ref="A92:F92"/>
+    <mergeCell ref="A87:F87"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="C3" r:id="rId1" xr:uid="{3FB3FA06-DE47-4C2D-AFD7-F5FC45E3D126}"/>
     <hyperlink ref="C4" r:id="rId2" xr:uid="{C4A51F70-7D5B-496B-8FD0-AB7121D9FCE1}"/>
     <hyperlink ref="C9" r:id="rId3" xr:uid="{678D7AA2-36D2-4A02-971F-3FB9391E8E35}"/>
-    <hyperlink ref="C16" r:id="rId4" xr:uid="{2AC6AF52-CC30-4063-833D-09178907C109}"/>
-    <hyperlink ref="C41" r:id="rId5" xr:uid="{6352E065-8925-49FF-AA82-66ED2F9F8651}"/>
-    <hyperlink ref="C17" r:id="rId6" xr:uid="{047C68C0-B7AB-4E77-9D1E-B162BD11A209}"/>
-    <hyperlink ref="C18" r:id="rId7" xr:uid="{1ABD0EDA-F48F-4D2F-B13C-180B398F1FCD}"/>
-    <hyperlink ref="C71" r:id="rId8" xr:uid="{35D2A43C-BF1B-4339-9217-7116005F7034}"/>
-    <hyperlink ref="C73" r:id="rId9" xr:uid="{233456E2-1B15-4448-A669-82C381357683}"/>
-    <hyperlink ref="C86" r:id="rId10" xr:uid="{4A724644-7F2B-4DE6-9141-A1802140FB4A}"/>
-    <hyperlink ref="C83" r:id="rId11" xr:uid="{914A5C5A-20B3-4526-A460-020F9852AFDB}"/>
-    <hyperlink ref="C84" r:id="rId12" xr:uid="{0B2D15B8-18BF-46A5-991E-6E53ADC95851}"/>
-    <hyperlink ref="C24" r:id="rId13" xr:uid="{93A177B9-936F-4ED5-9F32-EB31F0D8F614}"/>
-    <hyperlink ref="C91" r:id="rId14" xr:uid="{9CD2E86C-B1BA-4CC3-9E52-ECA767380715}"/>
-    <hyperlink ref="C93" r:id="rId15" xr:uid="{30EBB8AD-10BE-47B9-BF85-DBCCCE948784}"/>
-    <hyperlink ref="F95" r:id="rId16" xr:uid="{080A2B1B-6640-47F1-9DAB-1F0914BD9938}"/>
-    <hyperlink ref="C50" r:id="rId17" xr:uid="{DD8AB0F8-5B5E-4F6E-A0B4-339B324BDAC3}"/>
+    <hyperlink ref="C17" r:id="rId4" xr:uid="{2AC6AF52-CC30-4063-833D-09178907C109}"/>
+    <hyperlink ref="C42" r:id="rId5" xr:uid="{6352E065-8925-49FF-AA82-66ED2F9F8651}"/>
+    <hyperlink ref="C18" r:id="rId6" xr:uid="{047C68C0-B7AB-4E77-9D1E-B162BD11A209}"/>
+    <hyperlink ref="C19" r:id="rId7" xr:uid="{1ABD0EDA-F48F-4D2F-B13C-180B398F1FCD}"/>
+    <hyperlink ref="C73" r:id="rId8" xr:uid="{35D2A43C-BF1B-4339-9217-7116005F7034}"/>
+    <hyperlink ref="C75" r:id="rId9" xr:uid="{233456E2-1B15-4448-A669-82C381357683}"/>
+    <hyperlink ref="C88" r:id="rId10" xr:uid="{4A724644-7F2B-4DE6-9141-A1802140FB4A}"/>
+    <hyperlink ref="C85" r:id="rId11" xr:uid="{914A5C5A-20B3-4526-A460-020F9852AFDB}"/>
+    <hyperlink ref="C86" r:id="rId12" xr:uid="{0B2D15B8-18BF-46A5-991E-6E53ADC95851}"/>
+    <hyperlink ref="C25" r:id="rId13" xr:uid="{93A177B9-936F-4ED5-9F32-EB31F0D8F614}"/>
+    <hyperlink ref="C93" r:id="rId14" xr:uid="{9CD2E86C-B1BA-4CC3-9E52-ECA767380715}"/>
+    <hyperlink ref="C95" r:id="rId15" xr:uid="{30EBB8AD-10BE-47B9-BF85-DBCCCE948784}"/>
+    <hyperlink ref="F97" r:id="rId16" xr:uid="{080A2B1B-6640-47F1-9DAB-1F0914BD9938}"/>
+    <hyperlink ref="C52" r:id="rId17" xr:uid="{DD8AB0F8-5B5E-4F6E-A0B4-339B324BDAC3}"/>
     <hyperlink ref="C7" r:id="rId18" xr:uid="{43B67C49-DC70-412F-B095-E684E07FF196}"/>
-    <hyperlink ref="C60" r:id="rId19" xr:uid="{7FDCAB78-56F5-40D3-8A09-8A8A0E54E05D}"/>
-    <hyperlink ref="F61" r:id="rId20" xr:uid="{F7F3C873-8E94-4212-B22A-52BF75A478D8}"/>
-    <hyperlink ref="C27" r:id="rId21" xr:uid="{F6C15430-DBA9-4DAD-A411-65B1524C625E}"/>
-    <hyperlink ref="G16" r:id="rId22" display="https://leetcode.com/problems/maximum-sum-circular-subarray/" xr:uid="{A4CEEEE3-5EE5-4166-9A65-51E09840E49F}"/>
-    <hyperlink ref="G17" r:id="rId23" display="https://leetcode.com/problems/maximum-product-subarray/" xr:uid="{E66937F4-342E-466B-92BD-529EAD0F1180}"/>
-    <hyperlink ref="G18" r:id="rId24" display="https://leetcode.com/problems/maximum-length-of-subarray-with-positive-product/" xr:uid="{C0B6118F-C23A-4E55-881A-F4A1DA018A1F}"/>
+    <hyperlink ref="C62" r:id="rId19" xr:uid="{7FDCAB78-56F5-40D3-8A09-8A8A0E54E05D}"/>
+    <hyperlink ref="F63" r:id="rId20" xr:uid="{F7F3C873-8E94-4212-B22A-52BF75A478D8}"/>
+    <hyperlink ref="C28" r:id="rId21" xr:uid="{F6C15430-DBA9-4DAD-A411-65B1524C625E}"/>
+    <hyperlink ref="G17" r:id="rId22" display="https://leetcode.com/problems/maximum-sum-circular-subarray/" xr:uid="{A4CEEEE3-5EE5-4166-9A65-51E09840E49F}"/>
+    <hyperlink ref="G18" r:id="rId23" display="https://leetcode.com/problems/maximum-product-subarray/" xr:uid="{E66937F4-342E-466B-92BD-529EAD0F1180}"/>
+    <hyperlink ref="G19" r:id="rId24" display="https://leetcode.com/problems/maximum-length-of-subarray-with-positive-product/" xr:uid="{C0B6118F-C23A-4E55-881A-F4A1DA018A1F}"/>
     <hyperlink ref="C6" r:id="rId25" xr:uid="{D548A552-BEA3-46D9-89FD-0EDF330CCD4B}"/>
+    <hyperlink ref="C66" r:id="rId26" xr:uid="{7EAF2DCC-4594-46F5-AFC0-D19FF750F897}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="90" verticalDpi="90" r:id="rId26"/>
+  <pageSetup orientation="portrait" horizontalDpi="90" verticalDpi="90" r:id="rId27"/>
   <headerFooter>
     <oddFooter>&amp;L12/30/2021&amp;CAXP Internal&amp;R1</oddFooter>
   </headerFooter>

--- a/SDE Sheet.xlsx
+++ b/SDE Sheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Src Code\Personal\SDE-Sheet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9FF3BF1E-DF15-489B-AE30-CEC3373A7626}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A6E21F1-D6B7-4401-988F-ED696E879D2D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{83934561-A72F-4836-B1E7-4EE8C35F9874}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="378" uniqueCount="223">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="389" uniqueCount="227">
   <si>
     <t>Matrix</t>
   </si>
@@ -822,6 +822,18 @@
   </si>
   <si>
     <t>Must revise, new type of solution, Most asked Amazon interview question</t>
+  </si>
+  <si>
+    <t>Cherry Pickup</t>
+  </si>
+  <si>
+    <t>Cherry Pickup II</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/cherry-pickup/</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/cherry-pickup-ii/</t>
   </si>
 </sst>
 </file>
@@ -1137,27 +1149,45 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1176,31 +1206,13 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1518,11 +1530,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D3EBAEE5-B4E7-4BD5-B694-FD6EEA5E8AC0}">
-  <dimension ref="A1:G102"/>
+  <dimension ref="A1:G104"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="44" zoomScaleNormal="94" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A90" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F15" sqref="F15"/>
+    <sheetView tabSelected="1" zoomScale="83" zoomScaleNormal="94" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1556,14 +1568,14 @@
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A2" s="39" t="s">
+      <c r="A2" s="45" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="39"/>
-      <c r="C2" s="39"/>
-      <c r="D2" s="39"/>
-      <c r="E2" s="39"/>
-      <c r="F2" s="39"/>
+      <c r="B2" s="45"/>
+      <c r="C2" s="45"/>
+      <c r="D2" s="45"/>
+      <c r="E2" s="45"/>
+      <c r="F2" s="45"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A3" s="9"/>
@@ -1656,14 +1668,14 @@
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A8" s="39" t="s">
+      <c r="A8" s="45" t="s">
         <v>15</v>
       </c>
-      <c r="B8" s="39"/>
-      <c r="C8" s="39"/>
-      <c r="D8" s="39"/>
-      <c r="E8" s="39"/>
-      <c r="F8" s="39"/>
+      <c r="B8" s="45"/>
+      <c r="C8" s="45"/>
+      <c r="D8" s="45"/>
+      <c r="E8" s="45"/>
+      <c r="F8" s="45"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A9" s="9"/>
@@ -1792,14 +1804,14 @@
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A16" s="39" t="s">
+      <c r="A16" s="45" t="s">
         <v>22</v>
       </c>
-      <c r="B16" s="39"/>
-      <c r="C16" s="39"/>
-      <c r="D16" s="39"/>
-      <c r="E16" s="39"/>
-      <c r="F16" s="39"/>
+      <c r="B16" s="45"/>
+      <c r="C16" s="45"/>
+      <c r="D16" s="45"/>
+      <c r="E16" s="45"/>
+      <c r="F16" s="45"/>
       <c r="G16" s="34" t="s">
         <v>212</v>
       </c>
@@ -1917,7 +1929,9 @@
       <c r="E22" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F22" s="2"/>
+      <c r="F22" s="2" t="s">
+        <v>206</v>
+      </c>
     </row>
     <row r="23" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A23" s="32"/>
@@ -1937,142 +1951,148 @@
         <v>206</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A24" s="39" t="s">
+    <row r="24" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A24" s="30"/>
+      <c r="B24" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="E24" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F24" s="2" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A25" s="30"/>
+      <c r="B25" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="E25" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F25" s="2" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A26" s="45" t="s">
         <v>97</v>
       </c>
-      <c r="B24" s="39"/>
-      <c r="C24" s="39"/>
-      <c r="D24" s="39"/>
-      <c r="E24" s="39"/>
-      <c r="F24" s="39"/>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A25" s="9"/>
-      <c r="B25" s="2" t="s">
+      <c r="B26" s="45"/>
+      <c r="C26" s="45"/>
+      <c r="D26" s="45"/>
+      <c r="E26" s="45"/>
+      <c r="F26" s="45"/>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A27" s="9"/>
+      <c r="B27" s="2" t="s">
         <v>125</v>
       </c>
-      <c r="C25" s="1" t="s">
+      <c r="C27" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="D25" s="2" t="s">
+      <c r="D27" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="E25" s="2" t="s">
+      <c r="E27" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="F25" s="2" t="s">
+      <c r="F27" s="2" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A26" s="26"/>
-      <c r="B26" s="2" t="s">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A28" s="26"/>
+      <c r="B28" s="2" t="s">
         <v>178</v>
       </c>
-      <c r="C26" s="1" t="s">
+      <c r="C28" s="1" t="s">
         <v>179</v>
       </c>
-      <c r="D26" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E26" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="F26" s="2" t="s">
+      <c r="D28" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E28" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F28" s="2" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A27" s="26"/>
-      <c r="B27" s="2" t="s">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A29" s="26"/>
+      <c r="B29" s="2" t="s">
         <v>180</v>
       </c>
-      <c r="C27" s="1" t="s">
+      <c r="C29" s="1" t="s">
         <v>181</v>
       </c>
-      <c r="D27" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E27" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="F27" s="2" t="s">
+      <c r="D29" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E29" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F29" s="2" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A28" s="41"/>
-      <c r="B28" s="36" t="s">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A30" s="36"/>
+      <c r="B30" s="42" t="s">
         <v>106</v>
       </c>
-      <c r="C28" s="37" t="s">
+      <c r="C30" s="46" t="s">
         <v>107</v>
       </c>
-      <c r="D28" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E28" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="F28" s="2" t="s">
+      <c r="D30" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E30" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F30" s="2" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A29" s="42"/>
-      <c r="B29" s="36"/>
-      <c r="C29" s="37"/>
-      <c r="D29" s="2" t="s">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A31" s="37"/>
+      <c r="B31" s="42"/>
+      <c r="C31" s="46"/>
+      <c r="D31" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="E29" s="2" t="s">
+      <c r="E31" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="F29" s="2" t="s">
+      <c r="F31" s="2" t="s">
         <v>105</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A30" s="9"/>
-      <c r="B30" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="C30" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="D30" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E30" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="F30" s="2" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A31" s="2"/>
-      <c r="B31" s="2"/>
-      <c r="C31" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="D31" s="2"/>
-      <c r="E31" s="2"/>
-      <c r="F31" s="29" t="s">
-        <v>197</v>
       </c>
     </row>
     <row r="32" spans="1:7" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A32" s="9"/>
       <c r="B32" s="2" t="s">
-        <v>182</v>
+        <v>102</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>110</v>
+        <v>103</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>129</v>
+        <v>14</v>
       </c>
       <c r="E32" s="2" t="s">
         <v>104</v>
@@ -2082,12 +2102,10 @@
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A33" s="10"/>
-      <c r="B33" s="2" t="s">
-        <v>196</v>
-      </c>
+      <c r="A33" s="2"/>
+      <c r="B33" s="2"/>
       <c r="C33" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D33" s="2"/>
       <c r="E33" s="2"/>
@@ -2096,242 +2114,256 @@
       </c>
     </row>
     <row r="34" spans="1:6" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A34" s="46"/>
-      <c r="B34" s="49" t="s">
+      <c r="A34" s="9"/>
+      <c r="B34" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="D34" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="E34" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="F34" s="2" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A35" s="10"/>
+      <c r="B35" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="D35" s="2"/>
+      <c r="E35" s="2"/>
+      <c r="F35" s="29" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A36" s="52"/>
+      <c r="B36" s="38" t="s">
         <v>183</v>
       </c>
-      <c r="C34" s="52" t="s">
+      <c r="C36" s="40" t="s">
         <v>184</v>
       </c>
-      <c r="D34" s="2" t="s">
+      <c r="D36" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="E34" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="F34" s="2" t="s">
+      <c r="E36" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F36" s="2" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A35" s="47"/>
-      <c r="B35" s="50"/>
-      <c r="C35" s="53"/>
-      <c r="D35" s="2" t="s">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A37" s="53"/>
+      <c r="B37" s="55"/>
+      <c r="C37" s="56"/>
+      <c r="D37" s="2" t="s">
         <v>186</v>
       </c>
-      <c r="E35" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="F35" s="2" t="s">
+      <c r="E37" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F37" s="2" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A36" s="47"/>
-      <c r="B36" s="50"/>
-      <c r="C36" s="53"/>
-      <c r="D36" s="2" t="s">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A38" s="53"/>
+      <c r="B38" s="55"/>
+      <c r="C38" s="56"/>
+      <c r="D38" s="2" t="s">
         <v>187</v>
       </c>
-      <c r="E36" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="F36" s="2" t="s">
+      <c r="E38" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F38" s="2" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A37" s="48"/>
-      <c r="B37" s="51"/>
-      <c r="C37" s="54"/>
-      <c r="D37" s="2" t="s">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A39" s="54"/>
+      <c r="B39" s="39"/>
+      <c r="C39" s="41"/>
+      <c r="D39" s="2" t="s">
         <v>187</v>
       </c>
-      <c r="E37" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="F37" s="2" t="s">
+      <c r="E39" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F39" s="2" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A38" s="23"/>
-      <c r="B38" s="2" t="s">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A40" s="23"/>
+      <c r="B40" s="2" t="s">
         <v>188</v>
       </c>
-      <c r="C38" s="24" t="s">
+      <c r="C40" s="24" t="s">
         <v>189</v>
       </c>
-      <c r="D38" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E38" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="F38" s="2" t="s">
+      <c r="D40" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E40" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F40" s="2" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A39" s="28"/>
-      <c r="B39" s="2" t="s">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A41" s="28"/>
+      <c r="B41" s="2" t="s">
         <v>198</v>
       </c>
-      <c r="C39" s="27" t="s">
+      <c r="C41" s="27" t="s">
         <v>199</v>
       </c>
-      <c r="D39" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E39" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="F39" s="2" t="s">
+      <c r="D41" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E41" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F41" s="2" t="s">
         <v>200</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A40" s="28"/>
-      <c r="B40" s="2" t="s">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A42" s="28"/>
+      <c r="B42" s="2" t="s">
         <v>201</v>
       </c>
-      <c r="C40" s="27" t="s">
+      <c r="C42" s="27" t="s">
         <v>202</v>
       </c>
-      <c r="D40" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E40" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="F40" s="2" t="s">
+      <c r="D42" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E42" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F42" s="2" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A41" s="25"/>
-      <c r="B41" s="2" t="s">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A43" s="25"/>
+      <c r="B43" s="2" t="s">
         <v>190</v>
       </c>
-      <c r="C41" s="24" t="s">
+      <c r="C43" s="24" t="s">
         <v>191</v>
       </c>
-      <c r="D41" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E41" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="F41" s="2" t="s">
+      <c r="D43" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E43" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F43" s="2" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A42" s="9"/>
-      <c r="B42" s="2" t="s">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A44" s="9"/>
+      <c r="B44" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="C42" s="1" t="s">
+      <c r="C44" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="D42" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E42" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="F42" s="2" t="s">
+      <c r="D44" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E44" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F44" s="2" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A43" s="9"/>
-      <c r="B43" s="2" t="s">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A45" s="9"/>
+      <c r="B45" s="2" t="s">
         <v>215</v>
       </c>
-      <c r="C43" s="1" t="s">
+      <c r="C45" s="1" t="s">
         <v>216</v>
       </c>
-      <c r="D43" s="2" t="s">
+      <c r="D45" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="E43" s="2" t="s">
+      <c r="E45" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="F43" s="2" t="s">
+      <c r="F45" s="2" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A44" s="11"/>
-      <c r="B44" s="2" t="s">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A46" s="11"/>
+      <c r="B46" s="2" t="s">
         <v>217</v>
       </c>
-      <c r="C44" s="1" t="s">
+      <c r="C46" s="1" t="s">
         <v>218</v>
       </c>
-      <c r="D44" s="2" t="s">
+      <c r="D46" s="2" t="s">
         <v>140</v>
       </c>
-      <c r="E44" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="F44" s="2" t="s">
+      <c r="E46" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F46" s="2" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A45" s="39" t="s">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A47" s="45" t="s">
         <v>192</v>
       </c>
-      <c r="B45" s="39"/>
-      <c r="C45" s="39"/>
-      <c r="D45" s="39"/>
-      <c r="E45" s="39"/>
-      <c r="F45" s="39"/>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A46" s="9"/>
-      <c r="B46" s="2" t="s">
+      <c r="B47" s="45"/>
+      <c r="C47" s="45"/>
+      <c r="D47" s="45"/>
+      <c r="E47" s="45"/>
+      <c r="F47" s="45"/>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A48" s="9"/>
+      <c r="B48" s="2" t="s">
         <v>193</v>
       </c>
-      <c r="C46" s="2" t="s">
+      <c r="C48" s="2" t="s">
         <v>194</v>
       </c>
-      <c r="D46" s="2"/>
-      <c r="E46" s="2"/>
-      <c r="F46" s="2" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A47" s="43" t="s">
-        <v>28</v>
-      </c>
-      <c r="B47" s="44"/>
-      <c r="C47" s="44"/>
-      <c r="D47" s="44"/>
-      <c r="E47" s="44"/>
-      <c r="F47" s="45"/>
-    </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A48" s="2"/>
-      <c r="B48" s="2"/>
-      <c r="C48" s="2"/>
       <c r="D48" s="2"/>
       <c r="E48" s="2"/>
-      <c r="F48" s="2"/>
+      <c r="F48" s="2" t="s">
+        <v>195</v>
+      </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A49" s="39" t="s">
-        <v>29</v>
-      </c>
-      <c r="B49" s="39"/>
-      <c r="C49" s="39"/>
-      <c r="D49" s="39"/>
-      <c r="E49" s="39"/>
-      <c r="F49" s="39"/>
+      <c r="A49" s="49" t="s">
+        <v>28</v>
+      </c>
+      <c r="B49" s="50"/>
+      <c r="C49" s="50"/>
+      <c r="D49" s="50"/>
+      <c r="E49" s="50"/>
+      <c r="F49" s="51"/>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A50" s="2"/>
@@ -2342,226 +2374,212 @@
       <c r="F50" s="2"/>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A51" s="39" t="s">
+      <c r="A51" s="45" t="s">
+        <v>29</v>
+      </c>
+      <c r="B51" s="45"/>
+      <c r="C51" s="45"/>
+      <c r="D51" s="45"/>
+      <c r="E51" s="45"/>
+      <c r="F51" s="45"/>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A52" s="2"/>
+      <c r="B52" s="2"/>
+      <c r="C52" s="2"/>
+      <c r="D52" s="2"/>
+      <c r="E52" s="2"/>
+      <c r="F52" s="2"/>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A53" s="45" t="s">
         <v>30</v>
       </c>
-      <c r="B51" s="39"/>
-      <c r="C51" s="39"/>
-      <c r="D51" s="39"/>
-      <c r="E51" s="39"/>
-      <c r="F51" s="39"/>
-    </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A52" s="11"/>
-      <c r="B52" s="2" t="s">
+      <c r="B53" s="45"/>
+      <c r="C53" s="45"/>
+      <c r="D53" s="45"/>
+      <c r="E53" s="45"/>
+      <c r="F53" s="45"/>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A54" s="11"/>
+      <c r="B54" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="C52" s="1" t="s">
+      <c r="C54" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="D52" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E52" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="F52" s="2" t="s">
+      <c r="D54" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E54" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F54" s="2" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A53" s="11"/>
-      <c r="B53" s="2" t="s">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A55" s="11"/>
+      <c r="B55" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="C53" s="1" t="s">
+      <c r="C55" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="D53" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E53" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="F53" s="2" t="s">
+      <c r="D55" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E55" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F55" s="2" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A54" s="55"/>
-      <c r="B54" s="36" t="s">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A56" s="47"/>
+      <c r="B56" s="42" t="s">
         <v>158</v>
       </c>
-      <c r="C54" s="37" t="s">
+      <c r="C56" s="46" t="s">
         <v>159</v>
       </c>
-      <c r="D54" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E54" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="F54" s="2" t="s">
+      <c r="D56" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E56" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F56" s="2" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A55" s="55"/>
-      <c r="B55" s="36"/>
-      <c r="C55" s="37"/>
-      <c r="D55" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E55" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="F55" s="2" t="s">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A57" s="47"/>
+      <c r="B57" s="42"/>
+      <c r="C57" s="46"/>
+      <c r="D57" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E57" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F57" s="2" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A56" s="11"/>
-      <c r="B56" s="2" t="s">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A58" s="11"/>
+      <c r="B58" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="C56" s="1" t="s">
+      <c r="C58" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="D56" s="2" t="s">
+      <c r="D58" s="2" t="s">
         <v>140</v>
       </c>
-      <c r="E56" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="F56" s="2" t="s">
+      <c r="E58" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F58" s="2" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A57" s="9"/>
-      <c r="B57" s="2" t="s">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A59" s="9"/>
+      <c r="B59" s="2" t="s">
         <v>144</v>
       </c>
-      <c r="C57" s="1" t="s">
+      <c r="C59" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="D57" s="2" t="s">
+      <c r="D59" s="2" t="s">
         <v>140</v>
       </c>
-      <c r="E57" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="F57" s="2" t="s">
+      <c r="E59" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F59" s="2" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A58" s="9"/>
-      <c r="B58" s="2" t="s">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A60" s="9"/>
+      <c r="B60" s="2" t="s">
         <v>147</v>
       </c>
-      <c r="C58" s="1" t="s">
+      <c r="C60" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="D58" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E58" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="F58" s="2" t="s">
+      <c r="D60" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E60" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F60" s="2" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A59" s="11"/>
-      <c r="B59" s="2" t="s">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A61" s="11"/>
+      <c r="B61" s="2" t="s">
         <v>141</v>
       </c>
-      <c r="C59" s="1" t="s">
+      <c r="C61" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="D59" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="E59" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="F59" s="2" t="s">
+      <c r="D61" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E61" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F61" s="2" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A60" s="40"/>
-      <c r="B60" s="36" t="s">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A62" s="48"/>
+      <c r="B62" s="42" t="s">
         <v>152</v>
       </c>
-      <c r="C60" s="37" t="s">
+      <c r="C62" s="46" t="s">
         <v>153</v>
       </c>
-      <c r="D60" s="2" t="s">
+      <c r="D62" s="2" t="s">
         <v>140</v>
       </c>
-      <c r="E60" s="2" t="s">
+      <c r="E62" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="F60" s="2" t="s">
+      <c r="F62" s="2" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A61" s="40"/>
-      <c r="B61" s="36"/>
-      <c r="C61" s="37"/>
-      <c r="D61" s="2" t="s">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A63" s="48"/>
+      <c r="B63" s="42"/>
+      <c r="C63" s="46"/>
+      <c r="D63" s="2" t="s">
         <v>140</v>
       </c>
-      <c r="E61" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="F61" s="2" t="s">
+      <c r="E63" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F63" s="2" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="62" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A62" s="41"/>
-      <c r="B62" s="36" t="s">
+    <row r="64" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A64" s="36"/>
+      <c r="B64" s="42" t="s">
         <v>167</v>
       </c>
-      <c r="C62" s="52" t="s">
+      <c r="C64" s="40" t="s">
         <v>168</v>
-      </c>
-      <c r="D62" s="21" t="s">
-        <v>18</v>
-      </c>
-      <c r="E62" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="F62" s="2" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="63" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A63" s="42"/>
-      <c r="B63" s="36"/>
-      <c r="C63" s="54"/>
-      <c r="D63" s="21" t="s">
-        <v>18</v>
-      </c>
-      <c r="E63" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="F63" s="1" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="64" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A64" s="56"/>
-      <c r="B64" s="36" t="s">
-        <v>173</v>
-      </c>
-      <c r="C64" s="52" t="s">
-        <v>171</v>
       </c>
       <c r="D64" s="21" t="s">
         <v>18</v>
@@ -2574,9 +2592,9 @@
       </c>
     </row>
     <row r="65" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A65" s="57"/>
-      <c r="B65" s="36"/>
-      <c r="C65" s="54"/>
+      <c r="A65" s="37"/>
+      <c r="B65" s="42"/>
+      <c r="C65" s="41"/>
       <c r="D65" s="21" t="s">
         <v>18</v>
       </c>
@@ -2584,158 +2602,158 @@
         <v>4</v>
       </c>
       <c r="F65" s="1" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A66" s="43"/>
+      <c r="B66" s="42" t="s">
+        <v>173</v>
+      </c>
+      <c r="C66" s="40" t="s">
+        <v>171</v>
+      </c>
+      <c r="D66" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="E66" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F66" s="2" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A67" s="44"/>
+      <c r="B67" s="42"/>
+      <c r="C67" s="41"/>
+      <c r="D67" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="E67" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F67" s="1" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A66" s="41"/>
-      <c r="B66" s="49" t="s">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A68" s="36"/>
+      <c r="B68" s="38" t="s">
         <v>163</v>
       </c>
-      <c r="C66" s="52" t="s">
+      <c r="C68" s="40" t="s">
         <v>164</v>
       </c>
-      <c r="D66" s="18" t="s">
-        <v>18</v>
-      </c>
-      <c r="E66" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="F66" s="2" t="s">
+      <c r="D68" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="E68" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F68" s="2" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A67" s="42"/>
-      <c r="B67" s="51"/>
-      <c r="C67" s="54"/>
-      <c r="D67" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E67" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="F67" s="2" t="s">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A69" s="37"/>
+      <c r="B69" s="39"/>
+      <c r="C69" s="41"/>
+      <c r="D69" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E69" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F69" s="2" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A68" s="22"/>
-      <c r="B68" s="19" t="s">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A70" s="22"/>
+      <c r="B70" s="19" t="s">
         <v>174</v>
       </c>
-      <c r="C68" s="20" t="s">
+      <c r="C70" s="20" t="s">
         <v>175</v>
       </c>
-      <c r="D68" s="2" t="s">
+      <c r="D70" s="2" t="s">
         <v>176</v>
       </c>
-      <c r="E68" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="F68" s="2" t="s">
+      <c r="E70" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F70" s="2" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A69" s="17"/>
-      <c r="B69" s="16" t="s">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A71" s="17"/>
+      <c r="B71" s="16" t="s">
         <v>161</v>
       </c>
-      <c r="C69" s="15" t="s">
+      <c r="C71" s="15" t="s">
         <v>162</v>
       </c>
-      <c r="D69" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E69" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="F69" s="2" t="s">
+      <c r="D71" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E71" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F71" s="2" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A70" s="38"/>
-      <c r="B70" s="36" t="s">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A72" s="57"/>
+      <c r="B72" s="42" t="s">
         <v>149</v>
       </c>
-      <c r="C70" s="37" t="s">
+      <c r="C72" s="46" t="s">
         <v>150</v>
       </c>
-      <c r="D70" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E70" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="F70" s="2" t="s">
+      <c r="D72" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E72" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F72" s="2" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A71" s="38"/>
-      <c r="B71" s="36"/>
-      <c r="C71" s="37"/>
-      <c r="D71" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E71" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="F71" s="2" t="s">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A73" s="57"/>
+      <c r="B73" s="42"/>
+      <c r="C73" s="46"/>
+      <c r="D73" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E73" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F73" s="2" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A72" s="39" t="s">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A74" s="45" t="s">
         <v>65</v>
       </c>
-      <c r="B72" s="39"/>
-      <c r="C72" s="39"/>
-      <c r="D72" s="39"/>
-      <c r="E72" s="39"/>
-      <c r="F72" s="39"/>
-    </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A73" s="2"/>
-      <c r="B73" s="36" t="s">
-        <v>66</v>
-      </c>
-      <c r="C73" s="37" t="s">
-        <v>63</v>
-      </c>
-      <c r="D73" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E73" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="F73" s="2" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A74" s="2"/>
-      <c r="B74" s="36"/>
-      <c r="C74" s="37"/>
-      <c r="D74" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E74" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="F74" s="2" t="s">
-        <v>64</v>
-      </c>
+      <c r="B74" s="45"/>
+      <c r="C74" s="45"/>
+      <c r="D74" s="45"/>
+      <c r="E74" s="45"/>
+      <c r="F74" s="45"/>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A75" s="2"/>
-      <c r="B75" s="36" t="s">
-        <v>67</v>
-      </c>
-      <c r="C75" s="37" t="s">
-        <v>68</v>
+      <c r="B75" s="42" t="s">
+        <v>66</v>
+      </c>
+      <c r="C75" s="46" t="s">
+        <v>63</v>
       </c>
       <c r="D75" s="2" t="s">
         <v>18</v>
@@ -2749,8 +2767,8 @@
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A76" s="2"/>
-      <c r="B76" s="36"/>
-      <c r="C76" s="37"/>
+      <c r="B76" s="42"/>
+      <c r="C76" s="46"/>
       <c r="D76" s="2" t="s">
         <v>18</v>
       </c>
@@ -2763,47 +2781,43 @@
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A77" s="2"/>
-      <c r="B77" s="14" t="s">
-        <v>81</v>
-      </c>
-      <c r="C77" s="15" t="s">
-        <v>82</v>
+      <c r="B77" s="42" t="s">
+        <v>67</v>
+      </c>
+      <c r="C77" s="46" t="s">
+        <v>68</v>
       </c>
       <c r="D77" s="2" t="s">
         <v>18</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>79</v>
+        <v>18</v>
       </c>
       <c r="F77" s="2" t="s">
-        <v>83</v>
+        <v>69</v>
       </c>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A78" s="2"/>
-      <c r="B78" s="14" t="s">
-        <v>77</v>
-      </c>
-      <c r="C78" s="15" t="s">
-        <v>78</v>
-      </c>
+      <c r="B78" s="42"/>
+      <c r="C78" s="46"/>
       <c r="D78" s="2" t="s">
         <v>18</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>79</v>
+        <v>4</v>
       </c>
       <c r="F78" s="2" t="s">
-        <v>80</v>
+        <v>64</v>
       </c>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A79" s="2"/>
-      <c r="B79" s="36" t="s">
-        <v>85</v>
-      </c>
-      <c r="C79" s="37" t="s">
-        <v>84</v>
+      <c r="B79" s="14" t="s">
+        <v>81</v>
+      </c>
+      <c r="C79" s="15" t="s">
+        <v>82</v>
       </c>
       <c r="D79" s="2" t="s">
         <v>18</v>
@@ -2817,25 +2831,29 @@
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A80" s="2"/>
-      <c r="B80" s="36"/>
-      <c r="C80" s="37"/>
+      <c r="B80" s="14" t="s">
+        <v>77</v>
+      </c>
+      <c r="C80" s="15" t="s">
+        <v>78</v>
+      </c>
       <c r="D80" s="2" t="s">
         <v>18</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="F80" s="2" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A81" s="2"/>
-      <c r="B81" s="36" t="s">
-        <v>88</v>
-      </c>
-      <c r="C81" s="37" t="s">
-        <v>89</v>
+      <c r="B81" s="42" t="s">
+        <v>85</v>
+      </c>
+      <c r="C81" s="46" t="s">
+        <v>84</v>
       </c>
       <c r="D81" s="2" t="s">
         <v>18</v>
@@ -2849,8 +2867,8 @@
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A82" s="2"/>
-      <c r="B82" s="36"/>
-      <c r="C82" s="37"/>
+      <c r="B82" s="42"/>
+      <c r="C82" s="46"/>
       <c r="D82" s="2" t="s">
         <v>18</v>
       </c>
@@ -2863,171 +2881,171 @@
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A83" s="2"/>
-      <c r="B83" s="14"/>
-      <c r="C83" s="15"/>
-      <c r="D83" s="2"/>
-      <c r="E83" s="2"/>
-      <c r="F83" s="2"/>
+      <c r="B83" s="42" t="s">
+        <v>88</v>
+      </c>
+      <c r="C83" s="46" t="s">
+        <v>89</v>
+      </c>
+      <c r="D83" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E83" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="F83" s="2" t="s">
+        <v>83</v>
+      </c>
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A84" s="39" t="s">
-        <v>90</v>
-      </c>
-      <c r="B84" s="39"/>
-      <c r="C84" s="39"/>
-      <c r="D84" s="39"/>
-      <c r="E84" s="39"/>
-      <c r="F84" s="39"/>
+      <c r="A84" s="2"/>
+      <c r="B84" s="42"/>
+      <c r="C84" s="46"/>
+      <c r="D84" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E84" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="F84" s="2" t="s">
+        <v>87</v>
+      </c>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A85" s="2"/>
-      <c r="B85" s="5" t="s">
+      <c r="B85" s="14"/>
+      <c r="C85" s="15"/>
+      <c r="D85" s="2"/>
+      <c r="E85" s="2"/>
+      <c r="F85" s="2"/>
+    </row>
+    <row r="86" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A86" s="45" t="s">
+        <v>90</v>
+      </c>
+      <c r="B86" s="45"/>
+      <c r="C86" s="45"/>
+      <c r="D86" s="45"/>
+      <c r="E86" s="45"/>
+      <c r="F86" s="45"/>
+    </row>
+    <row r="87" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A87" s="2"/>
+      <c r="B87" s="5" t="s">
         <v>92</v>
       </c>
-      <c r="C85" s="3" t="s">
+      <c r="C87" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="D85" s="4" t="s">
+      <c r="D87" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="E85" s="4" t="s">
+      <c r="E87" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="F85" s="4"/>
-    </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A86" s="2"/>
-      <c r="B86" s="5" t="s">
-        <v>95</v>
-      </c>
-      <c r="C86" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="D86" s="4" t="s">
-        <v>93</v>
-      </c>
-      <c r="E86" s="4" t="s">
-        <v>93</v>
-      </c>
-      <c r="F86" s="12" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A87" s="39" t="s">
-        <v>31</v>
-      </c>
-      <c r="B87" s="39"/>
-      <c r="C87" s="39"/>
-      <c r="D87" s="39"/>
-      <c r="E87" s="39"/>
-      <c r="F87" s="39"/>
+      <c r="F87" s="4"/>
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A88" s="2"/>
-      <c r="B88" s="2" t="s">
+      <c r="B88" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="C88" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="D88" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="E88" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="F88" s="12" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A89" s="45" t="s">
+        <v>31</v>
+      </c>
+      <c r="B89" s="45"/>
+      <c r="C89" s="45"/>
+      <c r="D89" s="45"/>
+      <c r="E89" s="45"/>
+      <c r="F89" s="45"/>
+    </row>
+    <row r="90" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A90" s="2"/>
+      <c r="B90" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="C88" s="1" t="s">
+      <c r="C90" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="D88" s="2" t="s">
+      <c r="D90" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="E88" s="2" t="s">
+      <c r="E90" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="F88" s="2" t="s">
+      <c r="F90" s="2" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A89" s="2"/>
-      <c r="B89" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="C89" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="D89" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="E89" s="2"/>
-      <c r="F89" s="2"/>
-    </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A90" s="39" t="s">
-        <v>32</v>
-      </c>
-      <c r="B90" s="39"/>
-      <c r="C90" s="39"/>
-      <c r="D90" s="39"/>
-      <c r="E90" s="39"/>
-      <c r="F90" s="39"/>
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A91" s="2"/>
-      <c r="B91" s="2"/>
-      <c r="C91" s="2"/>
-      <c r="D91" s="2"/>
+      <c r="B91" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="C91" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="D91" s="2" t="s">
+        <v>72</v>
+      </c>
       <c r="E91" s="2"/>
       <c r="F91" s="2"/>
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A92" s="39" t="s">
-        <v>33</v>
-      </c>
-      <c r="B92" s="39"/>
-      <c r="C92" s="39"/>
-      <c r="D92" s="39"/>
-      <c r="E92" s="39"/>
-      <c r="F92" s="39"/>
+      <c r="A92" s="45" t="s">
+        <v>32</v>
+      </c>
+      <c r="B92" s="45"/>
+      <c r="C92" s="45"/>
+      <c r="D92" s="45"/>
+      <c r="E92" s="45"/>
+      <c r="F92" s="45"/>
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A93" s="2"/>
-      <c r="B93" s="36" t="s">
-        <v>111</v>
-      </c>
-      <c r="C93" s="37" t="s">
-        <v>112</v>
-      </c>
-      <c r="D93" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="E93" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="F93" s="2" t="s">
-        <v>113</v>
-      </c>
+      <c r="B93" s="2"/>
+      <c r="C93" s="2"/>
+      <c r="D93" s="2"/>
+      <c r="E93" s="2"/>
+      <c r="F93" s="2"/>
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A94" s="2"/>
-      <c r="B94" s="36"/>
-      <c r="C94" s="36"/>
-      <c r="D94" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="E94" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="F94" s="2" t="s">
-        <v>114</v>
-      </c>
+      <c r="A94" s="45" t="s">
+        <v>33</v>
+      </c>
+      <c r="B94" s="45"/>
+      <c r="C94" s="45"/>
+      <c r="D94" s="45"/>
+      <c r="E94" s="45"/>
+      <c r="F94" s="45"/>
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A95" s="2"/>
-      <c r="B95" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="C95" s="15" t="s">
-        <v>115</v>
+      <c r="B95" s="42" t="s">
+        <v>111</v>
+      </c>
+      <c r="C95" s="46" t="s">
+        <v>112</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>18</v>
+        <v>117</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>41</v>
+        <v>117</v>
       </c>
       <c r="F95" s="2" t="s">
         <v>113</v>
@@ -3035,144 +3053,176 @@
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A96" s="2"/>
-      <c r="B96" s="36" t="s">
-        <v>118</v>
-      </c>
-      <c r="C96" s="37" t="s">
-        <v>119</v>
-      </c>
+      <c r="B96" s="42"/>
+      <c r="C96" s="42"/>
       <c r="D96" s="2" t="s">
-        <v>52</v>
+        <v>117</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>41</v>
+        <v>4</v>
       </c>
       <c r="F96" s="2" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A97" s="2"/>
-      <c r="B97" s="36"/>
-      <c r="C97" s="37"/>
+      <c r="B97" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="C97" s="15" t="s">
+        <v>115</v>
+      </c>
       <c r="D97" s="2" t="s">
         <v>18</v>
       </c>
       <c r="E97" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="F97" s="13" t="s">
-        <v>121</v>
+      <c r="F97" s="2" t="s">
+        <v>113</v>
       </c>
     </row>
     <row r="98" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A98" s="39" t="s">
-        <v>34</v>
-      </c>
-      <c r="B98" s="39"/>
-      <c r="C98" s="39"/>
-      <c r="D98" s="39"/>
-      <c r="E98" s="39"/>
-      <c r="F98" s="39"/>
+      <c r="A98" s="2"/>
+      <c r="B98" s="42" t="s">
+        <v>118</v>
+      </c>
+      <c r="C98" s="46" t="s">
+        <v>119</v>
+      </c>
+      <c r="D98" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="E98" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="F98" s="2" t="s">
+        <v>120</v>
+      </c>
     </row>
     <row r="99" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A99" s="2"/>
-      <c r="B99" s="2"/>
-      <c r="C99" s="2"/>
-      <c r="D99" s="2"/>
-      <c r="E99" s="2"/>
-      <c r="F99" s="2"/>
+      <c r="B99" s="42"/>
+      <c r="C99" s="46"/>
+      <c r="D99" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E99" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="F99" s="13" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A100" s="45" t="s">
+        <v>34</v>
+      </c>
+      <c r="B100" s="45"/>
+      <c r="C100" s="45"/>
+      <c r="D100" s="45"/>
+      <c r="E100" s="45"/>
+      <c r="F100" s="45"/>
     </row>
     <row r="101" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="F101" s="34" t="s">
+      <c r="A101" s="2"/>
+      <c r="B101" s="2"/>
+      <c r="C101" s="2"/>
+      <c r="D101" s="2"/>
+      <c r="E101" s="2"/>
+      <c r="F101" s="2"/>
+    </row>
+    <row r="103" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="F103" s="34" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="F102" s="34" t="s">
+    <row r="104" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="F104" s="34" t="s">
         <v>219</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="50">
-    <mergeCell ref="A66:A67"/>
-    <mergeCell ref="B66:B67"/>
-    <mergeCell ref="C66:C67"/>
+    <mergeCell ref="B98:B99"/>
+    <mergeCell ref="C98:C99"/>
+    <mergeCell ref="C83:C84"/>
+    <mergeCell ref="B83:B84"/>
+    <mergeCell ref="A72:A73"/>
+    <mergeCell ref="B72:B73"/>
+    <mergeCell ref="C72:C73"/>
+    <mergeCell ref="A92:F92"/>
+    <mergeCell ref="A94:F94"/>
+    <mergeCell ref="A89:F89"/>
     <mergeCell ref="A62:A63"/>
-    <mergeCell ref="B62:B63"/>
-    <mergeCell ref="C62:C63"/>
-    <mergeCell ref="A64:A65"/>
-    <mergeCell ref="C64:C65"/>
-    <mergeCell ref="B64:B65"/>
-    <mergeCell ref="A98:F98"/>
-    <mergeCell ref="A49:F49"/>
-    <mergeCell ref="A51:F51"/>
-    <mergeCell ref="A72:F72"/>
-    <mergeCell ref="A84:F84"/>
-    <mergeCell ref="B73:B74"/>
-    <mergeCell ref="C73:C74"/>
-    <mergeCell ref="B75:B76"/>
-    <mergeCell ref="C75:C76"/>
-    <mergeCell ref="B79:B80"/>
-    <mergeCell ref="C79:C80"/>
-    <mergeCell ref="B93:B94"/>
-    <mergeCell ref="C93:C94"/>
-    <mergeCell ref="A54:A55"/>
-    <mergeCell ref="B54:B55"/>
-    <mergeCell ref="B60:B61"/>
-    <mergeCell ref="A60:A61"/>
-    <mergeCell ref="B28:B29"/>
-    <mergeCell ref="C28:C29"/>
+    <mergeCell ref="B30:B31"/>
+    <mergeCell ref="C30:C31"/>
     <mergeCell ref="A2:F2"/>
     <mergeCell ref="A8:F8"/>
     <mergeCell ref="A16:F16"/>
-    <mergeCell ref="A24:F24"/>
-    <mergeCell ref="A28:A29"/>
-    <mergeCell ref="C60:C61"/>
+    <mergeCell ref="A26:F26"/>
+    <mergeCell ref="A30:A31"/>
+    <mergeCell ref="C62:C63"/>
+    <mergeCell ref="A49:F49"/>
+    <mergeCell ref="A36:A39"/>
+    <mergeCell ref="B36:B39"/>
+    <mergeCell ref="C36:C39"/>
+    <mergeCell ref="C56:C57"/>
     <mergeCell ref="A47:F47"/>
-    <mergeCell ref="A34:A37"/>
-    <mergeCell ref="B34:B37"/>
-    <mergeCell ref="C34:C37"/>
-    <mergeCell ref="C54:C55"/>
-    <mergeCell ref="A45:F45"/>
-    <mergeCell ref="B96:B97"/>
-    <mergeCell ref="C96:C97"/>
+    <mergeCell ref="A100:F100"/>
+    <mergeCell ref="A51:F51"/>
+    <mergeCell ref="A53:F53"/>
+    <mergeCell ref="A74:F74"/>
+    <mergeCell ref="A86:F86"/>
+    <mergeCell ref="B75:B76"/>
+    <mergeCell ref="C75:C76"/>
+    <mergeCell ref="B77:B78"/>
+    <mergeCell ref="C77:C78"/>
+    <mergeCell ref="B81:B82"/>
     <mergeCell ref="C81:C82"/>
-    <mergeCell ref="B81:B82"/>
-    <mergeCell ref="A70:A71"/>
-    <mergeCell ref="B70:B71"/>
-    <mergeCell ref="C70:C71"/>
-    <mergeCell ref="A90:F90"/>
-    <mergeCell ref="A92:F92"/>
-    <mergeCell ref="A87:F87"/>
+    <mergeCell ref="B95:B96"/>
+    <mergeCell ref="C95:C96"/>
+    <mergeCell ref="A56:A57"/>
+    <mergeCell ref="B56:B57"/>
+    <mergeCell ref="B62:B63"/>
+    <mergeCell ref="A68:A69"/>
+    <mergeCell ref="B68:B69"/>
+    <mergeCell ref="C68:C69"/>
+    <mergeCell ref="A64:A65"/>
+    <mergeCell ref="B64:B65"/>
+    <mergeCell ref="C64:C65"/>
+    <mergeCell ref="A66:A67"/>
+    <mergeCell ref="C66:C67"/>
+    <mergeCell ref="B66:B67"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="C3" r:id="rId1" xr:uid="{3FB3FA06-DE47-4C2D-AFD7-F5FC45E3D126}"/>
     <hyperlink ref="C4" r:id="rId2" xr:uid="{C4A51F70-7D5B-496B-8FD0-AB7121D9FCE1}"/>
     <hyperlink ref="C9" r:id="rId3" xr:uid="{678D7AA2-36D2-4A02-971F-3FB9391E8E35}"/>
     <hyperlink ref="C17" r:id="rId4" xr:uid="{2AC6AF52-CC30-4063-833D-09178907C109}"/>
-    <hyperlink ref="C42" r:id="rId5" xr:uid="{6352E065-8925-49FF-AA82-66ED2F9F8651}"/>
+    <hyperlink ref="C44" r:id="rId5" xr:uid="{6352E065-8925-49FF-AA82-66ED2F9F8651}"/>
     <hyperlink ref="C18" r:id="rId6" xr:uid="{047C68C0-B7AB-4E77-9D1E-B162BD11A209}"/>
     <hyperlink ref="C19" r:id="rId7" xr:uid="{1ABD0EDA-F48F-4D2F-B13C-180B398F1FCD}"/>
-    <hyperlink ref="C73" r:id="rId8" xr:uid="{35D2A43C-BF1B-4339-9217-7116005F7034}"/>
-    <hyperlink ref="C75" r:id="rId9" xr:uid="{233456E2-1B15-4448-A669-82C381357683}"/>
-    <hyperlink ref="C88" r:id="rId10" xr:uid="{4A724644-7F2B-4DE6-9141-A1802140FB4A}"/>
-    <hyperlink ref="C85" r:id="rId11" xr:uid="{914A5C5A-20B3-4526-A460-020F9852AFDB}"/>
-    <hyperlink ref="C86" r:id="rId12" xr:uid="{0B2D15B8-18BF-46A5-991E-6E53ADC95851}"/>
-    <hyperlink ref="C25" r:id="rId13" xr:uid="{93A177B9-936F-4ED5-9F32-EB31F0D8F614}"/>
-    <hyperlink ref="C93" r:id="rId14" xr:uid="{9CD2E86C-B1BA-4CC3-9E52-ECA767380715}"/>
-    <hyperlink ref="C95" r:id="rId15" xr:uid="{30EBB8AD-10BE-47B9-BF85-DBCCCE948784}"/>
-    <hyperlink ref="F97" r:id="rId16" xr:uid="{080A2B1B-6640-47F1-9DAB-1F0914BD9938}"/>
-    <hyperlink ref="C52" r:id="rId17" xr:uid="{DD8AB0F8-5B5E-4F6E-A0B4-339B324BDAC3}"/>
+    <hyperlink ref="C75" r:id="rId8" xr:uid="{35D2A43C-BF1B-4339-9217-7116005F7034}"/>
+    <hyperlink ref="C77" r:id="rId9" xr:uid="{233456E2-1B15-4448-A669-82C381357683}"/>
+    <hyperlink ref="C90" r:id="rId10" xr:uid="{4A724644-7F2B-4DE6-9141-A1802140FB4A}"/>
+    <hyperlink ref="C87" r:id="rId11" xr:uid="{914A5C5A-20B3-4526-A460-020F9852AFDB}"/>
+    <hyperlink ref="C88" r:id="rId12" xr:uid="{0B2D15B8-18BF-46A5-991E-6E53ADC95851}"/>
+    <hyperlink ref="C27" r:id="rId13" xr:uid="{93A177B9-936F-4ED5-9F32-EB31F0D8F614}"/>
+    <hyperlink ref="C95" r:id="rId14" xr:uid="{9CD2E86C-B1BA-4CC3-9E52-ECA767380715}"/>
+    <hyperlink ref="C97" r:id="rId15" xr:uid="{30EBB8AD-10BE-47B9-BF85-DBCCCE948784}"/>
+    <hyperlink ref="F99" r:id="rId16" xr:uid="{080A2B1B-6640-47F1-9DAB-1F0914BD9938}"/>
+    <hyperlink ref="C54" r:id="rId17" xr:uid="{DD8AB0F8-5B5E-4F6E-A0B4-339B324BDAC3}"/>
     <hyperlink ref="C7" r:id="rId18" xr:uid="{43B67C49-DC70-412F-B095-E684E07FF196}"/>
-    <hyperlink ref="C62" r:id="rId19" xr:uid="{7FDCAB78-56F5-40D3-8A09-8A8A0E54E05D}"/>
-    <hyperlink ref="F63" r:id="rId20" xr:uid="{F7F3C873-8E94-4212-B22A-52BF75A478D8}"/>
-    <hyperlink ref="C28" r:id="rId21" xr:uid="{F6C15430-DBA9-4DAD-A411-65B1524C625E}"/>
+    <hyperlink ref="C64" r:id="rId19" xr:uid="{7FDCAB78-56F5-40D3-8A09-8A8A0E54E05D}"/>
+    <hyperlink ref="F65" r:id="rId20" xr:uid="{F7F3C873-8E94-4212-B22A-52BF75A478D8}"/>
+    <hyperlink ref="C30" r:id="rId21" xr:uid="{F6C15430-DBA9-4DAD-A411-65B1524C625E}"/>
     <hyperlink ref="G17" r:id="rId22" display="https://leetcode.com/problems/maximum-sum-circular-subarray/" xr:uid="{A4CEEEE3-5EE5-4166-9A65-51E09840E49F}"/>
     <hyperlink ref="G18" r:id="rId23" display="https://leetcode.com/problems/maximum-product-subarray/" xr:uid="{E66937F4-342E-466B-92BD-529EAD0F1180}"/>
     <hyperlink ref="G19" r:id="rId24" display="https://leetcode.com/problems/maximum-length-of-subarray-with-positive-product/" xr:uid="{C0B6118F-C23A-4E55-881A-F4A1DA018A1F}"/>
     <hyperlink ref="C6" r:id="rId25" xr:uid="{D548A552-BEA3-46D9-89FD-0EDF330CCD4B}"/>
-    <hyperlink ref="C66" r:id="rId26" xr:uid="{7EAF2DCC-4594-46F5-AFC0-D19FF750F897}"/>
+    <hyperlink ref="C68" r:id="rId26" xr:uid="{7EAF2DCC-4594-46F5-AFC0-D19FF750F897}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="90" verticalDpi="90" r:id="rId27"/>

--- a/SDE Sheet.xlsx
+++ b/SDE Sheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Src Code\Personal\SDE-Sheet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A6E21F1-D6B7-4401-988F-ED696E879D2D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B416462D-017F-48F1-8D5A-4A5694EB6898}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{83934561-A72F-4836-B1E7-4EE8C35F9874}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="389" uniqueCount="227">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="396" uniqueCount="233">
   <si>
     <t>Matrix</t>
   </si>
@@ -834,6 +834,24 @@
   </si>
   <si>
     <t>https://leetcode.com/problems/cherry-pickup-ii/</t>
+  </si>
+  <si>
+    <t>Space complexity of sort function in c++ O(log n): hybrid of Quick Sort, Heap Sort and Insertion Sort</t>
+  </si>
+  <si>
+    <t>count function of unordered_set</t>
+  </si>
+  <si>
+    <t>Range Sum Query 2D - Immutable</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/range-sum-query-2d-immutable/</t>
+  </si>
+  <si>
+    <t>O(1)per query, O(m*n) for pre-computation</t>
+  </si>
+  <si>
+    <t>Sub Matrix Sum</t>
   </si>
 </sst>
 </file>
@@ -1078,7 +1096,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="58">
+  <cellXfs count="59">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -1149,6 +1167,7 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1530,11 +1549,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D3EBAEE5-B4E7-4BD5-B694-FD6EEA5E8AC0}">
-  <dimension ref="A1:G104"/>
+  <dimension ref="A1:G107"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="83" zoomScaleNormal="94" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C25" sqref="C25"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="84" zoomScaleNormal="94" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1547,7 +1566,7 @@
     <col min="7" max="7" width="105.08984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1" s="6" t="s">
         <v>126</v>
       </c>
@@ -1567,17 +1586,17 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A2" s="45" t="s">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A2" s="46" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="45"/>
-      <c r="C2" s="45"/>
-      <c r="D2" s="45"/>
-      <c r="E2" s="45"/>
-      <c r="F2" s="45"/>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="B2" s="46"/>
+      <c r="C2" s="46"/>
+      <c r="D2" s="46"/>
+      <c r="E2" s="46"/>
+      <c r="F2" s="46"/>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A3" s="9"/>
       <c r="B3" s="2" t="s">
         <v>1</v>
@@ -1595,7 +1614,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:6" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A4" s="11"/>
       <c r="B4" s="2" t="s">
         <v>12</v>
@@ -1613,7 +1632,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A5" s="2"/>
       <c r="B5" s="2" t="s">
         <v>35</v>
@@ -1631,7 +1650,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:6" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A6" s="9"/>
       <c r="B6" s="2" t="s">
         <v>213</v>
@@ -1649,7 +1668,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A7" s="9"/>
       <c r="B7" s="2" t="s">
         <v>122</v>
@@ -1667,77 +1686,77 @@
         <v>124</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A8" s="45" t="s">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A8" s="9"/>
+      <c r="B8" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>231</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A9" s="46" t="s">
         <v>15</v>
       </c>
-      <c r="B8" s="45"/>
-      <c r="C8" s="45"/>
-      <c r="D8" s="45"/>
-      <c r="E8" s="45"/>
-      <c r="F8" s="45"/>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A9" s="9"/>
-      <c r="B9" s="2" t="s">
+      <c r="B9" s="46"/>
+      <c r="C9" s="46"/>
+      <c r="D9" s="46"/>
+      <c r="E9" s="46"/>
+      <c r="F9" s="46"/>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A10" s="9"/>
+      <c r="B10" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C9" s="1" t="s">
+      <c r="C10" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D9" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="F9" s="2" t="s">
+      <c r="D10" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F10" s="2" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A10" s="2"/>
-      <c r="B10" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="F10" s="2" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A11" s="2"/>
       <c r="B11" s="2" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>18</v>
+        <v>41</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
+        <v>41</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A12" s="2"/>
       <c r="B12" s="2" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="D12" s="2" t="s">
         <v>18</v>
@@ -1745,105 +1764,102 @@
       <c r="E12" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F12" s="2" t="s">
+      <c r="F12" s="7" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A13" s="2"/>
       <c r="B13" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A14" s="2"/>
+      <c r="B14" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="C13" s="1" t="s">
+      <c r="C14" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="D13" s="2" t="s">
+      <c r="D14" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="E13" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="F13" s="8" t="s">
+      <c r="E14" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F14" s="8" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A14" s="9"/>
-      <c r="B14" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="E14" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="F14" s="8" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A15" s="9"/>
       <c r="B15" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F15" s="8" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A16" s="9"/>
+      <c r="B16" s="2" t="s">
         <v>220</v>
       </c>
-      <c r="C15" s="1" t="s">
+      <c r="C16" s="1" t="s">
         <v>221</v>
       </c>
-      <c r="D15" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E15" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="F15" s="8" t="s">
+      <c r="D16" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F16" s="8" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A16" s="45" t="s">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A17" s="46" t="s">
         <v>22</v>
       </c>
-      <c r="B16" s="45"/>
-      <c r="C16" s="45"/>
-      <c r="D16" s="45"/>
-      <c r="E16" s="45"/>
-      <c r="F16" s="45"/>
-      <c r="G16" s="34" t="s">
+      <c r="B17" s="46"/>
+      <c r="C17" s="46"/>
+      <c r="D17" s="46"/>
+      <c r="E17" s="46"/>
+      <c r="F17" s="46"/>
+      <c r="G17" s="34" t="s">
         <v>212</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A17" s="11"/>
-      <c r="B17" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="D17" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E17" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="F17" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="G17" s="35" t="s">
-        <v>209</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A18" s="11"/>
       <c r="B18" s="2" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="D18" s="2" t="s">
         <v>18</v>
@@ -1855,115 +1871,118 @@
         <v>27</v>
       </c>
       <c r="G18" s="35" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A19" s="11"/>
+      <c r="B19" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F19" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="G19" s="35" t="s">
         <v>210</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A19" s="2"/>
-      <c r="B19" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="D19" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E19" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="F19" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="G19" s="35" t="s">
-        <v>211</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A20" s="2"/>
       <c r="B20" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F20" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="G20" s="35" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A21" s="2"/>
+      <c r="B21" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="C20" s="1" t="s">
+      <c r="C21" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="D20" s="2" t="s">
+      <c r="D21" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="E20" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="F20" s="2" t="s">
+      <c r="E21" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F21" s="2" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A21" s="31"/>
-      <c r="B21" s="2" t="s">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A22" s="31"/>
+      <c r="B22" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="C21" s="1" t="s">
+      <c r="C22" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="D21" s="2" t="s">
+      <c r="D22" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E21" s="2" t="s">
+      <c r="E22" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="F21" s="2" t="s">
+      <c r="F22" s="2" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="22" spans="1:7" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A22" s="30"/>
-      <c r="B22" s="2" t="s">
+    <row r="23" spans="1:7" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A23" s="30"/>
+      <c r="B23" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="C22" s="1" t="s">
+      <c r="C23" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="D22" s="2" t="s">
+      <c r="D23" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="E22" s="2" t="s">
+      <c r="E23" s="2" t="s">
         <v>14</v>
-      </c>
-      <c r="F22" s="2" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="32"/>
-      <c r="B23" s="2" t="s">
-        <v>205</v>
-      </c>
-      <c r="C23" s="1" t="s">
-        <v>204</v>
-      </c>
-      <c r="D23" s="33" t="s">
-        <v>207</v>
-      </c>
-      <c r="E23" s="2" t="s">
-        <v>208</v>
       </c>
       <c r="F23" s="2" t="s">
         <v>206</v>
       </c>
     </row>
     <row r="24" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="30"/>
+      <c r="A24" s="32"/>
       <c r="B24" s="2" t="s">
-        <v>223</v>
+        <v>205</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>225</v>
-      </c>
-      <c r="D24" s="2" t="s">
-        <v>129</v>
+        <v>204</v>
+      </c>
+      <c r="D24" s="33" t="s">
+        <v>207</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>14</v>
+        <v>208</v>
       </c>
       <c r="F24" s="2" t="s">
         <v>206</v>
@@ -1972,10 +1991,10 @@
     <row r="25" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A25" s="30"/>
       <c r="B25" s="2" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="D25" s="2" t="s">
         <v>129</v>
@@ -1987,59 +2006,59 @@
         <v>206</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A26" s="45" t="s">
+    <row r="26" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A26" s="30"/>
+      <c r="B26" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="E26" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F26" s="2" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A27" s="46" t="s">
         <v>97</v>
       </c>
-      <c r="B26" s="45"/>
-      <c r="C26" s="45"/>
-      <c r="D26" s="45"/>
-      <c r="E26" s="45"/>
-      <c r="F26" s="45"/>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A27" s="9"/>
-      <c r="B27" s="2" t="s">
+      <c r="B27" s="46"/>
+      <c r="C27" s="46"/>
+      <c r="D27" s="46"/>
+      <c r="E27" s="46"/>
+      <c r="F27" s="46"/>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A28" s="9"/>
+      <c r="B28" s="2" t="s">
         <v>125</v>
       </c>
-      <c r="C27" s="1" t="s">
+      <c r="C28" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="D27" s="2" t="s">
+      <c r="D28" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="E27" s="2" t="s">
+      <c r="E28" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="F27" s="2" t="s">
+      <c r="F28" s="2" t="s">
         <v>101</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A28" s="26"/>
-      <c r="B28" s="2" t="s">
-        <v>178</v>
-      </c>
-      <c r="C28" s="1" t="s">
-        <v>179</v>
-      </c>
-      <c r="D28" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E28" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="F28" s="2" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A29" s="26"/>
       <c r="B29" s="2" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="D29" s="2" t="s">
         <v>18</v>
@@ -2052,380 +2071,380 @@
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A30" s="36"/>
-      <c r="B30" s="42" t="s">
-        <v>106</v>
-      </c>
-      <c r="C30" s="46" t="s">
-        <v>107</v>
+      <c r="A30" s="26"/>
+      <c r="B30" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>181</v>
       </c>
       <c r="D30" s="2" t="s">
         <v>18</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>108</v>
+        <v>13</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A31" s="37"/>
-      <c r="B31" s="42"/>
-      <c r="C31" s="46"/>
+      <c r="B31" s="43" t="s">
+        <v>106</v>
+      </c>
+      <c r="C31" s="47" t="s">
+        <v>107</v>
+      </c>
       <c r="D31" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E31" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F31" s="2" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A32" s="38"/>
+      <c r="B32" s="43"/>
+      <c r="C32" s="47"/>
+      <c r="D32" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="E31" s="2" t="s">
+      <c r="E32" s="2" t="s">
         <v>100</v>
-      </c>
-      <c r="F31" s="2" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A32" s="9"/>
-      <c r="B32" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="C32" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="D32" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E32" s="2" t="s">
-        <v>104</v>
       </c>
       <c r="F32" s="2" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A33" s="2"/>
-      <c r="B33" s="2"/>
+    <row r="33" spans="1:6" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A33" s="9"/>
+      <c r="B33" s="2" t="s">
+        <v>102</v>
+      </c>
       <c r="C33" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="D33" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E33" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="F33" s="2" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A34" s="2"/>
+      <c r="B34" s="2"/>
+      <c r="C34" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="D33" s="2"/>
-      <c r="E33" s="2"/>
-      <c r="F33" s="29" t="s">
+      <c r="D34" s="2"/>
+      <c r="E34" s="2"/>
+      <c r="F34" s="29" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="34" spans="1:6" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A34" s="9"/>
-      <c r="B34" s="2" t="s">
+    <row r="35" spans="1:6" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A35" s="9"/>
+      <c r="B35" s="2" t="s">
         <v>182</v>
-      </c>
-      <c r="C34" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="D34" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="E34" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="F34" s="2" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A35" s="10"/>
-      <c r="B35" s="2" t="s">
-        <v>196</v>
       </c>
       <c r="C35" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="D35" s="2"/>
-      <c r="E35" s="2"/>
-      <c r="F35" s="29" t="s">
+      <c r="D35" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="E35" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="F35" s="2" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A36" s="10"/>
+      <c r="B36" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="D36" s="2"/>
+      <c r="E36" s="2"/>
+      <c r="F36" s="29" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="36" spans="1:6" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A36" s="52"/>
-      <c r="B36" s="38" t="s">
+    <row r="37" spans="1:6" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A37" s="53"/>
+      <c r="B37" s="39" t="s">
         <v>183</v>
       </c>
-      <c r="C36" s="40" t="s">
+      <c r="C37" s="41" t="s">
         <v>184</v>
       </c>
-      <c r="D36" s="2" t="s">
+      <c r="D37" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="E36" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="F36" s="2" t="s">
+      <c r="E37" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F37" s="2" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A37" s="53"/>
-      <c r="B37" s="55"/>
-      <c r="C37" s="56"/>
-      <c r="D37" s="2" t="s">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A38" s="54"/>
+      <c r="B38" s="56"/>
+      <c r="C38" s="57"/>
+      <c r="D38" s="2" t="s">
         <v>186</v>
       </c>
-      <c r="E37" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="F37" s="2" t="s">
+      <c r="E38" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F38" s="2" t="s">
         <v>101</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A38" s="53"/>
-      <c r="B38" s="55"/>
-      <c r="C38" s="56"/>
-      <c r="D38" s="2" t="s">
-        <v>187</v>
-      </c>
-      <c r="E38" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="F38" s="2" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A39" s="54"/>
-      <c r="B39" s="39"/>
-      <c r="C39" s="41"/>
+      <c r="B39" s="56"/>
+      <c r="C39" s="57"/>
       <c r="D39" s="2" t="s">
         <v>187</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>4</v>
+        <v>18</v>
       </c>
       <c r="F39" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A40" s="55"/>
+      <c r="B40" s="40"/>
+      <c r="C40" s="42"/>
+      <c r="D40" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="E40" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F40" s="2" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A40" s="23"/>
-      <c r="B40" s="2" t="s">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A41" s="23"/>
+      <c r="B41" s="2" t="s">
         <v>188</v>
       </c>
-      <c r="C40" s="24" t="s">
+      <c r="C41" s="24" t="s">
         <v>189</v>
       </c>
-      <c r="D40" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E40" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="F40" s="2" t="s">
+      <c r="D41" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E41" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F41" s="2" t="s">
         <v>108</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A41" s="28"/>
-      <c r="B41" s="2" t="s">
-        <v>198</v>
-      </c>
-      <c r="C41" s="27" t="s">
-        <v>199</v>
-      </c>
-      <c r="D41" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E41" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="F41" s="2" t="s">
-        <v>200</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A42" s="28"/>
       <c r="B42" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="C42" s="27" t="s">
+        <v>199</v>
+      </c>
+      <c r="D42" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E42" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F42" s="2" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A43" s="28"/>
+      <c r="B43" s="2" t="s">
         <v>201</v>
       </c>
-      <c r="C42" s="27" t="s">
+      <c r="C43" s="27" t="s">
         <v>202</v>
       </c>
-      <c r="D42" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E42" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="F42" s="2" t="s">
+      <c r="D43" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E43" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F43" s="2" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A43" s="25"/>
-      <c r="B43" s="2" t="s">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A44" s="25"/>
+      <c r="B44" s="2" t="s">
         <v>190</v>
       </c>
-      <c r="C43" s="24" t="s">
+      <c r="C44" s="24" t="s">
         <v>191</v>
       </c>
-      <c r="D43" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E43" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="F43" s="2" t="s">
+      <c r="D44" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E44" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F44" s="2" t="s">
         <v>108</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A44" s="9"/>
-      <c r="B44" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C44" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="D44" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E44" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="F44" s="2" t="s">
-        <v>105</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A45" s="9"/>
       <c r="B45" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D45" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E45" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F45" s="2" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A46" s="9"/>
+      <c r="B46" s="2" t="s">
         <v>215</v>
       </c>
-      <c r="C45" s="1" t="s">
+      <c r="C46" s="1" t="s">
         <v>216</v>
       </c>
-      <c r="D45" s="2" t="s">
+      <c r="D46" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="E45" s="2" t="s">
+      <c r="E46" s="2" t="s">
         <v>104</v>
-      </c>
-      <c r="F45" s="2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A46" s="11"/>
-      <c r="B46" s="2" t="s">
-        <v>217</v>
-      </c>
-      <c r="C46" s="1" t="s">
-        <v>218</v>
-      </c>
-      <c r="D46" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="E46" s="2" t="s">
-        <v>4</v>
       </c>
       <c r="F46" s="2" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A47" s="45" t="s">
+      <c r="A47" s="11"/>
+      <c r="B47" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="D47" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="E47" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F47" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A48" s="46" t="s">
         <v>192</v>
       </c>
-      <c r="B47" s="45"/>
-      <c r="C47" s="45"/>
-      <c r="D47" s="45"/>
-      <c r="E47" s="45"/>
-      <c r="F47" s="45"/>
-    </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A48" s="9"/>
-      <c r="B48" s="2" t="s">
+      <c r="B48" s="46"/>
+      <c r="C48" s="46"/>
+      <c r="D48" s="46"/>
+      <c r="E48" s="46"/>
+      <c r="F48" s="46"/>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A49" s="9"/>
+      <c r="B49" s="2" t="s">
         <v>193</v>
       </c>
-      <c r="C48" s="2" t="s">
+      <c r="C49" s="2" t="s">
         <v>194</v>
       </c>
-      <c r="D48" s="2"/>
-      <c r="E48" s="2"/>
-      <c r="F48" s="2" t="s">
+      <c r="D49" s="2"/>
+      <c r="E49" s="2"/>
+      <c r="F49" s="2" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A49" s="49" t="s">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A50" s="50" t="s">
         <v>28</v>
       </c>
-      <c r="B49" s="50"/>
-      <c r="C49" s="50"/>
-      <c r="D49" s="50"/>
-      <c r="E49" s="50"/>
-      <c r="F49" s="51"/>
-    </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A50" s="2"/>
-      <c r="B50" s="2"/>
-      <c r="C50" s="2"/>
-      <c r="D50" s="2"/>
-      <c r="E50" s="2"/>
-      <c r="F50" s="2"/>
+      <c r="B50" s="51"/>
+      <c r="C50" s="51"/>
+      <c r="D50" s="51"/>
+      <c r="E50" s="51"/>
+      <c r="F50" s="52"/>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A51" s="45" t="s">
+      <c r="A51" s="2"/>
+      <c r="B51" s="2"/>
+      <c r="C51" s="2"/>
+      <c r="D51" s="2"/>
+      <c r="E51" s="2"/>
+      <c r="F51" s="2"/>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A52" s="46" t="s">
         <v>29</v>
       </c>
-      <c r="B51" s="45"/>
-      <c r="C51" s="45"/>
-      <c r="D51" s="45"/>
-      <c r="E51" s="45"/>
-      <c r="F51" s="45"/>
-    </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A52" s="2"/>
-      <c r="B52" s="2"/>
-      <c r="C52" s="2"/>
-      <c r="D52" s="2"/>
-      <c r="E52" s="2"/>
-      <c r="F52" s="2"/>
+      <c r="B52" s="46"/>
+      <c r="C52" s="46"/>
+      <c r="D52" s="46"/>
+      <c r="E52" s="46"/>
+      <c r="F52" s="46"/>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A53" s="45" t="s">
+      <c r="A53" s="2"/>
+      <c r="B53" s="2"/>
+      <c r="C53" s="2"/>
+      <c r="D53" s="2"/>
+      <c r="E53" s="2"/>
+      <c r="F53" s="2"/>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A54" s="46" t="s">
         <v>30</v>
       </c>
-      <c r="B53" s="45"/>
-      <c r="C53" s="45"/>
-      <c r="D53" s="45"/>
-      <c r="E53" s="45"/>
-      <c r="F53" s="45"/>
-    </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A54" s="11"/>
-      <c r="B54" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="C54" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="D54" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E54" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="F54" s="2" t="s">
-        <v>13</v>
-      </c>
+      <c r="B54" s="46"/>
+      <c r="C54" s="46"/>
+      <c r="D54" s="46"/>
+      <c r="E54" s="46"/>
+      <c r="F54" s="46"/>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A55" s="11"/>
       <c r="B55" s="2" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="D55" s="2" t="s">
         <v>18</v>
@@ -2438,62 +2457,62 @@
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A56" s="47"/>
-      <c r="B56" s="42" t="s">
+      <c r="A56" s="11"/>
+      <c r="B56" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="C56" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="D56" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E56" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F56" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A57" s="48"/>
+      <c r="B57" s="43" t="s">
         <v>158</v>
       </c>
-      <c r="C56" s="46" t="s">
+      <c r="C57" s="47" t="s">
         <v>159</v>
       </c>
-      <c r="D56" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E56" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="F56" s="2" t="s">
+      <c r="D57" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E57" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F57" s="2" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A57" s="47"/>
-      <c r="B57" s="42"/>
-      <c r="C57" s="46"/>
-      <c r="D57" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E57" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="F57" s="2" t="s">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A58" s="48"/>
+      <c r="B58" s="43"/>
+      <c r="C58" s="47"/>
+      <c r="D58" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E58" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F58" s="2" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A58" s="11"/>
-      <c r="B58" s="2" t="s">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A59" s="11"/>
+      <c r="B59" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="C58" s="1" t="s">
+      <c r="C59" s="1" t="s">
         <v>139</v>
-      </c>
-      <c r="D58" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="E58" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="F58" s="2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A59" s="9"/>
-      <c r="B59" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="C59" s="1" t="s">
-        <v>145</v>
       </c>
       <c r="D59" s="2" t="s">
         <v>140</v>
@@ -2508,334 +2527,334 @@
     <row r="60" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A60" s="9"/>
       <c r="B60" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="C60" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="D60" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="E60" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F60" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A61" s="9"/>
+      <c r="B61" s="2" t="s">
         <v>147</v>
       </c>
-      <c r="C60" s="1" t="s">
+      <c r="C61" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="D60" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E60" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="F60" s="2" t="s">
+      <c r="D61" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E61" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F61" s="2" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A61" s="11"/>
-      <c r="B61" s="2" t="s">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A62" s="11"/>
+      <c r="B62" s="2" t="s">
         <v>141</v>
       </c>
-      <c r="C61" s="1" t="s">
+      <c r="C62" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="D61" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="E61" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="F61" s="2" t="s">
+      <c r="D62" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E62" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F62" s="2" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A62" s="48"/>
-      <c r="B62" s="42" t="s">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A63" s="49"/>
+      <c r="B63" s="43" t="s">
         <v>152</v>
       </c>
-      <c r="C62" s="46" t="s">
+      <c r="C63" s="47" t="s">
         <v>153</v>
       </c>
-      <c r="D62" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="E62" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="F62" s="2" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A63" s="48"/>
-      <c r="B63" s="42"/>
-      <c r="C63" s="46"/>
       <c r="D63" s="2" t="s">
         <v>140</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>4</v>
+        <v>57</v>
       </c>
       <c r="F63" s="2" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A64" s="49"/>
+      <c r="B64" s="43"/>
+      <c r="C64" s="47"/>
+      <c r="D64" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="E64" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F64" s="2" t="s">
         <v>157</v>
-      </c>
-    </row>
-    <row r="64" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A64" s="36"/>
-      <c r="B64" s="42" t="s">
-        <v>167</v>
-      </c>
-      <c r="C64" s="40" t="s">
-        <v>168</v>
-      </c>
-      <c r="D64" s="21" t="s">
-        <v>18</v>
-      </c>
-      <c r="E64" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="F64" s="2" t="s">
-        <v>169</v>
       </c>
     </row>
     <row r="65" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A65" s="37"/>
-      <c r="B65" s="42"/>
-      <c r="C65" s="41"/>
+      <c r="B65" s="43" t="s">
+        <v>167</v>
+      </c>
+      <c r="C65" s="41" t="s">
+        <v>168</v>
+      </c>
       <c r="D65" s="21" t="s">
         <v>18</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="F65" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F65" s="2" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A66" s="38"/>
+      <c r="B66" s="43"/>
+      <c r="C66" s="42"/>
+      <c r="D66" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="E66" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F66" s="1" t="s">
         <v>170</v>
-      </c>
-    </row>
-    <row r="66" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A66" s="43"/>
-      <c r="B66" s="42" t="s">
-        <v>173</v>
-      </c>
-      <c r="C66" s="40" t="s">
-        <v>171</v>
-      </c>
-      <c r="D66" s="21" t="s">
-        <v>18</v>
-      </c>
-      <c r="E66" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="F66" s="2" t="s">
-        <v>169</v>
       </c>
     </row>
     <row r="67" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A67" s="44"/>
-      <c r="B67" s="42"/>
-      <c r="C67" s="41"/>
+      <c r="B67" s="43" t="s">
+        <v>173</v>
+      </c>
+      <c r="C67" s="41" t="s">
+        <v>171</v>
+      </c>
       <c r="D67" s="21" t="s">
         <v>18</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="F67" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F67" s="2" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A68" s="45"/>
+      <c r="B68" s="43"/>
+      <c r="C68" s="42"/>
+      <c r="D68" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="E68" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F68" s="1" t="s">
         <v>172</v>
-      </c>
-    </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A68" s="36"/>
-      <c r="B68" s="38" t="s">
-        <v>163</v>
-      </c>
-      <c r="C68" s="40" t="s">
-        <v>164</v>
-      </c>
-      <c r="D68" s="18" t="s">
-        <v>18</v>
-      </c>
-      <c r="E68" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="F68" s="2" t="s">
-        <v>165</v>
       </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A69" s="37"/>
-      <c r="B69" s="39"/>
-      <c r="C69" s="41"/>
-      <c r="D69" s="2" t="s">
+      <c r="B69" s="39" t="s">
+        <v>163</v>
+      </c>
+      <c r="C69" s="41" t="s">
+        <v>164</v>
+      </c>
+      <c r="D69" s="18" t="s">
         <v>18</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>4</v>
+        <v>18</v>
       </c>
       <c r="F69" s="2" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A70" s="38"/>
+      <c r="B70" s="40"/>
+      <c r="C70" s="42"/>
+      <c r="D70" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E70" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F70" s="2" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A70" s="22"/>
-      <c r="B70" s="19" t="s">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A71" s="22"/>
+      <c r="B71" s="19" t="s">
         <v>174</v>
       </c>
-      <c r="C70" s="20" t="s">
+      <c r="C71" s="20" t="s">
         <v>175</v>
       </c>
-      <c r="D70" s="2" t="s">
+      <c r="D71" s="2" t="s">
         <v>176</v>
       </c>
-      <c r="E70" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="F70" s="2" t="s">
+      <c r="E71" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F71" s="2" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A71" s="17"/>
-      <c r="B71" s="16" t="s">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A72" s="17"/>
+      <c r="B72" s="16" t="s">
         <v>161</v>
       </c>
-      <c r="C71" s="15" t="s">
+      <c r="C72" s="15" t="s">
         <v>162</v>
       </c>
-      <c r="D71" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E71" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="F71" s="2" t="s">
+      <c r="D72" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E72" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F72" s="2" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A72" s="57"/>
-      <c r="B72" s="42" t="s">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A73" s="58"/>
+      <c r="B73" s="43" t="s">
         <v>149</v>
       </c>
-      <c r="C72" s="46" t="s">
+      <c r="C73" s="47" t="s">
         <v>150</v>
       </c>
-      <c r="D72" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E72" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="F72" s="2" t="s">
+      <c r="D73" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E73" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F73" s="2" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A73" s="57"/>
-      <c r="B73" s="42"/>
-      <c r="C73" s="46"/>
-      <c r="D73" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E73" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="F73" s="2" t="s">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A74" s="58"/>
+      <c r="B74" s="43"/>
+      <c r="C74" s="47"/>
+      <c r="D74" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E74" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F74" s="2" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A74" s="45" t="s">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A75" s="46" t="s">
         <v>65</v>
       </c>
-      <c r="B74" s="45"/>
-      <c r="C74" s="45"/>
-      <c r="D74" s="45"/>
-      <c r="E74" s="45"/>
-      <c r="F74" s="45"/>
-    </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A75" s="2"/>
-      <c r="B75" s="42" t="s">
-        <v>66</v>
-      </c>
-      <c r="C75" s="46" t="s">
-        <v>63</v>
-      </c>
-      <c r="D75" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E75" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="F75" s="2" t="s">
-        <v>69</v>
-      </c>
+      <c r="B75" s="46"/>
+      <c r="C75" s="46"/>
+      <c r="D75" s="46"/>
+      <c r="E75" s="46"/>
+      <c r="F75" s="46"/>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A76" s="2"/>
-      <c r="B76" s="42"/>
-      <c r="C76" s="46"/>
+      <c r="B76" s="43" t="s">
+        <v>66</v>
+      </c>
+      <c r="C76" s="47" t="s">
+        <v>63</v>
+      </c>
       <c r="D76" s="2" t="s">
         <v>18</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>4</v>
+        <v>18</v>
       </c>
       <c r="F76" s="2" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A77" s="2"/>
-      <c r="B77" s="42" t="s">
-        <v>67</v>
-      </c>
-      <c r="C77" s="46" t="s">
-        <v>68</v>
-      </c>
+      <c r="B77" s="43"/>
+      <c r="C77" s="47"/>
       <c r="D77" s="2" t="s">
         <v>18</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="F77" s="2" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A78" s="2"/>
-      <c r="B78" s="42"/>
-      <c r="C78" s="46"/>
+      <c r="B78" s="43" t="s">
+        <v>67</v>
+      </c>
+      <c r="C78" s="47" t="s">
+        <v>68</v>
+      </c>
       <c r="D78" s="2" t="s">
         <v>18</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>4</v>
+        <v>18</v>
       </c>
       <c r="F78" s="2" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A79" s="2"/>
-      <c r="B79" s="14" t="s">
-        <v>81</v>
-      </c>
-      <c r="C79" s="15" t="s">
-        <v>82</v>
-      </c>
+      <c r="B79" s="43"/>
+      <c r="C79" s="47"/>
       <c r="D79" s="2" t="s">
         <v>18</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>79</v>
+        <v>4</v>
       </c>
       <c r="F79" s="2" t="s">
-        <v>83</v>
+        <v>64</v>
       </c>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A80" s="2"/>
       <c r="B80" s="14" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="C80" s="15" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="D80" s="2" t="s">
         <v>18</v>
@@ -2844,16 +2863,16 @@
         <v>79</v>
       </c>
       <c r="F80" s="2" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A81" s="2"/>
-      <c r="B81" s="42" t="s">
-        <v>85</v>
-      </c>
-      <c r="C81" s="46" t="s">
-        <v>84</v>
+      <c r="B81" s="14" t="s">
+        <v>77</v>
+      </c>
+      <c r="C81" s="15" t="s">
+        <v>78</v>
       </c>
       <c r="D81" s="2" t="s">
         <v>18</v>
@@ -2862,96 +2881,98 @@
         <v>79</v>
       </c>
       <c r="F81" s="2" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A82" s="2"/>
-      <c r="B82" s="42"/>
-      <c r="C82" s="46"/>
+      <c r="B82" s="43" t="s">
+        <v>85</v>
+      </c>
+      <c r="C82" s="47" t="s">
+        <v>84</v>
+      </c>
       <c r="D82" s="2" t="s">
         <v>18</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="F82" s="2" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A83" s="2"/>
-      <c r="B83" s="42" t="s">
-        <v>88</v>
-      </c>
-      <c r="C83" s="46" t="s">
-        <v>89</v>
-      </c>
+      <c r="B83" s="43"/>
+      <c r="C83" s="47"/>
       <c r="D83" s="2" t="s">
         <v>18</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="F83" s="2" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A84" s="2"/>
-      <c r="B84" s="42"/>
-      <c r="C84" s="46"/>
+      <c r="B84" s="43" t="s">
+        <v>88</v>
+      </c>
+      <c r="C84" s="47" t="s">
+        <v>89</v>
+      </c>
       <c r="D84" s="2" t="s">
         <v>18</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="F84" s="2" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A85" s="2"/>
-      <c r="B85" s="14"/>
-      <c r="C85" s="15"/>
-      <c r="D85" s="2"/>
-      <c r="E85" s="2"/>
-      <c r="F85" s="2"/>
+      <c r="B85" s="43"/>
+      <c r="C85" s="47"/>
+      <c r="D85" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E85" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="F85" s="2" t="s">
+        <v>87</v>
+      </c>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A86" s="45" t="s">
+      <c r="A86" s="2"/>
+      <c r="B86" s="14"/>
+      <c r="C86" s="15"/>
+      <c r="D86" s="2"/>
+      <c r="E86" s="2"/>
+      <c r="F86" s="2"/>
+    </row>
+    <row r="87" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A87" s="46" t="s">
         <v>90</v>
       </c>
-      <c r="B86" s="45"/>
-      <c r="C86" s="45"/>
-      <c r="D86" s="45"/>
-      <c r="E86" s="45"/>
-      <c r="F86" s="45"/>
-    </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A87" s="2"/>
-      <c r="B87" s="5" t="s">
-        <v>92</v>
-      </c>
-      <c r="C87" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="D87" s="4" t="s">
-        <v>93</v>
-      </c>
-      <c r="E87" s="4" t="s">
-        <v>93</v>
-      </c>
-      <c r="F87" s="4"/>
+      <c r="B87" s="46"/>
+      <c r="C87" s="46"/>
+      <c r="D87" s="46"/>
+      <c r="E87" s="46"/>
+      <c r="F87" s="46"/>
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A88" s="2"/>
       <c r="B88" s="5" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="C88" s="3" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="D88" s="4" t="s">
         <v>93</v>
@@ -2959,270 +2980,296 @@
       <c r="E88" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="F88" s="12" t="s">
+      <c r="F88" s="4"/>
+    </row>
+    <row r="89" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A89" s="2"/>
+      <c r="B89" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="C89" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="D89" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="E89" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="F89" s="12" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A89" s="45" t="s">
+    <row r="90" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A90" s="46" t="s">
         <v>31</v>
       </c>
-      <c r="B89" s="45"/>
-      <c r="C89" s="45"/>
-      <c r="D89" s="45"/>
-      <c r="E89" s="45"/>
-      <c r="F89" s="45"/>
-    </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A90" s="2"/>
-      <c r="B90" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="C90" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="D90" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="E90" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="F90" s="2" t="s">
-        <v>74</v>
-      </c>
+      <c r="B90" s="46"/>
+      <c r="C90" s="46"/>
+      <c r="D90" s="46"/>
+      <c r="E90" s="46"/>
+      <c r="F90" s="46"/>
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A91" s="2"/>
       <c r="B91" s="2" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="C91" s="1" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="D91" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="E91" s="2"/>
-      <c r="F91" s="2"/>
+      <c r="E91" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="F91" s="2" t="s">
+        <v>74</v>
+      </c>
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A92" s="45" t="s">
+      <c r="A92" s="2"/>
+      <c r="B92" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="C92" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="D92" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="E92" s="2"/>
+      <c r="F92" s="2"/>
+    </row>
+    <row r="93" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A93" s="46" t="s">
         <v>32</v>
       </c>
-      <c r="B92" s="45"/>
-      <c r="C92" s="45"/>
-      <c r="D92" s="45"/>
-      <c r="E92" s="45"/>
-      <c r="F92" s="45"/>
-    </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A93" s="2"/>
-      <c r="B93" s="2"/>
-      <c r="C93" s="2"/>
-      <c r="D93" s="2"/>
-      <c r="E93" s="2"/>
-      <c r="F93" s="2"/>
+      <c r="B93" s="46"/>
+      <c r="C93" s="46"/>
+      <c r="D93" s="46"/>
+      <c r="E93" s="46"/>
+      <c r="F93" s="46"/>
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A94" s="45" t="s">
+      <c r="A94" s="2"/>
+      <c r="B94" s="2"/>
+      <c r="C94" s="2"/>
+      <c r="D94" s="2"/>
+      <c r="E94" s="2"/>
+      <c r="F94" s="2"/>
+    </row>
+    <row r="95" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A95" s="46" t="s">
         <v>33</v>
       </c>
-      <c r="B94" s="45"/>
-      <c r="C94" s="45"/>
-      <c r="D94" s="45"/>
-      <c r="E94" s="45"/>
-      <c r="F94" s="45"/>
-    </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A95" s="2"/>
-      <c r="B95" s="42" t="s">
-        <v>111</v>
-      </c>
-      <c r="C95" s="46" t="s">
-        <v>112</v>
-      </c>
-      <c r="D95" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="E95" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="F95" s="2" t="s">
-        <v>113</v>
-      </c>
+      <c r="B95" s="46"/>
+      <c r="C95" s="46"/>
+      <c r="D95" s="46"/>
+      <c r="E95" s="46"/>
+      <c r="F95" s="46"/>
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A96" s="2"/>
-      <c r="B96" s="42"/>
-      <c r="C96" s="42"/>
+      <c r="B96" s="43" t="s">
+        <v>111</v>
+      </c>
+      <c r="C96" s="47" t="s">
+        <v>112</v>
+      </c>
       <c r="D96" s="2" t="s">
         <v>117</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>4</v>
+        <v>117</v>
       </c>
       <c r="F96" s="2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A97" s="2"/>
-      <c r="B97" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="C97" s="15" t="s">
-        <v>115</v>
-      </c>
+      <c r="B97" s="43"/>
+      <c r="C97" s="43"/>
       <c r="D97" s="2" t="s">
-        <v>18</v>
+        <v>117</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>41</v>
+        <v>4</v>
       </c>
       <c r="F97" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
     </row>
     <row r="98" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A98" s="2"/>
-      <c r="B98" s="42" t="s">
-        <v>118</v>
-      </c>
-      <c r="C98" s="46" t="s">
-        <v>119</v>
+      <c r="B98" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="C98" s="15" t="s">
+        <v>115</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>52</v>
+        <v>18</v>
       </c>
       <c r="E98" s="2" t="s">
         <v>41</v>
       </c>
       <c r="F98" s="2" t="s">
-        <v>120</v>
+        <v>113</v>
       </c>
     </row>
     <row r="99" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A99" s="2"/>
-      <c r="B99" s="42"/>
-      <c r="C99" s="46"/>
+      <c r="B99" s="43" t="s">
+        <v>118</v>
+      </c>
+      <c r="C99" s="47" t="s">
+        <v>119</v>
+      </c>
       <c r="D99" s="2" t="s">
-        <v>18</v>
+        <v>52</v>
       </c>
       <c r="E99" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="F99" s="13" t="s">
+      <c r="F99" s="2" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A100" s="2"/>
+      <c r="B100" s="43"/>
+      <c r="C100" s="47"/>
+      <c r="D100" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E100" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="F100" s="13" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A100" s="45" t="s">
+    <row r="101" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A101" s="46" t="s">
         <v>34</v>
       </c>
-      <c r="B100" s="45"/>
-      <c r="C100" s="45"/>
-      <c r="D100" s="45"/>
-      <c r="E100" s="45"/>
-      <c r="F100" s="45"/>
-    </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A101" s="2"/>
-      <c r="B101" s="2"/>
-      <c r="C101" s="2"/>
-      <c r="D101" s="2"/>
-      <c r="E101" s="2"/>
-      <c r="F101" s="2"/>
-    </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="F103" s="34" t="s">
-        <v>155</v>
-      </c>
+      <c r="B101" s="46"/>
+      <c r="C101" s="46"/>
+      <c r="D101" s="46"/>
+      <c r="E101" s="46"/>
+      <c r="F101" s="46"/>
+    </row>
+    <row r="102" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A102" s="2"/>
+      <c r="B102" s="2"/>
+      <c r="C102" s="2"/>
+      <c r="D102" s="2"/>
+      <c r="E102" s="2"/>
+      <c r="F102" s="2"/>
     </row>
     <row r="104" spans="1:6" x14ac:dyDescent="0.35">
       <c r="F104" s="34" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="105" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="F105" s="34" t="s">
         <v>219</v>
+      </c>
+    </row>
+    <row r="106" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="F106" s="34" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="107" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="F107" s="36" t="s">
+        <v>228</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="50">
-    <mergeCell ref="B98:B99"/>
-    <mergeCell ref="C98:C99"/>
-    <mergeCell ref="C83:C84"/>
-    <mergeCell ref="B83:B84"/>
-    <mergeCell ref="A72:A73"/>
-    <mergeCell ref="B72:B73"/>
-    <mergeCell ref="C72:C73"/>
-    <mergeCell ref="A92:F92"/>
-    <mergeCell ref="A94:F94"/>
-    <mergeCell ref="A89:F89"/>
-    <mergeCell ref="A62:A63"/>
-    <mergeCell ref="B30:B31"/>
-    <mergeCell ref="C30:C31"/>
+    <mergeCell ref="B99:B100"/>
+    <mergeCell ref="C99:C100"/>
+    <mergeCell ref="C84:C85"/>
+    <mergeCell ref="B84:B85"/>
+    <mergeCell ref="A73:A74"/>
+    <mergeCell ref="B73:B74"/>
+    <mergeCell ref="C73:C74"/>
+    <mergeCell ref="A93:F93"/>
+    <mergeCell ref="A95:F95"/>
+    <mergeCell ref="A90:F90"/>
+    <mergeCell ref="A63:A64"/>
+    <mergeCell ref="B31:B32"/>
+    <mergeCell ref="C31:C32"/>
     <mergeCell ref="A2:F2"/>
-    <mergeCell ref="A8:F8"/>
-    <mergeCell ref="A16:F16"/>
-    <mergeCell ref="A26:F26"/>
-    <mergeCell ref="A30:A31"/>
-    <mergeCell ref="C62:C63"/>
-    <mergeCell ref="A49:F49"/>
-    <mergeCell ref="A36:A39"/>
-    <mergeCell ref="B36:B39"/>
-    <mergeCell ref="C36:C39"/>
-    <mergeCell ref="C56:C57"/>
-    <mergeCell ref="A47:F47"/>
-    <mergeCell ref="A100:F100"/>
-    <mergeCell ref="A51:F51"/>
-    <mergeCell ref="A53:F53"/>
-    <mergeCell ref="A74:F74"/>
-    <mergeCell ref="A86:F86"/>
-    <mergeCell ref="B75:B76"/>
-    <mergeCell ref="C75:C76"/>
-    <mergeCell ref="B77:B78"/>
-    <mergeCell ref="C77:C78"/>
-    <mergeCell ref="B81:B82"/>
-    <mergeCell ref="C81:C82"/>
-    <mergeCell ref="B95:B96"/>
-    <mergeCell ref="C95:C96"/>
-    <mergeCell ref="A56:A57"/>
-    <mergeCell ref="B56:B57"/>
-    <mergeCell ref="B62:B63"/>
-    <mergeCell ref="A68:A69"/>
-    <mergeCell ref="B68:B69"/>
-    <mergeCell ref="C68:C69"/>
-    <mergeCell ref="A64:A65"/>
-    <mergeCell ref="B64:B65"/>
-    <mergeCell ref="C64:C65"/>
-    <mergeCell ref="A66:A67"/>
-    <mergeCell ref="C66:C67"/>
-    <mergeCell ref="B66:B67"/>
+    <mergeCell ref="A9:F9"/>
+    <mergeCell ref="A17:F17"/>
+    <mergeCell ref="A27:F27"/>
+    <mergeCell ref="A31:A32"/>
+    <mergeCell ref="C63:C64"/>
+    <mergeCell ref="A50:F50"/>
+    <mergeCell ref="A37:A40"/>
+    <mergeCell ref="B37:B40"/>
+    <mergeCell ref="C37:C40"/>
+    <mergeCell ref="C57:C58"/>
+    <mergeCell ref="A48:F48"/>
+    <mergeCell ref="A101:F101"/>
+    <mergeCell ref="A52:F52"/>
+    <mergeCell ref="A54:F54"/>
+    <mergeCell ref="A75:F75"/>
+    <mergeCell ref="A87:F87"/>
+    <mergeCell ref="B76:B77"/>
+    <mergeCell ref="C76:C77"/>
+    <mergeCell ref="B78:B79"/>
+    <mergeCell ref="C78:C79"/>
+    <mergeCell ref="B82:B83"/>
+    <mergeCell ref="C82:C83"/>
+    <mergeCell ref="B96:B97"/>
+    <mergeCell ref="C96:C97"/>
+    <mergeCell ref="A57:A58"/>
+    <mergeCell ref="B57:B58"/>
+    <mergeCell ref="B63:B64"/>
+    <mergeCell ref="A69:A70"/>
+    <mergeCell ref="B69:B70"/>
+    <mergeCell ref="C69:C70"/>
+    <mergeCell ref="A65:A66"/>
+    <mergeCell ref="B65:B66"/>
+    <mergeCell ref="C65:C66"/>
+    <mergeCell ref="A67:A68"/>
+    <mergeCell ref="C67:C68"/>
+    <mergeCell ref="B67:B68"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="C3" r:id="rId1" xr:uid="{3FB3FA06-DE47-4C2D-AFD7-F5FC45E3D126}"/>
     <hyperlink ref="C4" r:id="rId2" xr:uid="{C4A51F70-7D5B-496B-8FD0-AB7121D9FCE1}"/>
-    <hyperlink ref="C9" r:id="rId3" xr:uid="{678D7AA2-36D2-4A02-971F-3FB9391E8E35}"/>
-    <hyperlink ref="C17" r:id="rId4" xr:uid="{2AC6AF52-CC30-4063-833D-09178907C109}"/>
-    <hyperlink ref="C44" r:id="rId5" xr:uid="{6352E065-8925-49FF-AA82-66ED2F9F8651}"/>
-    <hyperlink ref="C18" r:id="rId6" xr:uid="{047C68C0-B7AB-4E77-9D1E-B162BD11A209}"/>
-    <hyperlink ref="C19" r:id="rId7" xr:uid="{1ABD0EDA-F48F-4D2F-B13C-180B398F1FCD}"/>
-    <hyperlink ref="C75" r:id="rId8" xr:uid="{35D2A43C-BF1B-4339-9217-7116005F7034}"/>
-    <hyperlink ref="C77" r:id="rId9" xr:uid="{233456E2-1B15-4448-A669-82C381357683}"/>
-    <hyperlink ref="C90" r:id="rId10" xr:uid="{4A724644-7F2B-4DE6-9141-A1802140FB4A}"/>
-    <hyperlink ref="C87" r:id="rId11" xr:uid="{914A5C5A-20B3-4526-A460-020F9852AFDB}"/>
-    <hyperlink ref="C88" r:id="rId12" xr:uid="{0B2D15B8-18BF-46A5-991E-6E53ADC95851}"/>
-    <hyperlink ref="C27" r:id="rId13" xr:uid="{93A177B9-936F-4ED5-9F32-EB31F0D8F614}"/>
-    <hyperlink ref="C95" r:id="rId14" xr:uid="{9CD2E86C-B1BA-4CC3-9E52-ECA767380715}"/>
-    <hyperlink ref="C97" r:id="rId15" xr:uid="{30EBB8AD-10BE-47B9-BF85-DBCCCE948784}"/>
-    <hyperlink ref="F99" r:id="rId16" xr:uid="{080A2B1B-6640-47F1-9DAB-1F0914BD9938}"/>
-    <hyperlink ref="C54" r:id="rId17" xr:uid="{DD8AB0F8-5B5E-4F6E-A0B4-339B324BDAC3}"/>
+    <hyperlink ref="C10" r:id="rId3" xr:uid="{678D7AA2-36D2-4A02-971F-3FB9391E8E35}"/>
+    <hyperlink ref="C18" r:id="rId4" xr:uid="{2AC6AF52-CC30-4063-833D-09178907C109}"/>
+    <hyperlink ref="C45" r:id="rId5" xr:uid="{6352E065-8925-49FF-AA82-66ED2F9F8651}"/>
+    <hyperlink ref="C19" r:id="rId6" xr:uid="{047C68C0-B7AB-4E77-9D1E-B162BD11A209}"/>
+    <hyperlink ref="C20" r:id="rId7" xr:uid="{1ABD0EDA-F48F-4D2F-B13C-180B398F1FCD}"/>
+    <hyperlink ref="C76" r:id="rId8" xr:uid="{35D2A43C-BF1B-4339-9217-7116005F7034}"/>
+    <hyperlink ref="C78" r:id="rId9" xr:uid="{233456E2-1B15-4448-A669-82C381357683}"/>
+    <hyperlink ref="C91" r:id="rId10" xr:uid="{4A724644-7F2B-4DE6-9141-A1802140FB4A}"/>
+    <hyperlink ref="C88" r:id="rId11" xr:uid="{914A5C5A-20B3-4526-A460-020F9852AFDB}"/>
+    <hyperlink ref="C89" r:id="rId12" xr:uid="{0B2D15B8-18BF-46A5-991E-6E53ADC95851}"/>
+    <hyperlink ref="C28" r:id="rId13" xr:uid="{93A177B9-936F-4ED5-9F32-EB31F0D8F614}"/>
+    <hyperlink ref="C96" r:id="rId14" xr:uid="{9CD2E86C-B1BA-4CC3-9E52-ECA767380715}"/>
+    <hyperlink ref="C98" r:id="rId15" xr:uid="{30EBB8AD-10BE-47B9-BF85-DBCCCE948784}"/>
+    <hyperlink ref="F100" r:id="rId16" xr:uid="{080A2B1B-6640-47F1-9DAB-1F0914BD9938}"/>
+    <hyperlink ref="C55" r:id="rId17" xr:uid="{DD8AB0F8-5B5E-4F6E-A0B4-339B324BDAC3}"/>
     <hyperlink ref="C7" r:id="rId18" xr:uid="{43B67C49-DC70-412F-B095-E684E07FF196}"/>
-    <hyperlink ref="C64" r:id="rId19" xr:uid="{7FDCAB78-56F5-40D3-8A09-8A8A0E54E05D}"/>
-    <hyperlink ref="F65" r:id="rId20" xr:uid="{F7F3C873-8E94-4212-B22A-52BF75A478D8}"/>
-    <hyperlink ref="C30" r:id="rId21" xr:uid="{F6C15430-DBA9-4DAD-A411-65B1524C625E}"/>
-    <hyperlink ref="G17" r:id="rId22" display="https://leetcode.com/problems/maximum-sum-circular-subarray/" xr:uid="{A4CEEEE3-5EE5-4166-9A65-51E09840E49F}"/>
-    <hyperlink ref="G18" r:id="rId23" display="https://leetcode.com/problems/maximum-product-subarray/" xr:uid="{E66937F4-342E-466B-92BD-529EAD0F1180}"/>
-    <hyperlink ref="G19" r:id="rId24" display="https://leetcode.com/problems/maximum-length-of-subarray-with-positive-product/" xr:uid="{C0B6118F-C23A-4E55-881A-F4A1DA018A1F}"/>
+    <hyperlink ref="C65" r:id="rId19" xr:uid="{7FDCAB78-56F5-40D3-8A09-8A8A0E54E05D}"/>
+    <hyperlink ref="F66" r:id="rId20" xr:uid="{F7F3C873-8E94-4212-B22A-52BF75A478D8}"/>
+    <hyperlink ref="C31" r:id="rId21" xr:uid="{F6C15430-DBA9-4DAD-A411-65B1524C625E}"/>
+    <hyperlink ref="G18" r:id="rId22" display="https://leetcode.com/problems/maximum-sum-circular-subarray/" xr:uid="{A4CEEEE3-5EE5-4166-9A65-51E09840E49F}"/>
+    <hyperlink ref="G19" r:id="rId23" display="https://leetcode.com/problems/maximum-product-subarray/" xr:uid="{E66937F4-342E-466B-92BD-529EAD0F1180}"/>
+    <hyperlink ref="G20" r:id="rId24" display="https://leetcode.com/problems/maximum-length-of-subarray-with-positive-product/" xr:uid="{C0B6118F-C23A-4E55-881A-F4A1DA018A1F}"/>
     <hyperlink ref="C6" r:id="rId25" xr:uid="{D548A552-BEA3-46D9-89FD-0EDF330CCD4B}"/>
-    <hyperlink ref="C68" r:id="rId26" xr:uid="{7EAF2DCC-4594-46F5-AFC0-D19FF750F897}"/>
+    <hyperlink ref="C69" r:id="rId26" xr:uid="{7EAF2DCC-4594-46F5-AFC0-D19FF750F897}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="90" verticalDpi="90" r:id="rId27"/>

--- a/SDE Sheet.xlsx
+++ b/SDE Sheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Src Code\Personal\SDE-Sheet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B416462D-017F-48F1-8D5A-4A5694EB6898}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2782F4B-A57D-4B29-BB0F-70D99751DEFA}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{83934561-A72F-4836-B1E7-4EE8C35F9874}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="396" uniqueCount="233">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="420" uniqueCount="251">
   <si>
     <t>Matrix</t>
   </si>
@@ -852,6 +852,60 @@
   </si>
   <si>
     <t>Sub Matrix Sum</t>
+  </si>
+  <si>
+    <t>Stamping the Grid</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/stamping-the-grid/</t>
+  </si>
+  <si>
+    <t>Prefix2D and Sum2D</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/find-the-duplicate-number/</t>
+  </si>
+  <si>
+    <t>Find the duplicate in an array of N+1 numbers</t>
+  </si>
+  <si>
+    <t>Sorting</t>
+  </si>
+  <si>
+    <t>O(n) Auxiliary array for sorting</t>
+  </si>
+  <si>
+    <t>unordered_set</t>
+  </si>
+  <si>
+    <t>Negative Marking</t>
+  </si>
+  <si>
+    <t>O(1) but temporarily modifies original array</t>
+  </si>
+  <si>
+    <t>Greedy</t>
+  </si>
+  <si>
+    <t>Minimum Number of Arrows to Burst Balloons</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/minimum-number-of-arrows-to-burst-balloons/</t>
+  </si>
+  <si>
+    <t>56 Merge Intervals &lt;- very similar😈</t>
+  </si>
+  <si>
+    <t>435 Non-overlapping Intervals &lt;- very similar😈</t>
+  </si>
+  <si>
+    <t>252 Meeting Rooms</t>
+  </si>
+  <si>
+    <t>253 Meeting Rooms II</t>
+  </si>
+  <si>
+    <t>Try these as well --&gt;</t>
   </si>
 </sst>
 </file>
@@ -1096,7 +1150,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="59">
+  <cellXfs count="65">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -1168,72 +1222,86 @@
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1549,11 +1617,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D3EBAEE5-B4E7-4BD5-B694-FD6EEA5E8AC0}">
-  <dimension ref="A1:G107"/>
+  <dimension ref="A1:G117"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="84" zoomScaleNormal="94" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F8" sqref="F8"/>
+    <sheetView tabSelected="1" zoomScale="79" zoomScaleNormal="94" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A16" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G28" sqref="G28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1561,7 +1629,7 @@
     <col min="2" max="2" width="59.08984375" customWidth="1"/>
     <col min="3" max="3" width="77.81640625" customWidth="1"/>
     <col min="4" max="4" width="39.7265625" customWidth="1"/>
-    <col min="5" max="5" width="31.26953125" customWidth="1"/>
+    <col min="5" max="5" width="37.36328125" customWidth="1"/>
     <col min="6" max="6" width="115.54296875" customWidth="1"/>
     <col min="7" max="7" width="105.08984375" customWidth="1"/>
   </cols>
@@ -1587,14 +1655,14 @@
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A2" s="46" t="s">
+      <c r="A2" s="47" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="46"/>
-      <c r="C2" s="46"/>
-      <c r="D2" s="46"/>
-      <c r="E2" s="46"/>
-      <c r="F2" s="46"/>
+      <c r="B2" s="47"/>
+      <c r="C2" s="47"/>
+      <c r="D2" s="47"/>
+      <c r="E2" s="47"/>
+      <c r="F2" s="47"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A3" s="9"/>
@@ -1705,76 +1773,72 @@
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A9" s="46" t="s">
+      <c r="A9" s="10"/>
+      <c r="B9" s="2" t="s">
+        <v>233</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
+      <c r="F9" s="29" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A10" s="47" t="s">
         <v>15</v>
       </c>
-      <c r="B9" s="46"/>
-      <c r="C9" s="46"/>
-      <c r="D9" s="46"/>
-      <c r="E9" s="46"/>
-      <c r="F9" s="46"/>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A10" s="9"/>
-      <c r="B10" s="2" t="s">
+      <c r="B10" s="47"/>
+      <c r="C10" s="47"/>
+      <c r="D10" s="47"/>
+      <c r="E10" s="47"/>
+      <c r="F10" s="47"/>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A11" s="9"/>
+      <c r="B11" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C10" s="1" t="s">
+      <c r="C11" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D10" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="F10" s="2" t="s">
+      <c r="D11" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F11" s="2" t="s">
         <v>19</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A11" s="2"/>
-      <c r="B11" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="E11" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="F11" s="2" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A12" s="2"/>
       <c r="B12" s="2" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>18</v>
+        <v>41</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="F12" s="7" t="s">
-        <v>45</v>
+        <v>41</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A13" s="2"/>
       <c r="B13" s="2" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="D13" s="2" t="s">
         <v>18</v>
@@ -1782,105 +1846,102 @@
       <c r="E13" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F13" s="2" t="s">
+      <c r="F13" s="7" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A14" s="2"/>
       <c r="B14" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A15" s="2"/>
+      <c r="B15" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="C14" s="1" t="s">
+      <c r="C15" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="D14" s="2" t="s">
+      <c r="D15" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="E14" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="F14" s="8" t="s">
+      <c r="E15" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F15" s="8" t="s">
         <v>60</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A15" s="9"/>
-      <c r="B15" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="E15" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="F15" s="8" t="s">
-        <v>133</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A16" s="9"/>
       <c r="B16" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F16" s="8" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A17" s="9"/>
+      <c r="B17" s="2" t="s">
         <v>220</v>
       </c>
-      <c r="C16" s="1" t="s">
+      <c r="C17" s="1" t="s">
         <v>221</v>
       </c>
-      <c r="D16" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E16" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="F16" s="8" t="s">
+      <c r="D17" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F17" s="8" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A17" s="46" t="s">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A18" s="47" t="s">
         <v>22</v>
       </c>
-      <c r="B17" s="46"/>
-      <c r="C17" s="46"/>
-      <c r="D17" s="46"/>
-      <c r="E17" s="46"/>
-      <c r="F17" s="46"/>
-      <c r="G17" s="34" t="s">
+      <c r="B18" s="47"/>
+      <c r="C18" s="47"/>
+      <c r="D18" s="47"/>
+      <c r="E18" s="47"/>
+      <c r="F18" s="47"/>
+      <c r="G18" s="34" t="s">
         <v>212</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A18" s="11"/>
-      <c r="B18" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="D18" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E18" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="F18" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="G18" s="35" t="s">
-        <v>209</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A19" s="11"/>
       <c r="B19" s="2" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="D19" s="2" t="s">
         <v>18</v>
@@ -1892,115 +1953,118 @@
         <v>27</v>
       </c>
       <c r="G19" s="35" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A20" s="11"/>
+      <c r="B20" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F20" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="G20" s="35" t="s">
         <v>210</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A20" s="2"/>
-      <c r="B20" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="D20" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E20" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="F20" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="G20" s="35" t="s">
-        <v>211</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A21" s="2"/>
       <c r="B21" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F21" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="G21" s="35" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A22" s="2"/>
+      <c r="B22" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="C21" s="1" t="s">
+      <c r="C22" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="D21" s="2" t="s">
+      <c r="D22" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="E21" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="F21" s="2" t="s">
+      <c r="E22" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F22" s="2" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A22" s="31"/>
-      <c r="B22" s="2" t="s">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A23" s="31"/>
+      <c r="B23" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="C22" s="1" t="s">
+      <c r="C23" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="D22" s="2" t="s">
+      <c r="D23" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E22" s="2" t="s">
+      <c r="E23" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="F22" s="2" t="s">
+      <c r="F23" s="2" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="23" spans="1:7" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A23" s="30"/>
-      <c r="B23" s="2" t="s">
+    <row r="24" spans="1:7" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A24" s="30"/>
+      <c r="B24" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="C23" s="1" t="s">
+      <c r="C24" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="D23" s="2" t="s">
+      <c r="D24" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="E23" s="2" t="s">
+      <c r="E24" s="2" t="s">
         <v>14</v>
-      </c>
-      <c r="F23" s="2" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="32"/>
-      <c r="B24" s="2" t="s">
-        <v>205</v>
-      </c>
-      <c r="C24" s="1" t="s">
-        <v>204</v>
-      </c>
-      <c r="D24" s="33" t="s">
-        <v>207</v>
-      </c>
-      <c r="E24" s="2" t="s">
-        <v>208</v>
       </c>
       <c r="F24" s="2" t="s">
         <v>206</v>
       </c>
     </row>
     <row r="25" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A25" s="30"/>
+      <c r="A25" s="32"/>
       <c r="B25" s="2" t="s">
-        <v>223</v>
+        <v>205</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>225</v>
-      </c>
-      <c r="D25" s="2" t="s">
-        <v>129</v>
+        <v>204</v>
+      </c>
+      <c r="D25" s="33" t="s">
+        <v>207</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>14</v>
+        <v>208</v>
       </c>
       <c r="F25" s="2" t="s">
         <v>206</v>
@@ -2009,10 +2073,10 @@
     <row r="26" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A26" s="30"/>
       <c r="B26" s="2" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="D26" s="2" t="s">
         <v>129</v>
@@ -2024,1255 +2088,1400 @@
         <v>206</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A27" s="46" t="s">
+    <row r="27" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A27" s="30"/>
+      <c r="B27" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="E27" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F27" s="2" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A28" s="61" t="s">
+        <v>243</v>
+      </c>
+      <c r="B28" s="62"/>
+      <c r="C28" s="62"/>
+      <c r="D28" s="62"/>
+      <c r="E28" s="62"/>
+      <c r="F28" s="63"/>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A29" s="9"/>
+      <c r="B29" s="2" t="s">
+        <v>244</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="E29" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="F29" s="2" t="s">
+        <v>250</v>
+      </c>
+      <c r="G29" s="64" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A30" s="51" t="s">
         <v>97</v>
       </c>
-      <c r="B27" s="46"/>
-      <c r="C27" s="46"/>
-      <c r="D27" s="46"/>
-      <c r="E27" s="46"/>
-      <c r="F27" s="46"/>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A28" s="9"/>
-      <c r="B28" s="2" t="s">
+      <c r="B30" s="52"/>
+      <c r="C30" s="52"/>
+      <c r="D30" s="52"/>
+      <c r="E30" s="52"/>
+      <c r="F30" s="53"/>
+      <c r="G30" s="64" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A31" s="9"/>
+      <c r="B31" s="2" t="s">
         <v>125</v>
       </c>
-      <c r="C28" s="1" t="s">
+      <c r="C31" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="D28" s="2" t="s">
+      <c r="D31" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="E28" s="2" t="s">
+      <c r="E31" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="F28" s="2" t="s">
+      <c r="F31" s="2" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A29" s="26"/>
-      <c r="B29" s="2" t="s">
+      <c r="G31" s="64" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A32" s="26"/>
+      <c r="B32" s="2" t="s">
         <v>178</v>
       </c>
-      <c r="C29" s="1" t="s">
+      <c r="C32" s="1" t="s">
         <v>179</v>
       </c>
-      <c r="D29" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E29" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="F29" s="2" t="s">
+      <c r="D32" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E32" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F32" s="2" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A30" s="26"/>
-      <c r="B30" s="2" t="s">
+      <c r="G32" s="64" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A33" s="26"/>
+      <c r="B33" s="2" t="s">
         <v>180</v>
       </c>
-      <c r="C30" s="1" t="s">
+      <c r="C33" s="1" t="s">
         <v>181</v>
       </c>
-      <c r="D30" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E30" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="F30" s="2" t="s">
+      <c r="D33" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E33" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F33" s="2" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A31" s="37"/>
-      <c r="B31" s="43" t="s">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A34" s="49"/>
+      <c r="B34" s="44" t="s">
         <v>106</v>
       </c>
-      <c r="C31" s="47" t="s">
+      <c r="C34" s="45" t="s">
         <v>107</v>
       </c>
-      <c r="D31" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E31" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="F31" s="2" t="s">
+      <c r="D34" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E34" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F34" s="2" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A32" s="38"/>
-      <c r="B32" s="43"/>
-      <c r="C32" s="47"/>
-      <c r="D32" s="2" t="s">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A35" s="50"/>
+      <c r="B35" s="44"/>
+      <c r="C35" s="45"/>
+      <c r="D35" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="E32" s="2" t="s">
+      <c r="E35" s="2" t="s">
         <v>100</v>
-      </c>
-      <c r="F32" s="2" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A33" s="9"/>
-      <c r="B33" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="C33" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="D33" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E33" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="F33" s="2" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A34" s="2"/>
-      <c r="B34" s="2"/>
-      <c r="C34" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="D34" s="2"/>
-      <c r="E34" s="2"/>
-      <c r="F34" s="29" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A35" s="9"/>
-      <c r="B35" s="2" t="s">
-        <v>182</v>
-      </c>
-      <c r="C35" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="D35" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="E35" s="2" t="s">
-        <v>104</v>
       </c>
       <c r="F35" s="2" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A36" s="10"/>
+    <row r="36" spans="1:6" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A36" s="9"/>
       <c r="B36" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="D36" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E36" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="F36" s="2" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A37" s="2"/>
+      <c r="B37" s="2"/>
+      <c r="C37" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="D37" s="2"/>
+      <c r="E37" s="2"/>
+      <c r="F37" s="29" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A38" s="9"/>
+      <c r="B38" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="D38" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="E38" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="F38" s="2" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A39" s="10"/>
+      <c r="B39" s="2" t="s">
         <v>196</v>
       </c>
-      <c r="C36" s="1" t="s">
+      <c r="C39" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="D36" s="2"/>
-      <c r="E36" s="2"/>
-      <c r="F36" s="29" t="s">
+      <c r="D39" s="2"/>
+      <c r="E39" s="2"/>
+      <c r="F39" s="29" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="37" spans="1:6" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A37" s="53"/>
-      <c r="B37" s="39" t="s">
+    <row r="40" spans="1:6" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A40" s="54"/>
+      <c r="B40" s="57" t="s">
         <v>183</v>
       </c>
-      <c r="C37" s="41" t="s">
+      <c r="C40" s="41" t="s">
         <v>184</v>
       </c>
-      <c r="D37" s="2" t="s">
+      <c r="D40" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="E37" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="F37" s="2" t="s">
+      <c r="E40" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F40" s="2" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A38" s="54"/>
-      <c r="B38" s="56"/>
-      <c r="C38" s="57"/>
-      <c r="D38" s="2" t="s">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A41" s="55"/>
+      <c r="B41" s="58"/>
+      <c r="C41" s="42"/>
+      <c r="D41" s="2" t="s">
         <v>186</v>
       </c>
-      <c r="E38" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="F38" s="2" t="s">
+      <c r="E41" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F41" s="2" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A39" s="54"/>
-      <c r="B39" s="56"/>
-      <c r="C39" s="57"/>
-      <c r="D39" s="2" t="s">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A42" s="55"/>
+      <c r="B42" s="58"/>
+      <c r="C42" s="42"/>
+      <c r="D42" s="2" t="s">
         <v>187</v>
       </c>
-      <c r="E39" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="F39" s="2" t="s">
+      <c r="E42" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F42" s="2" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A40" s="55"/>
-      <c r="B40" s="40"/>
-      <c r="C40" s="42"/>
-      <c r="D40" s="2" t="s">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A43" s="56"/>
+      <c r="B43" s="59"/>
+      <c r="C43" s="43"/>
+      <c r="D43" s="2" t="s">
         <v>187</v>
       </c>
-      <c r="E40" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="F40" s="2" t="s">
+      <c r="E43" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F43" s="2" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A41" s="23"/>
-      <c r="B41" s="2" t="s">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A44" s="23"/>
+      <c r="B44" s="2" t="s">
         <v>188</v>
       </c>
-      <c r="C41" s="24" t="s">
+      <c r="C44" s="24" t="s">
         <v>189</v>
       </c>
-      <c r="D41" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E41" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="F41" s="2" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A42" s="28"/>
-      <c r="B42" s="2" t="s">
-        <v>198</v>
-      </c>
-      <c r="C42" s="27" t="s">
-        <v>199</v>
-      </c>
-      <c r="D42" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E42" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="F42" s="2" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A43" s="28"/>
-      <c r="B43" s="2" t="s">
-        <v>201</v>
-      </c>
-      <c r="C43" s="27" t="s">
-        <v>202</v>
-      </c>
-      <c r="D43" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E43" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="F43" s="2" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A44" s="25"/>
-      <c r="B44" s="2" t="s">
-        <v>190</v>
-      </c>
-      <c r="C44" s="24" t="s">
-        <v>191</v>
-      </c>
       <c r="D44" s="2" t="s">
         <v>18</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>4</v>
+        <v>18</v>
       </c>
       <c r="F44" s="2" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A45" s="9"/>
+      <c r="A45" s="28"/>
       <c r="B45" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="C45" s="27" t="s">
+        <v>199</v>
+      </c>
+      <c r="D45" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E45" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F45" s="2" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A46" s="28"/>
+      <c r="B46" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="C46" s="27" t="s">
+        <v>202</v>
+      </c>
+      <c r="D46" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E46" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F46" s="2" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A47" s="25"/>
+      <c r="B47" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="C47" s="24" t="s">
+        <v>191</v>
+      </c>
+      <c r="D47" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E47" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F47" s="2" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A48" s="9"/>
+      <c r="B48" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="C45" s="1" t="s">
+      <c r="C48" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="D45" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E45" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="F45" s="2" t="s">
+      <c r="D48" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E48" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F48" s="2" t="s">
         <v>105</v>
       </c>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A46" s="9"/>
-      <c r="B46" s="2" t="s">
-        <v>215</v>
-      </c>
-      <c r="C46" s="1" t="s">
-        <v>216</v>
-      </c>
-      <c r="D46" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="E46" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="F46" s="2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A47" s="11"/>
-      <c r="B47" s="2" t="s">
-        <v>217</v>
-      </c>
-      <c r="C47" s="1" t="s">
-        <v>218</v>
-      </c>
-      <c r="D47" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="E47" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="F47" s="2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A48" s="46" t="s">
-        <v>192</v>
-      </c>
-      <c r="B48" s="46"/>
-      <c r="C48" s="46"/>
-      <c r="D48" s="46"/>
-      <c r="E48" s="46"/>
-      <c r="F48" s="46"/>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A49" s="9"/>
       <c r="B49" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="D49" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="E49" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="F49" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A50" s="11"/>
+      <c r="B50" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="D50" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="E50" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F50" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A51" s="38"/>
+      <c r="B51" s="57" t="s">
+        <v>237</v>
+      </c>
+      <c r="C51" s="41" t="s">
+        <v>236</v>
+      </c>
+      <c r="D51" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="E51" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="F51" s="2" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A52" s="39"/>
+      <c r="B52" s="58"/>
+      <c r="C52" s="42"/>
+      <c r="D52" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E52" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F52" s="2" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A53" s="39"/>
+      <c r="B53" s="58"/>
+      <c r="C53" s="42"/>
+      <c r="D53" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E53" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="F53" s="37" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A54" s="39"/>
+      <c r="B54" s="58"/>
+      <c r="C54" s="42"/>
+      <c r="D54" s="2"/>
+      <c r="E54" s="2"/>
+      <c r="F54" s="2"/>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A55" s="39"/>
+      <c r="B55" s="58"/>
+      <c r="C55" s="42"/>
+      <c r="D55" s="2"/>
+      <c r="E55" s="2"/>
+      <c r="F55" s="2"/>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A56" s="39"/>
+      <c r="B56" s="58"/>
+      <c r="C56" s="42"/>
+      <c r="D56" s="2"/>
+      <c r="E56" s="2"/>
+      <c r="F56" s="2"/>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A57" s="40"/>
+      <c r="B57" s="59"/>
+      <c r="C57" s="43"/>
+      <c r="D57" s="2"/>
+      <c r="E57" s="2"/>
+      <c r="F57" s="2"/>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A58" s="47" t="s">
+        <v>192</v>
+      </c>
+      <c r="B58" s="47"/>
+      <c r="C58" s="47"/>
+      <c r="D58" s="47"/>
+      <c r="E58" s="47"/>
+      <c r="F58" s="47"/>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A59" s="9"/>
+      <c r="B59" s="2" t="s">
         <v>193</v>
       </c>
-      <c r="C49" s="2" t="s">
+      <c r="C59" s="2" t="s">
         <v>194</v>
       </c>
-      <c r="D49" s="2"/>
-      <c r="E49" s="2"/>
-      <c r="F49" s="2" t="s">
+      <c r="D59" s="2"/>
+      <c r="E59" s="2"/>
+      <c r="F59" s="2" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A50" s="50" t="s">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A60" s="51" t="s">
         <v>28</v>
       </c>
-      <c r="B50" s="51"/>
-      <c r="C50" s="51"/>
-      <c r="D50" s="51"/>
-      <c r="E50" s="51"/>
-      <c r="F50" s="52"/>
-    </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A51" s="2"/>
-      <c r="B51" s="2"/>
-      <c r="C51" s="2"/>
-      <c r="D51" s="2"/>
-      <c r="E51" s="2"/>
-      <c r="F51" s="2"/>
-    </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A52" s="46" t="s">
+      <c r="B60" s="52"/>
+      <c r="C60" s="52"/>
+      <c r="D60" s="52"/>
+      <c r="E60" s="52"/>
+      <c r="F60" s="53"/>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A61" s="2"/>
+      <c r="B61" s="2"/>
+      <c r="C61" s="2"/>
+      <c r="D61" s="2"/>
+      <c r="E61" s="2"/>
+      <c r="F61" s="2"/>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A62" s="47" t="s">
         <v>29</v>
       </c>
-      <c r="B52" s="46"/>
-      <c r="C52" s="46"/>
-      <c r="D52" s="46"/>
-      <c r="E52" s="46"/>
-      <c r="F52" s="46"/>
-    </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A53" s="2"/>
-      <c r="B53" s="2"/>
-      <c r="C53" s="2"/>
-      <c r="D53" s="2"/>
-      <c r="E53" s="2"/>
-      <c r="F53" s="2"/>
-    </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A54" s="46" t="s">
+      <c r="B62" s="47"/>
+      <c r="C62" s="47"/>
+      <c r="D62" s="47"/>
+      <c r="E62" s="47"/>
+      <c r="F62" s="47"/>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A63" s="2"/>
+      <c r="B63" s="2"/>
+      <c r="C63" s="2"/>
+      <c r="D63" s="2"/>
+      <c r="E63" s="2"/>
+      <c r="F63" s="2"/>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A64" s="47" t="s">
         <v>30</v>
       </c>
-      <c r="B54" s="46"/>
-      <c r="C54" s="46"/>
-      <c r="D54" s="46"/>
-      <c r="E54" s="46"/>
-      <c r="F54" s="46"/>
-    </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A55" s="11"/>
-      <c r="B55" s="2" t="s">
+      <c r="B64" s="47"/>
+      <c r="C64" s="47"/>
+      <c r="D64" s="47"/>
+      <c r="E64" s="47"/>
+      <c r="F64" s="47"/>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A65" s="11"/>
+      <c r="B65" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="C55" s="1" t="s">
+      <c r="C65" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="D55" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E55" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="F55" s="2" t="s">
+      <c r="D65" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E65" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F65" s="2" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A56" s="11"/>
-      <c r="B56" s="2" t="s">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A66" s="11"/>
+      <c r="B66" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="C56" s="1" t="s">
+      <c r="C66" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="D56" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E56" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="F56" s="2" t="s">
+      <c r="D66" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E66" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F66" s="2" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A57" s="48"/>
-      <c r="B57" s="43" t="s">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A67" s="60"/>
+      <c r="B67" s="44" t="s">
         <v>158</v>
       </c>
-      <c r="C57" s="47" t="s">
+      <c r="C67" s="45" t="s">
         <v>159</v>
       </c>
-      <c r="D57" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E57" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="F57" s="2" t="s">
+      <c r="D67" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E67" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F67" s="2" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A58" s="48"/>
-      <c r="B58" s="43"/>
-      <c r="C58" s="47"/>
-      <c r="D58" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E58" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="F58" s="2" t="s">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A68" s="60"/>
+      <c r="B68" s="44"/>
+      <c r="C68" s="45"/>
+      <c r="D68" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E68" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F68" s="2" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A59" s="11"/>
-      <c r="B59" s="2" t="s">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A69" s="11"/>
+      <c r="B69" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="C59" s="1" t="s">
+      <c r="C69" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="D59" s="2" t="s">
+      <c r="D69" s="2" t="s">
         <v>140</v>
       </c>
-      <c r="E59" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="F59" s="2" t="s">
+      <c r="E69" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F69" s="2" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A60" s="9"/>
-      <c r="B60" s="2" t="s">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A70" s="9"/>
+      <c r="B70" s="2" t="s">
         <v>144</v>
       </c>
-      <c r="C60" s="1" t="s">
+      <c r="C70" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="D60" s="2" t="s">
+      <c r="D70" s="2" t="s">
         <v>140</v>
       </c>
-      <c r="E60" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="F60" s="2" t="s">
+      <c r="E70" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F70" s="2" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A61" s="9"/>
-      <c r="B61" s="2" t="s">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A71" s="9"/>
+      <c r="B71" s="2" t="s">
         <v>147</v>
       </c>
-      <c r="C61" s="1" t="s">
+      <c r="C71" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="D61" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E61" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="F61" s="2" t="s">
+      <c r="D71" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E71" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F71" s="2" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A62" s="11"/>
-      <c r="B62" s="2" t="s">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A72" s="11"/>
+      <c r="B72" s="2" t="s">
         <v>141</v>
       </c>
-      <c r="C62" s="1" t="s">
+      <c r="C72" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="D62" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="E62" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="F62" s="2" t="s">
+      <c r="D72" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E72" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F72" s="2" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A63" s="49"/>
-      <c r="B63" s="43" t="s">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A73" s="48"/>
+      <c r="B73" s="44" t="s">
         <v>152</v>
       </c>
-      <c r="C63" s="47" t="s">
+      <c r="C73" s="45" t="s">
         <v>153</v>
       </c>
-      <c r="D63" s="2" t="s">
+      <c r="D73" s="2" t="s">
         <v>140</v>
       </c>
-      <c r="E63" s="2" t="s">
+      <c r="E73" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="F63" s="2" t="s">
+      <c r="F73" s="2" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A64" s="49"/>
-      <c r="B64" s="43"/>
-      <c r="C64" s="47"/>
-      <c r="D64" s="2" t="s">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A74" s="48"/>
+      <c r="B74" s="44"/>
+      <c r="C74" s="45"/>
+      <c r="D74" s="2" t="s">
         <v>140</v>
       </c>
-      <c r="E64" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="F64" s="2" t="s">
+      <c r="E74" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F74" s="2" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="65" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A65" s="37"/>
-      <c r="B65" s="43" t="s">
+    <row r="75" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A75" s="49"/>
+      <c r="B75" s="44" t="s">
         <v>167</v>
       </c>
-      <c r="C65" s="41" t="s">
+      <c r="C75" s="41" t="s">
         <v>168</v>
       </c>
-      <c r="D65" s="21" t="s">
-        <v>18</v>
-      </c>
-      <c r="E65" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="F65" s="2" t="s">
+      <c r="D75" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="E75" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F75" s="2" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="66" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A66" s="38"/>
-      <c r="B66" s="43"/>
-      <c r="C66" s="42"/>
-      <c r="D66" s="21" t="s">
-        <v>18</v>
-      </c>
-      <c r="E66" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="F66" s="1" t="s">
+    <row r="76" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A76" s="50"/>
+      <c r="B76" s="44"/>
+      <c r="C76" s="43"/>
+      <c r="D76" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="E76" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F76" s="1" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="67" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A67" s="44"/>
-      <c r="B67" s="43" t="s">
+    <row r="77" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A77" s="38"/>
+      <c r="B77" s="44" t="s">
         <v>173</v>
       </c>
-      <c r="C67" s="41" t="s">
+      <c r="C77" s="41" t="s">
         <v>171</v>
       </c>
-      <c r="D67" s="21" t="s">
-        <v>18</v>
-      </c>
-      <c r="E67" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="F67" s="2" t="s">
+      <c r="D77" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="E77" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F77" s="2" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="68" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A68" s="45"/>
-      <c r="B68" s="43"/>
-      <c r="C68" s="42"/>
-      <c r="D68" s="21" t="s">
-        <v>18</v>
-      </c>
-      <c r="E68" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="F68" s="1" t="s">
+    <row r="78" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A78" s="40"/>
+      <c r="B78" s="44"/>
+      <c r="C78" s="43"/>
+      <c r="D78" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="E78" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F78" s="1" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A69" s="37"/>
-      <c r="B69" s="39" t="s">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A79" s="49"/>
+      <c r="B79" s="57" t="s">
         <v>163</v>
       </c>
-      <c r="C69" s="41" t="s">
+      <c r="C79" s="41" t="s">
         <v>164</v>
       </c>
-      <c r="D69" s="18" t="s">
-        <v>18</v>
-      </c>
-      <c r="E69" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="F69" s="2" t="s">
+      <c r="D79" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="E79" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F79" s="2" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A70" s="38"/>
-      <c r="B70" s="40"/>
-      <c r="C70" s="42"/>
-      <c r="D70" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E70" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="F70" s="2" t="s">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A80" s="50"/>
+      <c r="B80" s="59"/>
+      <c r="C80" s="43"/>
+      <c r="D80" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E80" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F80" s="2" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A71" s="22"/>
-      <c r="B71" s="19" t="s">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A81" s="22"/>
+      <c r="B81" s="19" t="s">
         <v>174</v>
       </c>
-      <c r="C71" s="20" t="s">
+      <c r="C81" s="20" t="s">
         <v>175</v>
       </c>
-      <c r="D71" s="2" t="s">
+      <c r="D81" s="2" t="s">
         <v>176</v>
       </c>
-      <c r="E71" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="F71" s="2" t="s">
+      <c r="E81" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F81" s="2" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A72" s="17"/>
-      <c r="B72" s="16" t="s">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A82" s="17"/>
+      <c r="B82" s="16" t="s">
         <v>161</v>
       </c>
-      <c r="C72" s="15" t="s">
+      <c r="C82" s="15" t="s">
         <v>162</v>
       </c>
-      <c r="D72" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E72" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="F72" s="2" t="s">
+      <c r="D82" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E82" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F82" s="2" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A73" s="58"/>
-      <c r="B73" s="43" t="s">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A83" s="46"/>
+      <c r="B83" s="44" t="s">
         <v>149</v>
       </c>
-      <c r="C73" s="47" t="s">
+      <c r="C83" s="45" t="s">
         <v>150</v>
       </c>
-      <c r="D73" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E73" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="F73" s="2" t="s">
+      <c r="D83" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E83" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F83" s="2" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A74" s="58"/>
-      <c r="B74" s="43"/>
-      <c r="C74" s="47"/>
-      <c r="D74" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E74" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="F74" s="2" t="s">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A84" s="46"/>
+      <c r="B84" s="44"/>
+      <c r="C84" s="45"/>
+      <c r="D84" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E84" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F84" s="2" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A75" s="46" t="s">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A85" s="47" t="s">
         <v>65</v>
       </c>
-      <c r="B75" s="46"/>
-      <c r="C75" s="46"/>
-      <c r="D75" s="46"/>
-      <c r="E75" s="46"/>
-      <c r="F75" s="46"/>
-    </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A76" s="2"/>
-      <c r="B76" s="43" t="s">
-        <v>66</v>
-      </c>
-      <c r="C76" s="47" t="s">
-        <v>63</v>
-      </c>
-      <c r="D76" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E76" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="F76" s="2" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A77" s="2"/>
-      <c r="B77" s="43"/>
-      <c r="C77" s="47"/>
-      <c r="D77" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E77" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="F77" s="2" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A78" s="2"/>
-      <c r="B78" s="43" t="s">
-        <v>67</v>
-      </c>
-      <c r="C78" s="47" t="s">
-        <v>68</v>
-      </c>
-      <c r="D78" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E78" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="F78" s="2" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A79" s="2"/>
-      <c r="B79" s="43"/>
-      <c r="C79" s="47"/>
-      <c r="D79" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E79" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="F79" s="2" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A80" s="2"/>
-      <c r="B80" s="14" t="s">
-        <v>81</v>
-      </c>
-      <c r="C80" s="15" t="s">
-        <v>82</v>
-      </c>
-      <c r="D80" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E80" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="F80" s="2" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A81" s="2"/>
-      <c r="B81" s="14" t="s">
-        <v>77</v>
-      </c>
-      <c r="C81" s="15" t="s">
-        <v>78</v>
-      </c>
-      <c r="D81" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E81" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="F81" s="2" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A82" s="2"/>
-      <c r="B82" s="43" t="s">
-        <v>85</v>
-      </c>
-      <c r="C82" s="47" t="s">
-        <v>84</v>
-      </c>
-      <c r="D82" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E82" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="F82" s="2" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A83" s="2"/>
-      <c r="B83" s="43"/>
-      <c r="C83" s="47"/>
-      <c r="D83" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E83" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="F83" s="2" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A84" s="2"/>
-      <c r="B84" s="43" t="s">
-        <v>88</v>
-      </c>
-      <c r="C84" s="47" t="s">
-        <v>89</v>
-      </c>
-      <c r="D84" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E84" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="F84" s="2" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A85" s="2"/>
-      <c r="B85" s="43"/>
+      <c r="B85" s="47"/>
       <c r="C85" s="47"/>
-      <c r="D85" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E85" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="F85" s="2" t="s">
-        <v>87</v>
-      </c>
+      <c r="D85" s="47"/>
+      <c r="E85" s="47"/>
+      <c r="F85" s="47"/>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A86" s="2"/>
-      <c r="B86" s="14"/>
-      <c r="C86" s="15"/>
-      <c r="D86" s="2"/>
-      <c r="E86" s="2"/>
-      <c r="F86" s="2"/>
+      <c r="B86" s="44" t="s">
+        <v>66</v>
+      </c>
+      <c r="C86" s="45" t="s">
+        <v>63</v>
+      </c>
+      <c r="D86" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E86" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F86" s="2" t="s">
+        <v>69</v>
+      </c>
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A87" s="46" t="s">
-        <v>90</v>
-      </c>
-      <c r="B87" s="46"/>
-      <c r="C87" s="46"/>
-      <c r="D87" s="46"/>
-      <c r="E87" s="46"/>
-      <c r="F87" s="46"/>
+      <c r="A87" s="2"/>
+      <c r="B87" s="44"/>
+      <c r="C87" s="45"/>
+      <c r="D87" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E87" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F87" s="2" t="s">
+        <v>64</v>
+      </c>
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A88" s="2"/>
-      <c r="B88" s="5" t="s">
-        <v>92</v>
-      </c>
-      <c r="C88" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="D88" s="4" t="s">
-        <v>93</v>
-      </c>
-      <c r="E88" s="4" t="s">
-        <v>93</v>
-      </c>
-      <c r="F88" s="4"/>
+      <c r="B88" s="44" t="s">
+        <v>67</v>
+      </c>
+      <c r="C88" s="45" t="s">
+        <v>68</v>
+      </c>
+      <c r="D88" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E88" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F88" s="2" t="s">
+        <v>69</v>
+      </c>
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A89" s="2"/>
-      <c r="B89" s="5" t="s">
-        <v>95</v>
-      </c>
-      <c r="C89" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="D89" s="4" t="s">
-        <v>93</v>
-      </c>
-      <c r="E89" s="4" t="s">
-        <v>93</v>
-      </c>
-      <c r="F89" s="12" t="s">
-        <v>96</v>
+      <c r="B89" s="44"/>
+      <c r="C89" s="45"/>
+      <c r="D89" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E89" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F89" s="2" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A90" s="46" t="s">
-        <v>31</v>
-      </c>
-      <c r="B90" s="46"/>
-      <c r="C90" s="46"/>
-      <c r="D90" s="46"/>
-      <c r="E90" s="46"/>
-      <c r="F90" s="46"/>
+      <c r="A90" s="2"/>
+      <c r="B90" s="14" t="s">
+        <v>81</v>
+      </c>
+      <c r="C90" s="15" t="s">
+        <v>82</v>
+      </c>
+      <c r="D90" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E90" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="F90" s="2" t="s">
+        <v>83</v>
+      </c>
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A91" s="2"/>
-      <c r="B91" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="C91" s="1" t="s">
-        <v>71</v>
+      <c r="B91" s="14" t="s">
+        <v>77</v>
+      </c>
+      <c r="C91" s="15" t="s">
+        <v>78</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>72</v>
+        <v>18</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="F91" s="2" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A92" s="2"/>
-      <c r="B92" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="C92" s="1" t="s">
-        <v>76</v>
+      <c r="B92" s="44" t="s">
+        <v>85</v>
+      </c>
+      <c r="C92" s="45" t="s">
+        <v>84</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="E92" s="2"/>
-      <c r="F92" s="2"/>
+        <v>18</v>
+      </c>
+      <c r="E92" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="F92" s="2" t="s">
+        <v>83</v>
+      </c>
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A93" s="46" t="s">
-        <v>32</v>
-      </c>
-      <c r="B93" s="46"/>
-      <c r="C93" s="46"/>
-      <c r="D93" s="46"/>
-      <c r="E93" s="46"/>
-      <c r="F93" s="46"/>
+      <c r="A93" s="2"/>
+      <c r="B93" s="44"/>
+      <c r="C93" s="45"/>
+      <c r="D93" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E93" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="F93" s="2" t="s">
+        <v>87</v>
+      </c>
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A94" s="2"/>
-      <c r="B94" s="2"/>
-      <c r="C94" s="2"/>
-      <c r="D94" s="2"/>
-      <c r="E94" s="2"/>
-      <c r="F94" s="2"/>
+      <c r="B94" s="44" t="s">
+        <v>88</v>
+      </c>
+      <c r="C94" s="45" t="s">
+        <v>89</v>
+      </c>
+      <c r="D94" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E94" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="F94" s="2" t="s">
+        <v>83</v>
+      </c>
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A95" s="46" t="s">
-        <v>33</v>
-      </c>
-      <c r="B95" s="46"/>
-      <c r="C95" s="46"/>
-      <c r="D95" s="46"/>
-      <c r="E95" s="46"/>
-      <c r="F95" s="46"/>
+      <c r="A95" s="2"/>
+      <c r="B95" s="44"/>
+      <c r="C95" s="45"/>
+      <c r="D95" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E95" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="F95" s="2" t="s">
+        <v>87</v>
+      </c>
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A96" s="2"/>
-      <c r="B96" s="43" t="s">
-        <v>111</v>
-      </c>
-      <c r="C96" s="47" t="s">
-        <v>112</v>
-      </c>
-      <c r="D96" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="E96" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="F96" s="2" t="s">
-        <v>113</v>
-      </c>
+      <c r="B96" s="14"/>
+      <c r="C96" s="15"/>
+      <c r="D96" s="2"/>
+      <c r="E96" s="2"/>
+      <c r="F96" s="2"/>
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A97" s="2"/>
-      <c r="B97" s="43"/>
-      <c r="C97" s="43"/>
-      <c r="D97" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="E97" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="F97" s="2" t="s">
-        <v>114</v>
-      </c>
+      <c r="A97" s="47" t="s">
+        <v>90</v>
+      </c>
+      <c r="B97" s="47"/>
+      <c r="C97" s="47"/>
+      <c r="D97" s="47"/>
+      <c r="E97" s="47"/>
+      <c r="F97" s="47"/>
     </row>
     <row r="98" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A98" s="2"/>
-      <c r="B98" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="C98" s="15" t="s">
-        <v>115</v>
-      </c>
-      <c r="D98" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E98" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="F98" s="2" t="s">
-        <v>113</v>
-      </c>
+      <c r="B98" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="C98" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="D98" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="E98" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="F98" s="4"/>
     </row>
     <row r="99" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A99" s="2"/>
-      <c r="B99" s="43" t="s">
-        <v>118</v>
-      </c>
-      <c r="C99" s="47" t="s">
-        <v>119</v>
-      </c>
-      <c r="D99" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="E99" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="F99" s="2" t="s">
-        <v>120</v>
+      <c r="B99" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="C99" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="D99" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="E99" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="F99" s="12" t="s">
+        <v>96</v>
       </c>
     </row>
     <row r="100" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A100" s="2"/>
-      <c r="B100" s="43"/>
+      <c r="A100" s="47" t="s">
+        <v>31</v>
+      </c>
+      <c r="B100" s="47"/>
       <c r="C100" s="47"/>
-      <c r="D100" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E100" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="F100" s="13" t="s">
-        <v>121</v>
-      </c>
+      <c r="D100" s="47"/>
+      <c r="E100" s="47"/>
+      <c r="F100" s="47"/>
     </row>
     <row r="101" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A101" s="46" t="s">
-        <v>34</v>
-      </c>
-      <c r="B101" s="46"/>
-      <c r="C101" s="46"/>
-      <c r="D101" s="46"/>
-      <c r="E101" s="46"/>
-      <c r="F101" s="46"/>
+      <c r="A101" s="2"/>
+      <c r="B101" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="C101" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="D101" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="E101" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="F101" s="2" t="s">
+        <v>74</v>
+      </c>
     </row>
     <row r="102" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A102" s="2"/>
-      <c r="B102" s="2"/>
-      <c r="C102" s="2"/>
-      <c r="D102" s="2"/>
+      <c r="B102" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="C102" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="D102" s="2" t="s">
+        <v>72</v>
+      </c>
       <c r="E102" s="2"/>
       <c r="F102" s="2"/>
     </row>
+    <row r="103" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A103" s="47" t="s">
+        <v>32</v>
+      </c>
+      <c r="B103" s="47"/>
+      <c r="C103" s="47"/>
+      <c r="D103" s="47"/>
+      <c r="E103" s="47"/>
+      <c r="F103" s="47"/>
+    </row>
     <row r="104" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="F104" s="34" t="s">
+      <c r="A104" s="2"/>
+      <c r="B104" s="2"/>
+      <c r="C104" s="2"/>
+      <c r="D104" s="2"/>
+      <c r="E104" s="2"/>
+      <c r="F104" s="2"/>
+    </row>
+    <row r="105" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A105" s="47" t="s">
+        <v>33</v>
+      </c>
+      <c r="B105" s="47"/>
+      <c r="C105" s="47"/>
+      <c r="D105" s="47"/>
+      <c r="E105" s="47"/>
+      <c r="F105" s="47"/>
+    </row>
+    <row r="106" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A106" s="2"/>
+      <c r="B106" s="44" t="s">
+        <v>111</v>
+      </c>
+      <c r="C106" s="45" t="s">
+        <v>112</v>
+      </c>
+      <c r="D106" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="E106" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="F106" s="2" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="107" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A107" s="2"/>
+      <c r="B107" s="44"/>
+      <c r="C107" s="44"/>
+      <c r="D107" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="E107" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F107" s="2" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="108" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A108" s="2"/>
+      <c r="B108" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="C108" s="15" t="s">
+        <v>115</v>
+      </c>
+      <c r="D108" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E108" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="F108" s="2" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="109" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A109" s="2"/>
+      <c r="B109" s="44" t="s">
+        <v>118</v>
+      </c>
+      <c r="C109" s="45" t="s">
+        <v>119</v>
+      </c>
+      <c r="D109" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="E109" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="F109" s="2" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="110" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A110" s="2"/>
+      <c r="B110" s="44"/>
+      <c r="C110" s="45"/>
+      <c r="D110" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E110" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="F110" s="13" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="111" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A111" s="47" t="s">
+        <v>34</v>
+      </c>
+      <c r="B111" s="47"/>
+      <c r="C111" s="47"/>
+      <c r="D111" s="47"/>
+      <c r="E111" s="47"/>
+      <c r="F111" s="47"/>
+    </row>
+    <row r="112" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A112" s="2"/>
+      <c r="B112" s="2"/>
+      <c r="C112" s="2"/>
+      <c r="D112" s="2"/>
+      <c r="E112" s="2"/>
+      <c r="F112" s="2"/>
+    </row>
+    <row r="114" spans="6:6" x14ac:dyDescent="0.35">
+      <c r="F114" s="34" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="F105" s="34" t="s">
+    <row r="115" spans="6:6" x14ac:dyDescent="0.35">
+      <c r="F115" s="34" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="106" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="F106" s="34" t="s">
+    <row r="116" spans="6:6" x14ac:dyDescent="0.35">
+      <c r="F116" s="34" t="s">
         <v>227</v>
       </c>
     </row>
-    <row r="107" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="F107" s="36" t="s">
+    <row r="117" spans="6:6" x14ac:dyDescent="0.35">
+      <c r="F117" s="36" t="s">
         <v>228</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="50">
-    <mergeCell ref="B99:B100"/>
-    <mergeCell ref="C99:C100"/>
-    <mergeCell ref="C84:C85"/>
-    <mergeCell ref="B84:B85"/>
+  <mergeCells count="54">
+    <mergeCell ref="B79:B80"/>
+    <mergeCell ref="C79:C80"/>
+    <mergeCell ref="A75:A76"/>
+    <mergeCell ref="B75:B76"/>
+    <mergeCell ref="C75:C76"/>
+    <mergeCell ref="A77:A78"/>
+    <mergeCell ref="C77:C78"/>
+    <mergeCell ref="B77:B78"/>
+    <mergeCell ref="A111:F111"/>
+    <mergeCell ref="A62:F62"/>
+    <mergeCell ref="A64:F64"/>
+    <mergeCell ref="A85:F85"/>
+    <mergeCell ref="A97:F97"/>
+    <mergeCell ref="B86:B87"/>
+    <mergeCell ref="C86:C87"/>
+    <mergeCell ref="B88:B89"/>
+    <mergeCell ref="C88:C89"/>
+    <mergeCell ref="B92:B93"/>
+    <mergeCell ref="C92:C93"/>
+    <mergeCell ref="B106:B107"/>
+    <mergeCell ref="C106:C107"/>
+    <mergeCell ref="A67:A68"/>
+    <mergeCell ref="B67:B68"/>
+    <mergeCell ref="B73:B74"/>
+    <mergeCell ref="A40:A43"/>
+    <mergeCell ref="B40:B43"/>
+    <mergeCell ref="C40:C43"/>
+    <mergeCell ref="C67:C68"/>
+    <mergeCell ref="A58:F58"/>
+    <mergeCell ref="B51:B57"/>
+    <mergeCell ref="B34:B35"/>
+    <mergeCell ref="C34:C35"/>
+    <mergeCell ref="A2:F2"/>
+    <mergeCell ref="A10:F10"/>
+    <mergeCell ref="A18:F18"/>
+    <mergeCell ref="A28:F28"/>
+    <mergeCell ref="A34:A35"/>
+    <mergeCell ref="A30:F30"/>
+    <mergeCell ref="A51:A57"/>
+    <mergeCell ref="C51:C57"/>
+    <mergeCell ref="B109:B110"/>
+    <mergeCell ref="C109:C110"/>
+    <mergeCell ref="C94:C95"/>
+    <mergeCell ref="B94:B95"/>
+    <mergeCell ref="A83:A84"/>
+    <mergeCell ref="B83:B84"/>
+    <mergeCell ref="C83:C84"/>
+    <mergeCell ref="A103:F103"/>
+    <mergeCell ref="A105:F105"/>
+    <mergeCell ref="A100:F100"/>
     <mergeCell ref="A73:A74"/>
-    <mergeCell ref="B73:B74"/>
     <mergeCell ref="C73:C74"/>
-    <mergeCell ref="A93:F93"/>
-    <mergeCell ref="A95:F95"/>
-    <mergeCell ref="A90:F90"/>
-    <mergeCell ref="A63:A64"/>
-    <mergeCell ref="B31:B32"/>
-    <mergeCell ref="C31:C32"/>
-    <mergeCell ref="A2:F2"/>
-    <mergeCell ref="A9:F9"/>
-    <mergeCell ref="A17:F17"/>
-    <mergeCell ref="A27:F27"/>
-    <mergeCell ref="A31:A32"/>
-    <mergeCell ref="C63:C64"/>
-    <mergeCell ref="A50:F50"/>
-    <mergeCell ref="A37:A40"/>
-    <mergeCell ref="B37:B40"/>
-    <mergeCell ref="C37:C40"/>
-    <mergeCell ref="C57:C58"/>
-    <mergeCell ref="A48:F48"/>
-    <mergeCell ref="A101:F101"/>
-    <mergeCell ref="A52:F52"/>
-    <mergeCell ref="A54:F54"/>
-    <mergeCell ref="A75:F75"/>
-    <mergeCell ref="A87:F87"/>
-    <mergeCell ref="B76:B77"/>
-    <mergeCell ref="C76:C77"/>
-    <mergeCell ref="B78:B79"/>
-    <mergeCell ref="C78:C79"/>
-    <mergeCell ref="B82:B83"/>
-    <mergeCell ref="C82:C83"/>
-    <mergeCell ref="B96:B97"/>
-    <mergeCell ref="C96:C97"/>
-    <mergeCell ref="A57:A58"/>
-    <mergeCell ref="B57:B58"/>
-    <mergeCell ref="B63:B64"/>
-    <mergeCell ref="A69:A70"/>
-    <mergeCell ref="B69:B70"/>
-    <mergeCell ref="C69:C70"/>
-    <mergeCell ref="A65:A66"/>
-    <mergeCell ref="B65:B66"/>
-    <mergeCell ref="C65:C66"/>
-    <mergeCell ref="A67:A68"/>
-    <mergeCell ref="C67:C68"/>
-    <mergeCell ref="B67:B68"/>
+    <mergeCell ref="A60:F60"/>
+    <mergeCell ref="A79:A80"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="C3" r:id="rId1" xr:uid="{3FB3FA06-DE47-4C2D-AFD7-F5FC45E3D126}"/>
     <hyperlink ref="C4" r:id="rId2" xr:uid="{C4A51F70-7D5B-496B-8FD0-AB7121D9FCE1}"/>
-    <hyperlink ref="C10" r:id="rId3" xr:uid="{678D7AA2-36D2-4A02-971F-3FB9391E8E35}"/>
-    <hyperlink ref="C18" r:id="rId4" xr:uid="{2AC6AF52-CC30-4063-833D-09178907C109}"/>
-    <hyperlink ref="C45" r:id="rId5" xr:uid="{6352E065-8925-49FF-AA82-66ED2F9F8651}"/>
-    <hyperlink ref="C19" r:id="rId6" xr:uid="{047C68C0-B7AB-4E77-9D1E-B162BD11A209}"/>
-    <hyperlink ref="C20" r:id="rId7" xr:uid="{1ABD0EDA-F48F-4D2F-B13C-180B398F1FCD}"/>
-    <hyperlink ref="C76" r:id="rId8" xr:uid="{35D2A43C-BF1B-4339-9217-7116005F7034}"/>
-    <hyperlink ref="C78" r:id="rId9" xr:uid="{233456E2-1B15-4448-A669-82C381357683}"/>
-    <hyperlink ref="C91" r:id="rId10" xr:uid="{4A724644-7F2B-4DE6-9141-A1802140FB4A}"/>
-    <hyperlink ref="C88" r:id="rId11" xr:uid="{914A5C5A-20B3-4526-A460-020F9852AFDB}"/>
-    <hyperlink ref="C89" r:id="rId12" xr:uid="{0B2D15B8-18BF-46A5-991E-6E53ADC95851}"/>
-    <hyperlink ref="C28" r:id="rId13" xr:uid="{93A177B9-936F-4ED5-9F32-EB31F0D8F614}"/>
-    <hyperlink ref="C96" r:id="rId14" xr:uid="{9CD2E86C-B1BA-4CC3-9E52-ECA767380715}"/>
-    <hyperlink ref="C98" r:id="rId15" xr:uid="{30EBB8AD-10BE-47B9-BF85-DBCCCE948784}"/>
-    <hyperlink ref="F100" r:id="rId16" xr:uid="{080A2B1B-6640-47F1-9DAB-1F0914BD9938}"/>
-    <hyperlink ref="C55" r:id="rId17" xr:uid="{DD8AB0F8-5B5E-4F6E-A0B4-339B324BDAC3}"/>
+    <hyperlink ref="C11" r:id="rId3" xr:uid="{678D7AA2-36D2-4A02-971F-3FB9391E8E35}"/>
+    <hyperlink ref="C19" r:id="rId4" xr:uid="{2AC6AF52-CC30-4063-833D-09178907C109}"/>
+    <hyperlink ref="C48" r:id="rId5" xr:uid="{6352E065-8925-49FF-AA82-66ED2F9F8651}"/>
+    <hyperlink ref="C20" r:id="rId6" xr:uid="{047C68C0-B7AB-4E77-9D1E-B162BD11A209}"/>
+    <hyperlink ref="C21" r:id="rId7" xr:uid="{1ABD0EDA-F48F-4D2F-B13C-180B398F1FCD}"/>
+    <hyperlink ref="C86" r:id="rId8" xr:uid="{35D2A43C-BF1B-4339-9217-7116005F7034}"/>
+    <hyperlink ref="C88" r:id="rId9" xr:uid="{233456E2-1B15-4448-A669-82C381357683}"/>
+    <hyperlink ref="C101" r:id="rId10" xr:uid="{4A724644-7F2B-4DE6-9141-A1802140FB4A}"/>
+    <hyperlink ref="C98" r:id="rId11" xr:uid="{914A5C5A-20B3-4526-A460-020F9852AFDB}"/>
+    <hyperlink ref="C99" r:id="rId12" xr:uid="{0B2D15B8-18BF-46A5-991E-6E53ADC95851}"/>
+    <hyperlink ref="C31" r:id="rId13" xr:uid="{93A177B9-936F-4ED5-9F32-EB31F0D8F614}"/>
+    <hyperlink ref="C106" r:id="rId14" xr:uid="{9CD2E86C-B1BA-4CC3-9E52-ECA767380715}"/>
+    <hyperlink ref="C108" r:id="rId15" xr:uid="{30EBB8AD-10BE-47B9-BF85-DBCCCE948784}"/>
+    <hyperlink ref="F110" r:id="rId16" xr:uid="{080A2B1B-6640-47F1-9DAB-1F0914BD9938}"/>
+    <hyperlink ref="C65" r:id="rId17" xr:uid="{DD8AB0F8-5B5E-4F6E-A0B4-339B324BDAC3}"/>
     <hyperlink ref="C7" r:id="rId18" xr:uid="{43B67C49-DC70-412F-B095-E684E07FF196}"/>
-    <hyperlink ref="C65" r:id="rId19" xr:uid="{7FDCAB78-56F5-40D3-8A09-8A8A0E54E05D}"/>
-    <hyperlink ref="F66" r:id="rId20" xr:uid="{F7F3C873-8E94-4212-B22A-52BF75A478D8}"/>
-    <hyperlink ref="C31" r:id="rId21" xr:uid="{F6C15430-DBA9-4DAD-A411-65B1524C625E}"/>
-    <hyperlink ref="G18" r:id="rId22" display="https://leetcode.com/problems/maximum-sum-circular-subarray/" xr:uid="{A4CEEEE3-5EE5-4166-9A65-51E09840E49F}"/>
-    <hyperlink ref="G19" r:id="rId23" display="https://leetcode.com/problems/maximum-product-subarray/" xr:uid="{E66937F4-342E-466B-92BD-529EAD0F1180}"/>
-    <hyperlink ref="G20" r:id="rId24" display="https://leetcode.com/problems/maximum-length-of-subarray-with-positive-product/" xr:uid="{C0B6118F-C23A-4E55-881A-F4A1DA018A1F}"/>
+    <hyperlink ref="C75" r:id="rId19" xr:uid="{7FDCAB78-56F5-40D3-8A09-8A8A0E54E05D}"/>
+    <hyperlink ref="F76" r:id="rId20" xr:uid="{F7F3C873-8E94-4212-B22A-52BF75A478D8}"/>
+    <hyperlink ref="C34" r:id="rId21" xr:uid="{F6C15430-DBA9-4DAD-A411-65B1524C625E}"/>
+    <hyperlink ref="G19" r:id="rId22" display="https://leetcode.com/problems/maximum-sum-circular-subarray/" xr:uid="{A4CEEEE3-5EE5-4166-9A65-51E09840E49F}"/>
+    <hyperlink ref="G20" r:id="rId23" display="https://leetcode.com/problems/maximum-product-subarray/" xr:uid="{E66937F4-342E-466B-92BD-529EAD0F1180}"/>
+    <hyperlink ref="G21" r:id="rId24" display="https://leetcode.com/problems/maximum-length-of-subarray-with-positive-product/" xr:uid="{C0B6118F-C23A-4E55-881A-F4A1DA018A1F}"/>
     <hyperlink ref="C6" r:id="rId25" xr:uid="{D548A552-BEA3-46D9-89FD-0EDF330CCD4B}"/>
-    <hyperlink ref="C69" r:id="rId26" xr:uid="{7EAF2DCC-4594-46F5-AFC0-D19FF750F897}"/>
+    <hyperlink ref="C79" r:id="rId26" xr:uid="{7EAF2DCC-4594-46F5-AFC0-D19FF750F897}"/>
+    <hyperlink ref="C29" r:id="rId27" xr:uid="{2A9F780A-9E5F-449D-AA08-46C94947DE0C}"/>
+    <hyperlink ref="G29" r:id="rId28" display="https://leetcode.com/problems/merge-intervals" xr:uid="{24D594E5-8804-48F8-84BD-C5D018E5A447}"/>
+    <hyperlink ref="G30" r:id="rId29" display="https://leetcode.com/problems/non-overlapping-intervals" xr:uid="{FBB3A625-8231-42DD-B49C-D9DFE3555251}"/>
+    <hyperlink ref="G31" r:id="rId30" display="https://leetcode.com/problems/meeting-rooms/" xr:uid="{8849EA4F-0A54-4D57-AE19-19728A56318A}"/>
+    <hyperlink ref="G32" r:id="rId31" display="https://leetcode.com/problems/meeting-rooms-ii/" xr:uid="{DD819D71-EB3C-4BD3-BA6C-25223B20391D}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="90" verticalDpi="90" r:id="rId27"/>
+  <pageSetup orientation="portrait" horizontalDpi="90" verticalDpi="90" r:id="rId32"/>
   <headerFooter>
     <oddFooter>&amp;L12/30/2021&amp;CAXP Internal&amp;R1</oddFooter>
   </headerFooter>

--- a/SDE Sheet.xlsx
+++ b/SDE Sheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Src Code\Personal\SDE-Sheet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2782F4B-A57D-4B29-BB0F-70D99751DEFA}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C16AE29-3603-4B46-9143-75F8BD040F98}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{83934561-A72F-4836-B1E7-4EE8C35F9874}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="420" uniqueCount="251">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="428" uniqueCount="255">
   <si>
     <t>Matrix</t>
   </si>
@@ -182,9 +182,6 @@
   </si>
   <si>
     <t>O(log(m*n))</t>
-  </si>
-  <si>
-    <t>Approach 1: Traverse left or down, Time Complexity O(m+n), Approach 2: Binary Search</t>
   </si>
   <si>
     <t>https://leetcode.com/problems/powx-n/</t>
@@ -860,9 +857,6 @@
     <t>https://leetcode.com/problems/stamping-the-grid/</t>
   </si>
   <si>
-    <t>Prefix2D and Sum2D</t>
-  </si>
-  <si>
     <t>https://leetcode.com/problems/find-the-duplicate-number/</t>
   </si>
   <si>
@@ -906,6 +900,24 @@
   </si>
   <si>
     <t>Try these as well --&gt;</t>
+  </si>
+  <si>
+    <t>Prefix2D and Sum2D - Pending</t>
+  </si>
+  <si>
+    <t>Binary Search</t>
+  </si>
+  <si>
+    <t>Traverse left or down</t>
+  </si>
+  <si>
+    <t>Jump Game IV</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/jump-game-iv/</t>
+  </si>
+  <si>
+    <t>BFS (Imp: How to make it O(n) instead of O(V+E)</t>
   </si>
 </sst>
 </file>
@@ -1223,6 +1235,73 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1232,76 +1311,9 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1617,11 +1629,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D3EBAEE5-B4E7-4BD5-B694-FD6EEA5E8AC0}">
-  <dimension ref="A1:G117"/>
+  <dimension ref="A1:G119"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="79" zoomScaleNormal="94" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A16" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G28" sqref="G28"/>
+    <sheetView tabSelected="1" zoomScale="78" zoomScaleNormal="94" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A52" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F104" sqref="F104"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1636,7 +1648,7 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1" s="6" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B1" s="6" t="s">
         <v>6</v>
@@ -1655,14 +1667,14 @@
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A2" s="47" t="s">
+      <c r="A2" s="52" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="47"/>
-      <c r="C2" s="47"/>
-      <c r="D2" s="47"/>
-      <c r="E2" s="47"/>
-      <c r="F2" s="47"/>
+      <c r="B2" s="52"/>
+      <c r="C2" s="52"/>
+      <c r="D2" s="52"/>
+      <c r="E2" s="52"/>
+      <c r="F2" s="52"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A3" s="9"/>
@@ -1701,268 +1713,261 @@
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A5" s="2"/>
-      <c r="B5" s="2" t="s">
+      <c r="A5" s="9"/>
+      <c r="B5" s="46" t="s">
         <v>35</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="C5" s="48" t="s">
         <v>36</v>
       </c>
       <c r="D5" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A6" s="9"/>
+      <c r="B6" s="47"/>
+      <c r="C6" s="49"/>
+      <c r="D6" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="E5" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A6" s="9"/>
-      <c r="B6" s="2" t="s">
-        <v>213</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>214</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>14</v>
-      </c>
       <c r="E6" s="2" t="s">
         <v>4</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A7" s="9"/>
       <c r="B7" s="2" t="s">
-        <v>122</v>
+        <v>212</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>123</v>
+        <v>213</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>4</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>124</v>
+        <v>13</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A8" s="9"/>
       <c r="B8" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A9" s="9"/>
+      <c r="B9" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="C9" s="1" t="s">
         <v>229</v>
       </c>
-      <c r="C8" s="1" t="s">
+      <c r="D9" s="2" t="s">
         <v>230</v>
       </c>
-      <c r="D8" s="2" t="s">
+      <c r="E9" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F9" s="2" t="s">
         <v>231</v>
       </c>
-      <c r="E8" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="F8" s="2" t="s">
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A10" s="10"/>
+      <c r="B10" s="2" t="s">
         <v>232</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A9" s="10"/>
-      <c r="B9" s="2" t="s">
+      <c r="C10" s="1" t="s">
         <v>233</v>
       </c>
-      <c r="C9" s="1" t="s">
-        <v>234</v>
-      </c>
-      <c r="D9" s="2"/>
-      <c r="E9" s="2"/>
-      <c r="F9" s="29" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A10" s="47" t="s">
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+      <c r="F10" s="29" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A11" s="52" t="s">
         <v>15</v>
       </c>
-      <c r="B10" s="47"/>
-      <c r="C10" s="47"/>
-      <c r="D10" s="47"/>
-      <c r="E10" s="47"/>
-      <c r="F10" s="47"/>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A11" s="9"/>
-      <c r="B11" s="2" t="s">
+      <c r="B11" s="52"/>
+      <c r="C11" s="52"/>
+      <c r="D11" s="52"/>
+      <c r="E11" s="52"/>
+      <c r="F11" s="52"/>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A12" s="9"/>
+      <c r="B12" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C11" s="1" t="s">
+      <c r="C12" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D11" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E11" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="F11" s="2" t="s">
+      <c r="D12" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F12" s="2" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A12" s="2"/>
-      <c r="B12" s="2" t="s">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A13" s="9"/>
+      <c r="B13" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D13" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="C12" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="D12" s="2" t="s">
+      <c r="E13" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="F13" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="E12" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="F12" s="2" t="s">
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A14" s="11"/>
+      <c r="B14" s="2" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A13" s="2"/>
-      <c r="B13" s="2" t="s">
+      <c r="C14" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="C13" s="1" t="s">
+      <c r="D14" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F14" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="D13" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E13" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="F13" s="7" t="s">
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A15" s="9"/>
+      <c r="B15" s="2" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A14" s="2"/>
-      <c r="B14" s="2" t="s">
+      <c r="C15" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="C14" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E14" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="F14" s="2" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A15" s="2"/>
-      <c r="B15" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="C15" s="1" t="s">
+      <c r="D15" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A16" s="2"/>
+      <c r="B16" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F16" s="8" t="s">
         <v>59</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="E15" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="F15" s="8" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A16" s="9"/>
-      <c r="B16" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="E16" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="F16" s="8" t="s">
-        <v>133</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A17" s="9"/>
       <c r="B17" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F17" s="8" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A18" s="9"/>
+      <c r="B18" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="C18" s="1" t="s">
         <v>220</v>
       </c>
-      <c r="C17" s="1" t="s">
+      <c r="D18" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F18" s="8" t="s">
         <v>221</v>
       </c>
-      <c r="D17" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E17" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="F17" s="8" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A18" s="47" t="s">
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A19" s="52" t="s">
         <v>22</v>
       </c>
-      <c r="B18" s="47"/>
-      <c r="C18" s="47"/>
-      <c r="D18" s="47"/>
-      <c r="E18" s="47"/>
-      <c r="F18" s="47"/>
-      <c r="G18" s="34" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A19" s="11"/>
-      <c r="B19" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="D19" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E19" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="F19" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="G19" s="35" t="s">
-        <v>209</v>
+      <c r="B19" s="52"/>
+      <c r="C19" s="52"/>
+      <c r="D19" s="52"/>
+      <c r="E19" s="52"/>
+      <c r="F19" s="52"/>
+      <c r="G19" s="34" t="s">
+        <v>211</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A20" s="11"/>
       <c r="B20" s="2" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="D20" s="2" t="s">
         <v>18</v>
@@ -1974,16 +1979,16 @@
         <v>27</v>
       </c>
       <c r="G20" s="35" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A21" s="2"/>
+      <c r="A21" s="11"/>
       <c r="B21" s="2" t="s">
-        <v>48</v>
+        <v>25</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>49</v>
+        <v>26</v>
       </c>
       <c r="D21" s="2" t="s">
         <v>18</v>
@@ -1992,213 +1997,213 @@
         <v>4</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>50</v>
+        <v>27</v>
       </c>
       <c r="G21" s="35" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A22" s="2"/>
       <c r="B22" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F22" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="G22" s="35" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A23" s="2"/>
+      <c r="B23" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F23" s="2" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A24" s="31"/>
+      <c r="B24" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="C22" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="D22" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="E22" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="F22" s="2" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A23" s="31"/>
-      <c r="B23" s="2" t="s">
+      <c r="C24" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="C23" s="1" t="s">
+      <c r="D24" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E24" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="D23" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E23" s="2" t="s">
+      <c r="F24" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="F23" s="2" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A24" s="30"/>
-      <c r="B24" s="2" t="s">
+    </row>
+    <row r="25" spans="1:7" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A25" s="30"/>
+      <c r="B25" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="C25" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="C24" s="1" t="s">
+      <c r="D25" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="D24" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="E24" s="2" t="s">
+      <c r="E25" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F24" s="2" t="s">
+      <c r="F25" s="2" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A26" s="32"/>
+      <c r="B26" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="D26" s="33" t="s">
         <v>206</v>
       </c>
-    </row>
-    <row r="25" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A25" s="32"/>
-      <c r="B25" s="2" t="s">
+      <c r="E26" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="F26" s="2" t="s">
         <v>205</v>
-      </c>
-      <c r="C25" s="1" t="s">
-        <v>204</v>
-      </c>
-      <c r="D25" s="33" t="s">
-        <v>207</v>
-      </c>
-      <c r="E25" s="2" t="s">
-        <v>208</v>
-      </c>
-      <c r="F25" s="2" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A26" s="30"/>
-      <c r="B26" s="2" t="s">
-        <v>223</v>
-      </c>
-      <c r="C26" s="1" t="s">
-        <v>225</v>
-      </c>
-      <c r="D26" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="E26" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="F26" s="2" t="s">
-        <v>206</v>
       </c>
     </row>
     <row r="27" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A27" s="30"/>
       <c r="B27" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="C27" s="1" t="s">
         <v>224</v>
       </c>
-      <c r="C27" s="1" t="s">
-        <v>226</v>
-      </c>
       <c r="D27" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E27" s="2" t="s">
         <v>14</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A28" s="61" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A28" s="30"/>
+      <c r="B28" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="E28" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F28" s="2" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A29" s="53" t="s">
+        <v>241</v>
+      </c>
+      <c r="B29" s="54"/>
+      <c r="C29" s="54"/>
+      <c r="D29" s="54"/>
+      <c r="E29" s="54"/>
+      <c r="F29" s="55"/>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A30" s="9"/>
+      <c r="B30" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="C30" s="1" t="s">
         <v>243</v>
       </c>
-      <c r="B28" s="62"/>
-      <c r="C28" s="62"/>
-      <c r="D28" s="62"/>
-      <c r="E28" s="62"/>
-      <c r="F28" s="63"/>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A29" s="9"/>
-      <c r="B29" s="2" t="s">
+      <c r="D30" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="E30" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="F30" s="2" t="s">
+        <v>248</v>
+      </c>
+      <c r="G30" s="38" t="s">
         <v>244</v>
       </c>
-      <c r="C29" s="1" t="s">
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A31" s="41" t="s">
+        <v>96</v>
+      </c>
+      <c r="B31" s="42"/>
+      <c r="C31" s="42"/>
+      <c r="D31" s="42"/>
+      <c r="E31" s="42"/>
+      <c r="F31" s="43"/>
+      <c r="G31" s="38" t="s">
         <v>245</v>
       </c>
-      <c r="D29" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="E29" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="F29" s="2" t="s">
-        <v>250</v>
-      </c>
-      <c r="G29" s="64" t="s">
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A32" s="9"/>
+      <c r="B32" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="E32" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="F32" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="G32" s="38" t="s">
         <v>246</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A30" s="51" t="s">
-        <v>97</v>
-      </c>
-      <c r="B30" s="52"/>
-      <c r="C30" s="52"/>
-      <c r="D30" s="52"/>
-      <c r="E30" s="52"/>
-      <c r="F30" s="53"/>
-      <c r="G30" s="64" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A31" s="9"/>
-      <c r="B31" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="C31" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="D31" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="E31" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="F31" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="G31" s="64" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A32" s="26"/>
-      <c r="B32" s="2" t="s">
-        <v>178</v>
-      </c>
-      <c r="C32" s="1" t="s">
-        <v>179</v>
-      </c>
-      <c r="D32" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E32" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="F32" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="G32" s="64" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A33" s="26"/>
       <c r="B33" s="2" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="D33" s="2" t="s">
         <v>18</v>
@@ -2209,187 +2214,190 @@
       <c r="F33" s="2" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A34" s="49"/>
-      <c r="B34" s="44" t="s">
+      <c r="G33" s="38" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A34" s="26"/>
+      <c r="B34" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="D34" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E34" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F34" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A35" s="44"/>
+      <c r="B35" s="50" t="s">
+        <v>105</v>
+      </c>
+      <c r="C35" s="40" t="s">
         <v>106</v>
       </c>
-      <c r="C34" s="45" t="s">
+      <c r="D35" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E35" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F35" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="D34" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E34" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="F34" s="2" t="s">
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A36" s="45"/>
+      <c r="B36" s="50"/>
+      <c r="C36" s="40"/>
+      <c r="D36" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="E36" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="F36" s="2" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A37" s="9"/>
+      <c r="B37" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="D37" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E37" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="F37" s="2" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A38" s="2"/>
+      <c r="B38" s="2"/>
+      <c r="C38" s="1" t="s">
         <v>108</v>
       </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A35" s="50"/>
-      <c r="B35" s="44"/>
-      <c r="C35" s="45"/>
-      <c r="D35" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="E35" s="2" t="s">
+      <c r="D38" s="2"/>
+      <c r="E38" s="2"/>
+      <c r="F38" s="29" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A39" s="9"/>
+      <c r="B39" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="D39" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="E39" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="F39" s="2" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A40" s="10"/>
+      <c r="B40" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="D40" s="2"/>
+      <c r="E40" s="2"/>
+      <c r="F40" s="29" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A41" s="56"/>
+      <c r="B41" s="46" t="s">
+        <v>182</v>
+      </c>
+      <c r="C41" s="48" t="s">
+        <v>183</v>
+      </c>
+      <c r="D41" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E41" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F41" s="2" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A42" s="57"/>
+      <c r="B42" s="59"/>
+      <c r="C42" s="60"/>
+      <c r="D42" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="E42" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F42" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="F35" s="2" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A36" s="9"/>
-      <c r="B36" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="C36" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="D36" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E36" s="2" t="s">
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A43" s="57"/>
+      <c r="B43" s="59"/>
+      <c r="C43" s="60"/>
+      <c r="D43" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="E43" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F43" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A44" s="58"/>
+      <c r="B44" s="47"/>
+      <c r="C44" s="49"/>
+      <c r="D44" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="E44" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F44" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="F36" s="2" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A37" s="2"/>
-      <c r="B37" s="2"/>
-      <c r="C37" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="D37" s="2"/>
-      <c r="E37" s="2"/>
-      <c r="F37" s="29" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A38" s="9"/>
-      <c r="B38" s="2" t="s">
-        <v>182</v>
-      </c>
-      <c r="C38" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="D38" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="E38" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="F38" s="2" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A39" s="10"/>
-      <c r="B39" s="2" t="s">
-        <v>196</v>
-      </c>
-      <c r="C39" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="D39" s="2"/>
-      <c r="E39" s="2"/>
-      <c r="F39" s="29" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A40" s="54"/>
-      <c r="B40" s="57" t="s">
-        <v>183</v>
-      </c>
-      <c r="C40" s="41" t="s">
-        <v>184</v>
-      </c>
-      <c r="D40" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E40" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="F40" s="2" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A41" s="55"/>
-      <c r="B41" s="58"/>
-      <c r="C41" s="42"/>
-      <c r="D41" s="2" t="s">
-        <v>186</v>
-      </c>
-      <c r="E41" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="F41" s="2" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A42" s="55"/>
-      <c r="B42" s="58"/>
-      <c r="C42" s="42"/>
-      <c r="D42" s="2" t="s">
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A45" s="23"/>
+      <c r="B45" s="2" t="s">
         <v>187</v>
       </c>
-      <c r="E42" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="F42" s="2" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A43" s="56"/>
-      <c r="B43" s="59"/>
-      <c r="C43" s="43"/>
-      <c r="D43" s="2" t="s">
-        <v>187</v>
-      </c>
-      <c r="E43" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="F43" s="2" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A44" s="23"/>
-      <c r="B44" s="2" t="s">
+      <c r="C45" s="24" t="s">
         <v>188</v>
       </c>
-      <c r="C44" s="24" t="s">
-        <v>189</v>
-      </c>
-      <c r="D44" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E44" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="F44" s="2" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A45" s="28"/>
-      <c r="B45" s="2" t="s">
-        <v>198</v>
-      </c>
-      <c r="C45" s="27" t="s">
-        <v>199</v>
-      </c>
       <c r="D45" s="2" t="s">
         <v>18</v>
       </c>
@@ -2397,53 +2405,53 @@
         <v>18</v>
       </c>
       <c r="F45" s="2" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.35">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A46" s="28"/>
       <c r="B46" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="C46" s="27" t="s">
+        <v>198</v>
+      </c>
+      <c r="D46" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E46" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F46" s="2" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A47" s="28"/>
+      <c r="B47" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="C47" s="27" t="s">
         <v>201</v>
       </c>
-      <c r="C46" s="27" t="s">
+      <c r="D47" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E47" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F47" s="2" t="s">
         <v>202</v>
       </c>
-      <c r="D46" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E46" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="F46" s="2" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A47" s="25"/>
-      <c r="B47" s="2" t="s">
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A48" s="25"/>
+      <c r="B48" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="C48" s="24" t="s">
         <v>190</v>
       </c>
-      <c r="C47" s="24" t="s">
-        <v>191</v>
-      </c>
-      <c r="D47" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E47" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="F47" s="2" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A48" s="9"/>
-      <c r="B48" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C48" s="1" t="s">
-        <v>23</v>
-      </c>
       <c r="D48" s="2" t="s">
         <v>18</v>
       </c>
@@ -2451,218 +2459,218 @@
         <v>4</v>
       </c>
       <c r="F48" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A49" s="9"/>
       <c r="B49" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D49" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E49" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F49" s="2" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A50" s="9"/>
+      <c r="B50" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="C50" s="1" t="s">
         <v>215</v>
       </c>
-      <c r="C49" s="1" t="s">
-        <v>216</v>
-      </c>
-      <c r="D49" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="E49" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="F49" s="2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A50" s="11"/>
-      <c r="B50" s="2" t="s">
-        <v>217</v>
-      </c>
-      <c r="C50" s="1" t="s">
-        <v>218</v>
-      </c>
       <c r="D50" s="2" t="s">
-        <v>140</v>
+        <v>51</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>4</v>
+        <v>103</v>
       </c>
       <c r="F50" s="2" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A51" s="38"/>
-      <c r="B51" s="57" t="s">
+      <c r="A51" s="11"/>
+      <c r="B51" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="C51" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="D51" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="E51" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F51" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A52" s="61"/>
+      <c r="B52" s="46" t="s">
+        <v>235</v>
+      </c>
+      <c r="C52" s="48" t="s">
+        <v>234</v>
+      </c>
+      <c r="D52" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="E52" s="2" t="s">
         <v>237</v>
       </c>
-      <c r="C51" s="41" t="s">
+      <c r="F52" s="2" t="s">
         <v>236</v>
       </c>
-      <c r="D51" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="E51" s="2" t="s">
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A53" s="62"/>
+      <c r="B53" s="59"/>
+      <c r="C53" s="60"/>
+      <c r="D53" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E53" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F53" s="2" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A54" s="62"/>
+      <c r="B54" s="59"/>
+      <c r="C54" s="60"/>
+      <c r="D54" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E54" s="2" t="s">
+        <v>240</v>
+      </c>
+      <c r="F54" s="37" t="s">
         <v>239</v>
       </c>
-      <c r="F51" s="2" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A52" s="39"/>
-      <c r="B52" s="58"/>
-      <c r="C52" s="42"/>
-      <c r="D52" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E52" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="F52" s="2" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A53" s="39"/>
-      <c r="B53" s="58"/>
-      <c r="C53" s="42"/>
-      <c r="D53" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E53" s="2" t="s">
-        <v>242</v>
-      </c>
-      <c r="F53" s="37" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A54" s="39"/>
-      <c r="B54" s="58"/>
-      <c r="C54" s="42"/>
-      <c r="D54" s="2"/>
-      <c r="E54" s="2"/>
-      <c r="F54" s="2"/>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A55" s="39"/>
-      <c r="B55" s="58"/>
-      <c r="C55" s="42"/>
+      <c r="A55" s="62"/>
+      <c r="B55" s="59"/>
+      <c r="C55" s="60"/>
       <c r="D55" s="2"/>
       <c r="E55" s="2"/>
       <c r="F55" s="2"/>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A56" s="39"/>
-      <c r="B56" s="58"/>
-      <c r="C56" s="42"/>
+      <c r="A56" s="62"/>
+      <c r="B56" s="59"/>
+      <c r="C56" s="60"/>
       <c r="D56" s="2"/>
       <c r="E56" s="2"/>
       <c r="F56" s="2"/>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A57" s="40"/>
+      <c r="A57" s="62"/>
       <c r="B57" s="59"/>
-      <c r="C57" s="43"/>
+      <c r="C57" s="60"/>
       <c r="D57" s="2"/>
       <c r="E57" s="2"/>
       <c r="F57" s="2"/>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A58" s="47" t="s">
+      <c r="A58" s="63"/>
+      <c r="B58" s="47"/>
+      <c r="C58" s="49"/>
+      <c r="D58" s="2"/>
+      <c r="E58" s="2"/>
+      <c r="F58" s="2"/>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A59" s="52" t="s">
+        <v>191</v>
+      </c>
+      <c r="B59" s="52"/>
+      <c r="C59" s="52"/>
+      <c r="D59" s="52"/>
+      <c r="E59" s="52"/>
+      <c r="F59" s="52"/>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A60" s="9"/>
+      <c r="B60" s="2" t="s">
         <v>192</v>
       </c>
-      <c r="B58" s="47"/>
-      <c r="C58" s="47"/>
-      <c r="D58" s="47"/>
-      <c r="E58" s="47"/>
-      <c r="F58" s="47"/>
-    </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A59" s="9"/>
-      <c r="B59" s="2" t="s">
+      <c r="C60" s="2" t="s">
         <v>193</v>
       </c>
-      <c r="C59" s="2" t="s">
+      <c r="D60" s="2"/>
+      <c r="E60" s="2"/>
+      <c r="F60" s="2" t="s">
         <v>194</v>
       </c>
-      <c r="D59" s="2"/>
-      <c r="E59" s="2"/>
-      <c r="F59" s="2" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A60" s="51" t="s">
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A61" s="41" t="s">
         <v>28</v>
       </c>
-      <c r="B60" s="52"/>
-      <c r="C60" s="52"/>
-      <c r="D60" s="52"/>
-      <c r="E60" s="52"/>
-      <c r="F60" s="53"/>
-    </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A61" s="2"/>
-      <c r="B61" s="2"/>
-      <c r="C61" s="2"/>
-      <c r="D61" s="2"/>
-      <c r="E61" s="2"/>
-      <c r="F61" s="2"/>
+      <c r="B61" s="42"/>
+      <c r="C61" s="42"/>
+      <c r="D61" s="42"/>
+      <c r="E61" s="42"/>
+      <c r="F61" s="43"/>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A62" s="47" t="s">
+      <c r="A62" s="2"/>
+      <c r="B62" s="2"/>
+      <c r="C62" s="2"/>
+      <c r="D62" s="2"/>
+      <c r="E62" s="2"/>
+      <c r="F62" s="2"/>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A63" s="52" t="s">
         <v>29</v>
       </c>
-      <c r="B62" s="47"/>
-      <c r="C62" s="47"/>
-      <c r="D62" s="47"/>
-      <c r="E62" s="47"/>
-      <c r="F62" s="47"/>
-    </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A63" s="2"/>
-      <c r="B63" s="2"/>
-      <c r="C63" s="2"/>
-      <c r="D63" s="2"/>
-      <c r="E63" s="2"/>
-      <c r="F63" s="2"/>
+      <c r="B63" s="52"/>
+      <c r="C63" s="52"/>
+      <c r="D63" s="52"/>
+      <c r="E63" s="52"/>
+      <c r="F63" s="52"/>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A64" s="47" t="s">
+      <c r="A64" s="2"/>
+      <c r="B64" s="2"/>
+      <c r="C64" s="2"/>
+      <c r="D64" s="2"/>
+      <c r="E64" s="2"/>
+      <c r="F64" s="2"/>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A65" s="52" t="s">
         <v>30</v>
       </c>
-      <c r="B64" s="47"/>
-      <c r="C64" s="47"/>
-      <c r="D64" s="47"/>
-      <c r="E64" s="47"/>
-      <c r="F64" s="47"/>
-    </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A65" s="11"/>
-      <c r="B65" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="C65" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="D65" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E65" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="F65" s="2" t="s">
-        <v>13</v>
-      </c>
+      <c r="B65" s="52"/>
+      <c r="C65" s="52"/>
+      <c r="D65" s="52"/>
+      <c r="E65" s="52"/>
+      <c r="F65" s="52"/>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A66" s="11"/>
       <c r="B66" s="2" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="D66" s="2" t="s">
         <v>18</v>
@@ -2675,65 +2683,65 @@
       </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A67" s="60"/>
-      <c r="B67" s="44" t="s">
+      <c r="A67" s="11"/>
+      <c r="B67" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="C67" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="D67" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E67" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F67" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A68" s="64"/>
+      <c r="B68" s="50" t="s">
+        <v>157</v>
+      </c>
+      <c r="C68" s="40" t="s">
         <v>158</v>
       </c>
-      <c r="C67" s="45" t="s">
+      <c r="D68" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E68" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F68" s="2" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A69" s="64"/>
+      <c r="B69" s="50"/>
+      <c r="C69" s="40"/>
+      <c r="D69" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E69" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F69" s="2" t="s">
         <v>159</v>
       </c>
-      <c r="D67" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E67" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="F67" s="2" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A68" s="60"/>
-      <c r="B68" s="44"/>
-      <c r="C68" s="45"/>
-      <c r="D68" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E68" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="F68" s="2" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A69" s="11"/>
-      <c r="B69" s="2" t="s">
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A70" s="11"/>
+      <c r="B70" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="C70" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="C69" s="1" t="s">
+      <c r="D70" s="2" t="s">
         <v>139</v>
-      </c>
-      <c r="D69" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="E69" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="F69" s="2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A70" s="9"/>
-      <c r="B70" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="C70" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="D70" s="2" t="s">
-        <v>140</v>
       </c>
       <c r="E70" s="2" t="s">
         <v>4</v>
@@ -2745,743 +2753,782 @@
     <row r="71" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A71" s="9"/>
       <c r="B71" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="C71" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="D71" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="E71" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F71" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A72" s="9"/>
+      <c r="B72" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="C72" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="D72" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E72" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F72" s="2" t="s">
         <v>147</v>
       </c>
-      <c r="C71" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="D71" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E71" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="F71" s="2" t="s">
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A73" s="11"/>
+      <c r="B73" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="C73" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="D73" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E73" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F73" s="2" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A74" s="39"/>
+      <c r="B74" s="50" t="s">
+        <v>151</v>
+      </c>
+      <c r="C74" s="40" t="s">
+        <v>152</v>
+      </c>
+      <c r="D74" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="E74" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="F74" s="2" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A75" s="39"/>
+      <c r="B75" s="50"/>
+      <c r="C75" s="40"/>
+      <c r="D75" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="E75" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F75" s="2" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A76" s="44"/>
+      <c r="B76" s="50" t="s">
+        <v>166</v>
+      </c>
+      <c r="C76" s="48" t="s">
+        <v>167</v>
+      </c>
+      <c r="D76" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="E76" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F76" s="2" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A77" s="45"/>
+      <c r="B77" s="50"/>
+      <c r="C77" s="49"/>
+      <c r="D77" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="E77" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F77" s="1" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A78" s="61"/>
+      <c r="B78" s="50" t="s">
+        <v>172</v>
+      </c>
+      <c r="C78" s="48" t="s">
+        <v>170</v>
+      </c>
+      <c r="D78" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="E78" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F78" s="2" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A79" s="63"/>
+      <c r="B79" s="50"/>
+      <c r="C79" s="49"/>
+      <c r="D79" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="E79" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F79" s="1" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A80" s="44"/>
+      <c r="B80" s="46" t="s">
+        <v>162</v>
+      </c>
+      <c r="C80" s="48" t="s">
+        <v>163</v>
+      </c>
+      <c r="D80" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="E80" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F80" s="2" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A81" s="45"/>
+      <c r="B81" s="47"/>
+      <c r="C81" s="49"/>
+      <c r="D81" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E81" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F81" s="2" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A82" s="22"/>
+      <c r="B82" s="19" t="s">
+        <v>173</v>
+      </c>
+      <c r="C82" s="20" t="s">
+        <v>174</v>
+      </c>
+      <c r="D82" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="E82" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F82" s="2" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A83" s="17"/>
+      <c r="B83" s="16" t="s">
+        <v>160</v>
+      </c>
+      <c r="C83" s="15" t="s">
+        <v>161</v>
+      </c>
+      <c r="D83" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E83" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F83" s="2" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A84" s="51"/>
+      <c r="B84" s="50" t="s">
         <v>148</v>
       </c>
-    </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A72" s="11"/>
-      <c r="B72" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="C72" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="D72" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="E72" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="F72" s="2" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A73" s="48"/>
-      <c r="B73" s="44" t="s">
-        <v>152</v>
-      </c>
-      <c r="C73" s="45" t="s">
+      <c r="C84" s="40" t="s">
+        <v>149</v>
+      </c>
+      <c r="D84" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E84" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F84" s="2" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A85" s="51"/>
+      <c r="B85" s="50"/>
+      <c r="C85" s="40"/>
+      <c r="D85" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E85" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F85" s="2" t="s">
         <v>153</v>
       </c>
-      <c r="D73" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="E73" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="F73" s="2" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A74" s="48"/>
-      <c r="B74" s="44"/>
-      <c r="C74" s="45"/>
-      <c r="D74" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="E74" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="F74" s="2" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="75" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A75" s="49"/>
-      <c r="B75" s="44" t="s">
-        <v>167</v>
-      </c>
-      <c r="C75" s="41" t="s">
-        <v>168</v>
-      </c>
-      <c r="D75" s="21" t="s">
-        <v>18</v>
-      </c>
-      <c r="E75" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="F75" s="2" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="76" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A76" s="50"/>
-      <c r="B76" s="44"/>
-      <c r="C76" s="43"/>
-      <c r="D76" s="21" t="s">
-        <v>18</v>
-      </c>
-      <c r="E76" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="F76" s="1" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="77" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A77" s="38"/>
-      <c r="B77" s="44" t="s">
-        <v>173</v>
-      </c>
-      <c r="C77" s="41" t="s">
-        <v>171</v>
-      </c>
-      <c r="D77" s="21" t="s">
-        <v>18</v>
-      </c>
-      <c r="E77" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="F77" s="2" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="78" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A78" s="40"/>
-      <c r="B78" s="44"/>
-      <c r="C78" s="43"/>
-      <c r="D78" s="21" t="s">
-        <v>18</v>
-      </c>
-      <c r="E78" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="F78" s="1" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A79" s="49"/>
-      <c r="B79" s="57" t="s">
-        <v>163</v>
-      </c>
-      <c r="C79" s="41" t="s">
-        <v>164</v>
-      </c>
-      <c r="D79" s="18" t="s">
-        <v>18</v>
-      </c>
-      <c r="E79" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="F79" s="2" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A80" s="50"/>
-      <c r="B80" s="59"/>
-      <c r="C80" s="43"/>
-      <c r="D80" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E80" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="F80" s="2" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A81" s="22"/>
-      <c r="B81" s="19" t="s">
-        <v>174</v>
-      </c>
-      <c r="C81" s="20" t="s">
-        <v>175</v>
-      </c>
-      <c r="D81" s="2" t="s">
-        <v>176</v>
-      </c>
-      <c r="E81" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="F81" s="2" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A82" s="17"/>
-      <c r="B82" s="16" t="s">
-        <v>161</v>
-      </c>
-      <c r="C82" s="15" t="s">
-        <v>162</v>
-      </c>
-      <c r="D82" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E82" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="F82" s="2" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A83" s="46"/>
-      <c r="B83" s="44" t="s">
-        <v>149</v>
-      </c>
-      <c r="C83" s="45" t="s">
-        <v>150</v>
-      </c>
-      <c r="D83" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E83" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="F83" s="2" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A84" s="46"/>
-      <c r="B84" s="44"/>
-      <c r="C84" s="45"/>
-      <c r="D84" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E84" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="F84" s="2" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A85" s="47" t="s">
-        <v>65</v>
-      </c>
-      <c r="B85" s="47"/>
-      <c r="C85" s="47"/>
-      <c r="D85" s="47"/>
-      <c r="E85" s="47"/>
-      <c r="F85" s="47"/>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A86" s="2"/>
-      <c r="B86" s="44" t="s">
-        <v>66</v>
-      </c>
-      <c r="C86" s="45" t="s">
-        <v>63</v>
-      </c>
-      <c r="D86" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E86" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="F86" s="2" t="s">
-        <v>69</v>
-      </c>
+      <c r="A86" s="52" t="s">
+        <v>64</v>
+      </c>
+      <c r="B86" s="52"/>
+      <c r="C86" s="52"/>
+      <c r="D86" s="52"/>
+      <c r="E86" s="52"/>
+      <c r="F86" s="52"/>
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A87" s="2"/>
-      <c r="B87" s="44"/>
-      <c r="C87" s="45"/>
+      <c r="B87" s="50" t="s">
+        <v>65</v>
+      </c>
+      <c r="C87" s="40" t="s">
+        <v>62</v>
+      </c>
       <c r="D87" s="2" t="s">
         <v>18</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>4</v>
+        <v>18</v>
       </c>
       <c r="F87" s="2" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A88" s="2"/>
-      <c r="B88" s="44" t="s">
-        <v>67</v>
-      </c>
-      <c r="C88" s="45" t="s">
-        <v>68</v>
-      </c>
+      <c r="B88" s="50"/>
+      <c r="C88" s="40"/>
       <c r="D88" s="2" t="s">
         <v>18</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="F88" s="2" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A89" s="2"/>
-      <c r="B89" s="44"/>
-      <c r="C89" s="45"/>
+      <c r="B89" s="50" t="s">
+        <v>66</v>
+      </c>
+      <c r="C89" s="40" t="s">
+        <v>67</v>
+      </c>
       <c r="D89" s="2" t="s">
         <v>18</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>4</v>
+        <v>18</v>
       </c>
       <c r="F89" s="2" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A90" s="2"/>
-      <c r="B90" s="14" t="s">
-        <v>81</v>
-      </c>
-      <c r="C90" s="15" t="s">
-        <v>82</v>
-      </c>
+      <c r="B90" s="50"/>
+      <c r="C90" s="40"/>
       <c r="D90" s="2" t="s">
         <v>18</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>79</v>
+        <v>4</v>
       </c>
       <c r="F90" s="2" t="s">
-        <v>83</v>
+        <v>63</v>
       </c>
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A91" s="2"/>
       <c r="B91" s="14" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="C91" s="15" t="s">
+        <v>81</v>
+      </c>
+      <c r="D91" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E91" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="D91" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E91" s="2" t="s">
-        <v>79</v>
-      </c>
       <c r="F91" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A92" s="2"/>
-      <c r="B92" s="44" t="s">
-        <v>85</v>
-      </c>
-      <c r="C92" s="45" t="s">
-        <v>84</v>
+      <c r="B92" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="C92" s="15" t="s">
+        <v>77</v>
       </c>
       <c r="D92" s="2" t="s">
         <v>18</v>
       </c>
       <c r="E92" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="F92" s="2" t="s">
         <v>79</v>
-      </c>
-      <c r="F92" s="2" t="s">
-        <v>83</v>
       </c>
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A93" s="2"/>
-      <c r="B93" s="44"/>
-      <c r="C93" s="45"/>
+      <c r="B93" s="50" t="s">
+        <v>84</v>
+      </c>
+      <c r="C93" s="40" t="s">
+        <v>83</v>
+      </c>
       <c r="D93" s="2" t="s">
         <v>18</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="F93" s="2" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A94" s="2"/>
-      <c r="B94" s="44" t="s">
-        <v>88</v>
-      </c>
-      <c r="C94" s="45" t="s">
-        <v>89</v>
-      </c>
+      <c r="B94" s="50"/>
+      <c r="C94" s="40"/>
       <c r="D94" s="2" t="s">
         <v>18</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="F94" s="2" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A95" s="2"/>
-      <c r="B95" s="44"/>
-      <c r="C95" s="45"/>
+      <c r="B95" s="50" t="s">
+        <v>87</v>
+      </c>
+      <c r="C95" s="40" t="s">
+        <v>88</v>
+      </c>
       <c r="D95" s="2" t="s">
         <v>18</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="F95" s="2" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A96" s="2"/>
-      <c r="B96" s="14"/>
-      <c r="C96" s="15"/>
-      <c r="D96" s="2"/>
-      <c r="E96" s="2"/>
-      <c r="F96" s="2"/>
+      <c r="B96" s="50"/>
+      <c r="C96" s="40"/>
+      <c r="D96" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E96" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="F96" s="2" t="s">
+        <v>86</v>
+      </c>
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A97" s="47" t="s">
-        <v>90</v>
-      </c>
-      <c r="B97" s="47"/>
-      <c r="C97" s="47"/>
-      <c r="D97" s="47"/>
-      <c r="E97" s="47"/>
-      <c r="F97" s="47"/>
+      <c r="A97" s="2"/>
+      <c r="B97" s="14"/>
+      <c r="C97" s="15"/>
+      <c r="D97" s="2"/>
+      <c r="E97" s="2"/>
+      <c r="F97" s="2"/>
     </row>
     <row r="98" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A98" s="2"/>
-      <c r="B98" s="5" t="s">
-        <v>92</v>
-      </c>
-      <c r="C98" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="D98" s="4" t="s">
-        <v>93</v>
-      </c>
-      <c r="E98" s="4" t="s">
-        <v>93</v>
-      </c>
-      <c r="F98" s="4"/>
+      <c r="A98" s="52" t="s">
+        <v>89</v>
+      </c>
+      <c r="B98" s="52"/>
+      <c r="C98" s="52"/>
+      <c r="D98" s="52"/>
+      <c r="E98" s="52"/>
+      <c r="F98" s="52"/>
     </row>
     <row r="99" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A99" s="2"/>
       <c r="B99" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="C99" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="D99" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="E99" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="F99" s="4"/>
+    </row>
+    <row r="100" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A100" s="2"/>
+      <c r="B100" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="C100" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="D100" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="E100" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="F100" s="12" t="s">
         <v>95</v>
       </c>
-      <c r="C99" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="D99" s="4" t="s">
-        <v>93</v>
-      </c>
-      <c r="E99" s="4" t="s">
-        <v>93</v>
-      </c>
-      <c r="F99" s="12" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A100" s="47" t="s">
+    </row>
+    <row r="101" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A101" s="52" t="s">
         <v>31</v>
       </c>
-      <c r="B100" s="47"/>
-      <c r="C100" s="47"/>
-      <c r="D100" s="47"/>
-      <c r="E100" s="47"/>
-      <c r="F100" s="47"/>
-    </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A101" s="2"/>
-      <c r="B101" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="C101" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="D101" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="E101" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="F101" s="2" t="s">
-        <v>74</v>
-      </c>
+      <c r="B101" s="52"/>
+      <c r="C101" s="52"/>
+      <c r="D101" s="52"/>
+      <c r="E101" s="52"/>
+      <c r="F101" s="52"/>
     </row>
     <row r="102" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A102" s="2"/>
       <c r="B102" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="C102" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="D102" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="E102" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="F102" s="2" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A103" s="2"/>
+      <c r="B103" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="C103" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="C102" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="D102" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="E102" s="2"/>
-      <c r="F102" s="2"/>
-    </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A103" s="47" t="s">
+      <c r="D103" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="E103" s="2"/>
+      <c r="F103" s="2"/>
+    </row>
+    <row r="104" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A104" s="10"/>
+      <c r="B104" s="2" t="s">
+        <v>252</v>
+      </c>
+      <c r="C104" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="D104" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E104" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F104" s="2" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="105" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A105" s="52" t="s">
         <v>32</v>
       </c>
-      <c r="B103" s="47"/>
-      <c r="C103" s="47"/>
-      <c r="D103" s="47"/>
-      <c r="E103" s="47"/>
-      <c r="F103" s="47"/>
-    </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A104" s="2"/>
-      <c r="B104" s="2"/>
-      <c r="C104" s="2"/>
-      <c r="D104" s="2"/>
-      <c r="E104" s="2"/>
-      <c r="F104" s="2"/>
-    </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A105" s="47" t="s">
-        <v>33</v>
-      </c>
-      <c r="B105" s="47"/>
-      <c r="C105" s="47"/>
-      <c r="D105" s="47"/>
-      <c r="E105" s="47"/>
-      <c r="F105" s="47"/>
+      <c r="B105" s="52"/>
+      <c r="C105" s="52"/>
+      <c r="D105" s="52"/>
+      <c r="E105" s="52"/>
+      <c r="F105" s="52"/>
     </row>
     <row r="106" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A106" s="2"/>
-      <c r="B106" s="44" t="s">
-        <v>111</v>
-      </c>
-      <c r="C106" s="45" t="s">
-        <v>112</v>
-      </c>
-      <c r="D106" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="E106" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="F106" s="2" t="s">
-        <v>113</v>
-      </c>
+      <c r="B106" s="2"/>
+      <c r="C106" s="2"/>
+      <c r="D106" s="2"/>
+      <c r="E106" s="2"/>
+      <c r="F106" s="2"/>
     </row>
     <row r="107" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A107" s="2"/>
-      <c r="B107" s="44"/>
-      <c r="C107" s="44"/>
-      <c r="D107" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="E107" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="F107" s="2" t="s">
-        <v>114</v>
-      </c>
+      <c r="A107" s="52" t="s">
+        <v>33</v>
+      </c>
+      <c r="B107" s="52"/>
+      <c r="C107" s="52"/>
+      <c r="D107" s="52"/>
+      <c r="E107" s="52"/>
+      <c r="F107" s="52"/>
     </row>
     <row r="108" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A108" s="2"/>
-      <c r="B108" s="2" t="s">
+      <c r="B108" s="50" t="s">
+        <v>110</v>
+      </c>
+      <c r="C108" s="40" t="s">
+        <v>111</v>
+      </c>
+      <c r="D108" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="C108" s="15" t="s">
-        <v>115</v>
-      </c>
-      <c r="D108" s="2" t="s">
-        <v>18</v>
-      </c>
       <c r="E108" s="2" t="s">
-        <v>41</v>
+        <v>116</v>
       </c>
       <c r="F108" s="2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="109" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A109" s="2"/>
-      <c r="B109" s="44" t="s">
-        <v>118</v>
-      </c>
-      <c r="C109" s="45" t="s">
-        <v>119</v>
-      </c>
+      <c r="B109" s="50"/>
+      <c r="C109" s="50"/>
       <c r="D109" s="2" t="s">
-        <v>52</v>
+        <v>116</v>
       </c>
       <c r="E109" s="2" t="s">
-        <v>41</v>
+        <v>4</v>
       </c>
       <c r="F109" s="2" t="s">
-        <v>120</v>
+        <v>113</v>
       </c>
     </row>
     <row r="110" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A110" s="2"/>
-      <c r="B110" s="44"/>
-      <c r="C110" s="45"/>
+      <c r="B110" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="C110" s="15" t="s">
+        <v>114</v>
+      </c>
       <c r="D110" s="2" t="s">
         <v>18</v>
       </c>
       <c r="E110" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="F110" s="13" t="s">
-        <v>121</v>
+        <v>40</v>
+      </c>
+      <c r="F110" s="2" t="s">
+        <v>112</v>
       </c>
     </row>
     <row r="111" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A111" s="47" t="s">
-        <v>34</v>
-      </c>
-      <c r="B111" s="47"/>
-      <c r="C111" s="47"/>
-      <c r="D111" s="47"/>
-      <c r="E111" s="47"/>
-      <c r="F111" s="47"/>
+      <c r="A111" s="2"/>
+      <c r="B111" s="50" t="s">
+        <v>117</v>
+      </c>
+      <c r="C111" s="40" t="s">
+        <v>118</v>
+      </c>
+      <c r="D111" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="E111" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="F111" s="2" t="s">
+        <v>119</v>
+      </c>
     </row>
     <row r="112" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A112" s="2"/>
-      <c r="B112" s="2"/>
-      <c r="C112" s="2"/>
-      <c r="D112" s="2"/>
-      <c r="E112" s="2"/>
-      <c r="F112" s="2"/>
-    </row>
-    <row r="114" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F114" s="34" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="115" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F115" s="34" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="116" spans="6:6" x14ac:dyDescent="0.35">
+      <c r="B112" s="50"/>
+      <c r="C112" s="40"/>
+      <c r="D112" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E112" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="F112" s="13" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="113" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A113" s="52" t="s">
+        <v>34</v>
+      </c>
+      <c r="B113" s="52"/>
+      <c r="C113" s="52"/>
+      <c r="D113" s="52"/>
+      <c r="E113" s="52"/>
+      <c r="F113" s="52"/>
+    </row>
+    <row r="114" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A114" s="2"/>
+      <c r="B114" s="2"/>
+      <c r="C114" s="2"/>
+      <c r="D114" s="2"/>
+      <c r="E114" s="2"/>
+      <c r="F114" s="2"/>
+    </row>
+    <row r="116" spans="1:6" x14ac:dyDescent="0.35">
       <c r="F116" s="34" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="117" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="F117" s="34" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="118" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="F118" s="34" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="119" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="F119" s="36" t="s">
         <v>227</v>
       </c>
     </row>
-    <row r="117" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F117" s="36" t="s">
-        <v>228</v>
-      </c>
-    </row>
   </sheetData>
-  <mergeCells count="54">
-    <mergeCell ref="B79:B80"/>
-    <mergeCell ref="C79:C80"/>
-    <mergeCell ref="A75:A76"/>
-    <mergeCell ref="B75:B76"/>
-    <mergeCell ref="C75:C76"/>
-    <mergeCell ref="A77:A78"/>
-    <mergeCell ref="C77:C78"/>
-    <mergeCell ref="B77:B78"/>
-    <mergeCell ref="A111:F111"/>
-    <mergeCell ref="A62:F62"/>
-    <mergeCell ref="A64:F64"/>
-    <mergeCell ref="A85:F85"/>
-    <mergeCell ref="A97:F97"/>
-    <mergeCell ref="B86:B87"/>
-    <mergeCell ref="C86:C87"/>
-    <mergeCell ref="B88:B89"/>
-    <mergeCell ref="C88:C89"/>
-    <mergeCell ref="B92:B93"/>
-    <mergeCell ref="C92:C93"/>
-    <mergeCell ref="B106:B107"/>
-    <mergeCell ref="C106:C107"/>
-    <mergeCell ref="A67:A68"/>
-    <mergeCell ref="B67:B68"/>
-    <mergeCell ref="B73:B74"/>
-    <mergeCell ref="A40:A43"/>
-    <mergeCell ref="B40:B43"/>
-    <mergeCell ref="C40:C43"/>
-    <mergeCell ref="C67:C68"/>
-    <mergeCell ref="A58:F58"/>
-    <mergeCell ref="B51:B57"/>
-    <mergeCell ref="B34:B35"/>
-    <mergeCell ref="C34:C35"/>
+  <mergeCells count="56">
+    <mergeCell ref="B80:B81"/>
+    <mergeCell ref="C80:C81"/>
+    <mergeCell ref="A76:A77"/>
+    <mergeCell ref="B76:B77"/>
+    <mergeCell ref="C76:C77"/>
+    <mergeCell ref="A78:A79"/>
+    <mergeCell ref="C78:C79"/>
+    <mergeCell ref="B78:B79"/>
+    <mergeCell ref="A113:F113"/>
+    <mergeCell ref="A63:F63"/>
+    <mergeCell ref="A65:F65"/>
+    <mergeCell ref="A86:F86"/>
+    <mergeCell ref="A98:F98"/>
+    <mergeCell ref="B87:B88"/>
+    <mergeCell ref="C87:C88"/>
+    <mergeCell ref="B89:B90"/>
+    <mergeCell ref="C89:C90"/>
+    <mergeCell ref="B93:B94"/>
+    <mergeCell ref="C93:C94"/>
+    <mergeCell ref="B108:B109"/>
+    <mergeCell ref="C108:C109"/>
+    <mergeCell ref="A68:A69"/>
+    <mergeCell ref="B68:B69"/>
+    <mergeCell ref="B74:B75"/>
     <mergeCell ref="A2:F2"/>
-    <mergeCell ref="A10:F10"/>
-    <mergeCell ref="A18:F18"/>
-    <mergeCell ref="A28:F28"/>
-    <mergeCell ref="A34:A35"/>
-    <mergeCell ref="A30:F30"/>
-    <mergeCell ref="A51:A57"/>
-    <mergeCell ref="C51:C57"/>
-    <mergeCell ref="B109:B110"/>
-    <mergeCell ref="C109:C110"/>
-    <mergeCell ref="C94:C95"/>
-    <mergeCell ref="B94:B95"/>
-    <mergeCell ref="A83:A84"/>
-    <mergeCell ref="B83:B84"/>
-    <mergeCell ref="C83:C84"/>
-    <mergeCell ref="A103:F103"/>
+    <mergeCell ref="A11:F11"/>
+    <mergeCell ref="A19:F19"/>
+    <mergeCell ref="A29:F29"/>
+    <mergeCell ref="A35:A36"/>
+    <mergeCell ref="A31:F31"/>
+    <mergeCell ref="B111:B112"/>
+    <mergeCell ref="C111:C112"/>
+    <mergeCell ref="C95:C96"/>
+    <mergeCell ref="B95:B96"/>
+    <mergeCell ref="A84:A85"/>
+    <mergeCell ref="B84:B85"/>
+    <mergeCell ref="C84:C85"/>
     <mergeCell ref="A105:F105"/>
-    <mergeCell ref="A100:F100"/>
-    <mergeCell ref="A73:A74"/>
-    <mergeCell ref="C73:C74"/>
-    <mergeCell ref="A60:F60"/>
-    <mergeCell ref="A79:A80"/>
+    <mergeCell ref="A107:F107"/>
+    <mergeCell ref="A101:F101"/>
+    <mergeCell ref="A74:A75"/>
+    <mergeCell ref="C74:C75"/>
+    <mergeCell ref="A61:F61"/>
+    <mergeCell ref="A80:A81"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="B35:B36"/>
+    <mergeCell ref="C35:C36"/>
+    <mergeCell ref="A41:A44"/>
+    <mergeCell ref="B41:B44"/>
+    <mergeCell ref="C41:C44"/>
+    <mergeCell ref="C68:C69"/>
+    <mergeCell ref="A59:F59"/>
+    <mergeCell ref="B52:B58"/>
+    <mergeCell ref="A52:A58"/>
+    <mergeCell ref="C52:C58"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="C3" r:id="rId1" xr:uid="{3FB3FA06-DE47-4C2D-AFD7-F5FC45E3D126}"/>
     <hyperlink ref="C4" r:id="rId2" xr:uid="{C4A51F70-7D5B-496B-8FD0-AB7121D9FCE1}"/>
-    <hyperlink ref="C11" r:id="rId3" xr:uid="{678D7AA2-36D2-4A02-971F-3FB9391E8E35}"/>
-    <hyperlink ref="C19" r:id="rId4" xr:uid="{2AC6AF52-CC30-4063-833D-09178907C109}"/>
-    <hyperlink ref="C48" r:id="rId5" xr:uid="{6352E065-8925-49FF-AA82-66ED2F9F8651}"/>
-    <hyperlink ref="C20" r:id="rId6" xr:uid="{047C68C0-B7AB-4E77-9D1E-B162BD11A209}"/>
-    <hyperlink ref="C21" r:id="rId7" xr:uid="{1ABD0EDA-F48F-4D2F-B13C-180B398F1FCD}"/>
-    <hyperlink ref="C86" r:id="rId8" xr:uid="{35D2A43C-BF1B-4339-9217-7116005F7034}"/>
-    <hyperlink ref="C88" r:id="rId9" xr:uid="{233456E2-1B15-4448-A669-82C381357683}"/>
-    <hyperlink ref="C101" r:id="rId10" xr:uid="{4A724644-7F2B-4DE6-9141-A1802140FB4A}"/>
-    <hyperlink ref="C98" r:id="rId11" xr:uid="{914A5C5A-20B3-4526-A460-020F9852AFDB}"/>
-    <hyperlink ref="C99" r:id="rId12" xr:uid="{0B2D15B8-18BF-46A5-991E-6E53ADC95851}"/>
-    <hyperlink ref="C31" r:id="rId13" xr:uid="{93A177B9-936F-4ED5-9F32-EB31F0D8F614}"/>
-    <hyperlink ref="C106" r:id="rId14" xr:uid="{9CD2E86C-B1BA-4CC3-9E52-ECA767380715}"/>
-    <hyperlink ref="C108" r:id="rId15" xr:uid="{30EBB8AD-10BE-47B9-BF85-DBCCCE948784}"/>
-    <hyperlink ref="F110" r:id="rId16" xr:uid="{080A2B1B-6640-47F1-9DAB-1F0914BD9938}"/>
-    <hyperlink ref="C65" r:id="rId17" xr:uid="{DD8AB0F8-5B5E-4F6E-A0B4-339B324BDAC3}"/>
-    <hyperlink ref="C7" r:id="rId18" xr:uid="{43B67C49-DC70-412F-B095-E684E07FF196}"/>
-    <hyperlink ref="C75" r:id="rId19" xr:uid="{7FDCAB78-56F5-40D3-8A09-8A8A0E54E05D}"/>
-    <hyperlink ref="F76" r:id="rId20" xr:uid="{F7F3C873-8E94-4212-B22A-52BF75A478D8}"/>
-    <hyperlink ref="C34" r:id="rId21" xr:uid="{F6C15430-DBA9-4DAD-A411-65B1524C625E}"/>
-    <hyperlink ref="G19" r:id="rId22" display="https://leetcode.com/problems/maximum-sum-circular-subarray/" xr:uid="{A4CEEEE3-5EE5-4166-9A65-51E09840E49F}"/>
-    <hyperlink ref="G20" r:id="rId23" display="https://leetcode.com/problems/maximum-product-subarray/" xr:uid="{E66937F4-342E-466B-92BD-529EAD0F1180}"/>
-    <hyperlink ref="G21" r:id="rId24" display="https://leetcode.com/problems/maximum-length-of-subarray-with-positive-product/" xr:uid="{C0B6118F-C23A-4E55-881A-F4A1DA018A1F}"/>
-    <hyperlink ref="C6" r:id="rId25" xr:uid="{D548A552-BEA3-46D9-89FD-0EDF330CCD4B}"/>
-    <hyperlink ref="C79" r:id="rId26" xr:uid="{7EAF2DCC-4594-46F5-AFC0-D19FF750F897}"/>
-    <hyperlink ref="C29" r:id="rId27" xr:uid="{2A9F780A-9E5F-449D-AA08-46C94947DE0C}"/>
-    <hyperlink ref="G29" r:id="rId28" display="https://leetcode.com/problems/merge-intervals" xr:uid="{24D594E5-8804-48F8-84BD-C5D018E5A447}"/>
-    <hyperlink ref="G30" r:id="rId29" display="https://leetcode.com/problems/non-overlapping-intervals" xr:uid="{FBB3A625-8231-42DD-B49C-D9DFE3555251}"/>
-    <hyperlink ref="G31" r:id="rId30" display="https://leetcode.com/problems/meeting-rooms/" xr:uid="{8849EA4F-0A54-4D57-AE19-19728A56318A}"/>
-    <hyperlink ref="G32" r:id="rId31" display="https://leetcode.com/problems/meeting-rooms-ii/" xr:uid="{DD819D71-EB3C-4BD3-BA6C-25223B20391D}"/>
+    <hyperlink ref="C12" r:id="rId3" xr:uid="{678D7AA2-36D2-4A02-971F-3FB9391E8E35}"/>
+    <hyperlink ref="C20" r:id="rId4" xr:uid="{2AC6AF52-CC30-4063-833D-09178907C109}"/>
+    <hyperlink ref="C49" r:id="rId5" xr:uid="{6352E065-8925-49FF-AA82-66ED2F9F8651}"/>
+    <hyperlink ref="C21" r:id="rId6" xr:uid="{047C68C0-B7AB-4E77-9D1E-B162BD11A209}"/>
+    <hyperlink ref="C22" r:id="rId7" xr:uid="{1ABD0EDA-F48F-4D2F-B13C-180B398F1FCD}"/>
+    <hyperlink ref="C87" r:id="rId8" xr:uid="{35D2A43C-BF1B-4339-9217-7116005F7034}"/>
+    <hyperlink ref="C89" r:id="rId9" xr:uid="{233456E2-1B15-4448-A669-82C381357683}"/>
+    <hyperlink ref="C102" r:id="rId10" xr:uid="{4A724644-7F2B-4DE6-9141-A1802140FB4A}"/>
+    <hyperlink ref="C99" r:id="rId11" xr:uid="{914A5C5A-20B3-4526-A460-020F9852AFDB}"/>
+    <hyperlink ref="C100" r:id="rId12" xr:uid="{0B2D15B8-18BF-46A5-991E-6E53ADC95851}"/>
+    <hyperlink ref="C32" r:id="rId13" xr:uid="{93A177B9-936F-4ED5-9F32-EB31F0D8F614}"/>
+    <hyperlink ref="C108" r:id="rId14" xr:uid="{9CD2E86C-B1BA-4CC3-9E52-ECA767380715}"/>
+    <hyperlink ref="C110" r:id="rId15" xr:uid="{30EBB8AD-10BE-47B9-BF85-DBCCCE948784}"/>
+    <hyperlink ref="F112" r:id="rId16" xr:uid="{080A2B1B-6640-47F1-9DAB-1F0914BD9938}"/>
+    <hyperlink ref="C66" r:id="rId17" xr:uid="{DD8AB0F8-5B5E-4F6E-A0B4-339B324BDAC3}"/>
+    <hyperlink ref="C8" r:id="rId18" xr:uid="{43B67C49-DC70-412F-B095-E684E07FF196}"/>
+    <hyperlink ref="C76" r:id="rId19" xr:uid="{7FDCAB78-56F5-40D3-8A09-8A8A0E54E05D}"/>
+    <hyperlink ref="F77" r:id="rId20" xr:uid="{F7F3C873-8E94-4212-B22A-52BF75A478D8}"/>
+    <hyperlink ref="C35" r:id="rId21" xr:uid="{F6C15430-DBA9-4DAD-A411-65B1524C625E}"/>
+    <hyperlink ref="G20" r:id="rId22" display="https://leetcode.com/problems/maximum-sum-circular-subarray/" xr:uid="{A4CEEEE3-5EE5-4166-9A65-51E09840E49F}"/>
+    <hyperlink ref="G21" r:id="rId23" display="https://leetcode.com/problems/maximum-product-subarray/" xr:uid="{E66937F4-342E-466B-92BD-529EAD0F1180}"/>
+    <hyperlink ref="G22" r:id="rId24" display="https://leetcode.com/problems/maximum-length-of-subarray-with-positive-product/" xr:uid="{C0B6118F-C23A-4E55-881A-F4A1DA018A1F}"/>
+    <hyperlink ref="C7" r:id="rId25" xr:uid="{D548A552-BEA3-46D9-89FD-0EDF330CCD4B}"/>
+    <hyperlink ref="C80" r:id="rId26" xr:uid="{7EAF2DCC-4594-46F5-AFC0-D19FF750F897}"/>
+    <hyperlink ref="C30" r:id="rId27" xr:uid="{2A9F780A-9E5F-449D-AA08-46C94947DE0C}"/>
+    <hyperlink ref="G30" r:id="rId28" display="https://leetcode.com/problems/merge-intervals" xr:uid="{24D594E5-8804-48F8-84BD-C5D018E5A447}"/>
+    <hyperlink ref="G31" r:id="rId29" display="https://leetcode.com/problems/non-overlapping-intervals" xr:uid="{FBB3A625-8231-42DD-B49C-D9DFE3555251}"/>
+    <hyperlink ref="G32" r:id="rId30" display="https://leetcode.com/problems/meeting-rooms/" xr:uid="{8849EA4F-0A54-4D57-AE19-19728A56318A}"/>
+    <hyperlink ref="G33" r:id="rId31" display="https://leetcode.com/problems/meeting-rooms-ii/" xr:uid="{DD819D71-EB3C-4BD3-BA6C-25223B20391D}"/>
+    <hyperlink ref="C17" r:id="rId32" xr:uid="{6062919D-9F53-4AD6-A2BA-CE01278187C7}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="90" verticalDpi="90" r:id="rId32"/>
+  <pageSetup orientation="portrait" horizontalDpi="90" verticalDpi="90" r:id="rId33"/>
   <headerFooter>
     <oddFooter>&amp;L12/30/2021&amp;CAXP Internal&amp;R1</oddFooter>
   </headerFooter>

--- a/SDE Sheet.xlsx
+++ b/SDE Sheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Src Code\Personal\SDE-Sheet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C16AE29-3603-4B46-9143-75F8BD040F98}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F730376-E7E8-4480-80E5-361B39963BE7}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{83934561-A72F-4836-B1E7-4EE8C35F9874}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="428" uniqueCount="255">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="433" uniqueCount="258">
   <si>
     <t>Matrix</t>
   </si>
@@ -918,6 +918,15 @@
   </si>
   <si>
     <t>BFS (Imp: How to make it O(n) instead of O(V+E)</t>
+  </si>
+  <si>
+    <t>String to Integer (atoi)</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/string-to-integer-atoi/</t>
+  </si>
+  <si>
+    <t>Corner Cases and handle overflows/underflows</t>
   </si>
 </sst>
 </file>
@@ -1236,57 +1245,66 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1302,16 +1320,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1629,11 +1638,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D3EBAEE5-B4E7-4BD5-B694-FD6EEA5E8AC0}">
-  <dimension ref="A1:G119"/>
+  <dimension ref="A1:G120"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="78" zoomScaleNormal="94" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A52" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F104" sqref="F104"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="78" zoomScaleNormal="94" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1667,14 +1676,14 @@
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A2" s="52" t="s">
+      <c r="A2" s="48" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="52"/>
-      <c r="C2" s="52"/>
-      <c r="D2" s="52"/>
-      <c r="E2" s="52"/>
-      <c r="F2" s="52"/>
+      <c r="B2" s="48"/>
+      <c r="C2" s="48"/>
+      <c r="D2" s="48"/>
+      <c r="E2" s="48"/>
+      <c r="F2" s="48"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A3" s="9"/>
@@ -1714,10 +1723,10 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A5" s="9"/>
-      <c r="B5" s="46" t="s">
+      <c r="B5" s="39" t="s">
         <v>35</v>
       </c>
-      <c r="C5" s="48" t="s">
+      <c r="C5" s="41" t="s">
         <v>36</v>
       </c>
       <c r="D5" s="2" t="s">
@@ -1732,8 +1741,8 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A6" s="9"/>
-      <c r="B6" s="47"/>
-      <c r="C6" s="49"/>
+      <c r="B6" s="40"/>
+      <c r="C6" s="42"/>
       <c r="D6" s="2" t="s">
         <v>37</v>
       </c>
@@ -1813,14 +1822,14 @@
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A11" s="52" t="s">
+      <c r="A11" s="48" t="s">
         <v>15</v>
       </c>
-      <c r="B11" s="52"/>
-      <c r="C11" s="52"/>
-      <c r="D11" s="52"/>
-      <c r="E11" s="52"/>
-      <c r="F11" s="52"/>
+      <c r="B11" s="48"/>
+      <c r="C11" s="48"/>
+      <c r="D11" s="48"/>
+      <c r="E11" s="48"/>
+      <c r="F11" s="48"/>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A12" s="9"/>
@@ -1949,46 +1958,43 @@
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A19" s="52" t="s">
+      <c r="A19" s="9"/>
+      <c r="B19" s="2" t="s">
+        <v>255</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F19" s="8" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A20" s="48" t="s">
         <v>22</v>
       </c>
-      <c r="B19" s="52"/>
-      <c r="C19" s="52"/>
-      <c r="D19" s="52"/>
-      <c r="E19" s="52"/>
-      <c r="F19" s="52"/>
-      <c r="G19" s="34" t="s">
+      <c r="B20" s="48"/>
+      <c r="C20" s="48"/>
+      <c r="D20" s="48"/>
+      <c r="E20" s="48"/>
+      <c r="F20" s="48"/>
+      <c r="G20" s="34" t="s">
         <v>211</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A20" s="11"/>
-      <c r="B20" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="D20" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E20" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="F20" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="G20" s="35" t="s">
-        <v>208</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A21" s="11"/>
       <c r="B21" s="2" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="D21" s="2" t="s">
         <v>18</v>
@@ -2000,115 +2006,118 @@
         <v>27</v>
       </c>
       <c r="G21" s="35" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A22" s="11"/>
+      <c r="B22" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F22" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="G22" s="35" t="s">
         <v>209</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A22" s="2"/>
-      <c r="B22" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="C22" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="D22" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E22" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="F22" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="G22" s="35" t="s">
-        <v>210</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A23" s="2"/>
       <c r="B23" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F23" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="G23" s="35" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A24" s="2"/>
+      <c r="B24" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="C23" s="1" t="s">
+      <c r="C24" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="D23" s="2" t="s">
+      <c r="D24" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="E23" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="F23" s="2" t="s">
+      <c r="E24" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F24" s="2" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A24" s="31"/>
-      <c r="B24" s="2" t="s">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A25" s="31"/>
+      <c r="B25" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="C24" s="1" t="s">
+      <c r="C25" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="D24" s="2" t="s">
+      <c r="D25" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E24" s="2" t="s">
+      <c r="E25" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="F24" s="2" t="s">
+      <c r="F25" s="2" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="25" spans="1:7" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A25" s="30"/>
-      <c r="B25" s="2" t="s">
+    <row r="26" spans="1:7" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A26" s="30"/>
+      <c r="B26" s="2" t="s">
         <v>126</v>
       </c>
-      <c r="C25" s="1" t="s">
+      <c r="C26" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="D25" s="2" t="s">
+      <c r="D26" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="E25" s="2" t="s">
+      <c r="E26" s="2" t="s">
         <v>14</v>
-      </c>
-      <c r="F25" s="2" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A26" s="32"/>
-      <c r="B26" s="2" t="s">
-        <v>204</v>
-      </c>
-      <c r="C26" s="1" t="s">
-        <v>203</v>
-      </c>
-      <c r="D26" s="33" t="s">
-        <v>206</v>
-      </c>
-      <c r="E26" s="2" t="s">
-        <v>207</v>
       </c>
       <c r="F26" s="2" t="s">
         <v>205</v>
       </c>
     </row>
     <row r="27" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A27" s="30"/>
+      <c r="A27" s="32"/>
       <c r="B27" s="2" t="s">
-        <v>222</v>
+        <v>204</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>224</v>
-      </c>
-      <c r="D27" s="2" t="s">
-        <v>128</v>
+        <v>203</v>
+      </c>
+      <c r="D27" s="33" t="s">
+        <v>206</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>14</v>
+        <v>207</v>
       </c>
       <c r="F27" s="2" t="s">
         <v>205</v>
@@ -2117,10 +2126,10 @@
     <row r="28" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A28" s="30"/>
       <c r="B28" s="2" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="D28" s="2" t="s">
         <v>128</v>
@@ -2132,99 +2141,96 @@
         <v>205</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A29" s="53" t="s">
+    <row r="29" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A29" s="30"/>
+      <c r="B29" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="E29" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F29" s="2" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A30" s="51" t="s">
         <v>241</v>
       </c>
-      <c r="B29" s="54"/>
-      <c r="C29" s="54"/>
-      <c r="D29" s="54"/>
-      <c r="E29" s="54"/>
-      <c r="F29" s="55"/>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A30" s="9"/>
-      <c r="B30" s="2" t="s">
+      <c r="B30" s="52"/>
+      <c r="C30" s="52"/>
+      <c r="D30" s="52"/>
+      <c r="E30" s="52"/>
+      <c r="F30" s="53"/>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A31" s="9"/>
+      <c r="B31" s="2" t="s">
         <v>242</v>
       </c>
-      <c r="C30" s="1" t="s">
+      <c r="C31" s="1" t="s">
         <v>243</v>
       </c>
-      <c r="D30" s="2" t="s">
+      <c r="D31" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="E30" s="2" t="s">
+      <c r="E31" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="F30" s="2" t="s">
+      <c r="F31" s="2" t="s">
         <v>248</v>
       </c>
-      <c r="G30" s="38" t="s">
+      <c r="G31" s="38" t="s">
         <v>244</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A31" s="41" t="s">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A32" s="54" t="s">
         <v>96</v>
       </c>
-      <c r="B31" s="42"/>
-      <c r="C31" s="42"/>
-      <c r="D31" s="42"/>
-      <c r="E31" s="42"/>
-      <c r="F31" s="43"/>
-      <c r="G31" s="38" t="s">
+      <c r="B32" s="55"/>
+      <c r="C32" s="55"/>
+      <c r="D32" s="55"/>
+      <c r="E32" s="55"/>
+      <c r="F32" s="56"/>
+      <c r="G32" s="38" t="s">
         <v>245</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A32" s="9"/>
-      <c r="B32" s="2" t="s">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A33" s="9"/>
+      <c r="B33" s="2" t="s">
         <v>124</v>
       </c>
-      <c r="C32" s="1" t="s">
+      <c r="C33" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="D32" s="2" t="s">
+      <c r="D33" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="E32" s="2" t="s">
+      <c r="E33" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="F32" s="2" t="s">
+      <c r="F33" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="G32" s="38" t="s">
+      <c r="G33" s="38" t="s">
         <v>246</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A33" s="26"/>
-      <c r="B33" s="2" t="s">
-        <v>177</v>
-      </c>
-      <c r="C33" s="1" t="s">
-        <v>178</v>
-      </c>
-      <c r="D33" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E33" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="F33" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="G33" s="38" t="s">
-        <v>247</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A34" s="26"/>
       <c r="B34" s="2" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="D34" s="2" t="s">
         <v>18</v>
@@ -2235,460 +2241,463 @@
       <c r="F34" s="2" t="s">
         <v>13</v>
       </c>
+      <c r="G34" s="38" t="s">
+        <v>247</v>
+      </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A35" s="44"/>
-      <c r="B35" s="50" t="s">
+      <c r="A35" s="26"/>
+      <c r="B35" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="D35" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E35" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F35" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A36" s="43"/>
+      <c r="B36" s="45" t="s">
         <v>105</v>
       </c>
-      <c r="C35" s="40" t="s">
+      <c r="C36" s="49" t="s">
         <v>106</v>
       </c>
-      <c r="D35" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E35" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="F35" s="2" t="s">
+      <c r="D36" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E36" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F36" s="2" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A36" s="45"/>
-      <c r="B36" s="50"/>
-      <c r="C36" s="40"/>
-      <c r="D36" s="2" t="s">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A37" s="44"/>
+      <c r="B37" s="45"/>
+      <c r="C37" s="49"/>
+      <c r="D37" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="E36" s="2" t="s">
+      <c r="E37" s="2" t="s">
         <v>99</v>
-      </c>
-      <c r="F36" s="2" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A37" s="9"/>
-      <c r="B37" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="C37" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="D37" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E37" s="2" t="s">
-        <v>103</v>
       </c>
       <c r="F37" s="2" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A38" s="2"/>
-      <c r="B38" s="2"/>
+    <row r="38" spans="1:7" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A38" s="9"/>
+      <c r="B38" s="2" t="s">
+        <v>101</v>
+      </c>
       <c r="C38" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="D38" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E38" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="F38" s="2" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A39" s="2"/>
+      <c r="B39" s="2"/>
+      <c r="C39" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="D38" s="2"/>
-      <c r="E38" s="2"/>
-      <c r="F38" s="29" t="s">
+      <c r="D39" s="2"/>
+      <c r="E39" s="2"/>
+      <c r="F39" s="29" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="39" spans="1:7" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A39" s="9"/>
-      <c r="B39" s="2" t="s">
+    <row r="40" spans="1:7" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A40" s="9"/>
+      <c r="B40" s="2" t="s">
         <v>181</v>
-      </c>
-      <c r="C39" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="D39" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="E39" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="F39" s="2" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A40" s="10"/>
-      <c r="B40" s="2" t="s">
-        <v>195</v>
       </c>
       <c r="C40" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="D40" s="2"/>
-      <c r="E40" s="2"/>
-      <c r="F40" s="29" t="s">
+      <c r="D40" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="E40" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="F40" s="2" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A41" s="10"/>
+      <c r="B41" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="D41" s="2"/>
+      <c r="E41" s="2"/>
+      <c r="F41" s="29" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="41" spans="1:7" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A41" s="56"/>
-      <c r="B41" s="46" t="s">
+    <row r="42" spans="1:7" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A42" s="59"/>
+      <c r="B42" s="39" t="s">
         <v>182</v>
       </c>
-      <c r="C41" s="48" t="s">
+      <c r="C42" s="41" t="s">
         <v>183</v>
       </c>
-      <c r="D41" s="2" t="s">
+      <c r="D42" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="E41" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="F41" s="2" t="s">
+      <c r="E42" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F42" s="2" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A42" s="57"/>
-      <c r="B42" s="59"/>
-      <c r="C42" s="60"/>
-      <c r="D42" s="2" t="s">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A43" s="60"/>
+      <c r="B43" s="62"/>
+      <c r="C43" s="63"/>
+      <c r="D43" s="2" t="s">
         <v>185</v>
       </c>
-      <c r="E42" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="F42" s="2" t="s">
+      <c r="E43" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F43" s="2" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A43" s="57"/>
-      <c r="B43" s="59"/>
-      <c r="C43" s="60"/>
-      <c r="D43" s="2" t="s">
-        <v>186</v>
-      </c>
-      <c r="E43" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="F43" s="2" t="s">
-        <v>28</v>
-      </c>
-    </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A44" s="58"/>
-      <c r="B44" s="47"/>
-      <c r="C44" s="49"/>
+      <c r="A44" s="60"/>
+      <c r="B44" s="62"/>
+      <c r="C44" s="63"/>
       <c r="D44" s="2" t="s">
         <v>186</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>4</v>
+        <v>18</v>
       </c>
       <c r="F44" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A45" s="61"/>
+      <c r="B45" s="40"/>
+      <c r="C45" s="42"/>
+      <c r="D45" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="E45" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F45" s="2" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A45" s="23"/>
-      <c r="B45" s="2" t="s">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A46" s="23"/>
+      <c r="B46" s="2" t="s">
         <v>187</v>
       </c>
-      <c r="C45" s="24" t="s">
+      <c r="C46" s="24" t="s">
         <v>188</v>
       </c>
-      <c r="D45" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E45" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="F45" s="2" t="s">
+      <c r="D46" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E46" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F46" s="2" t="s">
         <v>107</v>
-      </c>
-    </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A46" s="28"/>
-      <c r="B46" s="2" t="s">
-        <v>197</v>
-      </c>
-      <c r="C46" s="27" t="s">
-        <v>198</v>
-      </c>
-      <c r="D46" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E46" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="F46" s="2" t="s">
-        <v>199</v>
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A47" s="28"/>
       <c r="B47" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="C47" s="27" t="s">
+        <v>198</v>
+      </c>
+      <c r="D47" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E47" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F47" s="2" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A48" s="28"/>
+      <c r="B48" s="2" t="s">
         <v>200</v>
       </c>
-      <c r="C47" s="27" t="s">
+      <c r="C48" s="27" t="s">
         <v>201</v>
       </c>
-      <c r="D47" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E47" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="F47" s="2" t="s">
+      <c r="D48" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E48" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F48" s="2" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A48" s="25"/>
-      <c r="B48" s="2" t="s">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A49" s="25"/>
+      <c r="B49" s="2" t="s">
         <v>189</v>
       </c>
-      <c r="C48" s="24" t="s">
+      <c r="C49" s="24" t="s">
         <v>190</v>
       </c>
-      <c r="D48" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E48" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="F48" s="2" t="s">
+      <c r="D49" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E49" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F49" s="2" t="s">
         <v>107</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A49" s="9"/>
-      <c r="B49" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C49" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="D49" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E49" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="F49" s="2" t="s">
-        <v>104</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A50" s="9"/>
       <c r="B50" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D50" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E50" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F50" s="2" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A51" s="9"/>
+      <c r="B51" s="2" t="s">
         <v>214</v>
       </c>
-      <c r="C50" s="1" t="s">
+      <c r="C51" s="1" t="s">
         <v>215</v>
       </c>
-      <c r="D50" s="2" t="s">
+      <c r="D51" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="E50" s="2" t="s">
+      <c r="E51" s="2" t="s">
         <v>103</v>
-      </c>
-      <c r="F50" s="2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A51" s="11"/>
-      <c r="B51" s="2" t="s">
-        <v>216</v>
-      </c>
-      <c r="C51" s="1" t="s">
-        <v>217</v>
-      </c>
-      <c r="D51" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="E51" s="2" t="s">
-        <v>4</v>
       </c>
       <c r="F51" s="2" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A52" s="61"/>
-      <c r="B52" s="46" t="s">
+      <c r="A52" s="11"/>
+      <c r="B52" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="C52" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="D52" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="E52" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F52" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A53" s="46"/>
+      <c r="B53" s="39" t="s">
         <v>235</v>
       </c>
-      <c r="C52" s="48" t="s">
+      <c r="C53" s="41" t="s">
         <v>234</v>
       </c>
-      <c r="D52" s="2" t="s">
+      <c r="D53" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="E52" s="2" t="s">
+      <c r="E53" s="2" t="s">
         <v>237</v>
       </c>
-      <c r="F52" s="2" t="s">
+      <c r="F53" s="2" t="s">
         <v>236</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A53" s="62"/>
-      <c r="B53" s="59"/>
-      <c r="C53" s="60"/>
-      <c r="D53" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E53" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="F53" s="2" t="s">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A54" s="64"/>
+      <c r="B54" s="62"/>
+      <c r="C54" s="63"/>
+      <c r="D54" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E54" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F54" s="2" t="s">
         <v>238</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A54" s="62"/>
-      <c r="B54" s="59"/>
-      <c r="C54" s="60"/>
-      <c r="D54" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E54" s="2" t="s">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A55" s="64"/>
+      <c r="B55" s="62"/>
+      <c r="C55" s="63"/>
+      <c r="D55" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E55" s="2" t="s">
         <v>240</v>
       </c>
-      <c r="F54" s="37" t="s">
+      <c r="F55" s="37" t="s">
         <v>239</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A55" s="62"/>
-      <c r="B55" s="59"/>
-      <c r="C55" s="60"/>
-      <c r="D55" s="2"/>
-      <c r="E55" s="2"/>
-      <c r="F55" s="2"/>
-    </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A56" s="62"/>
-      <c r="B56" s="59"/>
-      <c r="C56" s="60"/>
+      <c r="A56" s="64"/>
+      <c r="B56" s="62"/>
+      <c r="C56" s="63"/>
       <c r="D56" s="2"/>
       <c r="E56" s="2"/>
       <c r="F56" s="2"/>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A57" s="62"/>
-      <c r="B57" s="59"/>
-      <c r="C57" s="60"/>
+      <c r="A57" s="64"/>
+      <c r="B57" s="62"/>
+      <c r="C57" s="63"/>
       <c r="D57" s="2"/>
       <c r="E57" s="2"/>
       <c r="F57" s="2"/>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A58" s="63"/>
-      <c r="B58" s="47"/>
-      <c r="C58" s="49"/>
+      <c r="A58" s="64"/>
+      <c r="B58" s="62"/>
+      <c r="C58" s="63"/>
       <c r="D58" s="2"/>
       <c r="E58" s="2"/>
       <c r="F58" s="2"/>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A59" s="52" t="s">
+      <c r="A59" s="47"/>
+      <c r="B59" s="40"/>
+      <c r="C59" s="42"/>
+      <c r="D59" s="2"/>
+      <c r="E59" s="2"/>
+      <c r="F59" s="2"/>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A60" s="48" t="s">
         <v>191</v>
       </c>
-      <c r="B59" s="52"/>
-      <c r="C59" s="52"/>
-      <c r="D59" s="52"/>
-      <c r="E59" s="52"/>
-      <c r="F59" s="52"/>
-    </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A60" s="9"/>
-      <c r="B60" s="2" t="s">
+      <c r="B60" s="48"/>
+      <c r="C60" s="48"/>
+      <c r="D60" s="48"/>
+      <c r="E60" s="48"/>
+      <c r="F60" s="48"/>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A61" s="9"/>
+      <c r="B61" s="2" t="s">
         <v>192</v>
       </c>
-      <c r="C60" s="2" t="s">
+      <c r="C61" s="2" t="s">
         <v>193</v>
       </c>
-      <c r="D60" s="2"/>
-      <c r="E60" s="2"/>
-      <c r="F60" s="2" t="s">
+      <c r="D61" s="2"/>
+      <c r="E61" s="2"/>
+      <c r="F61" s="2" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A61" s="41" t="s">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A62" s="54" t="s">
         <v>28</v>
       </c>
-      <c r="B61" s="42"/>
-      <c r="C61" s="42"/>
-      <c r="D61" s="42"/>
-      <c r="E61" s="42"/>
-      <c r="F61" s="43"/>
-    </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A62" s="2"/>
-      <c r="B62" s="2"/>
-      <c r="C62" s="2"/>
-      <c r="D62" s="2"/>
-      <c r="E62" s="2"/>
-      <c r="F62" s="2"/>
+      <c r="B62" s="55"/>
+      <c r="C62" s="55"/>
+      <c r="D62" s="55"/>
+      <c r="E62" s="55"/>
+      <c r="F62" s="56"/>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A63" s="52" t="s">
+      <c r="A63" s="2"/>
+      <c r="B63" s="2"/>
+      <c r="C63" s="2"/>
+      <c r="D63" s="2"/>
+      <c r="E63" s="2"/>
+      <c r="F63" s="2"/>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A64" s="48" t="s">
         <v>29</v>
       </c>
-      <c r="B63" s="52"/>
-      <c r="C63" s="52"/>
-      <c r="D63" s="52"/>
-      <c r="E63" s="52"/>
-      <c r="F63" s="52"/>
-    </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A64" s="2"/>
-      <c r="B64" s="2"/>
-      <c r="C64" s="2"/>
-      <c r="D64" s="2"/>
-      <c r="E64" s="2"/>
-      <c r="F64" s="2"/>
+      <c r="B64" s="48"/>
+      <c r="C64" s="48"/>
+      <c r="D64" s="48"/>
+      <c r="E64" s="48"/>
+      <c r="F64" s="48"/>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A65" s="52" t="s">
+      <c r="A65" s="2"/>
+      <c r="B65" s="2"/>
+      <c r="C65" s="2"/>
+      <c r="D65" s="2"/>
+      <c r="E65" s="2"/>
+      <c r="F65" s="2"/>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A66" s="48" t="s">
         <v>30</v>
       </c>
-      <c r="B65" s="52"/>
-      <c r="C65" s="52"/>
-      <c r="D65" s="52"/>
-      <c r="E65" s="52"/>
-      <c r="F65" s="52"/>
-    </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A66" s="11"/>
-      <c r="B66" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="C66" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="D66" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E66" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="F66" s="2" t="s">
-        <v>13</v>
-      </c>
+      <c r="B66" s="48"/>
+      <c r="C66" s="48"/>
+      <c r="D66" s="48"/>
+      <c r="E66" s="48"/>
+      <c r="F66" s="48"/>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A67" s="11"/>
       <c r="B67" s="2" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="D67" s="2" t="s">
         <v>18</v>
@@ -2701,62 +2710,62 @@
       </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A68" s="64"/>
-      <c r="B68" s="50" t="s">
+      <c r="A68" s="11"/>
+      <c r="B68" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="C68" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="D68" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E68" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F68" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A69" s="50"/>
+      <c r="B69" s="45" t="s">
         <v>157</v>
       </c>
-      <c r="C68" s="40" t="s">
+      <c r="C69" s="49" t="s">
         <v>158</v>
       </c>
-      <c r="D68" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E68" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="F68" s="2" t="s">
+      <c r="D69" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E69" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F69" s="2" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A69" s="64"/>
-      <c r="B69" s="50"/>
-      <c r="C69" s="40"/>
-      <c r="D69" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E69" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="F69" s="2" t="s">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A70" s="50"/>
+      <c r="B70" s="45"/>
+      <c r="C70" s="49"/>
+      <c r="D70" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E70" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F70" s="2" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A70" s="11"/>
-      <c r="B70" s="2" t="s">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A71" s="11"/>
+      <c r="B71" s="2" t="s">
         <v>137</v>
       </c>
-      <c r="C70" s="1" t="s">
+      <c r="C71" s="1" t="s">
         <v>138</v>
-      </c>
-      <c r="D70" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="E70" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="F70" s="2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A71" s="9"/>
-      <c r="B71" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="C71" s="1" t="s">
-        <v>144</v>
       </c>
       <c r="D71" s="2" t="s">
         <v>139</v>
@@ -2771,334 +2780,334 @@
     <row r="72" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A72" s="9"/>
       <c r="B72" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="C72" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="D72" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="E72" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F72" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A73" s="9"/>
+      <c r="B73" s="2" t="s">
         <v>146</v>
       </c>
-      <c r="C72" s="1" t="s">
+      <c r="C73" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="D72" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E72" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="F72" s="2" t="s">
+      <c r="D73" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E73" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F73" s="2" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A73" s="11"/>
-      <c r="B73" s="2" t="s">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A74" s="11"/>
+      <c r="B74" s="2" t="s">
         <v>140</v>
       </c>
-      <c r="C73" s="1" t="s">
+      <c r="C74" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="D73" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="E73" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="F73" s="2" t="s">
+      <c r="D74" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E74" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F74" s="2" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A74" s="39"/>
-      <c r="B74" s="50" t="s">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A75" s="58"/>
+      <c r="B75" s="45" t="s">
         <v>151</v>
       </c>
-      <c r="C74" s="40" t="s">
+      <c r="C75" s="49" t="s">
         <v>152</v>
       </c>
-      <c r="D74" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="E74" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="F74" s="2" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A75" s="39"/>
-      <c r="B75" s="50"/>
-      <c r="C75" s="40"/>
       <c r="D75" s="2" t="s">
         <v>139</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>4</v>
+        <v>56</v>
       </c>
       <c r="F75" s="2" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A76" s="58"/>
+      <c r="B76" s="45"/>
+      <c r="C76" s="49"/>
+      <c r="D76" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="E76" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F76" s="2" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="76" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A76" s="44"/>
-      <c r="B76" s="50" t="s">
+    <row r="77" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A77" s="43"/>
+      <c r="B77" s="45" t="s">
         <v>166</v>
       </c>
-      <c r="C76" s="48" t="s">
+      <c r="C77" s="41" t="s">
         <v>167</v>
       </c>
-      <c r="D76" s="21" t="s">
-        <v>18</v>
-      </c>
-      <c r="E76" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="F76" s="2" t="s">
+      <c r="D77" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="E77" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F77" s="2" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="77" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A77" s="45"/>
-      <c r="B77" s="50"/>
-      <c r="C77" s="49"/>
-      <c r="D77" s="21" t="s">
-        <v>18</v>
-      </c>
-      <c r="E77" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="F77" s="1" t="s">
+    <row r="78" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A78" s="44"/>
+      <c r="B78" s="45"/>
+      <c r="C78" s="42"/>
+      <c r="D78" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="E78" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F78" s="1" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="78" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A78" s="61"/>
-      <c r="B78" s="50" t="s">
+    <row r="79" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A79" s="46"/>
+      <c r="B79" s="45" t="s">
         <v>172</v>
       </c>
-      <c r="C78" s="48" t="s">
+      <c r="C79" s="41" t="s">
         <v>170</v>
       </c>
-      <c r="D78" s="21" t="s">
-        <v>18</v>
-      </c>
-      <c r="E78" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="F78" s="2" t="s">
+      <c r="D79" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="E79" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F79" s="2" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="79" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A79" s="63"/>
-      <c r="B79" s="50"/>
-      <c r="C79" s="49"/>
-      <c r="D79" s="21" t="s">
-        <v>18</v>
-      </c>
-      <c r="E79" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="F79" s="1" t="s">
+    <row r="80" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A80" s="47"/>
+      <c r="B80" s="45"/>
+      <c r="C80" s="42"/>
+      <c r="D80" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="E80" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F80" s="1" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A80" s="44"/>
-      <c r="B80" s="46" t="s">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A81" s="43"/>
+      <c r="B81" s="39" t="s">
         <v>162</v>
       </c>
-      <c r="C80" s="48" t="s">
+      <c r="C81" s="41" t="s">
         <v>163</v>
       </c>
-      <c r="D80" s="18" t="s">
-        <v>18</v>
-      </c>
-      <c r="E80" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="F80" s="2" t="s">
+      <c r="D81" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="E81" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F81" s="2" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A81" s="45"/>
-      <c r="B81" s="47"/>
-      <c r="C81" s="49"/>
-      <c r="D81" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E81" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="F81" s="2" t="s">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A82" s="44"/>
+      <c r="B82" s="40"/>
+      <c r="C82" s="42"/>
+      <c r="D82" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E82" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F82" s="2" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A82" s="22"/>
-      <c r="B82" s="19" t="s">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A83" s="22"/>
+      <c r="B83" s="19" t="s">
         <v>173</v>
       </c>
-      <c r="C82" s="20" t="s">
+      <c r="C83" s="20" t="s">
         <v>174</v>
       </c>
-      <c r="D82" s="2" t="s">
+      <c r="D83" s="2" t="s">
         <v>175</v>
       </c>
-      <c r="E82" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="F82" s="2" t="s">
+      <c r="E83" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F83" s="2" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A83" s="17"/>
-      <c r="B83" s="16" t="s">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A84" s="17"/>
+      <c r="B84" s="16" t="s">
         <v>160</v>
       </c>
-      <c r="C83" s="15" t="s">
+      <c r="C84" s="15" t="s">
         <v>161</v>
       </c>
-      <c r="D83" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E83" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="F83" s="2" t="s">
+      <c r="D84" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E84" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F84" s="2" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A84" s="51"/>
-      <c r="B84" s="50" t="s">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A85" s="57"/>
+      <c r="B85" s="45" t="s">
         <v>148</v>
       </c>
-      <c r="C84" s="40" t="s">
+      <c r="C85" s="49" t="s">
         <v>149</v>
       </c>
-      <c r="D84" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E84" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="F84" s="2" t="s">
+      <c r="D85" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E85" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F85" s="2" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A85" s="51"/>
-      <c r="B85" s="50"/>
-      <c r="C85" s="40"/>
-      <c r="D85" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E85" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="F85" s="2" t="s">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A86" s="57"/>
+      <c r="B86" s="45"/>
+      <c r="C86" s="49"/>
+      <c r="D86" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E86" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F86" s="2" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A86" s="52" t="s">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A87" s="48" t="s">
         <v>64</v>
       </c>
-      <c r="B86" s="52"/>
-      <c r="C86" s="52"/>
-      <c r="D86" s="52"/>
-      <c r="E86" s="52"/>
-      <c r="F86" s="52"/>
-    </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A87" s="2"/>
-      <c r="B87" s="50" t="s">
-        <v>65</v>
-      </c>
-      <c r="C87" s="40" t="s">
-        <v>62</v>
-      </c>
-      <c r="D87" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E87" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="F87" s="2" t="s">
-        <v>68</v>
-      </c>
+      <c r="B87" s="48"/>
+      <c r="C87" s="48"/>
+      <c r="D87" s="48"/>
+      <c r="E87" s="48"/>
+      <c r="F87" s="48"/>
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A88" s="2"/>
-      <c r="B88" s="50"/>
-      <c r="C88" s="40"/>
+      <c r="B88" s="45" t="s">
+        <v>65</v>
+      </c>
+      <c r="C88" s="49" t="s">
+        <v>62</v>
+      </c>
       <c r="D88" s="2" t="s">
         <v>18</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>4</v>
+        <v>18</v>
       </c>
       <c r="F88" s="2" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A89" s="2"/>
-      <c r="B89" s="50" t="s">
-        <v>66</v>
-      </c>
-      <c r="C89" s="40" t="s">
-        <v>67</v>
-      </c>
+      <c r="B89" s="45"/>
+      <c r="C89" s="49"/>
       <c r="D89" s="2" t="s">
         <v>18</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="F89" s="2" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A90" s="2"/>
-      <c r="B90" s="50"/>
-      <c r="C90" s="40"/>
+      <c r="B90" s="45" t="s">
+        <v>66</v>
+      </c>
+      <c r="C90" s="49" t="s">
+        <v>67</v>
+      </c>
       <c r="D90" s="2" t="s">
         <v>18</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>4</v>
+        <v>18</v>
       </c>
       <c r="F90" s="2" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A91" s="2"/>
-      <c r="B91" s="14" t="s">
-        <v>80</v>
-      </c>
-      <c r="C91" s="15" t="s">
-        <v>81</v>
-      </c>
+      <c r="B91" s="45"/>
+      <c r="C91" s="49"/>
       <c r="D91" s="2" t="s">
         <v>18</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>78</v>
+        <v>4</v>
       </c>
       <c r="F91" s="2" t="s">
-        <v>82</v>
+        <v>63</v>
       </c>
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A92" s="2"/>
       <c r="B92" s="14" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="C92" s="15" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="D92" s="2" t="s">
         <v>18</v>
@@ -3107,16 +3116,16 @@
         <v>78</v>
       </c>
       <c r="F92" s="2" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A93" s="2"/>
-      <c r="B93" s="50" t="s">
-        <v>84</v>
-      </c>
-      <c r="C93" s="40" t="s">
-        <v>83</v>
+      <c r="B93" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="C93" s="15" t="s">
+        <v>77</v>
       </c>
       <c r="D93" s="2" t="s">
         <v>18</v>
@@ -3125,96 +3134,98 @@
         <v>78</v>
       </c>
       <c r="F93" s="2" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A94" s="2"/>
-      <c r="B94" s="50"/>
-      <c r="C94" s="40"/>
+      <c r="B94" s="45" t="s">
+        <v>84</v>
+      </c>
+      <c r="C94" s="49" t="s">
+        <v>83</v>
+      </c>
       <c r="D94" s="2" t="s">
         <v>18</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="F94" s="2" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A95" s="2"/>
-      <c r="B95" s="50" t="s">
-        <v>87</v>
-      </c>
-      <c r="C95" s="40" t="s">
-        <v>88</v>
-      </c>
+      <c r="B95" s="45"/>
+      <c r="C95" s="49"/>
       <c r="D95" s="2" t="s">
         <v>18</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="F95" s="2" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A96" s="2"/>
-      <c r="B96" s="50"/>
-      <c r="C96" s="40"/>
+      <c r="B96" s="45" t="s">
+        <v>87</v>
+      </c>
+      <c r="C96" s="49" t="s">
+        <v>88</v>
+      </c>
       <c r="D96" s="2" t="s">
         <v>18</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="F96" s="2" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A97" s="2"/>
-      <c r="B97" s="14"/>
-      <c r="C97" s="15"/>
-      <c r="D97" s="2"/>
-      <c r="E97" s="2"/>
-      <c r="F97" s="2"/>
+      <c r="B97" s="45"/>
+      <c r="C97" s="49"/>
+      <c r="D97" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E97" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="F97" s="2" t="s">
+        <v>86</v>
+      </c>
     </row>
     <row r="98" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A98" s="52" t="s">
+      <c r="A98" s="2"/>
+      <c r="B98" s="14"/>
+      <c r="C98" s="15"/>
+      <c r="D98" s="2"/>
+      <c r="E98" s="2"/>
+      <c r="F98" s="2"/>
+    </row>
+    <row r="99" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A99" s="48" t="s">
         <v>89</v>
       </c>
-      <c r="B98" s="52"/>
-      <c r="C98" s="52"/>
-      <c r="D98" s="52"/>
-      <c r="E98" s="52"/>
-      <c r="F98" s="52"/>
-    </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A99" s="2"/>
-      <c r="B99" s="5" t="s">
-        <v>91</v>
-      </c>
-      <c r="C99" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="D99" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="E99" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="F99" s="4"/>
+      <c r="B99" s="48"/>
+      <c r="C99" s="48"/>
+      <c r="D99" s="48"/>
+      <c r="E99" s="48"/>
+      <c r="F99" s="48"/>
     </row>
     <row r="100" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A100" s="2"/>
       <c r="B100" s="5" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="C100" s="3" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="D100" s="4" t="s">
         <v>92</v>
@@ -3222,309 +3233,325 @@
       <c r="E100" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="F100" s="12" t="s">
+      <c r="F100" s="4"/>
+    </row>
+    <row r="101" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A101" s="2"/>
+      <c r="B101" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="C101" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="D101" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="E101" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="F101" s="12" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A101" s="52" t="s">
+    <row r="102" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A102" s="48" t="s">
         <v>31</v>
       </c>
-      <c r="B101" s="52"/>
-      <c r="C101" s="52"/>
-      <c r="D101" s="52"/>
-      <c r="E101" s="52"/>
-      <c r="F101" s="52"/>
-    </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A102" s="2"/>
-      <c r="B102" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="C102" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="D102" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="E102" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="F102" s="2" t="s">
-        <v>73</v>
-      </c>
+      <c r="B102" s="48"/>
+      <c r="C102" s="48"/>
+      <c r="D102" s="48"/>
+      <c r="E102" s="48"/>
+      <c r="F102" s="48"/>
     </row>
     <row r="103" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A103" s="2"/>
       <c r="B103" s="2" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="C103" s="1" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="D103" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="E103" s="2"/>
-      <c r="F103" s="2"/>
+      <c r="E103" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="F103" s="2" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="104" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A104" s="10"/>
+      <c r="A104" s="2"/>
       <c r="B104" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="C104" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="D104" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="E104" s="2"/>
+      <c r="F104" s="2"/>
+    </row>
+    <row r="105" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A105" s="10"/>
+      <c r="B105" s="2" t="s">
         <v>252</v>
       </c>
-      <c r="C104" s="1" t="s">
+      <c r="C105" s="1" t="s">
         <v>253</v>
       </c>
-      <c r="D104" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E104" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="F104" s="2" t="s">
+      <c r="D105" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E105" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F105" s="2" t="s">
         <v>254</v>
       </c>
     </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A105" s="52" t="s">
+    <row r="106" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A106" s="48" t="s">
         <v>32</v>
       </c>
-      <c r="B105" s="52"/>
-      <c r="C105" s="52"/>
-      <c r="D105" s="52"/>
-      <c r="E105" s="52"/>
-      <c r="F105" s="52"/>
-    </row>
-    <row r="106" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A106" s="2"/>
-      <c r="B106" s="2"/>
-      <c r="C106" s="2"/>
-      <c r="D106" s="2"/>
-      <c r="E106" s="2"/>
-      <c r="F106" s="2"/>
+      <c r="B106" s="48"/>
+      <c r="C106" s="48"/>
+      <c r="D106" s="48"/>
+      <c r="E106" s="48"/>
+      <c r="F106" s="48"/>
     </row>
     <row r="107" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A107" s="52" t="s">
+      <c r="A107" s="2"/>
+      <c r="B107" s="2"/>
+      <c r="C107" s="2"/>
+      <c r="D107" s="2"/>
+      <c r="E107" s="2"/>
+      <c r="F107" s="2"/>
+    </row>
+    <row r="108" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A108" s="48" t="s">
         <v>33</v>
       </c>
-      <c r="B107" s="52"/>
-      <c r="C107" s="52"/>
-      <c r="D107" s="52"/>
-      <c r="E107" s="52"/>
-      <c r="F107" s="52"/>
-    </row>
-    <row r="108" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A108" s="2"/>
-      <c r="B108" s="50" t="s">
-        <v>110</v>
-      </c>
-      <c r="C108" s="40" t="s">
-        <v>111</v>
-      </c>
-      <c r="D108" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="E108" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="F108" s="2" t="s">
-        <v>112</v>
-      </c>
+      <c r="B108" s="48"/>
+      <c r="C108" s="48"/>
+      <c r="D108" s="48"/>
+      <c r="E108" s="48"/>
+      <c r="F108" s="48"/>
     </row>
     <row r="109" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A109" s="2"/>
-      <c r="B109" s="50"/>
-      <c r="C109" s="50"/>
+      <c r="B109" s="45" t="s">
+        <v>110</v>
+      </c>
+      <c r="C109" s="49" t="s">
+        <v>111</v>
+      </c>
       <c r="D109" s="2" t="s">
         <v>116</v>
       </c>
       <c r="E109" s="2" t="s">
-        <v>4</v>
+        <v>116</v>
       </c>
       <c r="F109" s="2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="110" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A110" s="2"/>
-      <c r="B110" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="C110" s="15" t="s">
-        <v>114</v>
-      </c>
+      <c r="B110" s="45"/>
+      <c r="C110" s="45"/>
       <c r="D110" s="2" t="s">
-        <v>18</v>
+        <v>116</v>
       </c>
       <c r="E110" s="2" t="s">
-        <v>40</v>
+        <v>4</v>
       </c>
       <c r="F110" s="2" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
     </row>
     <row r="111" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A111" s="2"/>
-      <c r="B111" s="50" t="s">
-        <v>117</v>
-      </c>
-      <c r="C111" s="40" t="s">
-        <v>118</v>
+      <c r="B111" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="C111" s="15" t="s">
+        <v>114</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>51</v>
+        <v>18</v>
       </c>
       <c r="E111" s="2" t="s">
         <v>40</v>
       </c>
       <c r="F111" s="2" t="s">
-        <v>119</v>
+        <v>112</v>
       </c>
     </row>
     <row r="112" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A112" s="2"/>
-      <c r="B112" s="50"/>
-      <c r="C112" s="40"/>
+      <c r="B112" s="45" t="s">
+        <v>117</v>
+      </c>
+      <c r="C112" s="49" t="s">
+        <v>118</v>
+      </c>
       <c r="D112" s="2" t="s">
-        <v>18</v>
+        <v>51</v>
       </c>
       <c r="E112" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="F112" s="13" t="s">
+      <c r="F112" s="2" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="113" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A113" s="2"/>
+      <c r="B113" s="45"/>
+      <c r="C113" s="49"/>
+      <c r="D113" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E113" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="F113" s="13" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="113" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A113" s="52" t="s">
+    <row r="114" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A114" s="48" t="s">
         <v>34</v>
       </c>
-      <c r="B113" s="52"/>
-      <c r="C113" s="52"/>
-      <c r="D113" s="52"/>
-      <c r="E113" s="52"/>
-      <c r="F113" s="52"/>
-    </row>
-    <row r="114" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A114" s="2"/>
-      <c r="B114" s="2"/>
-      <c r="C114" s="2"/>
-      <c r="D114" s="2"/>
-      <c r="E114" s="2"/>
-      <c r="F114" s="2"/>
-    </row>
-    <row r="116" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="F116" s="34" t="s">
-        <v>154</v>
-      </c>
+      <c r="B114" s="48"/>
+      <c r="C114" s="48"/>
+      <c r="D114" s="48"/>
+      <c r="E114" s="48"/>
+      <c r="F114" s="48"/>
+    </row>
+    <row r="115" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A115" s="2"/>
+      <c r="B115" s="2"/>
+      <c r="C115" s="2"/>
+      <c r="D115" s="2"/>
+      <c r="E115" s="2"/>
+      <c r="F115" s="2"/>
     </row>
     <row r="117" spans="1:6" x14ac:dyDescent="0.35">
       <c r="F117" s="34" t="s">
-        <v>218</v>
+        <v>154</v>
       </c>
     </row>
     <row r="118" spans="1:6" x14ac:dyDescent="0.35">
       <c r="F118" s="34" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="119" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="F119" s="34" t="s">
         <v>226</v>
       </c>
     </row>
-    <row r="119" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="F119" s="36" t="s">
+    <row r="120" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="F120" s="36" t="s">
         <v>227</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="56">
-    <mergeCell ref="B80:B81"/>
-    <mergeCell ref="C80:C81"/>
-    <mergeCell ref="A76:A77"/>
-    <mergeCell ref="B76:B77"/>
-    <mergeCell ref="C76:C77"/>
-    <mergeCell ref="A78:A79"/>
-    <mergeCell ref="C78:C79"/>
-    <mergeCell ref="B78:B79"/>
-    <mergeCell ref="A113:F113"/>
-    <mergeCell ref="A63:F63"/>
-    <mergeCell ref="A65:F65"/>
-    <mergeCell ref="A86:F86"/>
-    <mergeCell ref="A98:F98"/>
-    <mergeCell ref="B87:B88"/>
-    <mergeCell ref="C87:C88"/>
-    <mergeCell ref="B89:B90"/>
-    <mergeCell ref="C89:C90"/>
-    <mergeCell ref="B93:B94"/>
-    <mergeCell ref="C93:C94"/>
-    <mergeCell ref="B108:B109"/>
-    <mergeCell ref="C108:C109"/>
-    <mergeCell ref="A68:A69"/>
-    <mergeCell ref="B68:B69"/>
-    <mergeCell ref="B74:B75"/>
+    <mergeCell ref="A75:A76"/>
+    <mergeCell ref="C75:C76"/>
+    <mergeCell ref="A62:F62"/>
+    <mergeCell ref="A81:A82"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="B36:B37"/>
+    <mergeCell ref="C36:C37"/>
+    <mergeCell ref="A42:A45"/>
+    <mergeCell ref="B42:B45"/>
+    <mergeCell ref="C42:C45"/>
+    <mergeCell ref="C69:C70"/>
+    <mergeCell ref="A60:F60"/>
+    <mergeCell ref="B53:B59"/>
+    <mergeCell ref="A53:A59"/>
+    <mergeCell ref="C53:C59"/>
+    <mergeCell ref="B112:B113"/>
+    <mergeCell ref="C112:C113"/>
+    <mergeCell ref="C96:C97"/>
+    <mergeCell ref="B96:B97"/>
+    <mergeCell ref="A85:A86"/>
+    <mergeCell ref="B85:B86"/>
+    <mergeCell ref="C85:C86"/>
+    <mergeCell ref="A106:F106"/>
+    <mergeCell ref="A108:F108"/>
+    <mergeCell ref="A102:F102"/>
     <mergeCell ref="A2:F2"/>
     <mergeCell ref="A11:F11"/>
-    <mergeCell ref="A19:F19"/>
-    <mergeCell ref="A29:F29"/>
-    <mergeCell ref="A35:A36"/>
-    <mergeCell ref="A31:F31"/>
-    <mergeCell ref="B111:B112"/>
-    <mergeCell ref="C111:C112"/>
-    <mergeCell ref="C95:C96"/>
-    <mergeCell ref="B95:B96"/>
-    <mergeCell ref="A84:A85"/>
-    <mergeCell ref="B84:B85"/>
-    <mergeCell ref="C84:C85"/>
-    <mergeCell ref="A105:F105"/>
-    <mergeCell ref="A107:F107"/>
-    <mergeCell ref="A101:F101"/>
-    <mergeCell ref="A74:A75"/>
-    <mergeCell ref="C74:C75"/>
-    <mergeCell ref="A61:F61"/>
-    <mergeCell ref="A80:A81"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="C5:C6"/>
-    <mergeCell ref="B35:B36"/>
-    <mergeCell ref="C35:C36"/>
-    <mergeCell ref="A41:A44"/>
-    <mergeCell ref="B41:B44"/>
-    <mergeCell ref="C41:C44"/>
-    <mergeCell ref="C68:C69"/>
-    <mergeCell ref="A59:F59"/>
-    <mergeCell ref="B52:B58"/>
-    <mergeCell ref="A52:A58"/>
-    <mergeCell ref="C52:C58"/>
+    <mergeCell ref="A20:F20"/>
+    <mergeCell ref="A30:F30"/>
+    <mergeCell ref="A36:A37"/>
+    <mergeCell ref="A32:F32"/>
+    <mergeCell ref="A114:F114"/>
+    <mergeCell ref="A64:F64"/>
+    <mergeCell ref="A66:F66"/>
+    <mergeCell ref="A87:F87"/>
+    <mergeCell ref="A99:F99"/>
+    <mergeCell ref="B88:B89"/>
+    <mergeCell ref="C88:C89"/>
+    <mergeCell ref="B90:B91"/>
+    <mergeCell ref="C90:C91"/>
+    <mergeCell ref="B94:B95"/>
+    <mergeCell ref="C94:C95"/>
+    <mergeCell ref="B109:B110"/>
+    <mergeCell ref="C109:C110"/>
+    <mergeCell ref="A69:A70"/>
+    <mergeCell ref="B69:B70"/>
+    <mergeCell ref="B75:B76"/>
+    <mergeCell ref="B81:B82"/>
+    <mergeCell ref="C81:C82"/>
+    <mergeCell ref="A77:A78"/>
+    <mergeCell ref="B77:B78"/>
+    <mergeCell ref="C77:C78"/>
+    <mergeCell ref="A79:A80"/>
+    <mergeCell ref="C79:C80"/>
+    <mergeCell ref="B79:B80"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="C3" r:id="rId1" xr:uid="{3FB3FA06-DE47-4C2D-AFD7-F5FC45E3D126}"/>
     <hyperlink ref="C4" r:id="rId2" xr:uid="{C4A51F70-7D5B-496B-8FD0-AB7121D9FCE1}"/>
     <hyperlink ref="C12" r:id="rId3" xr:uid="{678D7AA2-36D2-4A02-971F-3FB9391E8E35}"/>
-    <hyperlink ref="C20" r:id="rId4" xr:uid="{2AC6AF52-CC30-4063-833D-09178907C109}"/>
-    <hyperlink ref="C49" r:id="rId5" xr:uid="{6352E065-8925-49FF-AA82-66ED2F9F8651}"/>
-    <hyperlink ref="C21" r:id="rId6" xr:uid="{047C68C0-B7AB-4E77-9D1E-B162BD11A209}"/>
-    <hyperlink ref="C22" r:id="rId7" xr:uid="{1ABD0EDA-F48F-4D2F-B13C-180B398F1FCD}"/>
-    <hyperlink ref="C87" r:id="rId8" xr:uid="{35D2A43C-BF1B-4339-9217-7116005F7034}"/>
-    <hyperlink ref="C89" r:id="rId9" xr:uid="{233456E2-1B15-4448-A669-82C381357683}"/>
-    <hyperlink ref="C102" r:id="rId10" xr:uid="{4A724644-7F2B-4DE6-9141-A1802140FB4A}"/>
-    <hyperlink ref="C99" r:id="rId11" xr:uid="{914A5C5A-20B3-4526-A460-020F9852AFDB}"/>
-    <hyperlink ref="C100" r:id="rId12" xr:uid="{0B2D15B8-18BF-46A5-991E-6E53ADC95851}"/>
-    <hyperlink ref="C32" r:id="rId13" xr:uid="{93A177B9-936F-4ED5-9F32-EB31F0D8F614}"/>
-    <hyperlink ref="C108" r:id="rId14" xr:uid="{9CD2E86C-B1BA-4CC3-9E52-ECA767380715}"/>
-    <hyperlink ref="C110" r:id="rId15" xr:uid="{30EBB8AD-10BE-47B9-BF85-DBCCCE948784}"/>
-    <hyperlink ref="F112" r:id="rId16" xr:uid="{080A2B1B-6640-47F1-9DAB-1F0914BD9938}"/>
-    <hyperlink ref="C66" r:id="rId17" xr:uid="{DD8AB0F8-5B5E-4F6E-A0B4-339B324BDAC3}"/>
+    <hyperlink ref="C21" r:id="rId4" xr:uid="{2AC6AF52-CC30-4063-833D-09178907C109}"/>
+    <hyperlink ref="C50" r:id="rId5" xr:uid="{6352E065-8925-49FF-AA82-66ED2F9F8651}"/>
+    <hyperlink ref="C22" r:id="rId6" xr:uid="{047C68C0-B7AB-4E77-9D1E-B162BD11A209}"/>
+    <hyperlink ref="C23" r:id="rId7" xr:uid="{1ABD0EDA-F48F-4D2F-B13C-180B398F1FCD}"/>
+    <hyperlink ref="C88" r:id="rId8" xr:uid="{35D2A43C-BF1B-4339-9217-7116005F7034}"/>
+    <hyperlink ref="C90" r:id="rId9" xr:uid="{233456E2-1B15-4448-A669-82C381357683}"/>
+    <hyperlink ref="C103" r:id="rId10" xr:uid="{4A724644-7F2B-4DE6-9141-A1802140FB4A}"/>
+    <hyperlink ref="C100" r:id="rId11" xr:uid="{914A5C5A-20B3-4526-A460-020F9852AFDB}"/>
+    <hyperlink ref="C101" r:id="rId12" xr:uid="{0B2D15B8-18BF-46A5-991E-6E53ADC95851}"/>
+    <hyperlink ref="C33" r:id="rId13" xr:uid="{93A177B9-936F-4ED5-9F32-EB31F0D8F614}"/>
+    <hyperlink ref="C109" r:id="rId14" xr:uid="{9CD2E86C-B1BA-4CC3-9E52-ECA767380715}"/>
+    <hyperlink ref="C111" r:id="rId15" xr:uid="{30EBB8AD-10BE-47B9-BF85-DBCCCE948784}"/>
+    <hyperlink ref="F113" r:id="rId16" xr:uid="{080A2B1B-6640-47F1-9DAB-1F0914BD9938}"/>
+    <hyperlink ref="C67" r:id="rId17" xr:uid="{DD8AB0F8-5B5E-4F6E-A0B4-339B324BDAC3}"/>
     <hyperlink ref="C8" r:id="rId18" xr:uid="{43B67C49-DC70-412F-B095-E684E07FF196}"/>
-    <hyperlink ref="C76" r:id="rId19" xr:uid="{7FDCAB78-56F5-40D3-8A09-8A8A0E54E05D}"/>
-    <hyperlink ref="F77" r:id="rId20" xr:uid="{F7F3C873-8E94-4212-B22A-52BF75A478D8}"/>
-    <hyperlink ref="C35" r:id="rId21" xr:uid="{F6C15430-DBA9-4DAD-A411-65B1524C625E}"/>
-    <hyperlink ref="G20" r:id="rId22" display="https://leetcode.com/problems/maximum-sum-circular-subarray/" xr:uid="{A4CEEEE3-5EE5-4166-9A65-51E09840E49F}"/>
-    <hyperlink ref="G21" r:id="rId23" display="https://leetcode.com/problems/maximum-product-subarray/" xr:uid="{E66937F4-342E-466B-92BD-529EAD0F1180}"/>
-    <hyperlink ref="G22" r:id="rId24" display="https://leetcode.com/problems/maximum-length-of-subarray-with-positive-product/" xr:uid="{C0B6118F-C23A-4E55-881A-F4A1DA018A1F}"/>
+    <hyperlink ref="C77" r:id="rId19" xr:uid="{7FDCAB78-56F5-40D3-8A09-8A8A0E54E05D}"/>
+    <hyperlink ref="F78" r:id="rId20" xr:uid="{F7F3C873-8E94-4212-B22A-52BF75A478D8}"/>
+    <hyperlink ref="C36" r:id="rId21" xr:uid="{F6C15430-DBA9-4DAD-A411-65B1524C625E}"/>
+    <hyperlink ref="G21" r:id="rId22" display="https://leetcode.com/problems/maximum-sum-circular-subarray/" xr:uid="{A4CEEEE3-5EE5-4166-9A65-51E09840E49F}"/>
+    <hyperlink ref="G22" r:id="rId23" display="https://leetcode.com/problems/maximum-product-subarray/" xr:uid="{E66937F4-342E-466B-92BD-529EAD0F1180}"/>
+    <hyperlink ref="G23" r:id="rId24" display="https://leetcode.com/problems/maximum-length-of-subarray-with-positive-product/" xr:uid="{C0B6118F-C23A-4E55-881A-F4A1DA018A1F}"/>
     <hyperlink ref="C7" r:id="rId25" xr:uid="{D548A552-BEA3-46D9-89FD-0EDF330CCD4B}"/>
-    <hyperlink ref="C80" r:id="rId26" xr:uid="{7EAF2DCC-4594-46F5-AFC0-D19FF750F897}"/>
-    <hyperlink ref="C30" r:id="rId27" xr:uid="{2A9F780A-9E5F-449D-AA08-46C94947DE0C}"/>
-    <hyperlink ref="G30" r:id="rId28" display="https://leetcode.com/problems/merge-intervals" xr:uid="{24D594E5-8804-48F8-84BD-C5D018E5A447}"/>
-    <hyperlink ref="G31" r:id="rId29" display="https://leetcode.com/problems/non-overlapping-intervals" xr:uid="{FBB3A625-8231-42DD-B49C-D9DFE3555251}"/>
-    <hyperlink ref="G32" r:id="rId30" display="https://leetcode.com/problems/meeting-rooms/" xr:uid="{8849EA4F-0A54-4D57-AE19-19728A56318A}"/>
-    <hyperlink ref="G33" r:id="rId31" display="https://leetcode.com/problems/meeting-rooms-ii/" xr:uid="{DD819D71-EB3C-4BD3-BA6C-25223B20391D}"/>
+    <hyperlink ref="C81" r:id="rId26" xr:uid="{7EAF2DCC-4594-46F5-AFC0-D19FF750F897}"/>
+    <hyperlink ref="C31" r:id="rId27" xr:uid="{2A9F780A-9E5F-449D-AA08-46C94947DE0C}"/>
+    <hyperlink ref="G31" r:id="rId28" display="https://leetcode.com/problems/merge-intervals" xr:uid="{24D594E5-8804-48F8-84BD-C5D018E5A447}"/>
+    <hyperlink ref="G32" r:id="rId29" display="https://leetcode.com/problems/non-overlapping-intervals" xr:uid="{FBB3A625-8231-42DD-B49C-D9DFE3555251}"/>
+    <hyperlink ref="G33" r:id="rId30" display="https://leetcode.com/problems/meeting-rooms/" xr:uid="{8849EA4F-0A54-4D57-AE19-19728A56318A}"/>
+    <hyperlink ref="G34" r:id="rId31" display="https://leetcode.com/problems/meeting-rooms-ii/" xr:uid="{DD819D71-EB3C-4BD3-BA6C-25223B20391D}"/>
     <hyperlink ref="C17" r:id="rId32" xr:uid="{6062919D-9F53-4AD6-A2BA-CE01278187C7}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/SDE Sheet.xlsx
+++ b/SDE Sheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Src Code\Personal\SDE-Sheet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F730376-E7E8-4480-80E5-361B39963BE7}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C45FA4AC-2B2B-47E7-90A6-B715588F47FC}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{83934561-A72F-4836-B1E7-4EE8C35F9874}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="433" uniqueCount="258">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="451" uniqueCount="269">
   <si>
     <t>Matrix</t>
   </si>
@@ -164,9 +164,6 @@
   </si>
   <si>
     <t>Graphs</t>
-  </si>
-  <si>
-    <t>Priority Queue</t>
   </si>
   <si>
     <t>Binary Search Tree</t>
@@ -927,6 +924,42 @@
   </si>
   <si>
     <t>Corner Cases and handle overflows/underflows</t>
+  </si>
+  <si>
+    <t>Read about Bidirectional BFS</t>
+  </si>
+  <si>
+    <t>Divide and Conquer</t>
+  </si>
+  <si>
+    <t>Inversion of Array</t>
+  </si>
+  <si>
+    <t>https://www.codingninjas.com/codestudio/problems/615?topList=striver-sde-sheet-problems&amp;utm_source=striver&amp;utm_medium=website</t>
+  </si>
+  <si>
+    <t>When greater element is at lesser index and sorted array helps indentify in O(n)</t>
+  </si>
+  <si>
+    <t>Read about Merge sort without extra space</t>
+  </si>
+  <si>
+    <t>Reverse Pairs</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/reverse-pairs/</t>
+  </si>
+  <si>
+    <t>Koko Eating Bananas</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/koko-eating-bananas/</t>
+  </si>
+  <si>
+    <t>O(n*log(m))</t>
+  </si>
+  <si>
+    <t>Try with Brute Force if nothing strikes and then convert to Binary Search</t>
   </si>
 </sst>
 </file>
@@ -1171,7 +1204,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="65">
+  <cellXfs count="67">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -1245,6 +1278,29 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1257,28 +1313,37 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1290,37 +1355,7 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1638,11 +1673,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D3EBAEE5-B4E7-4BD5-B694-FD6EEA5E8AC0}">
-  <dimension ref="A1:G120"/>
+  <dimension ref="A1:G124"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="78" zoomScaleNormal="94" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F19" sqref="F19"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="74" zoomScaleNormal="94" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A97" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F111" sqref="F111"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1657,7 +1692,7 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1" s="6" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B1" s="6" t="s">
         <v>6</v>
@@ -1676,14 +1711,14 @@
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A2" s="48" t="s">
+      <c r="A2" s="58" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="48"/>
-      <c r="C2" s="48"/>
-      <c r="D2" s="48"/>
-      <c r="E2" s="48"/>
-      <c r="F2" s="48"/>
+      <c r="B2" s="58"/>
+      <c r="C2" s="58"/>
+      <c r="D2" s="58"/>
+      <c r="E2" s="58"/>
+      <c r="F2" s="58"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A3" s="9"/>
@@ -1723,43 +1758,43 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A5" s="9"/>
-      <c r="B5" s="39" t="s">
+      <c r="B5" s="48" t="s">
+        <v>34</v>
+      </c>
+      <c r="C5" s="50" t="s">
         <v>35</v>
       </c>
-      <c r="C5" s="41" t="s">
-        <v>36</v>
-      </c>
       <c r="D5" s="2" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>4</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A6" s="9"/>
-      <c r="B6" s="40"/>
-      <c r="C6" s="42"/>
+      <c r="B6" s="49"/>
+      <c r="C6" s="51"/>
       <c r="D6" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>4</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A7" s="9"/>
       <c r="B7" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="C7" s="1" t="s">
         <v>212</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>213</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>14</v>
@@ -1774,10 +1809,10 @@
     <row r="8" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A8" s="9"/>
       <c r="B8" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="C8" s="1" t="s">
         <v>121</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>122</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>3</v>
@@ -1786,50 +1821,50 @@
         <v>4</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A9" s="9"/>
       <c r="B9" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="C9" s="1" t="s">
         <v>228</v>
       </c>
-      <c r="C9" s="1" t="s">
+      <c r="D9" s="2" t="s">
         <v>229</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>230</v>
       </c>
       <c r="E9" s="2" t="s">
         <v>3</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A10" s="10"/>
       <c r="B10" s="2" t="s">
+        <v>231</v>
+      </c>
+      <c r="C10" s="1" t="s">
         <v>232</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>233</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
       <c r="F10" s="29" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A11" s="48" t="s">
+      <c r="A11" s="58" t="s">
         <v>15</v>
       </c>
-      <c r="B11" s="48"/>
-      <c r="C11" s="48"/>
-      <c r="D11" s="48"/>
-      <c r="E11" s="48"/>
-      <c r="F11" s="48"/>
+      <c r="B11" s="58"/>
+      <c r="C11" s="58"/>
+      <c r="D11" s="58"/>
+      <c r="E11" s="58"/>
+      <c r="F11" s="58"/>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A12" s="9"/>
@@ -1852,47 +1887,47 @@
     <row r="13" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A13" s="9"/>
       <c r="B13" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D13" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="C13" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="D13" s="2" t="s">
+      <c r="E13" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="F13" s="2" t="s">
         <v>40</v>
-      </c>
-      <c r="E13" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="F13" s="2" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A14" s="11"/>
       <c r="B14" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C14" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="C14" s="1" t="s">
+      <c r="D14" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F14" s="7" t="s">
         <v>43</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E14" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A15" s="9"/>
       <c r="B15" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C15" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="C15" s="1" t="s">
-        <v>46</v>
-      </c>
       <c r="D15" s="2" t="s">
         <v>18</v>
       </c>
@@ -1900,92 +1935,92 @@
         <v>4</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A16" s="2"/>
       <c r="B16" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C16" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F16" s="8" t="s">
         <v>58</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="E16" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="F16" s="8" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A17" s="9"/>
       <c r="B17" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="D17" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="C17" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="D17" s="2" t="s">
+      <c r="E17" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F17" s="8" t="s">
         <v>131</v>
-      </c>
-      <c r="E17" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="F17" s="8" t="s">
-        <v>132</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A18" s="9"/>
       <c r="B18" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="C18" s="1" t="s">
         <v>219</v>
       </c>
-      <c r="C18" s="1" t="s">
+      <c r="D18" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F18" s="8" t="s">
         <v>220</v>
-      </c>
-      <c r="D18" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E18" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="F18" s="8" t="s">
-        <v>221</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A19" s="9"/>
       <c r="B19" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="C19" s="1" t="s">
         <v>255</v>
       </c>
-      <c r="C19" s="1" t="s">
+      <c r="D19" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F19" s="8" t="s">
         <v>256</v>
       </c>
-      <c r="D19" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E19" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="F19" s="8" t="s">
-        <v>257</v>
-      </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A20" s="48" t="s">
+      <c r="A20" s="58" t="s">
         <v>22</v>
       </c>
-      <c r="B20" s="48"/>
-      <c r="C20" s="48"/>
-      <c r="D20" s="48"/>
-      <c r="E20" s="48"/>
-      <c r="F20" s="48"/>
+      <c r="B20" s="58"/>
+      <c r="C20" s="58"/>
+      <c r="D20" s="58"/>
+      <c r="E20" s="58"/>
+      <c r="F20" s="58"/>
       <c r="G20" s="34" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.35">
@@ -2006,7 +2041,7 @@
         <v>27</v>
       </c>
       <c r="G21" s="35" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.35">
@@ -2027,210 +2062,210 @@
         <v>27</v>
       </c>
       <c r="G22" s="35" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A23" s="2"/>
       <c r="B23" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C23" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="C23" s="1" t="s">
+      <c r="D23" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F23" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="D23" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E23" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="F23" s="2" t="s">
-        <v>49</v>
-      </c>
       <c r="G23" s="35" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A24" s="2"/>
       <c r="B24" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C24" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D24" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="D24" s="2" t="s">
+      <c r="E24" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F24" s="2" t="s">
         <v>51</v>
-      </c>
-      <c r="E24" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="F24" s="2" t="s">
-        <v>52</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A25" s="31"/>
       <c r="B25" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C25" s="1" t="s">
         <v>54</v>
-      </c>
-      <c r="C25" s="1" t="s">
-        <v>55</v>
       </c>
       <c r="D25" s="2" t="s">
         <v>3</v>
       </c>
       <c r="E25" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="F25" s="2" t="s">
         <v>56</v>
-      </c>
-      <c r="F25" s="2" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="26" spans="1:7" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A26" s="30"/>
       <c r="B26" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="C26" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="C26" s="1" t="s">
+      <c r="D26" s="2" t="s">
         <v>127</v>
-      </c>
-      <c r="D26" s="2" t="s">
-        <v>128</v>
       </c>
       <c r="E26" s="2" t="s">
         <v>14</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="27" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A27" s="32"/>
       <c r="B27" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="D27" s="33" t="s">
+        <v>205</v>
+      </c>
+      <c r="E27" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="F27" s="2" t="s">
         <v>204</v>
-      </c>
-      <c r="C27" s="1" t="s">
-        <v>203</v>
-      </c>
-      <c r="D27" s="33" t="s">
-        <v>206</v>
-      </c>
-      <c r="E27" s="2" t="s">
-        <v>207</v>
-      </c>
-      <c r="F27" s="2" t="s">
-        <v>205</v>
       </c>
     </row>
     <row r="28" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A28" s="30"/>
       <c r="B28" s="2" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E28" s="2" t="s">
         <v>14</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="29" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A29" s="30"/>
       <c r="B29" s="2" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E29" s="2" t="s">
         <v>14</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A30" s="51" t="s">
-        <v>241</v>
-      </c>
-      <c r="B30" s="52"/>
-      <c r="C30" s="52"/>
-      <c r="D30" s="52"/>
-      <c r="E30" s="52"/>
-      <c r="F30" s="53"/>
+      <c r="A30" s="63" t="s">
+        <v>240</v>
+      </c>
+      <c r="B30" s="64"/>
+      <c r="C30" s="64"/>
+      <c r="D30" s="64"/>
+      <c r="E30" s="64"/>
+      <c r="F30" s="65"/>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A31" s="9"/>
       <c r="B31" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="C31" s="1" t="s">
         <v>242</v>
       </c>
-      <c r="C31" s="1" t="s">
+      <c r="D31" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="E31" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="F31" s="2" t="s">
+        <v>247</v>
+      </c>
+      <c r="G31" s="38" t="s">
         <v>243</v>
       </c>
-      <c r="D31" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="E31" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="F31" s="2" t="s">
-        <v>248</v>
-      </c>
-      <c r="G31" s="38" t="s">
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A32" s="43" t="s">
+        <v>95</v>
+      </c>
+      <c r="B32" s="44"/>
+      <c r="C32" s="44"/>
+      <c r="D32" s="44"/>
+      <c r="E32" s="44"/>
+      <c r="F32" s="45"/>
+      <c r="G32" s="38" t="s">
         <v>244</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A32" s="54" t="s">
-        <v>96</v>
-      </c>
-      <c r="B32" s="55"/>
-      <c r="C32" s="55"/>
-      <c r="D32" s="55"/>
-      <c r="E32" s="55"/>
-      <c r="F32" s="56"/>
-      <c r="G32" s="38" t="s">
-        <v>245</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A33" s="9"/>
       <c r="B33" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C33" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="D33" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="D33" s="2" t="s">
+      <c r="E33" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="E33" s="2" t="s">
+      <c r="F33" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="F33" s="2" t="s">
-        <v>100</v>
-      </c>
       <c r="G33" s="38" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A34" s="26"/>
       <c r="B34" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="C34" s="1" t="s">
         <v>177</v>
-      </c>
-      <c r="C34" s="1" t="s">
-        <v>178</v>
       </c>
       <c r="D34" s="2" t="s">
         <v>18</v>
@@ -2242,16 +2277,16 @@
         <v>13</v>
       </c>
       <c r="G34" s="38" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A35" s="26"/>
       <c r="B35" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="C35" s="1" t="s">
         <v>179</v>
-      </c>
-      <c r="C35" s="1" t="s">
-        <v>180</v>
       </c>
       <c r="D35" s="2" t="s">
         <v>18</v>
@@ -2264,106 +2299,106 @@
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A36" s="43"/>
-      <c r="B36" s="45" t="s">
+      <c r="A36" s="46"/>
+      <c r="B36" s="52" t="s">
+        <v>104</v>
+      </c>
+      <c r="C36" s="42" t="s">
         <v>105</v>
       </c>
-      <c r="C36" s="49" t="s">
+      <c r="D36" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E36" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F36" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="D36" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E36" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="F36" s="2" t="s">
-        <v>107</v>
-      </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A37" s="44"/>
-      <c r="B37" s="45"/>
-      <c r="C37" s="49"/>
+      <c r="A37" s="47"/>
+      <c r="B37" s="52"/>
+      <c r="C37" s="42"/>
       <c r="D37" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="E37" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="E37" s="2" t="s">
-        <v>99</v>
-      </c>
       <c r="F37" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="38" spans="1:7" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A38" s="9"/>
       <c r="B38" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="C38" s="1" t="s">
         <v>101</v>
-      </c>
-      <c r="C38" s="1" t="s">
-        <v>102</v>
       </c>
       <c r="D38" s="2" t="s">
         <v>14</v>
       </c>
       <c r="E38" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="F38" s="2" t="s">
         <v>103</v>
-      </c>
-      <c r="F38" s="2" t="s">
-        <v>104</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A39" s="2"/>
       <c r="B39" s="2"/>
       <c r="C39" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D39" s="2"/>
       <c r="E39" s="2"/>
       <c r="F39" s="29" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="40" spans="1:7" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A40" s="9"/>
       <c r="B40" s="2" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E40" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="F40" s="2" t="s">
         <v>103</v>
-      </c>
-      <c r="F40" s="2" t="s">
-        <v>104</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A41" s="10"/>
       <c r="B41" s="2" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D41" s="2"/>
       <c r="E41" s="2"/>
       <c r="F41" s="29" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="42" spans="1:7" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A42" s="59"/>
-      <c r="B42" s="39" t="s">
+      <c r="A42" s="53"/>
+      <c r="B42" s="48" t="s">
+        <v>181</v>
+      </c>
+      <c r="C42" s="50" t="s">
         <v>182</v>
-      </c>
-      <c r="C42" s="41" t="s">
-        <v>183</v>
       </c>
       <c r="D42" s="2" t="s">
         <v>14</v>
@@ -2372,29 +2407,29 @@
         <v>4</v>
       </c>
       <c r="F42" s="2" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A43" s="54"/>
+      <c r="B43" s="56"/>
+      <c r="C43" s="57"/>
+      <c r="D43" s="2" t="s">
         <v>184</v>
       </c>
-    </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A43" s="60"/>
-      <c r="B43" s="62"/>
-      <c r="C43" s="63"/>
-      <c r="D43" s="2" t="s">
+      <c r="E43" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F43" s="2" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A44" s="54"/>
+      <c r="B44" s="56"/>
+      <c r="C44" s="57"/>
+      <c r="D44" s="2" t="s">
         <v>185</v>
-      </c>
-      <c r="E43" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="F43" s="2" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A44" s="60"/>
-      <c r="B44" s="62"/>
-      <c r="C44" s="63"/>
-      <c r="D44" s="2" t="s">
-        <v>186</v>
       </c>
       <c r="E44" s="2" t="s">
         <v>18</v>
@@ -2404,27 +2439,27 @@
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A45" s="61"/>
-      <c r="B45" s="40"/>
-      <c r="C45" s="42"/>
+      <c r="A45" s="55"/>
+      <c r="B45" s="49"/>
+      <c r="C45" s="51"/>
       <c r="D45" s="2" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="E45" s="2" t="s">
         <v>4</v>
       </c>
       <c r="F45" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A46" s="23"/>
       <c r="B46" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="C46" s="24" t="s">
         <v>187</v>
       </c>
-      <c r="C46" s="24" t="s">
-        <v>188</v>
-      </c>
       <c r="D46" s="2" t="s">
         <v>18</v>
       </c>
@@ -2432,53 +2467,53 @@
         <v>18</v>
       </c>
       <c r="F46" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A47" s="28"/>
       <c r="B47" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="C47" s="27" t="s">
         <v>197</v>
       </c>
-      <c r="C47" s="27" t="s">
+      <c r="D47" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E47" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F47" s="2" t="s">
         <v>198</v>
-      </c>
-      <c r="D47" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E47" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="F47" s="2" t="s">
-        <v>199</v>
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A48" s="28"/>
       <c r="B48" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="C48" s="27" t="s">
         <v>200</v>
       </c>
-      <c r="C48" s="27" t="s">
+      <c r="D48" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E48" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F48" s="2" t="s">
         <v>201</v>
-      </c>
-      <c r="D48" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E48" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="F48" s="2" t="s">
-        <v>202</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A49" s="25"/>
       <c r="B49" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="C49" s="24" t="s">
         <v>189</v>
       </c>
-      <c r="C49" s="24" t="s">
-        <v>190</v>
-      </c>
       <c r="D49" s="2" t="s">
         <v>18</v>
       </c>
@@ -2486,7 +2521,7 @@
         <v>4</v>
       </c>
       <c r="F49" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.35">
@@ -2504,22 +2539,22 @@
         <v>4</v>
       </c>
       <c r="F50" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A51" s="9"/>
       <c r="B51" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="C51" s="1" t="s">
         <v>214</v>
       </c>
-      <c r="C51" s="1" t="s">
-        <v>215</v>
-      </c>
       <c r="D51" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="F51" s="2" t="s">
         <v>13</v>
@@ -2528,13 +2563,13 @@
     <row r="52" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A52" s="11"/>
       <c r="B52" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="C52" s="1" t="s">
         <v>216</v>
       </c>
-      <c r="C52" s="1" t="s">
-        <v>217</v>
-      </c>
       <c r="D52" s="2" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E52" s="2" t="s">
         <v>4</v>
@@ -2544,116 +2579,116 @@
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A53" s="46"/>
-      <c r="B53" s="39" t="s">
+      <c r="A53" s="59"/>
+      <c r="B53" s="48" t="s">
+        <v>234</v>
+      </c>
+      <c r="C53" s="50" t="s">
+        <v>233</v>
+      </c>
+      <c r="D53" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="E53" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="F53" s="2" t="s">
         <v>235</v>
       </c>
-      <c r="C53" s="41" t="s">
-        <v>234</v>
-      </c>
-      <c r="D53" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="E53" s="2" t="s">
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A54" s="60"/>
+      <c r="B54" s="56"/>
+      <c r="C54" s="57"/>
+      <c r="D54" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E54" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F54" s="2" t="s">
         <v>237</v>
       </c>
-      <c r="F53" s="2" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A54" s="64"/>
-      <c r="B54" s="62"/>
-      <c r="C54" s="63"/>
-      <c r="D54" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E54" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="F54" s="2" t="s">
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A55" s="60"/>
+      <c r="B55" s="56"/>
+      <c r="C55" s="57"/>
+      <c r="D55" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E55" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="F55" s="37" t="s">
         <v>238</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A55" s="64"/>
-      <c r="B55" s="62"/>
-      <c r="C55" s="63"/>
-      <c r="D55" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E55" s="2" t="s">
-        <v>240</v>
-      </c>
-      <c r="F55" s="37" t="s">
-        <v>239</v>
-      </c>
-    </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A56" s="64"/>
-      <c r="B56" s="62"/>
-      <c r="C56" s="63"/>
+      <c r="A56" s="60"/>
+      <c r="B56" s="56"/>
+      <c r="C56" s="57"/>
       <c r="D56" s="2"/>
       <c r="E56" s="2"/>
       <c r="F56" s="2"/>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A57" s="64"/>
-      <c r="B57" s="62"/>
-      <c r="C57" s="63"/>
+      <c r="A57" s="60"/>
+      <c r="B57" s="56"/>
+      <c r="C57" s="57"/>
       <c r="D57" s="2"/>
       <c r="E57" s="2"/>
       <c r="F57" s="2"/>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A58" s="64"/>
-      <c r="B58" s="62"/>
-      <c r="C58" s="63"/>
+      <c r="A58" s="60"/>
+      <c r="B58" s="56"/>
+      <c r="C58" s="57"/>
       <c r="D58" s="2"/>
       <c r="E58" s="2"/>
       <c r="F58" s="2"/>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A59" s="47"/>
-      <c r="B59" s="40"/>
-      <c r="C59" s="42"/>
+      <c r="A59" s="61"/>
+      <c r="B59" s="49"/>
+      <c r="C59" s="51"/>
       <c r="D59" s="2"/>
       <c r="E59" s="2"/>
       <c r="F59" s="2"/>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A60" s="48" t="s">
-        <v>191</v>
-      </c>
-      <c r="B60" s="48"/>
-      <c r="C60" s="48"/>
-      <c r="D60" s="48"/>
-      <c r="E60" s="48"/>
-      <c r="F60" s="48"/>
+      <c r="A60" s="58" t="s">
+        <v>190</v>
+      </c>
+      <c r="B60" s="58"/>
+      <c r="C60" s="58"/>
+      <c r="D60" s="58"/>
+      <c r="E60" s="58"/>
+      <c r="F60" s="58"/>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A61" s="9"/>
       <c r="B61" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="C61" s="2" t="s">
         <v>192</v>
-      </c>
-      <c r="C61" s="2" t="s">
-        <v>193</v>
       </c>
       <c r="D61" s="2"/>
       <c r="E61" s="2"/>
       <c r="F61" s="2" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A62" s="54" t="s">
+      <c r="A62" s="43" t="s">
         <v>28</v>
       </c>
-      <c r="B62" s="55"/>
-      <c r="C62" s="55"/>
-      <c r="D62" s="55"/>
-      <c r="E62" s="55"/>
-      <c r="F62" s="56"/>
+      <c r="B62" s="44"/>
+      <c r="C62" s="44"/>
+      <c r="D62" s="44"/>
+      <c r="E62" s="44"/>
+      <c r="F62" s="45"/>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A63" s="2"/>
@@ -2664,14 +2699,14 @@
       <c r="F63" s="2"/>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A64" s="48" t="s">
+      <c r="A64" s="58" t="s">
         <v>29</v>
       </c>
-      <c r="B64" s="48"/>
-      <c r="C64" s="48"/>
-      <c r="D64" s="48"/>
-      <c r="E64" s="48"/>
-      <c r="F64" s="48"/>
+      <c r="B64" s="58"/>
+      <c r="C64" s="58"/>
+      <c r="D64" s="58"/>
+      <c r="E64" s="58"/>
+      <c r="F64" s="58"/>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A65" s="2"/>
@@ -2682,22 +2717,22 @@
       <c r="F65" s="2"/>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A66" s="48" t="s">
+      <c r="A66" s="58" t="s">
         <v>30</v>
       </c>
-      <c r="B66" s="48"/>
-      <c r="C66" s="48"/>
-      <c r="D66" s="48"/>
-      <c r="E66" s="48"/>
-      <c r="F66" s="48"/>
+      <c r="B66" s="58"/>
+      <c r="C66" s="58"/>
+      <c r="D66" s="58"/>
+      <c r="E66" s="58"/>
+      <c r="F66" s="58"/>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A67" s="11"/>
       <c r="B67" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="C67" s="1" t="s">
         <v>133</v>
-      </c>
-      <c r="C67" s="1" t="s">
-        <v>134</v>
       </c>
       <c r="D67" s="2" t="s">
         <v>18</v>
@@ -2712,10 +2747,10 @@
     <row r="68" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A68" s="11"/>
       <c r="B68" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="C68" s="1" t="s">
         <v>135</v>
-      </c>
-      <c r="C68" s="1" t="s">
-        <v>136</v>
       </c>
       <c r="D68" s="2" t="s">
         <v>18</v>
@@ -2728,47 +2763,47 @@
       </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A69" s="50"/>
-      <c r="B69" s="45" t="s">
+      <c r="A69" s="66"/>
+      <c r="B69" s="52" t="s">
+        <v>156</v>
+      </c>
+      <c r="C69" s="42" t="s">
         <v>157</v>
       </c>
-      <c r="C69" s="49" t="s">
+      <c r="D69" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E69" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F69" s="2" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A70" s="66"/>
+      <c r="B70" s="52"/>
+      <c r="C70" s="42"/>
+      <c r="D70" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E70" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F70" s="2" t="s">
         <v>158</v>
-      </c>
-      <c r="D69" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E69" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="F69" s="2" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A70" s="50"/>
-      <c r="B70" s="45"/>
-      <c r="C70" s="49"/>
-      <c r="D70" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E70" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="F70" s="2" t="s">
-        <v>159</v>
       </c>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A71" s="11"/>
       <c r="B71" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="C71" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="C71" s="1" t="s">
+      <c r="D71" s="2" t="s">
         <v>138</v>
-      </c>
-      <c r="D71" s="2" t="s">
-        <v>139</v>
       </c>
       <c r="E71" s="2" t="s">
         <v>4</v>
@@ -2780,13 +2815,13 @@
     <row r="72" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A72" s="9"/>
       <c r="B72" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="C72" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="C72" s="1" t="s">
-        <v>144</v>
-      </c>
       <c r="D72" s="2" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E72" s="2" t="s">
         <v>4</v>
@@ -2798,193 +2833,193 @@
     <row r="73" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A73" s="9"/>
       <c r="B73" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="C73" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="D73" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E73" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F73" s="2" t="s">
         <v>146</v>
-      </c>
-      <c r="C73" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="D73" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E73" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="F73" s="2" t="s">
-        <v>147</v>
       </c>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A74" s="11"/>
       <c r="B74" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="C74" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="C74" s="1" t="s">
+      <c r="D74" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E74" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F74" s="2" t="s">
         <v>141</v>
       </c>
-      <c r="D74" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="E74" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="F74" s="2" t="s">
-        <v>142</v>
-      </c>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A75" s="58"/>
-      <c r="B75" s="45" t="s">
+      <c r="A75" s="41"/>
+      <c r="B75" s="52" t="s">
+        <v>150</v>
+      </c>
+      <c r="C75" s="42" t="s">
         <v>151</v>
       </c>
-      <c r="C75" s="49" t="s">
-        <v>152</v>
-      </c>
       <c r="D75" s="2" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F75" s="2" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A76" s="41"/>
+      <c r="B76" s="52"/>
+      <c r="C76" s="42"/>
+      <c r="D76" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="E76" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F76" s="2" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A76" s="58"/>
-      <c r="B76" s="45"/>
-      <c r="C76" s="49"/>
-      <c r="D76" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="E76" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="F76" s="2" t="s">
-        <v>156</v>
-      </c>
-    </row>
     <row r="77" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A77" s="43"/>
-      <c r="B77" s="45" t="s">
+      <c r="A77" s="46"/>
+      <c r="B77" s="52" t="s">
+        <v>165</v>
+      </c>
+      <c r="C77" s="50" t="s">
         <v>166</v>
       </c>
-      <c r="C77" s="41" t="s">
+      <c r="D77" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="E77" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F77" s="2" t="s">
         <v>167</v>
       </c>
-      <c r="D77" s="21" t="s">
-        <v>18</v>
-      </c>
-      <c r="E77" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="F77" s="2" t="s">
+    </row>
+    <row r="78" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A78" s="47"/>
+      <c r="B78" s="52"/>
+      <c r="C78" s="51"/>
+      <c r="D78" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="E78" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F78" s="1" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="78" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A78" s="44"/>
-      <c r="B78" s="45"/>
-      <c r="C78" s="42"/>
-      <c r="D78" s="21" t="s">
-        <v>18</v>
-      </c>
-      <c r="E78" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="F78" s="1" t="s">
+    <row r="79" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A79" s="59"/>
+      <c r="B79" s="52" t="s">
+        <v>171</v>
+      </c>
+      <c r="C79" s="50" t="s">
         <v>169</v>
       </c>
-    </row>
-    <row r="79" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A79" s="46"/>
-      <c r="B79" s="45" t="s">
-        <v>172</v>
-      </c>
-      <c r="C79" s="41" t="s">
+      <c r="D79" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="E79" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F79" s="2" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A80" s="61"/>
+      <c r="B80" s="52"/>
+      <c r="C80" s="51"/>
+      <c r="D80" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="E80" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F80" s="1" t="s">
         <v>170</v>
       </c>
-      <c r="D79" s="21" t="s">
-        <v>18</v>
-      </c>
-      <c r="E79" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="F79" s="2" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="80" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A80" s="47"/>
-      <c r="B80" s="45"/>
-      <c r="C80" s="42"/>
-      <c r="D80" s="21" t="s">
-        <v>18</v>
-      </c>
-      <c r="E80" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="F80" s="1" t="s">
-        <v>171</v>
-      </c>
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A81" s="43"/>
-      <c r="B81" s="39" t="s">
+      <c r="A81" s="46"/>
+      <c r="B81" s="48" t="s">
+        <v>161</v>
+      </c>
+      <c r="C81" s="50" t="s">
         <v>162</v>
       </c>
-      <c r="C81" s="41" t="s">
+      <c r="D81" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="E81" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F81" s="2" t="s">
         <v>163</v>
       </c>
-      <c r="D81" s="18" t="s">
-        <v>18</v>
-      </c>
-      <c r="E81" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="F81" s="2" t="s">
+    </row>
+    <row r="82" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A82" s="47"/>
+      <c r="B82" s="49"/>
+      <c r="C82" s="51"/>
+      <c r="D82" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E82" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F82" s="2" t="s">
         <v>164</v>
-      </c>
-    </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A82" s="44"/>
-      <c r="B82" s="40"/>
-      <c r="C82" s="42"/>
-      <c r="D82" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E82" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="F82" s="2" t="s">
-        <v>165</v>
       </c>
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A83" s="22"/>
       <c r="B83" s="19" t="s">
+        <v>172</v>
+      </c>
+      <c r="C83" s="20" t="s">
         <v>173</v>
       </c>
-      <c r="C83" s="20" t="s">
+      <c r="D83" s="2" t="s">
         <v>174</v>
       </c>
-      <c r="D83" s="2" t="s">
+      <c r="E83" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F83" s="2" t="s">
         <v>175</v>
-      </c>
-      <c r="E83" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="F83" s="2" t="s">
-        <v>176</v>
       </c>
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A84" s="17"/>
       <c r="B84" s="16" t="s">
+        <v>159</v>
+      </c>
+      <c r="C84" s="15" t="s">
         <v>160</v>
       </c>
-      <c r="C84" s="15" t="s">
-        <v>161</v>
-      </c>
       <c r="D84" s="2" t="s">
         <v>18</v>
       </c>
@@ -2992,31 +3027,31 @@
         <v>4</v>
       </c>
       <c r="F84" s="2" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A85" s="62"/>
+      <c r="B85" s="52" t="s">
         <v>147</v>
       </c>
-    </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A85" s="57"/>
-      <c r="B85" s="45" t="s">
+      <c r="C85" s="42" t="s">
         <v>148</v>
       </c>
-      <c r="C85" s="49" t="s">
+      <c r="D85" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E85" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F85" s="2" t="s">
         <v>149</v>
       </c>
-      <c r="D85" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E85" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="F85" s="2" t="s">
-        <v>150</v>
-      </c>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A86" s="57"/>
-      <c r="B86" s="45"/>
-      <c r="C86" s="49"/>
+      <c r="A86" s="62"/>
+      <c r="B86" s="52"/>
+      <c r="C86" s="42"/>
       <c r="D86" s="2" t="s">
         <v>18</v>
       </c>
@@ -3024,26 +3059,26 @@
         <v>4</v>
       </c>
       <c r="F86" s="2" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A87" s="48" t="s">
-        <v>64</v>
-      </c>
-      <c r="B87" s="48"/>
-      <c r="C87" s="48"/>
-      <c r="D87" s="48"/>
-      <c r="E87" s="48"/>
-      <c r="F87" s="48"/>
+      <c r="A87" s="58" t="s">
+        <v>63</v>
+      </c>
+      <c r="B87" s="58"/>
+      <c r="C87" s="58"/>
+      <c r="D87" s="58"/>
+      <c r="E87" s="58"/>
+      <c r="F87" s="58"/>
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A88" s="2"/>
-      <c r="B88" s="45" t="s">
-        <v>65</v>
-      </c>
-      <c r="C88" s="49" t="s">
-        <v>62</v>
+      <c r="B88" s="52" t="s">
+        <v>64</v>
+      </c>
+      <c r="C88" s="42" t="s">
+        <v>61</v>
       </c>
       <c r="D88" s="2" t="s">
         <v>18</v>
@@ -3052,13 +3087,13 @@
         <v>18</v>
       </c>
       <c r="F88" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A89" s="2"/>
-      <c r="B89" s="45"/>
-      <c r="C89" s="49"/>
+      <c r="B89" s="52"/>
+      <c r="C89" s="42"/>
       <c r="D89" s="2" t="s">
         <v>18</v>
       </c>
@@ -3066,31 +3101,31 @@
         <v>4</v>
       </c>
       <c r="F89" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A90" s="2"/>
-      <c r="B90" s="45" t="s">
+      <c r="B90" s="52" t="s">
+        <v>65</v>
+      </c>
+      <c r="C90" s="42" t="s">
         <v>66</v>
       </c>
-      <c r="C90" s="49" t="s">
+      <c r="D90" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E90" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F90" s="2" t="s">
         <v>67</v>
-      </c>
-      <c r="D90" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E90" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="F90" s="2" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A91" s="2"/>
-      <c r="B91" s="45"/>
-      <c r="C91" s="49"/>
+      <c r="B91" s="52"/>
+      <c r="C91" s="42"/>
       <c r="D91" s="2" t="s">
         <v>18</v>
       </c>
@@ -3098,110 +3133,110 @@
         <v>4</v>
       </c>
       <c r="F91" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A92" s="2"/>
       <c r="B92" s="14" t="s">
+        <v>79</v>
+      </c>
+      <c r="C92" s="15" t="s">
         <v>80</v>
       </c>
-      <c r="C92" s="15" t="s">
+      <c r="D92" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E92" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="F92" s="2" t="s">
         <v>81</v>
-      </c>
-      <c r="D92" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E92" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="F92" s="2" t="s">
-        <v>82</v>
       </c>
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A93" s="2"/>
       <c r="B93" s="14" t="s">
+        <v>75</v>
+      </c>
+      <c r="C93" s="15" t="s">
         <v>76</v>
       </c>
-      <c r="C93" s="15" t="s">
+      <c r="D93" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E93" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="D93" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E93" s="2" t="s">
+      <c r="F93" s="2" t="s">
         <v>78</v>
-      </c>
-      <c r="F93" s="2" t="s">
-        <v>79</v>
       </c>
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A94" s="2"/>
-      <c r="B94" s="45" t="s">
-        <v>84</v>
-      </c>
-      <c r="C94" s="49" t="s">
+      <c r="B94" s="52" t="s">
         <v>83</v>
       </c>
+      <c r="C94" s="42" t="s">
+        <v>82</v>
+      </c>
       <c r="D94" s="2" t="s">
         <v>18</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F94" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A95" s="2"/>
-      <c r="B95" s="45"/>
-      <c r="C95" s="49"/>
+      <c r="B95" s="52"/>
+      <c r="C95" s="42"/>
       <c r="D95" s="2" t="s">
         <v>18</v>
       </c>
       <c r="E95" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="F95" s="2" t="s">
         <v>85</v>
-      </c>
-      <c r="F95" s="2" t="s">
-        <v>86</v>
       </c>
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A96" s="2"/>
-      <c r="B96" s="45" t="s">
+      <c r="B96" s="52" t="s">
+        <v>86</v>
+      </c>
+      <c r="C96" s="42" t="s">
         <v>87</v>
       </c>
-      <c r="C96" s="49" t="s">
-        <v>88</v>
-      </c>
       <c r="D96" s="2" t="s">
         <v>18</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F96" s="2" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.35">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A97" s="2"/>
-      <c r="B97" s="45"/>
-      <c r="C97" s="49"/>
+      <c r="B97" s="52"/>
+      <c r="C97" s="42"/>
       <c r="D97" s="2" t="s">
         <v>18</v>
       </c>
       <c r="E97" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="F97" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="F97" s="2" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="98" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A98" s="2"/>
       <c r="B98" s="14"/>
       <c r="C98" s="15"/>
@@ -3209,260 +3244,374 @@
       <c r="E98" s="2"/>
       <c r="F98" s="2"/>
     </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A99" s="48" t="s">
-        <v>89</v>
-      </c>
-      <c r="B99" s="48"/>
-      <c r="C99" s="48"/>
-      <c r="D99" s="48"/>
-      <c r="E99" s="48"/>
-      <c r="F99" s="48"/>
-    </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A99" s="58" t="s">
+        <v>88</v>
+      </c>
+      <c r="B99" s="58"/>
+      <c r="C99" s="58"/>
+      <c r="D99" s="58"/>
+      <c r="E99" s="58"/>
+      <c r="F99" s="58"/>
+    </row>
+    <row r="100" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A100" s="2"/>
       <c r="B100" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="C100" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="D100" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="C100" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="D100" s="4" t="s">
-        <v>92</v>
-      </c>
       <c r="E100" s="4" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F100" s="4"/>
     </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A101" s="2"/>
       <c r="B101" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="C101" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="D101" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="E101" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="F101" s="12" t="s">
         <v>94</v>
       </c>
-      <c r="C101" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="D101" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="E101" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="F101" s="12" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A102" s="48" t="s">
+    </row>
+    <row r="102" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A102" s="58" t="s">
         <v>31</v>
       </c>
-      <c r="B102" s="48"/>
-      <c r="C102" s="48"/>
-      <c r="D102" s="48"/>
-      <c r="E102" s="48"/>
-      <c r="F102" s="48"/>
-    </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="B102" s="58"/>
+      <c r="C102" s="58"/>
+      <c r="D102" s="58"/>
+      <c r="E102" s="58"/>
+      <c r="F102" s="58"/>
+    </row>
+    <row r="103" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A103" s="2"/>
       <c r="B103" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="C103" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="C103" s="1" t="s">
+      <c r="D103" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="D103" s="2" t="s">
+      <c r="E103" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="E103" s="2" t="s">
+      <c r="F103" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="F103" s="2" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="104" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A104" s="2"/>
       <c r="B104" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="C104" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="C104" s="1" t="s">
-        <v>75</v>
-      </c>
       <c r="D104" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E104" s="2"/>
       <c r="F104" s="2"/>
     </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A105" s="10"/>
       <c r="B105" s="2" t="s">
+        <v>251</v>
+      </c>
+      <c r="C105" s="1" t="s">
         <v>252</v>
       </c>
-      <c r="C105" s="1" t="s">
+      <c r="D105" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E105" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F105" s="2" t="s">
         <v>253</v>
       </c>
-      <c r="D105" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E105" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="F105" s="2" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="106" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A106" s="48" t="s">
+      <c r="G105" s="39" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="106" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A106" s="58" t="s">
+        <v>258</v>
+      </c>
+      <c r="B106" s="58"/>
+      <c r="C106" s="58"/>
+      <c r="D106" s="58"/>
+      <c r="E106" s="58"/>
+      <c r="F106" s="58"/>
+    </row>
+    <row r="107" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A107" s="9"/>
+      <c r="B107" s="2" t="s">
+        <v>259</v>
+      </c>
+      <c r="C107" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="D107" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="E107" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F107" s="2" t="s">
+        <v>261</v>
+      </c>
+      <c r="G107" s="39" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="108" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A108" s="10"/>
+      <c r="B108" s="2" t="s">
+        <v>263</v>
+      </c>
+      <c r="C108" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="D108" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="E108" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F108" s="2" t="s">
+        <v>261</v>
+      </c>
+      <c r="G108" s="40"/>
+    </row>
+    <row r="109" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A109" s="10"/>
+      <c r="B109" s="2"/>
+      <c r="C109" s="1"/>
+      <c r="D109" s="2"/>
+      <c r="E109" s="2"/>
+      <c r="F109" s="2"/>
+      <c r="G109" s="40"/>
+    </row>
+    <row r="110" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A110" s="58" t="s">
+        <v>249</v>
+      </c>
+      <c r="B110" s="58"/>
+      <c r="C110" s="58"/>
+      <c r="D110" s="58"/>
+      <c r="E110" s="58"/>
+      <c r="F110" s="58"/>
+    </row>
+    <row r="111" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A111" s="9"/>
+      <c r="B111" s="2" t="s">
+        <v>265</v>
+      </c>
+      <c r="C111" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="D111" s="2" t="s">
+        <v>267</v>
+      </c>
+      <c r="E111" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F111" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="G111" s="40"/>
+    </row>
+    <row r="112" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A112" s="58" t="s">
         <v>32</v>
       </c>
-      <c r="B106" s="48"/>
-      <c r="C106" s="48"/>
-      <c r="D106" s="48"/>
-      <c r="E106" s="48"/>
-      <c r="F106" s="48"/>
-    </row>
-    <row r="107" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A107" s="2"/>
-      <c r="B107" s="2"/>
-      <c r="C107" s="2"/>
-      <c r="D107" s="2"/>
-      <c r="E107" s="2"/>
-      <c r="F107" s="2"/>
-    </row>
-    <row r="108" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A108" s="48" t="s">
-        <v>33</v>
-      </c>
-      <c r="B108" s="48"/>
-      <c r="C108" s="48"/>
-      <c r="D108" s="48"/>
-      <c r="E108" s="48"/>
-      <c r="F108" s="48"/>
-    </row>
-    <row r="109" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A109" s="2"/>
-      <c r="B109" s="45" t="s">
-        <v>110</v>
-      </c>
-      <c r="C109" s="49" t="s">
-        <v>111</v>
-      </c>
-      <c r="D109" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="E109" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="F109" s="2" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="110" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A110" s="2"/>
-      <c r="B110" s="45"/>
-      <c r="C110" s="45"/>
-      <c r="D110" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="E110" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="F110" s="2" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="111" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A111" s="2"/>
-      <c r="B111" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="C111" s="15" t="s">
-        <v>114</v>
-      </c>
-      <c r="D111" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E111" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="F111" s="2" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="112" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A112" s="2"/>
-      <c r="B112" s="45" t="s">
-        <v>117</v>
-      </c>
-      <c r="C112" s="49" t="s">
-        <v>118</v>
-      </c>
-      <c r="D112" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="E112" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="F112" s="2" t="s">
-        <v>119</v>
-      </c>
+      <c r="B112" s="58"/>
+      <c r="C112" s="58"/>
+      <c r="D112" s="58"/>
+      <c r="E112" s="58"/>
+      <c r="F112" s="58"/>
     </row>
     <row r="113" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A113" s="2"/>
-      <c r="B113" s="45"/>
-      <c r="C113" s="49"/>
+      <c r="B113" s="52" t="s">
+        <v>109</v>
+      </c>
+      <c r="C113" s="42" t="s">
+        <v>110</v>
+      </c>
       <c r="D113" s="2" t="s">
-        <v>18</v>
+        <v>115</v>
       </c>
       <c r="E113" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="F113" s="13" t="s">
-        <v>120</v>
+        <v>115</v>
+      </c>
+      <c r="F113" s="2" t="s">
+        <v>111</v>
       </c>
     </row>
     <row r="114" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A114" s="48" t="s">
-        <v>34</v>
-      </c>
-      <c r="B114" s="48"/>
-      <c r="C114" s="48"/>
-      <c r="D114" s="48"/>
-      <c r="E114" s="48"/>
-      <c r="F114" s="48"/>
+      <c r="A114" s="2"/>
+      <c r="B114" s="52"/>
+      <c r="C114" s="52"/>
+      <c r="D114" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="E114" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F114" s="2" t="s">
+        <v>112</v>
+      </c>
     </row>
     <row r="115" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A115" s="2"/>
-      <c r="B115" s="2"/>
-      <c r="C115" s="2"/>
-      <c r="D115" s="2"/>
-      <c r="E115" s="2"/>
-      <c r="F115" s="2"/>
+      <c r="B115" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="C115" s="15" t="s">
+        <v>113</v>
+      </c>
+      <c r="D115" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E115" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="F115" s="2" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="116" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A116" s="2"/>
+      <c r="B116" s="52" t="s">
+        <v>116</v>
+      </c>
+      <c r="C116" s="42" t="s">
+        <v>117</v>
+      </c>
+      <c r="D116" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="E116" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="F116" s="2" t="s">
+        <v>118</v>
+      </c>
     </row>
     <row r="117" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="F117" s="34" t="s">
-        <v>154</v>
+      <c r="A117" s="2"/>
+      <c r="B117" s="52"/>
+      <c r="C117" s="42"/>
+      <c r="D117" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E117" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="F117" s="13" t="s">
+        <v>119</v>
       </c>
     </row>
     <row r="118" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="F118" s="34" t="s">
-        <v>218</v>
-      </c>
+      <c r="A118" s="58" t="s">
+        <v>33</v>
+      </c>
+      <c r="B118" s="58"/>
+      <c r="C118" s="58"/>
+      <c r="D118" s="58"/>
+      <c r="E118" s="58"/>
+      <c r="F118" s="58"/>
     </row>
     <row r="119" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="F119" s="34" t="s">
+      <c r="A119" s="2"/>
+      <c r="B119" s="2"/>
+      <c r="C119" s="2"/>
+      <c r="D119" s="2"/>
+      <c r="E119" s="2"/>
+      <c r="F119" s="2"/>
+    </row>
+    <row r="121" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="F121" s="34" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="122" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="F122" s="34" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="123" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="F123" s="34" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="124" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="F124" s="36" t="s">
         <v>226</v>
       </c>
     </row>
-    <row r="120" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="F120" s="36" t="s">
-        <v>227</v>
-      </c>
-    </row>
   </sheetData>
-  <mergeCells count="56">
+  <mergeCells count="57">
+    <mergeCell ref="B81:B82"/>
+    <mergeCell ref="C81:C82"/>
+    <mergeCell ref="A77:A78"/>
+    <mergeCell ref="B77:B78"/>
+    <mergeCell ref="C77:C78"/>
+    <mergeCell ref="A79:A80"/>
+    <mergeCell ref="C79:C80"/>
+    <mergeCell ref="B79:B80"/>
+    <mergeCell ref="A118:F118"/>
+    <mergeCell ref="A64:F64"/>
+    <mergeCell ref="A66:F66"/>
+    <mergeCell ref="A87:F87"/>
+    <mergeCell ref="A99:F99"/>
+    <mergeCell ref="B88:B89"/>
+    <mergeCell ref="C88:C89"/>
+    <mergeCell ref="B90:B91"/>
+    <mergeCell ref="C90:C91"/>
+    <mergeCell ref="B94:B95"/>
+    <mergeCell ref="C94:C95"/>
+    <mergeCell ref="B113:B114"/>
+    <mergeCell ref="C113:C114"/>
+    <mergeCell ref="A69:A70"/>
+    <mergeCell ref="B69:B70"/>
+    <mergeCell ref="B75:B76"/>
+    <mergeCell ref="A2:F2"/>
+    <mergeCell ref="A11:F11"/>
+    <mergeCell ref="A20:F20"/>
+    <mergeCell ref="A30:F30"/>
+    <mergeCell ref="A36:A37"/>
+    <mergeCell ref="A32:F32"/>
+    <mergeCell ref="B116:B117"/>
+    <mergeCell ref="C116:C117"/>
+    <mergeCell ref="C96:C97"/>
+    <mergeCell ref="B96:B97"/>
+    <mergeCell ref="A85:A86"/>
+    <mergeCell ref="B85:B86"/>
+    <mergeCell ref="C85:C86"/>
+    <mergeCell ref="A106:F106"/>
+    <mergeCell ref="A112:F112"/>
+    <mergeCell ref="A102:F102"/>
+    <mergeCell ref="A110:F110"/>
     <mergeCell ref="A75:A76"/>
     <mergeCell ref="C75:C76"/>
     <mergeCell ref="A62:F62"/>
@@ -3479,46 +3628,6 @@
     <mergeCell ref="B53:B59"/>
     <mergeCell ref="A53:A59"/>
     <mergeCell ref="C53:C59"/>
-    <mergeCell ref="B112:B113"/>
-    <mergeCell ref="C112:C113"/>
-    <mergeCell ref="C96:C97"/>
-    <mergeCell ref="B96:B97"/>
-    <mergeCell ref="A85:A86"/>
-    <mergeCell ref="B85:B86"/>
-    <mergeCell ref="C85:C86"/>
-    <mergeCell ref="A106:F106"/>
-    <mergeCell ref="A108:F108"/>
-    <mergeCell ref="A102:F102"/>
-    <mergeCell ref="A2:F2"/>
-    <mergeCell ref="A11:F11"/>
-    <mergeCell ref="A20:F20"/>
-    <mergeCell ref="A30:F30"/>
-    <mergeCell ref="A36:A37"/>
-    <mergeCell ref="A32:F32"/>
-    <mergeCell ref="A114:F114"/>
-    <mergeCell ref="A64:F64"/>
-    <mergeCell ref="A66:F66"/>
-    <mergeCell ref="A87:F87"/>
-    <mergeCell ref="A99:F99"/>
-    <mergeCell ref="B88:B89"/>
-    <mergeCell ref="C88:C89"/>
-    <mergeCell ref="B90:B91"/>
-    <mergeCell ref="C90:C91"/>
-    <mergeCell ref="B94:B95"/>
-    <mergeCell ref="C94:C95"/>
-    <mergeCell ref="B109:B110"/>
-    <mergeCell ref="C109:C110"/>
-    <mergeCell ref="A69:A70"/>
-    <mergeCell ref="B69:B70"/>
-    <mergeCell ref="B75:B76"/>
-    <mergeCell ref="B81:B82"/>
-    <mergeCell ref="C81:C82"/>
-    <mergeCell ref="A77:A78"/>
-    <mergeCell ref="B77:B78"/>
-    <mergeCell ref="C77:C78"/>
-    <mergeCell ref="A79:A80"/>
-    <mergeCell ref="C79:C80"/>
-    <mergeCell ref="B79:B80"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="C3" r:id="rId1" xr:uid="{3FB3FA06-DE47-4C2D-AFD7-F5FC45E3D126}"/>
@@ -3534,9 +3643,9 @@
     <hyperlink ref="C100" r:id="rId11" xr:uid="{914A5C5A-20B3-4526-A460-020F9852AFDB}"/>
     <hyperlink ref="C101" r:id="rId12" xr:uid="{0B2D15B8-18BF-46A5-991E-6E53ADC95851}"/>
     <hyperlink ref="C33" r:id="rId13" xr:uid="{93A177B9-936F-4ED5-9F32-EB31F0D8F614}"/>
-    <hyperlink ref="C109" r:id="rId14" xr:uid="{9CD2E86C-B1BA-4CC3-9E52-ECA767380715}"/>
-    <hyperlink ref="C111" r:id="rId15" xr:uid="{30EBB8AD-10BE-47B9-BF85-DBCCCE948784}"/>
-    <hyperlink ref="F113" r:id="rId16" xr:uid="{080A2B1B-6640-47F1-9DAB-1F0914BD9938}"/>
+    <hyperlink ref="C113" r:id="rId14" xr:uid="{9CD2E86C-B1BA-4CC3-9E52-ECA767380715}"/>
+    <hyperlink ref="C115" r:id="rId15" xr:uid="{30EBB8AD-10BE-47B9-BF85-DBCCCE948784}"/>
+    <hyperlink ref="F117" r:id="rId16" xr:uid="{080A2B1B-6640-47F1-9DAB-1F0914BD9938}"/>
     <hyperlink ref="C67" r:id="rId17" xr:uid="{DD8AB0F8-5B5E-4F6E-A0B4-339B324BDAC3}"/>
     <hyperlink ref="C8" r:id="rId18" xr:uid="{43B67C49-DC70-412F-B095-E684E07FF196}"/>
     <hyperlink ref="C77" r:id="rId19" xr:uid="{7FDCAB78-56F5-40D3-8A09-8A8A0E54E05D}"/>
@@ -3553,9 +3662,10 @@
     <hyperlink ref="G33" r:id="rId30" display="https://leetcode.com/problems/meeting-rooms/" xr:uid="{8849EA4F-0A54-4D57-AE19-19728A56318A}"/>
     <hyperlink ref="G34" r:id="rId31" display="https://leetcode.com/problems/meeting-rooms-ii/" xr:uid="{DD819D71-EB3C-4BD3-BA6C-25223B20391D}"/>
     <hyperlink ref="C17" r:id="rId32" xr:uid="{6062919D-9F53-4AD6-A2BA-CE01278187C7}"/>
+    <hyperlink ref="C107" r:id="rId33" xr:uid="{7B7426B5-0217-46DE-ABCD-A2F2DDDDFB2A}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="90" verticalDpi="90" r:id="rId33"/>
+  <pageSetup orientation="portrait" horizontalDpi="90" verticalDpi="90" r:id="rId34"/>
   <headerFooter>
     <oddFooter>&amp;L12/30/2021&amp;CAXP Internal&amp;R1</oddFooter>
   </headerFooter>

--- a/SDE Sheet.xlsx
+++ b/SDE Sheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Src Code\Personal\SDE-Sheet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C45FA4AC-2B2B-47E7-90A6-B715588F47FC}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{551575D9-0013-4C55-BA5C-A93907C5996F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{83934561-A72F-4836-B1E7-4EE8C35F9874}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="451" uniqueCount="269">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="457" uniqueCount="273">
   <si>
     <t>Matrix</t>
   </si>
@@ -960,6 +960,18 @@
   </si>
   <si>
     <t>Try with Brute Force if nothing strikes and then convert to Binary Search</t>
+  </si>
+  <si>
+    <t>2 Pointer Approach</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/gas-station/</t>
+  </si>
+  <si>
+    <t>Gas Station</t>
+  </si>
+  <si>
+    <t>Nice logical question</t>
   </si>
 </sst>
 </file>
@@ -1204,7 +1216,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="67">
+  <cellXfs count="71">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -1280,42 +1292,66 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1331,33 +1367,13 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1673,11 +1689,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D3EBAEE5-B4E7-4BD5-B694-FD6EEA5E8AC0}">
-  <dimension ref="A1:G124"/>
+  <dimension ref="A1:G126"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="D1" zoomScale="74" zoomScaleNormal="94" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A97" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F111" sqref="F111"/>
+      <pane ySplit="1" topLeftCell="A48" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G64" sqref="G64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1711,14 +1727,14 @@
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A2" s="58" t="s">
+      <c r="A2" s="50" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="58"/>
-      <c r="C2" s="58"/>
-      <c r="D2" s="58"/>
-      <c r="E2" s="58"/>
-      <c r="F2" s="58"/>
+      <c r="B2" s="50"/>
+      <c r="C2" s="50"/>
+      <c r="D2" s="50"/>
+      <c r="E2" s="50"/>
+      <c r="F2" s="50"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A3" s="9"/>
@@ -1758,10 +1774,10 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A5" s="9"/>
-      <c r="B5" s="48" t="s">
+      <c r="B5" s="41" t="s">
         <v>34</v>
       </c>
-      <c r="C5" s="50" t="s">
+      <c r="C5" s="43" t="s">
         <v>35</v>
       </c>
       <c r="D5" s="2" t="s">
@@ -1776,8 +1792,8 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A6" s="9"/>
-      <c r="B6" s="49"/>
-      <c r="C6" s="51"/>
+      <c r="B6" s="42"/>
+      <c r="C6" s="44"/>
       <c r="D6" s="2" t="s">
         <v>36</v>
       </c>
@@ -1857,14 +1873,14 @@
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A11" s="58" t="s">
+      <c r="A11" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="B11" s="58"/>
-      <c r="C11" s="58"/>
-      <c r="D11" s="58"/>
-      <c r="E11" s="58"/>
-      <c r="F11" s="58"/>
+      <c r="B11" s="50"/>
+      <c r="C11" s="50"/>
+      <c r="D11" s="50"/>
+      <c r="E11" s="50"/>
+      <c r="F11" s="50"/>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A12" s="9"/>
@@ -2011,14 +2027,14 @@
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A20" s="58" t="s">
+      <c r="A20" s="50" t="s">
         <v>22</v>
       </c>
-      <c r="B20" s="58"/>
-      <c r="C20" s="58"/>
-      <c r="D20" s="58"/>
-      <c r="E20" s="58"/>
-      <c r="F20" s="58"/>
+      <c r="B20" s="50"/>
+      <c r="C20" s="50"/>
+      <c r="D20" s="50"/>
+      <c r="E20" s="50"/>
+      <c r="F20" s="50"/>
       <c r="G20" s="34" t="s">
         <v>210</v>
       </c>
@@ -2195,14 +2211,14 @@
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A30" s="63" t="s">
+      <c r="A30" s="53" t="s">
         <v>240</v>
       </c>
-      <c r="B30" s="64"/>
-      <c r="C30" s="64"/>
-      <c r="D30" s="64"/>
-      <c r="E30" s="64"/>
-      <c r="F30" s="65"/>
+      <c r="B30" s="54"/>
+      <c r="C30" s="54"/>
+      <c r="D30" s="54"/>
+      <c r="E30" s="54"/>
+      <c r="F30" s="55"/>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A31" s="9"/>
@@ -2226,14 +2242,14 @@
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A32" s="43" t="s">
+      <c r="A32" s="56" t="s">
         <v>95</v>
       </c>
-      <c r="B32" s="44"/>
-      <c r="C32" s="44"/>
-      <c r="D32" s="44"/>
-      <c r="E32" s="44"/>
-      <c r="F32" s="45"/>
+      <c r="B32" s="57"/>
+      <c r="C32" s="57"/>
+      <c r="D32" s="57"/>
+      <c r="E32" s="57"/>
+      <c r="F32" s="58"/>
       <c r="G32" s="38" t="s">
         <v>244</v>
       </c>
@@ -2299,11 +2315,11 @@
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A36" s="46"/>
-      <c r="B36" s="52" t="s">
+      <c r="A36" s="45"/>
+      <c r="B36" s="47" t="s">
         <v>104</v>
       </c>
-      <c r="C36" s="42" t="s">
+      <c r="C36" s="51" t="s">
         <v>105</v>
       </c>
       <c r="D36" s="2" t="s">
@@ -2317,9 +2333,9 @@
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A37" s="47"/>
-      <c r="B37" s="52"/>
-      <c r="C37" s="42"/>
+      <c r="A37" s="46"/>
+      <c r="B37" s="47"/>
+      <c r="C37" s="51"/>
       <c r="D37" s="2" t="s">
         <v>97</v>
       </c>
@@ -2393,11 +2409,11 @@
       </c>
     </row>
     <row r="42" spans="1:7" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A42" s="53"/>
-      <c r="B42" s="48" t="s">
+      <c r="A42" s="61"/>
+      <c r="B42" s="41" t="s">
         <v>181</v>
       </c>
-      <c r="C42" s="50" t="s">
+      <c r="C42" s="43" t="s">
         <v>182</v>
       </c>
       <c r="D42" s="2" t="s">
@@ -2411,9 +2427,9 @@
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A43" s="54"/>
-      <c r="B43" s="56"/>
-      <c r="C43" s="57"/>
+      <c r="A43" s="62"/>
+      <c r="B43" s="64"/>
+      <c r="C43" s="65"/>
       <c r="D43" s="2" t="s">
         <v>184</v>
       </c>
@@ -2425,9 +2441,9 @@
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A44" s="54"/>
-      <c r="B44" s="56"/>
-      <c r="C44" s="57"/>
+      <c r="A44" s="62"/>
+      <c r="B44" s="64"/>
+      <c r="C44" s="65"/>
       <c r="D44" s="2" t="s">
         <v>185</v>
       </c>
@@ -2439,9 +2455,9 @@
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A45" s="55"/>
-      <c r="B45" s="49"/>
-      <c r="C45" s="51"/>
+      <c r="A45" s="63"/>
+      <c r="B45" s="42"/>
+      <c r="C45" s="44"/>
       <c r="D45" s="2" t="s">
         <v>185</v>
       </c>
@@ -2579,11 +2595,11 @@
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A53" s="59"/>
-      <c r="B53" s="48" t="s">
+      <c r="A53" s="48"/>
+      <c r="B53" s="41" t="s">
         <v>234</v>
       </c>
-      <c r="C53" s="50" t="s">
+      <c r="C53" s="43" t="s">
         <v>233</v>
       </c>
       <c r="D53" s="2" t="s">
@@ -2597,9 +2613,9 @@
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A54" s="60"/>
-      <c r="B54" s="56"/>
-      <c r="C54" s="57"/>
+      <c r="A54" s="66"/>
+      <c r="B54" s="64"/>
+      <c r="C54" s="65"/>
       <c r="D54" s="2" t="s">
         <v>18</v>
       </c>
@@ -2611,9 +2627,9 @@
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A55" s="60"/>
-      <c r="B55" s="56"/>
-      <c r="C55" s="57"/>
+      <c r="A55" s="66"/>
+      <c r="B55" s="64"/>
+      <c r="C55" s="65"/>
       <c r="D55" s="2" t="s">
         <v>18</v>
       </c>
@@ -2625,46 +2641,46 @@
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A56" s="60"/>
-      <c r="B56" s="56"/>
-      <c r="C56" s="57"/>
+      <c r="A56" s="66"/>
+      <c r="B56" s="64"/>
+      <c r="C56" s="65"/>
       <c r="D56" s="2"/>
       <c r="E56" s="2"/>
       <c r="F56" s="2"/>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A57" s="60"/>
-      <c r="B57" s="56"/>
-      <c r="C57" s="57"/>
+      <c r="A57" s="66"/>
+      <c r="B57" s="64"/>
+      <c r="C57" s="65"/>
       <c r="D57" s="2"/>
       <c r="E57" s="2"/>
       <c r="F57" s="2"/>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A58" s="60"/>
-      <c r="B58" s="56"/>
-      <c r="C58" s="57"/>
+      <c r="A58" s="66"/>
+      <c r="B58" s="64"/>
+      <c r="C58" s="65"/>
       <c r="D58" s="2"/>
       <c r="E58" s="2"/>
       <c r="F58" s="2"/>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A59" s="61"/>
-      <c r="B59" s="49"/>
-      <c r="C59" s="51"/>
+      <c r="A59" s="49"/>
+      <c r="B59" s="42"/>
+      <c r="C59" s="44"/>
       <c r="D59" s="2"/>
       <c r="E59" s="2"/>
       <c r="F59" s="2"/>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A60" s="58" t="s">
+      <c r="A60" s="50" t="s">
         <v>190</v>
       </c>
-      <c r="B60" s="58"/>
-      <c r="C60" s="58"/>
-      <c r="D60" s="58"/>
-      <c r="E60" s="58"/>
-      <c r="F60" s="58"/>
+      <c r="B60" s="50"/>
+      <c r="C60" s="50"/>
+      <c r="D60" s="50"/>
+      <c r="E60" s="50"/>
+      <c r="F60" s="50"/>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A61" s="9"/>
@@ -2681,31 +2697,41 @@
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A62" s="43" t="s">
+      <c r="A62" s="56" t="s">
+        <v>269</v>
+      </c>
+      <c r="B62" s="57"/>
+      <c r="C62" s="57"/>
+      <c r="D62" s="57"/>
+      <c r="E62" s="57"/>
+      <c r="F62" s="58"/>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A63" s="67"/>
+      <c r="B63" s="68" t="s">
+        <v>271</v>
+      </c>
+      <c r="C63" s="70" t="s">
+        <v>270</v>
+      </c>
+      <c r="D63" s="68" t="s">
+        <v>18</v>
+      </c>
+      <c r="E63" s="68" t="s">
+        <v>4</v>
+      </c>
+      <c r="F63" s="69" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A64" s="56" t="s">
         <v>28</v>
       </c>
-      <c r="B62" s="44"/>
-      <c r="C62" s="44"/>
-      <c r="D62" s="44"/>
-      <c r="E62" s="44"/>
-      <c r="F62" s="45"/>
-    </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A63" s="2"/>
-      <c r="B63" s="2"/>
-      <c r="C63" s="2"/>
-      <c r="D63" s="2"/>
-      <c r="E63" s="2"/>
-      <c r="F63" s="2"/>
-    </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A64" s="58" t="s">
-        <v>29</v>
-      </c>
-      <c r="B64" s="58"/>
-      <c r="C64" s="58"/>
-      <c r="D64" s="58"/>
-      <c r="E64" s="58"/>
+      <c r="B64" s="57"/>
+      <c r="C64" s="57"/>
+      <c r="D64" s="57"/>
+      <c r="E64" s="57"/>
       <c r="F64" s="58"/>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.35">
@@ -2717,226 +2743,212 @@
       <c r="F65" s="2"/>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A66" s="58" t="s">
+      <c r="A66" s="50" t="s">
+        <v>29</v>
+      </c>
+      <c r="B66" s="50"/>
+      <c r="C66" s="50"/>
+      <c r="D66" s="50"/>
+      <c r="E66" s="50"/>
+      <c r="F66" s="50"/>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A67" s="2"/>
+      <c r="B67" s="2"/>
+      <c r="C67" s="2"/>
+      <c r="D67" s="2"/>
+      <c r="E67" s="2"/>
+      <c r="F67" s="2"/>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A68" s="50" t="s">
         <v>30</v>
       </c>
-      <c r="B66" s="58"/>
-      <c r="C66" s="58"/>
-      <c r="D66" s="58"/>
-      <c r="E66" s="58"/>
-      <c r="F66" s="58"/>
-    </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A67" s="11"/>
-      <c r="B67" s="2" t="s">
+      <c r="B68" s="50"/>
+      <c r="C68" s="50"/>
+      <c r="D68" s="50"/>
+      <c r="E68" s="50"/>
+      <c r="F68" s="50"/>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A69" s="11"/>
+      <c r="B69" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="C67" s="1" t="s">
+      <c r="C69" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="D67" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E67" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="F67" s="2" t="s">
+      <c r="D69" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E69" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F69" s="2" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A68" s="11"/>
-      <c r="B68" s="2" t="s">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A70" s="11"/>
+      <c r="B70" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="C68" s="1" t="s">
+      <c r="C70" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="D68" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E68" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="F68" s="2" t="s">
+      <c r="D70" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E70" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F70" s="2" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A69" s="66"/>
-      <c r="B69" s="52" t="s">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A71" s="52"/>
+      <c r="B71" s="47" t="s">
         <v>156</v>
       </c>
-      <c r="C69" s="42" t="s">
+      <c r="C71" s="51" t="s">
         <v>157</v>
       </c>
-      <c r="D69" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E69" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="F69" s="2" t="s">
+      <c r="D71" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E71" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F71" s="2" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A70" s="66"/>
-      <c r="B70" s="52"/>
-      <c r="C70" s="42"/>
-      <c r="D70" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E70" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="F70" s="2" t="s">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A72" s="52"/>
+      <c r="B72" s="47"/>
+      <c r="C72" s="51"/>
+      <c r="D72" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E72" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F72" s="2" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A71" s="11"/>
-      <c r="B71" s="2" t="s">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A73" s="11"/>
+      <c r="B73" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="C71" s="1" t="s">
+      <c r="C73" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="D71" s="2" t="s">
+      <c r="D73" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="E71" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="F71" s="2" t="s">
+      <c r="E73" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F73" s="2" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A72" s="9"/>
-      <c r="B72" s="2" t="s">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A74" s="9"/>
+      <c r="B74" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="C72" s="1" t="s">
+      <c r="C74" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="D72" s="2" t="s">
+      <c r="D74" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="E72" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="F72" s="2" t="s">
+      <c r="E74" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F74" s="2" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A73" s="9"/>
-      <c r="B73" s="2" t="s">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A75" s="9"/>
+      <c r="B75" s="2" t="s">
         <v>145</v>
       </c>
-      <c r="C73" s="1" t="s">
+      <c r="C75" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="D73" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E73" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="F73" s="2" t="s">
+      <c r="D75" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E75" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F75" s="2" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A74" s="11"/>
-      <c r="B74" s="2" t="s">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A76" s="11"/>
+      <c r="B76" s="2" t="s">
         <v>139</v>
       </c>
-      <c r="C74" s="1" t="s">
+      <c r="C76" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="D74" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="E74" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="F74" s="2" t="s">
+      <c r="D76" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E76" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F76" s="2" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A75" s="41"/>
-      <c r="B75" s="52" t="s">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A77" s="60"/>
+      <c r="B77" s="47" t="s">
         <v>150</v>
       </c>
-      <c r="C75" s="42" t="s">
+      <c r="C77" s="51" t="s">
         <v>151</v>
       </c>
-      <c r="D75" s="2" t="s">
+      <c r="D77" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="E75" s="2" t="s">
+      <c r="E77" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="F75" s="2" t="s">
+      <c r="F77" s="2" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A76" s="41"/>
-      <c r="B76" s="52"/>
-      <c r="C76" s="42"/>
-      <c r="D76" s="2" t="s">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A78" s="60"/>
+      <c r="B78" s="47"/>
+      <c r="C78" s="51"/>
+      <c r="D78" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="E76" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="F76" s="2" t="s">
+      <c r="E78" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F78" s="2" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="77" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A77" s="46"/>
-      <c r="B77" s="52" t="s">
+    <row r="79" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A79" s="45"/>
+      <c r="B79" s="47" t="s">
         <v>165</v>
       </c>
-      <c r="C77" s="50" t="s">
+      <c r="C79" s="43" t="s">
         <v>166</v>
-      </c>
-      <c r="D77" s="21" t="s">
-        <v>18</v>
-      </c>
-      <c r="E77" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="F77" s="2" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="78" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A78" s="47"/>
-      <c r="B78" s="52"/>
-      <c r="C78" s="51"/>
-      <c r="D78" s="21" t="s">
-        <v>18</v>
-      </c>
-      <c r="E78" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="F78" s="1" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="79" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A79" s="59"/>
-      <c r="B79" s="52" t="s">
-        <v>171</v>
-      </c>
-      <c r="C79" s="50" t="s">
-        <v>169</v>
       </c>
       <c r="D79" s="21" t="s">
         <v>18</v>
@@ -2949,9 +2961,9 @@
       </c>
     </row>
     <row r="80" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A80" s="61"/>
-      <c r="B80" s="52"/>
-      <c r="C80" s="51"/>
+      <c r="A80" s="46"/>
+      <c r="B80" s="47"/>
+      <c r="C80" s="44"/>
       <c r="D80" s="21" t="s">
         <v>18</v>
       </c>
@@ -2959,158 +2971,158 @@
         <v>4</v>
       </c>
       <c r="F80" s="1" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A81" s="48"/>
+      <c r="B81" s="47" t="s">
+        <v>171</v>
+      </c>
+      <c r="C81" s="43" t="s">
+        <v>169</v>
+      </c>
+      <c r="D81" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="E81" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F81" s="2" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A82" s="49"/>
+      <c r="B82" s="47"/>
+      <c r="C82" s="44"/>
+      <c r="D82" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="E82" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F82" s="1" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A81" s="46"/>
-      <c r="B81" s="48" t="s">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A83" s="45"/>
+      <c r="B83" s="41" t="s">
         <v>161</v>
       </c>
-      <c r="C81" s="50" t="s">
+      <c r="C83" s="43" t="s">
         <v>162</v>
       </c>
-      <c r="D81" s="18" t="s">
-        <v>18</v>
-      </c>
-      <c r="E81" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="F81" s="2" t="s">
+      <c r="D83" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="E83" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F83" s="2" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A82" s="47"/>
-      <c r="B82" s="49"/>
-      <c r="C82" s="51"/>
-      <c r="D82" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E82" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="F82" s="2" t="s">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A84" s="46"/>
+      <c r="B84" s="42"/>
+      <c r="C84" s="44"/>
+      <c r="D84" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E84" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F84" s="2" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A83" s="22"/>
-      <c r="B83" s="19" t="s">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A85" s="22"/>
+      <c r="B85" s="19" t="s">
         <v>172</v>
       </c>
-      <c r="C83" s="20" t="s">
+      <c r="C85" s="20" t="s">
         <v>173</v>
       </c>
-      <c r="D83" s="2" t="s">
+      <c r="D85" s="2" t="s">
         <v>174</v>
       </c>
-      <c r="E83" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="F83" s="2" t="s">
+      <c r="E85" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F85" s="2" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A84" s="17"/>
-      <c r="B84" s="16" t="s">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A86" s="17"/>
+      <c r="B86" s="16" t="s">
         <v>159</v>
       </c>
-      <c r="C84" s="15" t="s">
+      <c r="C86" s="15" t="s">
         <v>160</v>
       </c>
-      <c r="D84" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E84" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="F84" s="2" t="s">
+      <c r="D86" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E86" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F86" s="2" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A85" s="62"/>
-      <c r="B85" s="52" t="s">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A87" s="59"/>
+      <c r="B87" s="47" t="s">
         <v>147</v>
       </c>
-      <c r="C85" s="42" t="s">
+      <c r="C87" s="51" t="s">
         <v>148</v>
       </c>
-      <c r="D85" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E85" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="F85" s="2" t="s">
+      <c r="D87" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E87" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F87" s="2" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A86" s="62"/>
-      <c r="B86" s="52"/>
-      <c r="C86" s="42"/>
-      <c r="D86" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E86" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="F86" s="2" t="s">
+    <row r="88" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A88" s="59"/>
+      <c r="B88" s="47"/>
+      <c r="C88" s="51"/>
+      <c r="D88" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E88" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F88" s="2" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A87" s="58" t="s">
+    <row r="89" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A89" s="50" t="s">
         <v>63</v>
       </c>
-      <c r="B87" s="58"/>
-      <c r="C87" s="58"/>
-      <c r="D87" s="58"/>
-      <c r="E87" s="58"/>
-      <c r="F87" s="58"/>
-    </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A88" s="2"/>
-      <c r="B88" s="52" t="s">
-        <v>64</v>
-      </c>
-      <c r="C88" s="42" t="s">
-        <v>61</v>
-      </c>
-      <c r="D88" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E88" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="F88" s="2" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A89" s="2"/>
-      <c r="B89" s="52"/>
-      <c r="C89" s="42"/>
-      <c r="D89" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E89" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="F89" s="2" t="s">
-        <v>62</v>
-      </c>
+      <c r="B89" s="50"/>
+      <c r="C89" s="50"/>
+      <c r="D89" s="50"/>
+      <c r="E89" s="50"/>
+      <c r="F89" s="50"/>
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A90" s="2"/>
-      <c r="B90" s="52" t="s">
-        <v>65</v>
-      </c>
-      <c r="C90" s="42" t="s">
-        <v>66</v>
+      <c r="B90" s="47" t="s">
+        <v>64</v>
+      </c>
+      <c r="C90" s="51" t="s">
+        <v>61</v>
       </c>
       <c r="D90" s="2" t="s">
         <v>18</v>
@@ -3124,8 +3136,8 @@
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A91" s="2"/>
-      <c r="B91" s="52"/>
-      <c r="C91" s="42"/>
+      <c r="B91" s="47"/>
+      <c r="C91" s="51"/>
       <c r="D91" s="2" t="s">
         <v>18</v>
       </c>
@@ -3138,47 +3150,43 @@
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A92" s="2"/>
-      <c r="B92" s="14" t="s">
-        <v>79</v>
-      </c>
-      <c r="C92" s="15" t="s">
-        <v>80</v>
+      <c r="B92" s="47" t="s">
+        <v>65</v>
+      </c>
+      <c r="C92" s="51" t="s">
+        <v>66</v>
       </c>
       <c r="D92" s="2" t="s">
         <v>18</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>77</v>
+        <v>18</v>
       </c>
       <c r="F92" s="2" t="s">
-        <v>81</v>
+        <v>67</v>
       </c>
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A93" s="2"/>
-      <c r="B93" s="14" t="s">
-        <v>75</v>
-      </c>
-      <c r="C93" s="15" t="s">
-        <v>76</v>
-      </c>
+      <c r="B93" s="47"/>
+      <c r="C93" s="51"/>
       <c r="D93" s="2" t="s">
         <v>18</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>77</v>
+        <v>4</v>
       </c>
       <c r="F93" s="2" t="s">
-        <v>78</v>
+        <v>62</v>
       </c>
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A94" s="2"/>
-      <c r="B94" s="52" t="s">
-        <v>83</v>
-      </c>
-      <c r="C94" s="42" t="s">
-        <v>82</v>
+      <c r="B94" s="14" t="s">
+        <v>79</v>
+      </c>
+      <c r="C94" s="15" t="s">
+        <v>80</v>
       </c>
       <c r="D94" s="2" t="s">
         <v>18</v>
@@ -3192,25 +3200,29 @@
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A95" s="2"/>
-      <c r="B95" s="52"/>
-      <c r="C95" s="42"/>
+      <c r="B95" s="14" t="s">
+        <v>75</v>
+      </c>
+      <c r="C95" s="15" t="s">
+        <v>76</v>
+      </c>
       <c r="D95" s="2" t="s">
         <v>18</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="F95" s="2" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A96" s="2"/>
-      <c r="B96" s="52" t="s">
-        <v>86</v>
-      </c>
-      <c r="C96" s="42" t="s">
-        <v>87</v>
+      <c r="B96" s="47" t="s">
+        <v>83</v>
+      </c>
+      <c r="C96" s="51" t="s">
+        <v>82</v>
       </c>
       <c r="D96" s="2" t="s">
         <v>18</v>
@@ -3224,8 +3236,8 @@
     </row>
     <row r="97" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A97" s="2"/>
-      <c r="B97" s="52"/>
-      <c r="C97" s="42"/>
+      <c r="B97" s="47"/>
+      <c r="C97" s="51"/>
       <c r="D97" s="2" t="s">
         <v>18</v>
       </c>
@@ -3238,384 +3250,376 @@
     </row>
     <row r="98" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A98" s="2"/>
-      <c r="B98" s="14"/>
-      <c r="C98" s="15"/>
-      <c r="D98" s="2"/>
-      <c r="E98" s="2"/>
-      <c r="F98" s="2"/>
+      <c r="B98" s="47" t="s">
+        <v>86</v>
+      </c>
+      <c r="C98" s="51" t="s">
+        <v>87</v>
+      </c>
+      <c r="D98" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E98" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="F98" s="2" t="s">
+        <v>81</v>
+      </c>
     </row>
     <row r="99" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A99" s="58" t="s">
-        <v>88</v>
-      </c>
-      <c r="B99" s="58"/>
-      <c r="C99" s="58"/>
-      <c r="D99" s="58"/>
-      <c r="E99" s="58"/>
-      <c r="F99" s="58"/>
+      <c r="A99" s="2"/>
+      <c r="B99" s="47"/>
+      <c r="C99" s="51"/>
+      <c r="D99" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E99" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="F99" s="2" t="s">
+        <v>85</v>
+      </c>
     </row>
     <row r="100" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A100" s="2"/>
-      <c r="B100" s="5" t="s">
+      <c r="B100" s="14"/>
+      <c r="C100" s="15"/>
+      <c r="D100" s="2"/>
+      <c r="E100" s="2"/>
+      <c r="F100" s="2"/>
+    </row>
+    <row r="101" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A101" s="50" t="s">
+        <v>88</v>
+      </c>
+      <c r="B101" s="50"/>
+      <c r="C101" s="50"/>
+      <c r="D101" s="50"/>
+      <c r="E101" s="50"/>
+      <c r="F101" s="50"/>
+    </row>
+    <row r="102" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A102" s="2"/>
+      <c r="B102" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="C100" s="3" t="s">
+      <c r="C102" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="D100" s="4" t="s">
+      <c r="D102" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="E100" s="4" t="s">
+      <c r="E102" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="F100" s="4"/>
-    </row>
-    <row r="101" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A101" s="2"/>
-      <c r="B101" s="5" t="s">
-        <v>93</v>
-      </c>
-      <c r="C101" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="D101" s="4" t="s">
-        <v>91</v>
-      </c>
-      <c r="E101" s="4" t="s">
-        <v>91</v>
-      </c>
-      <c r="F101" s="12" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="102" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A102" s="58" t="s">
-        <v>31</v>
-      </c>
-      <c r="B102" s="58"/>
-      <c r="C102" s="58"/>
-      <c r="D102" s="58"/>
-      <c r="E102" s="58"/>
-      <c r="F102" s="58"/>
+      <c r="F102" s="4"/>
     </row>
     <row r="103" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A103" s="2"/>
-      <c r="B103" s="2" t="s">
+      <c r="B103" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="C103" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="D103" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="E103" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="F103" s="12" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A104" s="50" t="s">
+        <v>31</v>
+      </c>
+      <c r="B104" s="50"/>
+      <c r="C104" s="50"/>
+      <c r="D104" s="50"/>
+      <c r="E104" s="50"/>
+      <c r="F104" s="50"/>
+    </row>
+    <row r="105" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A105" s="2"/>
+      <c r="B105" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="C103" s="1" t="s">
+      <c r="C105" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="D103" s="2" t="s">
+      <c r="D105" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="E103" s="2" t="s">
+      <c r="E105" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="F103" s="2" t="s">
+      <c r="F105" s="2" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="104" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A104" s="2"/>
-      <c r="B104" s="2" t="s">
+    <row r="106" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A106" s="2"/>
+      <c r="B106" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="C104" s="1" t="s">
+      <c r="C106" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="D104" s="2" t="s">
+      <c r="D106" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="E104" s="2"/>
-      <c r="F104" s="2"/>
-    </row>
-    <row r="105" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A105" s="10"/>
-      <c r="B105" s="2" t="s">
+      <c r="E106" s="2"/>
+      <c r="F106" s="2"/>
+    </row>
+    <row r="107" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A107" s="10"/>
+      <c r="B107" s="2" t="s">
         <v>251</v>
       </c>
-      <c r="C105" s="1" t="s">
+      <c r="C107" s="1" t="s">
         <v>252</v>
       </c>
-      <c r="D105" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E105" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="F105" s="2" t="s">
+      <c r="D107" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E107" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F107" s="2" t="s">
         <v>253</v>
       </c>
-      <c r="G105" s="39" t="s">
+      <c r="G107" s="39" t="s">
         <v>257</v>
       </c>
     </row>
-    <row r="106" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A106" s="58" t="s">
+    <row r="108" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A108" s="50" t="s">
         <v>258</v>
       </c>
-      <c r="B106" s="58"/>
-      <c r="C106" s="58"/>
-      <c r="D106" s="58"/>
-      <c r="E106" s="58"/>
-      <c r="F106" s="58"/>
-    </row>
-    <row r="107" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A107" s="9"/>
-      <c r="B107" s="2" t="s">
+      <c r="B108" s="50"/>
+      <c r="C108" s="50"/>
+      <c r="D108" s="50"/>
+      <c r="E108" s="50"/>
+      <c r="F108" s="50"/>
+    </row>
+    <row r="109" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A109" s="9"/>
+      <c r="B109" s="2" t="s">
         <v>259</v>
       </c>
-      <c r="C107" s="1" t="s">
+      <c r="C109" s="1" t="s">
         <v>260</v>
       </c>
-      <c r="D107" s="2" t="s">
+      <c r="D109" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="E107" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="F107" s="2" t="s">
+      <c r="E109" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F109" s="2" t="s">
         <v>261</v>
       </c>
-      <c r="G107" s="39" t="s">
+      <c r="G109" s="39" t="s">
         <v>262</v>
       </c>
     </row>
-    <row r="108" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A108" s="10"/>
-      <c r="B108" s="2" t="s">
+    <row r="110" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A110" s="10"/>
+      <c r="B110" s="2" t="s">
         <v>263</v>
       </c>
-      <c r="C108" s="1" t="s">
+      <c r="C110" s="1" t="s">
         <v>264</v>
       </c>
-      <c r="D108" s="2" t="s">
+      <c r="D110" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="E108" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="F108" s="2" t="s">
+      <c r="E110" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F110" s="2" t="s">
         <v>261</v>
       </c>
-      <c r="G108" s="40"/>
-    </row>
-    <row r="109" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A109" s="10"/>
-      <c r="B109" s="2"/>
-      <c r="C109" s="1"/>
-      <c r="D109" s="2"/>
-      <c r="E109" s="2"/>
-      <c r="F109" s="2"/>
-      <c r="G109" s="40"/>
-    </row>
-    <row r="110" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A110" s="58" t="s">
+      <c r="G110" s="40"/>
+    </row>
+    <row r="111" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A111" s="10"/>
+      <c r="B111" s="2"/>
+      <c r="C111" s="1"/>
+      <c r="D111" s="2"/>
+      <c r="E111" s="2"/>
+      <c r="F111" s="2"/>
+      <c r="G111" s="40"/>
+    </row>
+    <row r="112" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A112" s="50" t="s">
         <v>249</v>
       </c>
-      <c r="B110" s="58"/>
-      <c r="C110" s="58"/>
-      <c r="D110" s="58"/>
-      <c r="E110" s="58"/>
-      <c r="F110" s="58"/>
-    </row>
-    <row r="111" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A111" s="9"/>
-      <c r="B111" s="2" t="s">
+      <c r="B112" s="50"/>
+      <c r="C112" s="50"/>
+      <c r="D112" s="50"/>
+      <c r="E112" s="50"/>
+      <c r="F112" s="50"/>
+    </row>
+    <row r="113" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A113" s="9"/>
+      <c r="B113" s="2" t="s">
         <v>265</v>
       </c>
-      <c r="C111" s="1" t="s">
+      <c r="C113" s="1" t="s">
         <v>266</v>
       </c>
-      <c r="D111" s="2" t="s">
+      <c r="D113" s="2" t="s">
         <v>267</v>
       </c>
-      <c r="E111" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="F111" s="2" t="s">
+      <c r="E113" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F113" s="2" t="s">
         <v>268</v>
       </c>
-      <c r="G111" s="40"/>
-    </row>
-    <row r="112" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A112" s="58" t="s">
+      <c r="G113" s="40"/>
+    </row>
+    <row r="114" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A114" s="50" t="s">
         <v>32</v>
       </c>
-      <c r="B112" s="58"/>
-      <c r="C112" s="58"/>
-      <c r="D112" s="58"/>
-      <c r="E112" s="58"/>
-      <c r="F112" s="58"/>
-    </row>
-    <row r="113" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A113" s="2"/>
-      <c r="B113" s="52" t="s">
+      <c r="B114" s="50"/>
+      <c r="C114" s="50"/>
+      <c r="D114" s="50"/>
+      <c r="E114" s="50"/>
+      <c r="F114" s="50"/>
+    </row>
+    <row r="115" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A115" s="2"/>
+      <c r="B115" s="47" t="s">
         <v>109</v>
       </c>
-      <c r="C113" s="42" t="s">
+      <c r="C115" s="51" t="s">
         <v>110</v>
       </c>
-      <c r="D113" s="2" t="s">
+      <c r="D115" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="E113" s="2" t="s">
+      <c r="E115" s="2" t="s">
         <v>115</v>
-      </c>
-      <c r="F113" s="2" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="114" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A114" s="2"/>
-      <c r="B114" s="52"/>
-      <c r="C114" s="52"/>
-      <c r="D114" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="E114" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="F114" s="2" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="115" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A115" s="2"/>
-      <c r="B115" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="C115" s="15" t="s">
-        <v>113</v>
-      </c>
-      <c r="D115" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E115" s="2" t="s">
-        <v>39</v>
       </c>
       <c r="F115" s="2" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="116" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A116" s="2"/>
-      <c r="B116" s="52" t="s">
-        <v>116</v>
-      </c>
-      <c r="C116" s="42" t="s">
-        <v>117</v>
-      </c>
+      <c r="B116" s="47"/>
+      <c r="C116" s="47"/>
       <c r="D116" s="2" t="s">
-        <v>50</v>
+        <v>115</v>
       </c>
       <c r="E116" s="2" t="s">
-        <v>39</v>
+        <v>4</v>
       </c>
       <c r="F116" s="2" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="117" spans="1:6" x14ac:dyDescent="0.35">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="117" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A117" s="2"/>
-      <c r="B117" s="52"/>
-      <c r="C117" s="42"/>
+      <c r="B117" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="C117" s="15" t="s">
+        <v>113</v>
+      </c>
       <c r="D117" s="2" t="s">
         <v>18</v>
       </c>
       <c r="E117" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="F117" s="13" t="s">
+      <c r="F117" s="2" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="118" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A118" s="2"/>
+      <c r="B118" s="47" t="s">
+        <v>116</v>
+      </c>
+      <c r="C118" s="51" t="s">
+        <v>117</v>
+      </c>
+      <c r="D118" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="E118" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="F118" s="2" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="119" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A119" s="2"/>
+      <c r="B119" s="47"/>
+      <c r="C119" s="51"/>
+      <c r="D119" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E119" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="F119" s="13" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="118" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A118" s="58" t="s">
+    <row r="120" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A120" s="50" t="s">
         <v>33</v>
       </c>
-      <c r="B118" s="58"/>
-      <c r="C118" s="58"/>
-      <c r="D118" s="58"/>
-      <c r="E118" s="58"/>
-      <c r="F118" s="58"/>
-    </row>
-    <row r="119" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A119" s="2"/>
-      <c r="B119" s="2"/>
-      <c r="C119" s="2"/>
-      <c r="D119" s="2"/>
-      <c r="E119" s="2"/>
-      <c r="F119" s="2"/>
-    </row>
-    <row r="121" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="F121" s="34" t="s">
+      <c r="B120" s="50"/>
+      <c r="C120" s="50"/>
+      <c r="D120" s="50"/>
+      <c r="E120" s="50"/>
+      <c r="F120" s="50"/>
+    </row>
+    <row r="121" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A121" s="2"/>
+      <c r="B121" s="2"/>
+      <c r="C121" s="2"/>
+      <c r="D121" s="2"/>
+      <c r="E121" s="2"/>
+      <c r="F121" s="2"/>
+    </row>
+    <row r="123" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="F123" s="34" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="122" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="F122" s="34" t="s">
+    <row r="124" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="F124" s="34" t="s">
         <v>217</v>
       </c>
     </row>
-    <row r="123" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="F123" s="34" t="s">
+    <row r="125" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="F125" s="34" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="124" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="F124" s="36" t="s">
+    <row r="126" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="F126" s="36" t="s">
         <v>226</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="57">
-    <mergeCell ref="B81:B82"/>
-    <mergeCell ref="C81:C82"/>
+  <mergeCells count="58">
+    <mergeCell ref="A62:F62"/>
     <mergeCell ref="A77:A78"/>
-    <mergeCell ref="B77:B78"/>
     <mergeCell ref="C77:C78"/>
-    <mergeCell ref="A79:A80"/>
-    <mergeCell ref="C79:C80"/>
-    <mergeCell ref="B79:B80"/>
-    <mergeCell ref="A118:F118"/>
     <mergeCell ref="A64:F64"/>
-    <mergeCell ref="A66:F66"/>
-    <mergeCell ref="A87:F87"/>
-    <mergeCell ref="A99:F99"/>
-    <mergeCell ref="B88:B89"/>
-    <mergeCell ref="C88:C89"/>
-    <mergeCell ref="B90:B91"/>
-    <mergeCell ref="C90:C91"/>
-    <mergeCell ref="B94:B95"/>
-    <mergeCell ref="C94:C95"/>
-    <mergeCell ref="B113:B114"/>
-    <mergeCell ref="C113:C114"/>
-    <mergeCell ref="A69:A70"/>
-    <mergeCell ref="B69:B70"/>
-    <mergeCell ref="B75:B76"/>
-    <mergeCell ref="A2:F2"/>
-    <mergeCell ref="A11:F11"/>
-    <mergeCell ref="A20:F20"/>
-    <mergeCell ref="A30:F30"/>
-    <mergeCell ref="A36:A37"/>
-    <mergeCell ref="A32:F32"/>
-    <mergeCell ref="B116:B117"/>
-    <mergeCell ref="C116:C117"/>
-    <mergeCell ref="C96:C97"/>
-    <mergeCell ref="B96:B97"/>
-    <mergeCell ref="A85:A86"/>
-    <mergeCell ref="B85:B86"/>
-    <mergeCell ref="C85:C86"/>
-    <mergeCell ref="A106:F106"/>
-    <mergeCell ref="A112:F112"/>
-    <mergeCell ref="A102:F102"/>
-    <mergeCell ref="A110:F110"/>
-    <mergeCell ref="A75:A76"/>
-    <mergeCell ref="C75:C76"/>
-    <mergeCell ref="A62:F62"/>
-    <mergeCell ref="A81:A82"/>
+    <mergeCell ref="A83:A84"/>
     <mergeCell ref="B5:B6"/>
     <mergeCell ref="C5:C6"/>
     <mergeCell ref="B36:B37"/>
@@ -3623,11 +3627,52 @@
     <mergeCell ref="A42:A45"/>
     <mergeCell ref="B42:B45"/>
     <mergeCell ref="C42:C45"/>
-    <mergeCell ref="C69:C70"/>
+    <mergeCell ref="C71:C72"/>
     <mergeCell ref="A60:F60"/>
     <mergeCell ref="B53:B59"/>
     <mergeCell ref="A53:A59"/>
     <mergeCell ref="C53:C59"/>
+    <mergeCell ref="B118:B119"/>
+    <mergeCell ref="C118:C119"/>
+    <mergeCell ref="C98:C99"/>
+    <mergeCell ref="B98:B99"/>
+    <mergeCell ref="A87:A88"/>
+    <mergeCell ref="B87:B88"/>
+    <mergeCell ref="C87:C88"/>
+    <mergeCell ref="A108:F108"/>
+    <mergeCell ref="A114:F114"/>
+    <mergeCell ref="A104:F104"/>
+    <mergeCell ref="A112:F112"/>
+    <mergeCell ref="A2:F2"/>
+    <mergeCell ref="A11:F11"/>
+    <mergeCell ref="A20:F20"/>
+    <mergeCell ref="A30:F30"/>
+    <mergeCell ref="A36:A37"/>
+    <mergeCell ref="A32:F32"/>
+    <mergeCell ref="A120:F120"/>
+    <mergeCell ref="A66:F66"/>
+    <mergeCell ref="A68:F68"/>
+    <mergeCell ref="A89:F89"/>
+    <mergeCell ref="A101:F101"/>
+    <mergeCell ref="B90:B91"/>
+    <mergeCell ref="C90:C91"/>
+    <mergeCell ref="B92:B93"/>
+    <mergeCell ref="C92:C93"/>
+    <mergeCell ref="B96:B97"/>
+    <mergeCell ref="C96:C97"/>
+    <mergeCell ref="B115:B116"/>
+    <mergeCell ref="C115:C116"/>
+    <mergeCell ref="A71:A72"/>
+    <mergeCell ref="B71:B72"/>
+    <mergeCell ref="B77:B78"/>
+    <mergeCell ref="B83:B84"/>
+    <mergeCell ref="C83:C84"/>
+    <mergeCell ref="A79:A80"/>
+    <mergeCell ref="B79:B80"/>
+    <mergeCell ref="C79:C80"/>
+    <mergeCell ref="A81:A82"/>
+    <mergeCell ref="C81:C82"/>
+    <mergeCell ref="B81:B82"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="C3" r:id="rId1" xr:uid="{3FB3FA06-DE47-4C2D-AFD7-F5FC45E3D126}"/>
@@ -3637,35 +3682,36 @@
     <hyperlink ref="C50" r:id="rId5" xr:uid="{6352E065-8925-49FF-AA82-66ED2F9F8651}"/>
     <hyperlink ref="C22" r:id="rId6" xr:uid="{047C68C0-B7AB-4E77-9D1E-B162BD11A209}"/>
     <hyperlink ref="C23" r:id="rId7" xr:uid="{1ABD0EDA-F48F-4D2F-B13C-180B398F1FCD}"/>
-    <hyperlink ref="C88" r:id="rId8" xr:uid="{35D2A43C-BF1B-4339-9217-7116005F7034}"/>
-    <hyperlink ref="C90" r:id="rId9" xr:uid="{233456E2-1B15-4448-A669-82C381357683}"/>
-    <hyperlink ref="C103" r:id="rId10" xr:uid="{4A724644-7F2B-4DE6-9141-A1802140FB4A}"/>
-    <hyperlink ref="C100" r:id="rId11" xr:uid="{914A5C5A-20B3-4526-A460-020F9852AFDB}"/>
-    <hyperlink ref="C101" r:id="rId12" xr:uid="{0B2D15B8-18BF-46A5-991E-6E53ADC95851}"/>
+    <hyperlink ref="C90" r:id="rId8" xr:uid="{35D2A43C-BF1B-4339-9217-7116005F7034}"/>
+    <hyperlink ref="C92" r:id="rId9" xr:uid="{233456E2-1B15-4448-A669-82C381357683}"/>
+    <hyperlink ref="C105" r:id="rId10" xr:uid="{4A724644-7F2B-4DE6-9141-A1802140FB4A}"/>
+    <hyperlink ref="C102" r:id="rId11" xr:uid="{914A5C5A-20B3-4526-A460-020F9852AFDB}"/>
+    <hyperlink ref="C103" r:id="rId12" xr:uid="{0B2D15B8-18BF-46A5-991E-6E53ADC95851}"/>
     <hyperlink ref="C33" r:id="rId13" xr:uid="{93A177B9-936F-4ED5-9F32-EB31F0D8F614}"/>
-    <hyperlink ref="C113" r:id="rId14" xr:uid="{9CD2E86C-B1BA-4CC3-9E52-ECA767380715}"/>
-    <hyperlink ref="C115" r:id="rId15" xr:uid="{30EBB8AD-10BE-47B9-BF85-DBCCCE948784}"/>
-    <hyperlink ref="F117" r:id="rId16" xr:uid="{080A2B1B-6640-47F1-9DAB-1F0914BD9938}"/>
-    <hyperlink ref="C67" r:id="rId17" xr:uid="{DD8AB0F8-5B5E-4F6E-A0B4-339B324BDAC3}"/>
+    <hyperlink ref="C115" r:id="rId14" xr:uid="{9CD2E86C-B1BA-4CC3-9E52-ECA767380715}"/>
+    <hyperlink ref="C117" r:id="rId15" xr:uid="{30EBB8AD-10BE-47B9-BF85-DBCCCE948784}"/>
+    <hyperlink ref="F119" r:id="rId16" xr:uid="{080A2B1B-6640-47F1-9DAB-1F0914BD9938}"/>
+    <hyperlink ref="C69" r:id="rId17" xr:uid="{DD8AB0F8-5B5E-4F6E-A0B4-339B324BDAC3}"/>
     <hyperlink ref="C8" r:id="rId18" xr:uid="{43B67C49-DC70-412F-B095-E684E07FF196}"/>
-    <hyperlink ref="C77" r:id="rId19" xr:uid="{7FDCAB78-56F5-40D3-8A09-8A8A0E54E05D}"/>
-    <hyperlink ref="F78" r:id="rId20" xr:uid="{F7F3C873-8E94-4212-B22A-52BF75A478D8}"/>
+    <hyperlink ref="C79" r:id="rId19" xr:uid="{7FDCAB78-56F5-40D3-8A09-8A8A0E54E05D}"/>
+    <hyperlink ref="F80" r:id="rId20" xr:uid="{F7F3C873-8E94-4212-B22A-52BF75A478D8}"/>
     <hyperlink ref="C36" r:id="rId21" xr:uid="{F6C15430-DBA9-4DAD-A411-65B1524C625E}"/>
     <hyperlink ref="G21" r:id="rId22" display="https://leetcode.com/problems/maximum-sum-circular-subarray/" xr:uid="{A4CEEEE3-5EE5-4166-9A65-51E09840E49F}"/>
     <hyperlink ref="G22" r:id="rId23" display="https://leetcode.com/problems/maximum-product-subarray/" xr:uid="{E66937F4-342E-466B-92BD-529EAD0F1180}"/>
     <hyperlink ref="G23" r:id="rId24" display="https://leetcode.com/problems/maximum-length-of-subarray-with-positive-product/" xr:uid="{C0B6118F-C23A-4E55-881A-F4A1DA018A1F}"/>
     <hyperlink ref="C7" r:id="rId25" xr:uid="{D548A552-BEA3-46D9-89FD-0EDF330CCD4B}"/>
-    <hyperlink ref="C81" r:id="rId26" xr:uid="{7EAF2DCC-4594-46F5-AFC0-D19FF750F897}"/>
+    <hyperlink ref="C83" r:id="rId26" xr:uid="{7EAF2DCC-4594-46F5-AFC0-D19FF750F897}"/>
     <hyperlink ref="C31" r:id="rId27" xr:uid="{2A9F780A-9E5F-449D-AA08-46C94947DE0C}"/>
     <hyperlink ref="G31" r:id="rId28" display="https://leetcode.com/problems/merge-intervals" xr:uid="{24D594E5-8804-48F8-84BD-C5D018E5A447}"/>
     <hyperlink ref="G32" r:id="rId29" display="https://leetcode.com/problems/non-overlapping-intervals" xr:uid="{FBB3A625-8231-42DD-B49C-D9DFE3555251}"/>
     <hyperlink ref="G33" r:id="rId30" display="https://leetcode.com/problems/meeting-rooms/" xr:uid="{8849EA4F-0A54-4D57-AE19-19728A56318A}"/>
     <hyperlink ref="G34" r:id="rId31" display="https://leetcode.com/problems/meeting-rooms-ii/" xr:uid="{DD819D71-EB3C-4BD3-BA6C-25223B20391D}"/>
     <hyperlink ref="C17" r:id="rId32" xr:uid="{6062919D-9F53-4AD6-A2BA-CE01278187C7}"/>
-    <hyperlink ref="C107" r:id="rId33" xr:uid="{7B7426B5-0217-46DE-ABCD-A2F2DDDDFB2A}"/>
+    <hyperlink ref="C109" r:id="rId33" xr:uid="{7B7426B5-0217-46DE-ABCD-A2F2DDDDFB2A}"/>
+    <hyperlink ref="C63" r:id="rId34" xr:uid="{620ED6F1-6752-463C-AA48-4B6A185A8D46}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="90" verticalDpi="90" r:id="rId34"/>
+  <pageSetup orientation="portrait" horizontalDpi="90" verticalDpi="90" r:id="rId35"/>
   <headerFooter>
     <oddFooter>&amp;L12/30/2021&amp;CAXP Internal&amp;R1</oddFooter>
   </headerFooter>

--- a/SDE Sheet.xlsx
+++ b/SDE Sheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Src Code\Personal\SDE-Sheet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{551575D9-0013-4C55-BA5C-A93907C5996F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6AA70CF1-BC73-4B6E-BBB3-D8B12AD4D921}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{83934561-A72F-4836-B1E7-4EE8C35F9874}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="457" uniqueCount="273">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="468" uniqueCount="281">
   <si>
     <t>Matrix</t>
   </si>
@@ -972,6 +972,30 @@
   </si>
   <si>
     <t>Nice logical question</t>
+  </si>
+  <si>
+    <t>Largest Rectangle in Histogram</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/largest-rectangle-in-histogram/</t>
+  </si>
+  <si>
+    <t>O(n) in 2/3 passes</t>
+  </si>
+  <si>
+    <t>O(n) in 1 pass</t>
+  </si>
+  <si>
+    <t>O(3*n)</t>
+  </si>
+  <si>
+    <t>Brute force</t>
+  </si>
+  <si>
+    <t>Previous smaller element and next smaller element</t>
+  </si>
+  <si>
+    <t>Clubbing previous and next smaller element in 1 pass</t>
   </si>
 </sst>
 </file>
@@ -1292,88 +1316,88 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1689,11 +1713,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D3EBAEE5-B4E7-4BD5-B694-FD6EEA5E8AC0}">
-  <dimension ref="A1:G126"/>
+  <dimension ref="A1:G128"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="74" zoomScaleNormal="94" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A48" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G64" sqref="G64"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="74" zoomScaleNormal="94" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A52" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F74" sqref="F74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1727,14 +1751,14 @@
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A2" s="50" t="s">
+      <c r="A2" s="62" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="50"/>
-      <c r="C2" s="50"/>
-      <c r="D2" s="50"/>
-      <c r="E2" s="50"/>
-      <c r="F2" s="50"/>
+      <c r="B2" s="62"/>
+      <c r="C2" s="62"/>
+      <c r="D2" s="62"/>
+      <c r="E2" s="62"/>
+      <c r="F2" s="62"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A3" s="9"/>
@@ -1774,10 +1798,10 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A5" s="9"/>
-      <c r="B5" s="41" t="s">
+      <c r="B5" s="52" t="s">
         <v>34</v>
       </c>
-      <c r="C5" s="43" t="s">
+      <c r="C5" s="54" t="s">
         <v>35</v>
       </c>
       <c r="D5" s="2" t="s">
@@ -1792,8 +1816,8 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A6" s="9"/>
-      <c r="B6" s="42"/>
-      <c r="C6" s="44"/>
+      <c r="B6" s="53"/>
+      <c r="C6" s="55"/>
       <c r="D6" s="2" t="s">
         <v>36</v>
       </c>
@@ -1873,14 +1897,14 @@
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A11" s="50" t="s">
+      <c r="A11" s="62" t="s">
         <v>15</v>
       </c>
-      <c r="B11" s="50"/>
-      <c r="C11" s="50"/>
-      <c r="D11" s="50"/>
-      <c r="E11" s="50"/>
-      <c r="F11" s="50"/>
+      <c r="B11" s="62"/>
+      <c r="C11" s="62"/>
+      <c r="D11" s="62"/>
+      <c r="E11" s="62"/>
+      <c r="F11" s="62"/>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A12" s="9"/>
@@ -2027,14 +2051,14 @@
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A20" s="50" t="s">
+      <c r="A20" s="62" t="s">
         <v>22</v>
       </c>
-      <c r="B20" s="50"/>
-      <c r="C20" s="50"/>
-      <c r="D20" s="50"/>
-      <c r="E20" s="50"/>
-      <c r="F20" s="50"/>
+      <c r="B20" s="62"/>
+      <c r="C20" s="62"/>
+      <c r="D20" s="62"/>
+      <c r="E20" s="62"/>
+      <c r="F20" s="62"/>
       <c r="G20" s="34" t="s">
         <v>210</v>
       </c>
@@ -2211,14 +2235,14 @@
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A30" s="53" t="s">
+      <c r="A30" s="67" t="s">
         <v>240</v>
       </c>
-      <c r="B30" s="54"/>
-      <c r="C30" s="54"/>
-      <c r="D30" s="54"/>
-      <c r="E30" s="54"/>
-      <c r="F30" s="55"/>
+      <c r="B30" s="68"/>
+      <c r="C30" s="68"/>
+      <c r="D30" s="68"/>
+      <c r="E30" s="68"/>
+      <c r="F30" s="69"/>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A31" s="9"/>
@@ -2242,14 +2266,14 @@
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A32" s="56" t="s">
+      <c r="A32" s="45" t="s">
         <v>95</v>
       </c>
-      <c r="B32" s="57"/>
-      <c r="C32" s="57"/>
-      <c r="D32" s="57"/>
-      <c r="E32" s="57"/>
-      <c r="F32" s="58"/>
+      <c r="B32" s="46"/>
+      <c r="C32" s="46"/>
+      <c r="D32" s="46"/>
+      <c r="E32" s="46"/>
+      <c r="F32" s="47"/>
       <c r="G32" s="38" t="s">
         <v>244</v>
       </c>
@@ -2315,11 +2339,11 @@
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A36" s="45"/>
-      <c r="B36" s="47" t="s">
+      <c r="A36" s="50"/>
+      <c r="B36" s="56" t="s">
         <v>104</v>
       </c>
-      <c r="C36" s="51" t="s">
+      <c r="C36" s="49" t="s">
         <v>105</v>
       </c>
       <c r="D36" s="2" t="s">
@@ -2333,9 +2357,9 @@
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A37" s="46"/>
-      <c r="B37" s="47"/>
-      <c r="C37" s="51"/>
+      <c r="A37" s="51"/>
+      <c r="B37" s="56"/>
+      <c r="C37" s="49"/>
       <c r="D37" s="2" t="s">
         <v>97</v>
       </c>
@@ -2409,11 +2433,11 @@
       </c>
     </row>
     <row r="42" spans="1:7" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A42" s="61"/>
-      <c r="B42" s="41" t="s">
+      <c r="A42" s="57"/>
+      <c r="B42" s="52" t="s">
         <v>181</v>
       </c>
-      <c r="C42" s="43" t="s">
+      <c r="C42" s="54" t="s">
         <v>182</v>
       </c>
       <c r="D42" s="2" t="s">
@@ -2427,9 +2451,9 @@
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A43" s="62"/>
-      <c r="B43" s="64"/>
-      <c r="C43" s="65"/>
+      <c r="A43" s="58"/>
+      <c r="B43" s="60"/>
+      <c r="C43" s="61"/>
       <c r="D43" s="2" t="s">
         <v>184</v>
       </c>
@@ -2441,9 +2465,9 @@
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A44" s="62"/>
-      <c r="B44" s="64"/>
-      <c r="C44" s="65"/>
+      <c r="A44" s="58"/>
+      <c r="B44" s="60"/>
+      <c r="C44" s="61"/>
       <c r="D44" s="2" t="s">
         <v>185</v>
       </c>
@@ -2455,9 +2479,9 @@
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A45" s="63"/>
-      <c r="B45" s="42"/>
-      <c r="C45" s="44"/>
+      <c r="A45" s="59"/>
+      <c r="B45" s="53"/>
+      <c r="C45" s="55"/>
       <c r="D45" s="2" t="s">
         <v>185</v>
       </c>
@@ -2595,11 +2619,11 @@
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A53" s="48"/>
-      <c r="B53" s="41" t="s">
+      <c r="A53" s="63"/>
+      <c r="B53" s="52" t="s">
         <v>234</v>
       </c>
-      <c r="C53" s="43" t="s">
+      <c r="C53" s="54" t="s">
         <v>233</v>
       </c>
       <c r="D53" s="2" t="s">
@@ -2613,9 +2637,9 @@
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A54" s="66"/>
-      <c r="B54" s="64"/>
-      <c r="C54" s="65"/>
+      <c r="A54" s="64"/>
+      <c r="B54" s="60"/>
+      <c r="C54" s="61"/>
       <c r="D54" s="2" t="s">
         <v>18</v>
       </c>
@@ -2627,9 +2651,9 @@
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A55" s="66"/>
-      <c r="B55" s="64"/>
-      <c r="C55" s="65"/>
+      <c r="A55" s="64"/>
+      <c r="B55" s="60"/>
+      <c r="C55" s="61"/>
       <c r="D55" s="2" t="s">
         <v>18</v>
       </c>
@@ -2641,46 +2665,46 @@
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A56" s="66"/>
-      <c r="B56" s="64"/>
-      <c r="C56" s="65"/>
+      <c r="A56" s="64"/>
+      <c r="B56" s="60"/>
+      <c r="C56" s="61"/>
       <c r="D56" s="2"/>
       <c r="E56" s="2"/>
       <c r="F56" s="2"/>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A57" s="66"/>
-      <c r="B57" s="64"/>
-      <c r="C57" s="65"/>
+      <c r="A57" s="64"/>
+      <c r="B57" s="60"/>
+      <c r="C57" s="61"/>
       <c r="D57" s="2"/>
       <c r="E57" s="2"/>
       <c r="F57" s="2"/>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A58" s="66"/>
-      <c r="B58" s="64"/>
-      <c r="C58" s="65"/>
+      <c r="A58" s="64"/>
+      <c r="B58" s="60"/>
+      <c r="C58" s="61"/>
       <c r="D58" s="2"/>
       <c r="E58" s="2"/>
       <c r="F58" s="2"/>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A59" s="49"/>
-      <c r="B59" s="42"/>
-      <c r="C59" s="44"/>
+      <c r="A59" s="65"/>
+      <c r="B59" s="53"/>
+      <c r="C59" s="55"/>
       <c r="D59" s="2"/>
       <c r="E59" s="2"/>
       <c r="F59" s="2"/>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A60" s="50" t="s">
+      <c r="A60" s="62" t="s">
         <v>190</v>
       </c>
-      <c r="B60" s="50"/>
-      <c r="C60" s="50"/>
-      <c r="D60" s="50"/>
-      <c r="E60" s="50"/>
-      <c r="F60" s="50"/>
+      <c r="B60" s="62"/>
+      <c r="C60" s="62"/>
+      <c r="D60" s="62"/>
+      <c r="E60" s="62"/>
+      <c r="F60" s="62"/>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A61" s="9"/>
@@ -2697,290 +2721,296 @@
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A62" s="56" t="s">
+      <c r="A62" s="45" t="s">
         <v>269</v>
       </c>
-      <c r="B62" s="57"/>
-      <c r="C62" s="57"/>
-      <c r="D62" s="57"/>
-      <c r="E62" s="57"/>
-      <c r="F62" s="58"/>
+      <c r="B62" s="46"/>
+      <c r="C62" s="46"/>
+      <c r="D62" s="46"/>
+      <c r="E62" s="46"/>
+      <c r="F62" s="47"/>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A63" s="67"/>
-      <c r="B63" s="68" t="s">
+      <c r="A63" s="41"/>
+      <c r="B63" s="42" t="s">
         <v>271</v>
       </c>
-      <c r="C63" s="70" t="s">
+      <c r="C63" s="44" t="s">
         <v>270</v>
       </c>
-      <c r="D63" s="68" t="s">
-        <v>18</v>
-      </c>
-      <c r="E63" s="68" t="s">
-        <v>4</v>
-      </c>
-      <c r="F63" s="69" t="s">
+      <c r="D63" s="42" t="s">
+        <v>18</v>
+      </c>
+      <c r="E63" s="42" t="s">
+        <v>4</v>
+      </c>
+      <c r="F63" s="43" t="s">
         <v>272</v>
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A64" s="56" t="s">
+      <c r="A64" s="45" t="s">
         <v>28</v>
       </c>
-      <c r="B64" s="57"/>
-      <c r="C64" s="57"/>
-      <c r="D64" s="57"/>
-      <c r="E64" s="57"/>
-      <c r="F64" s="58"/>
-    </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A65" s="2"/>
-      <c r="B65" s="2"/>
-      <c r="C65" s="2"/>
-      <c r="D65" s="2"/>
-      <c r="E65" s="2"/>
-      <c r="F65" s="2"/>
+      <c r="B64" s="46"/>
+      <c r="C64" s="46"/>
+      <c r="D64" s="46"/>
+      <c r="E64" s="46"/>
+      <c r="F64" s="47"/>
+    </row>
+    <row r="65" spans="1:6" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A65" s="57"/>
+      <c r="B65" s="52" t="s">
+        <v>273</v>
+      </c>
+      <c r="C65" s="54" t="s">
+        <v>274</v>
+      </c>
+      <c r="D65" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E65" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F65" s="2" t="s">
+        <v>278</v>
+      </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A66" s="50" t="s">
+      <c r="A66" s="58"/>
+      <c r="B66" s="60"/>
+      <c r="C66" s="61"/>
+      <c r="D66" s="2" t="s">
+        <v>275</v>
+      </c>
+      <c r="E66" s="2" t="s">
+        <v>277</v>
+      </c>
+      <c r="F66" s="2" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A67" s="59"/>
+      <c r="B67" s="53"/>
+      <c r="C67" s="55"/>
+      <c r="D67" s="2" t="s">
+        <v>276</v>
+      </c>
+      <c r="E67" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F67" s="2" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A68" s="62" t="s">
         <v>29</v>
       </c>
-      <c r="B66" s="50"/>
-      <c r="C66" s="50"/>
-      <c r="D66" s="50"/>
-      <c r="E66" s="50"/>
-      <c r="F66" s="50"/>
-    </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A67" s="2"/>
-      <c r="B67" s="2"/>
-      <c r="C67" s="2"/>
-      <c r="D67" s="2"/>
-      <c r="E67" s="2"/>
-      <c r="F67" s="2"/>
-    </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A68" s="50" t="s">
+      <c r="B68" s="62"/>
+      <c r="C68" s="62"/>
+      <c r="D68" s="62"/>
+      <c r="E68" s="62"/>
+      <c r="F68" s="62"/>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A69" s="2"/>
+      <c r="B69" s="2"/>
+      <c r="C69" s="2"/>
+      <c r="D69" s="2"/>
+      <c r="E69" s="2"/>
+      <c r="F69" s="2"/>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A70" s="62" t="s">
         <v>30</v>
       </c>
-      <c r="B68" s="50"/>
-      <c r="C68" s="50"/>
-      <c r="D68" s="50"/>
-      <c r="E68" s="50"/>
-      <c r="F68" s="50"/>
-    </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A69" s="11"/>
-      <c r="B69" s="2" t="s">
+      <c r="B70" s="62"/>
+      <c r="C70" s="62"/>
+      <c r="D70" s="62"/>
+      <c r="E70" s="62"/>
+      <c r="F70" s="62"/>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A71" s="11"/>
+      <c r="B71" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="C69" s="1" t="s">
+      <c r="C71" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="D69" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E69" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="F69" s="2" t="s">
+      <c r="D71" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E71" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F71" s="2" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A70" s="11"/>
-      <c r="B70" s="2" t="s">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A72" s="11"/>
+      <c r="B72" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="C70" s="1" t="s">
+      <c r="C72" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="D70" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E70" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="F70" s="2" t="s">
+      <c r="D72" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E72" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F72" s="2" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A71" s="52"/>
-      <c r="B71" s="47" t="s">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A73" s="70"/>
+      <c r="B73" s="56" t="s">
         <v>156</v>
       </c>
-      <c r="C71" s="51" t="s">
+      <c r="C73" s="49" t="s">
         <v>157</v>
       </c>
-      <c r="D71" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E71" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="F71" s="2" t="s">
+      <c r="D73" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E73" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F73" s="2" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A72" s="52"/>
-      <c r="B72" s="47"/>
-      <c r="C72" s="51"/>
-      <c r="D72" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E72" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="F72" s="2" t="s">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A74" s="70"/>
+      <c r="B74" s="56"/>
+      <c r="C74" s="49"/>
+      <c r="D74" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E74" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F74" s="2" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A73" s="11"/>
-      <c r="B73" s="2" t="s">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A75" s="11"/>
+      <c r="B75" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="C73" s="1" t="s">
+      <c r="C75" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="D73" s="2" t="s">
+      <c r="D75" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="E73" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="F73" s="2" t="s">
+      <c r="E75" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F75" s="2" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A74" s="9"/>
-      <c r="B74" s="2" t="s">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A76" s="9"/>
+      <c r="B76" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="C74" s="1" t="s">
+      <c r="C76" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="D74" s="2" t="s">
+      <c r="D76" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="E74" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="F74" s="2" t="s">
+      <c r="E76" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F76" s="2" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A75" s="9"/>
-      <c r="B75" s="2" t="s">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A77" s="9"/>
+      <c r="B77" s="2" t="s">
         <v>145</v>
       </c>
-      <c r="C75" s="1" t="s">
+      <c r="C77" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="D75" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E75" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="F75" s="2" t="s">
+      <c r="D77" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E77" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F77" s="2" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A76" s="11"/>
-      <c r="B76" s="2" t="s">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A78" s="11"/>
+      <c r="B78" s="2" t="s">
         <v>139</v>
       </c>
-      <c r="C76" s="1" t="s">
+      <c r="C78" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="D76" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="E76" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="F76" s="2" t="s">
+      <c r="D78" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E78" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F78" s="2" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A77" s="60"/>
-      <c r="B77" s="47" t="s">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A79" s="48"/>
+      <c r="B79" s="56" t="s">
         <v>150</v>
       </c>
-      <c r="C77" s="51" t="s">
+      <c r="C79" s="49" t="s">
         <v>151</v>
       </c>
-      <c r="D77" s="2" t="s">
+      <c r="D79" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="E77" s="2" t="s">
+      <c r="E79" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="F77" s="2" t="s">
+      <c r="F79" s="2" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A78" s="60"/>
-      <c r="B78" s="47"/>
-      <c r="C78" s="51"/>
-      <c r="D78" s="2" t="s">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A80" s="48"/>
+      <c r="B80" s="56"/>
+      <c r="C80" s="49"/>
+      <c r="D80" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="E78" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="F78" s="2" t="s">
+      <c r="E80" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F80" s="2" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="79" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A79" s="45"/>
-      <c r="B79" s="47" t="s">
+    <row r="81" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A81" s="50"/>
+      <c r="B81" s="56" t="s">
         <v>165</v>
       </c>
-      <c r="C79" s="43" t="s">
+      <c r="C81" s="54" t="s">
         <v>166</v>
-      </c>
-      <c r="D79" s="21" t="s">
-        <v>18</v>
-      </c>
-      <c r="E79" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="F79" s="2" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="80" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A80" s="46"/>
-      <c r="B80" s="47"/>
-      <c r="C80" s="44"/>
-      <c r="D80" s="21" t="s">
-        <v>18</v>
-      </c>
-      <c r="E80" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="F80" s="1" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="81" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A81" s="48"/>
-      <c r="B81" s="47" t="s">
-        <v>171</v>
-      </c>
-      <c r="C81" s="43" t="s">
-        <v>169</v>
       </c>
       <c r="D81" s="21" t="s">
         <v>18</v>
@@ -2993,9 +3023,9 @@
       </c>
     </row>
     <row r="82" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A82" s="49"/>
-      <c r="B82" s="47"/>
-      <c r="C82" s="44"/>
+      <c r="A82" s="51"/>
+      <c r="B82" s="56"/>
+      <c r="C82" s="55"/>
       <c r="D82" s="21" t="s">
         <v>18</v>
       </c>
@@ -3003,158 +3033,158 @@
         <v>4</v>
       </c>
       <c r="F82" s="1" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A83" s="63"/>
+      <c r="B83" s="56" t="s">
+        <v>171</v>
+      </c>
+      <c r="C83" s="54" t="s">
+        <v>169</v>
+      </c>
+      <c r="D83" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="E83" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F83" s="2" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A84" s="65"/>
+      <c r="B84" s="56"/>
+      <c r="C84" s="55"/>
+      <c r="D84" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="E84" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F84" s="1" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A83" s="45"/>
-      <c r="B83" s="41" t="s">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A85" s="50"/>
+      <c r="B85" s="52" t="s">
         <v>161</v>
       </c>
-      <c r="C83" s="43" t="s">
+      <c r="C85" s="54" t="s">
         <v>162</v>
       </c>
-      <c r="D83" s="18" t="s">
-        <v>18</v>
-      </c>
-      <c r="E83" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="F83" s="2" t="s">
+      <c r="D85" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="E85" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F85" s="2" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A84" s="46"/>
-      <c r="B84" s="42"/>
-      <c r="C84" s="44"/>
-      <c r="D84" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E84" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="F84" s="2" t="s">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A86" s="51"/>
+      <c r="B86" s="53"/>
+      <c r="C86" s="55"/>
+      <c r="D86" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E86" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F86" s="2" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A85" s="22"/>
-      <c r="B85" s="19" t="s">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A87" s="22"/>
+      <c r="B87" s="19" t="s">
         <v>172</v>
       </c>
-      <c r="C85" s="20" t="s">
+      <c r="C87" s="20" t="s">
         <v>173</v>
       </c>
-      <c r="D85" s="2" t="s">
+      <c r="D87" s="2" t="s">
         <v>174</v>
       </c>
-      <c r="E85" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="F85" s="2" t="s">
+      <c r="E87" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F87" s="2" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A86" s="17"/>
-      <c r="B86" s="16" t="s">
+    <row r="88" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A88" s="17"/>
+      <c r="B88" s="16" t="s">
         <v>159</v>
       </c>
-      <c r="C86" s="15" t="s">
+      <c r="C88" s="15" t="s">
         <v>160</v>
       </c>
-      <c r="D86" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E86" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="F86" s="2" t="s">
+      <c r="D88" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E88" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F88" s="2" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A87" s="59"/>
-      <c r="B87" s="47" t="s">
+    <row r="89" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A89" s="66"/>
+      <c r="B89" s="56" t="s">
         <v>147</v>
       </c>
-      <c r="C87" s="51" t="s">
+      <c r="C89" s="49" t="s">
         <v>148</v>
       </c>
-      <c r="D87" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E87" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="F87" s="2" t="s">
+      <c r="D89" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E89" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F89" s="2" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A88" s="59"/>
-      <c r="B88" s="47"/>
-      <c r="C88" s="51"/>
-      <c r="D88" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E88" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="F88" s="2" t="s">
+    <row r="90" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A90" s="66"/>
+      <c r="B90" s="56"/>
+      <c r="C90" s="49"/>
+      <c r="D90" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E90" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F90" s="2" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A89" s="50" t="s">
+    <row r="91" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A91" s="62" t="s">
         <v>63</v>
       </c>
-      <c r="B89" s="50"/>
-      <c r="C89" s="50"/>
-      <c r="D89" s="50"/>
-      <c r="E89" s="50"/>
-      <c r="F89" s="50"/>
-    </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A90" s="2"/>
-      <c r="B90" s="47" t="s">
-        <v>64</v>
-      </c>
-      <c r="C90" s="51" t="s">
-        <v>61</v>
-      </c>
-      <c r="D90" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E90" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="F90" s="2" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A91" s="2"/>
-      <c r="B91" s="47"/>
-      <c r="C91" s="51"/>
-      <c r="D91" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E91" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="F91" s="2" t="s">
-        <v>62</v>
-      </c>
+      <c r="B91" s="62"/>
+      <c r="C91" s="62"/>
+      <c r="D91" s="62"/>
+      <c r="E91" s="62"/>
+      <c r="F91" s="62"/>
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A92" s="2"/>
-      <c r="B92" s="47" t="s">
-        <v>65</v>
-      </c>
-      <c r="C92" s="51" t="s">
-        <v>66</v>
+      <c r="B92" s="56" t="s">
+        <v>64</v>
+      </c>
+      <c r="C92" s="49" t="s">
+        <v>61</v>
       </c>
       <c r="D92" s="2" t="s">
         <v>18</v>
@@ -3168,8 +3198,8 @@
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A93" s="2"/>
-      <c r="B93" s="47"/>
-      <c r="C93" s="51"/>
+      <c r="B93" s="56"/>
+      <c r="C93" s="49"/>
       <c r="D93" s="2" t="s">
         <v>18</v>
       </c>
@@ -3182,47 +3212,43 @@
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A94" s="2"/>
-      <c r="B94" s="14" t="s">
-        <v>79</v>
-      </c>
-      <c r="C94" s="15" t="s">
-        <v>80</v>
+      <c r="B94" s="56" t="s">
+        <v>65</v>
+      </c>
+      <c r="C94" s="49" t="s">
+        <v>66</v>
       </c>
       <c r="D94" s="2" t="s">
         <v>18</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>77</v>
+        <v>18</v>
       </c>
       <c r="F94" s="2" t="s">
-        <v>81</v>
+        <v>67</v>
       </c>
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A95" s="2"/>
-      <c r="B95" s="14" t="s">
-        <v>75</v>
-      </c>
-      <c r="C95" s="15" t="s">
-        <v>76</v>
-      </c>
+      <c r="B95" s="56"/>
+      <c r="C95" s="49"/>
       <c r="D95" s="2" t="s">
         <v>18</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>77</v>
+        <v>4</v>
       </c>
       <c r="F95" s="2" t="s">
-        <v>78</v>
+        <v>62</v>
       </c>
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A96" s="2"/>
-      <c r="B96" s="47" t="s">
-        <v>83</v>
-      </c>
-      <c r="C96" s="51" t="s">
-        <v>82</v>
+      <c r="B96" s="14" t="s">
+        <v>79</v>
+      </c>
+      <c r="C96" s="15" t="s">
+        <v>80</v>
       </c>
       <c r="D96" s="2" t="s">
         <v>18</v>
@@ -3236,25 +3262,29 @@
     </row>
     <row r="97" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A97" s="2"/>
-      <c r="B97" s="47"/>
-      <c r="C97" s="51"/>
+      <c r="B97" s="14" t="s">
+        <v>75</v>
+      </c>
+      <c r="C97" s="15" t="s">
+        <v>76</v>
+      </c>
       <c r="D97" s="2" t="s">
         <v>18</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="F97" s="2" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
     </row>
     <row r="98" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A98" s="2"/>
-      <c r="B98" s="47" t="s">
-        <v>86</v>
-      </c>
-      <c r="C98" s="51" t="s">
-        <v>87</v>
+      <c r="B98" s="56" t="s">
+        <v>83</v>
+      </c>
+      <c r="C98" s="49" t="s">
+        <v>82</v>
       </c>
       <c r="D98" s="2" t="s">
         <v>18</v>
@@ -3268,8 +3298,8 @@
     </row>
     <row r="99" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A99" s="2"/>
-      <c r="B99" s="47"/>
-      <c r="C99" s="51"/>
+      <c r="B99" s="56"/>
+      <c r="C99" s="49"/>
       <c r="D99" s="2" t="s">
         <v>18</v>
       </c>
@@ -3282,262 +3312,262 @@
     </row>
     <row r="100" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A100" s="2"/>
-      <c r="B100" s="14"/>
-      <c r="C100" s="15"/>
-      <c r="D100" s="2"/>
-      <c r="E100" s="2"/>
-      <c r="F100" s="2"/>
+      <c r="B100" s="56" t="s">
+        <v>86</v>
+      </c>
+      <c r="C100" s="49" t="s">
+        <v>87</v>
+      </c>
+      <c r="D100" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E100" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="F100" s="2" t="s">
+        <v>81</v>
+      </c>
     </row>
     <row r="101" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A101" s="50" t="s">
-        <v>88</v>
-      </c>
-      <c r="B101" s="50"/>
-      <c r="C101" s="50"/>
-      <c r="D101" s="50"/>
-      <c r="E101" s="50"/>
-      <c r="F101" s="50"/>
+      <c r="A101" s="2"/>
+      <c r="B101" s="56"/>
+      <c r="C101" s="49"/>
+      <c r="D101" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E101" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="F101" s="2" t="s">
+        <v>85</v>
+      </c>
     </row>
     <row r="102" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A102" s="2"/>
-      <c r="B102" s="5" t="s">
+      <c r="B102" s="14"/>
+      <c r="C102" s="15"/>
+      <c r="D102" s="2"/>
+      <c r="E102" s="2"/>
+      <c r="F102" s="2"/>
+    </row>
+    <row r="103" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A103" s="62" t="s">
+        <v>88</v>
+      </c>
+      <c r="B103" s="62"/>
+      <c r="C103" s="62"/>
+      <c r="D103" s="62"/>
+      <c r="E103" s="62"/>
+      <c r="F103" s="62"/>
+    </row>
+    <row r="104" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A104" s="2"/>
+      <c r="B104" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="C102" s="3" t="s">
+      <c r="C104" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="D102" s="4" t="s">
+      <c r="D104" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="E102" s="4" t="s">
+      <c r="E104" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="F102" s="4"/>
-    </row>
-    <row r="103" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A103" s="2"/>
-      <c r="B103" s="5" t="s">
-        <v>93</v>
-      </c>
-      <c r="C103" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="D103" s="4" t="s">
-        <v>91</v>
-      </c>
-      <c r="E103" s="4" t="s">
-        <v>91</v>
-      </c>
-      <c r="F103" s="12" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="104" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A104" s="50" t="s">
-        <v>31</v>
-      </c>
-      <c r="B104" s="50"/>
-      <c r="C104" s="50"/>
-      <c r="D104" s="50"/>
-      <c r="E104" s="50"/>
-      <c r="F104" s="50"/>
+      <c r="F104" s="4"/>
     </row>
     <row r="105" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A105" s="2"/>
-      <c r="B105" s="2" t="s">
+      <c r="B105" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="C105" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="D105" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="E105" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="F105" s="12" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="106" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A106" s="62" t="s">
+        <v>31</v>
+      </c>
+      <c r="B106" s="62"/>
+      <c r="C106" s="62"/>
+      <c r="D106" s="62"/>
+      <c r="E106" s="62"/>
+      <c r="F106" s="62"/>
+    </row>
+    <row r="107" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A107" s="2"/>
+      <c r="B107" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="C105" s="1" t="s">
+      <c r="C107" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="D105" s="2" t="s">
+      <c r="D107" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="E105" s="2" t="s">
+      <c r="E107" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="F105" s="2" t="s">
+      <c r="F107" s="2" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="106" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A106" s="2"/>
-      <c r="B106" s="2" t="s">
+    <row r="108" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A108" s="2"/>
+      <c r="B108" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="C106" s="1" t="s">
+      <c r="C108" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="D106" s="2" t="s">
+      <c r="D108" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="E106" s="2"/>
-      <c r="F106" s="2"/>
-    </row>
-    <row r="107" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A107" s="10"/>
-      <c r="B107" s="2" t="s">
+      <c r="E108" s="2"/>
+      <c r="F108" s="2"/>
+    </row>
+    <row r="109" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A109" s="10"/>
+      <c r="B109" s="2" t="s">
         <v>251</v>
       </c>
-      <c r="C107" s="1" t="s">
+      <c r="C109" s="1" t="s">
         <v>252</v>
       </c>
-      <c r="D107" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E107" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="F107" s="2" t="s">
+      <c r="D109" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E109" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F109" s="2" t="s">
         <v>253</v>
       </c>
-      <c r="G107" s="39" t="s">
+      <c r="G109" s="39" t="s">
         <v>257</v>
       </c>
     </row>
-    <row r="108" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A108" s="50" t="s">
+    <row r="110" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A110" s="62" t="s">
         <v>258</v>
       </c>
-      <c r="B108" s="50"/>
-      <c r="C108" s="50"/>
-      <c r="D108" s="50"/>
-      <c r="E108" s="50"/>
-      <c r="F108" s="50"/>
-    </row>
-    <row r="109" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A109" s="9"/>
-      <c r="B109" s="2" t="s">
+      <c r="B110" s="62"/>
+      <c r="C110" s="62"/>
+      <c r="D110" s="62"/>
+      <c r="E110" s="62"/>
+      <c r="F110" s="62"/>
+    </row>
+    <row r="111" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A111" s="9"/>
+      <c r="B111" s="2" t="s">
         <v>259</v>
       </c>
-      <c r="C109" s="1" t="s">
+      <c r="C111" s="1" t="s">
         <v>260</v>
       </c>
-      <c r="D109" s="2" t="s">
+      <c r="D111" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="E109" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="F109" s="2" t="s">
+      <c r="E111" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F111" s="2" t="s">
         <v>261</v>
       </c>
-      <c r="G109" s="39" t="s">
+      <c r="G111" s="39" t="s">
         <v>262</v>
       </c>
     </row>
-    <row r="110" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A110" s="10"/>
-      <c r="B110" s="2" t="s">
+    <row r="112" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A112" s="10"/>
+      <c r="B112" s="2" t="s">
         <v>263</v>
       </c>
-      <c r="C110" s="1" t="s">
+      <c r="C112" s="1" t="s">
         <v>264</v>
       </c>
-      <c r="D110" s="2" t="s">
+      <c r="D112" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="E110" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="F110" s="2" t="s">
+      <c r="E112" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F112" s="2" t="s">
         <v>261</v>
       </c>
-      <c r="G110" s="40"/>
-    </row>
-    <row r="111" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A111" s="10"/>
-      <c r="B111" s="2"/>
-      <c r="C111" s="1"/>
-      <c r="D111" s="2"/>
-      <c r="E111" s="2"/>
-      <c r="F111" s="2"/>
-      <c r="G111" s="40"/>
-    </row>
-    <row r="112" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A112" s="50" t="s">
+      <c r="G112" s="40"/>
+    </row>
+    <row r="113" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A113" s="10"/>
+      <c r="B113" s="2"/>
+      <c r="C113" s="1"/>
+      <c r="D113" s="2"/>
+      <c r="E113" s="2"/>
+      <c r="F113" s="2"/>
+      <c r="G113" s="40"/>
+    </row>
+    <row r="114" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A114" s="62" t="s">
         <v>249</v>
       </c>
-      <c r="B112" s="50"/>
-      <c r="C112" s="50"/>
-      <c r="D112" s="50"/>
-      <c r="E112" s="50"/>
-      <c r="F112" s="50"/>
-    </row>
-    <row r="113" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A113" s="9"/>
-      <c r="B113" s="2" t="s">
+      <c r="B114" s="62"/>
+      <c r="C114" s="62"/>
+      <c r="D114" s="62"/>
+      <c r="E114" s="62"/>
+      <c r="F114" s="62"/>
+    </row>
+    <row r="115" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A115" s="9"/>
+      <c r="B115" s="2" t="s">
         <v>265</v>
       </c>
-      <c r="C113" s="1" t="s">
+      <c r="C115" s="1" t="s">
         <v>266</v>
       </c>
-      <c r="D113" s="2" t="s">
+      <c r="D115" s="2" t="s">
         <v>267</v>
       </c>
-      <c r="E113" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="F113" s="2" t="s">
+      <c r="E115" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F115" s="2" t="s">
         <v>268</v>
       </c>
-      <c r="G113" s="40"/>
-    </row>
-    <row r="114" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A114" s="50" t="s">
+      <c r="G115" s="40"/>
+    </row>
+    <row r="116" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A116" s="62" t="s">
         <v>32</v>
       </c>
-      <c r="B114" s="50"/>
-      <c r="C114" s="50"/>
-      <c r="D114" s="50"/>
-      <c r="E114" s="50"/>
-      <c r="F114" s="50"/>
-    </row>
-    <row r="115" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A115" s="2"/>
-      <c r="B115" s="47" t="s">
-        <v>109</v>
-      </c>
-      <c r="C115" s="51" t="s">
-        <v>110</v>
-      </c>
-      <c r="D115" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="E115" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="F115" s="2" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="116" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A116" s="2"/>
-      <c r="B116" s="47"/>
-      <c r="C116" s="47"/>
-      <c r="D116" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="E116" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="F116" s="2" t="s">
-        <v>112</v>
-      </c>
+      <c r="B116" s="62"/>
+      <c r="C116" s="62"/>
+      <c r="D116" s="62"/>
+      <c r="E116" s="62"/>
+      <c r="F116" s="62"/>
     </row>
     <row r="117" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A117" s="2"/>
-      <c r="B117" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="C117" s="15" t="s">
-        <v>113</v>
+      <c r="B117" s="56" t="s">
+        <v>109</v>
+      </c>
+      <c r="C117" s="49" t="s">
+        <v>110</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>18</v>
+        <v>115</v>
       </c>
       <c r="E117" s="2" t="s">
-        <v>39</v>
+        <v>115</v>
       </c>
       <c r="F117" s="2" t="s">
         <v>111</v>
@@ -3545,81 +3575,146 @@
     </row>
     <row r="118" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A118" s="2"/>
-      <c r="B118" s="47" t="s">
-        <v>116</v>
-      </c>
-      <c r="C118" s="51" t="s">
-        <v>117</v>
-      </c>
+      <c r="B118" s="56"/>
+      <c r="C118" s="56"/>
       <c r="D118" s="2" t="s">
-        <v>50</v>
+        <v>115</v>
       </c>
       <c r="E118" s="2" t="s">
-        <v>39</v>
+        <v>4</v>
       </c>
       <c r="F118" s="2" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
     </row>
     <row r="119" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A119" s="2"/>
-      <c r="B119" s="47"/>
-      <c r="C119" s="51"/>
+      <c r="B119" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="C119" s="15" t="s">
+        <v>113</v>
+      </c>
       <c r="D119" s="2" t="s">
         <v>18</v>
       </c>
       <c r="E119" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="F119" s="13" t="s">
-        <v>119</v>
+      <c r="F119" s="2" t="s">
+        <v>111</v>
       </c>
     </row>
     <row r="120" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A120" s="50" t="s">
-        <v>33</v>
-      </c>
-      <c r="B120" s="50"/>
-      <c r="C120" s="50"/>
-      <c r="D120" s="50"/>
-      <c r="E120" s="50"/>
-      <c r="F120" s="50"/>
+      <c r="A120" s="2"/>
+      <c r="B120" s="56" t="s">
+        <v>116</v>
+      </c>
+      <c r="C120" s="49" t="s">
+        <v>117</v>
+      </c>
+      <c r="D120" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="E120" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="F120" s="2" t="s">
+        <v>118</v>
+      </c>
     </row>
     <row r="121" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A121" s="2"/>
-      <c r="B121" s="2"/>
-      <c r="C121" s="2"/>
-      <c r="D121" s="2"/>
-      <c r="E121" s="2"/>
-      <c r="F121" s="2"/>
+      <c r="B121" s="56"/>
+      <c r="C121" s="49"/>
+      <c r="D121" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E121" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="F121" s="13" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="122" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A122" s="62" t="s">
+        <v>33</v>
+      </c>
+      <c r="B122" s="62"/>
+      <c r="C122" s="62"/>
+      <c r="D122" s="62"/>
+      <c r="E122" s="62"/>
+      <c r="F122" s="62"/>
     </row>
     <row r="123" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="F123" s="34" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="124" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="F124" s="34" t="s">
-        <v>217</v>
-      </c>
+      <c r="A123" s="2"/>
+      <c r="B123" s="2"/>
+      <c r="C123" s="2"/>
+      <c r="D123" s="2"/>
+      <c r="E123" s="2"/>
+      <c r="F123" s="2"/>
     </row>
     <row r="125" spans="1:7" x14ac:dyDescent="0.35">
       <c r="F125" s="34" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="126" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="F126" s="34" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="127" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="F127" s="34" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="126" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="F126" s="36" t="s">
+    <row r="128" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="F128" s="36" t="s">
         <v>226</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="58">
-    <mergeCell ref="A62:F62"/>
-    <mergeCell ref="A77:A78"/>
-    <mergeCell ref="C77:C78"/>
-    <mergeCell ref="A64:F64"/>
-    <mergeCell ref="A83:A84"/>
+  <mergeCells count="61">
+    <mergeCell ref="A122:F122"/>
+    <mergeCell ref="A68:F68"/>
+    <mergeCell ref="A70:F70"/>
+    <mergeCell ref="A91:F91"/>
+    <mergeCell ref="A103:F103"/>
+    <mergeCell ref="B92:B93"/>
+    <mergeCell ref="C92:C93"/>
+    <mergeCell ref="B94:B95"/>
+    <mergeCell ref="C94:C95"/>
+    <mergeCell ref="B98:B99"/>
+    <mergeCell ref="C98:C99"/>
+    <mergeCell ref="B117:B118"/>
+    <mergeCell ref="C117:C118"/>
+    <mergeCell ref="A73:A74"/>
+    <mergeCell ref="B73:B74"/>
+    <mergeCell ref="B79:B80"/>
+    <mergeCell ref="A2:F2"/>
+    <mergeCell ref="A11:F11"/>
+    <mergeCell ref="A20:F20"/>
+    <mergeCell ref="A30:F30"/>
+    <mergeCell ref="A36:A37"/>
+    <mergeCell ref="A32:F32"/>
+    <mergeCell ref="A60:F60"/>
+    <mergeCell ref="B53:B59"/>
+    <mergeCell ref="A53:A59"/>
+    <mergeCell ref="C53:C59"/>
+    <mergeCell ref="B120:B121"/>
+    <mergeCell ref="C120:C121"/>
+    <mergeCell ref="C100:C101"/>
+    <mergeCell ref="B100:B101"/>
+    <mergeCell ref="A89:A90"/>
+    <mergeCell ref="B89:B90"/>
+    <mergeCell ref="C89:C90"/>
+    <mergeCell ref="A110:F110"/>
+    <mergeCell ref="A116:F116"/>
+    <mergeCell ref="A106:F106"/>
+    <mergeCell ref="A114:F114"/>
+    <mergeCell ref="B85:B86"/>
     <mergeCell ref="B5:B6"/>
     <mergeCell ref="C5:C6"/>
     <mergeCell ref="B36:B37"/>
@@ -3627,52 +3722,22 @@
     <mergeCell ref="A42:A45"/>
     <mergeCell ref="B42:B45"/>
     <mergeCell ref="C42:C45"/>
-    <mergeCell ref="C71:C72"/>
-    <mergeCell ref="A60:F60"/>
-    <mergeCell ref="B53:B59"/>
-    <mergeCell ref="A53:A59"/>
-    <mergeCell ref="C53:C59"/>
-    <mergeCell ref="B118:B119"/>
-    <mergeCell ref="C118:C119"/>
-    <mergeCell ref="C98:C99"/>
-    <mergeCell ref="B98:B99"/>
-    <mergeCell ref="A87:A88"/>
-    <mergeCell ref="B87:B88"/>
-    <mergeCell ref="C87:C88"/>
-    <mergeCell ref="A108:F108"/>
-    <mergeCell ref="A114:F114"/>
-    <mergeCell ref="A104:F104"/>
-    <mergeCell ref="A112:F112"/>
-    <mergeCell ref="A2:F2"/>
-    <mergeCell ref="A11:F11"/>
-    <mergeCell ref="A20:F20"/>
-    <mergeCell ref="A30:F30"/>
-    <mergeCell ref="A36:A37"/>
-    <mergeCell ref="A32:F32"/>
-    <mergeCell ref="A120:F120"/>
-    <mergeCell ref="A66:F66"/>
-    <mergeCell ref="A68:F68"/>
-    <mergeCell ref="A89:F89"/>
-    <mergeCell ref="A101:F101"/>
-    <mergeCell ref="B90:B91"/>
-    <mergeCell ref="C90:C91"/>
-    <mergeCell ref="B92:B93"/>
-    <mergeCell ref="C92:C93"/>
-    <mergeCell ref="B96:B97"/>
-    <mergeCell ref="C96:C97"/>
-    <mergeCell ref="B115:B116"/>
-    <mergeCell ref="C115:C116"/>
-    <mergeCell ref="A71:A72"/>
-    <mergeCell ref="B71:B72"/>
-    <mergeCell ref="B77:B78"/>
+    <mergeCell ref="A62:F62"/>
+    <mergeCell ref="A79:A80"/>
+    <mergeCell ref="C79:C80"/>
+    <mergeCell ref="A64:F64"/>
+    <mergeCell ref="A85:A86"/>
+    <mergeCell ref="C73:C74"/>
+    <mergeCell ref="C85:C86"/>
+    <mergeCell ref="A81:A82"/>
+    <mergeCell ref="B81:B82"/>
+    <mergeCell ref="C81:C82"/>
+    <mergeCell ref="A83:A84"/>
+    <mergeCell ref="C83:C84"/>
     <mergeCell ref="B83:B84"/>
-    <mergeCell ref="C83:C84"/>
-    <mergeCell ref="A79:A80"/>
-    <mergeCell ref="B79:B80"/>
-    <mergeCell ref="C79:C80"/>
-    <mergeCell ref="A81:A82"/>
-    <mergeCell ref="C81:C82"/>
-    <mergeCell ref="B81:B82"/>
+    <mergeCell ref="A65:A67"/>
+    <mergeCell ref="B65:B67"/>
+    <mergeCell ref="C65:C67"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="C3" r:id="rId1" xr:uid="{3FB3FA06-DE47-4C2D-AFD7-F5FC45E3D126}"/>
@@ -3682,36 +3747,37 @@
     <hyperlink ref="C50" r:id="rId5" xr:uid="{6352E065-8925-49FF-AA82-66ED2F9F8651}"/>
     <hyperlink ref="C22" r:id="rId6" xr:uid="{047C68C0-B7AB-4E77-9D1E-B162BD11A209}"/>
     <hyperlink ref="C23" r:id="rId7" xr:uid="{1ABD0EDA-F48F-4D2F-B13C-180B398F1FCD}"/>
-    <hyperlink ref="C90" r:id="rId8" xr:uid="{35D2A43C-BF1B-4339-9217-7116005F7034}"/>
-    <hyperlink ref="C92" r:id="rId9" xr:uid="{233456E2-1B15-4448-A669-82C381357683}"/>
-    <hyperlink ref="C105" r:id="rId10" xr:uid="{4A724644-7F2B-4DE6-9141-A1802140FB4A}"/>
-    <hyperlink ref="C102" r:id="rId11" xr:uid="{914A5C5A-20B3-4526-A460-020F9852AFDB}"/>
-    <hyperlink ref="C103" r:id="rId12" xr:uid="{0B2D15B8-18BF-46A5-991E-6E53ADC95851}"/>
+    <hyperlink ref="C92" r:id="rId8" xr:uid="{35D2A43C-BF1B-4339-9217-7116005F7034}"/>
+    <hyperlink ref="C94" r:id="rId9" xr:uid="{233456E2-1B15-4448-A669-82C381357683}"/>
+    <hyperlink ref="C107" r:id="rId10" xr:uid="{4A724644-7F2B-4DE6-9141-A1802140FB4A}"/>
+    <hyperlink ref="C104" r:id="rId11" xr:uid="{914A5C5A-20B3-4526-A460-020F9852AFDB}"/>
+    <hyperlink ref="C105" r:id="rId12" xr:uid="{0B2D15B8-18BF-46A5-991E-6E53ADC95851}"/>
     <hyperlink ref="C33" r:id="rId13" xr:uid="{93A177B9-936F-4ED5-9F32-EB31F0D8F614}"/>
-    <hyperlink ref="C115" r:id="rId14" xr:uid="{9CD2E86C-B1BA-4CC3-9E52-ECA767380715}"/>
-    <hyperlink ref="C117" r:id="rId15" xr:uid="{30EBB8AD-10BE-47B9-BF85-DBCCCE948784}"/>
-    <hyperlink ref="F119" r:id="rId16" xr:uid="{080A2B1B-6640-47F1-9DAB-1F0914BD9938}"/>
-    <hyperlink ref="C69" r:id="rId17" xr:uid="{DD8AB0F8-5B5E-4F6E-A0B4-339B324BDAC3}"/>
+    <hyperlink ref="C117" r:id="rId14" xr:uid="{9CD2E86C-B1BA-4CC3-9E52-ECA767380715}"/>
+    <hyperlink ref="C119" r:id="rId15" xr:uid="{30EBB8AD-10BE-47B9-BF85-DBCCCE948784}"/>
+    <hyperlink ref="F121" r:id="rId16" xr:uid="{080A2B1B-6640-47F1-9DAB-1F0914BD9938}"/>
+    <hyperlink ref="C71" r:id="rId17" xr:uid="{DD8AB0F8-5B5E-4F6E-A0B4-339B324BDAC3}"/>
     <hyperlink ref="C8" r:id="rId18" xr:uid="{43B67C49-DC70-412F-B095-E684E07FF196}"/>
-    <hyperlink ref="C79" r:id="rId19" xr:uid="{7FDCAB78-56F5-40D3-8A09-8A8A0E54E05D}"/>
-    <hyperlink ref="F80" r:id="rId20" xr:uid="{F7F3C873-8E94-4212-B22A-52BF75A478D8}"/>
+    <hyperlink ref="C81" r:id="rId19" xr:uid="{7FDCAB78-56F5-40D3-8A09-8A8A0E54E05D}"/>
+    <hyperlink ref="F82" r:id="rId20" xr:uid="{F7F3C873-8E94-4212-B22A-52BF75A478D8}"/>
     <hyperlink ref="C36" r:id="rId21" xr:uid="{F6C15430-DBA9-4DAD-A411-65B1524C625E}"/>
     <hyperlink ref="G21" r:id="rId22" display="https://leetcode.com/problems/maximum-sum-circular-subarray/" xr:uid="{A4CEEEE3-5EE5-4166-9A65-51E09840E49F}"/>
     <hyperlink ref="G22" r:id="rId23" display="https://leetcode.com/problems/maximum-product-subarray/" xr:uid="{E66937F4-342E-466B-92BD-529EAD0F1180}"/>
     <hyperlink ref="G23" r:id="rId24" display="https://leetcode.com/problems/maximum-length-of-subarray-with-positive-product/" xr:uid="{C0B6118F-C23A-4E55-881A-F4A1DA018A1F}"/>
     <hyperlink ref="C7" r:id="rId25" xr:uid="{D548A552-BEA3-46D9-89FD-0EDF330CCD4B}"/>
-    <hyperlink ref="C83" r:id="rId26" xr:uid="{7EAF2DCC-4594-46F5-AFC0-D19FF750F897}"/>
+    <hyperlink ref="C85" r:id="rId26" xr:uid="{7EAF2DCC-4594-46F5-AFC0-D19FF750F897}"/>
     <hyperlink ref="C31" r:id="rId27" xr:uid="{2A9F780A-9E5F-449D-AA08-46C94947DE0C}"/>
     <hyperlink ref="G31" r:id="rId28" display="https://leetcode.com/problems/merge-intervals" xr:uid="{24D594E5-8804-48F8-84BD-C5D018E5A447}"/>
     <hyperlink ref="G32" r:id="rId29" display="https://leetcode.com/problems/non-overlapping-intervals" xr:uid="{FBB3A625-8231-42DD-B49C-D9DFE3555251}"/>
     <hyperlink ref="G33" r:id="rId30" display="https://leetcode.com/problems/meeting-rooms/" xr:uid="{8849EA4F-0A54-4D57-AE19-19728A56318A}"/>
     <hyperlink ref="G34" r:id="rId31" display="https://leetcode.com/problems/meeting-rooms-ii/" xr:uid="{DD819D71-EB3C-4BD3-BA6C-25223B20391D}"/>
     <hyperlink ref="C17" r:id="rId32" xr:uid="{6062919D-9F53-4AD6-A2BA-CE01278187C7}"/>
-    <hyperlink ref="C109" r:id="rId33" xr:uid="{7B7426B5-0217-46DE-ABCD-A2F2DDDDFB2A}"/>
+    <hyperlink ref="C111" r:id="rId33" xr:uid="{7B7426B5-0217-46DE-ABCD-A2F2DDDDFB2A}"/>
     <hyperlink ref="C63" r:id="rId34" xr:uid="{620ED6F1-6752-463C-AA48-4B6A185A8D46}"/>
+    <hyperlink ref="C65" r:id="rId35" xr:uid="{031A9508-DB97-4A6A-8854-D213EDA454B4}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="90" verticalDpi="90" r:id="rId35"/>
+  <pageSetup orientation="portrait" horizontalDpi="90" verticalDpi="90" r:id="rId36"/>
   <headerFooter>
     <oddFooter>&amp;L12/30/2021&amp;CAXP Internal&amp;R1</oddFooter>
   </headerFooter>

--- a/SDE Sheet.xlsx
+++ b/SDE Sheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Src Code\Personal\SDE-Sheet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6AA70CF1-BC73-4B6E-BBB3-D8B12AD4D921}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49EADED8-A828-496E-B95C-01EA9294AD99}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{83934561-A72F-4836-B1E7-4EE8C35F9874}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="468" uniqueCount="281">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="479" uniqueCount="287">
   <si>
     <t>Matrix</t>
   </si>
@@ -996,6 +996,24 @@
   </si>
   <si>
     <t>Clubbing previous and next smaller element in 1 pass</t>
+  </si>
+  <si>
+    <t>Rotate Array</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/rotate-array/</t>
+  </si>
+  <si>
+    <t>O(k) or O(n)</t>
+  </si>
+  <si>
+    <t>O(n*k)</t>
+  </si>
+  <si>
+    <t>TLE</t>
+  </si>
+  <si>
+    <t>Using array reverse</t>
   </si>
 </sst>
 </file>
@@ -1240,7 +1258,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="71">
+  <cellXfs count="77">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -1320,6 +1338,33 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1329,74 +1374,65 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1713,11 +1749,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D3EBAEE5-B4E7-4BD5-B694-FD6EEA5E8AC0}">
-  <dimension ref="A1:G128"/>
+  <dimension ref="A1:G131"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="74" zoomScaleNormal="94" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A52" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F74" sqref="F74"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="74" zoomScaleNormal="94" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A42" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F62" sqref="F62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1751,14 +1787,14 @@
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A2" s="62" t="s">
+      <c r="A2" s="45" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="62"/>
-      <c r="C2" s="62"/>
-      <c r="D2" s="62"/>
-      <c r="E2" s="62"/>
-      <c r="F2" s="62"/>
+      <c r="B2" s="45"/>
+      <c r="C2" s="45"/>
+      <c r="D2" s="45"/>
+      <c r="E2" s="45"/>
+      <c r="F2" s="45"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A3" s="9"/>
@@ -1798,10 +1834,10 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A5" s="9"/>
-      <c r="B5" s="52" t="s">
+      <c r="B5" s="57" t="s">
         <v>34</v>
       </c>
-      <c r="C5" s="54" t="s">
+      <c r="C5" s="63" t="s">
         <v>35</v>
       </c>
       <c r="D5" s="2" t="s">
@@ -1816,8 +1852,8 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A6" s="9"/>
-      <c r="B6" s="53"/>
-      <c r="C6" s="55"/>
+      <c r="B6" s="59"/>
+      <c r="C6" s="65"/>
       <c r="D6" s="2" t="s">
         <v>36</v>
       </c>
@@ -1897,14 +1933,14 @@
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A11" s="62" t="s">
+      <c r="A11" s="45" t="s">
         <v>15</v>
       </c>
-      <c r="B11" s="62"/>
-      <c r="C11" s="62"/>
-      <c r="D11" s="62"/>
-      <c r="E11" s="62"/>
-      <c r="F11" s="62"/>
+      <c r="B11" s="45"/>
+      <c r="C11" s="45"/>
+      <c r="D11" s="45"/>
+      <c r="E11" s="45"/>
+      <c r="F11" s="45"/>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A12" s="9"/>
@@ -2051,14 +2087,14 @@
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A20" s="62" t="s">
+      <c r="A20" s="45" t="s">
         <v>22</v>
       </c>
-      <c r="B20" s="62"/>
-      <c r="C20" s="62"/>
-      <c r="D20" s="62"/>
-      <c r="E20" s="62"/>
-      <c r="F20" s="62"/>
+      <c r="B20" s="45"/>
+      <c r="C20" s="45"/>
+      <c r="D20" s="45"/>
+      <c r="E20" s="45"/>
+      <c r="F20" s="45"/>
       <c r="G20" s="34" t="s">
         <v>210</v>
       </c>
@@ -2235,14 +2271,14 @@
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A30" s="67" t="s">
+      <c r="A30" s="49" t="s">
         <v>240</v>
       </c>
-      <c r="B30" s="68"/>
-      <c r="C30" s="68"/>
-      <c r="D30" s="68"/>
-      <c r="E30" s="68"/>
-      <c r="F30" s="69"/>
+      <c r="B30" s="50"/>
+      <c r="C30" s="50"/>
+      <c r="D30" s="50"/>
+      <c r="E30" s="50"/>
+      <c r="F30" s="51"/>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A31" s="9"/>
@@ -2266,14 +2302,14 @@
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A32" s="45" t="s">
+      <c r="A32" s="54" t="s">
         <v>95</v>
       </c>
-      <c r="B32" s="46"/>
-      <c r="C32" s="46"/>
-      <c r="D32" s="46"/>
-      <c r="E32" s="46"/>
-      <c r="F32" s="47"/>
+      <c r="B32" s="55"/>
+      <c r="C32" s="55"/>
+      <c r="D32" s="55"/>
+      <c r="E32" s="55"/>
+      <c r="F32" s="56"/>
       <c r="G32" s="38" t="s">
         <v>244</v>
       </c>
@@ -2339,11 +2375,11 @@
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A36" s="50"/>
-      <c r="B36" s="56" t="s">
+      <c r="A36" s="52"/>
+      <c r="B36" s="46" t="s">
         <v>104</v>
       </c>
-      <c r="C36" s="49" t="s">
+      <c r="C36" s="47" t="s">
         <v>105</v>
       </c>
       <c r="D36" s="2" t="s">
@@ -2357,9 +2393,9 @@
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A37" s="51"/>
-      <c r="B37" s="56"/>
-      <c r="C37" s="49"/>
+      <c r="A37" s="53"/>
+      <c r="B37" s="46"/>
+      <c r="C37" s="47"/>
       <c r="D37" s="2" t="s">
         <v>97</v>
       </c>
@@ -2433,11 +2469,11 @@
       </c>
     </row>
     <row r="42" spans="1:7" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A42" s="57"/>
-      <c r="B42" s="52" t="s">
+      <c r="A42" s="67"/>
+      <c r="B42" s="57" t="s">
         <v>181</v>
       </c>
-      <c r="C42" s="54" t="s">
+      <c r="C42" s="63" t="s">
         <v>182</v>
       </c>
       <c r="D42" s="2" t="s">
@@ -2451,9 +2487,9 @@
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A43" s="58"/>
-      <c r="B43" s="60"/>
-      <c r="C43" s="61"/>
+      <c r="A43" s="68"/>
+      <c r="B43" s="58"/>
+      <c r="C43" s="64"/>
       <c r="D43" s="2" t="s">
         <v>184</v>
       </c>
@@ -2465,9 +2501,9 @@
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A44" s="58"/>
-      <c r="B44" s="60"/>
-      <c r="C44" s="61"/>
+      <c r="A44" s="68"/>
+      <c r="B44" s="58"/>
+      <c r="C44" s="64"/>
       <c r="D44" s="2" t="s">
         <v>185</v>
       </c>
@@ -2479,9 +2515,9 @@
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A45" s="59"/>
-      <c r="B45" s="53"/>
-      <c r="C45" s="55"/>
+      <c r="A45" s="69"/>
+      <c r="B45" s="59"/>
+      <c r="C45" s="65"/>
       <c r="D45" s="2" t="s">
         <v>185</v>
       </c>
@@ -2619,11 +2655,11 @@
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A53" s="63"/>
-      <c r="B53" s="52" t="s">
+      <c r="A53" s="60"/>
+      <c r="B53" s="57" t="s">
         <v>234</v>
       </c>
-      <c r="C53" s="54" t="s">
+      <c r="C53" s="63" t="s">
         <v>233</v>
       </c>
       <c r="D53" s="2" t="s">
@@ -2637,9 +2673,9 @@
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A54" s="64"/>
-      <c r="B54" s="60"/>
-      <c r="C54" s="61"/>
+      <c r="A54" s="61"/>
+      <c r="B54" s="58"/>
+      <c r="C54" s="64"/>
       <c r="D54" s="2" t="s">
         <v>18</v>
       </c>
@@ -2651,9 +2687,9 @@
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A55" s="64"/>
-      <c r="B55" s="60"/>
-      <c r="C55" s="61"/>
+      <c r="A55" s="61"/>
+      <c r="B55" s="58"/>
+      <c r="C55" s="64"/>
       <c r="D55" s="2" t="s">
         <v>18</v>
       </c>
@@ -2665,251 +2701,247 @@
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A56" s="64"/>
-      <c r="B56" s="60"/>
-      <c r="C56" s="61"/>
+      <c r="A56" s="61"/>
+      <c r="B56" s="58"/>
+      <c r="C56" s="64"/>
       <c r="D56" s="2"/>
       <c r="E56" s="2"/>
       <c r="F56" s="2"/>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A57" s="64"/>
-      <c r="B57" s="60"/>
-      <c r="C57" s="61"/>
+      <c r="A57" s="61"/>
+      <c r="B57" s="58"/>
+      <c r="C57" s="64"/>
       <c r="D57" s="2"/>
       <c r="E57" s="2"/>
       <c r="F57" s="2"/>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A58" s="64"/>
-      <c r="B58" s="60"/>
-      <c r="C58" s="61"/>
+      <c r="A58" s="61"/>
+      <c r="B58" s="58"/>
+      <c r="C58" s="64"/>
       <c r="D58" s="2"/>
       <c r="E58" s="2"/>
       <c r="F58" s="2"/>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A59" s="65"/>
-      <c r="B59" s="53"/>
-      <c r="C59" s="55"/>
+      <c r="A59" s="62"/>
+      <c r="B59" s="59"/>
+      <c r="C59" s="65"/>
       <c r="D59" s="2"/>
       <c r="E59" s="2"/>
       <c r="F59" s="2"/>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A60" s="62" t="s">
+      <c r="A60" s="71"/>
+      <c r="B60" s="74" t="s">
+        <v>281</v>
+      </c>
+      <c r="C60" s="63" t="s">
+        <v>282</v>
+      </c>
+      <c r="D60" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E60" s="2" t="s">
+        <v>283</v>
+      </c>
+      <c r="F60" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A61" s="72"/>
+      <c r="B61" s="75"/>
+      <c r="C61" s="64"/>
+      <c r="D61" s="2" t="s">
+        <v>284</v>
+      </c>
+      <c r="E61" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F61" s="2" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A62" s="73"/>
+      <c r="B62" s="76"/>
+      <c r="C62" s="65"/>
+      <c r="D62" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E62" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F62" s="2" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A63" s="45" t="s">
         <v>190</v>
       </c>
-      <c r="B60" s="62"/>
-      <c r="C60" s="62"/>
-      <c r="D60" s="62"/>
-      <c r="E60" s="62"/>
-      <c r="F60" s="62"/>
-    </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A61" s="9"/>
-      <c r="B61" s="2" t="s">
+      <c r="B63" s="45"/>
+      <c r="C63" s="45"/>
+      <c r="D63" s="45"/>
+      <c r="E63" s="45"/>
+      <c r="F63" s="45"/>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A64" s="9"/>
+      <c r="B64" s="2" t="s">
         <v>191</v>
       </c>
-      <c r="C61" s="2" t="s">
+      <c r="C64" s="2" t="s">
         <v>192</v>
       </c>
-      <c r="D61" s="2"/>
-      <c r="E61" s="2"/>
-      <c r="F61" s="2" t="s">
+      <c r="D64" s="2"/>
+      <c r="E64" s="2"/>
+      <c r="F64" s="2" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A62" s="45" t="s">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A65" s="54" t="s">
         <v>269</v>
       </c>
-      <c r="B62" s="46"/>
-      <c r="C62" s="46"/>
-      <c r="D62" s="46"/>
-      <c r="E62" s="46"/>
-      <c r="F62" s="47"/>
-    </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A63" s="41"/>
-      <c r="B63" s="42" t="s">
+      <c r="B65" s="55"/>
+      <c r="C65" s="55"/>
+      <c r="D65" s="55"/>
+      <c r="E65" s="55"/>
+      <c r="F65" s="56"/>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A66" s="41"/>
+      <c r="B66" s="42" t="s">
         <v>271</v>
       </c>
-      <c r="C63" s="44" t="s">
+      <c r="C66" s="44" t="s">
         <v>270</v>
       </c>
-      <c r="D63" s="42" t="s">
-        <v>18</v>
-      </c>
-      <c r="E63" s="42" t="s">
-        <v>4</v>
-      </c>
-      <c r="F63" s="43" t="s">
+      <c r="D66" s="42" t="s">
+        <v>18</v>
+      </c>
+      <c r="E66" s="42" t="s">
+        <v>4</v>
+      </c>
+      <c r="F66" s="43" t="s">
         <v>272</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A64" s="45" t="s">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A67" s="54" t="s">
         <v>28</v>
       </c>
-      <c r="B64" s="46"/>
-      <c r="C64" s="46"/>
-      <c r="D64" s="46"/>
-      <c r="E64" s="46"/>
-      <c r="F64" s="47"/>
-    </row>
-    <row r="65" spans="1:6" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A65" s="57"/>
-      <c r="B65" s="52" t="s">
+      <c r="B67" s="55"/>
+      <c r="C67" s="55"/>
+      <c r="D67" s="55"/>
+      <c r="E67" s="55"/>
+      <c r="F67" s="56"/>
+    </row>
+    <row r="68" spans="1:6" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A68" s="67"/>
+      <c r="B68" s="57" t="s">
         <v>273</v>
       </c>
-      <c r="C65" s="54" t="s">
+      <c r="C68" s="63" t="s">
         <v>274</v>
       </c>
-      <c r="D65" s="2" t="s">
+      <c r="D68" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="E65" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="F65" s="2" t="s">
+      <c r="E68" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F68" s="2" t="s">
         <v>278</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A66" s="58"/>
-      <c r="B66" s="60"/>
-      <c r="C66" s="61"/>
-      <c r="D66" s="2" t="s">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A69" s="68"/>
+      <c r="B69" s="58"/>
+      <c r="C69" s="64"/>
+      <c r="D69" s="2" t="s">
         <v>275</v>
       </c>
-      <c r="E66" s="2" t="s">
+      <c r="E69" s="2" t="s">
         <v>277</v>
       </c>
-      <c r="F66" s="2" t="s">
+      <c r="F69" s="2" t="s">
         <v>279</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A67" s="59"/>
-      <c r="B67" s="53"/>
-      <c r="C67" s="55"/>
-      <c r="D67" s="2" t="s">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A70" s="69"/>
+      <c r="B70" s="59"/>
+      <c r="C70" s="65"/>
+      <c r="D70" s="2" t="s">
         <v>276</v>
       </c>
-      <c r="E67" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="F67" s="2" t="s">
+      <c r="E70" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F70" s="2" t="s">
         <v>280</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A68" s="62" t="s">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A71" s="45" t="s">
         <v>29</v>
       </c>
-      <c r="B68" s="62"/>
-      <c r="C68" s="62"/>
-      <c r="D68" s="62"/>
-      <c r="E68" s="62"/>
-      <c r="F68" s="62"/>
-    </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A69" s="2"/>
-      <c r="B69" s="2"/>
-      <c r="C69" s="2"/>
-      <c r="D69" s="2"/>
-      <c r="E69" s="2"/>
-      <c r="F69" s="2"/>
-    </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A70" s="62" t="s">
+      <c r="B71" s="45"/>
+      <c r="C71" s="45"/>
+      <c r="D71" s="45"/>
+      <c r="E71" s="45"/>
+      <c r="F71" s="45"/>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A72" s="2"/>
+      <c r="B72" s="2"/>
+      <c r="C72" s="2"/>
+      <c r="D72" s="2"/>
+      <c r="E72" s="2"/>
+      <c r="F72" s="2"/>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A73" s="45" t="s">
         <v>30</v>
       </c>
-      <c r="B70" s="62"/>
-      <c r="C70" s="62"/>
-      <c r="D70" s="62"/>
-      <c r="E70" s="62"/>
-      <c r="F70" s="62"/>
-    </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A71" s="11"/>
-      <c r="B71" s="2" t="s">
+      <c r="B73" s="45"/>
+      <c r="C73" s="45"/>
+      <c r="D73" s="45"/>
+      <c r="E73" s="45"/>
+      <c r="F73" s="45"/>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A74" s="11"/>
+      <c r="B74" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="C71" s="1" t="s">
+      <c r="C74" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="D71" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E71" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="F71" s="2" t="s">
+      <c r="D74" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E74" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F74" s="2" t="s">
         <v>13</v>
-      </c>
-    </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A72" s="11"/>
-      <c r="B72" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="C72" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="D72" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E72" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="F72" s="2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A73" s="70"/>
-      <c r="B73" s="56" t="s">
-        <v>156</v>
-      </c>
-      <c r="C73" s="49" t="s">
-        <v>157</v>
-      </c>
-      <c r="D73" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E73" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="F73" s="2" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A74" s="70"/>
-      <c r="B74" s="56"/>
-      <c r="C74" s="49"/>
-      <c r="D74" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E74" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="F74" s="2" t="s">
-        <v>158</v>
       </c>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A75" s="11"/>
       <c r="B75" s="2" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>138</v>
+        <v>18</v>
       </c>
       <c r="E75" s="2" t="s">
         <v>4</v>
@@ -2919,31 +2951,27 @@
       </c>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A76" s="9"/>
-      <c r="B76" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="C76" s="1" t="s">
-        <v>143</v>
+      <c r="A76" s="48"/>
+      <c r="B76" s="46" t="s">
+        <v>156</v>
+      </c>
+      <c r="C76" s="47" t="s">
+        <v>157</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>138</v>
+        <v>18</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>4</v>
+        <v>18</v>
       </c>
       <c r="F76" s="2" t="s">
-        <v>13</v>
+        <v>111</v>
       </c>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A77" s="9"/>
-      <c r="B77" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="C77" s="1" t="s">
-        <v>144</v>
-      </c>
+      <c r="A77" s="48"/>
+      <c r="B77" s="46"/>
+      <c r="C77" s="47"/>
       <c r="D77" s="2" t="s">
         <v>18</v>
       </c>
@@ -2951,372 +2979,376 @@
         <v>4</v>
       </c>
       <c r="F77" s="2" t="s">
-        <v>146</v>
+        <v>158</v>
       </c>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A78" s="11"/>
       <c r="B78" s="2" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>4</v>
+        <v>138</v>
       </c>
       <c r="E78" s="2" t="s">
         <v>4</v>
       </c>
       <c r="F78" s="2" t="s">
-        <v>141</v>
+        <v>13</v>
       </c>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A79" s="48"/>
-      <c r="B79" s="56" t="s">
-        <v>150</v>
-      </c>
-      <c r="C79" s="49" t="s">
-        <v>151</v>
+      <c r="A79" s="9"/>
+      <c r="B79" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="C79" s="1" t="s">
+        <v>143</v>
       </c>
       <c r="D79" s="2" t="s">
         <v>138</v>
       </c>
       <c r="E79" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F79" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A80" s="9"/>
+      <c r="B80" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="C80" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="D80" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E80" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F80" s="2" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A81" s="11"/>
+      <c r="B81" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="C81" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="D81" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E81" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F81" s="2" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A82" s="70"/>
+      <c r="B82" s="46" t="s">
+        <v>150</v>
+      </c>
+      <c r="C82" s="47" t="s">
+        <v>151</v>
+      </c>
+      <c r="D82" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="E82" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="F79" s="2" t="s">
+      <c r="F82" s="2" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A80" s="48"/>
-      <c r="B80" s="56"/>
-      <c r="C80" s="49"/>
-      <c r="D80" s="2" t="s">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A83" s="70"/>
+      <c r="B83" s="46"/>
+      <c r="C83" s="47"/>
+      <c r="D83" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="E80" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="F80" s="2" t="s">
+      <c r="E83" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F83" s="2" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="81" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A81" s="50"/>
-      <c r="B81" s="56" t="s">
+    <row r="84" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A84" s="52"/>
+      <c r="B84" s="46" t="s">
         <v>165</v>
       </c>
-      <c r="C81" s="54" t="s">
+      <c r="C84" s="63" t="s">
         <v>166</v>
       </c>
-      <c r="D81" s="21" t="s">
-        <v>18</v>
-      </c>
-      <c r="E81" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="F81" s="2" t="s">
+      <c r="D84" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="E84" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F84" s="2" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="82" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A82" s="51"/>
-      <c r="B82" s="56"/>
-      <c r="C82" s="55"/>
-      <c r="D82" s="21" t="s">
-        <v>18</v>
-      </c>
-      <c r="E82" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="F82" s="1" t="s">
+    <row r="85" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A85" s="53"/>
+      <c r="B85" s="46"/>
+      <c r="C85" s="65"/>
+      <c r="D85" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="E85" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F85" s="1" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="83" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A83" s="63"/>
-      <c r="B83" s="56" t="s">
+    <row r="86" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A86" s="60"/>
+      <c r="B86" s="46" t="s">
         <v>171</v>
       </c>
-      <c r="C83" s="54" t="s">
+      <c r="C86" s="63" t="s">
         <v>169</v>
       </c>
-      <c r="D83" s="21" t="s">
-        <v>18</v>
-      </c>
-      <c r="E83" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="F83" s="2" t="s">
+      <c r="D86" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="E86" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F86" s="2" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="84" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A84" s="65"/>
-      <c r="B84" s="56"/>
-      <c r="C84" s="55"/>
-      <c r="D84" s="21" t="s">
-        <v>18</v>
-      </c>
-      <c r="E84" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="F84" s="1" t="s">
+    <row r="87" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A87" s="62"/>
+      <c r="B87" s="46"/>
+      <c r="C87" s="65"/>
+      <c r="D87" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="E87" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F87" s="1" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A85" s="50"/>
-      <c r="B85" s="52" t="s">
+    <row r="88" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A88" s="52"/>
+      <c r="B88" s="57" t="s">
         <v>161</v>
       </c>
-      <c r="C85" s="54" t="s">
+      <c r="C88" s="63" t="s">
         <v>162</v>
       </c>
-      <c r="D85" s="18" t="s">
-        <v>18</v>
-      </c>
-      <c r="E85" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="F85" s="2" t="s">
+      <c r="D88" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="E88" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F88" s="2" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A86" s="51"/>
-      <c r="B86" s="53"/>
-      <c r="C86" s="55"/>
-      <c r="D86" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E86" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="F86" s="2" t="s">
+    <row r="89" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A89" s="53"/>
+      <c r="B89" s="59"/>
+      <c r="C89" s="65"/>
+      <c r="D89" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E89" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F89" s="2" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A87" s="22"/>
-      <c r="B87" s="19" t="s">
+    <row r="90" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A90" s="22"/>
+      <c r="B90" s="19" t="s">
         <v>172</v>
       </c>
-      <c r="C87" s="20" t="s">
+      <c r="C90" s="20" t="s">
         <v>173</v>
       </c>
-      <c r="D87" s="2" t="s">
+      <c r="D90" s="2" t="s">
         <v>174</v>
       </c>
-      <c r="E87" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="F87" s="2" t="s">
+      <c r="E90" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F90" s="2" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A88" s="17"/>
-      <c r="B88" s="16" t="s">
+    <row r="91" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A91" s="17"/>
+      <c r="B91" s="16" t="s">
         <v>159</v>
       </c>
-      <c r="C88" s="15" t="s">
+      <c r="C91" s="15" t="s">
         <v>160</v>
       </c>
-      <c r="D88" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E88" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="F88" s="2" t="s">
+      <c r="D91" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E91" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F91" s="2" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A89" s="66"/>
-      <c r="B89" s="56" t="s">
+    <row r="92" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A92" s="66"/>
+      <c r="B92" s="46" t="s">
         <v>147</v>
       </c>
-      <c r="C89" s="49" t="s">
+      <c r="C92" s="47" t="s">
         <v>148</v>
       </c>
-      <c r="D89" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E89" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="F89" s="2" t="s">
+      <c r="D92" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E92" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F92" s="2" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A90" s="66"/>
-      <c r="B90" s="56"/>
-      <c r="C90" s="49"/>
-      <c r="D90" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E90" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="F90" s="2" t="s">
+    <row r="93" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A93" s="66"/>
+      <c r="B93" s="46"/>
+      <c r="C93" s="47"/>
+      <c r="D93" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E93" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F93" s="2" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A91" s="62" t="s">
+    <row r="94" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A94" s="45" t="s">
         <v>63</v>
       </c>
-      <c r="B91" s="62"/>
-      <c r="C91" s="62"/>
-      <c r="D91" s="62"/>
-      <c r="E91" s="62"/>
-      <c r="F91" s="62"/>
-    </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A92" s="2"/>
-      <c r="B92" s="56" t="s">
-        <v>64</v>
-      </c>
-      <c r="C92" s="49" t="s">
-        <v>61</v>
-      </c>
-      <c r="D92" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E92" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="F92" s="2" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A93" s="2"/>
-      <c r="B93" s="56"/>
-      <c r="C93" s="49"/>
-      <c r="D93" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E93" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="F93" s="2" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A94" s="2"/>
-      <c r="B94" s="56" t="s">
-        <v>65</v>
-      </c>
-      <c r="C94" s="49" t="s">
-        <v>66</v>
-      </c>
-      <c r="D94" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E94" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="F94" s="2" t="s">
-        <v>67</v>
-      </c>
+      <c r="B94" s="45"/>
+      <c r="C94" s="45"/>
+      <c r="D94" s="45"/>
+      <c r="E94" s="45"/>
+      <c r="F94" s="45"/>
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A95" s="2"/>
-      <c r="B95" s="56"/>
-      <c r="C95" s="49"/>
+      <c r="B95" s="46" t="s">
+        <v>64</v>
+      </c>
+      <c r="C95" s="47" t="s">
+        <v>61</v>
+      </c>
       <c r="D95" s="2" t="s">
         <v>18</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>4</v>
+        <v>18</v>
       </c>
       <c r="F95" s="2" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A96" s="2"/>
-      <c r="B96" s="14" t="s">
-        <v>79</v>
-      </c>
-      <c r="C96" s="15" t="s">
-        <v>80</v>
-      </c>
+      <c r="B96" s="46"/>
+      <c r="C96" s="47"/>
       <c r="D96" s="2" t="s">
         <v>18</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>77</v>
+        <v>4</v>
       </c>
       <c r="F96" s="2" t="s">
-        <v>81</v>
+        <v>62</v>
       </c>
     </row>
     <row r="97" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A97" s="2"/>
-      <c r="B97" s="14" t="s">
-        <v>75</v>
-      </c>
-      <c r="C97" s="15" t="s">
-        <v>76</v>
+      <c r="B97" s="46" t="s">
+        <v>65</v>
+      </c>
+      <c r="C97" s="47" t="s">
+        <v>66</v>
       </c>
       <c r="D97" s="2" t="s">
         <v>18</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>77</v>
+        <v>18</v>
       </c>
       <c r="F97" s="2" t="s">
-        <v>78</v>
+        <v>67</v>
       </c>
     </row>
     <row r="98" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A98" s="2"/>
-      <c r="B98" s="56" t="s">
-        <v>83</v>
-      </c>
-      <c r="C98" s="49" t="s">
-        <v>82</v>
-      </c>
+      <c r="B98" s="46"/>
+      <c r="C98" s="47"/>
       <c r="D98" s="2" t="s">
         <v>18</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>77</v>
+        <v>4</v>
       </c>
       <c r="F98" s="2" t="s">
-        <v>81</v>
+        <v>62</v>
       </c>
     </row>
     <row r="99" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A99" s="2"/>
-      <c r="B99" s="56"/>
-      <c r="C99" s="49"/>
+      <c r="B99" s="14" t="s">
+        <v>79</v>
+      </c>
+      <c r="C99" s="15" t="s">
+        <v>80</v>
+      </c>
       <c r="D99" s="2" t="s">
         <v>18</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="F99" s="2" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
     </row>
     <row r="100" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A100" s="2"/>
-      <c r="B100" s="56" t="s">
-        <v>86</v>
-      </c>
-      <c r="C100" s="49" t="s">
-        <v>87</v>
+      <c r="B100" s="14" t="s">
+        <v>75</v>
+      </c>
+      <c r="C100" s="15" t="s">
+        <v>76</v>
       </c>
       <c r="D100" s="2" t="s">
         <v>18</v>
@@ -3325,419 +3357,472 @@
         <v>77</v>
       </c>
       <c r="F100" s="2" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
     </row>
     <row r="101" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A101" s="2"/>
-      <c r="B101" s="56"/>
-      <c r="C101" s="49"/>
+      <c r="B101" s="46" t="s">
+        <v>83</v>
+      </c>
+      <c r="C101" s="47" t="s">
+        <v>82</v>
+      </c>
       <c r="D101" s="2" t="s">
         <v>18</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="F101" s="2" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
     </row>
     <row r="102" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A102" s="2"/>
-      <c r="B102" s="14"/>
-      <c r="C102" s="15"/>
-      <c r="D102" s="2"/>
-      <c r="E102" s="2"/>
-      <c r="F102" s="2"/>
+      <c r="B102" s="46"/>
+      <c r="C102" s="47"/>
+      <c r="D102" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E102" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="F102" s="2" t="s">
+        <v>85</v>
+      </c>
     </row>
     <row r="103" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A103" s="62" t="s">
-        <v>88</v>
-      </c>
-      <c r="B103" s="62"/>
-      <c r="C103" s="62"/>
-      <c r="D103" s="62"/>
-      <c r="E103" s="62"/>
-      <c r="F103" s="62"/>
+      <c r="A103" s="2"/>
+      <c r="B103" s="46" t="s">
+        <v>86</v>
+      </c>
+      <c r="C103" s="47" t="s">
+        <v>87</v>
+      </c>
+      <c r="D103" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E103" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="F103" s="2" t="s">
+        <v>81</v>
+      </c>
     </row>
     <row r="104" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A104" s="2"/>
-      <c r="B104" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="C104" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="D104" s="4" t="s">
-        <v>91</v>
-      </c>
-      <c r="E104" s="4" t="s">
-        <v>91</v>
-      </c>
-      <c r="F104" s="4"/>
+      <c r="B104" s="46"/>
+      <c r="C104" s="47"/>
+      <c r="D104" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E104" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="F104" s="2" t="s">
+        <v>85</v>
+      </c>
     </row>
     <row r="105" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A105" s="2"/>
-      <c r="B105" s="5" t="s">
-        <v>93</v>
-      </c>
-      <c r="C105" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="D105" s="4" t="s">
-        <v>91</v>
-      </c>
-      <c r="E105" s="4" t="s">
-        <v>91</v>
-      </c>
-      <c r="F105" s="12" t="s">
-        <v>94</v>
-      </c>
+      <c r="B105" s="14"/>
+      <c r="C105" s="15"/>
+      <c r="D105" s="2"/>
+      <c r="E105" s="2"/>
+      <c r="F105" s="2"/>
     </row>
     <row r="106" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A106" s="62" t="s">
-        <v>31</v>
-      </c>
-      <c r="B106" s="62"/>
-      <c r="C106" s="62"/>
-      <c r="D106" s="62"/>
-      <c r="E106" s="62"/>
-      <c r="F106" s="62"/>
+      <c r="A106" s="45" t="s">
+        <v>88</v>
+      </c>
+      <c r="B106" s="45"/>
+      <c r="C106" s="45"/>
+      <c r="D106" s="45"/>
+      <c r="E106" s="45"/>
+      <c r="F106" s="45"/>
     </row>
     <row r="107" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A107" s="2"/>
-      <c r="B107" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="C107" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="D107" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="E107" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="F107" s="2" t="s">
-        <v>72</v>
-      </c>
+      <c r="B107" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="C107" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="D107" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="E107" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="F107" s="4"/>
     </row>
     <row r="108" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A108" s="2"/>
-      <c r="B108" s="2" t="s">
+      <c r="B108" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="C108" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="D108" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="E108" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="F108" s="12" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="109" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A109" s="45" t="s">
+        <v>31</v>
+      </c>
+      <c r="B109" s="45"/>
+      <c r="C109" s="45"/>
+      <c r="D109" s="45"/>
+      <c r="E109" s="45"/>
+      <c r="F109" s="45"/>
+    </row>
+    <row r="110" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A110" s="2"/>
+      <c r="B110" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="C110" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="D110" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="E110" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="F110" s="2" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="111" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A111" s="2"/>
+      <c r="B111" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="C108" s="1" t="s">
+      <c r="C111" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="D108" s="2" t="s">
+      <c r="D111" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="E108" s="2"/>
-      <c r="F108" s="2"/>
-    </row>
-    <row r="109" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A109" s="10"/>
-      <c r="B109" s="2" t="s">
-        <v>251</v>
-      </c>
-      <c r="C109" s="1" t="s">
-        <v>252</v>
-      </c>
-      <c r="D109" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E109" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="F109" s="2" t="s">
-        <v>253</v>
-      </c>
-      <c r="G109" s="39" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="110" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A110" s="62" t="s">
-        <v>258</v>
-      </c>
-      <c r="B110" s="62"/>
-      <c r="C110" s="62"/>
-      <c r="D110" s="62"/>
-      <c r="E110" s="62"/>
-      <c r="F110" s="62"/>
-    </row>
-    <row r="111" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A111" s="9"/>
-      <c r="B111" s="2" t="s">
-        <v>259</v>
-      </c>
-      <c r="C111" s="1" t="s">
-        <v>260</v>
-      </c>
-      <c r="D111" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="E111" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="F111" s="2" t="s">
-        <v>261</v>
-      </c>
-      <c r="G111" s="39" t="s">
-        <v>262</v>
-      </c>
+      <c r="E111" s="2"/>
+      <c r="F111" s="2"/>
     </row>
     <row r="112" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A112" s="10"/>
       <c r="B112" s="2" t="s">
+        <v>251</v>
+      </c>
+      <c r="C112" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="D112" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E112" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F112" s="2" t="s">
+        <v>253</v>
+      </c>
+      <c r="G112" s="39" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="113" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A113" s="45" t="s">
+        <v>258</v>
+      </c>
+      <c r="B113" s="45"/>
+      <c r="C113" s="45"/>
+      <c r="D113" s="45"/>
+      <c r="E113" s="45"/>
+      <c r="F113" s="45"/>
+    </row>
+    <row r="114" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A114" s="9"/>
+      <c r="B114" s="2" t="s">
+        <v>259</v>
+      </c>
+      <c r="C114" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="D114" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="E114" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F114" s="2" t="s">
+        <v>261</v>
+      </c>
+      <c r="G114" s="39" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="115" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A115" s="10"/>
+      <c r="B115" s="2" t="s">
         <v>263</v>
       </c>
-      <c r="C112" s="1" t="s">
+      <c r="C115" s="1" t="s">
         <v>264</v>
       </c>
-      <c r="D112" s="2" t="s">
+      <c r="D115" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="E112" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="F112" s="2" t="s">
+      <c r="E115" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F115" s="2" t="s">
         <v>261</v>
       </c>
-      <c r="G112" s="40"/>
-    </row>
-    <row r="113" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A113" s="10"/>
-      <c r="B113" s="2"/>
-      <c r="C113" s="1"/>
-      <c r="D113" s="2"/>
-      <c r="E113" s="2"/>
-      <c r="F113" s="2"/>
-      <c r="G113" s="40"/>
-    </row>
-    <row r="114" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A114" s="62" t="s">
+      <c r="G115" s="40"/>
+    </row>
+    <row r="116" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A116" s="10"/>
+      <c r="B116" s="2"/>
+      <c r="C116" s="1"/>
+      <c r="D116" s="2"/>
+      <c r="E116" s="2"/>
+      <c r="F116" s="2"/>
+      <c r="G116" s="40"/>
+    </row>
+    <row r="117" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A117" s="45" t="s">
         <v>249</v>
       </c>
-      <c r="B114" s="62"/>
-      <c r="C114" s="62"/>
-      <c r="D114" s="62"/>
-      <c r="E114" s="62"/>
-      <c r="F114" s="62"/>
-    </row>
-    <row r="115" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A115" s="9"/>
-      <c r="B115" s="2" t="s">
+      <c r="B117" s="45"/>
+      <c r="C117" s="45"/>
+      <c r="D117" s="45"/>
+      <c r="E117" s="45"/>
+      <c r="F117" s="45"/>
+    </row>
+    <row r="118" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A118" s="9"/>
+      <c r="B118" s="2" t="s">
         <v>265</v>
       </c>
-      <c r="C115" s="1" t="s">
+      <c r="C118" s="1" t="s">
         <v>266</v>
       </c>
-      <c r="D115" s="2" t="s">
+      <c r="D118" s="2" t="s">
         <v>267</v>
       </c>
-      <c r="E115" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="F115" s="2" t="s">
+      <c r="E118" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F118" s="2" t="s">
         <v>268</v>
       </c>
-      <c r="G115" s="40"/>
-    </row>
-    <row r="116" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A116" s="62" t="s">
+      <c r="G118" s="40"/>
+    </row>
+    <row r="119" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A119" s="45" t="s">
         <v>32</v>
       </c>
-      <c r="B116" s="62"/>
-      <c r="C116" s="62"/>
-      <c r="D116" s="62"/>
-      <c r="E116" s="62"/>
-      <c r="F116" s="62"/>
-    </row>
-    <row r="117" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A117" s="2"/>
-      <c r="B117" s="56" t="s">
-        <v>109</v>
-      </c>
-      <c r="C117" s="49" t="s">
-        <v>110</v>
-      </c>
-      <c r="D117" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="E117" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="F117" s="2" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="118" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A118" s="2"/>
-      <c r="B118" s="56"/>
-      <c r="C118" s="56"/>
-      <c r="D118" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="E118" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="F118" s="2" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="119" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A119" s="2"/>
-      <c r="B119" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="C119" s="15" t="s">
-        <v>113</v>
-      </c>
-      <c r="D119" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E119" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="F119" s="2" t="s">
-        <v>111</v>
-      </c>
+      <c r="B119" s="45"/>
+      <c r="C119" s="45"/>
+      <c r="D119" s="45"/>
+      <c r="E119" s="45"/>
+      <c r="F119" s="45"/>
     </row>
     <row r="120" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A120" s="2"/>
-      <c r="B120" s="56" t="s">
-        <v>116</v>
-      </c>
-      <c r="C120" s="49" t="s">
-        <v>117</v>
+      <c r="B120" s="46" t="s">
+        <v>109</v>
+      </c>
+      <c r="C120" s="47" t="s">
+        <v>110</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>50</v>
+        <v>115</v>
       </c>
       <c r="E120" s="2" t="s">
-        <v>39</v>
+        <v>115</v>
       </c>
       <c r="F120" s="2" t="s">
-        <v>118</v>
+        <v>111</v>
       </c>
     </row>
     <row r="121" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A121" s="2"/>
-      <c r="B121" s="56"/>
-      <c r="C121" s="49"/>
+      <c r="B121" s="46"/>
+      <c r="C121" s="46"/>
       <c r="D121" s="2" t="s">
-        <v>18</v>
+        <v>115</v>
       </c>
       <c r="E121" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F121" s="2" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="122" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A122" s="2"/>
+      <c r="B122" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="C122" s="15" t="s">
+        <v>113</v>
+      </c>
+      <c r="D122" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E122" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="F121" s="13" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="122" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A122" s="62" t="s">
-        <v>33</v>
-      </c>
-      <c r="B122" s="62"/>
-      <c r="C122" s="62"/>
-      <c r="D122" s="62"/>
-      <c r="E122" s="62"/>
-      <c r="F122" s="62"/>
+      <c r="F122" s="2" t="s">
+        <v>111</v>
+      </c>
     </row>
     <row r="123" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A123" s="2"/>
-      <c r="B123" s="2"/>
-      <c r="C123" s="2"/>
-      <c r="D123" s="2"/>
-      <c r="E123" s="2"/>
-      <c r="F123" s="2"/>
+      <c r="B123" s="46" t="s">
+        <v>116</v>
+      </c>
+      <c r="C123" s="47" t="s">
+        <v>117</v>
+      </c>
+      <c r="D123" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="E123" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="F123" s="2" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="124" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A124" s="2"/>
+      <c r="B124" s="46"/>
+      <c r="C124" s="47"/>
+      <c r="D124" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E124" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="F124" s="13" t="s">
+        <v>119</v>
+      </c>
     </row>
     <row r="125" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="F125" s="34" t="s">
+      <c r="A125" s="45" t="s">
+        <v>33</v>
+      </c>
+      <c r="B125" s="45"/>
+      <c r="C125" s="45"/>
+      <c r="D125" s="45"/>
+      <c r="E125" s="45"/>
+      <c r="F125" s="45"/>
+    </row>
+    <row r="126" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A126" s="2"/>
+      <c r="B126" s="2"/>
+      <c r="C126" s="2"/>
+      <c r="D126" s="2"/>
+      <c r="E126" s="2"/>
+      <c r="F126" s="2"/>
+    </row>
+    <row r="128" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="F128" s="34" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="126" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="F126" s="34" t="s">
+    <row r="129" spans="6:6" x14ac:dyDescent="0.35">
+      <c r="F129" s="34" t="s">
         <v>217</v>
       </c>
     </row>
-    <row r="127" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="F127" s="34" t="s">
+    <row r="130" spans="6:6" x14ac:dyDescent="0.35">
+      <c r="F130" s="34" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="128" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="F128" s="36" t="s">
+    <row r="131" spans="6:6" x14ac:dyDescent="0.35">
+      <c r="F131" s="36" t="s">
         <v>226</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="61">
-    <mergeCell ref="A122:F122"/>
-    <mergeCell ref="A68:F68"/>
-    <mergeCell ref="A70:F70"/>
-    <mergeCell ref="A91:F91"/>
-    <mergeCell ref="A103:F103"/>
+  <mergeCells count="64">
+    <mergeCell ref="A88:A89"/>
+    <mergeCell ref="C76:C77"/>
+    <mergeCell ref="C88:C89"/>
+    <mergeCell ref="A84:A85"/>
+    <mergeCell ref="B84:B85"/>
+    <mergeCell ref="C84:C85"/>
+    <mergeCell ref="A86:A87"/>
+    <mergeCell ref="C86:C87"/>
+    <mergeCell ref="B86:B87"/>
+    <mergeCell ref="A42:A45"/>
+    <mergeCell ref="B42:B45"/>
+    <mergeCell ref="C42:C45"/>
+    <mergeCell ref="A65:F65"/>
+    <mergeCell ref="A82:A83"/>
+    <mergeCell ref="C82:C83"/>
+    <mergeCell ref="A67:F67"/>
+    <mergeCell ref="A68:A70"/>
+    <mergeCell ref="B68:B70"/>
+    <mergeCell ref="C68:C70"/>
+    <mergeCell ref="A60:A62"/>
+    <mergeCell ref="B60:B62"/>
+    <mergeCell ref="C60:C62"/>
+    <mergeCell ref="A63:F63"/>
+    <mergeCell ref="B53:B59"/>
+    <mergeCell ref="A53:A59"/>
+    <mergeCell ref="C53:C59"/>
+    <mergeCell ref="B123:B124"/>
+    <mergeCell ref="C123:C124"/>
+    <mergeCell ref="C103:C104"/>
+    <mergeCell ref="B103:B104"/>
+    <mergeCell ref="A92:A93"/>
     <mergeCell ref="B92:B93"/>
     <mergeCell ref="C92:C93"/>
-    <mergeCell ref="B94:B95"/>
-    <mergeCell ref="C94:C95"/>
-    <mergeCell ref="B98:B99"/>
-    <mergeCell ref="C98:C99"/>
-    <mergeCell ref="B117:B118"/>
-    <mergeCell ref="C117:C118"/>
-    <mergeCell ref="A73:A74"/>
-    <mergeCell ref="B73:B74"/>
-    <mergeCell ref="B79:B80"/>
+    <mergeCell ref="A113:F113"/>
+    <mergeCell ref="A119:F119"/>
+    <mergeCell ref="A109:F109"/>
+    <mergeCell ref="A117:F117"/>
+    <mergeCell ref="B88:B89"/>
     <mergeCell ref="A2:F2"/>
     <mergeCell ref="A11:F11"/>
     <mergeCell ref="A20:F20"/>
     <mergeCell ref="A30:F30"/>
     <mergeCell ref="A36:A37"/>
     <mergeCell ref="A32:F32"/>
-    <mergeCell ref="A60:F60"/>
-    <mergeCell ref="B53:B59"/>
-    <mergeCell ref="A53:A59"/>
-    <mergeCell ref="C53:C59"/>
-    <mergeCell ref="B120:B121"/>
-    <mergeCell ref="C120:C121"/>
-    <mergeCell ref="C100:C101"/>
-    <mergeCell ref="B100:B101"/>
-    <mergeCell ref="A89:A90"/>
-    <mergeCell ref="B89:B90"/>
-    <mergeCell ref="C89:C90"/>
-    <mergeCell ref="A110:F110"/>
-    <mergeCell ref="A116:F116"/>
-    <mergeCell ref="A106:F106"/>
-    <mergeCell ref="A114:F114"/>
-    <mergeCell ref="B85:B86"/>
     <mergeCell ref="B5:B6"/>
     <mergeCell ref="C5:C6"/>
     <mergeCell ref="B36:B37"/>
     <mergeCell ref="C36:C37"/>
-    <mergeCell ref="A42:A45"/>
-    <mergeCell ref="B42:B45"/>
-    <mergeCell ref="C42:C45"/>
-    <mergeCell ref="A62:F62"/>
-    <mergeCell ref="A79:A80"/>
-    <mergeCell ref="C79:C80"/>
-    <mergeCell ref="A64:F64"/>
-    <mergeCell ref="A85:A86"/>
-    <mergeCell ref="C73:C74"/>
-    <mergeCell ref="C85:C86"/>
-    <mergeCell ref="A81:A82"/>
-    <mergeCell ref="B81:B82"/>
-    <mergeCell ref="C81:C82"/>
-    <mergeCell ref="A83:A84"/>
-    <mergeCell ref="C83:C84"/>
-    <mergeCell ref="B83:B84"/>
-    <mergeCell ref="A65:A67"/>
-    <mergeCell ref="B65:B67"/>
-    <mergeCell ref="C65:C67"/>
+    <mergeCell ref="A125:F125"/>
+    <mergeCell ref="A71:F71"/>
+    <mergeCell ref="A73:F73"/>
+    <mergeCell ref="A94:F94"/>
+    <mergeCell ref="A106:F106"/>
+    <mergeCell ref="B95:B96"/>
+    <mergeCell ref="C95:C96"/>
+    <mergeCell ref="B97:B98"/>
+    <mergeCell ref="C97:C98"/>
+    <mergeCell ref="B101:B102"/>
+    <mergeCell ref="C101:C102"/>
+    <mergeCell ref="B120:B121"/>
+    <mergeCell ref="C120:C121"/>
+    <mergeCell ref="A76:A77"/>
+    <mergeCell ref="B76:B77"/>
+    <mergeCell ref="B82:B83"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="C3" r:id="rId1" xr:uid="{3FB3FA06-DE47-4C2D-AFD7-F5FC45E3D126}"/>
@@ -3747,34 +3832,34 @@
     <hyperlink ref="C50" r:id="rId5" xr:uid="{6352E065-8925-49FF-AA82-66ED2F9F8651}"/>
     <hyperlink ref="C22" r:id="rId6" xr:uid="{047C68C0-B7AB-4E77-9D1E-B162BD11A209}"/>
     <hyperlink ref="C23" r:id="rId7" xr:uid="{1ABD0EDA-F48F-4D2F-B13C-180B398F1FCD}"/>
-    <hyperlink ref="C92" r:id="rId8" xr:uid="{35D2A43C-BF1B-4339-9217-7116005F7034}"/>
-    <hyperlink ref="C94" r:id="rId9" xr:uid="{233456E2-1B15-4448-A669-82C381357683}"/>
-    <hyperlink ref="C107" r:id="rId10" xr:uid="{4A724644-7F2B-4DE6-9141-A1802140FB4A}"/>
-    <hyperlink ref="C104" r:id="rId11" xr:uid="{914A5C5A-20B3-4526-A460-020F9852AFDB}"/>
-    <hyperlink ref="C105" r:id="rId12" xr:uid="{0B2D15B8-18BF-46A5-991E-6E53ADC95851}"/>
+    <hyperlink ref="C95" r:id="rId8" xr:uid="{35D2A43C-BF1B-4339-9217-7116005F7034}"/>
+    <hyperlink ref="C97" r:id="rId9" xr:uid="{233456E2-1B15-4448-A669-82C381357683}"/>
+    <hyperlink ref="C110" r:id="rId10" xr:uid="{4A724644-7F2B-4DE6-9141-A1802140FB4A}"/>
+    <hyperlink ref="C107" r:id="rId11" xr:uid="{914A5C5A-20B3-4526-A460-020F9852AFDB}"/>
+    <hyperlink ref="C108" r:id="rId12" xr:uid="{0B2D15B8-18BF-46A5-991E-6E53ADC95851}"/>
     <hyperlink ref="C33" r:id="rId13" xr:uid="{93A177B9-936F-4ED5-9F32-EB31F0D8F614}"/>
-    <hyperlink ref="C117" r:id="rId14" xr:uid="{9CD2E86C-B1BA-4CC3-9E52-ECA767380715}"/>
-    <hyperlink ref="C119" r:id="rId15" xr:uid="{30EBB8AD-10BE-47B9-BF85-DBCCCE948784}"/>
-    <hyperlink ref="F121" r:id="rId16" xr:uid="{080A2B1B-6640-47F1-9DAB-1F0914BD9938}"/>
-    <hyperlink ref="C71" r:id="rId17" xr:uid="{DD8AB0F8-5B5E-4F6E-A0B4-339B324BDAC3}"/>
+    <hyperlink ref="C120" r:id="rId14" xr:uid="{9CD2E86C-B1BA-4CC3-9E52-ECA767380715}"/>
+    <hyperlink ref="C122" r:id="rId15" xr:uid="{30EBB8AD-10BE-47B9-BF85-DBCCCE948784}"/>
+    <hyperlink ref="F124" r:id="rId16" xr:uid="{080A2B1B-6640-47F1-9DAB-1F0914BD9938}"/>
+    <hyperlink ref="C74" r:id="rId17" xr:uid="{DD8AB0F8-5B5E-4F6E-A0B4-339B324BDAC3}"/>
     <hyperlink ref="C8" r:id="rId18" xr:uid="{43B67C49-DC70-412F-B095-E684E07FF196}"/>
-    <hyperlink ref="C81" r:id="rId19" xr:uid="{7FDCAB78-56F5-40D3-8A09-8A8A0E54E05D}"/>
-    <hyperlink ref="F82" r:id="rId20" xr:uid="{F7F3C873-8E94-4212-B22A-52BF75A478D8}"/>
+    <hyperlink ref="C84" r:id="rId19" xr:uid="{7FDCAB78-56F5-40D3-8A09-8A8A0E54E05D}"/>
+    <hyperlink ref="F85" r:id="rId20" xr:uid="{F7F3C873-8E94-4212-B22A-52BF75A478D8}"/>
     <hyperlink ref="C36" r:id="rId21" xr:uid="{F6C15430-DBA9-4DAD-A411-65B1524C625E}"/>
     <hyperlink ref="G21" r:id="rId22" display="https://leetcode.com/problems/maximum-sum-circular-subarray/" xr:uid="{A4CEEEE3-5EE5-4166-9A65-51E09840E49F}"/>
     <hyperlink ref="G22" r:id="rId23" display="https://leetcode.com/problems/maximum-product-subarray/" xr:uid="{E66937F4-342E-466B-92BD-529EAD0F1180}"/>
     <hyperlink ref="G23" r:id="rId24" display="https://leetcode.com/problems/maximum-length-of-subarray-with-positive-product/" xr:uid="{C0B6118F-C23A-4E55-881A-F4A1DA018A1F}"/>
     <hyperlink ref="C7" r:id="rId25" xr:uid="{D548A552-BEA3-46D9-89FD-0EDF330CCD4B}"/>
-    <hyperlink ref="C85" r:id="rId26" xr:uid="{7EAF2DCC-4594-46F5-AFC0-D19FF750F897}"/>
+    <hyperlink ref="C88" r:id="rId26" xr:uid="{7EAF2DCC-4594-46F5-AFC0-D19FF750F897}"/>
     <hyperlink ref="C31" r:id="rId27" xr:uid="{2A9F780A-9E5F-449D-AA08-46C94947DE0C}"/>
     <hyperlink ref="G31" r:id="rId28" display="https://leetcode.com/problems/merge-intervals" xr:uid="{24D594E5-8804-48F8-84BD-C5D018E5A447}"/>
     <hyperlink ref="G32" r:id="rId29" display="https://leetcode.com/problems/non-overlapping-intervals" xr:uid="{FBB3A625-8231-42DD-B49C-D9DFE3555251}"/>
     <hyperlink ref="G33" r:id="rId30" display="https://leetcode.com/problems/meeting-rooms/" xr:uid="{8849EA4F-0A54-4D57-AE19-19728A56318A}"/>
     <hyperlink ref="G34" r:id="rId31" display="https://leetcode.com/problems/meeting-rooms-ii/" xr:uid="{DD819D71-EB3C-4BD3-BA6C-25223B20391D}"/>
     <hyperlink ref="C17" r:id="rId32" xr:uid="{6062919D-9F53-4AD6-A2BA-CE01278187C7}"/>
-    <hyperlink ref="C111" r:id="rId33" xr:uid="{7B7426B5-0217-46DE-ABCD-A2F2DDDDFB2A}"/>
-    <hyperlink ref="C63" r:id="rId34" xr:uid="{620ED6F1-6752-463C-AA48-4B6A185A8D46}"/>
-    <hyperlink ref="C65" r:id="rId35" xr:uid="{031A9508-DB97-4A6A-8854-D213EDA454B4}"/>
+    <hyperlink ref="C114" r:id="rId33" xr:uid="{7B7426B5-0217-46DE-ABCD-A2F2DDDDFB2A}"/>
+    <hyperlink ref="C66" r:id="rId34" xr:uid="{620ED6F1-6752-463C-AA48-4B6A185A8D46}"/>
+    <hyperlink ref="C68" r:id="rId35" xr:uid="{031A9508-DB97-4A6A-8854-D213EDA454B4}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="90" verticalDpi="90" r:id="rId36"/>

--- a/SDE Sheet.xlsx
+++ b/SDE Sheet.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Src Code\Personal\SDE-Sheet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49EADED8-A828-496E-B95C-01EA9294AD99}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CCF0DA54-1526-439E-817C-F8585F85CC27}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{83934561-A72F-4836-B1E7-4EE8C35F9874}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="479" uniqueCount="287">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="484" uniqueCount="292">
   <si>
     <t>Matrix</t>
   </si>
@@ -1014,6 +1014,21 @@
   </si>
   <si>
     <t>Using array reverse</t>
+  </si>
+  <si>
+    <t>Flood Fill</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/flood-fill</t>
+  </si>
+  <si>
+    <t>O(m*n) : Number of Nodes</t>
+  </si>
+  <si>
+    <t>O(m*n): Number of Nodes</t>
+  </si>
+  <si>
+    <t>BFS + DFS   Check: if O(m+n) is the space complexity in case of BFS</t>
   </si>
 </sst>
 </file>
@@ -1338,101 +1353,101 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1749,11 +1764,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D3EBAEE5-B4E7-4BD5-B694-FD6EEA5E8AC0}">
-  <dimension ref="A1:G131"/>
+  <dimension ref="A1:G132"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="74" zoomScaleNormal="94" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A42" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F62" sqref="F62"/>
+    <sheetView tabSelected="1" zoomScale="74" zoomScaleNormal="94" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G112" sqref="G112"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1787,14 +1802,14 @@
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A2" s="45" t="s">
+      <c r="A2" s="70" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="45"/>
-      <c r="C2" s="45"/>
-      <c r="D2" s="45"/>
-      <c r="E2" s="45"/>
-      <c r="F2" s="45"/>
+      <c r="B2" s="70"/>
+      <c r="C2" s="70"/>
+      <c r="D2" s="70"/>
+      <c r="E2" s="70"/>
+      <c r="F2" s="70"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A3" s="9"/>
@@ -1834,10 +1849,10 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A5" s="9"/>
-      <c r="B5" s="57" t="s">
+      <c r="B5" s="56" t="s">
         <v>34</v>
       </c>
-      <c r="C5" s="63" t="s">
+      <c r="C5" s="48" t="s">
         <v>35</v>
       </c>
       <c r="D5" s="2" t="s">
@@ -1852,8 +1867,8 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A6" s="9"/>
-      <c r="B6" s="59"/>
-      <c r="C6" s="65"/>
+      <c r="B6" s="58"/>
+      <c r="C6" s="49"/>
       <c r="D6" s="2" t="s">
         <v>36</v>
       </c>
@@ -1933,14 +1948,14 @@
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A11" s="45" t="s">
+      <c r="A11" s="70" t="s">
         <v>15</v>
       </c>
-      <c r="B11" s="45"/>
-      <c r="C11" s="45"/>
-      <c r="D11" s="45"/>
-      <c r="E11" s="45"/>
-      <c r="F11" s="45"/>
+      <c r="B11" s="70"/>
+      <c r="C11" s="70"/>
+      <c r="D11" s="70"/>
+      <c r="E11" s="70"/>
+      <c r="F11" s="70"/>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A12" s="9"/>
@@ -2087,14 +2102,14 @@
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A20" s="45" t="s">
+      <c r="A20" s="70" t="s">
         <v>22</v>
       </c>
-      <c r="B20" s="45"/>
-      <c r="C20" s="45"/>
-      <c r="D20" s="45"/>
-      <c r="E20" s="45"/>
-      <c r="F20" s="45"/>
+      <c r="B20" s="70"/>
+      <c r="C20" s="70"/>
+      <c r="D20" s="70"/>
+      <c r="E20" s="70"/>
+      <c r="F20" s="70"/>
       <c r="G20" s="34" t="s">
         <v>210</v>
       </c>
@@ -2271,14 +2286,14 @@
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A30" s="49" t="s">
+      <c r="A30" s="73" t="s">
         <v>240</v>
       </c>
-      <c r="B30" s="50"/>
-      <c r="C30" s="50"/>
-      <c r="D30" s="50"/>
-      <c r="E30" s="50"/>
-      <c r="F30" s="51"/>
+      <c r="B30" s="74"/>
+      <c r="C30" s="74"/>
+      <c r="D30" s="74"/>
+      <c r="E30" s="74"/>
+      <c r="F30" s="75"/>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A31" s="9"/>
@@ -2302,14 +2317,14 @@
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A32" s="54" t="s">
+      <c r="A32" s="60" t="s">
         <v>95</v>
       </c>
-      <c r="B32" s="55"/>
-      <c r="C32" s="55"/>
-      <c r="D32" s="55"/>
-      <c r="E32" s="55"/>
-      <c r="F32" s="56"/>
+      <c r="B32" s="61"/>
+      <c r="C32" s="61"/>
+      <c r="D32" s="61"/>
+      <c r="E32" s="61"/>
+      <c r="F32" s="62"/>
       <c r="G32" s="38" t="s">
         <v>244</v>
       </c>
@@ -2375,8 +2390,8 @@
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A36" s="52"/>
-      <c r="B36" s="46" t="s">
+      <c r="A36" s="45"/>
+      <c r="B36" s="50" t="s">
         <v>104</v>
       </c>
       <c r="C36" s="47" t="s">
@@ -2393,8 +2408,8 @@
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A37" s="53"/>
-      <c r="B37" s="46"/>
+      <c r="A37" s="46"/>
+      <c r="B37" s="50"/>
       <c r="C37" s="47"/>
       <c r="D37" s="2" t="s">
         <v>97</v>
@@ -2469,11 +2484,11 @@
       </c>
     </row>
     <row r="42" spans="1:7" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A42" s="67"/>
-      <c r="B42" s="57" t="s">
+      <c r="A42" s="53"/>
+      <c r="B42" s="56" t="s">
         <v>181</v>
       </c>
-      <c r="C42" s="63" t="s">
+      <c r="C42" s="48" t="s">
         <v>182</v>
       </c>
       <c r="D42" s="2" t="s">
@@ -2487,9 +2502,9 @@
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A43" s="68"/>
-      <c r="B43" s="58"/>
-      <c r="C43" s="64"/>
+      <c r="A43" s="54"/>
+      <c r="B43" s="57"/>
+      <c r="C43" s="59"/>
       <c r="D43" s="2" t="s">
         <v>184</v>
       </c>
@@ -2501,9 +2516,9 @@
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A44" s="68"/>
-      <c r="B44" s="58"/>
-      <c r="C44" s="64"/>
+      <c r="A44" s="54"/>
+      <c r="B44" s="57"/>
+      <c r="C44" s="59"/>
       <c r="D44" s="2" t="s">
         <v>185</v>
       </c>
@@ -2515,9 +2530,9 @@
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A45" s="69"/>
-      <c r="B45" s="59"/>
-      <c r="C45" s="65"/>
+      <c r="A45" s="55"/>
+      <c r="B45" s="58"/>
+      <c r="C45" s="49"/>
       <c r="D45" s="2" t="s">
         <v>185</v>
       </c>
@@ -2655,11 +2670,11 @@
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A53" s="60"/>
-      <c r="B53" s="57" t="s">
+      <c r="A53" s="51"/>
+      <c r="B53" s="56" t="s">
         <v>234</v>
       </c>
-      <c r="C53" s="63" t="s">
+      <c r="C53" s="48" t="s">
         <v>233</v>
       </c>
       <c r="D53" s="2" t="s">
@@ -2673,9 +2688,9 @@
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A54" s="61"/>
-      <c r="B54" s="58"/>
-      <c r="C54" s="64"/>
+      <c r="A54" s="71"/>
+      <c r="B54" s="57"/>
+      <c r="C54" s="59"/>
       <c r="D54" s="2" t="s">
         <v>18</v>
       </c>
@@ -2687,9 +2702,9 @@
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A55" s="61"/>
-      <c r="B55" s="58"/>
-      <c r="C55" s="64"/>
+      <c r="A55" s="71"/>
+      <c r="B55" s="57"/>
+      <c r="C55" s="59"/>
       <c r="D55" s="2" t="s">
         <v>18</v>
       </c>
@@ -2701,43 +2716,43 @@
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A56" s="61"/>
-      <c r="B56" s="58"/>
-      <c r="C56" s="64"/>
+      <c r="A56" s="71"/>
+      <c r="B56" s="57"/>
+      <c r="C56" s="59"/>
       <c r="D56" s="2"/>
       <c r="E56" s="2"/>
       <c r="F56" s="2"/>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A57" s="61"/>
-      <c r="B57" s="58"/>
-      <c r="C57" s="64"/>
+      <c r="A57" s="71"/>
+      <c r="B57" s="57"/>
+      <c r="C57" s="59"/>
       <c r="D57" s="2"/>
       <c r="E57" s="2"/>
       <c r="F57" s="2"/>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A58" s="61"/>
-      <c r="B58" s="58"/>
-      <c r="C58" s="64"/>
+      <c r="A58" s="71"/>
+      <c r="B58" s="57"/>
+      <c r="C58" s="59"/>
       <c r="D58" s="2"/>
       <c r="E58" s="2"/>
       <c r="F58" s="2"/>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A59" s="62"/>
-      <c r="B59" s="59"/>
-      <c r="C59" s="65"/>
+      <c r="A59" s="52"/>
+      <c r="B59" s="58"/>
+      <c r="C59" s="49"/>
       <c r="D59" s="2"/>
       <c r="E59" s="2"/>
       <c r="F59" s="2"/>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A60" s="71"/>
-      <c r="B60" s="74" t="s">
+      <c r="A60" s="64"/>
+      <c r="B60" s="67" t="s">
         <v>281</v>
       </c>
-      <c r="C60" s="63" t="s">
+      <c r="C60" s="48" t="s">
         <v>282</v>
       </c>
       <c r="D60" s="2" t="s">
@@ -2751,9 +2766,9 @@
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A61" s="72"/>
-      <c r="B61" s="75"/>
-      <c r="C61" s="64"/>
+      <c r="A61" s="65"/>
+      <c r="B61" s="68"/>
+      <c r="C61" s="59"/>
       <c r="D61" s="2" t="s">
         <v>284</v>
       </c>
@@ -2765,9 +2780,9 @@
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A62" s="73"/>
-      <c r="B62" s="76"/>
-      <c r="C62" s="65"/>
+      <c r="A62" s="66"/>
+      <c r="B62" s="69"/>
+      <c r="C62" s="49"/>
       <c r="D62" s="2" t="s">
         <v>18</v>
       </c>
@@ -2779,14 +2794,14 @@
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A63" s="45" t="s">
+      <c r="A63" s="70" t="s">
         <v>190</v>
       </c>
-      <c r="B63" s="45"/>
-      <c r="C63" s="45"/>
-      <c r="D63" s="45"/>
-      <c r="E63" s="45"/>
-      <c r="F63" s="45"/>
+      <c r="B63" s="70"/>
+      <c r="C63" s="70"/>
+      <c r="D63" s="70"/>
+      <c r="E63" s="70"/>
+      <c r="F63" s="70"/>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A64" s="9"/>
@@ -2803,14 +2818,14 @@
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A65" s="54" t="s">
+      <c r="A65" s="60" t="s">
         <v>269</v>
       </c>
-      <c r="B65" s="55"/>
-      <c r="C65" s="55"/>
-      <c r="D65" s="55"/>
-      <c r="E65" s="55"/>
-      <c r="F65" s="56"/>
+      <c r="B65" s="61"/>
+      <c r="C65" s="61"/>
+      <c r="D65" s="61"/>
+      <c r="E65" s="61"/>
+      <c r="F65" s="62"/>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A66" s="41"/>
@@ -2831,21 +2846,21 @@
       </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A67" s="54" t="s">
+      <c r="A67" s="60" t="s">
         <v>28</v>
       </c>
-      <c r="B67" s="55"/>
-      <c r="C67" s="55"/>
-      <c r="D67" s="55"/>
-      <c r="E67" s="55"/>
-      <c r="F67" s="56"/>
+      <c r="B67" s="61"/>
+      <c r="C67" s="61"/>
+      <c r="D67" s="61"/>
+      <c r="E67" s="61"/>
+      <c r="F67" s="62"/>
     </row>
     <row r="68" spans="1:6" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A68" s="67"/>
-      <c r="B68" s="57" t="s">
+      <c r="A68" s="53"/>
+      <c r="B68" s="56" t="s">
         <v>273</v>
       </c>
-      <c r="C68" s="63" t="s">
+      <c r="C68" s="48" t="s">
         <v>274</v>
       </c>
       <c r="D68" s="2" t="s">
@@ -2859,9 +2874,9 @@
       </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A69" s="68"/>
-      <c r="B69" s="58"/>
-      <c r="C69" s="64"/>
+      <c r="A69" s="54"/>
+      <c r="B69" s="57"/>
+      <c r="C69" s="59"/>
       <c r="D69" s="2" t="s">
         <v>275</v>
       </c>
@@ -2873,9 +2888,9 @@
       </c>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A70" s="69"/>
-      <c r="B70" s="59"/>
-      <c r="C70" s="65"/>
+      <c r="A70" s="55"/>
+      <c r="B70" s="58"/>
+      <c r="C70" s="49"/>
       <c r="D70" s="2" t="s">
         <v>276</v>
       </c>
@@ -2887,14 +2902,14 @@
       </c>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A71" s="45" t="s">
+      <c r="A71" s="70" t="s">
         <v>29</v>
       </c>
-      <c r="B71" s="45"/>
-      <c r="C71" s="45"/>
-      <c r="D71" s="45"/>
-      <c r="E71" s="45"/>
-      <c r="F71" s="45"/>
+      <c r="B71" s="70"/>
+      <c r="C71" s="70"/>
+      <c r="D71" s="70"/>
+      <c r="E71" s="70"/>
+      <c r="F71" s="70"/>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A72" s="2"/>
@@ -2905,14 +2920,14 @@
       <c r="F72" s="2"/>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A73" s="45" t="s">
+      <c r="A73" s="70" t="s">
         <v>30</v>
       </c>
-      <c r="B73" s="45"/>
-      <c r="C73" s="45"/>
-      <c r="D73" s="45"/>
-      <c r="E73" s="45"/>
-      <c r="F73" s="45"/>
+      <c r="B73" s="70"/>
+      <c r="C73" s="70"/>
+      <c r="D73" s="70"/>
+      <c r="E73" s="70"/>
+      <c r="F73" s="70"/>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A74" s="11"/>
@@ -2951,8 +2966,8 @@
       </c>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A76" s="48"/>
-      <c r="B76" s="46" t="s">
+      <c r="A76" s="76"/>
+      <c r="B76" s="50" t="s">
         <v>156</v>
       </c>
       <c r="C76" s="47" t="s">
@@ -2969,8 +2984,8 @@
       </c>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A77" s="48"/>
-      <c r="B77" s="46"/>
+      <c r="A77" s="76"/>
+      <c r="B77" s="50"/>
       <c r="C77" s="47"/>
       <c r="D77" s="2" t="s">
         <v>18</v>
@@ -3055,8 +3070,8 @@
       </c>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A82" s="70"/>
-      <c r="B82" s="46" t="s">
+      <c r="A82" s="63"/>
+      <c r="B82" s="50" t="s">
         <v>150</v>
       </c>
       <c r="C82" s="47" t="s">
@@ -3073,8 +3088,8 @@
       </c>
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A83" s="70"/>
-      <c r="B83" s="46"/>
+      <c r="A83" s="63"/>
+      <c r="B83" s="50"/>
       <c r="C83" s="47"/>
       <c r="D83" s="2" t="s">
         <v>138</v>
@@ -3087,11 +3102,11 @@
       </c>
     </row>
     <row r="84" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A84" s="52"/>
-      <c r="B84" s="46" t="s">
+      <c r="A84" s="45"/>
+      <c r="B84" s="50" t="s">
         <v>165</v>
       </c>
-      <c r="C84" s="63" t="s">
+      <c r="C84" s="48" t="s">
         <v>166</v>
       </c>
       <c r="D84" s="21" t="s">
@@ -3105,9 +3120,9 @@
       </c>
     </row>
     <row r="85" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A85" s="53"/>
-      <c r="B85" s="46"/>
-      <c r="C85" s="65"/>
+      <c r="A85" s="46"/>
+      <c r="B85" s="50"/>
+      <c r="C85" s="49"/>
       <c r="D85" s="21" t="s">
         <v>18</v>
       </c>
@@ -3119,11 +3134,11 @@
       </c>
     </row>
     <row r="86" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A86" s="60"/>
-      <c r="B86" s="46" t="s">
+      <c r="A86" s="51"/>
+      <c r="B86" s="50" t="s">
         <v>171</v>
       </c>
-      <c r="C86" s="63" t="s">
+      <c r="C86" s="48" t="s">
         <v>169</v>
       </c>
       <c r="D86" s="21" t="s">
@@ -3137,9 +3152,9 @@
       </c>
     </row>
     <row r="87" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A87" s="62"/>
-      <c r="B87" s="46"/>
-      <c r="C87" s="65"/>
+      <c r="A87" s="52"/>
+      <c r="B87" s="50"/>
+      <c r="C87" s="49"/>
       <c r="D87" s="21" t="s">
         <v>18</v>
       </c>
@@ -3151,11 +3166,11 @@
       </c>
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A88" s="52"/>
-      <c r="B88" s="57" t="s">
+      <c r="A88" s="45"/>
+      <c r="B88" s="56" t="s">
         <v>161</v>
       </c>
-      <c r="C88" s="63" t="s">
+      <c r="C88" s="48" t="s">
         <v>162</v>
       </c>
       <c r="D88" s="18" t="s">
@@ -3169,9 +3184,9 @@
       </c>
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A89" s="53"/>
-      <c r="B89" s="59"/>
-      <c r="C89" s="65"/>
+      <c r="A89" s="46"/>
+      <c r="B89" s="58"/>
+      <c r="C89" s="49"/>
       <c r="D89" s="2" t="s">
         <v>18</v>
       </c>
@@ -3219,8 +3234,8 @@
       </c>
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A92" s="66"/>
-      <c r="B92" s="46" t="s">
+      <c r="A92" s="72"/>
+      <c r="B92" s="50" t="s">
         <v>147</v>
       </c>
       <c r="C92" s="47" t="s">
@@ -3237,8 +3252,8 @@
       </c>
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A93" s="66"/>
-      <c r="B93" s="46"/>
+      <c r="A93" s="72"/>
+      <c r="B93" s="50"/>
       <c r="C93" s="47"/>
       <c r="D93" s="2" t="s">
         <v>18</v>
@@ -3251,18 +3266,18 @@
       </c>
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A94" s="45" t="s">
+      <c r="A94" s="70" t="s">
         <v>63</v>
       </c>
-      <c r="B94" s="45"/>
-      <c r="C94" s="45"/>
-      <c r="D94" s="45"/>
-      <c r="E94" s="45"/>
-      <c r="F94" s="45"/>
+      <c r="B94" s="70"/>
+      <c r="C94" s="70"/>
+      <c r="D94" s="70"/>
+      <c r="E94" s="70"/>
+      <c r="F94" s="70"/>
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A95" s="2"/>
-      <c r="B95" s="46" t="s">
+      <c r="B95" s="50" t="s">
         <v>64</v>
       </c>
       <c r="C95" s="47" t="s">
@@ -3280,7 +3295,7 @@
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A96" s="2"/>
-      <c r="B96" s="46"/>
+      <c r="B96" s="50"/>
       <c r="C96" s="47"/>
       <c r="D96" s="2" t="s">
         <v>18</v>
@@ -3294,7 +3309,7 @@
     </row>
     <row r="97" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A97" s="2"/>
-      <c r="B97" s="46" t="s">
+      <c r="B97" s="50" t="s">
         <v>65</v>
       </c>
       <c r="C97" s="47" t="s">
@@ -3312,7 +3327,7 @@
     </row>
     <row r="98" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A98" s="2"/>
-      <c r="B98" s="46"/>
+      <c r="B98" s="50"/>
       <c r="C98" s="47"/>
       <c r="D98" s="2" t="s">
         <v>18</v>
@@ -3362,7 +3377,7 @@
     </row>
     <row r="101" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A101" s="2"/>
-      <c r="B101" s="46" t="s">
+      <c r="B101" s="50" t="s">
         <v>83</v>
       </c>
       <c r="C101" s="47" t="s">
@@ -3380,7 +3395,7 @@
     </row>
     <row r="102" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A102" s="2"/>
-      <c r="B102" s="46"/>
+      <c r="B102" s="50"/>
       <c r="C102" s="47"/>
       <c r="D102" s="2" t="s">
         <v>18</v>
@@ -3394,7 +3409,7 @@
     </row>
     <row r="103" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A103" s="2"/>
-      <c r="B103" s="46" t="s">
+      <c r="B103" s="50" t="s">
         <v>86</v>
       </c>
       <c r="C103" s="47" t="s">
@@ -3412,7 +3427,7 @@
     </row>
     <row r="104" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A104" s="2"/>
-      <c r="B104" s="46"/>
+      <c r="B104" s="50"/>
       <c r="C104" s="47"/>
       <c r="D104" s="2" t="s">
         <v>18</v>
@@ -3433,14 +3448,14 @@
       <c r="F105" s="2"/>
     </row>
     <row r="106" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A106" s="45" t="s">
+      <c r="A106" s="70" t="s">
         <v>88</v>
       </c>
-      <c r="B106" s="45"/>
-      <c r="C106" s="45"/>
-      <c r="D106" s="45"/>
-      <c r="E106" s="45"/>
-      <c r="F106" s="45"/>
+      <c r="B106" s="70"/>
+      <c r="C106" s="70"/>
+      <c r="D106" s="70"/>
+      <c r="E106" s="70"/>
+      <c r="F106" s="70"/>
     </row>
     <row r="107" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A107" s="2"/>
@@ -3477,14 +3492,14 @@
       </c>
     </row>
     <row r="109" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A109" s="45" t="s">
+      <c r="A109" s="70" t="s">
         <v>31</v>
       </c>
-      <c r="B109" s="45"/>
-      <c r="C109" s="45"/>
-      <c r="D109" s="45"/>
-      <c r="E109" s="45"/>
-      <c r="F109" s="45"/>
+      <c r="B109" s="70"/>
+      <c r="C109" s="70"/>
+      <c r="D109" s="70"/>
+      <c r="E109" s="70"/>
+      <c r="F109" s="70"/>
     </row>
     <row r="110" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A110" s="2"/>
@@ -3540,43 +3555,41 @@
       </c>
     </row>
     <row r="113" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A113" s="45" t="s">
+      <c r="A113" s="11"/>
+      <c r="B113" s="2" t="s">
+        <v>287</v>
+      </c>
+      <c r="C113" s="1" t="s">
+        <v>288</v>
+      </c>
+      <c r="D113" s="2" t="s">
+        <v>289</v>
+      </c>
+      <c r="E113" s="2" t="s">
+        <v>290</v>
+      </c>
+      <c r="F113" s="2" t="s">
+        <v>291</v>
+      </c>
+      <c r="G113" s="36"/>
+    </row>
+    <row r="114" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A114" s="70" t="s">
         <v>258</v>
       </c>
-      <c r="B113" s="45"/>
-      <c r="C113" s="45"/>
-      <c r="D113" s="45"/>
-      <c r="E113" s="45"/>
-      <c r="F113" s="45"/>
-    </row>
-    <row r="114" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A114" s="9"/>
-      <c r="B114" s="2" t="s">
+      <c r="B114" s="70"/>
+      <c r="C114" s="70"/>
+      <c r="D114" s="70"/>
+      <c r="E114" s="70"/>
+      <c r="F114" s="70"/>
+    </row>
+    <row r="115" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A115" s="9"/>
+      <c r="B115" s="2" t="s">
         <v>259</v>
       </c>
-      <c r="C114" s="1" t="s">
+      <c r="C115" s="1" t="s">
         <v>260</v>
-      </c>
-      <c r="D114" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="E114" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="F114" s="2" t="s">
-        <v>261</v>
-      </c>
-      <c r="G114" s="39" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="115" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A115" s="10"/>
-      <c r="B115" s="2" t="s">
-        <v>263</v>
-      </c>
-      <c r="C115" s="1" t="s">
-        <v>264</v>
       </c>
       <c r="D115" s="2" t="s">
         <v>50</v>
@@ -3587,187 +3600,238 @@
       <c r="F115" s="2" t="s">
         <v>261</v>
       </c>
-      <c r="G115" s="40"/>
+      <c r="G115" s="39" t="s">
+        <v>262</v>
+      </c>
     </row>
     <row r="116" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A116" s="10"/>
-      <c r="B116" s="2"/>
-      <c r="C116" s="1"/>
-      <c r="D116" s="2"/>
-      <c r="E116" s="2"/>
-      <c r="F116" s="2"/>
+      <c r="B116" s="2" t="s">
+        <v>263</v>
+      </c>
+      <c r="C116" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="D116" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="E116" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F116" s="2" t="s">
+        <v>261</v>
+      </c>
       <c r="G116" s="40"/>
     </row>
     <row r="117" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A117" s="45" t="s">
+      <c r="A117" s="10"/>
+      <c r="B117" s="2"/>
+      <c r="C117" s="1"/>
+      <c r="D117" s="2"/>
+      <c r="E117" s="2"/>
+      <c r="F117" s="2"/>
+      <c r="G117" s="40"/>
+    </row>
+    <row r="118" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A118" s="70" t="s">
         <v>249</v>
       </c>
-      <c r="B117" s="45"/>
-      <c r="C117" s="45"/>
-      <c r="D117" s="45"/>
-      <c r="E117" s="45"/>
-      <c r="F117" s="45"/>
-    </row>
-    <row r="118" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A118" s="9"/>
-      <c r="B118" s="2" t="s">
+      <c r="B118" s="70"/>
+      <c r="C118" s="70"/>
+      <c r="D118" s="70"/>
+      <c r="E118" s="70"/>
+      <c r="F118" s="70"/>
+    </row>
+    <row r="119" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A119" s="9"/>
+      <c r="B119" s="2" t="s">
         <v>265</v>
       </c>
-      <c r="C118" s="1" t="s">
+      <c r="C119" s="1" t="s">
         <v>266</v>
       </c>
-      <c r="D118" s="2" t="s">
+      <c r="D119" s="2" t="s">
         <v>267</v>
       </c>
-      <c r="E118" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="F118" s="2" t="s">
+      <c r="E119" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F119" s="2" t="s">
         <v>268</v>
       </c>
-      <c r="G118" s="40"/>
-    </row>
-    <row r="119" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A119" s="45" t="s">
+      <c r="G119" s="40"/>
+    </row>
+    <row r="120" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A120" s="70" t="s">
         <v>32</v>
       </c>
-      <c r="B119" s="45"/>
-      <c r="C119" s="45"/>
-      <c r="D119" s="45"/>
-      <c r="E119" s="45"/>
-      <c r="F119" s="45"/>
-    </row>
-    <row r="120" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A120" s="2"/>
-      <c r="B120" s="46" t="s">
-        <v>109</v>
-      </c>
-      <c r="C120" s="47" t="s">
-        <v>110</v>
-      </c>
-      <c r="D120" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="E120" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="F120" s="2" t="s">
-        <v>111</v>
-      </c>
+      <c r="B120" s="70"/>
+      <c r="C120" s="70"/>
+      <c r="D120" s="70"/>
+      <c r="E120" s="70"/>
+      <c r="F120" s="70"/>
     </row>
     <row r="121" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A121" s="2"/>
-      <c r="B121" s="46"/>
-      <c r="C121" s="46"/>
+      <c r="B121" s="50" t="s">
+        <v>109</v>
+      </c>
+      <c r="C121" s="47" t="s">
+        <v>110</v>
+      </c>
       <c r="D121" s="2" t="s">
         <v>115</v>
       </c>
       <c r="E121" s="2" t="s">
-        <v>4</v>
+        <v>115</v>
       </c>
       <c r="F121" s="2" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="122" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A122" s="2"/>
-      <c r="B122" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="C122" s="15" t="s">
-        <v>113</v>
-      </c>
+      <c r="B122" s="50"/>
+      <c r="C122" s="50"/>
       <c r="D122" s="2" t="s">
-        <v>18</v>
+        <v>115</v>
       </c>
       <c r="E122" s="2" t="s">
-        <v>39</v>
+        <v>4</v>
       </c>
       <c r="F122" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
     </row>
     <row r="123" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A123" s="2"/>
-      <c r="B123" s="46" t="s">
-        <v>116</v>
-      </c>
-      <c r="C123" s="47" t="s">
-        <v>117</v>
+      <c r="B123" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="C123" s="15" t="s">
+        <v>113</v>
       </c>
       <c r="D123" s="2" t="s">
-        <v>50</v>
+        <v>18</v>
       </c>
       <c r="E123" s="2" t="s">
         <v>39</v>
       </c>
       <c r="F123" s="2" t="s">
-        <v>118</v>
+        <v>111</v>
       </c>
     </row>
     <row r="124" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A124" s="2"/>
-      <c r="B124" s="46"/>
-      <c r="C124" s="47"/>
+      <c r="B124" s="50" t="s">
+        <v>116</v>
+      </c>
+      <c r="C124" s="47" t="s">
+        <v>117</v>
+      </c>
       <c r="D124" s="2" t="s">
-        <v>18</v>
+        <v>50</v>
       </c>
       <c r="E124" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="F124" s="13" t="s">
+      <c r="F124" s="2" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="125" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A125" s="2"/>
+      <c r="B125" s="50"/>
+      <c r="C125" s="47"/>
+      <c r="D125" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E125" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="F125" s="13" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="125" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A125" s="45" t="s">
+    <row r="126" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A126" s="70" t="s">
         <v>33</v>
       </c>
-      <c r="B125" s="45"/>
-      <c r="C125" s="45"/>
-      <c r="D125" s="45"/>
-      <c r="E125" s="45"/>
-      <c r="F125" s="45"/>
-    </row>
-    <row r="126" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A126" s="2"/>
-      <c r="B126" s="2"/>
-      <c r="C126" s="2"/>
-      <c r="D126" s="2"/>
-      <c r="E126" s="2"/>
-      <c r="F126" s="2"/>
-    </row>
-    <row r="128" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="F128" s="34" t="s">
-        <v>153</v>
-      </c>
+      <c r="B126" s="70"/>
+      <c r="C126" s="70"/>
+      <c r="D126" s="70"/>
+      <c r="E126" s="70"/>
+      <c r="F126" s="70"/>
+    </row>
+    <row r="127" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A127" s="2"/>
+      <c r="B127" s="2"/>
+      <c r="C127" s="2"/>
+      <c r="D127" s="2"/>
+      <c r="E127" s="2"/>
+      <c r="F127" s="2"/>
     </row>
     <row r="129" spans="6:6" x14ac:dyDescent="0.35">
       <c r="F129" s="34" t="s">
-        <v>217</v>
+        <v>153</v>
       </c>
     </row>
     <row r="130" spans="6:6" x14ac:dyDescent="0.35">
       <c r="F130" s="34" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="131" spans="6:6" x14ac:dyDescent="0.35">
+      <c r="F131" s="34" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="131" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F131" s="36" t="s">
+    <row r="132" spans="6:6" x14ac:dyDescent="0.35">
+      <c r="F132" s="36" t="s">
         <v>226</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="64">
-    <mergeCell ref="A88:A89"/>
-    <mergeCell ref="C76:C77"/>
-    <mergeCell ref="C88:C89"/>
-    <mergeCell ref="A84:A85"/>
-    <mergeCell ref="B84:B85"/>
-    <mergeCell ref="C84:C85"/>
-    <mergeCell ref="A86:A87"/>
-    <mergeCell ref="C86:C87"/>
-    <mergeCell ref="B86:B87"/>
+    <mergeCell ref="A126:F126"/>
+    <mergeCell ref="A71:F71"/>
+    <mergeCell ref="A73:F73"/>
+    <mergeCell ref="A94:F94"/>
+    <mergeCell ref="A106:F106"/>
+    <mergeCell ref="B95:B96"/>
+    <mergeCell ref="C95:C96"/>
+    <mergeCell ref="B97:B98"/>
+    <mergeCell ref="C97:C98"/>
+    <mergeCell ref="B101:B102"/>
+    <mergeCell ref="C101:C102"/>
+    <mergeCell ref="B121:B122"/>
+    <mergeCell ref="C121:C122"/>
+    <mergeCell ref="A76:A77"/>
+    <mergeCell ref="B76:B77"/>
+    <mergeCell ref="B82:B83"/>
+    <mergeCell ref="A2:F2"/>
+    <mergeCell ref="A11:F11"/>
+    <mergeCell ref="A20:F20"/>
+    <mergeCell ref="A30:F30"/>
+    <mergeCell ref="A36:A37"/>
+    <mergeCell ref="A32:F32"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="B36:B37"/>
+    <mergeCell ref="C36:C37"/>
+    <mergeCell ref="A92:A93"/>
+    <mergeCell ref="B92:B93"/>
+    <mergeCell ref="C92:C93"/>
+    <mergeCell ref="A114:F114"/>
+    <mergeCell ref="A120:F120"/>
+    <mergeCell ref="A109:F109"/>
+    <mergeCell ref="A118:F118"/>
+    <mergeCell ref="C53:C59"/>
+    <mergeCell ref="B124:B125"/>
+    <mergeCell ref="C124:C125"/>
+    <mergeCell ref="C103:C104"/>
+    <mergeCell ref="B103:B104"/>
+    <mergeCell ref="B88:B89"/>
     <mergeCell ref="A42:A45"/>
     <mergeCell ref="B42:B45"/>
     <mergeCell ref="C42:C45"/>
@@ -3784,45 +3848,15 @@
     <mergeCell ref="A63:F63"/>
     <mergeCell ref="B53:B59"/>
     <mergeCell ref="A53:A59"/>
-    <mergeCell ref="C53:C59"/>
-    <mergeCell ref="B123:B124"/>
-    <mergeCell ref="C123:C124"/>
-    <mergeCell ref="C103:C104"/>
-    <mergeCell ref="B103:B104"/>
-    <mergeCell ref="A92:A93"/>
-    <mergeCell ref="B92:B93"/>
-    <mergeCell ref="C92:C93"/>
-    <mergeCell ref="A113:F113"/>
-    <mergeCell ref="A119:F119"/>
-    <mergeCell ref="A109:F109"/>
-    <mergeCell ref="A117:F117"/>
-    <mergeCell ref="B88:B89"/>
-    <mergeCell ref="A2:F2"/>
-    <mergeCell ref="A11:F11"/>
-    <mergeCell ref="A20:F20"/>
-    <mergeCell ref="A30:F30"/>
-    <mergeCell ref="A36:A37"/>
-    <mergeCell ref="A32:F32"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="C5:C6"/>
-    <mergeCell ref="B36:B37"/>
-    <mergeCell ref="C36:C37"/>
-    <mergeCell ref="A125:F125"/>
-    <mergeCell ref="A71:F71"/>
-    <mergeCell ref="A73:F73"/>
-    <mergeCell ref="A94:F94"/>
-    <mergeCell ref="A106:F106"/>
-    <mergeCell ref="B95:B96"/>
-    <mergeCell ref="C95:C96"/>
-    <mergeCell ref="B97:B98"/>
-    <mergeCell ref="C97:C98"/>
-    <mergeCell ref="B101:B102"/>
-    <mergeCell ref="C101:C102"/>
-    <mergeCell ref="B120:B121"/>
-    <mergeCell ref="C120:C121"/>
-    <mergeCell ref="A76:A77"/>
-    <mergeCell ref="B76:B77"/>
-    <mergeCell ref="B82:B83"/>
+    <mergeCell ref="A88:A89"/>
+    <mergeCell ref="C76:C77"/>
+    <mergeCell ref="C88:C89"/>
+    <mergeCell ref="A84:A85"/>
+    <mergeCell ref="B84:B85"/>
+    <mergeCell ref="C84:C85"/>
+    <mergeCell ref="A86:A87"/>
+    <mergeCell ref="C86:C87"/>
+    <mergeCell ref="B86:B87"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="C3" r:id="rId1" xr:uid="{3FB3FA06-DE47-4C2D-AFD7-F5FC45E3D126}"/>
@@ -3838,9 +3872,9 @@
     <hyperlink ref="C107" r:id="rId11" xr:uid="{914A5C5A-20B3-4526-A460-020F9852AFDB}"/>
     <hyperlink ref="C108" r:id="rId12" xr:uid="{0B2D15B8-18BF-46A5-991E-6E53ADC95851}"/>
     <hyperlink ref="C33" r:id="rId13" xr:uid="{93A177B9-936F-4ED5-9F32-EB31F0D8F614}"/>
-    <hyperlink ref="C120" r:id="rId14" xr:uid="{9CD2E86C-B1BA-4CC3-9E52-ECA767380715}"/>
-    <hyperlink ref="C122" r:id="rId15" xr:uid="{30EBB8AD-10BE-47B9-BF85-DBCCCE948784}"/>
-    <hyperlink ref="F124" r:id="rId16" xr:uid="{080A2B1B-6640-47F1-9DAB-1F0914BD9938}"/>
+    <hyperlink ref="C121" r:id="rId14" xr:uid="{9CD2E86C-B1BA-4CC3-9E52-ECA767380715}"/>
+    <hyperlink ref="C123" r:id="rId15" xr:uid="{30EBB8AD-10BE-47B9-BF85-DBCCCE948784}"/>
+    <hyperlink ref="F125" r:id="rId16" xr:uid="{080A2B1B-6640-47F1-9DAB-1F0914BD9938}"/>
     <hyperlink ref="C74" r:id="rId17" xr:uid="{DD8AB0F8-5B5E-4F6E-A0B4-339B324BDAC3}"/>
     <hyperlink ref="C8" r:id="rId18" xr:uid="{43B67C49-DC70-412F-B095-E684E07FF196}"/>
     <hyperlink ref="C84" r:id="rId19" xr:uid="{7FDCAB78-56F5-40D3-8A09-8A8A0E54E05D}"/>
@@ -3857,7 +3891,7 @@
     <hyperlink ref="G33" r:id="rId30" display="https://leetcode.com/problems/meeting-rooms/" xr:uid="{8849EA4F-0A54-4D57-AE19-19728A56318A}"/>
     <hyperlink ref="G34" r:id="rId31" display="https://leetcode.com/problems/meeting-rooms-ii/" xr:uid="{DD819D71-EB3C-4BD3-BA6C-25223B20391D}"/>
     <hyperlink ref="C17" r:id="rId32" xr:uid="{6062919D-9F53-4AD6-A2BA-CE01278187C7}"/>
-    <hyperlink ref="C114" r:id="rId33" xr:uid="{7B7426B5-0217-46DE-ABCD-A2F2DDDDFB2A}"/>
+    <hyperlink ref="C115" r:id="rId33" xr:uid="{7B7426B5-0217-46DE-ABCD-A2F2DDDDFB2A}"/>
     <hyperlink ref="C66" r:id="rId34" xr:uid="{620ED6F1-6752-463C-AA48-4B6A185A8D46}"/>
     <hyperlink ref="C68" r:id="rId35" xr:uid="{031A9508-DB97-4A6A-8854-D213EDA454B4}"/>
   </hyperlinks>
